--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -3988,7 +3988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4956,7 +4956,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6929,55 +6928,55 @@
   </cols>
   <sheetData>
     <row r="1" ht="55" spans="1:9">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="361" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="362" t="s">
+      <c r="B1" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="363" t="s">
+      <c r="C1" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="363" t="s">
+      <c r="D1" s="362" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="363" t="s">
+      <c r="E1" s="362" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="362" t="s">
+      <c r="F1" s="361" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="366" t="s">
+      <c r="G1" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="367" t="s">
+      <c r="H1" s="366" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="92"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="363" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="364" t="s">
+      <c r="B2" s="363" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="365">
+      <c r="C2" s="364">
         <v>24.93</v>
       </c>
-      <c r="D2" s="365">
+      <c r="D2" s="364">
         <v>1.548</v>
       </c>
-      <c r="E2" s="365">
+      <c r="E2" s="364">
         <v>704.193548387097</v>
       </c>
-      <c r="F2" s="364" t="s">
+      <c r="F2" s="363" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="368" t="s">
+      <c r="G2" s="367" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="368" t="s">
+      <c r="H2" s="367" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="92">
@@ -6986,28 +6985,28 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="364" t="s">
+      <c r="A3" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="364" t="s">
+      <c r="B3" s="363" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="365">
+      <c r="C3" s="364">
         <v>23.9</v>
       </c>
-      <c r="D3" s="365">
+      <c r="D3" s="364">
         <v>1.963</v>
       </c>
-      <c r="E3" s="365">
+      <c r="E3" s="364">
         <v>656.329113924051</v>
       </c>
-      <c r="F3" s="364" t="s">
+      <c r="F3" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="368" t="s">
+      <c r="G3" s="367" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="368" t="s">
+      <c r="H3" s="367" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="92">
@@ -7016,28 +7015,28 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="364" t="s">
+      <c r="A4" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="364" t="s">
+      <c r="B4" s="363" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="365">
+      <c r="C4" s="364">
         <v>287.9</v>
       </c>
-      <c r="D4" s="365">
+      <c r="D4" s="364">
         <v>4.801</v>
       </c>
-      <c r="E4" s="365">
+      <c r="E4" s="364">
         <v>647.986489997402</v>
       </c>
-      <c r="F4" s="364" t="s">
+      <c r="F4" s="363" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="368" t="s">
+      <c r="G4" s="367" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="368" t="s">
+      <c r="H4" s="367" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="92">
@@ -7046,28 +7045,28 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="364" t="s">
+      <c r="A5" s="363" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="364" t="s">
+      <c r="B5" s="363" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="365">
+      <c r="C5" s="364">
         <v>86.94</v>
       </c>
-      <c r="D5" s="365">
+      <c r="D5" s="364">
         <v>4.621</v>
       </c>
-      <c r="E5" s="365">
+      <c r="E5" s="364">
         <v>573.953488372093</v>
       </c>
-      <c r="F5" s="364" t="s">
+      <c r="F5" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="368" t="s">
+      <c r="G5" s="367" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="368" t="s">
+      <c r="H5" s="367" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="92">
@@ -7076,28 +7075,28 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="364" t="s">
+      <c r="A6" s="363" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="364" t="s">
+      <c r="B6" s="363" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="365">
+      <c r="C6" s="364">
         <v>60.42</v>
       </c>
-      <c r="D6" s="365">
+      <c r="D6" s="364">
         <v>3.636</v>
       </c>
-      <c r="E6" s="365">
+      <c r="E6" s="364">
         <v>527.414330218068</v>
       </c>
-      <c r="F6" s="364" t="s">
+      <c r="F6" s="363" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="368" t="s">
+      <c r="G6" s="367" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="368" t="s">
+      <c r="H6" s="367" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="92">
@@ -7106,28 +7105,28 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="364" t="s">
+      <c r="A7" s="363" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="364" t="s">
+      <c r="B7" s="363" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="365">
+      <c r="C7" s="364">
         <v>20.51</v>
       </c>
-      <c r="D7" s="365">
+      <c r="D7" s="364">
         <v>2.091</v>
       </c>
-      <c r="E7" s="365">
+      <c r="E7" s="364">
         <v>449.865951742627</v>
       </c>
-      <c r="F7" s="364" t="s">
+      <c r="F7" s="363" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="368" t="s">
+      <c r="G7" s="367" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="368" t="s">
+      <c r="H7" s="367" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="92">
@@ -7136,28 +7135,28 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="364" t="s">
+      <c r="A8" s="363" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="364" t="s">
+      <c r="B8" s="363" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="365">
+      <c r="C8" s="364">
         <v>30.27</v>
       </c>
-      <c r="D8" s="365">
+      <c r="D8" s="364">
         <v>-0.296</v>
       </c>
-      <c r="E8" s="365">
+      <c r="E8" s="364">
         <v>444.424460431655</v>
       </c>
-      <c r="F8" s="364" t="s">
+      <c r="F8" s="363" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="368" t="s">
+      <c r="G8" s="367" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="368" t="s">
+      <c r="H8" s="367" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="92">
@@ -7166,28 +7165,28 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="364" t="s">
+      <c r="A9" s="363" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="364" t="s">
+      <c r="B9" s="363" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="365">
+      <c r="C9" s="364">
         <v>83.72</v>
       </c>
-      <c r="D9" s="365">
+      <c r="D9" s="364">
         <v>2.774</v>
       </c>
-      <c r="E9" s="365">
+      <c r="E9" s="364">
         <v>434.269304403318</v>
       </c>
-      <c r="F9" s="364" t="s">
+      <c r="F9" s="363" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="368" t="s">
+      <c r="G9" s="367" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="368" t="s">
+      <c r="H9" s="367" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="92">
@@ -7196,28 +7195,28 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="364" t="s">
+      <c r="A10" s="363" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="364" t="s">
+      <c r="B10" s="363" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="365">
+      <c r="C10" s="364">
         <v>53.52</v>
       </c>
-      <c r="D10" s="365">
+      <c r="D10" s="364">
         <v>10.01</v>
       </c>
-      <c r="E10" s="365">
+      <c r="E10" s="364">
         <v>432.537313432836</v>
       </c>
-      <c r="F10" s="364" t="s">
+      <c r="F10" s="363" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="368" t="s">
+      <c r="G10" s="367" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="368" t="s">
+      <c r="H10" s="367" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="92">
@@ -7226,28 +7225,28 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="364" t="s">
+      <c r="A11" s="363" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="364" t="s">
+      <c r="B11" s="363" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="365">
+      <c r="C11" s="364">
         <v>29.61</v>
       </c>
-      <c r="D11" s="365">
+      <c r="D11" s="364">
         <v>0.271</v>
       </c>
-      <c r="E11" s="365">
+      <c r="E11" s="364">
         <v>408.762886597938</v>
       </c>
-      <c r="F11" s="364" t="s">
+      <c r="F11" s="363" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="368" t="s">
+      <c r="G11" s="367" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="368" t="s">
+      <c r="H11" s="367" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="92">
@@ -7256,28 +7255,28 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="364" t="s">
+      <c r="A12" s="363" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="364" t="s">
+      <c r="B12" s="363" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="365">
+      <c r="C12" s="364">
         <v>27.46</v>
       </c>
-      <c r="D12" s="365">
+      <c r="D12" s="364">
         <v>0.109</v>
       </c>
-      <c r="E12" s="365">
+      <c r="E12" s="364">
         <v>402.930402930403</v>
       </c>
-      <c r="F12" s="364" t="s">
+      <c r="F12" s="363" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="368" t="s">
+      <c r="G12" s="367" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="368" t="s">
+      <c r="H12" s="367" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="92">
@@ -7286,28 +7285,28 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="364" t="s">
+      <c r="A13" s="363" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="364" t="s">
+      <c r="B13" s="363" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="365">
+      <c r="C13" s="364">
         <v>43.9</v>
       </c>
-      <c r="D13" s="365">
+      <c r="D13" s="364">
         <v>6.528</v>
       </c>
-      <c r="E13" s="365">
+      <c r="E13" s="364">
         <v>400.455996352029</v>
       </c>
-      <c r="F13" s="364" t="s">
+      <c r="F13" s="363" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="368" t="s">
+      <c r="G13" s="367" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="368" t="s">
+      <c r="H13" s="367" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="92">
@@ -7316,28 +7315,28 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="364" t="s">
+      <c r="A14" s="363" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="364" t="s">
+      <c r="B14" s="363" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="365">
+      <c r="C14" s="364">
         <v>98.2</v>
       </c>
-      <c r="D14" s="365">
+      <c r="D14" s="364">
         <v>0.102</v>
       </c>
-      <c r="E14" s="365">
+      <c r="E14" s="364">
         <v>397.971602434077</v>
       </c>
-      <c r="F14" s="364" t="s">
+      <c r="F14" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="368" t="s">
+      <c r="G14" s="367" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="368" t="s">
+      <c r="H14" s="367" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="92">
@@ -7346,28 +7345,28 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="364" t="s">
+      <c r="A15" s="363" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="364" t="s">
+      <c r="B15" s="363" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="365">
+      <c r="C15" s="364">
         <v>8.19</v>
       </c>
-      <c r="D15" s="365">
+      <c r="D15" s="364">
         <v>0.122</v>
       </c>
-      <c r="E15" s="365">
+      <c r="E15" s="364">
         <v>390.595423505451</v>
       </c>
-      <c r="F15" s="364" t="s">
+      <c r="F15" s="363" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="368" t="s">
+      <c r="H15" s="367" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="92">
@@ -7376,28 +7375,28 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="364" t="s">
+      <c r="A16" s="363" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="364" t="s">
+      <c r="B16" s="363" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="365">
+      <c r="C16" s="364">
         <v>46.67</v>
       </c>
-      <c r="D16" s="365">
+      <c r="D16" s="364">
         <v>-2.527</v>
       </c>
-      <c r="E16" s="365">
+      <c r="E16" s="364">
         <v>390.231092436975</v>
       </c>
-      <c r="F16" s="364" t="s">
+      <c r="F16" s="363" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="368" t="s">
+      <c r="G16" s="367" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="368" t="s">
+      <c r="H16" s="367" t="s">
         <v>67</v>
       </c>
       <c r="I16" s="92">
@@ -7406,28 +7405,28 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="364" t="s">
+      <c r="A17" s="363" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="364" t="s">
+      <c r="B17" s="363" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="365">
+      <c r="C17" s="364">
         <v>139.05</v>
       </c>
-      <c r="D17" s="365">
+      <c r="D17" s="364">
         <v>4.943</v>
       </c>
-      <c r="E17" s="365">
+      <c r="E17" s="364">
         <v>381.141868512111</v>
       </c>
-      <c r="F17" s="364" t="s">
+      <c r="F17" s="363" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="368" t="s">
+      <c r="G17" s="367" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="368" t="s">
+      <c r="H17" s="367" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="92">
@@ -7436,28 +7435,28 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="364" t="s">
+      <c r="A18" s="363" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="364" t="s">
+      <c r="B18" s="363" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="365">
+      <c r="C18" s="364">
         <v>78.3</v>
       </c>
-      <c r="D18" s="365">
+      <c r="D18" s="364">
         <v>3.407</v>
       </c>
-      <c r="E18" s="365">
+      <c r="E18" s="364">
         <v>373.111782477341</v>
       </c>
-      <c r="F18" s="364" t="s">
+      <c r="F18" s="363" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="368" t="s">
+      <c r="G18" s="367" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="368" t="s">
+      <c r="H18" s="367" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="92">
@@ -7466,28 +7465,28 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="364" t="s">
+      <c r="A19" s="363" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="364" t="s">
+      <c r="B19" s="363" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="365">
+      <c r="C19" s="364">
         <v>31.21</v>
       </c>
-      <c r="D19" s="365">
+      <c r="D19" s="364">
         <v>-0.032</v>
       </c>
-      <c r="E19" s="365">
+      <c r="E19" s="364">
         <v>351.92586156965</v>
       </c>
-      <c r="F19" s="364" t="s">
+      <c r="F19" s="363" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="368" t="s">
+      <c r="G19" s="367" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="368" t="s">
+      <c r="H19" s="367" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="92">
@@ -7496,28 +7495,28 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="364" t="s">
+      <c r="A20" s="363" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="364" t="s">
+      <c r="B20" s="363" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="365">
+      <c r="C20" s="364">
         <v>25.22</v>
       </c>
-      <c r="D20" s="365">
+      <c r="D20" s="364">
         <v>9.987</v>
       </c>
-      <c r="E20" s="365">
+      <c r="E20" s="364">
         <v>342.456140350877</v>
       </c>
-      <c r="F20" s="364" t="s">
+      <c r="F20" s="363" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="368" t="s">
+      <c r="G20" s="367" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="368" t="s">
+      <c r="H20" s="367" t="s">
         <v>83</v>
       </c>
       <c r="I20" s="92">
@@ -7526,28 +7525,28 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="364" t="s">
+      <c r="A21" s="363" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="364" t="s">
+      <c r="B21" s="363" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="365">
+      <c r="C21" s="364">
         <v>136.1</v>
       </c>
-      <c r="D21" s="365">
+      <c r="D21" s="364">
         <v>3.656</v>
       </c>
-      <c r="E21" s="365">
+      <c r="E21" s="364">
         <v>340.595662026546</v>
       </c>
-      <c r="F21" s="364" t="s">
+      <c r="F21" s="363" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="368" t="s">
+      <c r="G21" s="367" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="368" t="s">
+      <c r="H21" s="367" t="s">
         <v>87</v>
       </c>
       <c r="I21" s="92">
@@ -7556,28 +7555,28 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="364" t="s">
+      <c r="A22" s="363" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="364" t="s">
+      <c r="B22" s="363" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="365">
+      <c r="C22" s="364">
         <v>197.8</v>
       </c>
-      <c r="D22" s="365">
+      <c r="D22" s="364">
         <v>6.413</v>
       </c>
-      <c r="E22" s="365">
+      <c r="E22" s="364">
         <v>318.181818181818</v>
       </c>
-      <c r="F22" s="364" t="s">
+      <c r="F22" s="363" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="368" t="s">
+      <c r="G22" s="367" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="368" t="s">
+      <c r="H22" s="367" t="s">
         <v>91</v>
       </c>
       <c r="I22" s="92">
@@ -7586,28 +7585,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="364" t="s">
+      <c r="A23" s="363" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="364" t="s">
+      <c r="B23" s="363" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="365">
+      <c r="C23" s="364">
         <v>53.57</v>
       </c>
-      <c r="D23" s="365">
+      <c r="D23" s="364">
         <v>0.847</v>
       </c>
-      <c r="E23" s="365">
+      <c r="E23" s="364">
         <v>315.593483320403</v>
       </c>
-      <c r="F23" s="364" t="s">
+      <c r="F23" s="363" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="368" t="s">
+      <c r="G23" s="367" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="368" t="s">
+      <c r="H23" s="367" t="s">
         <v>95</v>
       </c>
       <c r="I23" s="92">
@@ -7616,28 +7615,28 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="364" t="s">
+      <c r="A24" s="363" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="364" t="s">
+      <c r="B24" s="363" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="365">
+      <c r="C24" s="364">
         <v>26.71</v>
       </c>
-      <c r="D24" s="365">
+      <c r="D24" s="364">
         <v>1.289</v>
       </c>
-      <c r="E24" s="365">
+      <c r="E24" s="364">
         <v>314.108527131783</v>
       </c>
-      <c r="F24" s="364" t="s">
+      <c r="F24" s="363" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="368" t="s">
+      <c r="G24" s="367" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="368" t="s">
+      <c r="H24" s="367" t="s">
         <v>99</v>
       </c>
       <c r="I24" s="92">
@@ -7646,28 +7645,28 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="364" t="s">
+      <c r="A25" s="363" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="364" t="s">
+      <c r="B25" s="363" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="365">
+      <c r="C25" s="364">
         <v>71.69</v>
       </c>
-      <c r="D25" s="365">
+      <c r="D25" s="364">
         <v>0.252</v>
       </c>
-      <c r="E25" s="365">
+      <c r="E25" s="364">
         <v>309.89136649514</v>
       </c>
-      <c r="F25" s="364" t="s">
+      <c r="F25" s="363" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="368" t="s">
+      <c r="G25" s="367" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="368" t="s">
+      <c r="H25" s="367" t="s">
         <v>103</v>
       </c>
       <c r="I25" s="92">
@@ -7676,28 +7675,28 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="364" t="s">
+      <c r="A26" s="363" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="364" t="s">
+      <c r="B26" s="363" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="365">
+      <c r="C26" s="364">
         <v>52.47</v>
       </c>
-      <c r="D26" s="365">
+      <c r="D26" s="364">
         <v>1.176</v>
       </c>
-      <c r="E26" s="365">
+      <c r="E26" s="364">
         <v>304.548959136469</v>
       </c>
-      <c r="F26" s="364" t="s">
+      <c r="F26" s="363" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="368" t="s">
+      <c r="G26" s="367" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="368" t="s">
+      <c r="H26" s="367" t="s">
         <v>107</v>
       </c>
       <c r="I26" s="92">
@@ -7706,28 +7705,28 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="364" t="s">
+      <c r="A27" s="363" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="364" t="s">
+      <c r="B27" s="363" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="365">
+      <c r="C27" s="364">
         <v>26.5</v>
       </c>
-      <c r="D27" s="365">
+      <c r="D27" s="364">
         <v>0.991</v>
       </c>
-      <c r="E27" s="365">
+      <c r="E27" s="364">
         <v>303.963414634146</v>
       </c>
-      <c r="F27" s="364" t="s">
+      <c r="F27" s="363" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="368" t="s">
+      <c r="G27" s="367" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="368" t="s">
+      <c r="H27" s="367" t="s">
         <v>111</v>
       </c>
       <c r="I27" s="92">
@@ -7736,28 +7735,28 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="364" t="s">
+      <c r="A28" s="363" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="364" t="s">
+      <c r="B28" s="363" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="365">
+      <c r="C28" s="364">
         <v>126</v>
       </c>
-      <c r="D28" s="365">
+      <c r="D28" s="364">
         <v>3.287</v>
       </c>
-      <c r="E28" s="365">
+      <c r="E28" s="364">
         <v>299.873056172644</v>
       </c>
-      <c r="F28" s="364" t="s">
+      <c r="F28" s="363" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="368" t="s">
+      <c r="G28" s="367" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="368" t="s">
+      <c r="H28" s="367" t="s">
         <v>115</v>
       </c>
       <c r="I28" s="92">
@@ -7766,28 +7765,28 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="364" t="s">
+      <c r="A29" s="363" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="364" t="s">
+      <c r="B29" s="363" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="365">
+      <c r="C29" s="364">
         <v>59.54</v>
       </c>
-      <c r="D29" s="365">
+      <c r="D29" s="364">
         <v>3.764</v>
       </c>
-      <c r="E29" s="365">
+      <c r="E29" s="364">
         <v>296.794107330754</v>
       </c>
-      <c r="F29" s="364" t="s">
+      <c r="F29" s="363" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="368" t="s">
+      <c r="G29" s="367" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="368" t="s">
+      <c r="H29" s="367" t="s">
         <v>119</v>
       </c>
       <c r="I29" s="92">
@@ -7796,28 +7795,28 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="364" t="s">
+      <c r="A30" s="363" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="364" t="s">
+      <c r="B30" s="363" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="365">
+      <c r="C30" s="364">
         <v>16.63</v>
       </c>
-      <c r="D30" s="365">
+      <c r="D30" s="364">
         <v>-0.894</v>
       </c>
-      <c r="E30" s="365">
+      <c r="E30" s="364">
         <v>295.011876484561</v>
       </c>
-      <c r="F30" s="364" t="s">
+      <c r="F30" s="363" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="368" t="s">
+      <c r="G30" s="367" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="368" t="s">
+      <c r="H30" s="367" t="s">
         <v>123</v>
       </c>
       <c r="I30" s="92">
@@ -7826,28 +7825,28 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="364" t="s">
+      <c r="A31" s="363" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="364" t="s">
+      <c r="B31" s="363" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="365">
+      <c r="C31" s="364">
         <v>142.1</v>
       </c>
-      <c r="D31" s="365">
+      <c r="D31" s="364">
         <v>1.067</v>
       </c>
-      <c r="E31" s="365">
+      <c r="E31" s="364">
         <v>293.737877528401</v>
       </c>
-      <c r="F31" s="364" t="s">
+      <c r="F31" s="363" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="368" t="s">
+      <c r="G31" s="367" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="368" t="s">
+      <c r="H31" s="367" t="s">
         <v>127</v>
       </c>
       <c r="I31" s="92">
@@ -7856,28 +7855,28 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="364" t="s">
+      <c r="A32" s="363" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="364" t="s">
+      <c r="B32" s="363" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="365">
+      <c r="C32" s="364">
         <v>32.71</v>
       </c>
-      <c r="D32" s="365">
+      <c r="D32" s="364">
         <v>3.447</v>
       </c>
-      <c r="E32" s="365">
+      <c r="E32" s="364">
         <v>293.149038461538</v>
       </c>
-      <c r="F32" s="364" t="s">
+      <c r="F32" s="363" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="368" t="s">
+      <c r="G32" s="367" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="368" t="s">
+      <c r="H32" s="367" t="s">
         <v>131</v>
       </c>
       <c r="I32" s="92">
@@ -7886,1500 +7885,1500 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="364" t="s">
+      <c r="A33" s="363" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="364" t="s">
+      <c r="B33" s="363" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="365">
+      <c r="C33" s="364">
         <v>23.13</v>
       </c>
-      <c r="D33" s="365">
+      <c r="D33" s="364">
         <v>1.27</v>
       </c>
-      <c r="E33" s="365">
+      <c r="E33" s="364">
         <v>291.370558375634</v>
       </c>
-      <c r="F33" s="364" t="s">
+      <c r="F33" s="363" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="368" t="s">
+      <c r="G33" s="367" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="92"/>
       <c r="I33" s="92"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="364" t="s">
+      <c r="A34" s="363" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="364" t="s">
+      <c r="B34" s="363" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="365">
+      <c r="C34" s="364">
         <v>15.71</v>
       </c>
-      <c r="D34" s="365">
+      <c r="D34" s="364">
         <v>10.014</v>
       </c>
-      <c r="E34" s="365">
+      <c r="E34" s="364">
         <v>289.826302729528</v>
       </c>
-      <c r="F34" s="364" t="s">
+      <c r="F34" s="363" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="368" t="s">
+      <c r="G34" s="367" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="92"/>
       <c r="I34" s="92"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="364" t="s">
+      <c r="A35" s="363" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="364" t="s">
+      <c r="B35" s="363" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="365">
+      <c r="C35" s="364">
         <v>15.09</v>
       </c>
-      <c r="D35" s="365">
+      <c r="D35" s="364">
         <v>-3.947</v>
       </c>
-      <c r="E35" s="365">
+      <c r="E35" s="364">
         <v>288.917525773196</v>
       </c>
-      <c r="F35" s="364" t="s">
+      <c r="F35" s="363" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="368" t="s">
+      <c r="G35" s="367" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="92"/>
       <c r="I35" s="92"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="364" t="s">
+      <c r="A36" s="363" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="364" t="s">
+      <c r="B36" s="363" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="365">
+      <c r="C36" s="364">
         <v>92.41</v>
       </c>
-      <c r="D36" s="365">
+      <c r="D36" s="364">
         <v>9.999</v>
       </c>
-      <c r="E36" s="365">
+      <c r="E36" s="364">
         <v>288.76735380732</v>
       </c>
-      <c r="F36" s="364" t="s">
+      <c r="F36" s="363" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="368" t="s">
+      <c r="G36" s="367" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="92"/>
       <c r="I36" s="92"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="364" t="s">
+      <c r="A37" s="363" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="364" t="s">
+      <c r="B37" s="363" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="365">
+      <c r="C37" s="364">
         <v>196.55</v>
       </c>
-      <c r="D37" s="365">
+      <c r="D37" s="364">
         <v>5.757</v>
       </c>
-      <c r="E37" s="365">
+      <c r="E37" s="364">
         <v>286.985627091947</v>
       </c>
-      <c r="F37" s="364" t="s">
+      <c r="F37" s="363" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="368" t="s">
+      <c r="G37" s="367" t="s">
         <v>31</v>
       </c>
       <c r="H37" s="92"/>
       <c r="I37" s="92"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="364" t="s">
+      <c r="A38" s="363" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="364" t="s">
+      <c r="B38" s="363" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="365">
+      <c r="C38" s="364">
         <v>28.59</v>
       </c>
-      <c r="D38" s="365">
+      <c r="D38" s="364">
         <v>5.304</v>
       </c>
-      <c r="E38" s="365">
+      <c r="E38" s="364">
         <v>286.874154262517</v>
       </c>
-      <c r="F38" s="364" t="s">
+      <c r="F38" s="363" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="368" t="s">
+      <c r="G38" s="367" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="92"/>
       <c r="I38" s="92"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="364" t="s">
+      <c r="A39" s="363" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="364" t="s">
+      <c r="B39" s="363" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="365">
+      <c r="C39" s="364">
         <v>29.1</v>
       </c>
-      <c r="D39" s="365">
+      <c r="D39" s="364">
         <v>-1.954</v>
       </c>
-      <c r="E39" s="365">
+      <c r="E39" s="364">
         <v>277.431906614786</v>
       </c>
-      <c r="F39" s="364" t="s">
+      <c r="F39" s="363" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="368" t="s">
+      <c r="G39" s="367" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="92"/>
       <c r="I39" s="92"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="364" t="s">
+      <c r="A40" s="363" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="364" t="s">
+      <c r="B40" s="363" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="365">
+      <c r="C40" s="364">
         <v>33.77</v>
       </c>
-      <c r="D40" s="365">
+      <c r="D40" s="364">
         <v>10</v>
       </c>
-      <c r="E40" s="365">
+      <c r="E40" s="364">
         <v>276.897321428571</v>
       </c>
-      <c r="F40" s="364" t="s">
+      <c r="F40" s="363" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="368" t="s">
+      <c r="G40" s="367" t="s">
         <v>79</v>
       </c>
       <c r="H40" s="92"/>
       <c r="I40" s="92"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="364" t="s">
+      <c r="A41" s="363" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="364" t="s">
+      <c r="B41" s="363" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="365">
+      <c r="C41" s="364">
         <v>69.29</v>
       </c>
-      <c r="D41" s="365">
+      <c r="D41" s="364">
         <v>2.334</v>
       </c>
-      <c r="E41" s="365">
+      <c r="E41" s="364">
         <v>276.576086956522</v>
       </c>
-      <c r="F41" s="364" t="s">
+      <c r="F41" s="363" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="368" t="s">
+      <c r="G41" s="367" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="92"/>
       <c r="I41" s="92"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="364" t="s">
+      <c r="A42" s="363" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="364" t="s">
+      <c r="B42" s="363" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="365">
+      <c r="C42" s="364">
         <v>110.02</v>
       </c>
-      <c r="D42" s="365">
+      <c r="D42" s="364">
         <v>3.636</v>
       </c>
-      <c r="E42" s="365">
+      <c r="E42" s="364">
         <v>272.318104906937</v>
       </c>
-      <c r="F42" s="364" t="s">
+      <c r="F42" s="363" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="368" t="s">
+      <c r="G42" s="367" t="s">
         <v>47</v>
       </c>
       <c r="H42" s="92"/>
       <c r="I42" s="92"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="364" t="s">
+      <c r="A43" s="363" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="364" t="s">
+      <c r="B43" s="363" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="365">
+      <c r="C43" s="364">
         <v>75.2</v>
       </c>
-      <c r="D43" s="365">
+      <c r="D43" s="364">
         <v>3.169</v>
       </c>
-      <c r="E43" s="365">
+      <c r="E43" s="364">
         <v>272.093023255814</v>
       </c>
-      <c r="F43" s="364" t="s">
+      <c r="F43" s="363" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="368" t="s">
+      <c r="G43" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H43" s="92"/>
       <c r="I43" s="92"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="364" t="s">
+      <c r="A44" s="363" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="364" t="s">
+      <c r="B44" s="363" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="365">
+      <c r="C44" s="364">
         <v>15.92</v>
       </c>
-      <c r="D44" s="365">
+      <c r="D44" s="364">
         <v>1.144</v>
       </c>
-      <c r="E44" s="365">
+      <c r="E44" s="364">
         <v>270.232558139535</v>
       </c>
-      <c r="F44" s="364" t="s">
+      <c r="F44" s="363" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="368" t="s">
+      <c r="G44" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H44" s="92"/>
       <c r="I44" s="92"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="364" t="s">
+      <c r="A45" s="363" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="364" t="s">
+      <c r="B45" s="363" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="365">
+      <c r="C45" s="364">
         <v>23.79</v>
       </c>
-      <c r="D45" s="365">
+      <c r="D45" s="364">
         <v>-1.572</v>
       </c>
-      <c r="E45" s="365">
+      <c r="E45" s="364">
         <v>269.984447900467</v>
       </c>
-      <c r="F45" s="364" t="s">
+      <c r="F45" s="363" t="s">
         <v>170</v>
       </c>
-      <c r="G45" s="368" t="s">
+      <c r="G45" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="92"/>
       <c r="I45" s="92"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="364" t="s">
+      <c r="A46" s="363" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="364" t="s">
+      <c r="B46" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="365">
+      <c r="C46" s="364">
         <v>251.3</v>
       </c>
-      <c r="D46" s="365">
+      <c r="D46" s="364">
         <v>2.655</v>
       </c>
-      <c r="E46" s="365">
+      <c r="E46" s="364">
         <v>266.861313868613</v>
       </c>
-      <c r="F46" s="364" t="s">
+      <c r="F46" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="368" t="s">
+      <c r="G46" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H46" s="92"/>
       <c r="I46" s="92"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="364" t="s">
+      <c r="A47" s="363" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="364" t="s">
+      <c r="B47" s="363" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="365">
+      <c r="C47" s="364">
         <v>7.89</v>
       </c>
-      <c r="D47" s="365">
+      <c r="D47" s="364">
         <v>-2.472</v>
       </c>
-      <c r="E47" s="365">
+      <c r="E47" s="364">
         <v>265.277777777778</v>
       </c>
-      <c r="F47" s="364" t="s">
+      <c r="F47" s="363" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="368" t="s">
+      <c r="G47" s="367" t="s">
         <v>83</v>
       </c>
       <c r="H47" s="92"/>
       <c r="I47" s="92"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="364" t="s">
+      <c r="A48" s="363" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="364" t="s">
+      <c r="B48" s="363" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="365">
+      <c r="C48" s="364">
         <v>34.48</v>
       </c>
-      <c r="D48" s="365">
+      <c r="D48" s="364">
         <v>2.012</v>
       </c>
-      <c r="E48" s="365">
+      <c r="E48" s="364">
         <v>264.482029598309</v>
       </c>
-      <c r="F48" s="364" t="s">
+      <c r="F48" s="363" t="s">
         <v>179</v>
       </c>
-      <c r="G48" s="368" t="s">
+      <c r="G48" s="367" t="s">
         <v>87</v>
       </c>
       <c r="H48" s="92"/>
       <c r="I48" s="92"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="364" t="s">
+      <c r="A49" s="363" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="364" t="s">
+      <c r="B49" s="363" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="365">
+      <c r="C49" s="364">
         <v>23.1</v>
       </c>
-      <c r="D49" s="365">
+      <c r="D49" s="364">
         <v>10</v>
       </c>
-      <c r="E49" s="365">
+      <c r="E49" s="364">
         <v>264.353312302839</v>
       </c>
-      <c r="F49" s="364" t="s">
+      <c r="F49" s="363" t="s">
         <v>182</v>
       </c>
-      <c r="G49" s="368" t="s">
+      <c r="G49" s="367" t="s">
         <v>59</v>
       </c>
       <c r="H49" s="92"/>
       <c r="I49" s="92"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="364" t="s">
+      <c r="A50" s="363" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="364" t="s">
+      <c r="B50" s="363" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="365">
+      <c r="C50" s="364">
         <v>243.47</v>
       </c>
-      <c r="D50" s="365">
+      <c r="D50" s="364">
         <v>1.193</v>
       </c>
-      <c r="E50" s="365">
+      <c r="E50" s="364">
         <v>261.445961995249</v>
       </c>
-      <c r="F50" s="364" t="s">
+      <c r="F50" s="363" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="368" t="s">
+      <c r="G50" s="367" t="s">
         <v>91</v>
       </c>
       <c r="H50" s="92"/>
       <c r="I50" s="92"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="364" t="s">
+      <c r="A51" s="363" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="364" t="s">
+      <c r="B51" s="363" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="365">
+      <c r="C51" s="364">
         <v>614</v>
       </c>
-      <c r="D51" s="365">
+      <c r="D51" s="364">
         <v>1.207</v>
       </c>
-      <c r="E51" s="365">
+      <c r="E51" s="364">
         <v>261.112744809739</v>
       </c>
-      <c r="F51" s="364" t="s">
+      <c r="F51" s="363" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="368" t="s">
+      <c r="G51" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H51" s="92"/>
       <c r="I51" s="92"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="364" t="s">
+      <c r="A52" s="363" t="s">
         <v>189</v>
       </c>
-      <c r="B52" s="364" t="s">
+      <c r="B52" s="363" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="365">
+      <c r="C52" s="364">
         <v>136.3</v>
       </c>
-      <c r="D52" s="365">
+      <c r="D52" s="364">
         <v>0.221</v>
       </c>
-      <c r="E52" s="365">
+      <c r="E52" s="364">
         <v>257.180293501048</v>
       </c>
-      <c r="F52" s="364" t="s">
+      <c r="F52" s="363" t="s">
         <v>191</v>
       </c>
-      <c r="G52" s="368" t="s">
+      <c r="G52" s="367" t="s">
         <v>11</v>
       </c>
       <c r="H52" s="92"/>
       <c r="I52" s="92"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="364" t="s">
+      <c r="A53" s="363" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="364" t="s">
+      <c r="B53" s="363" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="365">
+      <c r="C53" s="364">
         <v>540.64</v>
       </c>
-      <c r="D53" s="365">
+      <c r="D53" s="364">
         <v>1.529</v>
       </c>
-      <c r="E53" s="365">
+      <c r="E53" s="364">
         <v>255.754425215503</v>
       </c>
-      <c r="F53" s="364" t="s">
+      <c r="F53" s="363" t="s">
         <v>194</v>
       </c>
-      <c r="G53" s="368" t="s">
+      <c r="G53" s="367" t="s">
         <v>95</v>
       </c>
       <c r="H53" s="92"/>
       <c r="I53" s="92"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="364" t="s">
+      <c r="A54" s="363" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="364" t="s">
+      <c r="B54" s="363" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="365">
+      <c r="C54" s="364">
         <v>377.25</v>
       </c>
-      <c r="D54" s="365">
+      <c r="D54" s="364">
         <v>3.76</v>
       </c>
-      <c r="E54" s="365">
+      <c r="E54" s="364">
         <v>253.657507663751</v>
       </c>
-      <c r="F54" s="364" t="s">
+      <c r="F54" s="363" t="s">
         <v>197</v>
       </c>
-      <c r="G54" s="368" t="s">
+      <c r="G54" s="367" t="s">
         <v>99</v>
       </c>
       <c r="H54" s="92"/>
       <c r="I54" s="92"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="364" t="s">
+      <c r="A55" s="363" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="364" t="s">
+      <c r="B55" s="363" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="365">
+      <c r="C55" s="364">
         <v>190.6</v>
       </c>
-      <c r="D55" s="365">
+      <c r="D55" s="364">
         <v>3.166</v>
       </c>
-      <c r="E55" s="365">
+      <c r="E55" s="364">
         <v>252.832284339134</v>
       </c>
-      <c r="F55" s="364" t="s">
+      <c r="F55" s="363" t="s">
         <v>200</v>
       </c>
-      <c r="G55" s="368" t="s">
+      <c r="G55" s="367" t="s">
         <v>91</v>
       </c>
       <c r="H55" s="92"/>
       <c r="I55" s="92"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="364" t="s">
+      <c r="A56" s="363" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="364" t="s">
+      <c r="B56" s="363" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="365">
+      <c r="C56" s="364">
         <v>76.54</v>
       </c>
-      <c r="D56" s="365">
+      <c r="D56" s="364">
         <v>5.485</v>
       </c>
-      <c r="E56" s="365">
+      <c r="E56" s="364">
         <v>252.718894009217</v>
       </c>
-      <c r="F56" s="364" t="s">
+      <c r="F56" s="363" t="s">
         <v>203</v>
       </c>
-      <c r="G56" s="368" t="s">
+      <c r="G56" s="367" t="s">
         <v>87</v>
       </c>
       <c r="H56" s="92"/>
       <c r="I56" s="92"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="364" t="s">
+      <c r="A57" s="363" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="364" t="s">
+      <c r="B57" s="363" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="365">
+      <c r="C57" s="364">
         <v>151</v>
       </c>
-      <c r="D57" s="365">
+      <c r="D57" s="364">
         <v>-1.307</v>
       </c>
-      <c r="E57" s="365">
+      <c r="E57" s="364">
         <v>252.14552238806</v>
       </c>
-      <c r="F57" s="364" t="s">
+      <c r="F57" s="363" t="s">
         <v>206</v>
       </c>
-      <c r="G57" s="368" t="s">
+      <c r="G57" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="92"/>
       <c r="I57" s="92"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="364" t="s">
+      <c r="A58" s="363" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="364" t="s">
+      <c r="B58" s="363" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="365">
+      <c r="C58" s="364">
         <v>19.91</v>
       </c>
-      <c r="D58" s="365">
+      <c r="D58" s="364">
         <v>4.79</v>
       </c>
-      <c r="E58" s="365">
+      <c r="E58" s="364">
         <v>251.146384479718</v>
       </c>
-      <c r="F58" s="364" t="s">
+      <c r="F58" s="363" t="s">
         <v>209</v>
       </c>
-      <c r="G58" s="368" t="s">
+      <c r="G58" s="367" t="s">
         <v>91</v>
       </c>
       <c r="H58" s="92"/>
       <c r="I58" s="92"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="364" t="s">
+      <c r="A59" s="363" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="364" t="s">
+      <c r="B59" s="363" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="365">
+      <c r="C59" s="364">
         <v>31.9</v>
       </c>
-      <c r="D59" s="365">
+      <c r="D59" s="364">
         <v>6.725</v>
       </c>
-      <c r="E59" s="365">
+      <c r="E59" s="364">
         <v>250.549450549451</v>
       </c>
-      <c r="F59" s="364" t="s">
+      <c r="F59" s="363" t="s">
         <v>212</v>
       </c>
-      <c r="G59" s="368" t="s">
+      <c r="G59" s="367" t="s">
         <v>31</v>
       </c>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="364" t="s">
+      <c r="A60" s="363" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="364" t="s">
+      <c r="B60" s="363" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="365">
+      <c r="C60" s="364">
         <v>89.22</v>
       </c>
-      <c r="D60" s="365">
+      <c r="D60" s="364">
         <v>0.259</v>
       </c>
-      <c r="E60" s="365">
+      <c r="E60" s="364">
         <v>249.471210340776</v>
       </c>
-      <c r="F60" s="364" t="s">
+      <c r="F60" s="363" t="s">
         <v>215</v>
       </c>
-      <c r="G60" s="368" t="s">
+      <c r="G60" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="364" t="s">
+      <c r="A61" s="363" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="364" t="s">
+      <c r="B61" s="363" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="365">
+      <c r="C61" s="364">
         <v>39.72</v>
       </c>
-      <c r="D61" s="365">
+      <c r="D61" s="364">
         <v>5.892</v>
       </c>
-      <c r="E61" s="365">
+      <c r="E61" s="364">
         <v>246.294681778553</v>
       </c>
-      <c r="F61" s="364" t="s">
+      <c r="F61" s="363" t="s">
         <v>218</v>
       </c>
-      <c r="G61" s="368" t="s">
+      <c r="G61" s="367" t="s">
         <v>11</v>
       </c>
       <c r="H61" s="92"/>
       <c r="I61" s="92"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="364" t="s">
+      <c r="A62" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="B62" s="364" t="s">
+      <c r="B62" s="363" t="s">
         <v>220</v>
       </c>
-      <c r="C62" s="365">
+      <c r="C62" s="364">
         <v>77.33</v>
       </c>
-      <c r="D62" s="365">
+      <c r="D62" s="364">
         <v>1.603</v>
       </c>
-      <c r="E62" s="365">
+      <c r="E62" s="364">
         <v>243.231247225921</v>
       </c>
-      <c r="F62" s="364" t="s">
+      <c r="F62" s="363" t="s">
         <v>221</v>
       </c>
-      <c r="G62" s="368" t="s">
+      <c r="G62" s="367" t="s">
         <v>75</v>
       </c>
       <c r="H62" s="92"/>
       <c r="I62" s="92"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="364" t="s">
+      <c r="A63" s="363" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="364" t="s">
+      <c r="B63" s="363" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="365">
+      <c r="C63" s="364">
         <v>19.57</v>
       </c>
-      <c r="D63" s="365">
+      <c r="D63" s="364">
         <v>0.772</v>
       </c>
-      <c r="E63" s="365">
+      <c r="E63" s="364">
         <v>241.535776614311</v>
       </c>
-      <c r="F63" s="364" t="s">
+      <c r="F63" s="363" t="s">
         <v>224</v>
       </c>
-      <c r="G63" s="368" t="s">
+      <c r="G63" s="367" t="s">
         <v>67</v>
       </c>
       <c r="H63" s="92"/>
       <c r="I63" s="92"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="364" t="s">
+      <c r="A64" s="363" t="s">
         <v>225</v>
       </c>
-      <c r="B64" s="364" t="s">
+      <c r="B64" s="363" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="365">
+      <c r="C64" s="364">
         <v>57.15</v>
       </c>
-      <c r="D64" s="365">
+      <c r="D64" s="364">
         <v>4.061</v>
       </c>
-      <c r="E64" s="365">
+      <c r="E64" s="364">
         <v>240.178571428571</v>
       </c>
-      <c r="F64" s="364" t="s">
+      <c r="F64" s="363" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="368" t="s">
+      <c r="G64" s="367" t="s">
         <v>103</v>
       </c>
       <c r="H64" s="92"/>
       <c r="I64" s="92"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="364" t="s">
+      <c r="A65" s="363" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="364" t="s">
+      <c r="B65" s="363" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="365">
+      <c r="C65" s="364">
         <v>48.6</v>
       </c>
-      <c r="D65" s="365">
+      <c r="D65" s="364">
         <v>-1.46</v>
       </c>
-      <c r="E65" s="365">
+      <c r="E65" s="364">
         <v>239.148639218423</v>
       </c>
-      <c r="F65" s="364" t="s">
+      <c r="F65" s="363" t="s">
         <v>230</v>
       </c>
-      <c r="G65" s="368" t="s">
+      <c r="G65" s="367" t="s">
         <v>47</v>
       </c>
       <c r="H65" s="92"/>
       <c r="I65" s="92"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="364" t="s">
+      <c r="A66" s="363" t="s">
         <v>231</v>
       </c>
-      <c r="B66" s="364" t="s">
+      <c r="B66" s="363" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="365">
+      <c r="C66" s="364">
         <v>25.31</v>
       </c>
-      <c r="D66" s="365">
+      <c r="D66" s="364">
         <v>4.89</v>
       </c>
-      <c r="E66" s="365">
+      <c r="E66" s="364">
         <v>238.821954484605</v>
       </c>
-      <c r="F66" s="364" t="s">
+      <c r="F66" s="363" t="s">
         <v>233</v>
       </c>
-      <c r="G66" s="368" t="s">
+      <c r="G66" s="367" t="s">
         <v>91</v>
       </c>
       <c r="H66" s="92"/>
       <c r="I66" s="92"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="364" t="s">
+      <c r="A67" s="363" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="364" t="s">
+      <c r="B67" s="363" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="365">
+      <c r="C67" s="364">
         <v>74.83</v>
       </c>
-      <c r="D67" s="365">
+      <c r="D67" s="364">
         <v>6.885</v>
       </c>
-      <c r="E67" s="365">
+      <c r="E67" s="364">
         <v>236.768676867687</v>
       </c>
-      <c r="F67" s="364" t="s">
+      <c r="F67" s="363" t="s">
         <v>236</v>
       </c>
-      <c r="G67" s="368" t="s">
+      <c r="G67" s="367" t="s">
         <v>47</v>
       </c>
       <c r="H67" s="92"/>
       <c r="I67" s="92"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="364" t="s">
+      <c r="A68" s="363" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="364" t="s">
+      <c r="B68" s="363" t="s">
         <v>238</v>
       </c>
-      <c r="C68" s="365">
+      <c r="C68" s="364">
         <v>63.42</v>
       </c>
-      <c r="D68" s="365">
+      <c r="D68" s="364">
         <v>3.021</v>
       </c>
-      <c r="E68" s="365">
+      <c r="E68" s="364">
         <v>236.445623342175</v>
       </c>
-      <c r="F68" s="364" t="s">
+      <c r="F68" s="363" t="s">
         <v>239</v>
       </c>
-      <c r="G68" s="368" t="s">
+      <c r="G68" s="367" t="s">
         <v>107</v>
       </c>
       <c r="H68" s="92"/>
       <c r="I68" s="92"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="364" t="s">
+      <c r="A69" s="363" t="s">
         <v>240</v>
       </c>
-      <c r="B69" s="364" t="s">
+      <c r="B69" s="363" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="365">
+      <c r="C69" s="364">
         <v>127.5</v>
       </c>
-      <c r="D69" s="365">
+      <c r="D69" s="364">
         <v>2.831</v>
       </c>
-      <c r="E69" s="365">
+      <c r="E69" s="364">
         <v>236.322869955157</v>
       </c>
-      <c r="F69" s="364" t="s">
+      <c r="F69" s="363" t="s">
         <v>242</v>
       </c>
-      <c r="G69" s="368" t="s">
+      <c r="G69" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="92"/>
       <c r="I69" s="92"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="364" t="s">
+      <c r="A70" s="363" t="s">
         <v>243</v>
       </c>
-      <c r="B70" s="364" t="s">
+      <c r="B70" s="363" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="365">
+      <c r="C70" s="364">
         <v>15.28</v>
       </c>
-      <c r="D70" s="365">
+      <c r="D70" s="364">
         <v>0.066</v>
       </c>
-      <c r="E70" s="365">
+      <c r="E70" s="364">
         <v>235.087719298246</v>
       </c>
-      <c r="F70" s="364" t="s">
+      <c r="F70" s="363" t="s">
         <v>245</v>
       </c>
-      <c r="G70" s="368" t="s">
+      <c r="G70" s="367" t="s">
         <v>83</v>
       </c>
       <c r="H70" s="92"/>
       <c r="I70" s="92"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="364" t="s">
+      <c r="A71" s="363" t="s">
         <v>246</v>
       </c>
-      <c r="B71" s="364" t="s">
+      <c r="B71" s="363" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="365">
+      <c r="C71" s="364">
         <v>8.26</v>
       </c>
-      <c r="D71" s="365">
+      <c r="D71" s="364">
         <v>2.481</v>
       </c>
-      <c r="E71" s="365">
+      <c r="E71" s="364">
         <v>233.064516129032</v>
       </c>
-      <c r="F71" s="364" t="s">
+      <c r="F71" s="363" t="s">
         <v>248</v>
       </c>
-      <c r="G71" s="368" t="s">
+      <c r="G71" s="367" t="s">
         <v>75</v>
       </c>
       <c r="H71" s="92"/>
       <c r="I71" s="92"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="364" t="s">
+      <c r="A72" s="363" t="s">
         <v>249</v>
       </c>
-      <c r="B72" s="364" t="s">
+      <c r="B72" s="363" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="365">
+      <c r="C72" s="364">
         <v>60.14</v>
       </c>
-      <c r="D72" s="365">
+      <c r="D72" s="364">
         <v>1.11</v>
       </c>
-      <c r="E72" s="365">
+      <c r="E72" s="364">
         <v>230.621220450797</v>
       </c>
-      <c r="F72" s="364" t="s">
+      <c r="F72" s="363" t="s">
         <v>251</v>
       </c>
-      <c r="G72" s="368" t="s">
+      <c r="G72" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="92"/>
       <c r="I72" s="92"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="364" t="s">
+      <c r="A73" s="363" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="364" t="s">
+      <c r="B73" s="363" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="365">
+      <c r="C73" s="364">
         <v>64.26</v>
       </c>
-      <c r="D73" s="365">
+      <c r="D73" s="364">
         <v>5.691</v>
       </c>
-      <c r="E73" s="365">
+      <c r="E73" s="364">
         <v>230.385604113111</v>
       </c>
-      <c r="F73" s="364" t="s">
+      <c r="F73" s="363" t="s">
         <v>254</v>
       </c>
-      <c r="G73" s="368" t="s">
+      <c r="G73" s="367" t="s">
         <v>75</v>
       </c>
       <c r="H73" s="92"/>
       <c r="I73" s="92"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="364" t="s">
+      <c r="A74" s="363" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="364" t="s">
+      <c r="B74" s="363" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="365">
+      <c r="C74" s="364">
         <v>29.11</v>
       </c>
-      <c r="D74" s="365">
+      <c r="D74" s="364">
         <v>7.022</v>
       </c>
-      <c r="E74" s="365">
+      <c r="E74" s="364">
         <v>229.298642533937</v>
       </c>
-      <c r="F74" s="364" t="s">
+      <c r="F74" s="363" t="s">
         <v>257</v>
       </c>
-      <c r="G74" s="368" t="s">
+      <c r="G74" s="367" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="92"/>
       <c r="I74" s="92"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="364" t="s">
+      <c r="A75" s="363" t="s">
         <v>258</v>
       </c>
-      <c r="B75" s="364" t="s">
+      <c r="B75" s="363" t="s">
         <v>259</v>
       </c>
-      <c r="C75" s="365">
+      <c r="C75" s="364">
         <v>24.54</v>
       </c>
-      <c r="D75" s="365">
+      <c r="D75" s="364">
         <v>3.763</v>
       </c>
-      <c r="E75" s="365">
+      <c r="E75" s="364">
         <v>226.76431424767</v>
       </c>
-      <c r="F75" s="364" t="s">
+      <c r="F75" s="363" t="s">
         <v>260</v>
       </c>
-      <c r="G75" s="368" t="s">
+      <c r="G75" s="367" t="s">
         <v>75</v>
       </c>
       <c r="H75" s="92"/>
       <c r="I75" s="92"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="364" t="s">
+      <c r="A76" s="363" t="s">
         <v>261</v>
       </c>
-      <c r="B76" s="364" t="s">
+      <c r="B76" s="363" t="s">
         <v>262</v>
       </c>
-      <c r="C76" s="365">
+      <c r="C76" s="364">
         <v>11.3</v>
       </c>
-      <c r="D76" s="365">
+      <c r="D76" s="364">
         <v>4.63</v>
       </c>
-      <c r="E76" s="365">
+      <c r="E76" s="364">
         <v>226.589595375723</v>
       </c>
-      <c r="F76" s="364" t="s">
+      <c r="F76" s="363" t="s">
         <v>263</v>
       </c>
-      <c r="G76" s="368" t="s">
+      <c r="G76" s="367" t="s">
         <v>107</v>
       </c>
       <c r="H76" s="92"/>
       <c r="I76" s="92"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="364" t="s">
+      <c r="A77" s="363" t="s">
         <v>264</v>
       </c>
-      <c r="B77" s="364" t="s">
+      <c r="B77" s="363" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="365">
+      <c r="C77" s="364">
         <v>22.7</v>
       </c>
-      <c r="D77" s="365">
+      <c r="D77" s="364">
         <v>3.606</v>
       </c>
-      <c r="E77" s="365">
+      <c r="E77" s="364">
         <v>224.982104509664</v>
       </c>
-      <c r="F77" s="364" t="s">
+      <c r="F77" s="363" t="s">
         <v>266</v>
       </c>
-      <c r="G77" s="368" t="s">
+      <c r="G77" s="367" t="s">
         <v>79</v>
       </c>
       <c r="H77" s="92"/>
       <c r="I77" s="92"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="364" t="s">
+      <c r="A78" s="363" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="364" t="s">
+      <c r="B78" s="363" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="365">
+      <c r="C78" s="364">
         <v>23.35</v>
       </c>
-      <c r="D78" s="365">
+      <c r="D78" s="364">
         <v>-1.101</v>
       </c>
-      <c r="E78" s="365">
+      <c r="E78" s="364">
         <v>223.407202216067</v>
       </c>
-      <c r="F78" s="364" t="s">
+      <c r="F78" s="363" t="s">
         <v>269</v>
       </c>
-      <c r="G78" s="368" t="s">
+      <c r="G78" s="367" t="s">
         <v>67</v>
       </c>
       <c r="H78" s="92"/>
       <c r="I78" s="92"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="364" t="s">
+      <c r="A79" s="363" t="s">
         <v>270</v>
       </c>
-      <c r="B79" s="364" t="s">
+      <c r="B79" s="363" t="s">
         <v>271</v>
       </c>
-      <c r="C79" s="365">
+      <c r="C79" s="364">
         <v>53.93</v>
       </c>
-      <c r="D79" s="365">
+      <c r="D79" s="364">
         <v>2.94</v>
       </c>
-      <c r="E79" s="365">
+      <c r="E79" s="364">
         <v>223.236561153774</v>
       </c>
-      <c r="F79" s="364" t="s">
+      <c r="F79" s="363" t="s">
         <v>272</v>
       </c>
-      <c r="G79" s="368" t="s">
+      <c r="G79" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="92"/>
       <c r="I79" s="92"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="364" t="s">
+      <c r="A80" s="363" t="s">
         <v>273</v>
       </c>
-      <c r="B80" s="364" t="s">
+      <c r="B80" s="363" t="s">
         <v>274</v>
       </c>
-      <c r="C80" s="365">
+      <c r="C80" s="364">
         <v>85.26</v>
       </c>
-      <c r="D80" s="365">
+      <c r="D80" s="364">
         <v>4.23</v>
       </c>
-      <c r="E80" s="365">
+      <c r="E80" s="364">
         <v>221.614485099962</v>
       </c>
-      <c r="F80" s="364" t="s">
+      <c r="F80" s="363" t="s">
         <v>275</v>
       </c>
-      <c r="G80" s="368" t="s">
+      <c r="G80" s="367" t="s">
         <v>99</v>
       </c>
       <c r="H80" s="92"/>
       <c r="I80" s="92"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="364" t="s">
+      <c r="A81" s="363" t="s">
         <v>276</v>
       </c>
-      <c r="B81" s="364" t="s">
+      <c r="B81" s="363" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="365">
+      <c r="C81" s="364">
         <v>23.54</v>
       </c>
-      <c r="D81" s="365">
+      <c r="D81" s="364">
         <v>-9.981</v>
       </c>
-      <c r="E81" s="365">
+      <c r="E81" s="364">
         <v>219.099905110479</v>
       </c>
-      <c r="F81" s="364" t="s">
+      <c r="F81" s="363" t="s">
         <v>278</v>
       </c>
-      <c r="G81" s="368" t="s">
+      <c r="G81" s="367" t="s">
         <v>27</v>
       </c>
       <c r="H81" s="92"/>
       <c r="I81" s="92"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="364" t="s">
+      <c r="A82" s="363" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="364" t="s">
+      <c r="B82" s="363" t="s">
         <v>280</v>
       </c>
-      <c r="C82" s="365">
+      <c r="C82" s="364">
         <v>217.49</v>
       </c>
-      <c r="D82" s="365">
+      <c r="D82" s="364">
         <v>0.467</v>
       </c>
-      <c r="E82" s="365">
+      <c r="E82" s="364">
         <v>217.781998831093</v>
       </c>
-      <c r="F82" s="364" t="s">
+      <c r="F82" s="363" t="s">
         <v>281</v>
       </c>
-      <c r="G82" s="368" t="s">
+      <c r="G82" s="367" t="s">
         <v>111</v>
       </c>
       <c r="H82" s="92"/>
       <c r="I82" s="92"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="364" t="s">
+      <c r="A83" s="363" t="s">
         <v>282</v>
       </c>
-      <c r="B83" s="364" t="s">
+      <c r="B83" s="363" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="365">
+      <c r="C83" s="364">
         <v>39.7</v>
       </c>
-      <c r="D83" s="365">
+      <c r="D83" s="364">
         <v>6.15</v>
       </c>
-      <c r="E83" s="365">
+      <c r="E83" s="364">
         <v>216.625766871154</v>
       </c>
-      <c r="F83" s="364" t="s">
+      <c r="F83" s="363" t="s">
         <v>284</v>
       </c>
-      <c r="G83" s="368" t="s">
+      <c r="G83" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="92"/>
       <c r="I83" s="92"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="364" t="s">
+      <c r="A84" s="363" t="s">
         <v>285</v>
       </c>
-      <c r="B84" s="364" t="s">
+      <c r="B84" s="363" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="365">
+      <c r="C84" s="364">
         <v>34.49</v>
       </c>
-      <c r="D84" s="365">
+      <c r="D84" s="364">
         <v>2.162</v>
       </c>
-      <c r="E84" s="365">
+      <c r="E84" s="364">
         <v>216.131989000917</v>
       </c>
-      <c r="F84" s="364" t="s">
+      <c r="F84" s="363" t="s">
         <v>287</v>
       </c>
-      <c r="G84" s="368" t="s">
+      <c r="G84" s="367" t="s">
         <v>115</v>
       </c>
       <c r="H84" s="92"/>
       <c r="I84" s="92"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="364" t="s">
+      <c r="A85" s="363" t="s">
         <v>288</v>
       </c>
-      <c r="B85" s="364" t="s">
+      <c r="B85" s="363" t="s">
         <v>289</v>
       </c>
-      <c r="C85" s="365">
+      <c r="C85" s="364">
         <v>46.49</v>
       </c>
-      <c r="D85" s="365">
+      <c r="D85" s="364">
         <v>3.518</v>
       </c>
-      <c r="E85" s="365">
+      <c r="E85" s="364">
         <v>214.972899728997</v>
       </c>
-      <c r="F85" s="364" t="s">
+      <c r="F85" s="363" t="s">
         <v>290</v>
       </c>
-      <c r="G85" s="368" t="s">
+      <c r="G85" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H85" s="92"/>
       <c r="I85" s="92"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="364" t="s">
+      <c r="A86" s="363" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="364" t="s">
+      <c r="B86" s="363" t="s">
         <v>292</v>
       </c>
-      <c r="C86" s="365">
+      <c r="C86" s="364">
         <v>26.06</v>
       </c>
-      <c r="D86" s="365">
+      <c r="D86" s="364">
         <v>-0.077</v>
       </c>
-      <c r="E86" s="365">
+      <c r="E86" s="364">
         <v>213.975903614458</v>
       </c>
-      <c r="F86" s="364" t="s">
+      <c r="F86" s="363" t="s">
         <v>293</v>
       </c>
-      <c r="G86" s="368" t="s">
+      <c r="G86" s="367" t="s">
         <v>39</v>
       </c>
       <c r="H86" s="92"/>
       <c r="I86" s="92"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="364" t="s">
+      <c r="A87" s="363" t="s">
         <v>294</v>
       </c>
-      <c r="B87" s="364" t="s">
+      <c r="B87" s="363" t="s">
         <v>295</v>
       </c>
-      <c r="C87" s="365">
+      <c r="C87" s="364">
         <v>18.85</v>
       </c>
-      <c r="D87" s="365">
+      <c r="D87" s="364">
         <v>4.144</v>
       </c>
-      <c r="E87" s="365">
+      <c r="E87" s="364">
         <v>213.12292358804</v>
       </c>
-      <c r="F87" s="364" t="s">
+      <c r="F87" s="363" t="s">
         <v>296</v>
       </c>
-      <c r="G87" s="368" t="s">
+      <c r="G87" s="367" t="s">
         <v>119</v>
       </c>
       <c r="H87" s="92"/>
       <c r="I87" s="92"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="364" t="s">
+      <c r="A88" s="363" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="364" t="s">
+      <c r="B88" s="363" t="s">
         <v>298</v>
       </c>
-      <c r="C88" s="365">
+      <c r="C88" s="364">
         <v>22.45</v>
       </c>
-      <c r="D88" s="365">
+      <c r="D88" s="364">
         <v>9.995</v>
       </c>
-      <c r="E88" s="365">
+      <c r="E88" s="364">
         <v>212.239221140473</v>
       </c>
-      <c r="F88" s="364" t="s">
+      <c r="F88" s="363" t="s">
         <v>299</v>
       </c>
-      <c r="G88" s="368" t="s">
+      <c r="G88" s="367" t="s">
         <v>83</v>
       </c>
       <c r="H88" s="92"/>
       <c r="I88" s="92"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="364" t="s">
+      <c r="A89" s="363" t="s">
         <v>300</v>
       </c>
-      <c r="B89" s="364" t="s">
+      <c r="B89" s="363" t="s">
         <v>301</v>
       </c>
-      <c r="C89" s="365">
+      <c r="C89" s="364">
         <v>114.36</v>
       </c>
-      <c r="D89" s="365">
+      <c r="D89" s="364">
         <v>5.518</v>
       </c>
-      <c r="E89" s="365">
+      <c r="E89" s="364">
         <v>211.607629427793</v>
       </c>
-      <c r="F89" s="364" t="s">
+      <c r="F89" s="363" t="s">
         <v>302</v>
       </c>
-      <c r="G89" s="368" t="s">
+      <c r="G89" s="367" t="s">
         <v>123</v>
       </c>
       <c r="H89" s="92"/>
       <c r="I89" s="92"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="364" t="s">
+      <c r="A90" s="363" t="s">
         <v>303</v>
       </c>
-      <c r="B90" s="364" t="s">
+      <c r="B90" s="363" t="s">
         <v>304</v>
       </c>
-      <c r="C90" s="365">
+      <c r="C90" s="364">
         <v>28.91</v>
       </c>
-      <c r="D90" s="365">
+      <c r="D90" s="364">
         <v>4.898</v>
       </c>
-      <c r="E90" s="365">
+      <c r="E90" s="364">
         <v>209.528907922912</v>
       </c>
-      <c r="F90" s="364" t="s">
+      <c r="F90" s="363" t="s">
         <v>305</v>
       </c>
-      <c r="G90" s="368" t="s">
+      <c r="G90" s="367" t="s">
         <v>127</v>
       </c>
       <c r="H90" s="92"/>
       <c r="I90" s="92"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="364" t="s">
+      <c r="A91" s="363" t="s">
         <v>306</v>
       </c>
-      <c r="B91" s="364" t="s">
+      <c r="B91" s="363" t="s">
         <v>307</v>
       </c>
-      <c r="C91" s="365">
+      <c r="C91" s="364">
         <v>108.8</v>
       </c>
-      <c r="D91" s="365">
+      <c r="D91" s="364">
         <v>0.946</v>
       </c>
-      <c r="E91" s="365">
+      <c r="E91" s="364">
         <v>208.390022675737</v>
       </c>
-      <c r="F91" s="364" t="s">
+      <c r="F91" s="363" t="s">
         <v>308</v>
       </c>
-      <c r="G91" s="368" t="s">
+      <c r="G91" s="367" t="s">
         <v>131</v>
       </c>
       <c r="H91" s="92"/>
       <c r="I91" s="92"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="364" t="s">
+      <c r="A92" s="363" t="s">
         <v>309</v>
       </c>
-      <c r="B92" s="364" t="s">
+      <c r="B92" s="363" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="365">
+      <c r="C92" s="364">
         <v>241.14</v>
       </c>
-      <c r="D92" s="365">
+      <c r="D92" s="364">
         <v>3.904</v>
       </c>
-      <c r="E92" s="365">
+      <c r="E92" s="364">
         <v>207.458880530409</v>
       </c>
-      <c r="F92" s="364" t="s">
+      <c r="F92" s="363" t="s">
         <v>311</v>
       </c>
-      <c r="G92" s="368" t="s">
+      <c r="G92" s="367" t="s">
         <v>15</v>
       </c>
       <c r="H92" s="92"/>
@@ -9398,11 +9397,11 @@
   <dimension ref="A1:AP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AK17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="X17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:AO21"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -9990,7 +9989,7 @@
       <c r="AO6" s="353"/>
     </row>
     <row r="7" s="234" customFormat="1" ht="58" spans="1:41">
-      <c r="A7" s="369" t="s">
+      <c r="A7" s="368" t="s">
         <v>370</v>
       </c>
       <c r="B7" s="254" t="s">
@@ -10452,7 +10451,7 @@
       </c>
     </row>
     <row r="11" s="231" customFormat="1" ht="45" spans="1:41">
-      <c r="A11" s="370" t="s">
+      <c r="A11" s="369" t="s">
         <v>392</v>
       </c>
       <c r="B11" s="76" t="s">
@@ -10569,7 +10568,7 @@
       <c r="AO11" s="351"/>
     </row>
     <row r="12" s="235" customFormat="1" ht="45" spans="1:41">
-      <c r="A12" s="371" t="s">
+      <c r="A12" s="370" t="s">
         <v>397</v>
       </c>
       <c r="B12" s="75" t="s">
@@ -11269,7 +11268,7 @@
       </c>
       <c r="AO17" s="358"/>
     </row>
-    <row r="18" ht="29" spans="1:41">
+    <row r="18" s="235" customFormat="1" ht="29" spans="1:41">
       <c r="A18" s="272">
         <v>603236</v>
       </c>
@@ -11390,10 +11389,10 @@
       <c r="AN18" s="349">
         <v>44547</v>
       </c>
-      <c r="AO18" s="359"/>
+      <c r="AO18" s="358"/>
     </row>
     <row r="19" s="236" customFormat="1" ht="44" spans="1:41">
-      <c r="A19" s="372" t="s">
+      <c r="A19" s="371" t="s">
         <v>418</v>
       </c>
       <c r="B19" s="276" t="s">
@@ -11496,10 +11495,10 @@
       <c r="AN19" s="350">
         <v>44547</v>
       </c>
-      <c r="AO19" s="360"/>
-    </row>
-    <row r="20" ht="30" spans="1:41">
-      <c r="A20" s="373" t="s">
+      <c r="AO19" s="359"/>
+    </row>
+    <row r="20" s="235" customFormat="1" ht="30" spans="1:41">
+      <c r="A20" s="372" t="s">
         <v>422</v>
       </c>
       <c r="B20" s="273" t="s">
@@ -11612,7 +11611,7 @@
       <c r="AN20" s="349">
         <v>44547</v>
       </c>
-      <c r="AO20" s="359"/>
+      <c r="AO20" s="358"/>
     </row>
     <row r="21" ht="30" spans="1:41">
       <c r="A21" s="278">
@@ -11764,7 +11763,7 @@
       <c r="AL22" s="83"/>
       <c r="AM22" s="83"/>
       <c r="AN22" s="83"/>
-      <c r="AO22" s="361"/>
+      <c r="AO22" s="360"/>
     </row>
     <row r="23" spans="1:41">
       <c r="A23" s="279"/>
@@ -11807,7 +11806,7 @@
       <c r="AL23" s="83"/>
       <c r="AM23" s="83"/>
       <c r="AN23" s="83"/>
-      <c r="AO23" s="361"/>
+      <c r="AO23" s="360"/>
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="279"/>
@@ -11850,7 +11849,7 @@
       <c r="AL24" s="83"/>
       <c r="AM24" s="83"/>
       <c r="AN24" s="83"/>
-      <c r="AO24" s="361"/>
+      <c r="AO24" s="360"/>
     </row>
     <row r="25" spans="1:41">
       <c r="A25" s="279"/>
@@ -11893,7 +11892,7 @@
       <c r="AL25" s="83"/>
       <c r="AM25" s="83"/>
       <c r="AN25" s="83"/>
-      <c r="AO25" s="361"/>
+      <c r="AO25" s="360"/>
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="279"/>
@@ -11936,7 +11935,7 @@
       <c r="AL26" s="83"/>
       <c r="AM26" s="83"/>
       <c r="AN26" s="83"/>
-      <c r="AO26" s="361"/>
+      <c r="AO26" s="360"/>
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="279"/>
@@ -11979,7 +11978,7 @@
       <c r="AL27" s="83"/>
       <c r="AM27" s="83"/>
       <c r="AN27" s="83"/>
-      <c r="AO27" s="361"/>
+      <c r="AO27" s="360"/>
     </row>
     <row r="28" spans="1:41">
       <c r="A28" s="279"/>
@@ -12022,7 +12021,7 @@
       <c r="AL28" s="83"/>
       <c r="AM28" s="83"/>
       <c r="AN28" s="83"/>
-      <c r="AO28" s="361"/>
+      <c r="AO28" s="360"/>
     </row>
     <row r="29" spans="1:41">
       <c r="A29" s="279"/>
@@ -12065,7 +12064,7 @@
       <c r="AL29" s="83"/>
       <c r="AM29" s="83"/>
       <c r="AN29" s="83"/>
-      <c r="AO29" s="361"/>
+      <c r="AO29" s="360"/>
     </row>
     <row r="30" spans="1:41">
       <c r="A30" s="279"/>
@@ -12108,7 +12107,7 @@
       <c r="AL30" s="83"/>
       <c r="AM30" s="83"/>
       <c r="AN30" s="83"/>
-      <c r="AO30" s="361"/>
+      <c r="AO30" s="360"/>
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="279"/>
@@ -12151,7 +12150,7 @@
       <c r="AL31" s="83"/>
       <c r="AM31" s="83"/>
       <c r="AN31" s="83"/>
-      <c r="AO31" s="361"/>
+      <c r="AO31" s="360"/>
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="279"/>
@@ -12194,7 +12193,7 @@
       <c r="AL32" s="83"/>
       <c r="AM32" s="83"/>
       <c r="AN32" s="83"/>
-      <c r="AO32" s="361"/>
+      <c r="AO32" s="360"/>
     </row>
     <row r="33" spans="1:41">
       <c r="A33" s="279"/>
@@ -12237,7 +12236,7 @@
       <c r="AL33" s="83"/>
       <c r="AM33" s="83"/>
       <c r="AN33" s="83"/>
-      <c r="AO33" s="361"/>
+      <c r="AO33" s="360"/>
     </row>
     <row r="34" spans="1:41">
       <c r="A34" s="279"/>
@@ -12280,7 +12279,7 @@
       <c r="AL34" s="83"/>
       <c r="AM34" s="83"/>
       <c r="AN34" s="83"/>
-      <c r="AO34" s="361"/>
+      <c r="AO34" s="360"/>
     </row>
     <row r="35" spans="1:41">
       <c r="A35" s="279"/>
@@ -12323,7 +12322,7 @@
       <c r="AL35" s="83"/>
       <c r="AM35" s="83"/>
       <c r="AN35" s="83"/>
-      <c r="AO35" s="361"/>
+      <c r="AO35" s="360"/>
     </row>
     <row r="36" spans="1:41">
       <c r="A36" s="279"/>
@@ -12366,7 +12365,7 @@
       <c r="AL36" s="83"/>
       <c r="AM36" s="83"/>
       <c r="AN36" s="83"/>
-      <c r="AO36" s="361"/>
+      <c r="AO36" s="360"/>
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="279"/>
@@ -12409,7 +12408,7 @@
       <c r="AL37" s="83"/>
       <c r="AM37" s="83"/>
       <c r="AN37" s="83"/>
-      <c r="AO37" s="361"/>
+      <c r="AO37" s="360"/>
     </row>
     <row r="38" spans="1:41">
       <c r="A38" s="279"/>
@@ -12452,7 +12451,7 @@
       <c r="AL38" s="83"/>
       <c r="AM38" s="83"/>
       <c r="AN38" s="83"/>
-      <c r="AO38" s="361"/>
+      <c r="AO38" s="360"/>
     </row>
     <row r="39" spans="1:41">
       <c r="A39" s="279"/>
@@ -12495,7 +12494,7 @@
       <c r="AL39" s="83"/>
       <c r="AM39" s="83"/>
       <c r="AN39" s="83"/>
-      <c r="AO39" s="361"/>
+      <c r="AO39" s="360"/>
     </row>
     <row r="40" spans="1:41">
       <c r="A40" s="279"/>
@@ -12538,7 +12537,7 @@
       <c r="AL40" s="83"/>
       <c r="AM40" s="83"/>
       <c r="AN40" s="83"/>
-      <c r="AO40" s="361"/>
+      <c r="AO40" s="360"/>
     </row>
     <row r="41" spans="1:41">
       <c r="A41" s="279"/>
@@ -12581,7 +12580,7 @@
       <c r="AL41" s="83"/>
       <c r="AM41" s="83"/>
       <c r="AN41" s="83"/>
-      <c r="AO41" s="361"/>
+      <c r="AO41" s="360"/>
     </row>
     <row r="42" spans="1:41">
       <c r="A42" s="279"/>
@@ -12624,7 +12623,7 @@
       <c r="AL42" s="83"/>
       <c r="AM42" s="83"/>
       <c r="AN42" s="83"/>
-      <c r="AO42" s="361"/>
+      <c r="AO42" s="360"/>
     </row>
     <row r="43" spans="1:41">
       <c r="A43" s="279"/>
@@ -12667,7 +12666,7 @@
       <c r="AL43" s="83"/>
       <c r="AM43" s="83"/>
       <c r="AN43" s="83"/>
-      <c r="AO43" s="361"/>
+      <c r="AO43" s="360"/>
     </row>
     <row r="44" spans="1:41">
       <c r="A44" s="279"/>
@@ -12710,7 +12709,7 @@
       <c r="AL44" s="83"/>
       <c r="AM44" s="83"/>
       <c r="AN44" s="83"/>
-      <c r="AO44" s="361"/>
+      <c r="AO44" s="360"/>
     </row>
     <row r="45" spans="1:41">
       <c r="A45" s="279"/>
@@ -12753,7 +12752,7 @@
       <c r="AL45" s="83"/>
       <c r="AM45" s="83"/>
       <c r="AN45" s="83"/>
-      <c r="AO45" s="361"/>
+      <c r="AO45" s="360"/>
     </row>
     <row r="46" spans="1:41">
       <c r="A46" s="279"/>
@@ -12796,7 +12795,7 @@
       <c r="AL46" s="83"/>
       <c r="AM46" s="83"/>
       <c r="AN46" s="83"/>
-      <c r="AO46" s="361"/>
+      <c r="AO46" s="360"/>
     </row>
     <row r="47" spans="1:41">
       <c r="A47" s="279"/>
@@ -12839,7 +12838,7 @@
       <c r="AL47" s="83"/>
       <c r="AM47" s="83"/>
       <c r="AN47" s="83"/>
-      <c r="AO47" s="361"/>
+      <c r="AO47" s="360"/>
     </row>
     <row r="48" spans="1:41">
       <c r="A48" s="279"/>
@@ -12882,7 +12881,7 @@
       <c r="AL48" s="83"/>
       <c r="AM48" s="83"/>
       <c r="AN48" s="83"/>
-      <c r="AO48" s="361"/>
+      <c r="AO48" s="360"/>
     </row>
     <row r="49" spans="1:41">
       <c r="A49" s="279"/>
@@ -12925,7 +12924,7 @@
       <c r="AL49" s="83"/>
       <c r="AM49" s="83"/>
       <c r="AN49" s="83"/>
-      <c r="AO49" s="361"/>
+      <c r="AO49" s="360"/>
     </row>
     <row r="50" spans="1:41">
       <c r="A50" s="279"/>
@@ -12968,7 +12967,7 @@
       <c r="AL50" s="83"/>
       <c r="AM50" s="83"/>
       <c r="AN50" s="83"/>
-      <c r="AO50" s="361"/>
+      <c r="AO50" s="360"/>
     </row>
     <row r="51" spans="1:41">
       <c r="A51" s="279"/>
@@ -13011,7 +13010,7 @@
       <c r="AL51" s="83"/>
       <c r="AM51" s="83"/>
       <c r="AN51" s="83"/>
-      <c r="AO51" s="361"/>
+      <c r="AO51" s="360"/>
     </row>
     <row r="52" spans="1:41">
       <c r="A52" s="279"/>
@@ -13054,7 +13053,7 @@
       <c r="AL52" s="83"/>
       <c r="AM52" s="83"/>
       <c r="AN52" s="83"/>
-      <c r="AO52" s="361"/>
+      <c r="AO52" s="360"/>
     </row>
     <row r="53" spans="1:41">
       <c r="A53" s="279"/>
@@ -13097,7 +13096,7 @@
       <c r="AL53" s="83"/>
       <c r="AM53" s="83"/>
       <c r="AN53" s="83"/>
-      <c r="AO53" s="361"/>
+      <c r="AO53" s="360"/>
     </row>
     <row r="54" spans="1:41">
       <c r="A54" s="279"/>
@@ -13140,7 +13139,7 @@
       <c r="AL54" s="83"/>
       <c r="AM54" s="83"/>
       <c r="AN54" s="83"/>
-      <c r="AO54" s="361"/>
+      <c r="AO54" s="360"/>
     </row>
     <row r="55" spans="1:41">
       <c r="A55" s="279"/>
@@ -13183,7 +13182,7 @@
       <c r="AL55" s="83"/>
       <c r="AM55" s="83"/>
       <c r="AN55" s="83"/>
-      <c r="AO55" s="361"/>
+      <c r="AO55" s="360"/>
     </row>
     <row r="56" spans="1:41">
       <c r="A56" s="279"/>
@@ -13226,7 +13225,7 @@
       <c r="AL56" s="83"/>
       <c r="AM56" s="83"/>
       <c r="AN56" s="83"/>
-      <c r="AO56" s="361"/>
+      <c r="AO56" s="360"/>
     </row>
     <row r="57" spans="1:41">
       <c r="A57" s="279"/>
@@ -13269,7 +13268,7 @@
       <c r="AL57" s="83"/>
       <c r="AM57" s="83"/>
       <c r="AN57" s="83"/>
-      <c r="AO57" s="361"/>
+      <c r="AO57" s="360"/>
     </row>
     <row r="58" spans="1:41">
       <c r="A58" s="279"/>
@@ -13312,7 +13311,7 @@
       <c r="AL58" s="83"/>
       <c r="AM58" s="83"/>
       <c r="AN58" s="83"/>
-      <c r="AO58" s="361"/>
+      <c r="AO58" s="360"/>
     </row>
     <row r="59" spans="1:41">
       <c r="A59" s="279"/>
@@ -13355,7 +13354,7 @@
       <c r="AL59" s="83"/>
       <c r="AM59" s="83"/>
       <c r="AN59" s="83"/>
-      <c r="AO59" s="361"/>
+      <c r="AO59" s="360"/>
     </row>
     <row r="60" spans="1:41">
       <c r="A60" s="279"/>
@@ -13398,7 +13397,7 @@
       <c r="AL60" s="83"/>
       <c r="AM60" s="83"/>
       <c r="AN60" s="83"/>
-      <c r="AO60" s="361"/>
+      <c r="AO60" s="360"/>
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="279"/>
@@ -13441,7 +13440,7 @@
       <c r="AL61" s="83"/>
       <c r="AM61" s="83"/>
       <c r="AN61" s="83"/>
-      <c r="AO61" s="361"/>
+      <c r="AO61" s="360"/>
     </row>
     <row r="62" spans="1:41">
       <c r="A62" s="279"/>
@@ -13484,7 +13483,7 @@
       <c r="AL62" s="83"/>
       <c r="AM62" s="83"/>
       <c r="AN62" s="83"/>
-      <c r="AO62" s="361"/>
+      <c r="AO62" s="360"/>
     </row>
     <row r="63" spans="1:41">
       <c r="A63" s="279"/>
@@ -13527,7 +13526,7 @@
       <c r="AL63" s="83"/>
       <c r="AM63" s="83"/>
       <c r="AN63" s="83"/>
-      <c r="AO63" s="361"/>
+      <c r="AO63" s="360"/>
     </row>
     <row r="64" spans="1:41">
       <c r="A64" s="279"/>
@@ -13570,7 +13569,7 @@
       <c r="AL64" s="83"/>
       <c r="AM64" s="83"/>
       <c r="AN64" s="83"/>
-      <c r="AO64" s="361"/>
+      <c r="AO64" s="360"/>
     </row>
     <row r="65" spans="1:41">
       <c r="A65" s="279"/>
@@ -13613,7 +13612,7 @@
       <c r="AL65" s="83"/>
       <c r="AM65" s="83"/>
       <c r="AN65" s="83"/>
-      <c r="AO65" s="361"/>
+      <c r="AO65" s="360"/>
     </row>
     <row r="66" spans="1:41">
       <c r="A66" s="279"/>
@@ -13656,7 +13655,7 @@
       <c r="AL66" s="83"/>
       <c r="AM66" s="83"/>
       <c r="AN66" s="83"/>
-      <c r="AO66" s="361"/>
+      <c r="AO66" s="360"/>
     </row>
     <row r="67" spans="1:41">
       <c r="A67" s="279"/>
@@ -13699,7 +13698,7 @@
       <c r="AL67" s="83"/>
       <c r="AM67" s="83"/>
       <c r="AN67" s="83"/>
-      <c r="AO67" s="361"/>
+      <c r="AO67" s="360"/>
     </row>
     <row r="68" spans="1:41">
       <c r="A68" s="279"/>
@@ -13742,7 +13741,7 @@
       <c r="AL68" s="83"/>
       <c r="AM68" s="83"/>
       <c r="AN68" s="83"/>
-      <c r="AO68" s="361"/>
+      <c r="AO68" s="360"/>
     </row>
     <row r="69" spans="1:41">
       <c r="A69" s="279"/>
@@ -13785,7 +13784,7 @@
       <c r="AL69" s="83"/>
       <c r="AM69" s="83"/>
       <c r="AN69" s="83"/>
-      <c r="AO69" s="361"/>
+      <c r="AO69" s="360"/>
     </row>
     <row r="70" spans="1:41">
       <c r="A70" s="279"/>
@@ -13828,7 +13827,7 @@
       <c r="AL70" s="83"/>
       <c r="AM70" s="83"/>
       <c r="AN70" s="83"/>
-      <c r="AO70" s="361"/>
+      <c r="AO70" s="360"/>
     </row>
     <row r="71" spans="1:41">
       <c r="A71" s="279"/>
@@ -13871,7 +13870,7 @@
       <c r="AL71" s="83"/>
       <c r="AM71" s="83"/>
       <c r="AN71" s="83"/>
-      <c r="AO71" s="361"/>
+      <c r="AO71" s="360"/>
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="279"/>
@@ -13914,7 +13913,7 @@
       <c r="AL72" s="83"/>
       <c r="AM72" s="83"/>
       <c r="AN72" s="83"/>
-      <c r="AO72" s="361"/>
+      <c r="AO72" s="360"/>
     </row>
     <row r="73" spans="1:41">
       <c r="A73" s="279"/>
@@ -13957,7 +13956,7 @@
       <c r="AL73" s="83"/>
       <c r="AM73" s="83"/>
       <c r="AN73" s="83"/>
-      <c r="AO73" s="361"/>
+      <c r="AO73" s="360"/>
     </row>
     <row r="74" spans="1:41">
       <c r="A74" s="279"/>
@@ -14000,7 +13999,7 @@
       <c r="AL74" s="83"/>
       <c r="AM74" s="83"/>
       <c r="AN74" s="83"/>
-      <c r="AO74" s="361"/>
+      <c r="AO74" s="360"/>
     </row>
     <row r="75" spans="1:41">
       <c r="A75" s="279"/>
@@ -14043,7 +14042,7 @@
       <c r="AL75" s="83"/>
       <c r="AM75" s="83"/>
       <c r="AN75" s="83"/>
-      <c r="AO75" s="361"/>
+      <c r="AO75" s="360"/>
     </row>
     <row r="76" spans="1:41">
       <c r="A76" s="279"/>
@@ -14086,7 +14085,7 @@
       <c r="AL76" s="83"/>
       <c r="AM76" s="83"/>
       <c r="AN76" s="83"/>
-      <c r="AO76" s="361"/>
+      <c r="AO76" s="360"/>
     </row>
     <row r="77" spans="1:41">
       <c r="A77" s="279"/>
@@ -14129,7 +14128,7 @@
       <c r="AL77" s="83"/>
       <c r="AM77" s="83"/>
       <c r="AN77" s="83"/>
-      <c r="AO77" s="361"/>
+      <c r="AO77" s="360"/>
     </row>
     <row r="78" spans="1:41">
       <c r="A78" s="279"/>
@@ -14172,7 +14171,7 @@
       <c r="AL78" s="83"/>
       <c r="AM78" s="83"/>
       <c r="AN78" s="83"/>
-      <c r="AO78" s="361"/>
+      <c r="AO78" s="360"/>
     </row>
     <row r="79" spans="1:41">
       <c r="A79" s="279"/>
@@ -14215,7 +14214,7 @@
       <c r="AL79" s="83"/>
       <c r="AM79" s="83"/>
       <c r="AN79" s="83"/>
-      <c r="AO79" s="361"/>
+      <c r="AO79" s="360"/>
     </row>
     <row r="80" spans="1:41">
       <c r="A80" s="279"/>
@@ -14258,7 +14257,7 @@
       <c r="AL80" s="83"/>
       <c r="AM80" s="83"/>
       <c r="AN80" s="83"/>
-      <c r="AO80" s="361"/>
+      <c r="AO80" s="360"/>
     </row>
     <row r="81" spans="1:41">
       <c r="A81" s="279"/>
@@ -14301,7 +14300,7 @@
       <c r="AL81" s="83"/>
       <c r="AM81" s="83"/>
       <c r="AN81" s="83"/>
-      <c r="AO81" s="361"/>
+      <c r="AO81" s="360"/>
     </row>
     <row r="82" spans="1:41">
       <c r="A82" s="279"/>
@@ -14344,7 +14343,7 @@
       <c r="AL82" s="83"/>
       <c r="AM82" s="83"/>
       <c r="AN82" s="83"/>
-      <c r="AO82" s="361"/>
+      <c r="AO82" s="360"/>
     </row>
     <row r="83" spans="1:41">
       <c r="A83" s="279"/>
@@ -14387,7 +14386,7 @@
       <c r="AL83" s="83"/>
       <c r="AM83" s="83"/>
       <c r="AN83" s="83"/>
-      <c r="AO83" s="361"/>
+      <c r="AO83" s="360"/>
     </row>
     <row r="84" spans="1:41">
       <c r="A84" s="279"/>
@@ -14430,7 +14429,7 @@
       <c r="AL84" s="83"/>
       <c r="AM84" s="83"/>
       <c r="AN84" s="83"/>
-      <c r="AO84" s="361"/>
+      <c r="AO84" s="360"/>
     </row>
     <row r="85" spans="1:41">
       <c r="A85" s="279"/>
@@ -14473,7 +14472,7 @@
       <c r="AL85" s="83"/>
       <c r="AM85" s="83"/>
       <c r="AN85" s="83"/>
-      <c r="AO85" s="361"/>
+      <c r="AO85" s="360"/>
     </row>
     <row r="86" spans="1:41">
       <c r="A86" s="279"/>
@@ -14516,7 +14515,7 @@
       <c r="AL86" s="83"/>
       <c r="AM86" s="83"/>
       <c r="AN86" s="83"/>
-      <c r="AO86" s="361"/>
+      <c r="AO86" s="360"/>
     </row>
     <row r="87" spans="1:41">
       <c r="A87" s="279"/>
@@ -14559,7 +14558,7 @@
       <c r="AL87" s="83"/>
       <c r="AM87" s="83"/>
       <c r="AN87" s="83"/>
-      <c r="AO87" s="361"/>
+      <c r="AO87" s="360"/>
     </row>
     <row r="88" spans="1:41">
       <c r="A88" s="279"/>
@@ -14602,7 +14601,7 @@
       <c r="AL88" s="83"/>
       <c r="AM88" s="83"/>
       <c r="AN88" s="83"/>
-      <c r="AO88" s="361"/>
+      <c r="AO88" s="360"/>
     </row>
     <row r="89" spans="1:41">
       <c r="A89" s="279"/>
@@ -14645,7 +14644,7 @@
       <c r="AL89" s="83"/>
       <c r="AM89" s="83"/>
       <c r="AN89" s="83"/>
-      <c r="AO89" s="361"/>
+      <c r="AO89" s="360"/>
     </row>
     <row r="90" spans="1:41">
       <c r="A90" s="279"/>
@@ -14688,7 +14687,7 @@
       <c r="AL90" s="83"/>
       <c r="AM90" s="83"/>
       <c r="AN90" s="83"/>
-      <c r="AO90" s="361"/>
+      <c r="AO90" s="360"/>
     </row>
     <row r="91" spans="1:41">
       <c r="A91" s="279"/>
@@ -14731,7 +14730,7 @@
       <c r="AL91" s="83"/>
       <c r="AM91" s="83"/>
       <c r="AN91" s="83"/>
-      <c r="AO91" s="361"/>
+      <c r="AO91" s="360"/>
     </row>
     <row r="92" spans="1:41">
       <c r="A92" s="279"/>
@@ -14774,7 +14773,7 @@
       <c r="AL92" s="83"/>
       <c r="AM92" s="83"/>
       <c r="AN92" s="83"/>
-      <c r="AO92" s="361"/>
+      <c r="AO92" s="360"/>
     </row>
     <row r="93" spans="1:41">
       <c r="A93" s="279"/>
@@ -14817,7 +14816,7 @@
       <c r="AL93" s="83"/>
       <c r="AM93" s="83"/>
       <c r="AN93" s="83"/>
-      <c r="AO93" s="361"/>
+      <c r="AO93" s="360"/>
     </row>
     <row r="94" spans="1:41">
       <c r="A94" s="279"/>
@@ -14860,7 +14859,7 @@
       <c r="AL94" s="83"/>
       <c r="AM94" s="83"/>
       <c r="AN94" s="83"/>
-      <c r="AO94" s="361"/>
+      <c r="AO94" s="360"/>
     </row>
     <row r="95" spans="1:41">
       <c r="A95" s="279"/>
@@ -14903,7 +14902,7 @@
       <c r="AL95" s="83"/>
       <c r="AM95" s="83"/>
       <c r="AN95" s="83"/>
-      <c r="AO95" s="361"/>
+      <c r="AO95" s="360"/>
     </row>
     <row r="96" spans="1:41">
       <c r="A96" s="279"/>
@@ -14946,7 +14945,7 @@
       <c r="AL96" s="83"/>
       <c r="AM96" s="83"/>
       <c r="AN96" s="83"/>
-      <c r="AO96" s="361"/>
+      <c r="AO96" s="360"/>
     </row>
     <row r="97" spans="1:41">
       <c r="A97" s="279"/>
@@ -14989,7 +14988,7 @@
       <c r="AL97" s="83"/>
       <c r="AM97" s="83"/>
       <c r="AN97" s="83"/>
-      <c r="AO97" s="361"/>
+      <c r="AO97" s="360"/>
     </row>
     <row r="98" spans="1:41">
       <c r="A98" s="279"/>
@@ -15032,7 +15031,7 @@
       <c r="AL98" s="83"/>
       <c r="AM98" s="83"/>
       <c r="AN98" s="83"/>
-      <c r="AO98" s="361"/>
+      <c r="AO98" s="360"/>
     </row>
     <row r="99" spans="1:41">
       <c r="A99" s="279"/>
@@ -15075,7 +15074,7 @@
       <c r="AL99" s="83"/>
       <c r="AM99" s="83"/>
       <c r="AN99" s="83"/>
-      <c r="AO99" s="361"/>
+      <c r="AO99" s="360"/>
     </row>
     <row r="100" spans="1:41">
       <c r="A100" s="279"/>
@@ -15118,7 +15117,7 @@
       <c r="AL100" s="83"/>
       <c r="AM100" s="83"/>
       <c r="AN100" s="83"/>
-      <c r="AO100" s="361"/>
+      <c r="AO100" s="360"/>
     </row>
     <row r="101" spans="1:41">
       <c r="A101" s="279"/>
@@ -15161,7 +15160,7 @@
       <c r="AL101" s="83"/>
       <c r="AM101" s="83"/>
       <c r="AN101" s="83"/>
-      <c r="AO101" s="361"/>
+      <c r="AO101" s="360"/>
     </row>
     <row r="102" spans="1:41">
       <c r="A102" s="279"/>
@@ -15204,7 +15203,7 @@
       <c r="AL102" s="83"/>
       <c r="AM102" s="83"/>
       <c r="AN102" s="83"/>
-      <c r="AO102" s="361"/>
+      <c r="AO102" s="360"/>
     </row>
     <row r="103" spans="1:41">
       <c r="A103" s="279"/>
@@ -15247,7 +15246,7 @@
       <c r="AL103" s="83"/>
       <c r="AM103" s="83"/>
       <c r="AN103" s="83"/>
-      <c r="AO103" s="361"/>
+      <c r="AO103" s="360"/>
     </row>
     <row r="104" spans="1:41">
       <c r="A104" s="279"/>
@@ -15290,7 +15289,7 @@
       <c r="AL104" s="83"/>
       <c r="AM104" s="83"/>
       <c r="AN104" s="83"/>
-      <c r="AO104" s="361"/>
+      <c r="AO104" s="360"/>
     </row>
     <row r="105" spans="1:41">
       <c r="A105" s="279"/>
@@ -15333,7 +15332,7 @@
       <c r="AL105" s="83"/>
       <c r="AM105" s="83"/>
       <c r="AN105" s="83"/>
-      <c r="AO105" s="361"/>
+      <c r="AO105" s="360"/>
     </row>
     <row r="106" spans="1:41">
       <c r="A106" s="279"/>
@@ -15376,7 +15375,7 @@
       <c r="AL106" s="83"/>
       <c r="AM106" s="83"/>
       <c r="AN106" s="83"/>
-      <c r="AO106" s="361"/>
+      <c r="AO106" s="360"/>
     </row>
     <row r="107" spans="1:41">
       <c r="A107" s="279"/>
@@ -15419,7 +15418,7 @@
       <c r="AL107" s="83"/>
       <c r="AM107" s="83"/>
       <c r="AN107" s="83"/>
-      <c r="AO107" s="361"/>
+      <c r="AO107" s="360"/>
     </row>
     <row r="108" spans="1:41">
       <c r="A108" s="279"/>
@@ -15462,7 +15461,7 @@
       <c r="AL108" s="83"/>
       <c r="AM108" s="83"/>
       <c r="AN108" s="83"/>
-      <c r="AO108" s="361"/>
+      <c r="AO108" s="360"/>
     </row>
     <row r="109" spans="1:41">
       <c r="A109" s="279"/>
@@ -15505,7 +15504,7 @@
       <c r="AL109" s="83"/>
       <c r="AM109" s="83"/>
       <c r="AN109" s="83"/>
-      <c r="AO109" s="361"/>
+      <c r="AO109" s="360"/>
     </row>
     <row r="110" spans="1:41">
       <c r="A110" s="279"/>
@@ -15548,7 +15547,7 @@
       <c r="AL110" s="83"/>
       <c r="AM110" s="83"/>
       <c r="AN110" s="83"/>
-      <c r="AO110" s="361"/>
+      <c r="AO110" s="360"/>
     </row>
     <row r="111" spans="1:41">
       <c r="A111" s="279"/>
@@ -15591,7 +15590,7 @@
       <c r="AL111" s="83"/>
       <c r="AM111" s="83"/>
       <c r="AN111" s="83"/>
-      <c r="AO111" s="361"/>
+      <c r="AO111" s="360"/>
     </row>
     <row r="112" spans="1:41">
       <c r="A112" s="279"/>
@@ -15634,7 +15633,7 @@
       <c r="AL112" s="83"/>
       <c r="AM112" s="83"/>
       <c r="AN112" s="83"/>
-      <c r="AO112" s="361"/>
+      <c r="AO112" s="360"/>
     </row>
     <row r="113" spans="1:41">
       <c r="A113" s="279"/>
@@ -15677,7 +15676,7 @@
       <c r="AL113" s="83"/>
       <c r="AM113" s="83"/>
       <c r="AN113" s="83"/>
-      <c r="AO113" s="361"/>
+      <c r="AO113" s="360"/>
     </row>
     <row r="114" spans="1:41">
       <c r="A114" s="279"/>
@@ -15720,7 +15719,7 @@
       <c r="AL114" s="83"/>
       <c r="AM114" s="83"/>
       <c r="AN114" s="83"/>
-      <c r="AO114" s="361"/>
+      <c r="AO114" s="360"/>
     </row>
     <row r="115" spans="1:41">
       <c r="A115" s="279"/>
@@ -15763,7 +15762,7 @@
       <c r="AL115" s="83"/>
       <c r="AM115" s="83"/>
       <c r="AN115" s="83"/>
-      <c r="AO115" s="361"/>
+      <c r="AO115" s="360"/>
     </row>
     <row r="116" spans="1:41">
       <c r="A116" s="279"/>
@@ -15806,7 +15805,7 @@
       <c r="AL116" s="83"/>
       <c r="AM116" s="83"/>
       <c r="AN116" s="83"/>
-      <c r="AO116" s="361"/>
+      <c r="AO116" s="360"/>
     </row>
     <row r="117" spans="1:41">
       <c r="A117" s="279"/>
@@ -15849,7 +15848,7 @@
       <c r="AL117" s="83"/>
       <c r="AM117" s="83"/>
       <c r="AN117" s="83"/>
-      <c r="AO117" s="361"/>
+      <c r="AO117" s="360"/>
     </row>
     <row r="118" spans="1:41">
       <c r="A118" s="279"/>
@@ -15892,7 +15891,7 @@
       <c r="AL118" s="83"/>
       <c r="AM118" s="83"/>
       <c r="AN118" s="83"/>
-      <c r="AO118" s="361"/>
+      <c r="AO118" s="360"/>
     </row>
     <row r="119" spans="1:41">
       <c r="A119" s="279"/>
@@ -15935,7 +15934,7 @@
       <c r="AL119" s="83"/>
       <c r="AM119" s="83"/>
       <c r="AN119" s="83"/>
-      <c r="AO119" s="361"/>
+      <c r="AO119" s="360"/>
     </row>
     <row r="120" spans="1:41">
       <c r="A120" s="279"/>
@@ -15978,7 +15977,7 @@
       <c r="AL120" s="83"/>
       <c r="AM120" s="83"/>
       <c r="AN120" s="83"/>
-      <c r="AO120" s="361"/>
+      <c r="AO120" s="360"/>
     </row>
     <row r="121" spans="1:41">
       <c r="A121" s="279"/>
@@ -16021,7 +16020,7 @@
       <c r="AL121" s="83"/>
       <c r="AM121" s="83"/>
       <c r="AN121" s="83"/>
-      <c r="AO121" s="361"/>
+      <c r="AO121" s="360"/>
     </row>
     <row r="122" spans="1:41">
       <c r="A122" s="279"/>
@@ -16064,7 +16063,7 @@
       <c r="AL122" s="83"/>
       <c r="AM122" s="83"/>
       <c r="AN122" s="83"/>
-      <c r="AO122" s="361"/>
+      <c r="AO122" s="360"/>
     </row>
     <row r="123" spans="1:41">
       <c r="A123" s="279"/>
@@ -16107,7 +16106,7 @@
       <c r="AL123" s="83"/>
       <c r="AM123" s="83"/>
       <c r="AN123" s="83"/>
-      <c r="AO123" s="361"/>
+      <c r="AO123" s="360"/>
     </row>
     <row r="124" spans="1:41">
       <c r="A124" s="279"/>
@@ -16150,7 +16149,7 @@
       <c r="AL124" s="83"/>
       <c r="AM124" s="83"/>
       <c r="AN124" s="83"/>
-      <c r="AO124" s="361"/>
+      <c r="AO124" s="360"/>
     </row>
     <row r="125" spans="1:41">
       <c r="A125" s="279"/>
@@ -16193,7 +16192,7 @@
       <c r="AL125" s="83"/>
       <c r="AM125" s="83"/>
       <c r="AN125" s="83"/>
-      <c r="AO125" s="361"/>
+      <c r="AO125" s="360"/>
     </row>
     <row r="126" spans="1:41">
       <c r="A126" s="279"/>
@@ -16236,7 +16235,7 @@
       <c r="AL126" s="83"/>
       <c r="AM126" s="83"/>
       <c r="AN126" s="83"/>
-      <c r="AO126" s="361"/>
+      <c r="AO126" s="360"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -17328,7 +17327,7 @@
       <c r="A6" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="B6" s="374" t="s">
+      <c r="B6" s="373" t="s">
         <v>392</v>
       </c>
       <c r="C6" s="34" t="s">
@@ -18051,7 +18050,7 @@
       <c r="A9" s="40" t="s">
         <v>487</v>
       </c>
-      <c r="B9" s="375" t="s">
+      <c r="B9" s="374" t="s">
         <v>370</v>
       </c>
       <c r="C9" s="42" t="s">
@@ -20287,7 +20286,7 @@
       <c r="A19" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="B19" s="376" t="s">
+      <c r="B19" s="375" t="s">
         <v>513</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -20518,7 +20517,7 @@
       <c r="A20" s="56" t="s">
         <v>516</v>
       </c>
-      <c r="B20" s="377" t="s">
+      <c r="B20" s="376" t="s">
         <v>517</v>
       </c>
       <c r="C20" s="67" t="s">
@@ -22604,7 +22603,7 @@
       <c r="A30" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="B30" s="378" t="s">
+      <c r="B30" s="377" t="s">
         <v>397</v>
       </c>
       <c r="C30" s="73" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -9397,11 +9397,11 @@
   <dimension ref="A1:AP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="X17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -9609,7 +9609,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -3144,12 +3144,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="57">
@@ -3383,7 +3383,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3398,7 +3406,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3426,24 +3434,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3454,6 +3446,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3488,6 +3488,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3503,24 +3518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3608,7 +3608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3620,7 +3620,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3632,7 +3650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3656,7 +3674,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3668,7 +3698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3680,7 +3716,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3692,19 +3746,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3716,67 +3770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3789,6 +3783,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3911,6 +3911,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3960,163 +3975,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4159,9 +4159,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4604,105 +4604,105 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4711,13 +4711,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4746,20 +4746,20 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4768,19 +4768,19 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4789,10 +4789,10 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4801,10 +4801,10 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4813,28 +4813,28 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4843,7 +4843,7 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4852,13 +4852,13 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4867,16 +4867,16 @@
     <xf numFmtId="2" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4885,7 +4885,7 @@
     <xf numFmtId="49" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4915,7 +4915,7 @@
     <xf numFmtId="2" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4927,13 +4927,13 @@
     <xf numFmtId="10" fontId="22" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="30" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="27" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4951,11 +4951,11 @@
     <xf numFmtId="10" fontId="8" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="24" fillId="11" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="24" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4967,19 +4967,19 @@
     <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4988,10 +4988,10 @@
     <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5003,13 +5003,13 @@
     <xf numFmtId="10" fontId="13" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9557,11 +9557,11 @@
   <dimension ref="A1:AP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AK4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -10241,7 +10241,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AE7" s="304" t="e">
-        <f>(V7-W7)/V7</f>
+        <f t="shared" ref="AE7:AE13" si="2">(V7-W7)/V7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF7" s="304"/>
@@ -10359,11 +10359,11 @@
         <v>0.10876867004931</v>
       </c>
       <c r="AE8" s="334">
-        <f>(V8-W8)/V8</f>
+        <f t="shared" si="2"/>
         <v>0.107858136300417</v>
       </c>
       <c r="AF8" s="335" t="e">
-        <f>(X8-Y8)/X8</f>
+        <f t="shared" ref="AF8:AF13" si="3">(X8-Y8)/X8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG8" s="287" t="s">
@@ -10463,24 +10463,24 @@
         <v>387</v>
       </c>
       <c r="AA9" s="145">
-        <f t="shared" ref="AA9:AA22" si="2">(J9-O9)/J9</f>
+        <f t="shared" ref="AA9:AA22" si="4">(J9-O9)/J9</f>
         <v>0.33492081072101</v>
       </c>
       <c r="AB9" s="308">
-        <f t="shared" ref="AB9:AB22" si="3">(P9-Q9)/P9</f>
+        <f t="shared" ref="AB9:AB22" si="5">(P9-Q9)/P9</f>
         <v>0.123745819397993</v>
       </c>
       <c r="AC9" s="308">
-        <f t="shared" ref="AC9:AC22" si="4">(R9-S9)/R9</f>
+        <f t="shared" ref="AC9:AC22" si="6">(R9-S9)/R9</f>
         <v>0.0972044113875352</v>
       </c>
       <c r="AD9" s="308"/>
       <c r="AE9" s="308" t="e">
-        <f>(V9-W9)/V9</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF9" s="336" t="e">
-        <f>(X9-Y9)/X9</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG9" s="288" t="s">
@@ -10542,15 +10542,15 @@
         <v>223.48</v>
       </c>
       <c r="L10" s="309">
-        <f t="shared" ref="L10:L22" si="5">(H10-I10)/I10</f>
+        <f t="shared" ref="L10:L22" si="7">(H10-I10)/I10</f>
         <v>0.570532738263375</v>
       </c>
       <c r="M10" s="309">
-        <f t="shared" ref="M10:M22" si="6">(J10-H10)/J10</f>
+        <f t="shared" ref="M10:M22" si="8">(J10-H10)/J10</f>
         <v>0.0528109028960818</v>
       </c>
       <c r="N10" s="309">
-        <f t="shared" ref="N10:N22" si="7">(J10-K10)/K10</f>
+        <f t="shared" ref="N10:N22" si="9">(J10-K10)/K10</f>
         <v>0.313316627886164</v>
       </c>
       <c r="O10" s="263">
@@ -10586,27 +10586,27 @@
         <v>391</v>
       </c>
       <c r="AA10" s="309">
+        <f t="shared" si="4"/>
+        <v>0.396899488926746</v>
+      </c>
+      <c r="AB10" s="309">
+        <f t="shared" si="5"/>
+        <v>0.143964562569214</v>
+      </c>
+      <c r="AC10" s="309">
+        <f t="shared" si="6"/>
+        <v>0.141080803694785</v>
+      </c>
+      <c r="AD10" s="309">
+        <f t="shared" ref="AD10:AD13" si="10">(T10-U10)/T10</f>
+        <v>0.0869167429094236</v>
+      </c>
+      <c r="AE10" s="309">
         <f t="shared" si="2"/>
-        <v>0.396899488926746</v>
-      </c>
-      <c r="AB10" s="309">
+        <v>0.0646762589928058</v>
+      </c>
+      <c r="AF10" s="336" t="e">
         <f t="shared" si="3"/>
-        <v>0.143964562569214</v>
-      </c>
-      <c r="AC10" s="309">
-        <f t="shared" si="4"/>
-        <v>0.141080803694785</v>
-      </c>
-      <c r="AD10" s="309">
-        <f t="shared" ref="AD10:AD13" si="8">(T10-U10)/T10</f>
-        <v>0.0869167429094236</v>
-      </c>
-      <c r="AE10" s="309">
-        <f>(V10-W10)/V10</f>
-        <v>0.0646762589928058</v>
-      </c>
-      <c r="AF10" s="336" t="e">
-        <f>(X10-Y10)/X10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG10" s="289" t="s">
@@ -10668,15 +10668,15 @@
         <v>368.8</v>
       </c>
       <c r="L11" s="310">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.07010402532791</v>
       </c>
       <c r="M11" s="310">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.0694884931284053</v>
       </c>
       <c r="N11" s="310">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.333731019522777</v>
       </c>
       <c r="O11" s="266">
@@ -10708,27 +10708,27 @@
         <v>395</v>
       </c>
       <c r="AA11" s="310">
+        <f t="shared" si="4"/>
+        <v>0.352362364804424</v>
+      </c>
+      <c r="AB11" s="310">
+        <f t="shared" si="5"/>
+        <v>0.11395244504262</v>
+      </c>
+      <c r="AC11" s="310">
+        <f t="shared" si="6"/>
+        <v>0.0829210032417676</v>
+      </c>
+      <c r="AD11" s="310">
+        <f t="shared" si="10"/>
+        <v>0.0374078202709656</v>
+      </c>
+      <c r="AE11" s="309" t="e">
         <f t="shared" si="2"/>
-        <v>0.352362364804424</v>
-      </c>
-      <c r="AB11" s="310">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF11" s="336" t="e">
         <f t="shared" si="3"/>
-        <v>0.11395244504262</v>
-      </c>
-      <c r="AC11" s="310">
-        <f t="shared" si="4"/>
-        <v>0.0829210032417676</v>
-      </c>
-      <c r="AD11" s="310">
-        <f t="shared" si="8"/>
-        <v>0.0374078202709656</v>
-      </c>
-      <c r="AE11" s="309" t="e">
-        <f>(V11-W11)/V11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF11" s="336" t="e">
-        <f>(X11-Y11)/X11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG11" s="290" t="s">
@@ -10790,15 +10790,15 @@
         <v>188.67</v>
       </c>
       <c r="L12" s="310">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.36903690369037</v>
       </c>
       <c r="M12" s="310">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.0867700180614088</v>
       </c>
       <c r="N12" s="310">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.408597021254042</v>
       </c>
       <c r="O12" s="266">
@@ -10830,27 +10830,27 @@
         <v>395</v>
       </c>
       <c r="AA12" s="310">
+        <f t="shared" si="4"/>
+        <v>0.363673991571343</v>
+      </c>
+      <c r="AB12" s="310">
+        <f t="shared" si="5"/>
+        <v>0.272454961701399</v>
+      </c>
+      <c r="AC12" s="310">
+        <f t="shared" si="6"/>
+        <v>0.234169070335034</v>
+      </c>
+      <c r="AD12" s="310">
+        <f t="shared" si="10"/>
+        <v>0.107457627118644</v>
+      </c>
+      <c r="AE12" s="309" t="e">
         <f t="shared" si="2"/>
-        <v>0.363673991571343</v>
-      </c>
-      <c r="AB12" s="310">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12" s="336" t="e">
         <f t="shared" si="3"/>
-        <v>0.272454961701399</v>
-      </c>
-      <c r="AC12" s="310">
-        <f t="shared" si="4"/>
-        <v>0.234169070335034</v>
-      </c>
-      <c r="AD12" s="310">
-        <f t="shared" si="8"/>
-        <v>0.107457627118644</v>
-      </c>
-      <c r="AE12" s="309" t="e">
-        <f>(V12-W12)/V12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF12" s="336" t="e">
-        <f>(X12-Y12)/X12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG12" s="290" t="s">
@@ -10912,15 +10912,15 @@
         <v>90.26</v>
       </c>
       <c r="L13" s="309">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.419188397713011</v>
       </c>
       <c r="M13" s="309">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.132839127471029</v>
       </c>
       <c r="N13" s="309">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.300243740305783</v>
       </c>
       <c r="O13" s="263">
@@ -10960,27 +10960,27 @@
         <v>400</v>
       </c>
       <c r="AA13" s="309">
+        <f t="shared" si="4"/>
+        <v>0.347648261758691</v>
+      </c>
+      <c r="AB13" s="309">
+        <f t="shared" si="5"/>
+        <v>0.196683937823834</v>
+      </c>
+      <c r="AC13" s="309">
+        <f t="shared" si="6"/>
+        <v>0.126390487149981</v>
+      </c>
+      <c r="AD13" s="309">
+        <f t="shared" si="10"/>
+        <v>0.0455358918274011</v>
+      </c>
+      <c r="AE13" s="309">
         <f t="shared" si="2"/>
-        <v>0.347648261758691</v>
-      </c>
-      <c r="AB13" s="309">
+        <v>0.0829998094149037</v>
+      </c>
+      <c r="AF13" s="336">
         <f t="shared" si="3"/>
-        <v>0.196683937823834</v>
-      </c>
-      <c r="AC13" s="309">
-        <f t="shared" si="4"/>
-        <v>0.126390487149981</v>
-      </c>
-      <c r="AD13" s="309">
-        <f t="shared" si="8"/>
-        <v>0.0455358918274011</v>
-      </c>
-      <c r="AE13" s="309">
-        <f>(V13-W13)/V13</f>
-        <v>0.0829998094149037</v>
-      </c>
-      <c r="AF13" s="336">
-        <f>(X13-Y13)/X13</f>
         <v>0.0967741935483871</v>
       </c>
       <c r="AG13" s="289" t="s">
@@ -11075,15 +11075,15 @@
         <v>403</v>
       </c>
       <c r="AA14" s="312">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.179432339705031</v>
       </c>
       <c r="AB14" s="312">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.0778748895217519</v>
       </c>
       <c r="AC14" s="312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.0794979079497908</v>
       </c>
       <c r="AD14" s="312"/>
@@ -11148,15 +11148,15 @@
         <v>40.73</v>
       </c>
       <c r="L15" s="312">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.71016311166876</v>
       </c>
       <c r="M15" s="312">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.0029235266964148</v>
       </c>
       <c r="N15" s="312">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.595629756935919</v>
       </c>
       <c r="O15" s="311">
@@ -11188,19 +11188,19 @@
         <v>381</v>
       </c>
       <c r="AA15" s="312">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.384520695491614</v>
       </c>
       <c r="AB15" s="312">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.209946848899013</v>
       </c>
       <c r="AC15" s="312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.148709122203098</v>
       </c>
       <c r="AD15" s="312">
-        <f t="shared" ref="AD15:AD20" si="9">(T15-U15)/T15</f>
+        <f t="shared" ref="AD15:AD20" si="11">(T15-U15)/T15</f>
         <v>0.0833333333333334</v>
       </c>
       <c r="AE15" s="312"/>
@@ -11266,15 +11266,15 @@
         <v>149.28</v>
       </c>
       <c r="L16" s="312">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.663685002507942</v>
       </c>
       <c r="M16" s="312">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.0538651706760484</v>
       </c>
       <c r="N16" s="312">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.409030010718114</v>
       </c>
       <c r="O16" s="311">
@@ -11310,23 +11310,23 @@
         <v>408</v>
       </c>
       <c r="AA16" s="312">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.431301702006276</v>
       </c>
       <c r="AB16" s="312">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.313035361300242</v>
       </c>
       <c r="AC16" s="312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.139281019603361</v>
       </c>
       <c r="AD16" s="312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.0714965500832739</v>
       </c>
       <c r="AE16" s="312">
-        <f t="shared" ref="AE16:AE20" si="10">(V16-W16)/V16</f>
+        <f t="shared" ref="AE16:AE20" si="12">(V16-W16)/V16</f>
         <v>0.0782881002087683</v>
       </c>
       <c r="AF16" s="312"/>
@@ -11389,15 +11389,15 @@
         <v>113.94</v>
       </c>
       <c r="L17" s="314">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.82862971778307</v>
       </c>
       <c r="M17" s="314">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.138284648850218</v>
       </c>
       <c r="N17" s="314">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.694576092680358</v>
       </c>
       <c r="O17" s="313">
@@ -11421,19 +11421,19 @@
         <v>369</v>
       </c>
       <c r="AA17" s="314">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.169256266832401</v>
       </c>
       <c r="AB17" s="314">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.0969669635810124</v>
       </c>
       <c r="AC17" s="314" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD17" s="314" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE17" s="314"/>
@@ -11495,15 +11495,15 @@
         <v>27.6</v>
       </c>
       <c r="L18" s="312">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0085242408098</v>
       </c>
       <c r="M18" s="312">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.174332019272886</v>
       </c>
       <c r="N18" s="312">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.654347826086956</v>
       </c>
       <c r="O18" s="311">
@@ -11535,19 +11535,19 @@
         <v>387</v>
       </c>
       <c r="AA18" s="312">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.358738501971091</v>
       </c>
       <c r="AB18" s="312">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.208104052026013</v>
       </c>
       <c r="AC18" s="312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.0868987509965454</v>
       </c>
       <c r="AD18" s="312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.0827621223660827</v>
       </c>
       <c r="AE18" s="312"/>
@@ -11611,15 +11611,15 @@
         <v>16.52</v>
       </c>
       <c r="L19" s="304">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.481840193704601</v>
       </c>
       <c r="M19" s="304">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.269471799462847</v>
       </c>
       <c r="N19" s="322">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.02845036319613</v>
       </c>
       <c r="O19" s="274">
@@ -11655,23 +11655,23 @@
         <v>395</v>
       </c>
       <c r="AA19" s="329">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.405550581915846</v>
       </c>
       <c r="AB19" s="329">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.229323308270677</v>
       </c>
       <c r="AC19" s="304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.173863202139855</v>
       </c>
       <c r="AD19" s="304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.208813559322034</v>
       </c>
       <c r="AE19" s="304">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.151943462897527</v>
       </c>
       <c r="AF19" s="337"/>
@@ -11720,15 +11720,15 @@
         <v>42.2</v>
       </c>
       <c r="L20" s="312">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.9108049311095</v>
       </c>
       <c r="M20" s="312">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.0786713286713287</v>
       </c>
       <c r="N20" s="312">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.355450236966825</v>
       </c>
       <c r="O20" s="244">
@@ -11756,23 +11756,23 @@
         <v>421</v>
       </c>
       <c r="AA20" s="312">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12027972027972</v>
       </c>
       <c r="AB20" s="312">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.0613890415979476</v>
       </c>
       <c r="AC20" s="312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.0650116092159314</v>
       </c>
       <c r="AD20" s="312" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE20" s="312" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF20" s="338"/>
@@ -11835,15 +11835,15 @@
         <v>151</v>
       </c>
       <c r="L21" s="312">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.679733513565704</v>
       </c>
       <c r="M21" s="312">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.0895912920613324</v>
       </c>
       <c r="N21" s="312">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.265496688741722</v>
       </c>
       <c r="O21" s="244">
@@ -11867,15 +11867,15 @@
         <v>423</v>
       </c>
       <c r="AA21" s="312">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.122403056151552</v>
       </c>
       <c r="AB21" s="312">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.0696409140369968</v>
       </c>
       <c r="AC21" s="312" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD21" s="338"/>
@@ -11938,15 +11938,15 @@
         <v>23.16</v>
       </c>
       <c r="L22" s="316">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.261119081779053</v>
       </c>
       <c r="M22" s="316">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.187615526802218</v>
       </c>
       <c r="N22" s="316">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.401554404145078</v>
       </c>
       <c r="O22" s="278">
@@ -11978,15 +11978,15 @@
         <v>426</v>
       </c>
       <c r="AA22" s="316">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.339186691312384</v>
       </c>
       <c r="AB22" s="316">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.154666666666667</v>
       </c>
       <c r="AC22" s="316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.139703083365055</v>
       </c>
       <c r="AD22" s="316">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -22,37 +22,37 @@
     <t>工业金属</t>
   </si>
   <si>
+    <t>中药</t>
+  </si>
+  <si>
     <t>国防军工</t>
   </si>
   <si>
     <t>饮料制造</t>
   </si>
   <si>
-    <t>中药</t>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>物流</t>
   </si>
   <si>
     <t>化学原料</t>
   </si>
   <si>
-    <t>医疗器械</t>
+    <t>通信设备</t>
   </si>
   <si>
     <t>美容护理</t>
   </si>
   <si>
-    <t>通信设备</t>
+    <t>建筑材料</t>
+  </si>
+  <si>
+    <t>钢铁</t>
   </si>
   <si>
     <t>电力设备</t>
-  </si>
-  <si>
-    <t>建筑材料</t>
-  </si>
-  <si>
-    <t>钢铁</t>
-  </si>
-  <si>
-    <t>物流</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -2296,13 +2296,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="57">
     <font>
@@ -2541,11 +2541,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2557,27 +2564,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2586,26 +2572,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2633,8 +2618,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2642,6 +2628,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2655,9 +2648,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2665,14 +2673,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2760,13 +2760,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2784,13 +2898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2802,49 +2910,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,91 +2940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3059,36 +3059,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3109,6 +3079,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3138,155 +3123,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3322,9 +3322,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3767,105 +3767,105 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3874,13 +3874,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3909,7 +3909,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3919,13 +3919,13 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3934,19 +3934,19 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3955,10 +3955,10 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3967,10 +3967,10 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3979,28 +3979,28 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4009,7 +4009,7 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4018,13 +4018,13 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4033,16 +4033,16 @@
     <xf numFmtId="2" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4051,7 +4051,7 @@
     <xf numFmtId="49" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4081,7 +4081,7 @@
     <xf numFmtId="2" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4093,13 +4093,13 @@
     <xf numFmtId="10" fontId="22" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="30" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="27" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4117,11 +4117,11 @@
     <xf numFmtId="10" fontId="8" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="24" fillId="11" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="24" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4133,19 +4133,19 @@
     <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4154,10 +4154,10 @@
     <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4169,13 +4169,13 @@
     <xf numFmtId="10" fontId="13" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4277,9 +4277,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4287,9 +4284,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4302,13 +4296,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4749,40 +4737,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>工业金属</c:v>
+                  <c:v>中药</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>饮料制造</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>医疗器械</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>物流</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>通信设备</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>美容护理</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>建筑材料</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>化学原料</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>国防军工</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>饮料制造</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>中药</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>化学原料</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>医疗器械</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>美容护理</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>通信设备</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>电力设备</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>建筑材料</c:v>
+                  <c:v>工业金属</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>钢铁</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>物流</c:v>
+                  <c:v>电力设备</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4794,16 +4782,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -4818,7 +4806,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -5837,8 +5825,8 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C12"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -5853,1114 +5841,1109 @@
       <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="375">
+      <c r="B1" s="255" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="371">
         <f>COUNTIF(A:A,B1)</f>
+        <v>2</v>
+      </c>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="92"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="255" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="371">
+        <f>COUNTIF(A:A,B2)</f>
+        <v>4</v>
+      </c>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="374"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="378"/>
+      <c r="I2" s="92"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="255" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="371">
+        <f>COUNTIF(A:A,B3)</f>
         <v>1</v>
       </c>
-      <c r="D1" s="375"/>
-      <c r="E1" s="375"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="381"/>
-      <c r="I1" s="92"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="369" t="s">
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="374"/>
+      <c r="G3" s="378"/>
+      <c r="H3" s="378"/>
+      <c r="I3" s="92"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="371">
+        <f>COUNTIF(A:A,B4)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="369" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="375">
-        <f>COUNTIF(A:A,B2)</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="376"/>
-      <c r="E2" s="376"/>
-      <c r="F2" s="378"/>
-      <c r="G2" s="382"/>
-      <c r="H2" s="382"/>
-      <c r="I2" s="92"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="371" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="371" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="375">
-        <f>COUNTIF(A:A,B3)</f>
-        <v>4</v>
-      </c>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="378"/>
-      <c r="G3" s="382"/>
-      <c r="H3" s="382"/>
-      <c r="I3" s="92"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="369" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="371" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="375">
-        <f>COUNTIF(A:A,B4)</f>
-        <v>2</v>
-      </c>
-      <c r="D4" s="376"/>
-      <c r="E4" s="376"/>
-      <c r="F4" s="378"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="382"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="374"/>
+      <c r="G4" s="378"/>
+      <c r="H4" s="378"/>
       <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="371" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="371" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="375">
+      <c r="A5" s="255" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="371">
         <f>COUNTIF(A:A,B5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="378"/>
-      <c r="G5" s="382"/>
-      <c r="H5" s="382"/>
+      <c r="D5" s="372"/>
+      <c r="E5" s="372"/>
+      <c r="F5" s="374"/>
+      <c r="G5" s="378"/>
+      <c r="H5" s="378"/>
       <c r="I5" s="92"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="369" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="369" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="375">
+      <c r="A6" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="371">
         <f>COUNTIF(A:A,B6)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="376"/>
-      <c r="E6" s="376"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="382"/>
-      <c r="H6" s="382"/>
+      <c r="D6" s="372"/>
+      <c r="E6" s="372"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="378"/>
+      <c r="H6" s="378"/>
       <c r="I6" s="92"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="371" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="369" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="375">
+      <c r="A7" s="255" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="371">
         <f>COUNTIF(A:A,B7)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="376"/>
-      <c r="E7" s="376"/>
-      <c r="F7" s="378"/>
-      <c r="G7" s="382"/>
-      <c r="H7" s="382"/>
+      <c r="D7" s="372"/>
+      <c r="E7" s="372"/>
+      <c r="F7" s="374"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
       <c r="I7" s="92"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="371" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="369" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="375">
+      <c r="A8" s="255" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="371">
         <f>COUNTIF(A:A,B8)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="376"/>
-      <c r="E8" s="376"/>
-      <c r="F8" s="378"/>
-      <c r="G8" s="382"/>
-      <c r="H8" s="382"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="374"/>
+      <c r="G8" s="378"/>
+      <c r="H8" s="378"/>
       <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="369" t="s">
+      <c r="A9" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="371" t="s">
+      <c r="C9" s="371">
+        <f>COUNTIF(A:A,B9)</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="372"/>
+      <c r="E9" s="372"/>
+      <c r="F9" s="374"/>
+      <c r="G9" s="378"/>
+      <c r="H9" s="378"/>
+      <c r="I9" s="92"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="375">
-        <f>COUNTIF(A:A,B9)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="376"/>
-      <c r="E9" s="376"/>
-      <c r="F9" s="378"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="382"/>
-      <c r="I9" s="92"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="369" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="369" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="375">
+      <c r="B10" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="371">
         <f>COUNTIF(A:A,B10)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="376"/>
-      <c r="E10" s="376"/>
-      <c r="F10" s="378"/>
-      <c r="G10" s="382"/>
-      <c r="H10" s="382"/>
+      <c r="D10" s="372"/>
+      <c r="E10" s="372"/>
+      <c r="F10" s="374"/>
+      <c r="G10" s="378"/>
+      <c r="H10" s="378"/>
       <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="369" t="s">
+      <c r="A11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="369" t="s">
+      <c r="B11" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="375">
+      <c r="C11" s="371">
         <f>COUNTIF(A:A,B11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="376"/>
-      <c r="E11" s="376"/>
-      <c r="F11" s="378"/>
-      <c r="G11" s="382"/>
-      <c r="H11" s="382"/>
+      <c r="D11" s="372"/>
+      <c r="E11" s="372"/>
+      <c r="F11" s="374"/>
+      <c r="G11" s="378"/>
+      <c r="H11" s="378"/>
       <c r="I11" s="92"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="371" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="369" t="s">
+      <c r="A12" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="375">
+      <c r="B12" s="255" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="371">
         <f>COUNTIF(A:A,B12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="376"/>
-      <c r="E12" s="376"/>
-      <c r="F12" s="378"/>
-      <c r="G12" s="382"/>
-      <c r="H12" s="382"/>
+      <c r="D12" s="372"/>
+      <c r="E12" s="372"/>
+      <c r="F12" s="374"/>
+      <c r="G12" s="378"/>
+      <c r="H12" s="378"/>
       <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="369" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="377"/>
-      <c r="C13" s="375">
+      <c r="A13" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="373"/>
+      <c r="C13" s="371">
         <f>COUNTIF(A:A,B13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="376"/>
-      <c r="E13" s="376"/>
-      <c r="F13" s="378"/>
-      <c r="G13" s="382"/>
-      <c r="H13" s="382"/>
+      <c r="D13" s="372"/>
+      <c r="E13" s="372"/>
+      <c r="F13" s="374"/>
+      <c r="G13" s="378"/>
+      <c r="H13" s="378"/>
       <c r="I13" s="92"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="369" t="s">
+      <c r="A14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B14"/>
-      <c r="C14" s="376"/>
-      <c r="D14" s="376"/>
-      <c r="E14" s="376"/>
-      <c r="F14" s="378"/>
-      <c r="G14" s="382"/>
-      <c r="H14" s="382"/>
+      <c r="C14" s="372"/>
+      <c r="D14" s="372"/>
+      <c r="E14" s="372"/>
+      <c r="F14" s="374"/>
+      <c r="G14" s="378"/>
+      <c r="H14" s="378"/>
       <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="237"/>
-      <c r="B15"/>
-      <c r="C15" s="376"/>
-      <c r="D15" s="376"/>
-      <c r="E15" s="376"/>
-      <c r="F15" s="378"/>
+      <c r="C15" s="372"/>
+      <c r="D15" s="372"/>
+      <c r="E15" s="372"/>
+      <c r="F15" s="374"/>
       <c r="G15" s="92"/>
-      <c r="H15" s="382"/>
+      <c r="H15" s="378"/>
       <c r="I15" s="92"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="369" t="s">
+      <c r="A16" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B16"/>
-      <c r="C16" s="376"/>
-      <c r="D16" s="376"/>
-      <c r="E16" s="376"/>
-      <c r="F16" s="378"/>
-      <c r="G16" s="382"/>
-      <c r="H16" s="382"/>
+      <c r="C16" s="372"/>
+      <c r="D16" s="372"/>
+      <c r="E16" s="372"/>
+      <c r="F16" s="374"/>
+      <c r="G16" s="378"/>
+      <c r="H16" s="378"/>
       <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="369" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17" s="376"/>
-      <c r="D17" s="376"/>
-      <c r="E17" s="376"/>
-      <c r="F17" s="378"/>
-      <c r="G17" s="382"/>
-      <c r="H17" s="382"/>
+      <c r="A17" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="372"/>
+      <c r="D17" s="372"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="374"/>
+      <c r="G17" s="378"/>
+      <c r="H17" s="378"/>
       <c r="I17" s="92"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="369" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18" s="376"/>
-      <c r="D18" s="376"/>
-      <c r="E18" s="376"/>
-      <c r="F18" s="378"/>
-      <c r="G18" s="382"/>
-      <c r="H18" s="382"/>
+      <c r="A18" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="372"/>
+      <c r="D18" s="372"/>
+      <c r="E18" s="372"/>
+      <c r="F18" s="374"/>
+      <c r="G18" s="378"/>
+      <c r="H18" s="378"/>
       <c r="I18" s="92"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="378"/>
-      <c r="B19" s="378"/>
-      <c r="C19" s="376"/>
-      <c r="D19" s="376"/>
-      <c r="E19" s="376"/>
-      <c r="F19" s="378"/>
-      <c r="G19" s="382"/>
-      <c r="H19" s="382"/>
+      <c r="A19" s="374"/>
+      <c r="B19" s="374"/>
+      <c r="C19" s="372"/>
+      <c r="D19" s="372"/>
+      <c r="E19" s="372"/>
+      <c r="F19" s="374"/>
+      <c r="G19" s="378"/>
+      <c r="H19" s="378"/>
       <c r="I19" s="92"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="378"/>
-      <c r="B20" s="378"/>
-      <c r="C20" s="376"/>
-      <c r="D20" s="376"/>
-      <c r="E20" s="376"/>
-      <c r="F20" s="378"/>
-      <c r="G20" s="382"/>
-      <c r="H20" s="382"/>
+      <c r="A20" s="374"/>
+      <c r="B20" s="374"/>
+      <c r="C20" s="372"/>
+      <c r="D20" s="372"/>
+      <c r="E20" s="372"/>
+      <c r="F20" s="374"/>
+      <c r="G20" s="378"/>
+      <c r="H20" s="378"/>
       <c r="I20" s="92"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="378"/>
-      <c r="B21" s="378"/>
-      <c r="C21" s="376"/>
-      <c r="D21" s="376"/>
-      <c r="E21" s="376"/>
-      <c r="F21" s="378"/>
-      <c r="G21" s="382"/>
-      <c r="H21" s="382"/>
+      <c r="A21" s="374"/>
+      <c r="B21" s="374"/>
+      <c r="C21" s="372"/>
+      <c r="D21" s="372"/>
+      <c r="E21" s="372"/>
+      <c r="F21" s="374"/>
+      <c r="G21" s="378"/>
+      <c r="H21" s="378"/>
       <c r="I21" s="92"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="378"/>
-      <c r="B22" s="378"/>
-      <c r="C22" s="376"/>
-      <c r="D22" s="376"/>
-      <c r="E22" s="376"/>
-      <c r="F22" s="378"/>
-      <c r="G22" s="382"/>
-      <c r="H22" s="382"/>
+      <c r="A22" s="374"/>
+      <c r="B22" s="374"/>
+      <c r="C22" s="372"/>
+      <c r="D22" s="372"/>
+      <c r="E22" s="372"/>
+      <c r="F22" s="374"/>
+      <c r="G22" s="378"/>
+      <c r="H22" s="378"/>
       <c r="I22" s="92"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="378"/>
-      <c r="B23" s="378"/>
-      <c r="C23" s="376"/>
-      <c r="D23" s="376"/>
-      <c r="E23" s="376"/>
-      <c r="F23" s="378"/>
-      <c r="G23" s="382"/>
-      <c r="H23" s="382"/>
+      <c r="A23" s="374"/>
+      <c r="B23" s="374"/>
+      <c r="C23" s="372"/>
+      <c r="D23" s="372"/>
+      <c r="E23" s="372"/>
+      <c r="F23" s="374"/>
+      <c r="G23" s="378"/>
+      <c r="H23" s="378"/>
       <c r="I23" s="92"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="378"/>
-      <c r="B24" s="378"/>
-      <c r="C24" s="376"/>
-      <c r="D24" s="376"/>
-      <c r="E24" s="376"/>
-      <c r="F24" s="378"/>
-      <c r="G24" s="382"/>
-      <c r="H24" s="382"/>
+      <c r="A24" s="374"/>
+      <c r="B24" s="374"/>
+      <c r="C24" s="372"/>
+      <c r="D24" s="372"/>
+      <c r="E24" s="372"/>
+      <c r="F24" s="374"/>
+      <c r="G24" s="378"/>
+      <c r="H24" s="378"/>
       <c r="I24" s="92"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="378"/>
-      <c r="B25" s="378"/>
-      <c r="C25" s="376"/>
-      <c r="D25" s="376"/>
-      <c r="E25" s="376"/>
-      <c r="F25" s="378"/>
-      <c r="G25" s="382"/>
-      <c r="H25" s="382"/>
+      <c r="A25" s="374"/>
+      <c r="B25" s="374"/>
+      <c r="C25" s="372"/>
+      <c r="D25" s="372"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="374"/>
+      <c r="G25" s="378"/>
+      <c r="H25" s="378"/>
       <c r="I25" s="92"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="378"/>
-      <c r="B26" s="378"/>
-      <c r="C26" s="376"/>
-      <c r="D26" s="376"/>
-      <c r="E26" s="376"/>
-      <c r="F26" s="378"/>
-      <c r="G26" s="382"/>
-      <c r="H26" s="382"/>
+      <c r="A26" s="374"/>
+      <c r="B26" s="374"/>
+      <c r="C26" s="372"/>
+      <c r="D26" s="372"/>
+      <c r="E26" s="372"/>
+      <c r="F26" s="374"/>
+      <c r="G26" s="378"/>
+      <c r="H26" s="378"/>
       <c r="I26" s="92"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="378"/>
-      <c r="B27" s="378"/>
-      <c r="C27" s="376"/>
-      <c r="D27" s="376"/>
-      <c r="E27" s="376"/>
-      <c r="F27" s="378"/>
-      <c r="G27" s="382"/>
-      <c r="H27" s="382"/>
+      <c r="A27" s="374"/>
+      <c r="B27" s="374"/>
+      <c r="C27" s="372"/>
+      <c r="D27" s="372"/>
+      <c r="E27" s="372"/>
+      <c r="F27" s="374"/>
+      <c r="G27" s="378"/>
+      <c r="H27" s="378"/>
       <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="378"/>
-      <c r="B28" s="378"/>
-      <c r="C28" s="376"/>
-      <c r="D28" s="376"/>
-      <c r="E28" s="376"/>
-      <c r="F28" s="378"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="382"/>
+      <c r="A28" s="374"/>
+      <c r="B28" s="374"/>
+      <c r="C28" s="372"/>
+      <c r="D28" s="372"/>
+      <c r="E28" s="372"/>
+      <c r="F28" s="374"/>
+      <c r="G28" s="378"/>
+      <c r="H28" s="378"/>
       <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="378"/>
-      <c r="B29" s="378"/>
-      <c r="C29" s="376"/>
-      <c r="D29" s="376"/>
-      <c r="E29" s="376"/>
-      <c r="F29" s="378"/>
-      <c r="G29" s="382"/>
-      <c r="H29" s="382"/>
+      <c r="A29" s="374"/>
+      <c r="B29" s="374"/>
+      <c r="C29" s="372"/>
+      <c r="D29" s="372"/>
+      <c r="E29" s="372"/>
+      <c r="F29" s="374"/>
+      <c r="G29" s="378"/>
+      <c r="H29" s="378"/>
       <c r="I29" s="92"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="378"/>
-      <c r="B30" s="378"/>
-      <c r="C30" s="376"/>
-      <c r="D30" s="376"/>
-      <c r="E30" s="376"/>
-      <c r="F30" s="378"/>
-      <c r="G30" s="382"/>
-      <c r="H30" s="382"/>
+      <c r="A30" s="374"/>
+      <c r="B30" s="374"/>
+      <c r="C30" s="372"/>
+      <c r="D30" s="372"/>
+      <c r="E30" s="372"/>
+      <c r="F30" s="374"/>
+      <c r="G30" s="378"/>
+      <c r="H30" s="378"/>
       <c r="I30" s="92"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="378"/>
-      <c r="B31" s="378"/>
-      <c r="C31" s="376"/>
-      <c r="D31" s="376"/>
-      <c r="E31" s="376"/>
-      <c r="F31" s="378"/>
-      <c r="G31" s="382"/>
-      <c r="H31" s="382"/>
+      <c r="A31" s="374"/>
+      <c r="B31" s="374"/>
+      <c r="C31" s="372"/>
+      <c r="D31" s="372"/>
+      <c r="E31" s="372"/>
+      <c r="F31" s="374"/>
+      <c r="G31" s="378"/>
+      <c r="H31" s="378"/>
       <c r="I31" s="92"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="378"/>
-      <c r="B32" s="378"/>
-      <c r="C32" s="376"/>
-      <c r="D32" s="376"/>
-      <c r="E32" s="376"/>
-      <c r="F32" s="378"/>
-      <c r="G32" s="382"/>
-      <c r="H32" s="382"/>
+      <c r="A32" s="374"/>
+      <c r="B32" s="374"/>
+      <c r="C32" s="372"/>
+      <c r="D32" s="372"/>
+      <c r="E32" s="372"/>
+      <c r="F32" s="374"/>
+      <c r="G32" s="378"/>
+      <c r="H32" s="378"/>
       <c r="I32" s="92"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="378"/>
-      <c r="B33" s="378"/>
-      <c r="C33" s="376"/>
-      <c r="D33" s="376"/>
-      <c r="E33" s="376"/>
-      <c r="F33" s="378"/>
-      <c r="G33" s="382"/>
+      <c r="A33" s="374"/>
+      <c r="B33" s="374"/>
+      <c r="C33" s="372"/>
+      <c r="D33" s="372"/>
+      <c r="E33" s="372"/>
+      <c r="F33" s="374"/>
+      <c r="G33" s="378"/>
       <c r="H33" s="92"/>
       <c r="I33" s="92"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="378"/>
-      <c r="B34" s="378"/>
-      <c r="C34" s="376"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="376"/>
-      <c r="F34" s="378"/>
-      <c r="G34" s="382"/>
+      <c r="A34" s="374"/>
+      <c r="B34" s="374"/>
+      <c r="C34" s="372"/>
+      <c r="D34" s="372"/>
+      <c r="E34" s="372"/>
+      <c r="F34" s="374"/>
+      <c r="G34" s="378"/>
       <c r="H34" s="92"/>
       <c r="I34" s="92"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="378"/>
-      <c r="B35" s="378"/>
-      <c r="C35" s="376"/>
-      <c r="D35" s="376"/>
-      <c r="E35" s="376"/>
-      <c r="F35" s="378"/>
-      <c r="G35" s="382"/>
+      <c r="A35" s="374"/>
+      <c r="B35" s="374"/>
+      <c r="C35" s="372"/>
+      <c r="D35" s="372"/>
+      <c r="E35" s="372"/>
+      <c r="F35" s="374"/>
+      <c r="G35" s="378"/>
       <c r="H35" s="92"/>
       <c r="I35" s="92"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="378"/>
-      <c r="B36" s="378"/>
-      <c r="C36" s="376"/>
-      <c r="D36" s="376"/>
-      <c r="E36" s="376"/>
-      <c r="F36" s="378"/>
-      <c r="G36" s="382"/>
+      <c r="A36" s="374"/>
+      <c r="B36" s="374"/>
+      <c r="C36" s="372"/>
+      <c r="D36" s="372"/>
+      <c r="E36" s="372"/>
+      <c r="F36" s="374"/>
+      <c r="G36" s="378"/>
       <c r="H36" s="92"/>
       <c r="I36" s="92"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="378"/>
-      <c r="B37" s="378"/>
-      <c r="C37" s="376"/>
-      <c r="D37" s="376"/>
-      <c r="E37" s="376"/>
-      <c r="F37" s="378"/>
-      <c r="G37" s="382"/>
+      <c r="A37" s="374"/>
+      <c r="B37" s="374"/>
+      <c r="C37" s="372"/>
+      <c r="D37" s="372"/>
+      <c r="E37" s="372"/>
+      <c r="F37" s="374"/>
+      <c r="G37" s="378"/>
       <c r="H37" s="92"/>
       <c r="I37" s="92"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="378"/>
-      <c r="B38" s="378"/>
-      <c r="C38" s="376"/>
-      <c r="D38" s="376"/>
-      <c r="E38" s="376"/>
-      <c r="F38" s="378"/>
-      <c r="G38" s="382"/>
+      <c r="A38" s="374"/>
+      <c r="B38" s="374"/>
+      <c r="C38" s="372"/>
+      <c r="D38" s="372"/>
+      <c r="E38" s="372"/>
+      <c r="F38" s="374"/>
+      <c r="G38" s="378"/>
       <c r="H38" s="92"/>
       <c r="I38" s="92"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="378"/>
-      <c r="B39" s="378"/>
-      <c r="C39" s="376"/>
-      <c r="D39" s="376"/>
-      <c r="E39" s="376"/>
-      <c r="F39" s="378"/>
-      <c r="G39" s="382"/>
+      <c r="A39" s="374"/>
+      <c r="B39" s="374"/>
+      <c r="C39" s="372"/>
+      <c r="D39" s="372"/>
+      <c r="E39" s="372"/>
+      <c r="F39" s="374"/>
+      <c r="G39" s="378"/>
       <c r="H39" s="92"/>
       <c r="I39" s="92"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="378"/>
-      <c r="B40" s="378"/>
-      <c r="C40" s="376"/>
-      <c r="D40" s="376"/>
-      <c r="E40" s="376"/>
-      <c r="F40" s="378"/>
-      <c r="G40" s="382"/>
+      <c r="A40" s="374"/>
+      <c r="B40" s="374"/>
+      <c r="C40" s="372"/>
+      <c r="D40" s="372"/>
+      <c r="E40" s="372"/>
+      <c r="F40" s="374"/>
+      <c r="G40" s="378"/>
       <c r="H40" s="92"/>
       <c r="I40" s="92"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="378"/>
-      <c r="B41" s="378"/>
-      <c r="C41" s="376"/>
-      <c r="D41" s="376"/>
-      <c r="E41" s="376"/>
-      <c r="F41" s="378"/>
-      <c r="G41" s="382"/>
+      <c r="A41" s="374"/>
+      <c r="B41" s="374"/>
+      <c r="C41" s="372"/>
+      <c r="D41" s="372"/>
+      <c r="E41" s="372"/>
+      <c r="F41" s="374"/>
+      <c r="G41" s="378"/>
       <c r="H41" s="92"/>
       <c r="I41" s="92"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="378"/>
-      <c r="B42" s="378"/>
-      <c r="C42" s="376"/>
-      <c r="D42" s="376"/>
-      <c r="E42" s="376"/>
-      <c r="F42" s="378"/>
-      <c r="G42" s="382"/>
+      <c r="A42" s="374"/>
+      <c r="B42" s="374"/>
+      <c r="C42" s="372"/>
+      <c r="D42" s="372"/>
+      <c r="E42" s="372"/>
+      <c r="F42" s="374"/>
+      <c r="G42" s="378"/>
       <c r="H42" s="92"/>
       <c r="I42" s="92"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="378"/>
-      <c r="B43" s="378"/>
-      <c r="C43" s="376"/>
-      <c r="D43" s="376"/>
-      <c r="E43" s="376"/>
-      <c r="F43" s="378"/>
-      <c r="G43" s="382"/>
+      <c r="A43" s="374"/>
+      <c r="B43" s="374"/>
+      <c r="C43" s="372"/>
+      <c r="D43" s="372"/>
+      <c r="E43" s="372"/>
+      <c r="F43" s="374"/>
+      <c r="G43" s="378"/>
       <c r="H43" s="92"/>
       <c r="I43" s="92"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="378"/>
-      <c r="B44" s="378"/>
-      <c r="C44" s="376"/>
-      <c r="D44" s="376"/>
-      <c r="E44" s="376"/>
-      <c r="F44" s="378"/>
-      <c r="G44" s="382"/>
+      <c r="A44" s="374"/>
+      <c r="B44" s="374"/>
+      <c r="C44" s="372"/>
+      <c r="D44" s="372"/>
+      <c r="E44" s="372"/>
+      <c r="F44" s="374"/>
+      <c r="G44" s="378"/>
       <c r="H44" s="92"/>
       <c r="I44" s="92"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="378"/>
-      <c r="B45" s="378"/>
-      <c r="C45" s="376"/>
-      <c r="D45" s="376"/>
-      <c r="E45" s="376"/>
-      <c r="F45" s="378"/>
-      <c r="G45" s="382"/>
+      <c r="A45" s="374"/>
+      <c r="B45" s="374"/>
+      <c r="C45" s="372"/>
+      <c r="D45" s="372"/>
+      <c r="E45" s="372"/>
+      <c r="F45" s="374"/>
+      <c r="G45" s="378"/>
       <c r="H45" s="92"/>
       <c r="I45" s="92"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="378"/>
-      <c r="B46" s="378"/>
-      <c r="C46" s="376"/>
-      <c r="D46" s="376"/>
-      <c r="E46" s="376"/>
-      <c r="F46" s="378"/>
-      <c r="G46" s="382"/>
+      <c r="A46" s="374"/>
+      <c r="B46" s="374"/>
+      <c r="C46" s="372"/>
+      <c r="D46" s="372"/>
+      <c r="E46" s="372"/>
+      <c r="F46" s="374"/>
+      <c r="G46" s="378"/>
       <c r="H46" s="92"/>
       <c r="I46" s="92"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="378"/>
-      <c r="B47" s="378"/>
-      <c r="C47" s="376"/>
-      <c r="D47" s="376"/>
-      <c r="E47" s="376"/>
-      <c r="F47" s="378"/>
-      <c r="G47" s="382"/>
+      <c r="A47" s="374"/>
+      <c r="B47" s="374"/>
+      <c r="C47" s="372"/>
+      <c r="D47" s="372"/>
+      <c r="E47" s="372"/>
+      <c r="F47" s="374"/>
+      <c r="G47" s="378"/>
       <c r="H47" s="92"/>
       <c r="I47" s="92"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="378"/>
-      <c r="B48" s="378"/>
-      <c r="C48" s="376"/>
-      <c r="D48" s="376"/>
-      <c r="E48" s="376"/>
-      <c r="F48" s="378"/>
-      <c r="G48" s="382"/>
+      <c r="A48" s="374"/>
+      <c r="B48" s="374"/>
+      <c r="C48" s="372"/>
+      <c r="D48" s="372"/>
+      <c r="E48" s="372"/>
+      <c r="F48" s="374"/>
+      <c r="G48" s="378"/>
       <c r="H48" s="92"/>
       <c r="I48" s="92"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="378"/>
-      <c r="B49" s="378"/>
-      <c r="C49" s="376"/>
-      <c r="D49" s="376"/>
-      <c r="E49" s="376"/>
-      <c r="F49" s="378"/>
-      <c r="G49" s="382"/>
+      <c r="A49" s="374"/>
+      <c r="B49" s="374"/>
+      <c r="C49" s="372"/>
+      <c r="D49" s="372"/>
+      <c r="E49" s="372"/>
+      <c r="F49" s="374"/>
+      <c r="G49" s="378"/>
       <c r="H49" s="92"/>
       <c r="I49" s="92"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="378"/>
-      <c r="B50" s="378"/>
-      <c r="C50" s="376"/>
-      <c r="D50" s="376"/>
-      <c r="E50" s="376"/>
-      <c r="F50" s="378"/>
-      <c r="G50" s="382"/>
+      <c r="A50" s="374"/>
+      <c r="B50" s="374"/>
+      <c r="C50" s="372"/>
+      <c r="D50" s="372"/>
+      <c r="E50" s="372"/>
+      <c r="F50" s="374"/>
+      <c r="G50" s="378"/>
       <c r="H50" s="92"/>
       <c r="I50" s="92"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="378"/>
-      <c r="B51" s="378"/>
-      <c r="C51" s="376"/>
-      <c r="D51" s="376"/>
-      <c r="E51" s="376"/>
-      <c r="F51" s="378"/>
-      <c r="G51" s="382"/>
+      <c r="A51" s="374"/>
+      <c r="B51" s="374"/>
+      <c r="C51" s="372"/>
+      <c r="D51" s="372"/>
+      <c r="E51" s="372"/>
+      <c r="F51" s="374"/>
+      <c r="G51" s="378"/>
       <c r="H51" s="92"/>
       <c r="I51" s="92"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="378"/>
-      <c r="B52" s="378"/>
-      <c r="C52" s="376"/>
-      <c r="D52" s="376"/>
-      <c r="E52" s="376"/>
-      <c r="F52" s="378"/>
-      <c r="G52" s="382"/>
+      <c r="A52" s="374"/>
+      <c r="B52" s="374"/>
+      <c r="C52" s="372"/>
+      <c r="D52" s="372"/>
+      <c r="E52" s="372"/>
+      <c r="F52" s="374"/>
+      <c r="G52" s="378"/>
       <c r="H52" s="92"/>
       <c r="I52" s="92"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="378"/>
-      <c r="B53" s="378"/>
-      <c r="C53" s="376"/>
-      <c r="D53" s="376"/>
-      <c r="E53" s="376"/>
-      <c r="F53" s="378"/>
-      <c r="G53" s="382"/>
+      <c r="A53" s="374"/>
+      <c r="B53" s="374"/>
+      <c r="C53" s="372"/>
+      <c r="D53" s="372"/>
+      <c r="E53" s="372"/>
+      <c r="F53" s="374"/>
+      <c r="G53" s="378"/>
       <c r="H53" s="92"/>
       <c r="I53" s="92"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="378"/>
-      <c r="B54" s="378"/>
-      <c r="C54" s="376"/>
-      <c r="D54" s="376"/>
-      <c r="E54" s="376"/>
-      <c r="F54" s="378"/>
-      <c r="G54" s="382"/>
+      <c r="A54" s="374"/>
+      <c r="B54" s="374"/>
+      <c r="C54" s="372"/>
+      <c r="D54" s="372"/>
+      <c r="E54" s="372"/>
+      <c r="F54" s="374"/>
+      <c r="G54" s="378"/>
       <c r="H54" s="92"/>
       <c r="I54" s="92"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="378"/>
-      <c r="B55" s="378"/>
-      <c r="C55" s="376"/>
-      <c r="D55" s="376"/>
-      <c r="E55" s="376"/>
-      <c r="F55" s="378"/>
-      <c r="G55" s="382"/>
+      <c r="A55" s="374"/>
+      <c r="B55" s="374"/>
+      <c r="C55" s="372"/>
+      <c r="D55" s="372"/>
+      <c r="E55" s="372"/>
+      <c r="F55" s="374"/>
+      <c r="G55" s="378"/>
       <c r="H55" s="92"/>
       <c r="I55" s="92"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="378"/>
-      <c r="B56" s="378"/>
-      <c r="C56" s="376"/>
-      <c r="D56" s="376"/>
-      <c r="E56" s="376"/>
-      <c r="F56" s="378"/>
-      <c r="G56" s="382"/>
+      <c r="A56" s="374"/>
+      <c r="B56" s="374"/>
+      <c r="C56" s="372"/>
+      <c r="D56" s="372"/>
+      <c r="E56" s="372"/>
+      <c r="F56" s="374"/>
+      <c r="G56" s="378"/>
       <c r="H56" s="92"/>
       <c r="I56" s="92"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="378"/>
-      <c r="B57" s="378"/>
-      <c r="C57" s="376"/>
-      <c r="D57" s="376"/>
-      <c r="E57" s="376"/>
-      <c r="F57" s="378"/>
-      <c r="G57" s="382"/>
+      <c r="A57" s="374"/>
+      <c r="B57" s="374"/>
+      <c r="C57" s="372"/>
+      <c r="D57" s="372"/>
+      <c r="E57" s="372"/>
+      <c r="F57" s="374"/>
+      <c r="G57" s="378"/>
       <c r="H57" s="92"/>
       <c r="I57" s="92"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="378"/>
-      <c r="B58" s="378"/>
-      <c r="C58" s="376"/>
-      <c r="D58" s="376"/>
-      <c r="E58" s="376"/>
-      <c r="F58" s="378"/>
-      <c r="G58" s="382"/>
+      <c r="A58" s="374"/>
+      <c r="B58" s="374"/>
+      <c r="C58" s="372"/>
+      <c r="D58" s="372"/>
+      <c r="E58" s="372"/>
+      <c r="F58" s="374"/>
+      <c r="G58" s="378"/>
       <c r="H58" s="92"/>
       <c r="I58" s="92"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="378"/>
-      <c r="B59" s="378"/>
-      <c r="C59" s="376"/>
-      <c r="D59" s="376"/>
-      <c r="E59" s="376"/>
-      <c r="F59" s="378"/>
-      <c r="G59" s="382"/>
+      <c r="A59" s="374"/>
+      <c r="B59" s="374"/>
+      <c r="C59" s="372"/>
+      <c r="D59" s="372"/>
+      <c r="E59" s="372"/>
+      <c r="F59" s="374"/>
+      <c r="G59" s="378"/>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="378"/>
-      <c r="B60" s="378"/>
-      <c r="C60" s="376"/>
-      <c r="D60" s="376"/>
-      <c r="E60" s="376"/>
-      <c r="F60" s="378"/>
-      <c r="G60" s="382"/>
+      <c r="A60" s="374"/>
+      <c r="B60" s="374"/>
+      <c r="C60" s="372"/>
+      <c r="D60" s="372"/>
+      <c r="E60" s="372"/>
+      <c r="F60" s="374"/>
+      <c r="G60" s="378"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="378"/>
-      <c r="B61" s="378"/>
-      <c r="C61" s="376"/>
-      <c r="D61" s="376"/>
-      <c r="E61" s="376"/>
-      <c r="F61" s="378"/>
-      <c r="G61" s="382"/>
+      <c r="A61" s="374"/>
+      <c r="B61" s="374"/>
+      <c r="C61" s="372"/>
+      <c r="D61" s="372"/>
+      <c r="E61" s="372"/>
+      <c r="F61" s="374"/>
+      <c r="G61" s="378"/>
       <c r="H61" s="92"/>
       <c r="I61" s="92"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="378"/>
-      <c r="B62" s="378"/>
-      <c r="C62" s="376"/>
-      <c r="D62" s="376"/>
-      <c r="E62" s="376"/>
-      <c r="F62" s="378"/>
-      <c r="G62" s="382"/>
+      <c r="A62" s="374"/>
+      <c r="B62" s="374"/>
+      <c r="C62" s="372"/>
+      <c r="D62" s="372"/>
+      <c r="E62" s="372"/>
+      <c r="F62" s="374"/>
+      <c r="G62" s="378"/>
       <c r="H62" s="92"/>
       <c r="I62" s="92"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="378"/>
-      <c r="B63" s="378"/>
-      <c r="C63" s="376"/>
-      <c r="D63" s="376"/>
-      <c r="E63" s="376"/>
-      <c r="F63" s="378"/>
-      <c r="G63" s="382"/>
+      <c r="A63" s="374"/>
+      <c r="B63" s="374"/>
+      <c r="C63" s="372"/>
+      <c r="D63" s="372"/>
+      <c r="E63" s="372"/>
+      <c r="F63" s="374"/>
+      <c r="G63" s="378"/>
       <c r="H63" s="92"/>
       <c r="I63" s="92"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="378"/>
-      <c r="B64" s="378"/>
-      <c r="C64" s="376"/>
-      <c r="D64" s="376"/>
-      <c r="E64" s="376"/>
-      <c r="F64" s="378"/>
-      <c r="G64" s="382"/>
+      <c r="A64" s="374"/>
+      <c r="B64" s="374"/>
+      <c r="C64" s="372"/>
+      <c r="D64" s="372"/>
+      <c r="E64" s="372"/>
+      <c r="F64" s="374"/>
+      <c r="G64" s="378"/>
       <c r="H64" s="92"/>
       <c r="I64" s="92"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="378"/>
-      <c r="B65" s="378"/>
-      <c r="C65" s="376"/>
-      <c r="D65" s="376"/>
-      <c r="E65" s="376"/>
-      <c r="F65" s="378"/>
-      <c r="G65" s="382"/>
+      <c r="A65" s="374"/>
+      <c r="B65" s="374"/>
+      <c r="C65" s="372"/>
+      <c r="D65" s="372"/>
+      <c r="E65" s="372"/>
+      <c r="F65" s="374"/>
+      <c r="G65" s="378"/>
       <c r="H65" s="92"/>
       <c r="I65" s="92"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="378"/>
-      <c r="B66" s="378"/>
-      <c r="C66" s="376"/>
-      <c r="D66" s="376"/>
-      <c r="E66" s="376"/>
-      <c r="F66" s="378"/>
-      <c r="G66" s="382"/>
+      <c r="A66" s="374"/>
+      <c r="B66" s="374"/>
+      <c r="C66" s="372"/>
+      <c r="D66" s="372"/>
+      <c r="E66" s="372"/>
+      <c r="F66" s="374"/>
+      <c r="G66" s="378"/>
       <c r="H66" s="92"/>
       <c r="I66" s="92"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="378"/>
-      <c r="B67" s="378"/>
-      <c r="C67" s="376"/>
-      <c r="D67" s="376"/>
-      <c r="E67" s="376"/>
-      <c r="F67" s="378"/>
-      <c r="G67" s="382"/>
+      <c r="A67" s="374"/>
+      <c r="B67" s="374"/>
+      <c r="C67" s="372"/>
+      <c r="D67" s="372"/>
+      <c r="E67" s="372"/>
+      <c r="F67" s="374"/>
+      <c r="G67" s="378"/>
       <c r="H67" s="92"/>
       <c r="I67" s="92"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="378"/>
-      <c r="B68" s="378"/>
-      <c r="C68" s="376"/>
-      <c r="D68" s="376"/>
-      <c r="E68" s="376"/>
-      <c r="F68" s="378"/>
-      <c r="G68" s="382"/>
+      <c r="A68" s="374"/>
+      <c r="B68" s="374"/>
+      <c r="C68" s="372"/>
+      <c r="D68" s="372"/>
+      <c r="E68" s="372"/>
+      <c r="F68" s="374"/>
+      <c r="G68" s="378"/>
       <c r="H68" s="92"/>
       <c r="I68" s="92"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="378"/>
-      <c r="B69" s="378"/>
-      <c r="C69" s="376"/>
-      <c r="D69" s="376"/>
-      <c r="E69" s="376"/>
-      <c r="F69" s="378"/>
-      <c r="G69" s="382"/>
+      <c r="A69" s="374"/>
+      <c r="B69" s="374"/>
+      <c r="C69" s="372"/>
+      <c r="D69" s="372"/>
+      <c r="E69" s="372"/>
+      <c r="F69" s="374"/>
+      <c r="G69" s="378"/>
       <c r="H69" s="92"/>
       <c r="I69" s="92"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="378"/>
-      <c r="B70" s="378"/>
-      <c r="C70" s="376"/>
-      <c r="D70" s="376"/>
-      <c r="E70" s="376"/>
-      <c r="F70" s="378"/>
-      <c r="G70" s="382"/>
+      <c r="A70" s="374"/>
+      <c r="B70" s="374"/>
+      <c r="C70" s="372"/>
+      <c r="D70" s="372"/>
+      <c r="E70" s="372"/>
+      <c r="F70" s="374"/>
+      <c r="G70" s="378"/>
       <c r="H70" s="92"/>
       <c r="I70" s="92"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="378"/>
-      <c r="B71" s="378"/>
-      <c r="C71" s="376"/>
-      <c r="D71" s="376"/>
-      <c r="E71" s="376"/>
-      <c r="F71" s="378"/>
-      <c r="G71" s="382"/>
+      <c r="A71" s="374"/>
+      <c r="B71" s="374"/>
+      <c r="C71" s="372"/>
+      <c r="D71" s="372"/>
+      <c r="E71" s="372"/>
+      <c r="F71" s="374"/>
+      <c r="G71" s="378"/>
       <c r="H71" s="92"/>
       <c r="I71" s="92"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="378"/>
-      <c r="B72" s="378"/>
-      <c r="C72" s="376"/>
-      <c r="D72" s="376"/>
-      <c r="E72" s="376"/>
-      <c r="F72" s="378"/>
-      <c r="G72" s="382"/>
+      <c r="A72" s="374"/>
+      <c r="B72" s="374"/>
+      <c r="C72" s="372"/>
+      <c r="D72" s="372"/>
+      <c r="E72" s="372"/>
+      <c r="F72" s="374"/>
+      <c r="G72" s="378"/>
       <c r="H72" s="92"/>
       <c r="I72" s="92"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="378"/>
-      <c r="B73" s="378"/>
-      <c r="C73" s="376"/>
-      <c r="D73" s="376"/>
-      <c r="E73" s="376"/>
-      <c r="F73" s="378"/>
-      <c r="G73" s="382"/>
+      <c r="A73" s="374"/>
+      <c r="B73" s="374"/>
+      <c r="C73" s="372"/>
+      <c r="D73" s="372"/>
+      <c r="E73" s="372"/>
+      <c r="F73" s="374"/>
+      <c r="G73" s="378"/>
       <c r="H73" s="92"/>
       <c r="I73" s="92"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="378"/>
-      <c r="B74" s="378"/>
-      <c r="C74" s="376"/>
-      <c r="D74" s="376"/>
-      <c r="E74" s="376"/>
-      <c r="F74" s="378"/>
-      <c r="G74" s="382"/>
+      <c r="A74" s="374"/>
+      <c r="B74" s="374"/>
+      <c r="C74" s="372"/>
+      <c r="D74" s="372"/>
+      <c r="E74" s="372"/>
+      <c r="F74" s="374"/>
+      <c r="G74" s="378"/>
       <c r="H74" s="92"/>
       <c r="I74" s="92"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="378"/>
-      <c r="B75" s="378"/>
-      <c r="C75" s="376"/>
-      <c r="D75" s="376"/>
-      <c r="E75" s="376"/>
-      <c r="F75" s="378"/>
-      <c r="G75" s="382"/>
+      <c r="A75" s="374"/>
+      <c r="B75" s="374"/>
+      <c r="C75" s="372"/>
+      <c r="D75" s="372"/>
+      <c r="E75" s="372"/>
+      <c r="F75" s="374"/>
+      <c r="G75" s="378"/>
       <c r="H75" s="92"/>
       <c r="I75" s="92"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="378"/>
-      <c r="B76" s="378"/>
-      <c r="C76" s="376"/>
-      <c r="D76" s="376"/>
-      <c r="E76" s="376"/>
-      <c r="F76" s="378"/>
-      <c r="G76" s="382"/>
+      <c r="A76" s="374"/>
+      <c r="B76" s="374"/>
+      <c r="C76" s="372"/>
+      <c r="D76" s="372"/>
+      <c r="E76" s="372"/>
+      <c r="F76" s="374"/>
+      <c r="G76" s="378"/>
       <c r="H76" s="92"/>
       <c r="I76" s="92"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="378"/>
-      <c r="B77" s="378"/>
-      <c r="C77" s="376"/>
-      <c r="D77" s="376"/>
-      <c r="E77" s="376"/>
-      <c r="F77" s="378"/>
-      <c r="G77" s="382"/>
+      <c r="A77" s="374"/>
+      <c r="B77" s="374"/>
+      <c r="C77" s="372"/>
+      <c r="D77" s="372"/>
+      <c r="E77" s="372"/>
+      <c r="F77" s="374"/>
+      <c r="G77" s="378"/>
       <c r="H77" s="92"/>
       <c r="I77" s="92"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="378"/>
-      <c r="B78" s="378"/>
-      <c r="C78" s="376"/>
-      <c r="D78" s="376"/>
-      <c r="E78" s="376"/>
-      <c r="F78" s="378"/>
-      <c r="G78" s="382"/>
+      <c r="A78" s="374"/>
+      <c r="B78" s="374"/>
+      <c r="C78" s="372"/>
+      <c r="D78" s="372"/>
+      <c r="E78" s="372"/>
+      <c r="F78" s="374"/>
+      <c r="G78" s="378"/>
       <c r="H78" s="92"/>
       <c r="I78" s="92"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="378"/>
-      <c r="B79" s="378"/>
-      <c r="C79" s="376"/>
-      <c r="D79" s="376"/>
-      <c r="E79" s="376"/>
-      <c r="F79" s="378"/>
-      <c r="G79" s="382"/>
+      <c r="A79" s="374"/>
+      <c r="B79" s="374"/>
+      <c r="C79" s="372"/>
+      <c r="D79" s="372"/>
+      <c r="E79" s="372"/>
+      <c r="F79" s="374"/>
+      <c r="G79" s="378"/>
       <c r="H79" s="92"/>
       <c r="I79" s="92"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="378"/>
-      <c r="B80" s="378"/>
-      <c r="C80" s="376"/>
-      <c r="D80" s="376"/>
-      <c r="E80" s="376"/>
-      <c r="F80" s="378"/>
-      <c r="G80" s="382"/>
+      <c r="A80" s="374"/>
+      <c r="B80" s="374"/>
+      <c r="C80" s="372"/>
+      <c r="D80" s="372"/>
+      <c r="E80" s="372"/>
+      <c r="F80" s="374"/>
+      <c r="G80" s="378"/>
       <c r="H80" s="92"/>
       <c r="I80" s="92"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="378"/>
-      <c r="B81" s="378"/>
-      <c r="C81" s="376"/>
-      <c r="D81" s="376"/>
-      <c r="E81" s="376"/>
-      <c r="F81" s="378"/>
-      <c r="G81" s="382"/>
+      <c r="A81" s="374"/>
+      <c r="B81" s="374"/>
+      <c r="C81" s="372"/>
+      <c r="D81" s="372"/>
+      <c r="E81" s="372"/>
+      <c r="F81" s="374"/>
+      <c r="G81" s="378"/>
       <c r="H81" s="92"/>
       <c r="I81" s="92"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="378"/>
-      <c r="B82" s="378"/>
-      <c r="C82" s="376"/>
-      <c r="D82" s="376"/>
-      <c r="E82" s="376"/>
-      <c r="F82" s="378"/>
-      <c r="G82" s="382"/>
+      <c r="A82" s="374"/>
+      <c r="B82" s="374"/>
+      <c r="C82" s="372"/>
+      <c r="D82" s="372"/>
+      <c r="E82" s="372"/>
+      <c r="F82" s="374"/>
+      <c r="G82" s="378"/>
       <c r="H82" s="92"/>
       <c r="I82" s="92"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="378"/>
-      <c r="B83" s="378"/>
-      <c r="C83" s="376"/>
-      <c r="D83" s="376"/>
-      <c r="E83" s="376"/>
-      <c r="F83" s="378"/>
-      <c r="G83" s="382"/>
+      <c r="A83" s="374"/>
+      <c r="B83" s="374"/>
+      <c r="C83" s="372"/>
+      <c r="D83" s="372"/>
+      <c r="E83" s="372"/>
+      <c r="F83" s="374"/>
+      <c r="G83" s="378"/>
       <c r="H83" s="92"/>
       <c r="I83" s="92"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="378"/>
-      <c r="B84" s="378"/>
-      <c r="C84" s="376"/>
-      <c r="D84" s="376"/>
-      <c r="E84" s="376"/>
-      <c r="F84" s="378"/>
-      <c r="G84" s="382"/>
+      <c r="A84" s="374"/>
+      <c r="B84" s="374"/>
+      <c r="C84" s="372"/>
+      <c r="D84" s="372"/>
+      <c r="E84" s="372"/>
+      <c r="F84" s="374"/>
+      <c r="G84" s="378"/>
       <c r="H84" s="92"/>
       <c r="I84" s="92"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="378"/>
-      <c r="B85" s="378"/>
-      <c r="C85" s="376"/>
-      <c r="D85" s="376"/>
-      <c r="E85" s="376"/>
-      <c r="F85" s="378"/>
-      <c r="G85" s="382"/>
+      <c r="A85" s="374"/>
+      <c r="B85" s="374"/>
+      <c r="C85" s="372"/>
+      <c r="D85" s="372"/>
+      <c r="E85" s="372"/>
+      <c r="F85" s="374"/>
+      <c r="G85" s="378"/>
       <c r="H85" s="92"/>
       <c r="I85" s="92"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="378"/>
-      <c r="B86" s="378"/>
-      <c r="C86" s="376"/>
-      <c r="D86" s="376"/>
-      <c r="E86" s="376"/>
-      <c r="F86" s="378"/>
-      <c r="G86" s="382"/>
+      <c r="A86" s="374"/>
+      <c r="B86" s="374"/>
+      <c r="C86" s="372"/>
+      <c r="D86" s="372"/>
+      <c r="E86" s="372"/>
+      <c r="F86" s="374"/>
+      <c r="G86" s="378"/>
       <c r="H86" s="92"/>
       <c r="I86" s="92"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="378"/>
-      <c r="B87" s="378"/>
-      <c r="C87" s="376"/>
-      <c r="D87" s="376"/>
-      <c r="E87" s="376"/>
-      <c r="F87" s="378"/>
-      <c r="G87" s="382"/>
+      <c r="A87" s="374"/>
+      <c r="B87" s="374"/>
+      <c r="C87" s="372"/>
+      <c r="D87" s="372"/>
+      <c r="E87" s="372"/>
+      <c r="F87" s="374"/>
+      <c r="G87" s="378"/>
       <c r="H87" s="92"/>
       <c r="I87" s="92"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="378"/>
-      <c r="B88" s="378"/>
-      <c r="C88" s="376"/>
-      <c r="D88" s="376"/>
-      <c r="E88" s="376"/>
-      <c r="F88" s="378"/>
-      <c r="G88" s="382"/>
+      <c r="A88" s="374"/>
+      <c r="B88" s="374"/>
+      <c r="C88" s="372"/>
+      <c r="D88" s="372"/>
+      <c r="E88" s="372"/>
+      <c r="F88" s="374"/>
+      <c r="G88" s="378"/>
       <c r="H88" s="92"/>
       <c r="I88" s="92"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="378"/>
-      <c r="B89" s="378"/>
-      <c r="C89" s="376"/>
-      <c r="D89" s="376"/>
-      <c r="E89" s="376"/>
-      <c r="F89" s="378"/>
-      <c r="G89" s="382"/>
+      <c r="A89" s="374"/>
+      <c r="B89" s="374"/>
+      <c r="C89" s="372"/>
+      <c r="D89" s="372"/>
+      <c r="E89" s="372"/>
+      <c r="F89" s="374"/>
+      <c r="G89" s="378"/>
       <c r="H89" s="92"/>
       <c r="I89" s="92"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="378"/>
-      <c r="B90" s="378"/>
-      <c r="C90" s="376"/>
-      <c r="D90" s="376"/>
-      <c r="E90" s="376"/>
-      <c r="F90" s="378"/>
-      <c r="G90" s="382"/>
+      <c r="A90" s="374"/>
+      <c r="B90" s="374"/>
+      <c r="C90" s="372"/>
+      <c r="D90" s="372"/>
+      <c r="E90" s="372"/>
+      <c r="F90" s="374"/>
+      <c r="G90" s="378"/>
       <c r="H90" s="92"/>
       <c r="I90" s="92"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="378"/>
-      <c r="B91" s="378"/>
-      <c r="C91" s="376"/>
-      <c r="D91" s="376"/>
-      <c r="E91" s="376"/>
-      <c r="F91" s="378"/>
-      <c r="G91" s="382"/>
+      <c r="A91" s="374"/>
+      <c r="B91" s="374"/>
+      <c r="C91" s="372"/>
+      <c r="D91" s="372"/>
+      <c r="E91" s="372"/>
+      <c r="F91" s="374"/>
+      <c r="G91" s="378"/>
       <c r="H91" s="92"/>
       <c r="I91" s="92"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="378"/>
-      <c r="B92" s="378"/>
-      <c r="C92" s="376"/>
-      <c r="D92" s="376"/>
-      <c r="E92" s="376"/>
-      <c r="F92" s="378"/>
-      <c r="G92" s="382"/>
+      <c r="A92" s="374"/>
+      <c r="B92" s="374"/>
+      <c r="C92" s="372"/>
+      <c r="D92" s="372"/>
+      <c r="E92" s="372"/>
+      <c r="F92" s="374"/>
+      <c r="G92" s="378"/>
       <c r="H92" s="92"/>
       <c r="I92" s="92"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C92">
-    <sortCondition ref="C3" descending="1"/>
+  <sortState ref="B1:C92">
+    <sortCondition ref="B1" descending="1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -7073,7 +7056,7 @@
       <c r="AO1" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="AP1" s="360" t="s">
+      <c r="AP1" s="347" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7152,8 +7135,8 @@
       </c>
       <c r="AM2" s="349"/>
       <c r="AN2" s="349"/>
-      <c r="AO2" s="361"/>
-      <c r="AP2" s="362"/>
+      <c r="AO2" s="360"/>
+      <c r="AP2" s="361"/>
     </row>
     <row r="3" ht="29" spans="1:42">
       <c r="A3" s="238"/>
@@ -7234,8 +7217,8 @@
       <c r="AL3" s="283"/>
       <c r="AM3" s="349"/>
       <c r="AN3" s="349"/>
-      <c r="AO3" s="361"/>
-      <c r="AP3" s="362"/>
+      <c r="AO3" s="360"/>
+      <c r="AP3" s="361"/>
     </row>
     <row r="4" s="231" customFormat="1" ht="48" customHeight="1" spans="1:43">
       <c r="A4" s="243" t="s">
@@ -7352,11 +7335,11 @@
       <c r="AN4" s="350">
         <v>44549</v>
       </c>
-      <c r="AO4" s="363" t="s">
+      <c r="AO4" s="362" t="s">
         <v>66</v>
       </c>
-      <c r="AP4" s="364"/>
-      <c r="AQ4" s="365"/>
+      <c r="AP4" s="232"/>
+      <c r="AQ4" s="363"/>
     </row>
     <row r="5" s="232" customFormat="1" ht="45" spans="1:43">
       <c r="A5" s="247">
@@ -7470,14 +7453,14 @@
       <c r="AN5" s="350">
         <v>44549</v>
       </c>
-      <c r="AO5" s="366"/>
+      <c r="AO5" s="364"/>
       <c r="AP5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="367"/>
+      <c r="AQ5" s="365"/>
     </row>
     <row r="6" s="233" customFormat="1" ht="58" spans="1:42">
-      <c r="A6" s="383" t="s">
+      <c r="A6" s="379" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="251" t="s">
@@ -7582,9 +7565,9 @@
       <c r="AN6" s="351">
         <v>44545</v>
       </c>
-      <c r="AO6" s="368"/>
-      <c r="AP6" s="369" t="s">
-        <v>1</v>
+      <c r="AO6" s="366"/>
+      <c r="AP6" s="76" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" s="234" customFormat="1" ht="58" spans="1:42">
@@ -7700,9 +7683,9 @@
       <c r="AN7" s="352">
         <v>44549</v>
       </c>
-      <c r="AO7" s="370"/>
-      <c r="AP7" s="371" t="s">
-        <v>4</v>
+      <c r="AO7" s="367"/>
+      <c r="AP7" s="255" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" s="234" customFormat="1" ht="29" spans="1:42">
@@ -7824,13 +7807,13 @@
       <c r="AN8" s="353">
         <v>44545</v>
       </c>
-      <c r="AO8" s="370"/>
-      <c r="AP8" s="371" t="s">
-        <v>2</v>
+      <c r="AO8" s="367"/>
+      <c r="AP8" s="255" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" s="233" customFormat="1" ht="45" spans="1:42">
-      <c r="A9" s="384" t="s">
+      <c r="A9" s="380" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="76" t="s">
@@ -7944,13 +7927,13 @@
       <c r="AN9" s="354">
         <v>44545</v>
       </c>
-      <c r="AO9" s="366"/>
-      <c r="AP9" s="369" t="s">
-        <v>5</v>
+      <c r="AO9" s="364"/>
+      <c r="AP9" s="76" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" s="233" customFormat="1" ht="45" spans="1:42">
-      <c r="A10" s="385" t="s">
+      <c r="A10" s="381" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="75" t="s">
@@ -8073,9 +8056,9 @@
       <c r="AN10" s="350">
         <v>44549</v>
       </c>
-      <c r="AO10" s="366"/>
-      <c r="AP10" s="369" t="s">
-        <v>2</v>
+      <c r="AO10" s="364"/>
+      <c r="AP10" s="76" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" s="234" customFormat="1" ht="45" spans="1:42">
@@ -8198,9 +8181,9 @@
       <c r="AN11" s="352">
         <v>44549</v>
       </c>
-      <c r="AO11" s="370"/>
-      <c r="AP11" s="371" t="s">
-        <v>3</v>
+      <c r="AO11" s="367"/>
+      <c r="AP11" s="255" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" s="234" customFormat="1" ht="30" spans="1:42">
@@ -8323,9 +8306,9 @@
       <c r="AN12" s="352">
         <v>44546</v>
       </c>
-      <c r="AO12" s="370"/>
-      <c r="AP12" s="371" t="s">
-        <v>2</v>
+      <c r="AO12" s="367"/>
+      <c r="AP12" s="255" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" s="233" customFormat="1" ht="44" spans="1:42">
@@ -8456,9 +8439,9 @@
       <c r="AN13" s="350">
         <v>44549</v>
       </c>
-      <c r="AO13" s="366"/>
-      <c r="AP13" s="369" t="s">
-        <v>2</v>
+      <c r="AO13" s="364"/>
+      <c r="AP13" s="76" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" s="233" customFormat="1" ht="29" spans="1:42">
@@ -8565,9 +8548,9 @@
       <c r="AN14" s="355">
         <v>44549</v>
       </c>
-      <c r="AO14" s="366"/>
-      <c r="AP14" s="369" t="s">
-        <v>6</v>
+      <c r="AO14" s="364"/>
+      <c r="AP14" s="76" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" s="233" customFormat="1" ht="15" spans="1:42">
@@ -8684,11 +8667,11 @@
       <c r="AN15" s="355">
         <v>44547</v>
       </c>
-      <c r="AO15" s="363" t="s">
+      <c r="AO15" s="362" t="s">
         <v>66</v>
       </c>
-      <c r="AP15" s="369" t="s">
-        <v>3</v>
+      <c r="AP15" s="76" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" s="233" customFormat="1" ht="29" spans="1:42">
@@ -8812,13 +8795,13 @@
       <c r="AN16" s="355">
         <v>44547</v>
       </c>
-      <c r="AO16" s="366"/>
-      <c r="AP16" s="369" t="s">
+      <c r="AO16" s="364"/>
+      <c r="AP16" s="76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" s="234" customFormat="1" ht="44" spans="1:42">
-      <c r="A17" s="386" t="s">
+      <c r="A17" s="382" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="272" t="s">
@@ -8921,13 +8904,13 @@
       <c r="AN17" s="356">
         <v>44547</v>
       </c>
-      <c r="AO17" s="370"/>
-      <c r="AP17" s="371" t="s">
-        <v>8</v>
+      <c r="AO17" s="367"/>
+      <c r="AP17" s="255" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" s="233" customFormat="1" ht="30" spans="1:42">
-      <c r="A18" s="387" t="s">
+      <c r="A18" s="383" t="s">
         <v>120</v>
       </c>
       <c r="B18" s="269" t="s">
@@ -9040,8 +9023,8 @@
       <c r="AN18" s="355">
         <v>44547</v>
       </c>
-      <c r="AO18" s="366"/>
-      <c r="AP18" s="369" t="s">
+      <c r="AO18" s="364"/>
+      <c r="AP18" s="76" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9152,7 +9135,7 @@
         <v>125</v>
       </c>
       <c r="AN19" s="274"/>
-      <c r="AO19" s="372"/>
+      <c r="AO19" s="368"/>
     </row>
     <row r="20" s="233" customFormat="1" ht="15" spans="1:42">
       <c r="A20" s="276">
@@ -9267,8 +9250,8 @@
       <c r="AN20" s="357">
         <v>44549</v>
       </c>
-      <c r="AO20" s="373"/>
-      <c r="AP20" s="369" t="s">
+      <c r="AO20" s="369"/>
+      <c r="AP20" s="76" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9373,13 +9356,13 @@
       <c r="AN21" s="357">
         <v>44549</v>
       </c>
-      <c r="AO21" s="373"/>
-      <c r="AP21" s="369" t="s">
-        <v>1</v>
+      <c r="AO21" s="369"/>
+      <c r="AP21" s="76" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" s="233" customFormat="1" ht="18" spans="1:42">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="384" t="s">
         <v>130</v>
       </c>
       <c r="B22" s="269" t="s">
@@ -9495,9 +9478,9 @@
       <c r="AN22" s="358">
         <v>44548</v>
       </c>
-      <c r="AO22" s="373"/>
-      <c r="AP22" s="369" t="s">
-        <v>11</v>
+      <c r="AO22" s="369"/>
+      <c r="AP22" s="76" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -9541,7 +9524,7 @@
       <c r="AL23" s="83"/>
       <c r="AM23" s="83"/>
       <c r="AN23" s="83"/>
-      <c r="AO23" s="374"/>
+      <c r="AO23" s="370"/>
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="280"/>
@@ -9584,7 +9567,7 @@
       <c r="AL24" s="83"/>
       <c r="AM24" s="83"/>
       <c r="AN24" s="83"/>
-      <c r="AO24" s="374"/>
+      <c r="AO24" s="370"/>
     </row>
     <row r="25" spans="1:41">
       <c r="A25" s="280"/>
@@ -9627,7 +9610,7 @@
       <c r="AL25" s="83"/>
       <c r="AM25" s="83"/>
       <c r="AN25" s="83"/>
-      <c r="AO25" s="374"/>
+      <c r="AO25" s="370"/>
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="280"/>
@@ -9670,7 +9653,7 @@
       <c r="AL26" s="83"/>
       <c r="AM26" s="83"/>
       <c r="AN26" s="83"/>
-      <c r="AO26" s="374"/>
+      <c r="AO26" s="370"/>
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="280"/>
@@ -9713,7 +9696,7 @@
       <c r="AL27" s="83"/>
       <c r="AM27" s="83"/>
       <c r="AN27" s="83"/>
-      <c r="AO27" s="374"/>
+      <c r="AO27" s="370"/>
     </row>
     <row r="28" spans="1:41">
       <c r="A28" s="280"/>
@@ -9756,7 +9739,7 @@
       <c r="AL28" s="83"/>
       <c r="AM28" s="83"/>
       <c r="AN28" s="83"/>
-      <c r="AO28" s="374"/>
+      <c r="AO28" s="370"/>
     </row>
     <row r="29" spans="1:41">
       <c r="A29" s="280"/>
@@ -9799,7 +9782,7 @@
       <c r="AL29" s="83"/>
       <c r="AM29" s="83"/>
       <c r="AN29" s="83"/>
-      <c r="AO29" s="374"/>
+      <c r="AO29" s="370"/>
     </row>
     <row r="30" spans="1:41">
       <c r="A30" s="280"/>
@@ -9842,7 +9825,7 @@
       <c r="AL30" s="83"/>
       <c r="AM30" s="83"/>
       <c r="AN30" s="83"/>
-      <c r="AO30" s="374"/>
+      <c r="AO30" s="370"/>
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="280"/>
@@ -9885,7 +9868,7 @@
       <c r="AL31" s="83"/>
       <c r="AM31" s="83"/>
       <c r="AN31" s="83"/>
-      <c r="AO31" s="374"/>
+      <c r="AO31" s="370"/>
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="280"/>
@@ -9928,7 +9911,7 @@
       <c r="AL32" s="83"/>
       <c r="AM32" s="83"/>
       <c r="AN32" s="83"/>
-      <c r="AO32" s="374"/>
+      <c r="AO32" s="370"/>
     </row>
     <row r="33" spans="1:41">
       <c r="A33" s="280"/>
@@ -9971,7 +9954,7 @@
       <c r="AL33" s="83"/>
       <c r="AM33" s="83"/>
       <c r="AN33" s="83"/>
-      <c r="AO33" s="374"/>
+      <c r="AO33" s="370"/>
     </row>
     <row r="34" spans="1:41">
       <c r="A34" s="280"/>
@@ -10014,7 +9997,7 @@
       <c r="AL34" s="83"/>
       <c r="AM34" s="83"/>
       <c r="AN34" s="83"/>
-      <c r="AO34" s="374"/>
+      <c r="AO34" s="370"/>
     </row>
     <row r="35" spans="1:41">
       <c r="A35" s="280"/>
@@ -10057,7 +10040,7 @@
       <c r="AL35" s="83"/>
       <c r="AM35" s="83"/>
       <c r="AN35" s="83"/>
-      <c r="AO35" s="374"/>
+      <c r="AO35" s="370"/>
     </row>
     <row r="36" spans="1:41">
       <c r="A36" s="280"/>
@@ -10100,7 +10083,7 @@
       <c r="AL36" s="83"/>
       <c r="AM36" s="83"/>
       <c r="AN36" s="83"/>
-      <c r="AO36" s="374"/>
+      <c r="AO36" s="370"/>
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="280"/>
@@ -10143,7 +10126,7 @@
       <c r="AL37" s="83"/>
       <c r="AM37" s="83"/>
       <c r="AN37" s="83"/>
-      <c r="AO37" s="374"/>
+      <c r="AO37" s="370"/>
     </row>
     <row r="38" spans="1:41">
       <c r="A38" s="280"/>
@@ -10186,7 +10169,7 @@
       <c r="AL38" s="83"/>
       <c r="AM38" s="83"/>
       <c r="AN38" s="83"/>
-      <c r="AO38" s="374"/>
+      <c r="AO38" s="370"/>
     </row>
     <row r="39" spans="1:41">
       <c r="A39" s="280"/>
@@ -10229,7 +10212,7 @@
       <c r="AL39" s="83"/>
       <c r="AM39" s="83"/>
       <c r="AN39" s="83"/>
-      <c r="AO39" s="374"/>
+      <c r="AO39" s="370"/>
     </row>
     <row r="40" spans="1:41">
       <c r="A40" s="280"/>
@@ -10272,7 +10255,7 @@
       <c r="AL40" s="83"/>
       <c r="AM40" s="83"/>
       <c r="AN40" s="83"/>
-      <c r="AO40" s="374"/>
+      <c r="AO40" s="370"/>
     </row>
     <row r="41" spans="1:41">
       <c r="A41" s="280"/>
@@ -10315,7 +10298,7 @@
       <c r="AL41" s="83"/>
       <c r="AM41" s="83"/>
       <c r="AN41" s="83"/>
-      <c r="AO41" s="374"/>
+      <c r="AO41" s="370"/>
     </row>
     <row r="42" spans="1:41">
       <c r="A42" s="280"/>
@@ -10358,7 +10341,7 @@
       <c r="AL42" s="83"/>
       <c r="AM42" s="83"/>
       <c r="AN42" s="83"/>
-      <c r="AO42" s="374"/>
+      <c r="AO42" s="370"/>
     </row>
     <row r="43" spans="1:41">
       <c r="A43" s="280"/>
@@ -10401,7 +10384,7 @@
       <c r="AL43" s="83"/>
       <c r="AM43" s="83"/>
       <c r="AN43" s="83"/>
-      <c r="AO43" s="374"/>
+      <c r="AO43" s="370"/>
     </row>
     <row r="44" spans="1:41">
       <c r="A44" s="280"/>
@@ -10444,7 +10427,7 @@
       <c r="AL44" s="83"/>
       <c r="AM44" s="83"/>
       <c r="AN44" s="83"/>
-      <c r="AO44" s="374"/>
+      <c r="AO44" s="370"/>
     </row>
     <row r="45" spans="1:41">
       <c r="A45" s="280"/>
@@ -10487,7 +10470,7 @@
       <c r="AL45" s="83"/>
       <c r="AM45" s="83"/>
       <c r="AN45" s="83"/>
-      <c r="AO45" s="374"/>
+      <c r="AO45" s="370"/>
     </row>
     <row r="46" spans="1:41">
       <c r="A46" s="280"/>
@@ -10530,7 +10513,7 @@
       <c r="AL46" s="83"/>
       <c r="AM46" s="83"/>
       <c r="AN46" s="83"/>
-      <c r="AO46" s="374"/>
+      <c r="AO46" s="370"/>
     </row>
     <row r="47" spans="1:41">
       <c r="A47" s="280"/>
@@ -10573,7 +10556,7 @@
       <c r="AL47" s="83"/>
       <c r="AM47" s="83"/>
       <c r="AN47" s="83"/>
-      <c r="AO47" s="374"/>
+      <c r="AO47" s="370"/>
     </row>
     <row r="48" spans="1:41">
       <c r="A48" s="280"/>
@@ -10616,7 +10599,7 @@
       <c r="AL48" s="83"/>
       <c r="AM48" s="83"/>
       <c r="AN48" s="83"/>
-      <c r="AO48" s="374"/>
+      <c r="AO48" s="370"/>
     </row>
     <row r="49" spans="1:41">
       <c r="A49" s="280"/>
@@ -10659,7 +10642,7 @@
       <c r="AL49" s="83"/>
       <c r="AM49" s="83"/>
       <c r="AN49" s="83"/>
-      <c r="AO49" s="374"/>
+      <c r="AO49" s="370"/>
     </row>
     <row r="50" spans="1:41">
       <c r="A50" s="280"/>
@@ -10702,7 +10685,7 @@
       <c r="AL50" s="83"/>
       <c r="AM50" s="83"/>
       <c r="AN50" s="83"/>
-      <c r="AO50" s="374"/>
+      <c r="AO50" s="370"/>
     </row>
     <row r="51" spans="1:41">
       <c r="A51" s="280"/>
@@ -10745,7 +10728,7 @@
       <c r="AL51" s="83"/>
       <c r="AM51" s="83"/>
       <c r="AN51" s="83"/>
-      <c r="AO51" s="374"/>
+      <c r="AO51" s="370"/>
     </row>
     <row r="52" spans="1:41">
       <c r="A52" s="280"/>
@@ -10788,7 +10771,7 @@
       <c r="AL52" s="83"/>
       <c r="AM52" s="83"/>
       <c r="AN52" s="83"/>
-      <c r="AO52" s="374"/>
+      <c r="AO52" s="370"/>
     </row>
     <row r="53" spans="1:41">
       <c r="A53" s="280"/>
@@ -10831,7 +10814,7 @@
       <c r="AL53" s="83"/>
       <c r="AM53" s="83"/>
       <c r="AN53" s="83"/>
-      <c r="AO53" s="374"/>
+      <c r="AO53" s="370"/>
     </row>
     <row r="54" spans="1:41">
       <c r="A54" s="280"/>
@@ -10874,7 +10857,7 @@
       <c r="AL54" s="83"/>
       <c r="AM54" s="83"/>
       <c r="AN54" s="83"/>
-      <c r="AO54" s="374"/>
+      <c r="AO54" s="370"/>
     </row>
     <row r="55" spans="1:41">
       <c r="A55" s="280"/>
@@ -10917,7 +10900,7 @@
       <c r="AL55" s="83"/>
       <c r="AM55" s="83"/>
       <c r="AN55" s="83"/>
-      <c r="AO55" s="374"/>
+      <c r="AO55" s="370"/>
     </row>
     <row r="56" spans="1:41">
       <c r="A56" s="280"/>
@@ -10960,7 +10943,7 @@
       <c r="AL56" s="83"/>
       <c r="AM56" s="83"/>
       <c r="AN56" s="83"/>
-      <c r="AO56" s="374"/>
+      <c r="AO56" s="370"/>
     </row>
     <row r="57" spans="1:41">
       <c r="A57" s="280"/>
@@ -11003,7 +10986,7 @@
       <c r="AL57" s="83"/>
       <c r="AM57" s="83"/>
       <c r="AN57" s="83"/>
-      <c r="AO57" s="374"/>
+      <c r="AO57" s="370"/>
     </row>
     <row r="58" spans="1:41">
       <c r="A58" s="280"/>
@@ -11046,7 +11029,7 @@
       <c r="AL58" s="83"/>
       <c r="AM58" s="83"/>
       <c r="AN58" s="83"/>
-      <c r="AO58" s="374"/>
+      <c r="AO58" s="370"/>
     </row>
     <row r="59" spans="1:41">
       <c r="A59" s="280"/>
@@ -11089,7 +11072,7 @@
       <c r="AL59" s="83"/>
       <c r="AM59" s="83"/>
       <c r="AN59" s="83"/>
-      <c r="AO59" s="374"/>
+      <c r="AO59" s="370"/>
     </row>
     <row r="60" spans="1:41">
       <c r="A60" s="280"/>
@@ -11132,7 +11115,7 @@
       <c r="AL60" s="83"/>
       <c r="AM60" s="83"/>
       <c r="AN60" s="83"/>
-      <c r="AO60" s="374"/>
+      <c r="AO60" s="370"/>
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="280"/>
@@ -11175,7 +11158,7 @@
       <c r="AL61" s="83"/>
       <c r="AM61" s="83"/>
       <c r="AN61" s="83"/>
-      <c r="AO61" s="374"/>
+      <c r="AO61" s="370"/>
     </row>
     <row r="62" spans="1:41">
       <c r="A62" s="280"/>
@@ -11218,7 +11201,7 @@
       <c r="AL62" s="83"/>
       <c r="AM62" s="83"/>
       <c r="AN62" s="83"/>
-      <c r="AO62" s="374"/>
+      <c r="AO62" s="370"/>
     </row>
     <row r="63" spans="1:41">
       <c r="A63" s="280"/>
@@ -11261,7 +11244,7 @@
       <c r="AL63" s="83"/>
       <c r="AM63" s="83"/>
       <c r="AN63" s="83"/>
-      <c r="AO63" s="374"/>
+      <c r="AO63" s="370"/>
     </row>
     <row r="64" spans="1:41">
       <c r="A64" s="280"/>
@@ -11304,7 +11287,7 @@
       <c r="AL64" s="83"/>
       <c r="AM64" s="83"/>
       <c r="AN64" s="83"/>
-      <c r="AO64" s="374"/>
+      <c r="AO64" s="370"/>
     </row>
     <row r="65" spans="1:41">
       <c r="A65" s="280"/>
@@ -11347,7 +11330,7 @@
       <c r="AL65" s="83"/>
       <c r="AM65" s="83"/>
       <c r="AN65" s="83"/>
-      <c r="AO65" s="374"/>
+      <c r="AO65" s="370"/>
     </row>
     <row r="66" spans="1:41">
       <c r="A66" s="280"/>
@@ -11390,7 +11373,7 @@
       <c r="AL66" s="83"/>
       <c r="AM66" s="83"/>
       <c r="AN66" s="83"/>
-      <c r="AO66" s="374"/>
+      <c r="AO66" s="370"/>
     </row>
     <row r="67" spans="1:41">
       <c r="A67" s="280"/>
@@ -11433,7 +11416,7 @@
       <c r="AL67" s="83"/>
       <c r="AM67" s="83"/>
       <c r="AN67" s="83"/>
-      <c r="AO67" s="374"/>
+      <c r="AO67" s="370"/>
     </row>
     <row r="68" spans="1:41">
       <c r="A68" s="280"/>
@@ -11476,7 +11459,7 @@
       <c r="AL68" s="83"/>
       <c r="AM68" s="83"/>
       <c r="AN68" s="83"/>
-      <c r="AO68" s="374"/>
+      <c r="AO68" s="370"/>
     </row>
     <row r="69" spans="1:41">
       <c r="A69" s="280"/>
@@ -11519,7 +11502,7 @@
       <c r="AL69" s="83"/>
       <c r="AM69" s="83"/>
       <c r="AN69" s="83"/>
-      <c r="AO69" s="374"/>
+      <c r="AO69" s="370"/>
     </row>
     <row r="70" spans="1:41">
       <c r="A70" s="280"/>
@@ -11562,7 +11545,7 @@
       <c r="AL70" s="83"/>
       <c r="AM70" s="83"/>
       <c r="AN70" s="83"/>
-      <c r="AO70" s="374"/>
+      <c r="AO70" s="370"/>
     </row>
     <row r="71" spans="1:41">
       <c r="A71" s="280"/>
@@ -11605,7 +11588,7 @@
       <c r="AL71" s="83"/>
       <c r="AM71" s="83"/>
       <c r="AN71" s="83"/>
-      <c r="AO71" s="374"/>
+      <c r="AO71" s="370"/>
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="280"/>
@@ -11648,7 +11631,7 @@
       <c r="AL72" s="83"/>
       <c r="AM72" s="83"/>
       <c r="AN72" s="83"/>
-      <c r="AO72" s="374"/>
+      <c r="AO72" s="370"/>
     </row>
     <row r="73" spans="1:41">
       <c r="A73" s="280"/>
@@ -11691,7 +11674,7 @@
       <c r="AL73" s="83"/>
       <c r="AM73" s="83"/>
       <c r="AN73" s="83"/>
-      <c r="AO73" s="374"/>
+      <c r="AO73" s="370"/>
     </row>
     <row r="74" spans="1:41">
       <c r="A74" s="280"/>
@@ -11734,7 +11717,7 @@
       <c r="AL74" s="83"/>
       <c r="AM74" s="83"/>
       <c r="AN74" s="83"/>
-      <c r="AO74" s="374"/>
+      <c r="AO74" s="370"/>
     </row>
     <row r="75" spans="1:41">
       <c r="A75" s="280"/>
@@ -11777,7 +11760,7 @@
       <c r="AL75" s="83"/>
       <c r="AM75" s="83"/>
       <c r="AN75" s="83"/>
-      <c r="AO75" s="374"/>
+      <c r="AO75" s="370"/>
     </row>
     <row r="76" spans="1:41">
       <c r="A76" s="280"/>
@@ -11820,7 +11803,7 @@
       <c r="AL76" s="83"/>
       <c r="AM76" s="83"/>
       <c r="AN76" s="83"/>
-      <c r="AO76" s="374"/>
+      <c r="AO76" s="370"/>
     </row>
     <row r="77" spans="1:41">
       <c r="A77" s="280"/>
@@ -11863,7 +11846,7 @@
       <c r="AL77" s="83"/>
       <c r="AM77" s="83"/>
       <c r="AN77" s="83"/>
-      <c r="AO77" s="374"/>
+      <c r="AO77" s="370"/>
     </row>
     <row r="78" spans="1:41">
       <c r="A78" s="280"/>
@@ -11906,7 +11889,7 @@
       <c r="AL78" s="83"/>
       <c r="AM78" s="83"/>
       <c r="AN78" s="83"/>
-      <c r="AO78" s="374"/>
+      <c r="AO78" s="370"/>
     </row>
     <row r="79" spans="1:41">
       <c r="A79" s="280"/>
@@ -11949,7 +11932,7 @@
       <c r="AL79" s="83"/>
       <c r="AM79" s="83"/>
       <c r="AN79" s="83"/>
-      <c r="AO79" s="374"/>
+      <c r="AO79" s="370"/>
     </row>
     <row r="80" spans="1:41">
       <c r="A80" s="280"/>
@@ -11992,7 +11975,7 @@
       <c r="AL80" s="83"/>
       <c r="AM80" s="83"/>
       <c r="AN80" s="83"/>
-      <c r="AO80" s="374"/>
+      <c r="AO80" s="370"/>
     </row>
     <row r="81" spans="1:41">
       <c r="A81" s="280"/>
@@ -12035,7 +12018,7 @@
       <c r="AL81" s="83"/>
       <c r="AM81" s="83"/>
       <c r="AN81" s="83"/>
-      <c r="AO81" s="374"/>
+      <c r="AO81" s="370"/>
     </row>
     <row r="82" spans="1:41">
       <c r="A82" s="280"/>
@@ -12078,7 +12061,7 @@
       <c r="AL82" s="83"/>
       <c r="AM82" s="83"/>
       <c r="AN82" s="83"/>
-      <c r="AO82" s="374"/>
+      <c r="AO82" s="370"/>
     </row>
     <row r="83" spans="1:41">
       <c r="A83" s="280"/>
@@ -12121,7 +12104,7 @@
       <c r="AL83" s="83"/>
       <c r="AM83" s="83"/>
       <c r="AN83" s="83"/>
-      <c r="AO83" s="374"/>
+      <c r="AO83" s="370"/>
     </row>
     <row r="84" spans="1:41">
       <c r="A84" s="280"/>
@@ -12164,7 +12147,7 @@
       <c r="AL84" s="83"/>
       <c r="AM84" s="83"/>
       <c r="AN84" s="83"/>
-      <c r="AO84" s="374"/>
+      <c r="AO84" s="370"/>
     </row>
     <row r="85" spans="1:41">
       <c r="A85" s="280"/>
@@ -12207,7 +12190,7 @@
       <c r="AL85" s="83"/>
       <c r="AM85" s="83"/>
       <c r="AN85" s="83"/>
-      <c r="AO85" s="374"/>
+      <c r="AO85" s="370"/>
     </row>
     <row r="86" spans="1:41">
       <c r="A86" s="280"/>
@@ -12250,7 +12233,7 @@
       <c r="AL86" s="83"/>
       <c r="AM86" s="83"/>
       <c r="AN86" s="83"/>
-      <c r="AO86" s="374"/>
+      <c r="AO86" s="370"/>
     </row>
     <row r="87" spans="1:41">
       <c r="A87" s="280"/>
@@ -12293,7 +12276,7 @@
       <c r="AL87" s="83"/>
       <c r="AM87" s="83"/>
       <c r="AN87" s="83"/>
-      <c r="AO87" s="374"/>
+      <c r="AO87" s="370"/>
     </row>
     <row r="88" spans="1:41">
       <c r="A88" s="280"/>
@@ -12336,7 +12319,7 @@
       <c r="AL88" s="83"/>
       <c r="AM88" s="83"/>
       <c r="AN88" s="83"/>
-      <c r="AO88" s="374"/>
+      <c r="AO88" s="370"/>
     </row>
     <row r="89" spans="1:41">
       <c r="A89" s="280"/>
@@ -12379,7 +12362,7 @@
       <c r="AL89" s="83"/>
       <c r="AM89" s="83"/>
       <c r="AN89" s="83"/>
-      <c r="AO89" s="374"/>
+      <c r="AO89" s="370"/>
     </row>
     <row r="90" spans="1:41">
       <c r="A90" s="280"/>
@@ -12422,7 +12405,7 @@
       <c r="AL90" s="83"/>
       <c r="AM90" s="83"/>
       <c r="AN90" s="83"/>
-      <c r="AO90" s="374"/>
+      <c r="AO90" s="370"/>
     </row>
     <row r="91" spans="1:41">
       <c r="A91" s="280"/>
@@ -12465,7 +12448,7 @@
       <c r="AL91" s="83"/>
       <c r="AM91" s="83"/>
       <c r="AN91" s="83"/>
-      <c r="AO91" s="374"/>
+      <c r="AO91" s="370"/>
     </row>
     <row r="92" spans="1:41">
       <c r="A92" s="280"/>
@@ -12508,7 +12491,7 @@
       <c r="AL92" s="83"/>
       <c r="AM92" s="83"/>
       <c r="AN92" s="83"/>
-      <c r="AO92" s="374"/>
+      <c r="AO92" s="370"/>
     </row>
     <row r="93" spans="1:41">
       <c r="A93" s="280"/>
@@ -12551,7 +12534,7 @@
       <c r="AL93" s="83"/>
       <c r="AM93" s="83"/>
       <c r="AN93" s="83"/>
-      <c r="AO93" s="374"/>
+      <c r="AO93" s="370"/>
     </row>
     <row r="94" spans="1:41">
       <c r="A94" s="280"/>
@@ -12594,7 +12577,7 @@
       <c r="AL94" s="83"/>
       <c r="AM94" s="83"/>
       <c r="AN94" s="83"/>
-      <c r="AO94" s="374"/>
+      <c r="AO94" s="370"/>
     </row>
     <row r="95" spans="1:41">
       <c r="A95" s="280"/>
@@ -12637,7 +12620,7 @@
       <c r="AL95" s="83"/>
       <c r="AM95" s="83"/>
       <c r="AN95" s="83"/>
-      <c r="AO95" s="374"/>
+      <c r="AO95" s="370"/>
     </row>
     <row r="96" spans="1:41">
       <c r="A96" s="280"/>
@@ -12680,7 +12663,7 @@
       <c r="AL96" s="83"/>
       <c r="AM96" s="83"/>
       <c r="AN96" s="83"/>
-      <c r="AO96" s="374"/>
+      <c r="AO96" s="370"/>
     </row>
     <row r="97" spans="1:41">
       <c r="A97" s="280"/>
@@ -12723,7 +12706,7 @@
       <c r="AL97" s="83"/>
       <c r="AM97" s="83"/>
       <c r="AN97" s="83"/>
-      <c r="AO97" s="374"/>
+      <c r="AO97" s="370"/>
     </row>
     <row r="98" spans="1:41">
       <c r="A98" s="280"/>
@@ -12766,7 +12749,7 @@
       <c r="AL98" s="83"/>
       <c r="AM98" s="83"/>
       <c r="AN98" s="83"/>
-      <c r="AO98" s="374"/>
+      <c r="AO98" s="370"/>
     </row>
     <row r="99" spans="1:41">
       <c r="A99" s="280"/>
@@ -12809,7 +12792,7 @@
       <c r="AL99" s="83"/>
       <c r="AM99" s="83"/>
       <c r="AN99" s="83"/>
-      <c r="AO99" s="374"/>
+      <c r="AO99" s="370"/>
     </row>
     <row r="100" spans="1:41">
       <c r="A100" s="280"/>
@@ -12852,7 +12835,7 @@
       <c r="AL100" s="83"/>
       <c r="AM100" s="83"/>
       <c r="AN100" s="83"/>
-      <c r="AO100" s="374"/>
+      <c r="AO100" s="370"/>
     </row>
     <row r="101" spans="1:41">
       <c r="A101" s="280"/>
@@ -12895,7 +12878,7 @@
       <c r="AL101" s="83"/>
       <c r="AM101" s="83"/>
       <c r="AN101" s="83"/>
-      <c r="AO101" s="374"/>
+      <c r="AO101" s="370"/>
     </row>
     <row r="102" spans="1:41">
       <c r="A102" s="280"/>
@@ -12938,7 +12921,7 @@
       <c r="AL102" s="83"/>
       <c r="AM102" s="83"/>
       <c r="AN102" s="83"/>
-      <c r="AO102" s="374"/>
+      <c r="AO102" s="370"/>
     </row>
     <row r="103" spans="1:41">
       <c r="A103" s="280"/>
@@ -12981,7 +12964,7 @@
       <c r="AL103" s="83"/>
       <c r="AM103" s="83"/>
       <c r="AN103" s="83"/>
-      <c r="AO103" s="374"/>
+      <c r="AO103" s="370"/>
     </row>
     <row r="104" spans="1:41">
       <c r="A104" s="280"/>
@@ -13024,7 +13007,7 @@
       <c r="AL104" s="83"/>
       <c r="AM104" s="83"/>
       <c r="AN104" s="83"/>
-      <c r="AO104" s="374"/>
+      <c r="AO104" s="370"/>
     </row>
     <row r="105" spans="1:41">
       <c r="A105" s="280"/>
@@ -13067,7 +13050,7 @@
       <c r="AL105" s="83"/>
       <c r="AM105" s="83"/>
       <c r="AN105" s="83"/>
-      <c r="AO105" s="374"/>
+      <c r="AO105" s="370"/>
     </row>
     <row r="106" spans="1:41">
       <c r="A106" s="280"/>
@@ -13110,7 +13093,7 @@
       <c r="AL106" s="83"/>
       <c r="AM106" s="83"/>
       <c r="AN106" s="83"/>
-      <c r="AO106" s="374"/>
+      <c r="AO106" s="370"/>
     </row>
     <row r="107" spans="1:41">
       <c r="A107" s="280"/>
@@ -13153,7 +13136,7 @@
       <c r="AL107" s="83"/>
       <c r="AM107" s="83"/>
       <c r="AN107" s="83"/>
-      <c r="AO107" s="374"/>
+      <c r="AO107" s="370"/>
     </row>
     <row r="108" spans="1:41">
       <c r="A108" s="280"/>
@@ -13196,7 +13179,7 @@
       <c r="AL108" s="83"/>
       <c r="AM108" s="83"/>
       <c r="AN108" s="83"/>
-      <c r="AO108" s="374"/>
+      <c r="AO108" s="370"/>
     </row>
     <row r="109" spans="1:41">
       <c r="A109" s="280"/>
@@ -13239,7 +13222,7 @@
       <c r="AL109" s="83"/>
       <c r="AM109" s="83"/>
       <c r="AN109" s="83"/>
-      <c r="AO109" s="374"/>
+      <c r="AO109" s="370"/>
     </row>
     <row r="110" spans="1:41">
       <c r="A110" s="280"/>
@@ -13282,7 +13265,7 @@
       <c r="AL110" s="83"/>
       <c r="AM110" s="83"/>
       <c r="AN110" s="83"/>
-      <c r="AO110" s="374"/>
+      <c r="AO110" s="370"/>
     </row>
     <row r="111" spans="1:41">
       <c r="A111" s="280"/>
@@ -13325,7 +13308,7 @@
       <c r="AL111" s="83"/>
       <c r="AM111" s="83"/>
       <c r="AN111" s="83"/>
-      <c r="AO111" s="374"/>
+      <c r="AO111" s="370"/>
     </row>
     <row r="112" spans="1:41">
       <c r="A112" s="280"/>
@@ -13368,7 +13351,7 @@
       <c r="AL112" s="83"/>
       <c r="AM112" s="83"/>
       <c r="AN112" s="83"/>
-      <c r="AO112" s="374"/>
+      <c r="AO112" s="370"/>
     </row>
     <row r="113" spans="1:41">
       <c r="A113" s="280"/>
@@ -13411,7 +13394,7 @@
       <c r="AL113" s="83"/>
       <c r="AM113" s="83"/>
       <c r="AN113" s="83"/>
-      <c r="AO113" s="374"/>
+      <c r="AO113" s="370"/>
     </row>
     <row r="114" spans="1:41">
       <c r="A114" s="280"/>
@@ -13454,7 +13437,7 @@
       <c r="AL114" s="83"/>
       <c r="AM114" s="83"/>
       <c r="AN114" s="83"/>
-      <c r="AO114" s="374"/>
+      <c r="AO114" s="370"/>
     </row>
     <row r="115" spans="1:41">
       <c r="A115" s="280"/>
@@ -13497,7 +13480,7 @@
       <c r="AL115" s="83"/>
       <c r="AM115" s="83"/>
       <c r="AN115" s="83"/>
-      <c r="AO115" s="374"/>
+      <c r="AO115" s="370"/>
     </row>
     <row r="116" spans="1:41">
       <c r="A116" s="280"/>
@@ -13540,7 +13523,7 @@
       <c r="AL116" s="83"/>
       <c r="AM116" s="83"/>
       <c r="AN116" s="83"/>
-      <c r="AO116" s="374"/>
+      <c r="AO116" s="370"/>
     </row>
     <row r="117" spans="1:41">
       <c r="A117" s="280"/>
@@ -13583,7 +13566,7 @@
       <c r="AL117" s="83"/>
       <c r="AM117" s="83"/>
       <c r="AN117" s="83"/>
-      <c r="AO117" s="374"/>
+      <c r="AO117" s="370"/>
     </row>
     <row r="118" spans="1:41">
       <c r="A118" s="280"/>
@@ -13626,7 +13609,7 @@
       <c r="AL118" s="83"/>
       <c r="AM118" s="83"/>
       <c r="AN118" s="83"/>
-      <c r="AO118" s="374"/>
+      <c r="AO118" s="370"/>
     </row>
     <row r="119" spans="1:41">
       <c r="A119" s="280"/>
@@ -13669,7 +13652,7 @@
       <c r="AL119" s="83"/>
       <c r="AM119" s="83"/>
       <c r="AN119" s="83"/>
-      <c r="AO119" s="374"/>
+      <c r="AO119" s="370"/>
     </row>
     <row r="120" spans="1:41">
       <c r="A120" s="280"/>
@@ -13712,7 +13695,7 @@
       <c r="AL120" s="83"/>
       <c r="AM120" s="83"/>
       <c r="AN120" s="83"/>
-      <c r="AO120" s="374"/>
+      <c r="AO120" s="370"/>
     </row>
     <row r="121" spans="1:41">
       <c r="A121" s="280"/>
@@ -13755,7 +13738,7 @@
       <c r="AL121" s="83"/>
       <c r="AM121" s="83"/>
       <c r="AN121" s="83"/>
-      <c r="AO121" s="374"/>
+      <c r="AO121" s="370"/>
     </row>
     <row r="122" spans="1:41">
       <c r="A122" s="280"/>
@@ -13798,7 +13781,7 @@
       <c r="AL122" s="83"/>
       <c r="AM122" s="83"/>
       <c r="AN122" s="83"/>
-      <c r="AO122" s="374"/>
+      <c r="AO122" s="370"/>
     </row>
     <row r="123" spans="1:41">
       <c r="A123" s="280"/>
@@ -13841,7 +13824,7 @@
       <c r="AL123" s="83"/>
       <c r="AM123" s="83"/>
       <c r="AN123" s="83"/>
-      <c r="AO123" s="374"/>
+      <c r="AO123" s="370"/>
     </row>
     <row r="124" spans="1:41">
       <c r="A124" s="280"/>
@@ -13884,7 +13867,7 @@
       <c r="AL124" s="83"/>
       <c r="AM124" s="83"/>
       <c r="AN124" s="83"/>
-      <c r="AO124" s="374"/>
+      <c r="AO124" s="370"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -14498,7 +14481,7 @@
         <v>169</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="62"/>
@@ -14977,14 +14960,14 @@
       <c r="A6" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="389" t="s">
+      <c r="B6" s="385" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -15700,14 +15683,14 @@
       <c r="A9" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="390" t="s">
+      <c r="B9" s="386" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="88"/>
@@ -15950,7 +15933,7 @@
         <v>79</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
@@ -16171,7 +16154,7 @@
         <v>84</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
@@ -17712,7 +17695,7 @@
         <v>224</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -17936,7 +17919,7 @@
       <c r="A19" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="B19" s="391" t="s">
+      <c r="B19" s="387" t="s">
         <v>227</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -18167,14 +18150,14 @@
       <c r="A20" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="392" t="s">
+      <c r="B20" s="388" t="s">
         <v>232</v>
       </c>
       <c r="C20" s="67" t="s">
         <v>233</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
@@ -19543,7 +19526,7 @@
         <v>252</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
@@ -20253,14 +20236,14 @@
       <c r="A30" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="B30" s="393" t="s">
+      <c r="B30" s="389" t="s">
         <v>93</v>
       </c>
       <c r="C30" s="73" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -20495,7 +20478,7 @@
         <v>98</v>
       </c>
       <c r="D31" s="76" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="74"/>
       <c r="F31" s="74"/>
@@ -20688,7 +20671,7 @@
         <v>102</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -20881,7 +20864,7 @@
         <v>105</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
@@ -21072,7 +21055,7 @@
         <v>111</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" s="91"/>
       <c r="F34" s="91"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -2296,11 +2296,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2541,13 +2541,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2561,6 +2554,35 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2580,8 +2602,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2594,17 +2617,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2620,7 +2650,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2633,46 +2663,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2766,13 +2766,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2784,13 +2796,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2808,7 +2832,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2820,7 +2856,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2832,43 +2910,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2880,67 +2934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3054,7 +3054,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3063,7 +3063,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3083,21 +3124,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3112,171 +3138,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3322,9 +3322,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3767,105 +3767,105 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3874,13 +3874,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3909,7 +3909,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3919,13 +3919,13 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3934,19 +3934,19 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3955,10 +3955,10 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3967,10 +3967,10 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3979,28 +3979,28 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4009,7 +4009,7 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4018,13 +4018,13 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4033,16 +4033,16 @@
     <xf numFmtId="2" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4051,7 +4051,7 @@
     <xf numFmtId="49" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4081,7 +4081,7 @@
     <xf numFmtId="2" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4093,13 +4093,13 @@
     <xf numFmtId="10" fontId="22" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="27" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4117,11 +4117,11 @@
     <xf numFmtId="10" fontId="8" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="24" fillId="11" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="24" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4133,19 +4133,19 @@
     <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4154,10 +4154,10 @@
     <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4169,13 +4169,13 @@
     <xf numFmtId="10" fontId="13" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4458,11 +4458,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4487,192 +4487,552 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent4">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
@@ -4691,8 +5051,8 @@
                   <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4716,14 +5076,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4859,8 +5218,8 @@
             <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4948,18 +5307,18 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4967,8 +5326,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4989,7 +5348,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5013,8 +5372,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5048,50 +5407,50 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5103,30 +5462,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5143,20 +5505,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5166,7 +5526,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5175,14 +5535,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5191,17 +5550,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5210,17 +5569,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -5229,21 +5587,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5262,17 +5614,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5281,17 +5632,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5300,17 +5651,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5320,8 +5670,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5331,7 +5681,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5339,7 +5689,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5348,10 +5698,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5359,17 +5720,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5379,27 +5740,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5409,8 +5769,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5420,20 +5780,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5443,8 +5802,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5454,14 +5813,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5825,8 +6178,8 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:C$1048576"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -6956,12 +7309,12 @@
   <sheetPr/>
   <dimension ref="A1:AQ124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AM7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP5" sqref="AP5:AP22"/>
+      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="10980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -2296,13 +2296,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="57">
     <font>
@@ -2541,16 +2541,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2564,56 +2585,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2626,15 +2610,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2650,6 +2641,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2657,22 +2672,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2766,25 +2766,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2796,19 +2790,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2820,31 +2820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,25 +2844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2892,19 +2862,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2916,7 +2898,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2928,19 +2922,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3050,6 +3050,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3068,32 +3083,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3124,159 +3124,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3322,9 +3322,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3767,36 +3767,36 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3805,23 +3805,23 @@
     <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3830,19 +3830,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3851,21 +3851,21 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3874,13 +3874,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3909,7 +3909,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3919,13 +3919,13 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3934,19 +3934,19 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3955,10 +3955,10 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3967,10 +3967,10 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3979,28 +3979,28 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4009,7 +4009,7 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4018,13 +4018,13 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4033,16 +4033,16 @@
     <xf numFmtId="2" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4051,7 +4051,7 @@
     <xf numFmtId="49" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4081,7 +4081,7 @@
     <xf numFmtId="2" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4093,13 +4093,13 @@
     <xf numFmtId="10" fontId="22" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="27" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4117,11 +4117,11 @@
     <xf numFmtId="10" fontId="8" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="24" fillId="11" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="24" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4133,19 +4133,19 @@
     <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4154,10 +4154,10 @@
     <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="27" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4169,13 +4169,13 @@
     <xf numFmtId="10" fontId="13" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7310,11 +7310,11 @@
   <dimension ref="A1:AQ124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -7857,14 +7857,10 @@
         <v>0.370102867148173</v>
       </c>
       <c r="O6" s="253">
-        <v>106.9</v>
-      </c>
-      <c r="P6" s="253">
-        <v>121.03</v>
-      </c>
-      <c r="Q6" s="253">
-        <v>110.08</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P6" s="253"/>
+      <c r="Q6" s="253"/>
       <c r="R6" s="253"/>
       <c r="S6" s="253"/>
       <c r="T6" s="253"/>
@@ -7878,11 +7874,11 @@
       </c>
       <c r="AA6" s="329">
         <f>(J6-O6)/J6</f>
-        <v>0.146166134185303</v>
-      </c>
-      <c r="AB6" s="304">
+        <v>0.169329073482428</v>
+      </c>
+      <c r="AB6" s="304" t="e">
         <f>(P6-Q6)/P6</f>
-        <v>0.090473436338098</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AC6" s="304" t="e">
         <f>(R6-S6)/R6</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -2202,13 +2202,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="63">
     <font>
@@ -2480,6 +2480,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2502,7 +2509,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2519,98 +2611,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2711,7 +2711,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2723,19 +2831,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2747,145 +2885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2952,8 +2952,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2973,6 +3012,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2987,214 +3046,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="42" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3230,9 +3230,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3675,36 +3675,36 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3713,23 +3713,23 @@
     <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3738,19 +3738,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3759,21 +3759,21 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3782,13 +3782,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3818,7 +3818,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3828,7 +3828,7 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3843,7 +3843,7 @@
     <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3855,13 +3855,13 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3870,7 +3870,7 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3882,13 +3882,13 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3897,7 +3897,7 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3906,10 +3906,10 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3933,52 +3933,52 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3987,7 +3987,7 @@
     <xf numFmtId="49" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4017,7 +4017,7 @@
     <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4029,13 +4029,13 @@
     <xf numFmtId="10" fontId="25" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="32" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="32" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="30" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4044,7 +4044,7 @@
     <xf numFmtId="10" fontId="26" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="27" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4054,11 +4054,11 @@
     <xf numFmtId="10" fontId="8" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="28" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="33" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="33" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4067,10 +4067,10 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4079,10 +4079,10 @@
     <xf numFmtId="10" fontId="8" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="34" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="34" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4094,10 +4094,10 @@
     <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4116,17 +4116,17 @@
     <xf numFmtId="0" fontId="36" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4252,9 +4252,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6152,15 +6149,15 @@
       <c r="B1" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="389">
+      <c r="C1" s="388">
         <f>COUNTIF(A:A,B1)</f>
         <v>2</v>
       </c>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="394"/>
-      <c r="H1" s="395"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="394"/>
       <c r="I1" s="92"/>
     </row>
     <row r="2" spans="1:9">
@@ -6170,15 +6167,15 @@
       <c r="B2" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="389">
+      <c r="C2" s="388">
         <f>COUNTIF(A:A,B2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="396"/>
-      <c r="H2" s="396"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="395"/>
+      <c r="H2" s="395"/>
       <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:9">
@@ -6188,15 +6185,15 @@
       <c r="B3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="389">
+      <c r="C3" s="388">
         <f>COUNTIF(A:A,B3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="390"/>
-      <c r="E3" s="390"/>
-      <c r="F3" s="392"/>
-      <c r="G3" s="396"/>
-      <c r="H3" s="396"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
+      <c r="F3" s="391"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
       <c r="I3" s="92"/>
     </row>
     <row r="4" spans="1:9">
@@ -6206,15 +6203,15 @@
       <c r="B4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="389">
+      <c r="C4" s="388">
         <f>COUNTIF(A:A,B4)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="390"/>
-      <c r="E4" s="390"/>
-      <c r="F4" s="392"/>
-      <c r="G4" s="396"/>
-      <c r="H4" s="396"/>
+      <c r="D4" s="389"/>
+      <c r="E4" s="389"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="395"/>
+      <c r="H4" s="395"/>
       <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:9">
@@ -6224,15 +6221,15 @@
       <c r="B5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="389">
+      <c r="C5" s="388">
         <f>COUNTIF(A:A,B5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="390"/>
-      <c r="E5" s="390"/>
-      <c r="F5" s="392"/>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
+      <c r="D5" s="389"/>
+      <c r="E5" s="389"/>
+      <c r="F5" s="391"/>
+      <c r="G5" s="395"/>
+      <c r="H5" s="395"/>
       <c r="I5" s="92"/>
     </row>
     <row r="6" spans="1:9">
@@ -6242,15 +6239,15 @@
       <c r="B6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="389">
+      <c r="C6" s="388">
         <f>COUNTIF(A:A,B6)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="390"/>
-      <c r="E6" s="390"/>
-      <c r="F6" s="392"/>
-      <c r="G6" s="396"/>
-      <c r="H6" s="396"/>
+      <c r="D6" s="389"/>
+      <c r="E6" s="389"/>
+      <c r="F6" s="391"/>
+      <c r="G6" s="395"/>
+      <c r="H6" s="395"/>
       <c r="I6" s="92"/>
     </row>
     <row r="7" spans="1:9">
@@ -6260,15 +6257,15 @@
       <c r="B7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="389">
+      <c r="C7" s="388">
         <f>COUNTIF(A:A,B7)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="390"/>
-      <c r="E7" s="390"/>
-      <c r="F7" s="392"/>
-      <c r="G7" s="396"/>
-      <c r="H7" s="396"/>
+      <c r="D7" s="389"/>
+      <c r="E7" s="389"/>
+      <c r="F7" s="391"/>
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
       <c r="I7" s="92"/>
     </row>
     <row r="8" spans="1:9">
@@ -6278,15 +6275,15 @@
       <c r="B8" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="389">
+      <c r="C8" s="388">
         <f>COUNTIF(A:A,B8)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="390"/>
-      <c r="E8" s="390"/>
-      <c r="F8" s="392"/>
-      <c r="G8" s="396"/>
-      <c r="H8" s="396"/>
+      <c r="D8" s="389"/>
+      <c r="E8" s="389"/>
+      <c r="F8" s="391"/>
+      <c r="G8" s="395"/>
+      <c r="H8" s="395"/>
       <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:9">
@@ -6296,15 +6293,15 @@
       <c r="B9" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="389">
+      <c r="C9" s="388">
         <f>COUNTIF(A:A,B9)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="390"/>
-      <c r="E9" s="390"/>
-      <c r="F9" s="392"/>
-      <c r="G9" s="396"/>
-      <c r="H9" s="396"/>
+      <c r="D9" s="389"/>
+      <c r="E9" s="389"/>
+      <c r="F9" s="391"/>
+      <c r="G9" s="395"/>
+      <c r="H9" s="395"/>
       <c r="I9" s="92"/>
     </row>
     <row r="10" spans="1:9">
@@ -6314,15 +6311,15 @@
       <c r="B10" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="389">
+      <c r="C10" s="388">
         <f>COUNTIF(A:A,B10)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="390"/>
-      <c r="E10" s="390"/>
-      <c r="F10" s="392"/>
-      <c r="G10" s="396"/>
-      <c r="H10" s="396"/>
+      <c r="D10" s="389"/>
+      <c r="E10" s="389"/>
+      <c r="F10" s="391"/>
+      <c r="G10" s="395"/>
+      <c r="H10" s="395"/>
       <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:9">
@@ -6332,15 +6329,15 @@
       <c r="B11" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="389">
+      <c r="C11" s="388">
         <f>COUNTIF(A:A,B11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="390"/>
-      <c r="E11" s="390"/>
-      <c r="F11" s="392"/>
-      <c r="G11" s="396"/>
-      <c r="H11" s="396"/>
+      <c r="D11" s="389"/>
+      <c r="E11" s="389"/>
+      <c r="F11" s="391"/>
+      <c r="G11" s="395"/>
+      <c r="H11" s="395"/>
       <c r="I11" s="92"/>
     </row>
     <row r="12" spans="1:9">
@@ -6350,902 +6347,902 @@
       <c r="B12" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="389">
+      <c r="C12" s="388">
         <f>COUNTIF(A:A,B12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="390"/>
-      <c r="E12" s="390"/>
-      <c r="F12" s="392"/>
-      <c r="G12" s="396"/>
-      <c r="H12" s="396"/>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="391"/>
+      <c r="G12" s="395"/>
+      <c r="H12" s="395"/>
       <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="391"/>
-      <c r="C13" s="389">
+      <c r="B13" s="390"/>
+      <c r="C13" s="388">
         <f>COUNTIF(A:A,B13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="390"/>
-      <c r="E13" s="390"/>
-      <c r="F13" s="392"/>
-      <c r="G13" s="396"/>
-      <c r="H13" s="396"/>
+      <c r="D13" s="389"/>
+      <c r="E13" s="389"/>
+      <c r="F13" s="391"/>
+      <c r="G13" s="395"/>
+      <c r="H13" s="395"/>
       <c r="I13" s="92"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="390"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="390"/>
-      <c r="F14" s="392"/>
-      <c r="G14" s="396"/>
-      <c r="H14" s="396"/>
+      <c r="C14" s="389"/>
+      <c r="D14" s="389"/>
+      <c r="E14" s="389"/>
+      <c r="F14" s="391"/>
+      <c r="G14" s="395"/>
+      <c r="H14" s="395"/>
       <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="238"/>
-      <c r="C15" s="390"/>
-      <c r="D15" s="390"/>
-      <c r="E15" s="390"/>
-      <c r="F15" s="392"/>
+      <c r="C15" s="389"/>
+      <c r="D15" s="389"/>
+      <c r="E15" s="389"/>
+      <c r="F15" s="391"/>
       <c r="G15" s="92"/>
-      <c r="H15" s="396"/>
+      <c r="H15" s="395"/>
       <c r="I15" s="92"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="390"/>
-      <c r="D16" s="390"/>
-      <c r="E16" s="390"/>
-      <c r="F16" s="392"/>
-      <c r="G16" s="396"/>
-      <c r="H16" s="396"/>
+      <c r="C16" s="389"/>
+      <c r="D16" s="389"/>
+      <c r="E16" s="389"/>
+      <c r="F16" s="391"/>
+      <c r="G16" s="395"/>
+      <c r="H16" s="395"/>
       <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="390"/>
-      <c r="D17" s="390"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="392"/>
-      <c r="G17" s="396"/>
-      <c r="H17" s="396"/>
+      <c r="C17" s="389"/>
+      <c r="D17" s="389"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="395"/>
+      <c r="H17" s="395"/>
       <c r="I17" s="92"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="390"/>
-      <c r="D18" s="390"/>
-      <c r="E18" s="390"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="396"/>
-      <c r="H18" s="396"/>
+      <c r="C18" s="389"/>
+      <c r="D18" s="389"/>
+      <c r="E18" s="389"/>
+      <c r="F18" s="391"/>
+      <c r="G18" s="395"/>
+      <c r="H18" s="395"/>
       <c r="I18" s="92"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="392"/>
-      <c r="B19" s="392"/>
-      <c r="C19" s="390"/>
-      <c r="D19" s="390"/>
-      <c r="E19" s="390"/>
-      <c r="F19" s="392"/>
-      <c r="G19" s="396"/>
-      <c r="H19" s="396"/>
+      <c r="A19" s="391"/>
+      <c r="B19" s="391"/>
+      <c r="C19" s="389"/>
+      <c r="D19" s="389"/>
+      <c r="E19" s="389"/>
+      <c r="F19" s="391"/>
+      <c r="G19" s="395"/>
+      <c r="H19" s="395"/>
       <c r="I19" s="92"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="392"/>
-      <c r="B20" s="392"/>
-      <c r="C20" s="390"/>
-      <c r="D20" s="390"/>
-      <c r="E20" s="390"/>
-      <c r="F20" s="392"/>
-      <c r="G20" s="396"/>
-      <c r="H20" s="396"/>
+      <c r="A20" s="391"/>
+      <c r="B20" s="391"/>
+      <c r="C20" s="389"/>
+      <c r="D20" s="389"/>
+      <c r="E20" s="389"/>
+      <c r="F20" s="391"/>
+      <c r="G20" s="395"/>
+      <c r="H20" s="395"/>
       <c r="I20" s="92"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="392"/>
-      <c r="B21" s="392"/>
-      <c r="C21" s="390"/>
-      <c r="D21" s="390"/>
-      <c r="E21" s="390"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="396"/>
-      <c r="H21" s="396"/>
+      <c r="A21" s="391"/>
+      <c r="B21" s="391"/>
+      <c r="C21" s="389"/>
+      <c r="D21" s="389"/>
+      <c r="E21" s="389"/>
+      <c r="F21" s="391"/>
+      <c r="G21" s="395"/>
+      <c r="H21" s="395"/>
       <c r="I21" s="92"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="392"/>
-      <c r="B22" s="392"/>
-      <c r="C22" s="390"/>
-      <c r="D22" s="390"/>
-      <c r="E22" s="390"/>
-      <c r="F22" s="392"/>
-      <c r="G22" s="396"/>
-      <c r="H22" s="396"/>
+      <c r="A22" s="391"/>
+      <c r="B22" s="391"/>
+      <c r="C22" s="389"/>
+      <c r="D22" s="389"/>
+      <c r="E22" s="389"/>
+      <c r="F22" s="391"/>
+      <c r="G22" s="395"/>
+      <c r="H22" s="395"/>
       <c r="I22" s="92"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="392"/>
-      <c r="B23" s="392"/>
-      <c r="C23" s="390"/>
-      <c r="D23" s="390"/>
-      <c r="E23" s="390"/>
-      <c r="F23" s="392"/>
-      <c r="G23" s="396"/>
-      <c r="H23" s="396"/>
+      <c r="A23" s="391"/>
+      <c r="B23" s="391"/>
+      <c r="C23" s="389"/>
+      <c r="D23" s="389"/>
+      <c r="E23" s="389"/>
+      <c r="F23" s="391"/>
+      <c r="G23" s="395"/>
+      <c r="H23" s="395"/>
       <c r="I23" s="92"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="392"/>
-      <c r="B24" s="392"/>
-      <c r="C24" s="390"/>
-      <c r="D24" s="390"/>
-      <c r="E24" s="390"/>
-      <c r="F24" s="392"/>
-      <c r="G24" s="396"/>
-      <c r="H24" s="396"/>
+      <c r="A24" s="391"/>
+      <c r="B24" s="391"/>
+      <c r="C24" s="389"/>
+      <c r="D24" s="389"/>
+      <c r="E24" s="389"/>
+      <c r="F24" s="391"/>
+      <c r="G24" s="395"/>
+      <c r="H24" s="395"/>
       <c r="I24" s="92"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="392"/>
-      <c r="B25" s="392"/>
-      <c r="C25" s="390"/>
-      <c r="D25" s="390"/>
-      <c r="E25" s="390"/>
-      <c r="F25" s="392"/>
-      <c r="G25" s="396"/>
-      <c r="H25" s="396"/>
+      <c r="A25" s="391"/>
+      <c r="B25" s="391"/>
+      <c r="C25" s="389"/>
+      <c r="D25" s="389"/>
+      <c r="E25" s="389"/>
+      <c r="F25" s="391"/>
+      <c r="G25" s="395"/>
+      <c r="H25" s="395"/>
       <c r="I25" s="92"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="392"/>
-      <c r="B26" s="392"/>
-      <c r="C26" s="390"/>
-      <c r="D26" s="390"/>
-      <c r="E26" s="390"/>
-      <c r="F26" s="392"/>
-      <c r="G26" s="396"/>
-      <c r="H26" s="396"/>
+      <c r="A26" s="391"/>
+      <c r="B26" s="391"/>
+      <c r="C26" s="389"/>
+      <c r="D26" s="389"/>
+      <c r="E26" s="389"/>
+      <c r="F26" s="391"/>
+      <c r="G26" s="395"/>
+      <c r="H26" s="395"/>
       <c r="I26" s="92"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="392"/>
-      <c r="B27" s="392"/>
-      <c r="C27" s="390"/>
-      <c r="D27" s="390"/>
-      <c r="E27" s="390"/>
-      <c r="F27" s="392"/>
-      <c r="G27" s="396"/>
-      <c r="H27" s="396"/>
+      <c r="A27" s="391"/>
+      <c r="B27" s="391"/>
+      <c r="C27" s="389"/>
+      <c r="D27" s="389"/>
+      <c r="E27" s="389"/>
+      <c r="F27" s="391"/>
+      <c r="G27" s="395"/>
+      <c r="H27" s="395"/>
       <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="392"/>
-      <c r="B28" s="392"/>
-      <c r="C28" s="390"/>
-      <c r="D28" s="390"/>
-      <c r="E28" s="390"/>
-      <c r="F28" s="392"/>
-      <c r="G28" s="396"/>
-      <c r="H28" s="396"/>
+      <c r="A28" s="391"/>
+      <c r="B28" s="391"/>
+      <c r="C28" s="389"/>
+      <c r="D28" s="389"/>
+      <c r="E28" s="389"/>
+      <c r="F28" s="391"/>
+      <c r="G28" s="395"/>
+      <c r="H28" s="395"/>
       <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="392"/>
-      <c r="B29" s="392"/>
-      <c r="C29" s="390"/>
-      <c r="D29" s="390"/>
-      <c r="E29" s="390"/>
-      <c r="F29" s="392"/>
-      <c r="G29" s="396"/>
-      <c r="H29" s="396"/>
+      <c r="A29" s="391"/>
+      <c r="B29" s="391"/>
+      <c r="C29" s="389"/>
+      <c r="D29" s="389"/>
+      <c r="E29" s="389"/>
+      <c r="F29" s="391"/>
+      <c r="G29" s="395"/>
+      <c r="H29" s="395"/>
       <c r="I29" s="92"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="392"/>
-      <c r="B30" s="392"/>
-      <c r="C30" s="390"/>
-      <c r="D30" s="390"/>
-      <c r="E30" s="390"/>
-      <c r="F30" s="392"/>
-      <c r="G30" s="396"/>
-      <c r="H30" s="396"/>
+      <c r="A30" s="391"/>
+      <c r="B30" s="391"/>
+      <c r="C30" s="389"/>
+      <c r="D30" s="389"/>
+      <c r="E30" s="389"/>
+      <c r="F30" s="391"/>
+      <c r="G30" s="395"/>
+      <c r="H30" s="395"/>
       <c r="I30" s="92"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="392"/>
-      <c r="B31" s="392"/>
-      <c r="C31" s="390"/>
-      <c r="D31" s="390"/>
-      <c r="E31" s="390"/>
-      <c r="F31" s="392"/>
-      <c r="G31" s="396"/>
-      <c r="H31" s="396"/>
+      <c r="A31" s="391"/>
+      <c r="B31" s="391"/>
+      <c r="C31" s="389"/>
+      <c r="D31" s="389"/>
+      <c r="E31" s="389"/>
+      <c r="F31" s="391"/>
+      <c r="G31" s="395"/>
+      <c r="H31" s="395"/>
       <c r="I31" s="92"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="392"/>
-      <c r="B32" s="392"/>
-      <c r="C32" s="390"/>
-      <c r="D32" s="390"/>
-      <c r="E32" s="390"/>
-      <c r="F32" s="392"/>
-      <c r="G32" s="396"/>
-      <c r="H32" s="396"/>
+      <c r="A32" s="391"/>
+      <c r="B32" s="391"/>
+      <c r="C32" s="389"/>
+      <c r="D32" s="389"/>
+      <c r="E32" s="389"/>
+      <c r="F32" s="391"/>
+      <c r="G32" s="395"/>
+      <c r="H32" s="395"/>
       <c r="I32" s="92"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="392"/>
-      <c r="B33" s="392"/>
-      <c r="C33" s="390"/>
-      <c r="D33" s="390"/>
-      <c r="E33" s="390"/>
-      <c r="F33" s="392"/>
-      <c r="G33" s="396"/>
+      <c r="A33" s="391"/>
+      <c r="B33" s="391"/>
+      <c r="C33" s="389"/>
+      <c r="D33" s="389"/>
+      <c r="E33" s="389"/>
+      <c r="F33" s="391"/>
+      <c r="G33" s="395"/>
       <c r="H33" s="92"/>
       <c r="I33" s="92"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="392"/>
-      <c r="B34" s="392"/>
-      <c r="C34" s="390"/>
-      <c r="D34" s="390"/>
-      <c r="E34" s="390"/>
-      <c r="F34" s="392"/>
-      <c r="G34" s="396"/>
+      <c r="A34" s="391"/>
+      <c r="B34" s="391"/>
+      <c r="C34" s="389"/>
+      <c r="D34" s="389"/>
+      <c r="E34" s="389"/>
+      <c r="F34" s="391"/>
+      <c r="G34" s="395"/>
       <c r="H34" s="92"/>
       <c r="I34" s="92"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="392"/>
-      <c r="B35" s="392"/>
-      <c r="C35" s="390"/>
-      <c r="D35" s="390"/>
-      <c r="E35" s="390"/>
-      <c r="F35" s="392"/>
-      <c r="G35" s="396"/>
+      <c r="A35" s="391"/>
+      <c r="B35" s="391"/>
+      <c r="C35" s="389"/>
+      <c r="D35" s="389"/>
+      <c r="E35" s="389"/>
+      <c r="F35" s="391"/>
+      <c r="G35" s="395"/>
       <c r="H35" s="92"/>
       <c r="I35" s="92"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="392"/>
-      <c r="B36" s="392"/>
-      <c r="C36" s="390"/>
-      <c r="D36" s="390"/>
-      <c r="E36" s="390"/>
-      <c r="F36" s="392"/>
-      <c r="G36" s="396"/>
+      <c r="A36" s="391"/>
+      <c r="B36" s="391"/>
+      <c r="C36" s="389"/>
+      <c r="D36" s="389"/>
+      <c r="E36" s="389"/>
+      <c r="F36" s="391"/>
+      <c r="G36" s="395"/>
       <c r="H36" s="92"/>
       <c r="I36" s="92"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="392"/>
-      <c r="B37" s="392"/>
-      <c r="C37" s="390"/>
-      <c r="D37" s="390"/>
-      <c r="E37" s="390"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="396"/>
+      <c r="A37" s="391"/>
+      <c r="B37" s="391"/>
+      <c r="C37" s="389"/>
+      <c r="D37" s="389"/>
+      <c r="E37" s="389"/>
+      <c r="F37" s="391"/>
+      <c r="G37" s="395"/>
       <c r="H37" s="92"/>
       <c r="I37" s="92"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="392"/>
-      <c r="B38" s="392"/>
-      <c r="C38" s="390"/>
-      <c r="D38" s="390"/>
-      <c r="E38" s="390"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="396"/>
+      <c r="A38" s="391"/>
+      <c r="B38" s="391"/>
+      <c r="C38" s="389"/>
+      <c r="D38" s="389"/>
+      <c r="E38" s="389"/>
+      <c r="F38" s="391"/>
+      <c r="G38" s="395"/>
       <c r="H38" s="92"/>
       <c r="I38" s="92"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="392"/>
-      <c r="B39" s="392"/>
-      <c r="C39" s="390"/>
-      <c r="D39" s="390"/>
-      <c r="E39" s="390"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="396"/>
+      <c r="A39" s="391"/>
+      <c r="B39" s="391"/>
+      <c r="C39" s="389"/>
+      <c r="D39" s="389"/>
+      <c r="E39" s="389"/>
+      <c r="F39" s="391"/>
+      <c r="G39" s="395"/>
       <c r="H39" s="92"/>
       <c r="I39" s="92"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="392"/>
-      <c r="B40" s="392"/>
-      <c r="C40" s="390"/>
-      <c r="D40" s="390"/>
-      <c r="E40" s="390"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="396"/>
+      <c r="A40" s="391"/>
+      <c r="B40" s="391"/>
+      <c r="C40" s="389"/>
+      <c r="D40" s="389"/>
+      <c r="E40" s="389"/>
+      <c r="F40" s="391"/>
+      <c r="G40" s="395"/>
       <c r="H40" s="92"/>
       <c r="I40" s="92"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="392"/>
-      <c r="B41" s="392"/>
-      <c r="C41" s="390"/>
-      <c r="D41" s="390"/>
-      <c r="E41" s="390"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="396"/>
+      <c r="A41" s="391"/>
+      <c r="B41" s="391"/>
+      <c r="C41" s="389"/>
+      <c r="D41" s="389"/>
+      <c r="E41" s="389"/>
+      <c r="F41" s="391"/>
+      <c r="G41" s="395"/>
       <c r="H41" s="92"/>
       <c r="I41" s="92"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="392"/>
-      <c r="B42" s="392"/>
-      <c r="C42" s="390"/>
-      <c r="D42" s="390"/>
-      <c r="E42" s="390"/>
-      <c r="F42" s="392"/>
-      <c r="G42" s="396"/>
+      <c r="A42" s="391"/>
+      <c r="B42" s="391"/>
+      <c r="C42" s="389"/>
+      <c r="D42" s="389"/>
+      <c r="E42" s="389"/>
+      <c r="F42" s="391"/>
+      <c r="G42" s="395"/>
       <c r="H42" s="92"/>
       <c r="I42" s="92"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="392"/>
-      <c r="B43" s="392"/>
-      <c r="C43" s="390"/>
-      <c r="D43" s="390"/>
-      <c r="E43" s="390"/>
-      <c r="F43" s="392"/>
-      <c r="G43" s="396"/>
+      <c r="A43" s="391"/>
+      <c r="B43" s="391"/>
+      <c r="C43" s="389"/>
+      <c r="D43" s="389"/>
+      <c r="E43" s="389"/>
+      <c r="F43" s="391"/>
+      <c r="G43" s="395"/>
       <c r="H43" s="92"/>
       <c r="I43" s="92"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="392"/>
-      <c r="B44" s="392"/>
-      <c r="C44" s="390"/>
-      <c r="D44" s="390"/>
-      <c r="E44" s="390"/>
-      <c r="F44" s="392"/>
-      <c r="G44" s="396"/>
+      <c r="A44" s="391"/>
+      <c r="B44" s="391"/>
+      <c r="C44" s="389"/>
+      <c r="D44" s="389"/>
+      <c r="E44" s="389"/>
+      <c r="F44" s="391"/>
+      <c r="G44" s="395"/>
       <c r="H44" s="92"/>
       <c r="I44" s="92"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="392"/>
-      <c r="B45" s="392"/>
-      <c r="C45" s="390"/>
-      <c r="D45" s="390"/>
-      <c r="E45" s="390"/>
-      <c r="F45" s="392"/>
-      <c r="G45" s="396"/>
+      <c r="A45" s="391"/>
+      <c r="B45" s="391"/>
+      <c r="C45" s="389"/>
+      <c r="D45" s="389"/>
+      <c r="E45" s="389"/>
+      <c r="F45" s="391"/>
+      <c r="G45" s="395"/>
       <c r="H45" s="92"/>
       <c r="I45" s="92"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="392"/>
-      <c r="B46" s="392"/>
-      <c r="C46" s="390"/>
-      <c r="D46" s="390"/>
-      <c r="E46" s="390"/>
-      <c r="F46" s="392"/>
-      <c r="G46" s="396"/>
+      <c r="A46" s="391"/>
+      <c r="B46" s="391"/>
+      <c r="C46" s="389"/>
+      <c r="D46" s="389"/>
+      <c r="E46" s="389"/>
+      <c r="F46" s="391"/>
+      <c r="G46" s="395"/>
       <c r="H46" s="92"/>
       <c r="I46" s="92"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="392"/>
-      <c r="B47" s="392"/>
-      <c r="C47" s="390"/>
-      <c r="D47" s="390"/>
-      <c r="E47" s="390"/>
-      <c r="F47" s="392"/>
-      <c r="G47" s="396"/>
+      <c r="A47" s="391"/>
+      <c r="B47" s="391"/>
+      <c r="C47" s="389"/>
+      <c r="D47" s="389"/>
+      <c r="E47" s="389"/>
+      <c r="F47" s="391"/>
+      <c r="G47" s="395"/>
       <c r="H47" s="92"/>
       <c r="I47" s="92"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="392"/>
-      <c r="B48" s="392"/>
-      <c r="C48" s="390"/>
-      <c r="D48" s="390"/>
-      <c r="E48" s="390"/>
-      <c r="F48" s="392"/>
-      <c r="G48" s="396"/>
+      <c r="A48" s="391"/>
+      <c r="B48" s="391"/>
+      <c r="C48" s="389"/>
+      <c r="D48" s="389"/>
+      <c r="E48" s="389"/>
+      <c r="F48" s="391"/>
+      <c r="G48" s="395"/>
       <c r="H48" s="92"/>
       <c r="I48" s="92"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="392"/>
-      <c r="B49" s="392"/>
-      <c r="C49" s="390"/>
-      <c r="D49" s="390"/>
-      <c r="E49" s="390"/>
-      <c r="F49" s="392"/>
-      <c r="G49" s="396"/>
+      <c r="A49" s="391"/>
+      <c r="B49" s="391"/>
+      <c r="C49" s="389"/>
+      <c r="D49" s="389"/>
+      <c r="E49" s="389"/>
+      <c r="F49" s="391"/>
+      <c r="G49" s="395"/>
       <c r="H49" s="92"/>
       <c r="I49" s="92"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="392"/>
-      <c r="B50" s="392"/>
-      <c r="C50" s="390"/>
-      <c r="D50" s="390"/>
-      <c r="E50" s="390"/>
-      <c r="F50" s="392"/>
-      <c r="G50" s="396"/>
+      <c r="A50" s="391"/>
+      <c r="B50" s="391"/>
+      <c r="C50" s="389"/>
+      <c r="D50" s="389"/>
+      <c r="E50" s="389"/>
+      <c r="F50" s="391"/>
+      <c r="G50" s="395"/>
       <c r="H50" s="92"/>
       <c r="I50" s="92"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="392"/>
-      <c r="B51" s="392"/>
-      <c r="C51" s="390"/>
-      <c r="D51" s="390"/>
-      <c r="E51" s="390"/>
-      <c r="F51" s="392"/>
-      <c r="G51" s="396"/>
+      <c r="A51" s="391"/>
+      <c r="B51" s="391"/>
+      <c r="C51" s="389"/>
+      <c r="D51" s="389"/>
+      <c r="E51" s="389"/>
+      <c r="F51" s="391"/>
+      <c r="G51" s="395"/>
       <c r="H51" s="92"/>
       <c r="I51" s="92"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="392"/>
-      <c r="B52" s="392"/>
-      <c r="C52" s="390"/>
-      <c r="D52" s="390"/>
-      <c r="E52" s="390"/>
-      <c r="F52" s="392"/>
-      <c r="G52" s="396"/>
+      <c r="A52" s="391"/>
+      <c r="B52" s="391"/>
+      <c r="C52" s="389"/>
+      <c r="D52" s="389"/>
+      <c r="E52" s="389"/>
+      <c r="F52" s="391"/>
+      <c r="G52" s="395"/>
       <c r="H52" s="92"/>
       <c r="I52" s="92"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="392"/>
-      <c r="B53" s="392"/>
-      <c r="C53" s="390"/>
-      <c r="D53" s="390"/>
-      <c r="E53" s="390"/>
-      <c r="F53" s="392"/>
-      <c r="G53" s="396"/>
+      <c r="A53" s="391"/>
+      <c r="B53" s="391"/>
+      <c r="C53" s="389"/>
+      <c r="D53" s="389"/>
+      <c r="E53" s="389"/>
+      <c r="F53" s="391"/>
+      <c r="G53" s="395"/>
       <c r="H53" s="92"/>
       <c r="I53" s="92"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="392"/>
-      <c r="B54" s="392"/>
-      <c r="C54" s="390"/>
-      <c r="D54" s="390"/>
-      <c r="E54" s="390"/>
-      <c r="F54" s="392"/>
-      <c r="G54" s="396"/>
+      <c r="A54" s="391"/>
+      <c r="B54" s="391"/>
+      <c r="C54" s="389"/>
+      <c r="D54" s="389"/>
+      <c r="E54" s="389"/>
+      <c r="F54" s="391"/>
+      <c r="G54" s="395"/>
       <c r="H54" s="92"/>
       <c r="I54" s="92"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="392"/>
-      <c r="B55" s="392"/>
-      <c r="C55" s="390"/>
-      <c r="D55" s="390"/>
-      <c r="E55" s="390"/>
-      <c r="F55" s="392"/>
-      <c r="G55" s="396"/>
+      <c r="A55" s="391"/>
+      <c r="B55" s="391"/>
+      <c r="C55" s="389"/>
+      <c r="D55" s="389"/>
+      <c r="E55" s="389"/>
+      <c r="F55" s="391"/>
+      <c r="G55" s="395"/>
       <c r="H55" s="92"/>
       <c r="I55" s="92"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="392"/>
-      <c r="B56" s="392"/>
-      <c r="C56" s="390"/>
-      <c r="D56" s="390"/>
-      <c r="E56" s="390"/>
-      <c r="F56" s="392"/>
-      <c r="G56" s="396"/>
+      <c r="A56" s="391"/>
+      <c r="B56" s="391"/>
+      <c r="C56" s="389"/>
+      <c r="D56" s="389"/>
+      <c r="E56" s="389"/>
+      <c r="F56" s="391"/>
+      <c r="G56" s="395"/>
       <c r="H56" s="92"/>
       <c r="I56" s="92"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="392"/>
-      <c r="B57" s="392"/>
-      <c r="C57" s="390"/>
-      <c r="D57" s="390"/>
-      <c r="E57" s="390"/>
-      <c r="F57" s="392"/>
-      <c r="G57" s="396"/>
+      <c r="A57" s="391"/>
+      <c r="B57" s="391"/>
+      <c r="C57" s="389"/>
+      <c r="D57" s="389"/>
+      <c r="E57" s="389"/>
+      <c r="F57" s="391"/>
+      <c r="G57" s="395"/>
       <c r="H57" s="92"/>
       <c r="I57" s="92"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="392"/>
-      <c r="B58" s="392"/>
-      <c r="C58" s="390"/>
-      <c r="D58" s="390"/>
-      <c r="E58" s="390"/>
-      <c r="F58" s="392"/>
-      <c r="G58" s="396"/>
+      <c r="A58" s="391"/>
+      <c r="B58" s="391"/>
+      <c r="C58" s="389"/>
+      <c r="D58" s="389"/>
+      <c r="E58" s="389"/>
+      <c r="F58" s="391"/>
+      <c r="G58" s="395"/>
       <c r="H58" s="92"/>
       <c r="I58" s="92"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="392"/>
-      <c r="B59" s="392"/>
-      <c r="C59" s="390"/>
-      <c r="D59" s="390"/>
-      <c r="E59" s="390"/>
-      <c r="F59" s="392"/>
-      <c r="G59" s="396"/>
+      <c r="A59" s="391"/>
+      <c r="B59" s="391"/>
+      <c r="C59" s="389"/>
+      <c r="D59" s="389"/>
+      <c r="E59" s="389"/>
+      <c r="F59" s="391"/>
+      <c r="G59" s="395"/>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="392"/>
-      <c r="B60" s="392"/>
-      <c r="C60" s="390"/>
-      <c r="D60" s="390"/>
-      <c r="E60" s="390"/>
-      <c r="F60" s="392"/>
-      <c r="G60" s="396"/>
+      <c r="A60" s="391"/>
+      <c r="B60" s="391"/>
+      <c r="C60" s="389"/>
+      <c r="D60" s="389"/>
+      <c r="E60" s="389"/>
+      <c r="F60" s="391"/>
+      <c r="G60" s="395"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="392"/>
-      <c r="B61" s="392"/>
-      <c r="C61" s="390"/>
-      <c r="D61" s="390"/>
-      <c r="E61" s="390"/>
-      <c r="F61" s="392"/>
-      <c r="G61" s="396"/>
+      <c r="A61" s="391"/>
+      <c r="B61" s="391"/>
+      <c r="C61" s="389"/>
+      <c r="D61" s="389"/>
+      <c r="E61" s="389"/>
+      <c r="F61" s="391"/>
+      <c r="G61" s="395"/>
       <c r="H61" s="92"/>
       <c r="I61" s="92"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="392"/>
-      <c r="B62" s="392"/>
-      <c r="C62" s="390"/>
-      <c r="D62" s="390"/>
-      <c r="E62" s="390"/>
-      <c r="F62" s="392"/>
-      <c r="G62" s="396"/>
+      <c r="A62" s="391"/>
+      <c r="B62" s="391"/>
+      <c r="C62" s="389"/>
+      <c r="D62" s="389"/>
+      <c r="E62" s="389"/>
+      <c r="F62" s="391"/>
+      <c r="G62" s="395"/>
       <c r="H62" s="92"/>
       <c r="I62" s="92"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="392"/>
-      <c r="B63" s="392"/>
-      <c r="C63" s="390"/>
-      <c r="D63" s="390"/>
-      <c r="E63" s="390"/>
-      <c r="F63" s="392"/>
-      <c r="G63" s="396"/>
+      <c r="A63" s="391"/>
+      <c r="B63" s="391"/>
+      <c r="C63" s="389"/>
+      <c r="D63" s="389"/>
+      <c r="E63" s="389"/>
+      <c r="F63" s="391"/>
+      <c r="G63" s="395"/>
       <c r="H63" s="92"/>
       <c r="I63" s="92"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="392"/>
-      <c r="B64" s="392"/>
-      <c r="C64" s="390"/>
-      <c r="D64" s="390"/>
-      <c r="E64" s="390"/>
-      <c r="F64" s="392"/>
-      <c r="G64" s="396"/>
+      <c r="A64" s="391"/>
+      <c r="B64" s="391"/>
+      <c r="C64" s="389"/>
+      <c r="D64" s="389"/>
+      <c r="E64" s="389"/>
+      <c r="F64" s="391"/>
+      <c r="G64" s="395"/>
       <c r="H64" s="92"/>
       <c r="I64" s="92"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="392"/>
-      <c r="B65" s="392"/>
-      <c r="C65" s="390"/>
-      <c r="D65" s="390"/>
-      <c r="E65" s="390"/>
-      <c r="F65" s="392"/>
-      <c r="G65" s="396"/>
+      <c r="A65" s="391"/>
+      <c r="B65" s="391"/>
+      <c r="C65" s="389"/>
+      <c r="D65" s="389"/>
+      <c r="E65" s="389"/>
+      <c r="F65" s="391"/>
+      <c r="G65" s="395"/>
       <c r="H65" s="92"/>
       <c r="I65" s="92"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="392"/>
-      <c r="B66" s="392"/>
-      <c r="C66" s="390"/>
-      <c r="D66" s="390"/>
-      <c r="E66" s="390"/>
-      <c r="F66" s="392"/>
-      <c r="G66" s="396"/>
+      <c r="A66" s="391"/>
+      <c r="B66" s="391"/>
+      <c r="C66" s="389"/>
+      <c r="D66" s="389"/>
+      <c r="E66" s="389"/>
+      <c r="F66" s="391"/>
+      <c r="G66" s="395"/>
       <c r="H66" s="92"/>
       <c r="I66" s="92"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="392"/>
-      <c r="B67" s="392"/>
-      <c r="C67" s="390"/>
-      <c r="D67" s="390"/>
-      <c r="E67" s="390"/>
-      <c r="F67" s="392"/>
-      <c r="G67" s="396"/>
+      <c r="A67" s="391"/>
+      <c r="B67" s="391"/>
+      <c r="C67" s="389"/>
+      <c r="D67" s="389"/>
+      <c r="E67" s="389"/>
+      <c r="F67" s="391"/>
+      <c r="G67" s="395"/>
       <c r="H67" s="92"/>
       <c r="I67" s="92"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="392"/>
-      <c r="B68" s="392"/>
-      <c r="C68" s="390"/>
-      <c r="D68" s="390"/>
-      <c r="E68" s="390"/>
-      <c r="F68" s="392"/>
-      <c r="G68" s="396"/>
+      <c r="A68" s="391"/>
+      <c r="B68" s="391"/>
+      <c r="C68" s="389"/>
+      <c r="D68" s="389"/>
+      <c r="E68" s="389"/>
+      <c r="F68" s="391"/>
+      <c r="G68" s="395"/>
       <c r="H68" s="92"/>
       <c r="I68" s="92"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="392"/>
-      <c r="B69" s="392"/>
-      <c r="C69" s="390"/>
-      <c r="D69" s="390"/>
-      <c r="E69" s="390"/>
-      <c r="F69" s="392"/>
-      <c r="G69" s="396"/>
+      <c r="A69" s="391"/>
+      <c r="B69" s="391"/>
+      <c r="C69" s="389"/>
+      <c r="D69" s="389"/>
+      <c r="E69" s="389"/>
+      <c r="F69" s="391"/>
+      <c r="G69" s="395"/>
       <c r="H69" s="92"/>
       <c r="I69" s="92"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="392"/>
-      <c r="B70" s="392"/>
-      <c r="C70" s="390"/>
-      <c r="D70" s="390"/>
-      <c r="E70" s="390"/>
-      <c r="F70" s="392"/>
-      <c r="G70" s="396"/>
+      <c r="A70" s="391"/>
+      <c r="B70" s="391"/>
+      <c r="C70" s="389"/>
+      <c r="D70" s="389"/>
+      <c r="E70" s="389"/>
+      <c r="F70" s="391"/>
+      <c r="G70" s="395"/>
       <c r="H70" s="92"/>
       <c r="I70" s="92"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="392"/>
-      <c r="B71" s="392"/>
-      <c r="C71" s="390"/>
-      <c r="D71" s="390"/>
-      <c r="E71" s="390"/>
-      <c r="F71" s="392"/>
-      <c r="G71" s="396"/>
+      <c r="A71" s="391"/>
+      <c r="B71" s="391"/>
+      <c r="C71" s="389"/>
+      <c r="D71" s="389"/>
+      <c r="E71" s="389"/>
+      <c r="F71" s="391"/>
+      <c r="G71" s="395"/>
       <c r="H71" s="92"/>
       <c r="I71" s="92"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="392"/>
-      <c r="B72" s="392"/>
-      <c r="C72" s="390"/>
-      <c r="D72" s="390"/>
-      <c r="E72" s="390"/>
-      <c r="F72" s="392"/>
-      <c r="G72" s="396"/>
+      <c r="A72" s="391"/>
+      <c r="B72" s="391"/>
+      <c r="C72" s="389"/>
+      <c r="D72" s="389"/>
+      <c r="E72" s="389"/>
+      <c r="F72" s="391"/>
+      <c r="G72" s="395"/>
       <c r="H72" s="92"/>
       <c r="I72" s="92"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="392"/>
-      <c r="B73" s="392"/>
-      <c r="C73" s="390"/>
-      <c r="D73" s="390"/>
-      <c r="E73" s="390"/>
-      <c r="F73" s="392"/>
-      <c r="G73" s="396"/>
+      <c r="A73" s="391"/>
+      <c r="B73" s="391"/>
+      <c r="C73" s="389"/>
+      <c r="D73" s="389"/>
+      <c r="E73" s="389"/>
+      <c r="F73" s="391"/>
+      <c r="G73" s="395"/>
       <c r="H73" s="92"/>
       <c r="I73" s="92"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="392"/>
-      <c r="B74" s="392"/>
-      <c r="C74" s="390"/>
-      <c r="D74" s="390"/>
-      <c r="E74" s="390"/>
-      <c r="F74" s="392"/>
-      <c r="G74" s="396"/>
+      <c r="A74" s="391"/>
+      <c r="B74" s="391"/>
+      <c r="C74" s="389"/>
+      <c r="D74" s="389"/>
+      <c r="E74" s="389"/>
+      <c r="F74" s="391"/>
+      <c r="G74" s="395"/>
       <c r="H74" s="92"/>
       <c r="I74" s="92"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="392"/>
-      <c r="B75" s="392"/>
-      <c r="C75" s="390"/>
-      <c r="D75" s="390"/>
-      <c r="E75" s="390"/>
-      <c r="F75" s="392"/>
-      <c r="G75" s="396"/>
+      <c r="A75" s="391"/>
+      <c r="B75" s="391"/>
+      <c r="C75" s="389"/>
+      <c r="D75" s="389"/>
+      <c r="E75" s="389"/>
+      <c r="F75" s="391"/>
+      <c r="G75" s="395"/>
       <c r="H75" s="92"/>
       <c r="I75" s="92"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="392"/>
-      <c r="B76" s="392"/>
-      <c r="C76" s="390"/>
-      <c r="D76" s="390"/>
-      <c r="E76" s="390"/>
-      <c r="F76" s="392"/>
-      <c r="G76" s="396"/>
+      <c r="A76" s="391"/>
+      <c r="B76" s="391"/>
+      <c r="C76" s="389"/>
+      <c r="D76" s="389"/>
+      <c r="E76" s="389"/>
+      <c r="F76" s="391"/>
+      <c r="G76" s="395"/>
       <c r="H76" s="92"/>
       <c r="I76" s="92"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="392"/>
-      <c r="B77" s="392"/>
-      <c r="C77" s="390"/>
-      <c r="D77" s="390"/>
-      <c r="E77" s="390"/>
-      <c r="F77" s="392"/>
-      <c r="G77" s="396"/>
+      <c r="A77" s="391"/>
+      <c r="B77" s="391"/>
+      <c r="C77" s="389"/>
+      <c r="D77" s="389"/>
+      <c r="E77" s="389"/>
+      <c r="F77" s="391"/>
+      <c r="G77" s="395"/>
       <c r="H77" s="92"/>
       <c r="I77" s="92"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="392"/>
-      <c r="B78" s="392"/>
-      <c r="C78" s="390"/>
-      <c r="D78" s="390"/>
-      <c r="E78" s="390"/>
-      <c r="F78" s="392"/>
-      <c r="G78" s="396"/>
+      <c r="A78" s="391"/>
+      <c r="B78" s="391"/>
+      <c r="C78" s="389"/>
+      <c r="D78" s="389"/>
+      <c r="E78" s="389"/>
+      <c r="F78" s="391"/>
+      <c r="G78" s="395"/>
       <c r="H78" s="92"/>
       <c r="I78" s="92"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="392"/>
-      <c r="B79" s="392"/>
-      <c r="C79" s="390"/>
-      <c r="D79" s="390"/>
-      <c r="E79" s="390"/>
-      <c r="F79" s="392"/>
-      <c r="G79" s="396"/>
+      <c r="A79" s="391"/>
+      <c r="B79" s="391"/>
+      <c r="C79" s="389"/>
+      <c r="D79" s="389"/>
+      <c r="E79" s="389"/>
+      <c r="F79" s="391"/>
+      <c r="G79" s="395"/>
       <c r="H79" s="92"/>
       <c r="I79" s="92"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="392"/>
-      <c r="B80" s="392"/>
-      <c r="C80" s="390"/>
-      <c r="D80" s="390"/>
-      <c r="E80" s="390"/>
-      <c r="F80" s="392"/>
-      <c r="G80" s="396"/>
+      <c r="A80" s="391"/>
+      <c r="B80" s="391"/>
+      <c r="C80" s="389"/>
+      <c r="D80" s="389"/>
+      <c r="E80" s="389"/>
+      <c r="F80" s="391"/>
+      <c r="G80" s="395"/>
       <c r="H80" s="92"/>
       <c r="I80" s="92"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="392"/>
-      <c r="B81" s="392"/>
-      <c r="C81" s="390"/>
-      <c r="D81" s="390"/>
-      <c r="E81" s="390"/>
-      <c r="F81" s="392"/>
-      <c r="G81" s="396"/>
+      <c r="A81" s="391"/>
+      <c r="B81" s="391"/>
+      <c r="C81" s="389"/>
+      <c r="D81" s="389"/>
+      <c r="E81" s="389"/>
+      <c r="F81" s="391"/>
+      <c r="G81" s="395"/>
       <c r="H81" s="92"/>
       <c r="I81" s="92"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="392"/>
-      <c r="B82" s="392"/>
-      <c r="C82" s="390"/>
-      <c r="D82" s="390"/>
-      <c r="E82" s="390"/>
-      <c r="F82" s="392"/>
-      <c r="G82" s="396"/>
+      <c r="A82" s="391"/>
+      <c r="B82" s="391"/>
+      <c r="C82" s="389"/>
+      <c r="D82" s="389"/>
+      <c r="E82" s="389"/>
+      <c r="F82" s="391"/>
+      <c r="G82" s="395"/>
       <c r="H82" s="92"/>
       <c r="I82" s="92"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="392"/>
-      <c r="B83" s="392"/>
-      <c r="C83" s="390"/>
-      <c r="D83" s="390"/>
-      <c r="E83" s="390"/>
-      <c r="F83" s="392"/>
-      <c r="G83" s="396"/>
+      <c r="A83" s="391"/>
+      <c r="B83" s="391"/>
+      <c r="C83" s="389"/>
+      <c r="D83" s="389"/>
+      <c r="E83" s="389"/>
+      <c r="F83" s="391"/>
+      <c r="G83" s="395"/>
       <c r="H83" s="92"/>
       <c r="I83" s="92"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="392"/>
-      <c r="B84" s="392"/>
-      <c r="C84" s="390"/>
-      <c r="D84" s="390"/>
-      <c r="E84" s="390"/>
-      <c r="F84" s="392"/>
-      <c r="G84" s="396"/>
+      <c r="A84" s="391"/>
+      <c r="B84" s="391"/>
+      <c r="C84" s="389"/>
+      <c r="D84" s="389"/>
+      <c r="E84" s="389"/>
+      <c r="F84" s="391"/>
+      <c r="G84" s="395"/>
       <c r="H84" s="92"/>
       <c r="I84" s="92"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="392"/>
-      <c r="B85" s="392"/>
-      <c r="C85" s="390"/>
-      <c r="D85" s="390"/>
-      <c r="E85" s="390"/>
-      <c r="F85" s="392"/>
-      <c r="G85" s="396"/>
+      <c r="A85" s="391"/>
+      <c r="B85" s="391"/>
+      <c r="C85" s="389"/>
+      <c r="D85" s="389"/>
+      <c r="E85" s="389"/>
+      <c r="F85" s="391"/>
+      <c r="G85" s="395"/>
       <c r="H85" s="92"/>
       <c r="I85" s="92"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="392"/>
-      <c r="B86" s="392"/>
-      <c r="C86" s="390"/>
-      <c r="D86" s="390"/>
-      <c r="E86" s="390"/>
-      <c r="F86" s="392"/>
-      <c r="G86" s="396"/>
+      <c r="A86" s="391"/>
+      <c r="B86" s="391"/>
+      <c r="C86" s="389"/>
+      <c r="D86" s="389"/>
+      <c r="E86" s="389"/>
+      <c r="F86" s="391"/>
+      <c r="G86" s="395"/>
       <c r="H86" s="92"/>
       <c r="I86" s="92"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="392"/>
-      <c r="B87" s="392"/>
-      <c r="C87" s="390"/>
-      <c r="D87" s="390"/>
-      <c r="E87" s="390"/>
-      <c r="F87" s="392"/>
-      <c r="G87" s="396"/>
+      <c r="A87" s="391"/>
+      <c r="B87" s="391"/>
+      <c r="C87" s="389"/>
+      <c r="D87" s="389"/>
+      <c r="E87" s="389"/>
+      <c r="F87" s="391"/>
+      <c r="G87" s="395"/>
       <c r="H87" s="92"/>
       <c r="I87" s="92"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="392"/>
-      <c r="B88" s="392"/>
-      <c r="C88" s="390"/>
-      <c r="D88" s="390"/>
-      <c r="E88" s="390"/>
-      <c r="F88" s="392"/>
-      <c r="G88" s="396"/>
+      <c r="A88" s="391"/>
+      <c r="B88" s="391"/>
+      <c r="C88" s="389"/>
+      <c r="D88" s="389"/>
+      <c r="E88" s="389"/>
+      <c r="F88" s="391"/>
+      <c r="G88" s="395"/>
       <c r="H88" s="92"/>
       <c r="I88" s="92"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="392"/>
-      <c r="B89" s="392"/>
-      <c r="C89" s="390"/>
-      <c r="D89" s="390"/>
-      <c r="E89" s="390"/>
-      <c r="F89" s="392"/>
-      <c r="G89" s="396"/>
+      <c r="A89" s="391"/>
+      <c r="B89" s="391"/>
+      <c r="C89" s="389"/>
+      <c r="D89" s="389"/>
+      <c r="E89" s="389"/>
+      <c r="F89" s="391"/>
+      <c r="G89" s="395"/>
       <c r="H89" s="92"/>
       <c r="I89" s="92"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="392"/>
-      <c r="B90" s="392"/>
-      <c r="C90" s="390"/>
-      <c r="D90" s="390"/>
-      <c r="E90" s="390"/>
-      <c r="F90" s="392"/>
-      <c r="G90" s="396"/>
+      <c r="A90" s="391"/>
+      <c r="B90" s="391"/>
+      <c r="C90" s="389"/>
+      <c r="D90" s="389"/>
+      <c r="E90" s="389"/>
+      <c r="F90" s="391"/>
+      <c r="G90" s="395"/>
       <c r="H90" s="92"/>
       <c r="I90" s="92"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="392"/>
-      <c r="B91" s="392"/>
-      <c r="C91" s="390"/>
-      <c r="D91" s="390"/>
-      <c r="E91" s="390"/>
-      <c r="F91" s="392"/>
-      <c r="G91" s="396"/>
+      <c r="A91" s="391"/>
+      <c r="B91" s="391"/>
+      <c r="C91" s="389"/>
+      <c r="D91" s="389"/>
+      <c r="E91" s="389"/>
+      <c r="F91" s="391"/>
+      <c r="G91" s="395"/>
       <c r="H91" s="92"/>
       <c r="I91" s="92"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="392"/>
-      <c r="B92" s="392"/>
-      <c r="C92" s="390"/>
-      <c r="D92" s="390"/>
-      <c r="E92" s="390"/>
-      <c r="F92" s="392"/>
-      <c r="G92" s="396"/>
+      <c r="A92" s="391"/>
+      <c r="B92" s="391"/>
+      <c r="C92" s="389"/>
+      <c r="D92" s="389"/>
+      <c r="E92" s="389"/>
+      <c r="F92" s="391"/>
+      <c r="G92" s="395"/>
       <c r="H92" s="92"/>
       <c r="I92" s="92"/>
     </row>
@@ -7265,11 +7262,11 @@
   <dimension ref="A1:AT121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E3"/>
+      <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -8019,7 +8016,7 @@
       <c r="AT7" s="384"/>
     </row>
     <row r="8" s="234" customFormat="1" ht="58" spans="1:45">
-      <c r="A8" s="397" t="s">
+      <c r="A8" s="396" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="254" t="s">
@@ -8369,7 +8366,7 @@
       <c r="AS10" s="385"/>
     </row>
     <row r="11" s="235" customFormat="1" ht="17.6" spans="1:45">
-      <c r="A11" s="398" t="s">
+      <c r="A11" s="397" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="76" t="s">
@@ -8746,7 +8743,7 @@
       </c>
     </row>
     <row r="14" s="234" customFormat="1" ht="30" spans="1:45">
-      <c r="A14" s="399" t="s">
+      <c r="A14" s="398" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="266" t="s">
@@ -8854,7 +8851,7 @@
       <c r="AS14" s="385"/>
     </row>
     <row r="15" s="234" customFormat="1" ht="30" spans="1:45">
-      <c r="A15" s="399" t="s">
+      <c r="A15" s="398" t="s">
         <v>112</v>
       </c>
       <c r="B15" s="266" t="s">
@@ -9310,7 +9307,7 @@
       <c r="AS18" s="386"/>
     </row>
     <row r="19" s="234" customFormat="1" ht="36" spans="1:45">
-      <c r="A19" s="400" t="s">
+      <c r="A19" s="399" t="s">
         <v>125</v>
       </c>
       <c r="B19" s="266" t="s">
@@ -9444,7 +9441,6 @@
       <c r="C20" s="276">
         <v>1.08</v>
       </c>
-      <c r="D20" s="238"/>
       <c r="E20" s="276"/>
       <c r="F20" s="276"/>
       <c r="G20" s="276"/>
@@ -9557,7 +9553,6 @@
       <c r="C21" s="271">
         <v>2.16</v>
       </c>
-      <c r="D21" s="238"/>
       <c r="E21" s="271"/>
       <c r="F21" s="271"/>
       <c r="G21" s="271"/>
@@ -9668,13 +9663,12 @@
       <c r="AR21" s="372">
         <v>44553</v>
       </c>
-      <c r="AS21" s="387"/>
+      <c r="AS21" s="238"/>
     </row>
     <row r="22" spans="1:45">
       <c r="A22" s="277"/>
       <c r="B22" s="83"/>
       <c r="C22" s="278"/>
-      <c r="D22" s="238"/>
       <c r="E22" s="278"/>
       <c r="F22" s="278"/>
       <c r="G22" s="278"/>
@@ -9715,13 +9709,12 @@
       <c r="AP22" s="83"/>
       <c r="AQ22" s="83"/>
       <c r="AR22" s="83"/>
-      <c r="AS22" s="388"/>
+      <c r="AS22" s="387"/>
     </row>
     <row r="23" spans="1:45">
       <c r="A23" s="277"/>
       <c r="B23" s="83"/>
       <c r="C23" s="278"/>
-      <c r="D23" s="238"/>
       <c r="E23" s="278"/>
       <c r="F23" s="278"/>
       <c r="G23" s="278"/>
@@ -9762,13 +9755,12 @@
       <c r="AP23" s="83"/>
       <c r="AQ23" s="83"/>
       <c r="AR23" s="83"/>
-      <c r="AS23" s="388"/>
+      <c r="AS23" s="387"/>
     </row>
     <row r="24" spans="1:45">
       <c r="A24" s="277"/>
       <c r="B24" s="83"/>
       <c r="C24" s="278"/>
-      <c r="D24" s="238"/>
       <c r="E24" s="278"/>
       <c r="F24" s="278"/>
       <c r="G24" s="278"/>
@@ -9809,13 +9801,12 @@
       <c r="AP24" s="83"/>
       <c r="AQ24" s="83"/>
       <c r="AR24" s="83"/>
-      <c r="AS24" s="388"/>
+      <c r="AS24" s="387"/>
     </row>
     <row r="25" spans="1:45">
       <c r="A25" s="277"/>
       <c r="B25" s="83"/>
       <c r="C25" s="278"/>
-      <c r="D25" s="238"/>
       <c r="E25" s="278"/>
       <c r="F25" s="278"/>
       <c r="G25" s="278"/>
@@ -9856,13 +9847,12 @@
       <c r="AP25" s="83"/>
       <c r="AQ25" s="83"/>
       <c r="AR25" s="83"/>
-      <c r="AS25" s="388"/>
+      <c r="AS25" s="387"/>
     </row>
     <row r="26" spans="1:45">
       <c r="A26" s="277"/>
       <c r="B26" s="83"/>
       <c r="C26" s="278"/>
-      <c r="D26" s="238"/>
       <c r="E26" s="278"/>
       <c r="F26" s="278"/>
       <c r="G26" s="278"/>
@@ -9903,13 +9893,12 @@
       <c r="AP26" s="83"/>
       <c r="AQ26" s="83"/>
       <c r="AR26" s="83"/>
-      <c r="AS26" s="388"/>
+      <c r="AS26" s="387"/>
     </row>
     <row r="27" spans="1:45">
       <c r="A27" s="277"/>
       <c r="B27" s="83"/>
       <c r="C27" s="278"/>
-      <c r="D27" s="238"/>
       <c r="E27" s="278"/>
       <c r="F27" s="278"/>
       <c r="G27" s="278"/>
@@ -9950,13 +9939,12 @@
       <c r="AP27" s="83"/>
       <c r="AQ27" s="83"/>
       <c r="AR27" s="83"/>
-      <c r="AS27" s="388"/>
+      <c r="AS27" s="387"/>
     </row>
     <row r="28" spans="1:45">
       <c r="A28" s="277"/>
       <c r="B28" s="83"/>
       <c r="C28" s="278"/>
-      <c r="D28" s="238"/>
       <c r="E28" s="278"/>
       <c r="F28" s="278"/>
       <c r="G28" s="278"/>
@@ -9997,13 +9985,12 @@
       <c r="AP28" s="83"/>
       <c r="AQ28" s="83"/>
       <c r="AR28" s="83"/>
-      <c r="AS28" s="388"/>
+      <c r="AS28" s="387"/>
     </row>
     <row r="29" spans="1:45">
       <c r="A29" s="277"/>
       <c r="B29" s="83"/>
       <c r="C29" s="278"/>
-      <c r="D29" s="238"/>
       <c r="E29" s="278"/>
       <c r="F29" s="278"/>
       <c r="G29" s="278"/>
@@ -10044,13 +10031,12 @@
       <c r="AP29" s="83"/>
       <c r="AQ29" s="83"/>
       <c r="AR29" s="83"/>
-      <c r="AS29" s="388"/>
+      <c r="AS29" s="387"/>
     </row>
     <row r="30" spans="1:45">
       <c r="A30" s="277"/>
       <c r="B30" s="83"/>
       <c r="C30" s="278"/>
-      <c r="D30" s="238"/>
       <c r="E30" s="278"/>
       <c r="F30" s="278"/>
       <c r="G30" s="278"/>
@@ -10091,13 +10077,12 @@
       <c r="AP30" s="83"/>
       <c r="AQ30" s="83"/>
       <c r="AR30" s="83"/>
-      <c r="AS30" s="388"/>
+      <c r="AS30" s="387"/>
     </row>
     <row r="31" spans="1:45">
       <c r="A31" s="277"/>
       <c r="B31" s="83"/>
       <c r="C31" s="278"/>
-      <c r="D31" s="238"/>
       <c r="E31" s="278"/>
       <c r="F31" s="278"/>
       <c r="G31" s="278"/>
@@ -10138,13 +10123,12 @@
       <c r="AP31" s="83"/>
       <c r="AQ31" s="83"/>
       <c r="AR31" s="83"/>
-      <c r="AS31" s="388"/>
+      <c r="AS31" s="387"/>
     </row>
     <row r="32" spans="1:45">
       <c r="A32" s="277"/>
       <c r="B32" s="83"/>
       <c r="C32" s="278"/>
-      <c r="D32" s="238"/>
       <c r="E32" s="278"/>
       <c r="F32" s="278"/>
       <c r="G32" s="278"/>
@@ -10185,13 +10169,12 @@
       <c r="AP32" s="83"/>
       <c r="AQ32" s="83"/>
       <c r="AR32" s="83"/>
-      <c r="AS32" s="388"/>
+      <c r="AS32" s="387"/>
     </row>
     <row r="33" spans="1:45">
       <c r="A33" s="277"/>
       <c r="B33" s="83"/>
       <c r="C33" s="278"/>
-      <c r="D33" s="238"/>
       <c r="E33" s="278"/>
       <c r="F33" s="278"/>
       <c r="G33" s="278"/>
@@ -10232,13 +10215,12 @@
       <c r="AP33" s="83"/>
       <c r="AQ33" s="83"/>
       <c r="AR33" s="83"/>
-      <c r="AS33" s="388"/>
+      <c r="AS33" s="387"/>
     </row>
     <row r="34" spans="1:45">
       <c r="A34" s="277"/>
       <c r="B34" s="83"/>
       <c r="C34" s="278"/>
-      <c r="D34" s="238"/>
       <c r="E34" s="278"/>
       <c r="F34" s="278"/>
       <c r="G34" s="278"/>
@@ -10279,13 +10261,12 @@
       <c r="AP34" s="83"/>
       <c r="AQ34" s="83"/>
       <c r="AR34" s="83"/>
-      <c r="AS34" s="388"/>
+      <c r="AS34" s="387"/>
     </row>
     <row r="35" spans="1:45">
       <c r="A35" s="277"/>
       <c r="B35" s="83"/>
       <c r="C35" s="278"/>
-      <c r="D35" s="238"/>
       <c r="E35" s="278"/>
       <c r="F35" s="278"/>
       <c r="G35" s="278"/>
@@ -10326,13 +10307,12 @@
       <c r="AP35" s="83"/>
       <c r="AQ35" s="83"/>
       <c r="AR35" s="83"/>
-      <c r="AS35" s="388"/>
+      <c r="AS35" s="387"/>
     </row>
     <row r="36" spans="1:45">
       <c r="A36" s="277"/>
       <c r="B36" s="83"/>
       <c r="C36" s="278"/>
-      <c r="D36" s="238"/>
       <c r="E36" s="278"/>
       <c r="F36" s="278"/>
       <c r="G36" s="278"/>
@@ -10373,13 +10353,12 @@
       <c r="AP36" s="83"/>
       <c r="AQ36" s="83"/>
       <c r="AR36" s="83"/>
-      <c r="AS36" s="388"/>
+      <c r="AS36" s="387"/>
     </row>
     <row r="37" spans="1:45">
       <c r="A37" s="277"/>
       <c r="B37" s="83"/>
       <c r="C37" s="278"/>
-      <c r="D37" s="238"/>
       <c r="E37" s="278"/>
       <c r="F37" s="278"/>
       <c r="G37" s="278"/>
@@ -10420,13 +10399,12 @@
       <c r="AP37" s="83"/>
       <c r="AQ37" s="83"/>
       <c r="AR37" s="83"/>
-      <c r="AS37" s="388"/>
+      <c r="AS37" s="387"/>
     </row>
     <row r="38" spans="1:45">
       <c r="A38" s="277"/>
       <c r="B38" s="83"/>
       <c r="C38" s="278"/>
-      <c r="D38" s="238"/>
       <c r="E38" s="278"/>
       <c r="F38" s="278"/>
       <c r="G38" s="278"/>
@@ -10467,13 +10445,12 @@
       <c r="AP38" s="83"/>
       <c r="AQ38" s="83"/>
       <c r="AR38" s="83"/>
-      <c r="AS38" s="388"/>
+      <c r="AS38" s="387"/>
     </row>
     <row r="39" spans="1:45">
       <c r="A39" s="277"/>
       <c r="B39" s="83"/>
       <c r="C39" s="278"/>
-      <c r="D39" s="238"/>
       <c r="E39" s="278"/>
       <c r="F39" s="278"/>
       <c r="G39" s="278"/>
@@ -10514,13 +10491,12 @@
       <c r="AP39" s="83"/>
       <c r="AQ39" s="83"/>
       <c r="AR39" s="83"/>
-      <c r="AS39" s="388"/>
+      <c r="AS39" s="387"/>
     </row>
     <row r="40" spans="1:45">
       <c r="A40" s="277"/>
       <c r="B40" s="83"/>
       <c r="C40" s="278"/>
-      <c r="D40" s="238"/>
       <c r="E40" s="278"/>
       <c r="F40" s="278"/>
       <c r="G40" s="278"/>
@@ -10561,13 +10537,12 @@
       <c r="AP40" s="83"/>
       <c r="AQ40" s="83"/>
       <c r="AR40" s="83"/>
-      <c r="AS40" s="388"/>
+      <c r="AS40" s="387"/>
     </row>
     <row r="41" spans="1:45">
       <c r="A41" s="277"/>
       <c r="B41" s="83"/>
       <c r="C41" s="278"/>
-      <c r="D41" s="238"/>
       <c r="E41" s="278"/>
       <c r="F41" s="278"/>
       <c r="G41" s="278"/>
@@ -10608,13 +10583,12 @@
       <c r="AP41" s="83"/>
       <c r="AQ41" s="83"/>
       <c r="AR41" s="83"/>
-      <c r="AS41" s="388"/>
+      <c r="AS41" s="387"/>
     </row>
     <row r="42" spans="1:45">
       <c r="A42" s="277"/>
       <c r="B42" s="83"/>
       <c r="C42" s="278"/>
-      <c r="D42" s="238"/>
       <c r="E42" s="278"/>
       <c r="F42" s="278"/>
       <c r="G42" s="278"/>
@@ -10655,13 +10629,12 @@
       <c r="AP42" s="83"/>
       <c r="AQ42" s="83"/>
       <c r="AR42" s="83"/>
-      <c r="AS42" s="388"/>
+      <c r="AS42" s="387"/>
     </row>
     <row r="43" spans="1:45">
       <c r="A43" s="277"/>
       <c r="B43" s="83"/>
       <c r="C43" s="278"/>
-      <c r="D43" s="238"/>
       <c r="E43" s="278"/>
       <c r="F43" s="278"/>
       <c r="G43" s="278"/>
@@ -10702,13 +10675,12 @@
       <c r="AP43" s="83"/>
       <c r="AQ43" s="83"/>
       <c r="AR43" s="83"/>
-      <c r="AS43" s="388"/>
+      <c r="AS43" s="387"/>
     </row>
     <row r="44" spans="1:45">
       <c r="A44" s="277"/>
       <c r="B44" s="83"/>
       <c r="C44" s="278"/>
-      <c r="D44" s="238"/>
       <c r="E44" s="278"/>
       <c r="F44" s="278"/>
       <c r="G44" s="278"/>
@@ -10749,13 +10721,12 @@
       <c r="AP44" s="83"/>
       <c r="AQ44" s="83"/>
       <c r="AR44" s="83"/>
-      <c r="AS44" s="388"/>
+      <c r="AS44" s="387"/>
     </row>
     <row r="45" spans="1:45">
       <c r="A45" s="277"/>
       <c r="B45" s="83"/>
       <c r="C45" s="278"/>
-      <c r="D45" s="238"/>
       <c r="E45" s="278"/>
       <c r="F45" s="278"/>
       <c r="G45" s="278"/>
@@ -10796,13 +10767,12 @@
       <c r="AP45" s="83"/>
       <c r="AQ45" s="83"/>
       <c r="AR45" s="83"/>
-      <c r="AS45" s="388"/>
+      <c r="AS45" s="387"/>
     </row>
     <row r="46" spans="1:45">
       <c r="A46" s="277"/>
       <c r="B46" s="83"/>
       <c r="C46" s="278"/>
-      <c r="D46" s="238"/>
       <c r="E46" s="278"/>
       <c r="F46" s="278"/>
       <c r="G46" s="278"/>
@@ -10843,13 +10813,12 @@
       <c r="AP46" s="83"/>
       <c r="AQ46" s="83"/>
       <c r="AR46" s="83"/>
-      <c r="AS46" s="388"/>
+      <c r="AS46" s="387"/>
     </row>
     <row r="47" spans="1:45">
       <c r="A47" s="277"/>
       <c r="B47" s="83"/>
       <c r="C47" s="278"/>
-      <c r="D47" s="238"/>
       <c r="E47" s="278"/>
       <c r="F47" s="278"/>
       <c r="G47" s="278"/>
@@ -10890,13 +10859,12 @@
       <c r="AP47" s="83"/>
       <c r="AQ47" s="83"/>
       <c r="AR47" s="83"/>
-      <c r="AS47" s="388"/>
+      <c r="AS47" s="387"/>
     </row>
     <row r="48" spans="1:45">
       <c r="A48" s="277"/>
       <c r="B48" s="83"/>
       <c r="C48" s="278"/>
-      <c r="D48" s="238"/>
       <c r="E48" s="278"/>
       <c r="F48" s="278"/>
       <c r="G48" s="278"/>
@@ -10937,13 +10905,12 @@
       <c r="AP48" s="83"/>
       <c r="AQ48" s="83"/>
       <c r="AR48" s="83"/>
-      <c r="AS48" s="388"/>
+      <c r="AS48" s="387"/>
     </row>
     <row r="49" spans="1:45">
       <c r="A49" s="277"/>
       <c r="B49" s="83"/>
       <c r="C49" s="278"/>
-      <c r="D49" s="238"/>
       <c r="E49" s="278"/>
       <c r="F49" s="278"/>
       <c r="G49" s="278"/>
@@ -10984,13 +10951,12 @@
       <c r="AP49" s="83"/>
       <c r="AQ49" s="83"/>
       <c r="AR49" s="83"/>
-      <c r="AS49" s="388"/>
+      <c r="AS49" s="387"/>
     </row>
     <row r="50" spans="1:45">
       <c r="A50" s="277"/>
       <c r="B50" s="83"/>
       <c r="C50" s="278"/>
-      <c r="D50" s="238"/>
       <c r="E50" s="278"/>
       <c r="F50" s="278"/>
       <c r="G50" s="278"/>
@@ -11031,13 +10997,12 @@
       <c r="AP50" s="83"/>
       <c r="AQ50" s="83"/>
       <c r="AR50" s="83"/>
-      <c r="AS50" s="388"/>
+      <c r="AS50" s="387"/>
     </row>
     <row r="51" spans="1:45">
       <c r="A51" s="277"/>
       <c r="B51" s="83"/>
       <c r="C51" s="278"/>
-      <c r="D51" s="238"/>
       <c r="E51" s="278"/>
       <c r="F51" s="278"/>
       <c r="G51" s="278"/>
@@ -11078,13 +11043,12 @@
       <c r="AP51" s="83"/>
       <c r="AQ51" s="83"/>
       <c r="AR51" s="83"/>
-      <c r="AS51" s="388"/>
+      <c r="AS51" s="387"/>
     </row>
     <row r="52" spans="1:45">
       <c r="A52" s="277"/>
       <c r="B52" s="83"/>
       <c r="C52" s="278"/>
-      <c r="D52" s="238"/>
       <c r="E52" s="278"/>
       <c r="F52" s="278"/>
       <c r="G52" s="278"/>
@@ -11125,13 +11089,12 @@
       <c r="AP52" s="83"/>
       <c r="AQ52" s="83"/>
       <c r="AR52" s="83"/>
-      <c r="AS52" s="388"/>
+      <c r="AS52" s="387"/>
     </row>
     <row r="53" spans="1:45">
       <c r="A53" s="277"/>
       <c r="B53" s="83"/>
       <c r="C53" s="278"/>
-      <c r="D53" s="238"/>
       <c r="E53" s="278"/>
       <c r="F53" s="278"/>
       <c r="G53" s="278"/>
@@ -11172,13 +11135,12 @@
       <c r="AP53" s="83"/>
       <c r="AQ53" s="83"/>
       <c r="AR53" s="83"/>
-      <c r="AS53" s="388"/>
+      <c r="AS53" s="387"/>
     </row>
     <row r="54" spans="1:45">
       <c r="A54" s="277"/>
       <c r="B54" s="83"/>
       <c r="C54" s="278"/>
-      <c r="D54" s="238"/>
       <c r="E54" s="278"/>
       <c r="F54" s="278"/>
       <c r="G54" s="278"/>
@@ -11219,13 +11181,12 @@
       <c r="AP54" s="83"/>
       <c r="AQ54" s="83"/>
       <c r="AR54" s="83"/>
-      <c r="AS54" s="388"/>
+      <c r="AS54" s="387"/>
     </row>
     <row r="55" spans="1:45">
       <c r="A55" s="277"/>
       <c r="B55" s="83"/>
       <c r="C55" s="278"/>
-      <c r="D55" s="238"/>
       <c r="E55" s="278"/>
       <c r="F55" s="278"/>
       <c r="G55" s="278"/>
@@ -11266,13 +11227,12 @@
       <c r="AP55" s="83"/>
       <c r="AQ55" s="83"/>
       <c r="AR55" s="83"/>
-      <c r="AS55" s="388"/>
+      <c r="AS55" s="387"/>
     </row>
     <row r="56" spans="1:45">
       <c r="A56" s="277"/>
       <c r="B56" s="83"/>
       <c r="C56" s="278"/>
-      <c r="D56" s="238"/>
       <c r="E56" s="278"/>
       <c r="F56" s="278"/>
       <c r="G56" s="278"/>
@@ -11313,13 +11273,12 @@
       <c r="AP56" s="83"/>
       <c r="AQ56" s="83"/>
       <c r="AR56" s="83"/>
-      <c r="AS56" s="388"/>
+      <c r="AS56" s="387"/>
     </row>
     <row r="57" spans="1:45">
       <c r="A57" s="277"/>
       <c r="B57" s="83"/>
       <c r="C57" s="278"/>
-      <c r="D57" s="238"/>
       <c r="E57" s="278"/>
       <c r="F57" s="278"/>
       <c r="G57" s="278"/>
@@ -11360,13 +11319,12 @@
       <c r="AP57" s="83"/>
       <c r="AQ57" s="83"/>
       <c r="AR57" s="83"/>
-      <c r="AS57" s="388"/>
+      <c r="AS57" s="387"/>
     </row>
     <row r="58" spans="1:45">
       <c r="A58" s="277"/>
       <c r="B58" s="83"/>
       <c r="C58" s="278"/>
-      <c r="D58" s="238"/>
       <c r="E58" s="278"/>
       <c r="F58" s="278"/>
       <c r="G58" s="278"/>
@@ -11407,13 +11365,12 @@
       <c r="AP58" s="83"/>
       <c r="AQ58" s="83"/>
       <c r="AR58" s="83"/>
-      <c r="AS58" s="388"/>
+      <c r="AS58" s="387"/>
     </row>
     <row r="59" spans="1:45">
       <c r="A59" s="277"/>
       <c r="B59" s="83"/>
       <c r="C59" s="278"/>
-      <c r="D59" s="238"/>
       <c r="E59" s="278"/>
       <c r="F59" s="278"/>
       <c r="G59" s="278"/>
@@ -11454,13 +11411,12 @@
       <c r="AP59" s="83"/>
       <c r="AQ59" s="83"/>
       <c r="AR59" s="83"/>
-      <c r="AS59" s="388"/>
+      <c r="AS59" s="387"/>
     </row>
     <row r="60" spans="1:45">
       <c r="A60" s="277"/>
       <c r="B60" s="83"/>
       <c r="C60" s="278"/>
-      <c r="D60" s="238"/>
       <c r="E60" s="278"/>
       <c r="F60" s="278"/>
       <c r="G60" s="278"/>
@@ -11501,13 +11457,12 @@
       <c r="AP60" s="83"/>
       <c r="AQ60" s="83"/>
       <c r="AR60" s="83"/>
-      <c r="AS60" s="388"/>
+      <c r="AS60" s="387"/>
     </row>
     <row r="61" spans="1:45">
       <c r="A61" s="277"/>
       <c r="B61" s="83"/>
       <c r="C61" s="278"/>
-      <c r="D61" s="238"/>
       <c r="E61" s="278"/>
       <c r="F61" s="278"/>
       <c r="G61" s="278"/>
@@ -11548,13 +11503,12 @@
       <c r="AP61" s="83"/>
       <c r="AQ61" s="83"/>
       <c r="AR61" s="83"/>
-      <c r="AS61" s="388"/>
+      <c r="AS61" s="387"/>
     </row>
     <row r="62" spans="1:45">
       <c r="A62" s="277"/>
       <c r="B62" s="83"/>
       <c r="C62" s="278"/>
-      <c r="D62" s="238"/>
       <c r="E62" s="278"/>
       <c r="F62" s="278"/>
       <c r="G62" s="278"/>
@@ -11595,13 +11549,12 @@
       <c r="AP62" s="83"/>
       <c r="AQ62" s="83"/>
       <c r="AR62" s="83"/>
-      <c r="AS62" s="388"/>
+      <c r="AS62" s="387"/>
     </row>
     <row r="63" spans="1:45">
       <c r="A63" s="277"/>
       <c r="B63" s="83"/>
       <c r="C63" s="278"/>
-      <c r="D63" s="238"/>
       <c r="E63" s="278"/>
       <c r="F63" s="278"/>
       <c r="G63" s="278"/>
@@ -11642,13 +11595,12 @@
       <c r="AP63" s="83"/>
       <c r="AQ63" s="83"/>
       <c r="AR63" s="83"/>
-      <c r="AS63" s="388"/>
+      <c r="AS63" s="387"/>
     </row>
     <row r="64" spans="1:45">
       <c r="A64" s="277"/>
       <c r="B64" s="83"/>
       <c r="C64" s="278"/>
-      <c r="D64" s="238"/>
       <c r="E64" s="278"/>
       <c r="F64" s="278"/>
       <c r="G64" s="278"/>
@@ -11689,13 +11641,12 @@
       <c r="AP64" s="83"/>
       <c r="AQ64" s="83"/>
       <c r="AR64" s="83"/>
-      <c r="AS64" s="388"/>
+      <c r="AS64" s="387"/>
     </row>
     <row r="65" spans="1:45">
       <c r="A65" s="277"/>
       <c r="B65" s="83"/>
       <c r="C65" s="278"/>
-      <c r="D65" s="238"/>
       <c r="E65" s="278"/>
       <c r="F65" s="278"/>
       <c r="G65" s="278"/>
@@ -11736,13 +11687,12 @@
       <c r="AP65" s="83"/>
       <c r="AQ65" s="83"/>
       <c r="AR65" s="83"/>
-      <c r="AS65" s="388"/>
+      <c r="AS65" s="387"/>
     </row>
     <row r="66" spans="1:45">
       <c r="A66" s="277"/>
       <c r="B66" s="83"/>
       <c r="C66" s="278"/>
-      <c r="D66" s="238"/>
       <c r="E66" s="278"/>
       <c r="F66" s="278"/>
       <c r="G66" s="278"/>
@@ -11783,13 +11733,12 @@
       <c r="AP66" s="83"/>
       <c r="AQ66" s="83"/>
       <c r="AR66" s="83"/>
-      <c r="AS66" s="388"/>
+      <c r="AS66" s="387"/>
     </row>
     <row r="67" spans="1:45">
       <c r="A67" s="277"/>
       <c r="B67" s="83"/>
       <c r="C67" s="278"/>
-      <c r="D67" s="238"/>
       <c r="E67" s="278"/>
       <c r="F67" s="278"/>
       <c r="G67" s="278"/>
@@ -11830,13 +11779,12 @@
       <c r="AP67" s="83"/>
       <c r="AQ67" s="83"/>
       <c r="AR67" s="83"/>
-      <c r="AS67" s="388"/>
+      <c r="AS67" s="387"/>
     </row>
     <row r="68" spans="1:45">
       <c r="A68" s="277"/>
       <c r="B68" s="83"/>
       <c r="C68" s="278"/>
-      <c r="D68" s="238"/>
       <c r="E68" s="278"/>
       <c r="F68" s="278"/>
       <c r="G68" s="278"/>
@@ -11877,13 +11825,12 @@
       <c r="AP68" s="83"/>
       <c r="AQ68" s="83"/>
       <c r="AR68" s="83"/>
-      <c r="AS68" s="388"/>
+      <c r="AS68" s="387"/>
     </row>
     <row r="69" spans="1:45">
       <c r="A69" s="277"/>
       <c r="B69" s="83"/>
       <c r="C69" s="278"/>
-      <c r="D69" s="238"/>
       <c r="E69" s="278"/>
       <c r="F69" s="278"/>
       <c r="G69" s="278"/>
@@ -11924,13 +11871,12 @@
       <c r="AP69" s="83"/>
       <c r="AQ69" s="83"/>
       <c r="AR69" s="83"/>
-      <c r="AS69" s="388"/>
+      <c r="AS69" s="387"/>
     </row>
     <row r="70" spans="1:45">
       <c r="A70" s="277"/>
       <c r="B70" s="83"/>
       <c r="C70" s="278"/>
-      <c r="D70" s="238"/>
       <c r="E70" s="278"/>
       <c r="F70" s="278"/>
       <c r="G70" s="278"/>
@@ -11971,13 +11917,12 @@
       <c r="AP70" s="83"/>
       <c r="AQ70" s="83"/>
       <c r="AR70" s="83"/>
-      <c r="AS70" s="388"/>
+      <c r="AS70" s="387"/>
     </row>
     <row r="71" spans="1:45">
       <c r="A71" s="277"/>
       <c r="B71" s="83"/>
       <c r="C71" s="278"/>
-      <c r="D71" s="238"/>
       <c r="E71" s="278"/>
       <c r="F71" s="278"/>
       <c r="G71" s="278"/>
@@ -12018,13 +11963,12 @@
       <c r="AP71" s="83"/>
       <c r="AQ71" s="83"/>
       <c r="AR71" s="83"/>
-      <c r="AS71" s="388"/>
+      <c r="AS71" s="387"/>
     </row>
     <row r="72" spans="1:45">
       <c r="A72" s="277"/>
       <c r="B72" s="83"/>
       <c r="C72" s="278"/>
-      <c r="D72" s="238"/>
       <c r="E72" s="278"/>
       <c r="F72" s="278"/>
       <c r="G72" s="278"/>
@@ -12065,13 +12009,12 @@
       <c r="AP72" s="83"/>
       <c r="AQ72" s="83"/>
       <c r="AR72" s="83"/>
-      <c r="AS72" s="388"/>
+      <c r="AS72" s="387"/>
     </row>
     <row r="73" spans="1:45">
       <c r="A73" s="277"/>
       <c r="B73" s="83"/>
       <c r="C73" s="278"/>
-      <c r="D73" s="238"/>
       <c r="E73" s="278"/>
       <c r="F73" s="278"/>
       <c r="G73" s="278"/>
@@ -12112,13 +12055,12 @@
       <c r="AP73" s="83"/>
       <c r="AQ73" s="83"/>
       <c r="AR73" s="83"/>
-      <c r="AS73" s="388"/>
+      <c r="AS73" s="387"/>
     </row>
     <row r="74" spans="1:45">
       <c r="A74" s="277"/>
       <c r="B74" s="83"/>
       <c r="C74" s="278"/>
-      <c r="D74" s="238"/>
       <c r="E74" s="278"/>
       <c r="F74" s="278"/>
       <c r="G74" s="278"/>
@@ -12159,13 +12101,12 @@
       <c r="AP74" s="83"/>
       <c r="AQ74" s="83"/>
       <c r="AR74" s="83"/>
-      <c r="AS74" s="388"/>
+      <c r="AS74" s="387"/>
     </row>
     <row r="75" spans="1:45">
       <c r="A75" s="277"/>
       <c r="B75" s="83"/>
       <c r="C75" s="278"/>
-      <c r="D75" s="238"/>
       <c r="E75" s="278"/>
       <c r="F75" s="278"/>
       <c r="G75" s="278"/>
@@ -12206,13 +12147,12 @@
       <c r="AP75" s="83"/>
       <c r="AQ75" s="83"/>
       <c r="AR75" s="83"/>
-      <c r="AS75" s="388"/>
+      <c r="AS75" s="387"/>
     </row>
     <row r="76" spans="1:45">
       <c r="A76" s="277"/>
       <c r="B76" s="83"/>
       <c r="C76" s="278"/>
-      <c r="D76" s="238"/>
       <c r="E76" s="278"/>
       <c r="F76" s="278"/>
       <c r="G76" s="278"/>
@@ -12253,13 +12193,12 @@
       <c r="AP76" s="83"/>
       <c r="AQ76" s="83"/>
       <c r="AR76" s="83"/>
-      <c r="AS76" s="388"/>
+      <c r="AS76" s="387"/>
     </row>
     <row r="77" spans="1:45">
       <c r="A77" s="277"/>
       <c r="B77" s="83"/>
       <c r="C77" s="278"/>
-      <c r="D77" s="238"/>
       <c r="E77" s="278"/>
       <c r="F77" s="278"/>
       <c r="G77" s="278"/>
@@ -12300,13 +12239,12 @@
       <c r="AP77" s="83"/>
       <c r="AQ77" s="83"/>
       <c r="AR77" s="83"/>
-      <c r="AS77" s="388"/>
+      <c r="AS77" s="387"/>
     </row>
     <row r="78" spans="1:45">
       <c r="A78" s="277"/>
       <c r="B78" s="83"/>
       <c r="C78" s="278"/>
-      <c r="D78" s="238"/>
       <c r="E78" s="278"/>
       <c r="F78" s="278"/>
       <c r="G78" s="278"/>
@@ -12347,13 +12285,12 @@
       <c r="AP78" s="83"/>
       <c r="AQ78" s="83"/>
       <c r="AR78" s="83"/>
-      <c r="AS78" s="388"/>
+      <c r="AS78" s="387"/>
     </row>
     <row r="79" spans="1:45">
       <c r="A79" s="277"/>
       <c r="B79" s="83"/>
       <c r="C79" s="278"/>
-      <c r="D79" s="238"/>
       <c r="E79" s="278"/>
       <c r="F79" s="278"/>
       <c r="G79" s="278"/>
@@ -12394,13 +12331,12 @@
       <c r="AP79" s="83"/>
       <c r="AQ79" s="83"/>
       <c r="AR79" s="83"/>
-      <c r="AS79" s="388"/>
+      <c r="AS79" s="387"/>
     </row>
     <row r="80" spans="1:45">
       <c r="A80" s="277"/>
       <c r="B80" s="83"/>
       <c r="C80" s="278"/>
-      <c r="D80" s="238"/>
       <c r="E80" s="278"/>
       <c r="F80" s="278"/>
       <c r="G80" s="278"/>
@@ -12441,13 +12377,12 @@
       <c r="AP80" s="83"/>
       <c r="AQ80" s="83"/>
       <c r="AR80" s="83"/>
-      <c r="AS80" s="388"/>
+      <c r="AS80" s="387"/>
     </row>
     <row r="81" spans="1:45">
       <c r="A81" s="277"/>
       <c r="B81" s="83"/>
       <c r="C81" s="278"/>
-      <c r="D81" s="238"/>
       <c r="E81" s="278"/>
       <c r="F81" s="278"/>
       <c r="G81" s="278"/>
@@ -12488,13 +12423,12 @@
       <c r="AP81" s="83"/>
       <c r="AQ81" s="83"/>
       <c r="AR81" s="83"/>
-      <c r="AS81" s="388"/>
+      <c r="AS81" s="387"/>
     </row>
     <row r="82" spans="1:45">
       <c r="A82" s="277"/>
       <c r="B82" s="83"/>
       <c r="C82" s="278"/>
-      <c r="D82" s="238"/>
       <c r="E82" s="278"/>
       <c r="F82" s="278"/>
       <c r="G82" s="278"/>
@@ -12535,13 +12469,12 @@
       <c r="AP82" s="83"/>
       <c r="AQ82" s="83"/>
       <c r="AR82" s="83"/>
-      <c r="AS82" s="388"/>
+      <c r="AS82" s="387"/>
     </row>
     <row r="83" spans="1:45">
       <c r="A83" s="277"/>
       <c r="B83" s="83"/>
       <c r="C83" s="278"/>
-      <c r="D83" s="238"/>
       <c r="E83" s="278"/>
       <c r="F83" s="278"/>
       <c r="G83" s="278"/>
@@ -12582,13 +12515,12 @@
       <c r="AP83" s="83"/>
       <c r="AQ83" s="83"/>
       <c r="AR83" s="83"/>
-      <c r="AS83" s="388"/>
+      <c r="AS83" s="387"/>
     </row>
     <row r="84" spans="1:45">
       <c r="A84" s="277"/>
       <c r="B84" s="83"/>
       <c r="C84" s="278"/>
-      <c r="D84" s="238"/>
       <c r="E84" s="278"/>
       <c r="F84" s="278"/>
       <c r="G84" s="278"/>
@@ -12629,13 +12561,12 @@
       <c r="AP84" s="83"/>
       <c r="AQ84" s="83"/>
       <c r="AR84" s="83"/>
-      <c r="AS84" s="388"/>
+      <c r="AS84" s="387"/>
     </row>
     <row r="85" spans="1:45">
       <c r="A85" s="277"/>
       <c r="B85" s="83"/>
       <c r="C85" s="278"/>
-      <c r="D85" s="238"/>
       <c r="E85" s="278"/>
       <c r="F85" s="278"/>
       <c r="G85" s="278"/>
@@ -12676,13 +12607,12 @@
       <c r="AP85" s="83"/>
       <c r="AQ85" s="83"/>
       <c r="AR85" s="83"/>
-      <c r="AS85" s="388"/>
+      <c r="AS85" s="387"/>
     </row>
     <row r="86" spans="1:45">
       <c r="A86" s="277"/>
       <c r="B86" s="83"/>
       <c r="C86" s="278"/>
-      <c r="D86" s="238"/>
       <c r="E86" s="278"/>
       <c r="F86" s="278"/>
       <c r="G86" s="278"/>
@@ -12723,13 +12653,12 @@
       <c r="AP86" s="83"/>
       <c r="AQ86" s="83"/>
       <c r="AR86" s="83"/>
-      <c r="AS86" s="388"/>
+      <c r="AS86" s="387"/>
     </row>
     <row r="87" spans="1:45">
       <c r="A87" s="277"/>
       <c r="B87" s="83"/>
       <c r="C87" s="278"/>
-      <c r="D87" s="238"/>
       <c r="E87" s="278"/>
       <c r="F87" s="278"/>
       <c r="G87" s="278"/>
@@ -12770,13 +12699,12 @@
       <c r="AP87" s="83"/>
       <c r="AQ87" s="83"/>
       <c r="AR87" s="83"/>
-      <c r="AS87" s="388"/>
+      <c r="AS87" s="387"/>
     </row>
     <row r="88" spans="1:45">
       <c r="A88" s="277"/>
       <c r="B88" s="83"/>
       <c r="C88" s="278"/>
-      <c r="D88" s="238"/>
       <c r="E88" s="278"/>
       <c r="F88" s="278"/>
       <c r="G88" s="278"/>
@@ -12817,13 +12745,12 @@
       <c r="AP88" s="83"/>
       <c r="AQ88" s="83"/>
       <c r="AR88" s="83"/>
-      <c r="AS88" s="388"/>
+      <c r="AS88" s="387"/>
     </row>
     <row r="89" spans="1:45">
       <c r="A89" s="277"/>
       <c r="B89" s="83"/>
       <c r="C89" s="278"/>
-      <c r="D89" s="238"/>
       <c r="E89" s="278"/>
       <c r="F89" s="278"/>
       <c r="G89" s="278"/>
@@ -12864,13 +12791,12 @@
       <c r="AP89" s="83"/>
       <c r="AQ89" s="83"/>
       <c r="AR89" s="83"/>
-      <c r="AS89" s="388"/>
+      <c r="AS89" s="387"/>
     </row>
     <row r="90" spans="1:45">
       <c r="A90" s="277"/>
       <c r="B90" s="83"/>
       <c r="C90" s="278"/>
-      <c r="D90" s="238"/>
       <c r="E90" s="278"/>
       <c r="F90" s="278"/>
       <c r="G90" s="278"/>
@@ -12911,13 +12837,12 @@
       <c r="AP90" s="83"/>
       <c r="AQ90" s="83"/>
       <c r="AR90" s="83"/>
-      <c r="AS90" s="388"/>
+      <c r="AS90" s="387"/>
     </row>
     <row r="91" spans="1:45">
       <c r="A91" s="277"/>
       <c r="B91" s="83"/>
       <c r="C91" s="278"/>
-      <c r="D91" s="238"/>
       <c r="E91" s="278"/>
       <c r="F91" s="278"/>
       <c r="G91" s="278"/>
@@ -12958,13 +12883,12 @@
       <c r="AP91" s="83"/>
       <c r="AQ91" s="83"/>
       <c r="AR91" s="83"/>
-      <c r="AS91" s="388"/>
+      <c r="AS91" s="387"/>
     </row>
     <row r="92" spans="1:45">
       <c r="A92" s="277"/>
       <c r="B92" s="83"/>
       <c r="C92" s="278"/>
-      <c r="D92" s="238"/>
       <c r="E92" s="278"/>
       <c r="F92" s="278"/>
       <c r="G92" s="278"/>
@@ -13005,13 +12929,12 @@
       <c r="AP92" s="83"/>
       <c r="AQ92" s="83"/>
       <c r="AR92" s="83"/>
-      <c r="AS92" s="388"/>
+      <c r="AS92" s="387"/>
     </row>
     <row r="93" spans="1:45">
       <c r="A93" s="277"/>
       <c r="B93" s="83"/>
       <c r="C93" s="278"/>
-      <c r="D93" s="238"/>
       <c r="E93" s="278"/>
       <c r="F93" s="278"/>
       <c r="G93" s="278"/>
@@ -13052,13 +12975,12 @@
       <c r="AP93" s="83"/>
       <c r="AQ93" s="83"/>
       <c r="AR93" s="83"/>
-      <c r="AS93" s="388"/>
+      <c r="AS93" s="387"/>
     </row>
     <row r="94" spans="1:45">
       <c r="A94" s="277"/>
       <c r="B94" s="83"/>
       <c r="C94" s="278"/>
-      <c r="D94" s="238"/>
       <c r="E94" s="278"/>
       <c r="F94" s="278"/>
       <c r="G94" s="278"/>
@@ -13099,13 +13021,12 @@
       <c r="AP94" s="83"/>
       <c r="AQ94" s="83"/>
       <c r="AR94" s="83"/>
-      <c r="AS94" s="388"/>
+      <c r="AS94" s="387"/>
     </row>
     <row r="95" spans="1:45">
       <c r="A95" s="277"/>
       <c r="B95" s="83"/>
       <c r="C95" s="278"/>
-      <c r="D95" s="238"/>
       <c r="E95" s="278"/>
       <c r="F95" s="278"/>
       <c r="G95" s="278"/>
@@ -13146,13 +13067,12 @@
       <c r="AP95" s="83"/>
       <c r="AQ95" s="83"/>
       <c r="AR95" s="83"/>
-      <c r="AS95" s="388"/>
+      <c r="AS95" s="387"/>
     </row>
     <row r="96" spans="1:45">
       <c r="A96" s="277"/>
       <c r="B96" s="83"/>
       <c r="C96" s="278"/>
-      <c r="D96" s="238"/>
       <c r="E96" s="278"/>
       <c r="F96" s="278"/>
       <c r="G96" s="278"/>
@@ -13193,13 +13113,12 @@
       <c r="AP96" s="83"/>
       <c r="AQ96" s="83"/>
       <c r="AR96" s="83"/>
-      <c r="AS96" s="388"/>
+      <c r="AS96" s="387"/>
     </row>
     <row r="97" spans="1:45">
       <c r="A97" s="277"/>
       <c r="B97" s="83"/>
       <c r="C97" s="278"/>
-      <c r="D97" s="238"/>
       <c r="E97" s="278"/>
       <c r="F97" s="278"/>
       <c r="G97" s="278"/>
@@ -13240,13 +13159,12 @@
       <c r="AP97" s="83"/>
       <c r="AQ97" s="83"/>
       <c r="AR97" s="83"/>
-      <c r="AS97" s="388"/>
+      <c r="AS97" s="387"/>
     </row>
     <row r="98" spans="1:45">
       <c r="A98" s="277"/>
       <c r="B98" s="83"/>
       <c r="C98" s="278"/>
-      <c r="D98" s="238"/>
       <c r="E98" s="278"/>
       <c r="F98" s="278"/>
       <c r="G98" s="278"/>
@@ -13287,13 +13205,12 @@
       <c r="AP98" s="83"/>
       <c r="AQ98" s="83"/>
       <c r="AR98" s="83"/>
-      <c r="AS98" s="388"/>
+      <c r="AS98" s="387"/>
     </row>
     <row r="99" spans="1:45">
       <c r="A99" s="277"/>
       <c r="B99" s="83"/>
       <c r="C99" s="278"/>
-      <c r="D99" s="238"/>
       <c r="E99" s="278"/>
       <c r="F99" s="278"/>
       <c r="G99" s="278"/>
@@ -13334,13 +13251,12 @@
       <c r="AP99" s="83"/>
       <c r="AQ99" s="83"/>
       <c r="AR99" s="83"/>
-      <c r="AS99" s="388"/>
+      <c r="AS99" s="387"/>
     </row>
     <row r="100" spans="1:45">
       <c r="A100" s="277"/>
       <c r="B100" s="83"/>
       <c r="C100" s="278"/>
-      <c r="D100" s="238"/>
       <c r="E100" s="278"/>
       <c r="F100" s="278"/>
       <c r="G100" s="278"/>
@@ -13381,13 +13297,12 @@
       <c r="AP100" s="83"/>
       <c r="AQ100" s="83"/>
       <c r="AR100" s="83"/>
-      <c r="AS100" s="388"/>
+      <c r="AS100" s="387"/>
     </row>
     <row r="101" spans="1:45">
       <c r="A101" s="277"/>
       <c r="B101" s="83"/>
       <c r="C101" s="278"/>
-      <c r="D101" s="238"/>
       <c r="E101" s="278"/>
       <c r="F101" s="278"/>
       <c r="G101" s="278"/>
@@ -13428,13 +13343,12 @@
       <c r="AP101" s="83"/>
       <c r="AQ101" s="83"/>
       <c r="AR101" s="83"/>
-      <c r="AS101" s="388"/>
+      <c r="AS101" s="387"/>
     </row>
     <row r="102" spans="1:45">
       <c r="A102" s="277"/>
       <c r="B102" s="83"/>
       <c r="C102" s="278"/>
-      <c r="D102" s="238"/>
       <c r="E102" s="278"/>
       <c r="F102" s="278"/>
       <c r="G102" s="278"/>
@@ -13475,13 +13389,12 @@
       <c r="AP102" s="83"/>
       <c r="AQ102" s="83"/>
       <c r="AR102" s="83"/>
-      <c r="AS102" s="388"/>
+      <c r="AS102" s="387"/>
     </row>
     <row r="103" spans="1:45">
       <c r="A103" s="277"/>
       <c r="B103" s="83"/>
       <c r="C103" s="278"/>
-      <c r="D103" s="238"/>
       <c r="E103" s="278"/>
       <c r="F103" s="278"/>
       <c r="G103" s="278"/>
@@ -13522,13 +13435,12 @@
       <c r="AP103" s="83"/>
       <c r="AQ103" s="83"/>
       <c r="AR103" s="83"/>
-      <c r="AS103" s="388"/>
+      <c r="AS103" s="387"/>
     </row>
     <row r="104" spans="1:45">
       <c r="A104" s="277"/>
       <c r="B104" s="83"/>
       <c r="C104" s="278"/>
-      <c r="D104" s="238"/>
       <c r="E104" s="278"/>
       <c r="F104" s="278"/>
       <c r="G104" s="278"/>
@@ -13569,13 +13481,12 @@
       <c r="AP104" s="83"/>
       <c r="AQ104" s="83"/>
       <c r="AR104" s="83"/>
-      <c r="AS104" s="388"/>
+      <c r="AS104" s="387"/>
     </row>
     <row r="105" spans="1:45">
       <c r="A105" s="277"/>
       <c r="B105" s="83"/>
       <c r="C105" s="278"/>
-      <c r="D105" s="238"/>
       <c r="E105" s="278"/>
       <c r="F105" s="278"/>
       <c r="G105" s="278"/>
@@ -13616,13 +13527,12 @@
       <c r="AP105" s="83"/>
       <c r="AQ105" s="83"/>
       <c r="AR105" s="83"/>
-      <c r="AS105" s="388"/>
+      <c r="AS105" s="387"/>
     </row>
     <row r="106" spans="1:45">
       <c r="A106" s="277"/>
       <c r="B106" s="83"/>
       <c r="C106" s="278"/>
-      <c r="D106" s="238"/>
       <c r="E106" s="278"/>
       <c r="F106" s="278"/>
       <c r="G106" s="278"/>
@@ -13663,13 +13573,12 @@
       <c r="AP106" s="83"/>
       <c r="AQ106" s="83"/>
       <c r="AR106" s="83"/>
-      <c r="AS106" s="388"/>
+      <c r="AS106" s="387"/>
     </row>
     <row r="107" spans="1:45">
       <c r="A107" s="277"/>
       <c r="B107" s="83"/>
       <c r="C107" s="278"/>
-      <c r="D107" s="238"/>
       <c r="E107" s="278"/>
       <c r="F107" s="278"/>
       <c r="G107" s="278"/>
@@ -13710,13 +13619,12 @@
       <c r="AP107" s="83"/>
       <c r="AQ107" s="83"/>
       <c r="AR107" s="83"/>
-      <c r="AS107" s="388"/>
+      <c r="AS107" s="387"/>
     </row>
     <row r="108" spans="1:45">
       <c r="A108" s="277"/>
       <c r="B108" s="83"/>
       <c r="C108" s="278"/>
-      <c r="D108" s="238"/>
       <c r="E108" s="278"/>
       <c r="F108" s="278"/>
       <c r="G108" s="278"/>
@@ -13757,13 +13665,12 @@
       <c r="AP108" s="83"/>
       <c r="AQ108" s="83"/>
       <c r="AR108" s="83"/>
-      <c r="AS108" s="388"/>
+      <c r="AS108" s="387"/>
     </row>
     <row r="109" spans="1:45">
       <c r="A109" s="277"/>
       <c r="B109" s="83"/>
       <c r="C109" s="278"/>
-      <c r="D109" s="238"/>
       <c r="E109" s="278"/>
       <c r="F109" s="278"/>
       <c r="G109" s="278"/>
@@ -13804,13 +13711,12 @@
       <c r="AP109" s="83"/>
       <c r="AQ109" s="83"/>
       <c r="AR109" s="83"/>
-      <c r="AS109" s="388"/>
+      <c r="AS109" s="387"/>
     </row>
     <row r="110" spans="1:45">
       <c r="A110" s="277"/>
       <c r="B110" s="83"/>
       <c r="C110" s="278"/>
-      <c r="D110" s="238"/>
       <c r="E110" s="278"/>
       <c r="F110" s="278"/>
       <c r="G110" s="278"/>
@@ -13851,13 +13757,12 @@
       <c r="AP110" s="83"/>
       <c r="AQ110" s="83"/>
       <c r="AR110" s="83"/>
-      <c r="AS110" s="388"/>
+      <c r="AS110" s="387"/>
     </row>
     <row r="111" spans="1:45">
       <c r="A111" s="277"/>
       <c r="B111" s="83"/>
       <c r="C111" s="278"/>
-      <c r="D111" s="238"/>
       <c r="E111" s="278"/>
       <c r="F111" s="278"/>
       <c r="G111" s="278"/>
@@ -13898,13 +13803,12 @@
       <c r="AP111" s="83"/>
       <c r="AQ111" s="83"/>
       <c r="AR111" s="83"/>
-      <c r="AS111" s="388"/>
+      <c r="AS111" s="387"/>
     </row>
     <row r="112" spans="1:45">
       <c r="A112" s="277"/>
       <c r="B112" s="83"/>
       <c r="C112" s="278"/>
-      <c r="D112" s="238"/>
       <c r="E112" s="278"/>
       <c r="F112" s="278"/>
       <c r="G112" s="278"/>
@@ -13945,13 +13849,12 @@
       <c r="AP112" s="83"/>
       <c r="AQ112" s="83"/>
       <c r="AR112" s="83"/>
-      <c r="AS112" s="388"/>
+      <c r="AS112" s="387"/>
     </row>
     <row r="113" spans="1:45">
       <c r="A113" s="277"/>
       <c r="B113" s="83"/>
       <c r="C113" s="278"/>
-      <c r="D113" s="238"/>
       <c r="E113" s="278"/>
       <c r="F113" s="278"/>
       <c r="G113" s="278"/>
@@ -13992,13 +13895,12 @@
       <c r="AP113" s="83"/>
       <c r="AQ113" s="83"/>
       <c r="AR113" s="83"/>
-      <c r="AS113" s="388"/>
+      <c r="AS113" s="387"/>
     </row>
     <row r="114" spans="1:45">
       <c r="A114" s="277"/>
       <c r="B114" s="83"/>
       <c r="C114" s="278"/>
-      <c r="D114" s="238"/>
       <c r="E114" s="278"/>
       <c r="F114" s="278"/>
       <c r="G114" s="278"/>
@@ -14039,13 +13941,12 @@
       <c r="AP114" s="83"/>
       <c r="AQ114" s="83"/>
       <c r="AR114" s="83"/>
-      <c r="AS114" s="388"/>
+      <c r="AS114" s="387"/>
     </row>
     <row r="115" spans="1:45">
       <c r="A115" s="277"/>
       <c r="B115" s="83"/>
       <c r="C115" s="278"/>
-      <c r="D115" s="238"/>
       <c r="E115" s="278"/>
       <c r="F115" s="278"/>
       <c r="G115" s="278"/>
@@ -14086,13 +13987,12 @@
       <c r="AP115" s="83"/>
       <c r="AQ115" s="83"/>
       <c r="AR115" s="83"/>
-      <c r="AS115" s="388"/>
+      <c r="AS115" s="387"/>
     </row>
     <row r="116" spans="1:45">
       <c r="A116" s="277"/>
       <c r="B116" s="83"/>
       <c r="C116" s="278"/>
-      <c r="D116" s="238"/>
       <c r="E116" s="278"/>
       <c r="F116" s="278"/>
       <c r="G116" s="278"/>
@@ -14133,13 +14033,12 @@
       <c r="AP116" s="83"/>
       <c r="AQ116" s="83"/>
       <c r="AR116" s="83"/>
-      <c r="AS116" s="388"/>
+      <c r="AS116" s="387"/>
     </row>
     <row r="117" spans="1:45">
       <c r="A117" s="277"/>
       <c r="B117" s="83"/>
       <c r="C117" s="278"/>
-      <c r="D117" s="238"/>
       <c r="E117" s="278"/>
       <c r="F117" s="278"/>
       <c r="G117" s="278"/>
@@ -14180,13 +14079,12 @@
       <c r="AP117" s="83"/>
       <c r="AQ117" s="83"/>
       <c r="AR117" s="83"/>
-      <c r="AS117" s="388"/>
+      <c r="AS117" s="387"/>
     </row>
     <row r="118" spans="1:45">
       <c r="A118" s="277"/>
       <c r="B118" s="83"/>
       <c r="C118" s="278"/>
-      <c r="D118" s="238"/>
       <c r="E118" s="278"/>
       <c r="F118" s="278"/>
       <c r="G118" s="278"/>
@@ -14227,13 +14125,12 @@
       <c r="AP118" s="83"/>
       <c r="AQ118" s="83"/>
       <c r="AR118" s="83"/>
-      <c r="AS118" s="388"/>
+      <c r="AS118" s="387"/>
     </row>
     <row r="119" spans="1:45">
       <c r="A119" s="277"/>
       <c r="B119" s="83"/>
       <c r="C119" s="278"/>
-      <c r="D119" s="238"/>
       <c r="E119" s="278"/>
       <c r="F119" s="278"/>
       <c r="G119" s="278"/>
@@ -14274,13 +14171,12 @@
       <c r="AP119" s="83"/>
       <c r="AQ119" s="83"/>
       <c r="AR119" s="83"/>
-      <c r="AS119" s="388"/>
+      <c r="AS119" s="387"/>
     </row>
     <row r="120" spans="1:45">
       <c r="A120" s="277"/>
       <c r="B120" s="83"/>
       <c r="C120" s="278"/>
-      <c r="D120" s="238"/>
       <c r="E120" s="278"/>
       <c r="F120" s="278"/>
       <c r="G120" s="278"/>
@@ -14321,13 +14217,12 @@
       <c r="AP120" s="83"/>
       <c r="AQ120" s="83"/>
       <c r="AR120" s="83"/>
-      <c r="AS120" s="388"/>
+      <c r="AS120" s="387"/>
     </row>
     <row r="121" spans="1:45">
       <c r="A121" s="277"/>
       <c r="B121" s="83"/>
       <c r="C121" s="278"/>
-      <c r="D121" s="238"/>
       <c r="E121" s="278"/>
       <c r="F121" s="278"/>
       <c r="G121" s="278"/>
@@ -14368,7 +14263,7 @@
       <c r="AP121" s="83"/>
       <c r="AQ121" s="83"/>
       <c r="AR121" s="83"/>
-      <c r="AS121" s="388"/>
+      <c r="AS121" s="387"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -15465,7 +15360,7 @@
       <c r="A6" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="401" t="s">
+      <c r="B6" s="400" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="34" t="s">
@@ -16188,7 +16083,7 @@
       <c r="A9" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="B9" s="402" t="s">
+      <c r="B9" s="401" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="42" t="s">
@@ -18424,7 +18319,7 @@
       <c r="A19" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="403" t="s">
+      <c r="B19" s="402" t="s">
         <v>221</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -18655,7 +18550,7 @@
       <c r="A20" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="404" t="s">
+      <c r="B20" s="403" t="s">
         <v>226</v>
       </c>
       <c r="C20" s="67" t="s">
@@ -20741,7 +20636,7 @@
       <c r="A30" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="405" t="s">
+      <c r="B30" s="404" t="s">
         <v>251</v>
       </c>
       <c r="C30" s="73" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -7335,11 +7335,11 @@
   <dimension ref="A1:BB115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -14854,7 +14854,7 @@
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="U16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -542,7 +542,8 @@
     </r>
   </si>
   <si>
-    <t>时间周期</t>
+    <t>时间周期
+(7~56w)</t>
   </si>
   <si>
     <t>收缩量1</t>
@@ -2174,11 +2175,11 @@
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="62">
     <font>
@@ -2429,13 +2430,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2443,7 +2437,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2451,7 +2445,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2467,38 +2484,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2520,11 +2505,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2543,13 +2535,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2558,8 +2543,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2666,12 +2667,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2684,7 +2679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2696,7 +2691,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2708,7 +2763,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,133 +2847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2910,20 +2911,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2937,17 +2935,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2982,6 +2974,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3010,148 +3011,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7335,11 +7336,11 @@
   <dimension ref="A1:BB115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AE8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -7336,11 +7336,11 @@
   <dimension ref="A1:BB115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AE8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AE7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL3" sqref="AL3"/>
+      <selection pane="bottomRight" activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -13600,11 +13600,11 @@
   <dimension ref="A1:BJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AI4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AD4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ7" sqref="AQ7"/>
+      <selection pane="bottomRight" activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -13790,11 +13790,11 @@
       <c r="AJ2" s="47"/>
       <c r="AK2" s="47"/>
       <c r="AL2" s="47"/>
-      <c r="AM2" s="31" t="s">
+      <c r="AM2" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
       <c r="AP2" s="66"/>
       <c r="AQ2" s="68" t="s">
         <v>139</v>
@@ -14098,13 +14098,13 @@
         <f t="shared" ref="AL4:AL7" si="0">(AF4+AG4+AH4+AI4)/4</f>
         <v>2.1661</v>
       </c>
-      <c r="AM4" s="60">
+      <c r="AM4" s="58">
         <v>13.2586</v>
       </c>
-      <c r="AN4" s="60">
+      <c r="AN4" s="58">
         <v>1.8525</v>
       </c>
-      <c r="AO4" s="60">
+      <c r="AO4" s="58">
         <v>1.9614</v>
       </c>
       <c r="AP4" s="60"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -1002,7 +1002,8 @@
     <t>分析结果编码</t>
   </si>
   <si>
-    <t>每股收益(元)</t>
+    <t>每股收益(元)
+(越高越好)</t>
   </si>
   <si>
     <t>每股净利润同比增长率</t>
@@ -13551,11 +13552,11 @@
   <dimension ref="A1:BM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BB4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BE6" sqref="BE6"/>
+      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -13563,7 +13564,7 @@
     <col min="1" max="1" width="11.1397058823529" customWidth="1"/>
     <col min="3" max="3" width="8.94117647058824" style="2"/>
     <col min="4" max="4" width="8.94117647058824" style="3"/>
-    <col min="5" max="5" width="9.43382352941176" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.2352941176471" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.4117647058824" style="5"/>
     <col min="8" max="8" width="8.82352941176471" style="6" customWidth="1"/>
     <col min="9" max="9" width="10.0441176470588" style="7" customWidth="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
   <si>
     <t>工业金属</t>
   </si>
@@ -1008,7 +1008,8 @@
 (越高越好)</t>
   </si>
   <si>
-    <t>股本回报率</t>
+    <t>股本回报率
+(至少大于17%)</t>
   </si>
   <si>
     <t>每股收益增长率</t>
@@ -1086,6 +1087,12 @@
   </si>
   <si>
     <t>总结</t>
+  </si>
+  <si>
+    <t>净收益</t>
+  </si>
+  <si>
+    <t>回报率</t>
   </si>
   <si>
     <t>最近三</t>
@@ -2392,6 +2399,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2400,39 +2434,12 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2448,15 +2455,15 @@
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2466,30 +2473,30 @@
     <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2514,49 +2521,49 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6838,7 +6845,7 @@
         <v>0.0918367346938776</v>
       </c>
       <c r="AQ7" s="219"/>
-      <c r="AR7" s="73"/>
+      <c r="AR7" s="72"/>
       <c r="AS7" s="196"/>
       <c r="AT7" s="110" t="s">
         <v>75</v>
@@ -13656,14 +13663,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BO12"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -13672,61 +13679,61 @@
     <col min="3" max="3" width="8.94117647058824" style="2"/>
     <col min="4" max="4" width="8.94117647058824" style="3"/>
     <col min="5" max="5" width="10.7794117647059" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.2352941176471" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.0294117647059" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.0294117647059" style="7" customWidth="1"/>
-    <col min="9" max="10" width="9.19117647058824" style="7" customWidth="1"/>
-    <col min="11" max="12" width="10.4117647058824" style="8"/>
-    <col min="13" max="13" width="8.82352941176471" style="9" customWidth="1"/>
-    <col min="14" max="14" width="10.0441176470588" style="10" customWidth="1"/>
-    <col min="15" max="15" width="9.92647058823529" style="10" customWidth="1"/>
-    <col min="16" max="17" width="9.68382352941176" style="10" customWidth="1"/>
-    <col min="18" max="18" width="9.55147058823529" style="10" customWidth="1"/>
-    <col min="19" max="19" width="11.2794117647059" style="10" customWidth="1"/>
-    <col min="20" max="20" width="9.91911764705882" style="10" customWidth="1"/>
-    <col min="21" max="21" width="9.43382352941176" style="10" customWidth="1"/>
-    <col min="22" max="22" width="12.0073529411765" style="11" customWidth="1"/>
-    <col min="23" max="23" width="13.7279411764706" style="12" customWidth="1"/>
-    <col min="24" max="24" width="12.1323529411765" style="12" customWidth="1"/>
-    <col min="25" max="25" width="11.0294117647059" style="13" customWidth="1"/>
-    <col min="26" max="26" width="8.19852941176471" style="14" customWidth="1"/>
-    <col min="27" max="27" width="8.94117647058824" style="14" customWidth="1"/>
-    <col min="28" max="28" width="9.06617647058824" style="14" customWidth="1"/>
-    <col min="29" max="29" width="8.57352941176471" style="15" customWidth="1"/>
-    <col min="30" max="30" width="7.72058823529412" style="16" customWidth="1"/>
-    <col min="31" max="31" width="8.94117647058824" style="16" customWidth="1"/>
-    <col min="32" max="32" width="10.0441176470588" style="16" customWidth="1"/>
-    <col min="33" max="33" width="7.72058823529412" style="16" customWidth="1"/>
-    <col min="34" max="34" width="10.9044117647059" style="16" customWidth="1"/>
-    <col min="35" max="35" width="8.69852941176471" style="16" customWidth="1"/>
-    <col min="36" max="36" width="7.96323529411765" style="16" customWidth="1"/>
-    <col min="37" max="37" width="8.58088235294118" style="6" customWidth="1"/>
-    <col min="38" max="38" width="9.18382352941176" style="13" customWidth="1"/>
-    <col min="39" max="39" width="8.70588235294118" style="13" customWidth="1"/>
-    <col min="40" max="40" width="8.82352941176471" style="12" customWidth="1"/>
-    <col min="41" max="41" width="9.18382352941176" style="7" customWidth="1"/>
-    <col min="42" max="42" width="7.84558823529412" style="7" customWidth="1"/>
-    <col min="43" max="43" width="8.33088235294118" style="7" customWidth="1"/>
-    <col min="44" max="44" width="15.1911764705882" style="17" customWidth="1"/>
-    <col min="45" max="45" width="13.2279411764706" style="14" customWidth="1"/>
-    <col min="46" max="47" width="16.7867647058824" style="18" customWidth="1"/>
-    <col min="48" max="48" width="16.7867647058824" style="19" customWidth="1"/>
-    <col min="49" max="49" width="8.20588235294118" style="19" customWidth="1"/>
-    <col min="50" max="50" width="9.07352941176471" style="19"/>
-    <col min="51" max="53" width="9.07352941176471" style="20"/>
-    <col min="54" max="54" width="8.94852941176471" style="20" customWidth="1"/>
-    <col min="55" max="55" width="9.07352941176471" style="20"/>
-    <col min="56" max="56" width="11.0588235294118"/>
-    <col min="57" max="57" width="12.5" customWidth="1"/>
-    <col min="58" max="58" width="17.2720588235294" customWidth="1"/>
-    <col min="59" max="59" width="18.1397058823529" customWidth="1"/>
-    <col min="61" max="61" width="11.0220588235294" customWidth="1"/>
-    <col min="62" max="62" width="14.2132352941176" customWidth="1"/>
-    <col min="63" max="63" width="19.9705882352941" customWidth="1"/>
-    <col min="64" max="64" width="23.6470588235294" customWidth="1"/>
+    <col min="6" max="7" width="13.2352941176471" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.0294117647059" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.0294117647059" style="7" customWidth="1"/>
+    <col min="10" max="11" width="9.19117647058824" style="7" customWidth="1"/>
+    <col min="12" max="13" width="10.4117647058824" style="8"/>
+    <col min="14" max="14" width="8.82352941176471" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.0441176470588" style="10" customWidth="1"/>
+    <col min="16" max="16" width="9.92647058823529" style="10" customWidth="1"/>
+    <col min="17" max="18" width="9.68382352941176" style="10" customWidth="1"/>
+    <col min="19" max="19" width="9.55147058823529" style="10" customWidth="1"/>
+    <col min="20" max="20" width="11.2794117647059" style="10" customWidth="1"/>
+    <col min="21" max="21" width="9.91911764705882" style="10" customWidth="1"/>
+    <col min="22" max="22" width="9.43382352941176" style="10" customWidth="1"/>
+    <col min="23" max="23" width="12.0073529411765" style="11" customWidth="1"/>
+    <col min="24" max="24" width="13.7279411764706" style="12" customWidth="1"/>
+    <col min="25" max="25" width="12.1323529411765" style="12" customWidth="1"/>
+    <col min="26" max="26" width="11.0294117647059" style="13" customWidth="1"/>
+    <col min="27" max="27" width="8.19852941176471" style="14" customWidth="1"/>
+    <col min="28" max="28" width="8.94117647058824" style="14" customWidth="1"/>
+    <col min="29" max="29" width="9.06617647058824" style="14" customWidth="1"/>
+    <col min="30" max="30" width="8.57352941176471" style="15" customWidth="1"/>
+    <col min="31" max="31" width="7.72058823529412" style="16" customWidth="1"/>
+    <col min="32" max="32" width="8.94117647058824" style="16" customWidth="1"/>
+    <col min="33" max="33" width="10.0441176470588" style="16" customWidth="1"/>
+    <col min="34" max="34" width="7.72058823529412" style="16" customWidth="1"/>
+    <col min="35" max="35" width="10.9044117647059" style="16" customWidth="1"/>
+    <col min="36" max="36" width="8.69852941176471" style="16" customWidth="1"/>
+    <col min="37" max="37" width="7.96323529411765" style="16" customWidth="1"/>
+    <col min="38" max="38" width="8.58088235294118" style="6" customWidth="1"/>
+    <col min="39" max="39" width="9.18382352941176" style="13" customWidth="1"/>
+    <col min="40" max="40" width="8.70588235294118" style="13" customWidth="1"/>
+    <col min="41" max="41" width="8.82352941176471" style="12" customWidth="1"/>
+    <col min="42" max="42" width="9.18382352941176" style="7" customWidth="1"/>
+    <col min="43" max="43" width="7.84558823529412" style="7" customWidth="1"/>
+    <col min="44" max="44" width="8.33088235294118" style="7" customWidth="1"/>
+    <col min="45" max="45" width="15.1911764705882" style="17" customWidth="1"/>
+    <col min="46" max="46" width="13.2279411764706" style="14" customWidth="1"/>
+    <col min="47" max="48" width="16.7867647058824" style="18" customWidth="1"/>
+    <col min="49" max="49" width="16.7867647058824" style="19" customWidth="1"/>
+    <col min="50" max="50" width="10.4117647058824" style="19" customWidth="1"/>
+    <col min="51" max="51" width="9.07352941176471" style="19"/>
+    <col min="52" max="54" width="9.07352941176471" style="20"/>
+    <col min="55" max="55" width="8.94852941176471" style="20" customWidth="1"/>
+    <col min="56" max="56" width="9.07352941176471" style="20"/>
+    <col min="57" max="57" width="11.0588235294118"/>
+    <col min="58" max="58" width="12.5" customWidth="1"/>
+    <col min="59" max="59" width="17.2720588235294" customWidth="1"/>
+    <col min="60" max="60" width="18.1397058823529" customWidth="1"/>
+    <col min="62" max="62" width="11.0220588235294" customWidth="1"/>
+    <col min="63" max="63" width="14.2132352941176" customWidth="1"/>
+    <col min="64" max="64" width="19.9705882352941" customWidth="1"/>
+    <col min="65" max="65" width="23.6470588235294" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:67">
+    <row r="1" ht="16" customHeight="1" spans="1:68">
       <c r="A1" s="21" t="s">
         <v>131</v>
       </c>
@@ -13748,63 +13755,63 @@
       <c r="G1" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="61" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="72" t="s">
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="75" t="s">
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="48"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
       <c r="AZ1" s="48"/>
       <c r="BA1" s="48"/>
       <c r="BB1" s="48"/>
       <c r="BC1" s="48"/>
-      <c r="BD1" s="29"/>
+      <c r="BD1" s="48"/>
       <c r="BE1" s="29"/>
       <c r="BF1" s="29"/>
       <c r="BG1" s="29"/>
@@ -13812,451 +13819,464 @@
       <c r="BI1" s="29"/>
       <c r="BJ1" s="29"/>
       <c r="BK1" s="29"/>
-      <c r="BL1" s="89"/>
-      <c r="BM1" s="3"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="89"/>
       <c r="BN1" s="3"/>
       <c r="BO1" s="3"/>
-    </row>
-    <row r="2" ht="43" customHeight="1" spans="1:64">
+      <c r="BP1" s="3"/>
+    </row>
+    <row r="2" ht="43" customHeight="1" spans="1:65">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="21"/>
       <c r="E2" s="29"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="63" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="32" t="s">
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="76" t="s">
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="AW2" s="76" t="s">
+      <c r="AX2" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="AX2" s="79" t="s">
+      <c r="AY2" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="AY2" s="80" t="s">
+      <c r="AZ2" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="AZ2" s="81"/>
-      <c r="BA2" s="81"/>
-      <c r="BB2" s="81"/>
-      <c r="BC2" s="81"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21" t="s">
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="BF2" s="21"/>
       <c r="BG2" s="21"/>
       <c r="BH2" s="21"/>
       <c r="BI2" s="21"/>
       <c r="BJ2" s="21"/>
-      <c r="BK2" s="21" t="s">
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="BL2" s="90"/>
-    </row>
-    <row r="3" ht="45" customHeight="1" spans="1:64">
+      <c r="BM2" s="90"/>
+    </row>
+    <row r="3" ht="45" customHeight="1" spans="1:65">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
       <c r="D3" s="21"/>
       <c r="E3" s="29"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33" t="s">
+      <c r="G3" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="J3" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="K3" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="L3" s="43" t="s">
         <v>153</v>
       </c>
+      <c r="M3" s="43" t="s">
+        <v>154</v>
+      </c>
       <c r="N3" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="R3" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="V3" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="W3" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="X3" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y3" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z3" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA3" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB3" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC3" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD3" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE3" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF3" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG3" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH3" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI3" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ3" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK3" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL3" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM3" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN3" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO3" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP3" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ3" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="AR3" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="Q3" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="S3" s="44" t="s">
+      <c r="AS3" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT3" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU3" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV3" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA3" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="BB3" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="U3" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="V3" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="W3" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="X3" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y3" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z3" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA3" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB3" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD3" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE3" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF3" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG3" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH3" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI3" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ3" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK3" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL3" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM3" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN3" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO3" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP3" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ3" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR3" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS3" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT3" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU3" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ3" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="BA3" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB3" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC3" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="BD3" s="21" t="s">
+      <c r="BC3" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="BE3" s="86" t="s">
+      <c r="BD3" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="BF3" s="86" t="s">
+      <c r="BE3" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="BG3" s="86" t="s">
+      <c r="BF3" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="BH3" s="21" t="s">
+      <c r="BG3" s="85" t="s">
         <v>171</v>
       </c>
+      <c r="BH3" s="85" t="s">
+        <v>172</v>
+      </c>
       <c r="BI3" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BJ3" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="BK3" s="21"/>
-      <c r="BL3" s="90"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="45" customHeight="1" spans="1:64">
+        <v>174</v>
+      </c>
+      <c r="BK3" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="BL3" s="21"/>
+      <c r="BM3" s="90"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="45" customHeight="1" spans="1:65">
       <c r="A4" s="23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B4" s="300" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>0.1612</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="34">
         <v>9.587</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37">
+      <c r="G4" s="34">
+        <v>10.35</v>
+      </c>
+      <c r="H4" s="35">
+        <f>G4/AW4</f>
+        <v>9.86653956148713</v>
+      </c>
+      <c r="I4" s="44">
         <v>164</v>
       </c>
-      <c r="I4" s="37">
+      <c r="J4" s="44">
         <v>1.8698</v>
       </c>
-      <c r="J4" s="37">
+      <c r="K4" s="44">
         <v>1.7958</v>
       </c>
-      <c r="K4" s="45">
+      <c r="L4" s="45">
         <v>0.27</v>
       </c>
-      <c r="L4" s="45">
+      <c r="M4" s="45">
         <v>0.78</v>
       </c>
-      <c r="M4" s="45">
+      <c r="N4" s="45">
         <v>0.89</v>
       </c>
-      <c r="N4" s="45">
+      <c r="O4" s="45">
         <v>1.08</v>
       </c>
-      <c r="O4" s="49">
+      <c r="P4" s="49">
         <v>0.24</v>
       </c>
-      <c r="P4" s="50">
+      <c r="Q4" s="53">
         <v>0.6</v>
       </c>
-      <c r="Q4" s="50">
+      <c r="R4" s="53">
         <v>0.67</v>
       </c>
-      <c r="R4" s="50">
+      <c r="S4" s="53">
         <v>0.62</v>
       </c>
-      <c r="S4" s="54">
+      <c r="T4" s="54">
         <v>0.03</v>
       </c>
-      <c r="T4" s="54">
+      <c r="U4" s="54">
         <v>2.15</v>
       </c>
-      <c r="U4" s="54">
+      <c r="V4" s="54">
         <v>3.82</v>
       </c>
-      <c r="V4" s="54">
+      <c r="W4" s="54">
         <v>6.98</v>
       </c>
-      <c r="W4" s="57">
-        <f>((O4+P4+Q4+R4)/4-(K4+L4+M4+N4)/4)/((K4+L4+M4+N4)/4)</f>
+      <c r="X4" s="56">
+        <f>((P4+Q4+R4+S4)/4-(L4+M4+N4+O4)/4)/((L4+M4+N4+O4)/4)</f>
         <v>-0.294701986754967</v>
       </c>
-      <c r="X4" s="57">
-        <f>((S4+T4+U4+V4)/4-(O4+P4+Q4+R4)/4)/((O4+P4+Q4+R4)/4)</f>
+      <c r="Y4" s="56">
+        <f>((T4+U4+V4+W4)/4-(P4+Q4+R4+S4)/4)/((P4+Q4+R4+S4)/4)</f>
         <v>5.09389671361502</v>
       </c>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66">
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66">
         <v>0.2277</v>
       </c>
-      <c r="AB4" s="66">
+      <c r="AC4" s="66">
         <v>0.1645</v>
       </c>
-      <c r="AC4" s="66">
+      <c r="AD4" s="66">
         <v>5.12</v>
       </c>
-      <c r="AD4" s="36">
+      <c r="AE4" s="35">
         <v>0.3989</v>
       </c>
-      <c r="AE4" s="36">
+      <c r="AF4" s="35">
         <v>0.0213</v>
       </c>
-      <c r="AF4" s="36">
+      <c r="AG4" s="35">
         <v>0.0803</v>
       </c>
-      <c r="AG4" s="36">
+      <c r="AH4" s="35">
         <v>0.1427</v>
       </c>
-      <c r="AH4" s="36">
+      <c r="AI4" s="35">
         <v>-0.0694</v>
       </c>
-      <c r="AI4" s="36">
+      <c r="AJ4" s="35">
         <v>2.3883</v>
       </c>
-      <c r="AJ4" s="36">
+      <c r="AK4" s="35">
         <v>2.8798</v>
       </c>
-      <c r="AK4" s="67">
+      <c r="AL4" s="67">
         <v>3.4657</v>
       </c>
-      <c r="AL4" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM4" s="69">
-        <f>(AD4+AE4+AF4+AG4)/4</f>
+      <c r="AM4" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN4" s="69">
+        <f>(AE4+AF4+AG4+AH4)/4</f>
         <v>0.1608</v>
       </c>
-      <c r="AN4" s="60">
-        <f t="shared" ref="AN4:AN7" si="0">(AH4+AI4+AJ4+AK4)/4</f>
+      <c r="AO4" s="59">
+        <f t="shared" ref="AO4:AO7" si="0">(AI4+AJ4+AK4+AL4)/4</f>
         <v>2.1661</v>
       </c>
-      <c r="AO4" s="37">
+      <c r="AP4" s="44">
         <v>13.2586</v>
       </c>
-      <c r="AP4" s="73">
+      <c r="AQ4" s="72">
         <v>1.8525</v>
       </c>
-      <c r="AQ4" s="73">
+      <c r="AR4" s="72">
         <v>1.9614</v>
       </c>
-      <c r="AR4" s="74">
+      <c r="AS4" s="75">
         <v>43291</v>
       </c>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77">
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76">
         <v>1.049</v>
       </c>
-      <c r="AW4" s="77">
+      <c r="AX4" s="76">
         <v>0.6011</v>
       </c>
-      <c r="AX4" s="82">
-        <f>AW4*(1-0.33)</f>
+      <c r="AY4" s="81">
+        <f>AX4*(1-0.33)</f>
         <v>0.402737</v>
       </c>
-      <c r="AY4" s="83">
+      <c r="AZ4" s="82">
         <v>44.64</v>
       </c>
-      <c r="AZ4" s="83">
+      <c r="BA4" s="82">
         <v>64.54</v>
       </c>
-      <c r="BA4" s="83">
+      <c r="BB4" s="82">
         <v>45.35</v>
       </c>
-      <c r="BB4" s="83">
-        <f>($AY4+$AZ4+$BA4)/(16+22+23)</f>
+      <c r="BC4" s="82">
+        <f>($AZ4+$BA4+$BB4)/(16+22+23)</f>
         <v>2.53327868852459</v>
       </c>
-      <c r="BC4" s="83">
+      <c r="BD4" s="82">
         <v>1.9962</v>
       </c>
-      <c r="BD4" s="85">
-        <f>BC4/BB4</f>
+      <c r="BE4" s="86">
+        <f>BD4/BC4</f>
         <v>0.787990681421083</v>
       </c>
-      <c r="BE4" s="87">
+      <c r="BF4" s="87">
         <v>1</v>
       </c>
-      <c r="BF4" s="87" t="s">
-        <v>177</v>
-      </c>
       <c r="BG4" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH4" s="87"/>
+        <v>179</v>
+      </c>
+      <c r="BH4" s="87" t="s">
+        <v>180</v>
+      </c>
       <c r="BI4" s="87"/>
       <c r="BJ4" s="87"/>
-      <c r="BK4" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="BL4" s="87"/>
-    </row>
-    <row r="5" ht="45" spans="1:64">
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM4" s="87"/>
+    </row>
+    <row r="5" ht="45" spans="1:65">
       <c r="A5" s="23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B5" s="25">
         <v>603995</v>
@@ -14267,158 +14287,164 @@
       <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="36">
         <v>0.5204</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="37">
         <v>1.87</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37">
+      <c r="G5" s="37">
+        <v>5.25</v>
+      </c>
+      <c r="H5" s="35">
+        <f>G5/AW5</f>
+        <v>2.25225225225225</v>
+      </c>
+      <c r="I5" s="44">
         <v>1.087</v>
       </c>
-      <c r="I5" s="37">
+      <c r="J5" s="44">
         <v>0.7941</v>
       </c>
-      <c r="J5" s="37">
+      <c r="K5" s="44">
         <v>0.6696</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46">
+      <c r="L5" s="46"/>
+      <c r="M5" s="46">
         <v>0.8</v>
       </c>
-      <c r="M5" s="46">
+      <c r="N5" s="46">
         <v>1.31</v>
       </c>
-      <c r="N5" s="51">
+      <c r="O5" s="50">
         <v>1.91</v>
       </c>
-      <c r="O5" s="51">
+      <c r="P5" s="50">
         <v>0.29</v>
       </c>
-      <c r="P5" s="51">
+      <c r="Q5" s="50">
         <v>0.85</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="R5" s="50">
         <v>1.38</v>
       </c>
-      <c r="R5" s="51">
+      <c r="S5" s="50">
         <v>1.92</v>
       </c>
-      <c r="S5" s="51">
+      <c r="T5" s="50">
         <v>0.23</v>
       </c>
-      <c r="T5" s="51">
+      <c r="U5" s="50">
         <v>0.68</v>
       </c>
-      <c r="U5" s="51">
+      <c r="V5" s="50">
         <v>1.12</v>
       </c>
-      <c r="V5" s="58">
+      <c r="W5" s="57">
         <v>1.8</v>
       </c>
-      <c r="W5" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="X5" s="57">
-        <f>((S5+T5+U5+V5)/4-(O5+P5+Q5+R5)/4)/((O5+P5+Q5+R5)/4)</f>
+      <c r="X5" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y5" s="56">
+        <f>((T5+U5+V5+W5)/4-(P5+Q5+R5+S5)/4)/((P5+Q5+R5+S5)/4)</f>
         <v>-0.137387387387387</v>
       </c>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41">
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39">
         <v>-0.0412</v>
       </c>
-      <c r="AF5" s="41">
+      <c r="AG5" s="39">
         <v>-0.0395</v>
       </c>
-      <c r="AG5" s="41">
+      <c r="AH5" s="39">
         <v>-0.0053</v>
       </c>
-      <c r="AH5" s="41">
+      <c r="AI5" s="39">
         <v>-0.0058</v>
       </c>
-      <c r="AI5" s="41">
+      <c r="AJ5" s="39">
         <v>0.1478</v>
       </c>
-      <c r="AJ5" s="41">
+      <c r="AK5" s="39">
         <v>0.2092</v>
       </c>
-      <c r="AK5" s="36">
+      <c r="AL5" s="35">
         <v>0.2964</v>
       </c>
-      <c r="AL5" s="68" t="s">
-        <v>176</v>
-      </c>
       <c r="AM5" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN5" s="60">
+        <v>178</v>
+      </c>
+      <c r="AN5" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO5" s="59">
         <f t="shared" si="0"/>
         <v>0.1619</v>
       </c>
-      <c r="AO5" s="37">
+      <c r="AP5" s="44">
         <v>1.0194</v>
       </c>
-      <c r="AP5" s="37">
+      <c r="AQ5" s="44">
         <v>0.7661</v>
       </c>
-      <c r="AQ5" s="37">
+      <c r="AR5" s="44">
         <v>0.6219</v>
       </c>
-      <c r="AR5" s="74">
+      <c r="AS5" s="75">
         <v>43823</v>
       </c>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="78"/>
-      <c r="AU5" s="78"/>
-      <c r="AV5" s="78">
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="77">
         <v>2.331</v>
       </c>
-      <c r="AW5" s="78">
+      <c r="AX5" s="77">
         <v>1.118</v>
       </c>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="84">
+      <c r="AY5" s="77"/>
+      <c r="AZ5" s="83">
         <v>25.37</v>
       </c>
-      <c r="AZ5" s="84">
+      <c r="BA5" s="83">
         <v>48.76</v>
       </c>
-      <c r="BA5" s="84">
+      <c r="BB5" s="83">
         <v>37.72</v>
       </c>
-      <c r="BB5" s="83">
-        <f>($AY5+$AZ5+$BA5)/(16+22+23)</f>
+      <c r="BC5" s="82">
+        <f>($AZ5+$BA5+$BB5)/(16+22+23)</f>
         <v>1.83360655737705</v>
       </c>
-      <c r="BC5" s="84">
+      <c r="BD5" s="83">
         <v>1.8845</v>
       </c>
-      <c r="BD5" s="85">
-        <f>BC5/BB5</f>
+      <c r="BE5" s="86">
+        <f>BD5/BC5</f>
         <v>1.02775592311131</v>
       </c>
-      <c r="BE5" s="28">
+      <c r="BF5" s="28">
         <v>21</v>
       </c>
-      <c r="BF5" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG5" s="28"/>
+      <c r="BG5" s="88" t="s">
+        <v>183</v>
+      </c>
       <c r="BH5" s="28"/>
       <c r="BI5" s="28"/>
       <c r="BJ5" s="28"/>
       <c r="BK5" s="28"/>
       <c r="BL5" s="28"/>
-    </row>
-    <row r="6" ht="30" spans="1:64">
+      <c r="BM5" s="28"/>
+    </row>
+    <row r="6" ht="30" spans="1:65">
       <c r="A6" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B6" s="25">
         <v>603217</v>
@@ -14429,158 +14455,164 @@
       <c r="D6" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>0.1782</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="38">
         <v>2.16</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37">
+      <c r="G6" s="38">
+        <v>2.75</v>
+      </c>
+      <c r="H6" s="35">
+        <f>G6/AW6</f>
+        <v>2.11375864719447</v>
+      </c>
+      <c r="I6" s="44">
         <v>1.9227</v>
       </c>
-      <c r="I6" s="37">
+      <c r="J6" s="44">
         <v>1.5284</v>
       </c>
-      <c r="J6" s="37">
+      <c r="K6" s="44">
         <v>1.4696</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46">
+      <c r="L6" s="46"/>
+      <c r="M6" s="46">
         <v>1.84</v>
       </c>
-      <c r="M6" s="46">
+      <c r="N6" s="46">
         <v>2.95</v>
       </c>
-      <c r="N6" s="51">
+      <c r="O6" s="50">
         <v>3.54</v>
       </c>
-      <c r="O6" s="51">
+      <c r="P6" s="50">
         <v>0.64</v>
       </c>
-      <c r="P6" s="51">
+      <c r="Q6" s="50">
         <v>0.92</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="R6" s="50">
         <v>1.15</v>
       </c>
-      <c r="R6" s="51">
+      <c r="S6" s="50">
         <v>1.22</v>
       </c>
-      <c r="S6" s="51">
+      <c r="T6" s="50">
         <v>0.22</v>
       </c>
-      <c r="T6" s="51">
+      <c r="U6" s="50">
         <v>0.55</v>
       </c>
-      <c r="U6" s="51">
+      <c r="V6" s="50">
         <v>0.87</v>
       </c>
-      <c r="V6" s="58">
+      <c r="W6" s="57">
         <v>1.24</v>
       </c>
-      <c r="W6" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="X6" s="57">
-        <f>((S6+T6+U6+V6)/4-(O6+P6+Q6+R6)/4)/((O6+P6+Q6+R6)/4)</f>
+      <c r="X6" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y6" s="56">
+        <f>((T6+U6+V6+W6)/4-(P6+Q6+R6+S6)/4)/((P6+Q6+R6+S6)/4)</f>
         <v>-0.267175572519084</v>
       </c>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41">
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39">
         <v>-0.0797</v>
       </c>
-      <c r="AF6" s="41">
+      <c r="AG6" s="39">
         <v>-0.1393</v>
       </c>
-      <c r="AG6" s="41">
+      <c r="AH6" s="39">
         <v>-0.1248</v>
       </c>
-      <c r="AH6" s="41">
+      <c r="AI6" s="39">
         <v>-0.1395</v>
       </c>
-      <c r="AI6" s="41">
+      <c r="AJ6" s="39">
         <v>-0.1186</v>
       </c>
-      <c r="AJ6" s="41">
+      <c r="AK6" s="39">
         <v>-0.0353</v>
       </c>
-      <c r="AK6" s="36">
+      <c r="AL6" s="35">
         <v>0.0498</v>
       </c>
-      <c r="AL6" s="68" t="s">
-        <v>176</v>
-      </c>
       <c r="AM6" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN6" s="60">
+        <v>178</v>
+      </c>
+      <c r="AN6" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO6" s="59">
         <f t="shared" si="0"/>
         <v>-0.0609</v>
       </c>
-      <c r="AO6" s="37">
+      <c r="AP6" s="44">
         <v>0.6159</v>
       </c>
-      <c r="AP6" s="73">
+      <c r="AQ6" s="72">
         <v>0.6243</v>
       </c>
-      <c r="AQ6" s="73">
+      <c r="AR6" s="72">
         <v>0.7363</v>
       </c>
-      <c r="AR6" s="74">
+      <c r="AS6" s="75">
         <v>43636</v>
       </c>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="78"/>
-      <c r="AU6" s="78"/>
-      <c r="AV6" s="78">
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="77"/>
+      <c r="AV6" s="77"/>
+      <c r="AW6" s="77">
         <v>1.301</v>
       </c>
-      <c r="AW6" s="78">
+      <c r="AX6" s="77">
         <v>0.457</v>
       </c>
-      <c r="AX6" s="78"/>
-      <c r="AY6" s="84">
+      <c r="AY6" s="77"/>
+      <c r="AZ6" s="83">
         <v>40.41</v>
       </c>
-      <c r="AZ6" s="84">
+      <c r="BA6" s="83">
         <v>40.24</v>
       </c>
-      <c r="BA6" s="84">
+      <c r="BB6" s="83">
         <v>70.51</v>
       </c>
-      <c r="BB6" s="83">
-        <f>($AY6+$AZ6+$BA6)/(16+22+23)</f>
+      <c r="BC6" s="82">
+        <f>($AZ6+$BA6+$BB6)/(16+22+23)</f>
         <v>2.47803278688525</v>
       </c>
-      <c r="BC6" s="84">
+      <c r="BD6" s="83">
         <v>2.2217</v>
       </c>
-      <c r="BD6" s="85">
-        <f>BC6/BB6</f>
+      <c r="BE6" s="86">
+        <f>BD6/BC6</f>
         <v>0.896557951839111</v>
       </c>
-      <c r="BE6" s="28">
+      <c r="BF6" s="28">
         <v>3</v>
       </c>
-      <c r="BF6" s="88" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG6" s="28"/>
+      <c r="BG6" s="88" t="s">
+        <v>185</v>
+      </c>
       <c r="BH6" s="28"/>
       <c r="BI6" s="28"/>
       <c r="BJ6" s="28"/>
       <c r="BK6" s="28"/>
       <c r="BL6" s="28"/>
-    </row>
-    <row r="7" ht="44" spans="1:64">
+      <c r="BM6" s="28"/>
+    </row>
+    <row r="7" ht="44" spans="1:65">
       <c r="A7" s="23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B7" s="25">
         <v>600587</v>
@@ -14591,227 +14623,233 @@
       <c r="D7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>0.5536</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="38">
         <v>1.08</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37">
+      <c r="G7" s="38">
+        <v>4.38</v>
+      </c>
+      <c r="H7" s="35">
+        <f>G7/AW7</f>
+        <v>1.07775590551181</v>
+      </c>
+      <c r="I7" s="44">
         <v>3.5</v>
       </c>
-      <c r="I7" s="37">
+      <c r="J7" s="44">
         <v>1.5313</v>
       </c>
-      <c r="J7" s="37">
+      <c r="K7" s="44">
         <v>1.0769</v>
       </c>
-      <c r="K7" s="47">
+      <c r="L7" s="47">
         <v>0.07</v>
       </c>
-      <c r="L7" s="47">
+      <c r="M7" s="47">
         <v>0.14</v>
       </c>
-      <c r="M7" s="52">
+      <c r="N7" s="51">
         <v>0.38</v>
       </c>
-      <c r="N7" s="53">
+      <c r="O7" s="52">
         <v>0.06</v>
       </c>
-      <c r="O7" s="46">
+      <c r="P7" s="46">
         <v>1.38</v>
       </c>
-      <c r="P7" s="46">
+      <c r="Q7" s="46">
         <v>1.71</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="R7" s="46">
         <v>1.97</v>
       </c>
-      <c r="R7" s="51">
+      <c r="S7" s="50">
         <v>2.12</v>
       </c>
-      <c r="S7" s="51">
+      <c r="T7" s="50">
         <v>0.08</v>
       </c>
-      <c r="T7" s="51">
+      <c r="U7" s="50">
         <v>0.32</v>
       </c>
-      <c r="U7" s="51">
+      <c r="V7" s="50">
         <v>0.52</v>
       </c>
-      <c r="V7" s="51">
+      <c r="W7" s="50">
         <v>0.58</v>
       </c>
-      <c r="W7" s="57">
-        <f>((O7+P7+Q7+R7)/4-(K7+L7+M7+N7)/4)/((K7+L7+M7+N7)/4)</f>
+      <c r="X7" s="56">
+        <f>((P7+Q7+R7+S7)/4-(L7+M7+N7+O7)/4)/((L7+M7+N7+O7)/4)</f>
         <v>10.0461538461538</v>
       </c>
-      <c r="X7" s="57">
-        <f>((S7+T7+U7+V7)/4-(O7+P7+Q7+R7)/4)/((O7+P7+Q7+R7)/4)</f>
+      <c r="Y7" s="56">
+        <f>((T7+U7+V7+W7)/4-(P7+Q7+R7+S7)/4)/((P7+Q7+R7+S7)/4)</f>
         <v>-0.79108635097493</v>
       </c>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="36">
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="35">
         <v>-0.0763</v>
       </c>
-      <c r="AA7" s="36">
+      <c r="AB7" s="35">
         <v>0.0339</v>
       </c>
-      <c r="AB7" s="36">
+      <c r="AC7" s="35">
         <v>0.0737</v>
       </c>
-      <c r="AC7" s="41">
+      <c r="AD7" s="39">
         <v>0.0591</v>
       </c>
-      <c r="AD7" s="41">
+      <c r="AE7" s="39">
         <v>0.1517</v>
       </c>
-      <c r="AE7" s="41">
+      <c r="AF7" s="39">
         <v>-0.1101</v>
       </c>
-      <c r="AF7" s="41">
+      <c r="AG7" s="39">
         <v>-0.1848</v>
       </c>
-      <c r="AG7" s="41">
+      <c r="AH7" s="39">
         <v>-0.1896</v>
       </c>
-      <c r="AH7" s="41">
+      <c r="AI7" s="39">
         <v>-0.1942</v>
       </c>
-      <c r="AI7" s="36">
+      <c r="AJ7" s="35">
         <v>-0.0575</v>
       </c>
-      <c r="AJ7" s="36">
+      <c r="AK7" s="35">
         <v>0.0937</v>
       </c>
-      <c r="AK7" s="70">
+      <c r="AL7" s="70">
         <v>0.1023</v>
       </c>
-      <c r="AL7" s="71">
-        <f>(Z7+AA7+AB7+AC7)/4</f>
+      <c r="AM7" s="71">
+        <f>(AA7+AB7+AC7+AD7)/4</f>
         <v>0.0226</v>
       </c>
-      <c r="AM7" s="69">
-        <f>(AD7+AE7+AF7+AG7)/4</f>
+      <c r="AN7" s="69">
+        <f>(AE7+AF7+AG7+AH7)/4</f>
         <v>-0.0832</v>
       </c>
-      <c r="AN7" s="60">
+      <c r="AO7" s="59">
         <f t="shared" si="0"/>
         <v>-0.013925</v>
       </c>
-      <c r="AO7" s="37">
+      <c r="AP7" s="44">
         <v>0.5478</v>
       </c>
-      <c r="AP7" s="37">
+      <c r="AQ7" s="44">
         <v>0.2848</v>
       </c>
-      <c r="AQ7" s="37">
+      <c r="AR7" s="44">
         <v>0.1434</v>
       </c>
-      <c r="AR7" s="74">
+      <c r="AS7" s="75">
         <v>37526</v>
       </c>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78">
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="77"/>
+      <c r="AV7" s="77"/>
+      <c r="AW7" s="77">
         <v>4.064</v>
       </c>
-      <c r="AW7" s="78">
+      <c r="AX7" s="77">
         <v>4.035</v>
       </c>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="84">
+      <c r="AY7" s="77"/>
+      <c r="AZ7" s="83">
         <v>150.3</v>
       </c>
-      <c r="AZ7" s="84">
+      <c r="BA7" s="83">
         <v>317.7</v>
       </c>
-      <c r="BA7" s="84">
+      <c r="BB7" s="83">
         <v>340.8</v>
       </c>
-      <c r="BB7" s="83">
-        <f>($AY7+$AZ7+$BA7)/(16+22+23)</f>
+      <c r="BC7" s="82">
+        <f>($AZ7+$BA7+$BB7)/(16+22+23)</f>
         <v>13.2590163934426</v>
       </c>
-      <c r="BC7" s="84">
+      <c r="BD7" s="83">
         <v>10.75</v>
       </c>
-      <c r="BD7" s="85">
-        <f>BC7/BB7</f>
+      <c r="BE7" s="86">
+        <f>BD7/BC7</f>
         <v>0.810769040553907</v>
       </c>
-      <c r="BE7" s="28">
+      <c r="BF7" s="28">
         <v>18</v>
       </c>
-      <c r="BF7" s="88" t="s">
-        <v>185</v>
-      </c>
-      <c r="BG7" s="28"/>
+      <c r="BG7" s="88" t="s">
+        <v>187</v>
+      </c>
       <c r="BH7" s="28"/>
       <c r="BI7" s="28"/>
       <c r="BJ7" s="28"/>
       <c r="BK7" s="28"/>
       <c r="BL7" s="28"/>
-    </row>
-    <row r="8" spans="1:64">
+      <c r="BM7" s="28"/>
+    </row>
+    <row r="8" spans="1:65">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="46"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="65"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="35"/>
       <c r="AM8" s="65"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="74"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="84"/>
-      <c r="AZ8" s="84"/>
-      <c r="BA8" s="84"/>
-      <c r="BB8" s="84"/>
-      <c r="BC8" s="84"/>
-      <c r="BD8" s="28"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="59"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="77"/>
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="83"/>
+      <c r="BC8" s="83"/>
+      <c r="BD8" s="83"/>
       <c r="BE8" s="28"/>
       <c r="BF8" s="28"/>
       <c r="BG8" s="28"/>
@@ -14820,64 +14858,65 @@
       <c r="BJ8" s="28"/>
       <c r="BK8" s="28"/>
       <c r="BL8" s="28"/>
-    </row>
-    <row r="9" spans="1:64">
+      <c r="BM8" s="28"/>
+    </row>
+    <row r="9" spans="1:65">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="46"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="65"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="35"/>
       <c r="AM9" s="65"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="74"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="84"/>
-      <c r="BD9" s="28"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
       <c r="BE9" s="28"/>
       <c r="BF9" s="28"/>
       <c r="BG9" s="28"/>
@@ -14886,64 +14925,65 @@
       <c r="BJ9" s="28"/>
       <c r="BK9" s="28"/>
       <c r="BL9" s="28"/>
-    </row>
-    <row r="10" spans="1:64">
+      <c r="BM9" s="28"/>
+    </row>
+    <row r="10" spans="1:65">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="46"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
       <c r="L10" s="46"/>
       <c r="M10" s="46"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="65"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="35"/>
       <c r="AM10" s="65"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="78"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="28"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="83"/>
       <c r="BE10" s="28"/>
       <c r="BF10" s="28"/>
       <c r="BG10" s="28"/>
@@ -14952,64 +14992,65 @@
       <c r="BJ10" s="28"/>
       <c r="BK10" s="28"/>
       <c r="BL10" s="28"/>
-    </row>
-    <row r="11" spans="1:64">
+      <c r="BM10" s="28"/>
+    </row>
+    <row r="11" spans="1:65">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="46"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="65"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="35"/>
       <c r="AM11" s="65"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="74"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="84"/>
-      <c r="BD11" s="28"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="59"/>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="77"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="77"/>
+      <c r="AZ11" s="83"/>
+      <c r="BA11" s="83"/>
+      <c r="BB11" s="83"/>
+      <c r="BC11" s="83"/>
+      <c r="BD11" s="83"/>
       <c r="BE11" s="28"/>
       <c r="BF11" s="28"/>
       <c r="BG11" s="28"/>
@@ -15018,64 +15059,65 @@
       <c r="BJ11" s="28"/>
       <c r="BK11" s="28"/>
       <c r="BL11" s="28"/>
-    </row>
-    <row r="12" spans="1:64">
+      <c r="BM11" s="28"/>
+    </row>
+    <row r="12" spans="1:65">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="46"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
       <c r="L12" s="46"/>
       <c r="M12" s="46"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="65"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="35"/>
       <c r="AM12" s="65"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="74"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="84"/>
-      <c r="BD12" s="28"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="77"/>
+      <c r="AX12" s="77"/>
+      <c r="AY12" s="77"/>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="83"/>
+      <c r="BB12" s="83"/>
+      <c r="BC12" s="83"/>
+      <c r="BD12" s="83"/>
       <c r="BE12" s="28"/>
       <c r="BF12" s="28"/>
       <c r="BG12" s="28"/>
@@ -15084,34 +15126,35 @@
       <c r="BJ12" s="28"/>
       <c r="BK12" s="28"/>
       <c r="BL12" s="28"/>
+      <c r="BM12" s="28"/>
     </row>
   </sheetData>
-  <sortState ref="A2:DE24">
+  <sortState ref="A2:DF24">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="H1:Y1"/>
-    <mergeCell ref="Z1:AQ1"/>
-    <mergeCell ref="AV1:BD1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:Y2"/>
-    <mergeCell ref="Z2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AY2:BD2"/>
-    <mergeCell ref="BE2:BJ2"/>
+    <mergeCell ref="I1:Z1"/>
+    <mergeCell ref="AA1:AR1"/>
+    <mergeCell ref="AW1:BE1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:Z2"/>
+    <mergeCell ref="AA2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="AV2:AV3"/>
     <mergeCell ref="AW2:AW3"/>
     <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="AR1:AU2"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="AS1:AV2"/>
+    <mergeCell ref="G1:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -1008,21 +1008,21 @@
 (越高越好)</t>
   </si>
   <si>
+    <t>每股收益增长率</t>
+  </si>
+  <si>
+    <t>销售额同比增长率</t>
+  </si>
+  <si>
+    <t>催化剂
+（是否是新公司，是否有新产品、新管理层、股价新高）</t>
+  </si>
+  <si>
+    <t>股票的供给与需求</t>
+  </si>
+  <si>
     <t>股本回报率
 (至少大于17%)</t>
-  </si>
-  <si>
-    <t>每股收益增长率</t>
-  </si>
-  <si>
-    <t>销售额同比增长率</t>
-  </si>
-  <si>
-    <t>催化剂
-（是否是新公司，是否有新产品、新管理层、股价新高）</t>
-  </si>
-  <si>
-    <t>股票的供给与需求</t>
   </si>
   <si>
     <r>
@@ -1089,12 +1089,6 @@
     <t>总结</t>
   </si>
   <si>
-    <t>净收益</t>
-  </si>
-  <si>
-    <t>回报率</t>
-  </si>
-  <si>
     <t>最近三</t>
   </si>
   <si>
@@ -1171,6 +1165,12 @@
   </si>
   <si>
     <t>投资经理最近3年业绩评级</t>
+  </si>
+  <si>
+    <t>净收益</t>
+  </si>
+  <si>
+    <t>回报率</t>
   </si>
   <si>
     <t>JBM_000001</t>
@@ -2343,7 +2343,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2360,6 +2359,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2399,9 +2399,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2410,144 +2413,144 @@
     <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2555,9 +2558,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6164,15 +6164,15 @@
     <col min="19" max="19" width="22.5735294117647" customWidth="1"/>
     <col min="20" max="22" width="9.35294117647059" style="19"/>
     <col min="23" max="23" width="8.41176470588235" style="19"/>
-    <col min="24" max="24" width="11.5147058823529" style="16" customWidth="1"/>
-    <col min="25" max="25" width="10.9044117647059" style="16" customWidth="1"/>
-    <col min="26" max="26" width="13.2352941176471" style="16" customWidth="1"/>
+    <col min="24" max="24" width="11.5147058823529" style="15" customWidth="1"/>
+    <col min="25" max="25" width="10.9044117647059" style="15" customWidth="1"/>
+    <col min="26" max="26" width="13.2352941176471" style="15" customWidth="1"/>
     <col min="27" max="33" width="9.07352941176471" style="19"/>
     <col min="34" max="35" width="9.07352941176471" style="99"/>
     <col min="36" max="37" width="9.07352941176471" style="19"/>
-    <col min="39" max="39" width="7.71323529411765" style="16" customWidth="1"/>
-    <col min="40" max="43" width="9.07352941176471" style="16"/>
-    <col min="44" max="44" width="10.3529411764706" style="16"/>
+    <col min="39" max="39" width="7.71323529411765" style="15" customWidth="1"/>
+    <col min="40" max="43" width="9.07352941176471" style="15"/>
+    <col min="44" max="44" width="10.3529411764706" style="15"/>
     <col min="45" max="45" width="13.1102941176471" customWidth="1"/>
     <col min="46" max="46" width="21.8088235294118" customWidth="1"/>
     <col min="47" max="47" width="14.8235294117647" customWidth="1"/>
@@ -6845,7 +6845,7 @@
         <v>0.0918367346938776</v>
       </c>
       <c r="AQ7" s="219"/>
-      <c r="AR7" s="72"/>
+      <c r="AR7" s="73"/>
       <c r="AS7" s="196"/>
       <c r="AT7" s="110" t="s">
         <v>75</v>
@@ -6955,7 +6955,7 @@
       <c r="AL8" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="AM8" s="69">
+      <c r="AM8" s="70">
         <f t="shared" si="3"/>
         <v>0.321555340432398</v>
       </c>
@@ -13666,11 +13666,11 @@
   <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4:H7"/>
+      <selection pane="bottomRight" activeCell="BK4" sqref="BK4:BK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -13679,56 +13679,57 @@
     <col min="3" max="3" width="8.94117647058824" style="2"/>
     <col min="4" max="4" width="8.94117647058824" style="3"/>
     <col min="5" max="5" width="10.7794117647059" style="4" customWidth="1"/>
-    <col min="6" max="7" width="13.2352941176471" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.0294117647059" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.0294117647059" style="7" customWidth="1"/>
-    <col min="10" max="11" width="9.19117647058824" style="7" customWidth="1"/>
-    <col min="12" max="13" width="10.4117647058824" style="8"/>
-    <col min="14" max="14" width="8.82352941176471" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.0441176470588" style="10" customWidth="1"/>
-    <col min="16" max="16" width="9.92647058823529" style="10" customWidth="1"/>
-    <col min="17" max="18" width="9.68382352941176" style="10" customWidth="1"/>
-    <col min="19" max="19" width="9.55147058823529" style="10" customWidth="1"/>
-    <col min="20" max="20" width="11.2794117647059" style="10" customWidth="1"/>
-    <col min="21" max="21" width="9.91911764705882" style="10" customWidth="1"/>
-    <col min="22" max="22" width="9.43382352941176" style="10" customWidth="1"/>
-    <col min="23" max="23" width="12.0073529411765" style="11" customWidth="1"/>
-    <col min="24" max="24" width="13.7279411764706" style="12" customWidth="1"/>
-    <col min="25" max="25" width="12.1323529411765" style="12" customWidth="1"/>
-    <col min="26" max="26" width="11.0294117647059" style="13" customWidth="1"/>
-    <col min="27" max="27" width="8.19852941176471" style="14" customWidth="1"/>
-    <col min="28" max="28" width="8.94117647058824" style="14" customWidth="1"/>
-    <col min="29" max="29" width="9.06617647058824" style="14" customWidth="1"/>
-    <col min="30" max="30" width="8.57352941176471" style="15" customWidth="1"/>
-    <col min="31" max="31" width="7.72058823529412" style="16" customWidth="1"/>
-    <col min="32" max="32" width="8.94117647058824" style="16" customWidth="1"/>
-    <col min="33" max="33" width="10.0441176470588" style="16" customWidth="1"/>
-    <col min="34" max="34" width="7.72058823529412" style="16" customWidth="1"/>
-    <col min="35" max="35" width="10.9044117647059" style="16" customWidth="1"/>
-    <col min="36" max="36" width="8.69852941176471" style="16" customWidth="1"/>
-    <col min="37" max="37" width="7.96323529411765" style="16" customWidth="1"/>
-    <col min="38" max="38" width="8.58088235294118" style="6" customWidth="1"/>
-    <col min="39" max="39" width="9.18382352941176" style="13" customWidth="1"/>
-    <col min="40" max="40" width="8.70588235294118" style="13" customWidth="1"/>
-    <col min="41" max="41" width="8.82352941176471" style="12" customWidth="1"/>
-    <col min="42" max="42" width="9.18382352941176" style="7" customWidth="1"/>
-    <col min="43" max="43" width="7.84558823529412" style="7" customWidth="1"/>
-    <col min="44" max="44" width="8.33088235294118" style="7" customWidth="1"/>
-    <col min="45" max="45" width="15.1911764705882" style="17" customWidth="1"/>
-    <col min="46" max="46" width="13.2279411764706" style="14" customWidth="1"/>
-    <col min="47" max="48" width="16.7867647058824" style="18" customWidth="1"/>
-    <col min="49" max="49" width="16.7867647058824" style="19" customWidth="1"/>
-    <col min="50" max="50" width="10.4117647058824" style="19" customWidth="1"/>
-    <col min="51" max="51" width="9.07352941176471" style="19"/>
-    <col min="52" max="54" width="9.07352941176471" style="20"/>
-    <col min="55" max="55" width="8.94852941176471" style="20" customWidth="1"/>
-    <col min="56" max="56" width="9.07352941176471" style="20"/>
-    <col min="57" max="57" width="11.0588235294118"/>
-    <col min="58" max="58" width="12.5" customWidth="1"/>
-    <col min="59" max="59" width="17.2720588235294" customWidth="1"/>
-    <col min="60" max="60" width="18.1397058823529" customWidth="1"/>
-    <col min="62" max="62" width="11.0220588235294" customWidth="1"/>
-    <col min="63" max="63" width="14.2132352941176" customWidth="1"/>
+    <col min="6" max="6" width="13.2352941176471" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.0294117647059" style="6" customWidth="1"/>
+    <col min="8" max="9" width="9.19117647058824" style="6" customWidth="1"/>
+    <col min="10" max="11" width="10.4117647058824" style="7"/>
+    <col min="12" max="12" width="8.82352941176471" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.0441176470588" style="9" customWidth="1"/>
+    <col min="14" max="14" width="9.92647058823529" style="9" customWidth="1"/>
+    <col min="15" max="16" width="9.68382352941176" style="9" customWidth="1"/>
+    <col min="17" max="17" width="9.55147058823529" style="9" customWidth="1"/>
+    <col min="18" max="18" width="11.2794117647059" style="9" customWidth="1"/>
+    <col min="19" max="19" width="9.91911764705882" style="9" customWidth="1"/>
+    <col min="20" max="20" width="9.43382352941176" style="9" customWidth="1"/>
+    <col min="21" max="21" width="12.0073529411765" style="10" customWidth="1"/>
+    <col min="22" max="22" width="13.7279411764706" style="11" customWidth="1"/>
+    <col min="23" max="23" width="12.1323529411765" style="11" customWidth="1"/>
+    <col min="24" max="24" width="11.0294117647059" style="12" customWidth="1"/>
+    <col min="25" max="25" width="8.19852941176471" style="13" customWidth="1"/>
+    <col min="26" max="26" width="8.94117647058824" style="13" customWidth="1"/>
+    <col min="27" max="27" width="9.06617647058824" style="13" customWidth="1"/>
+    <col min="28" max="28" width="8.57352941176471" style="14" customWidth="1"/>
+    <col min="29" max="29" width="7.72058823529412" style="15" customWidth="1"/>
+    <col min="30" max="30" width="8.94117647058824" style="15" customWidth="1"/>
+    <col min="31" max="31" width="10.0441176470588" style="15" customWidth="1"/>
+    <col min="32" max="32" width="7.72058823529412" style="15" customWidth="1"/>
+    <col min="33" max="33" width="10.9044117647059" style="15" customWidth="1"/>
+    <col min="34" max="34" width="8.69852941176471" style="15" customWidth="1"/>
+    <col min="35" max="35" width="7.96323529411765" style="15" customWidth="1"/>
+    <col min="36" max="36" width="8.58088235294118" style="16" customWidth="1"/>
+    <col min="37" max="37" width="9.18382352941176" style="12" customWidth="1"/>
+    <col min="38" max="38" width="8.70588235294118" style="12" customWidth="1"/>
+    <col min="39" max="39" width="8.82352941176471" style="11" customWidth="1"/>
+    <col min="40" max="40" width="9.18382352941176" style="6" customWidth="1"/>
+    <col min="41" max="41" width="7.84558823529412" style="6" customWidth="1"/>
+    <col min="42" max="42" width="8.33088235294118" style="6" customWidth="1"/>
+    <col min="43" max="43" width="15.1911764705882" style="17" customWidth="1"/>
+    <col min="44" max="44" width="13.2279411764706" style="13" customWidth="1"/>
+    <col min="45" max="46" width="16.7867647058824" style="18" customWidth="1"/>
+    <col min="47" max="47" width="16.7867647058824" style="19" customWidth="1"/>
+    <col min="48" max="48" width="10.4117647058824" style="19" customWidth="1"/>
+    <col min="49" max="49" width="9.07352941176471" style="19"/>
+    <col min="50" max="52" width="9.07352941176471" style="20"/>
+    <col min="53" max="53" width="8.94852941176471" style="20" customWidth="1"/>
+    <col min="54" max="54" width="9.07352941176471" style="20"/>
+    <col min="55" max="55" width="11.0588235294118"/>
+    <col min="56" max="56" width="12.5" customWidth="1"/>
+    <col min="57" max="57" width="17.2720588235294" customWidth="1"/>
+    <col min="58" max="58" width="18.1397058823529" customWidth="1"/>
+    <col min="60" max="60" width="11.0220588235294" customWidth="1"/>
+    <col min="61" max="61" width="14.2132352941176" customWidth="1"/>
+    <col min="62" max="62" width="13.2352941176471" style="5" customWidth="1"/>
+    <col min="63" max="63" width="11.0294117647059" style="16" customWidth="1"/>
     <col min="64" max="64" width="19.9705882352941" customWidth="1"/>
     <col min="65" max="65" width="23.6470588235294" customWidth="1"/>
   </cols>
@@ -13755,70 +13756,70 @@
       <c r="G1" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="60" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="73" t="s">
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
       <c r="BE1" s="29"/>
       <c r="BF1" s="29"/>
       <c r="BG1" s="29"/>
       <c r="BH1" s="29"/>
       <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
+      <c r="BJ1" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK1" s="31"/>
       <c r="BL1" s="29"/>
       <c r="BM1" s="89"/>
       <c r="BN1" s="3"/>
@@ -13832,81 +13833,81 @@
       <c r="D2" s="21"/>
       <c r="E2" s="29"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="41" t="s">
+      <c r="G2" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="42" t="s">
+        <v>140</v>
+      </c>
       <c r="K2" s="42"/>
-      <c r="L2" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="62" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="41" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="74" t="s">
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="AX2" s="74" t="s">
+      <c r="AV2" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="AY2" s="79" t="s">
+      <c r="AW2" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="AZ2" s="80" t="s">
+      <c r="AX2" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
+      <c r="BA2" s="81"/>
+      <c r="BB2" s="81"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="BE2" s="21"/>
-      <c r="BF2" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="BF2" s="21"/>
       <c r="BG2" s="21"/>
       <c r="BH2" s="21"/>
       <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
       <c r="BL2" s="21" t="s">
         <v>147</v>
       </c>
@@ -13919,32 +13920,32 @@
       <c r="D3" s="21"/>
       <c r="E3" s="29"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>156</v>
+      <c r="N3" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>152</v>
       </c>
       <c r="P3" s="43" t="s">
         <v>153</v>
@@ -13953,10 +13954,10 @@
         <v>154</v>
       </c>
       <c r="R3" s="43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="S3" s="43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="T3" s="43" t="s">
         <v>153</v>
@@ -13964,32 +13965,32 @@
       <c r="U3" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="V3" s="43" t="s">
+      <c r="V3" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="W3" s="43" t="s">
+      <c r="W3" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="X3" s="55" t="s">
+      <c r="X3" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z3" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA3" s="64" t="s">
+      <c r="Y3" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA3" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="AB3" s="64" t="s">
+      <c r="AB3" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="AC3" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD3" s="29" t="s">
-        <v>156</v>
+      <c r="AC3" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD3" s="64" t="s">
+        <v>152</v>
       </c>
       <c r="AE3" s="64" t="s">
         <v>153</v>
@@ -13998,10 +13999,10 @@
         <v>154</v>
       </c>
       <c r="AG3" s="64" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH3" s="64" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AI3" s="64" t="s">
         <v>153</v>
@@ -14009,80 +14010,80 @@
       <c r="AJ3" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="AK3" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL3" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM3" s="55" t="s">
+      <c r="AK3" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL3" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM3" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="AN3" s="63" t="s">
+      <c r="AN3" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO3" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP3" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ3" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="AO3" s="63" t="s">
+      <c r="AR3" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="AP3" s="42" t="s">
+      <c r="AS3" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT3" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="79"/>
+      <c r="AX3" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY3" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ3" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="AQ3" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR3" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS3" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT3" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU3" s="74" t="s">
+      <c r="BA3" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="AV3" s="74" t="s">
+      <c r="BB3" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA3" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="BB3" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC3" s="84" t="s">
+      <c r="BC3" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="BD3" s="84" t="s">
+      <c r="BD3" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="BE3" s="21" t="s">
+      <c r="BE3" s="85" t="s">
         <v>169</v>
       </c>
       <c r="BF3" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="BG3" s="85" t="s">
+      <c r="BG3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="BH3" s="85" t="s">
+      <c r="BH3" s="21" t="s">
         <v>172</v>
       </c>
       <c r="BI3" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="BJ3" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="BJ3" s="21" t="s">
+      <c r="BK3" s="31" t="s">
         <v>174</v>
-      </c>
-      <c r="BK3" s="21" t="s">
-        <v>173</v>
       </c>
       <c r="BL3" s="21"/>
       <c r="BM3" s="90"/>
@@ -14100,175 +14101,175 @@
       <c r="D4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="34">
         <v>0.1612</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="35">
         <v>9.587</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="36">
+        <v>164</v>
+      </c>
+      <c r="H4" s="36">
+        <v>1.8698</v>
+      </c>
+      <c r="I4" s="36">
+        <v>1.7958</v>
+      </c>
+      <c r="J4" s="45">
+        <v>0.27</v>
+      </c>
+      <c r="K4" s="45">
+        <v>0.78</v>
+      </c>
+      <c r="L4" s="45">
+        <v>0.89</v>
+      </c>
+      <c r="M4" s="45">
+        <v>1.08</v>
+      </c>
+      <c r="N4" s="49">
+        <v>0.24</v>
+      </c>
+      <c r="O4" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="P4" s="50">
+        <v>0.67</v>
+      </c>
+      <c r="Q4" s="50">
+        <v>0.62</v>
+      </c>
+      <c r="R4" s="53">
+        <v>0.03</v>
+      </c>
+      <c r="S4" s="53">
+        <v>2.15</v>
+      </c>
+      <c r="T4" s="53">
+        <v>3.82</v>
+      </c>
+      <c r="U4" s="53">
+        <v>6.98</v>
+      </c>
+      <c r="V4" s="57">
+        <f>((N4+O4+P4+Q4)/4-(J4+K4+L4+M4)/4)/((J4+K4+L4+M4)/4)</f>
+        <v>-0.294701986754967</v>
+      </c>
+      <c r="W4" s="57">
+        <f>((R4+S4+T4+U4)/4-(N4+O4+P4+Q4)/4)/((N4+O4+P4+Q4)/4)</f>
+        <v>5.09389671361502</v>
+      </c>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65">
+        <v>0.2277</v>
+      </c>
+      <c r="AA4" s="65">
+        <v>0.1645</v>
+      </c>
+      <c r="AB4" s="65">
+        <v>5.12</v>
+      </c>
+      <c r="AC4" s="66">
+        <v>0.3989</v>
+      </c>
+      <c r="AD4" s="66">
+        <v>0.0213</v>
+      </c>
+      <c r="AE4" s="66">
+        <v>0.0803</v>
+      </c>
+      <c r="AF4" s="66">
+        <v>0.1427</v>
+      </c>
+      <c r="AG4" s="66">
+        <v>-0.0694</v>
+      </c>
+      <c r="AH4" s="66">
+        <v>2.3883</v>
+      </c>
+      <c r="AI4" s="66">
+        <v>2.8798</v>
+      </c>
+      <c r="AJ4" s="67">
+        <v>3.4657</v>
+      </c>
+      <c r="AK4" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL4" s="70">
+        <f>(AC4+AD4+AE4+AF4)/4</f>
+        <v>0.1608</v>
+      </c>
+      <c r="AM4" s="61">
+        <f t="shared" ref="AM4:AM7" si="0">(AG4+AH4+AI4+AJ4)/4</f>
+        <v>2.1661</v>
+      </c>
+      <c r="AN4" s="36">
+        <v>13.2586</v>
+      </c>
+      <c r="AO4" s="73">
+        <v>1.8525</v>
+      </c>
+      <c r="AP4" s="73">
+        <v>1.9614</v>
+      </c>
+      <c r="AQ4" s="74">
+        <v>43291</v>
+      </c>
+      <c r="AR4" s="66"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77">
+        <v>1.049</v>
+      </c>
+      <c r="AV4" s="77">
+        <v>0.6011</v>
+      </c>
+      <c r="AW4" s="82">
+        <f>AV4*(1-0.33)</f>
+        <v>0.402737</v>
+      </c>
+      <c r="AX4" s="83">
+        <v>44.64</v>
+      </c>
+      <c r="AY4" s="83">
+        <v>64.54</v>
+      </c>
+      <c r="AZ4" s="83">
+        <v>45.35</v>
+      </c>
+      <c r="BA4" s="83">
+        <f>($AX4+$AY4+$AZ4)/(16+22+23)</f>
+        <v>2.53327868852459</v>
+      </c>
+      <c r="BB4" s="83">
+        <v>1.9962</v>
+      </c>
+      <c r="BC4" s="86">
+        <f>BB4/BA4</f>
+        <v>0.787990681421083</v>
+      </c>
+      <c r="BD4" s="87">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF4" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="35">
         <v>10.35</v>
       </c>
-      <c r="H4" s="35">
-        <f>G4/AW4</f>
+      <c r="BK4" s="66">
+        <f>BJ4/AU4</f>
         <v>9.86653956148713</v>
       </c>
-      <c r="I4" s="44">
-        <v>164</v>
-      </c>
-      <c r="J4" s="44">
-        <v>1.8698</v>
-      </c>
-      <c r="K4" s="44">
-        <v>1.7958</v>
-      </c>
-      <c r="L4" s="45">
-        <v>0.27</v>
-      </c>
-      <c r="M4" s="45">
-        <v>0.78</v>
-      </c>
-      <c r="N4" s="45">
-        <v>0.89</v>
-      </c>
-      <c r="O4" s="45">
-        <v>1.08</v>
-      </c>
-      <c r="P4" s="49">
-        <v>0.24</v>
-      </c>
-      <c r="Q4" s="53">
-        <v>0.6</v>
-      </c>
-      <c r="R4" s="53">
-        <v>0.67</v>
-      </c>
-      <c r="S4" s="53">
-        <v>0.62</v>
-      </c>
-      <c r="T4" s="54">
-        <v>0.03</v>
-      </c>
-      <c r="U4" s="54">
-        <v>2.15</v>
-      </c>
-      <c r="V4" s="54">
-        <v>3.82</v>
-      </c>
-      <c r="W4" s="54">
-        <v>6.98</v>
-      </c>
-      <c r="X4" s="56">
-        <f>((P4+Q4+R4+S4)/4-(L4+M4+N4+O4)/4)/((L4+M4+N4+O4)/4)</f>
-        <v>-0.294701986754967</v>
-      </c>
-      <c r="Y4" s="56">
-        <f>((T4+U4+V4+W4)/4-(P4+Q4+R4+S4)/4)/((P4+Q4+R4+S4)/4)</f>
-        <v>5.09389671361502</v>
-      </c>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66">
-        <v>0.2277</v>
-      </c>
-      <c r="AC4" s="66">
-        <v>0.1645</v>
-      </c>
-      <c r="AD4" s="66">
-        <v>5.12</v>
-      </c>
-      <c r="AE4" s="35">
-        <v>0.3989</v>
-      </c>
-      <c r="AF4" s="35">
-        <v>0.0213</v>
-      </c>
-      <c r="AG4" s="35">
-        <v>0.0803</v>
-      </c>
-      <c r="AH4" s="35">
-        <v>0.1427</v>
-      </c>
-      <c r="AI4" s="35">
-        <v>-0.0694</v>
-      </c>
-      <c r="AJ4" s="35">
-        <v>2.3883</v>
-      </c>
-      <c r="AK4" s="35">
-        <v>2.8798</v>
-      </c>
-      <c r="AL4" s="67">
-        <v>3.4657</v>
-      </c>
-      <c r="AM4" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN4" s="69">
-        <f>(AE4+AF4+AG4+AH4)/4</f>
-        <v>0.1608</v>
-      </c>
-      <c r="AO4" s="59">
-        <f t="shared" ref="AO4:AO7" si="0">(AI4+AJ4+AK4+AL4)/4</f>
-        <v>2.1661</v>
-      </c>
-      <c r="AP4" s="44">
-        <v>13.2586</v>
-      </c>
-      <c r="AQ4" s="72">
-        <v>1.8525</v>
-      </c>
-      <c r="AR4" s="72">
-        <v>1.9614</v>
-      </c>
-      <c r="AS4" s="75">
-        <v>43291</v>
-      </c>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76">
-        <v>1.049</v>
-      </c>
-      <c r="AX4" s="76">
-        <v>0.6011</v>
-      </c>
-      <c r="AY4" s="81">
-        <f>AX4*(1-0.33)</f>
-        <v>0.402737</v>
-      </c>
-      <c r="AZ4" s="82">
-        <v>44.64</v>
-      </c>
-      <c r="BA4" s="82">
-        <v>64.54</v>
-      </c>
-      <c r="BB4" s="82">
-        <v>45.35</v>
-      </c>
-      <c r="BC4" s="82">
-        <f>($AZ4+$BA4+$BB4)/(16+22+23)</f>
-        <v>2.53327868852459</v>
-      </c>
-      <c r="BD4" s="82">
-        <v>1.9962</v>
-      </c>
-      <c r="BE4" s="86">
-        <f>BD4/BC4</f>
-        <v>0.787990681421083</v>
-      </c>
-      <c r="BF4" s="87">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="BH4" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
       <c r="BL4" s="87" t="s">
         <v>181</v>
       </c>
@@ -14287,158 +14288,158 @@
       <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="37">
         <v>0.5204</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="38">
         <v>1.87</v>
       </c>
-      <c r="G5" s="37">
-        <v>5.25</v>
-      </c>
-      <c r="H5" s="35">
-        <f>G5/AW5</f>
-        <v>2.25225225225225</v>
-      </c>
-      <c r="I5" s="44">
+      <c r="G5" s="36">
         <v>1.087</v>
       </c>
-      <c r="J5" s="44">
+      <c r="H5" s="36">
         <v>0.7941</v>
       </c>
-      <c r="K5" s="44">
+      <c r="I5" s="36">
         <v>0.6696</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46">
+      <c r="J5" s="46"/>
+      <c r="K5" s="46">
         <v>0.8</v>
       </c>
-      <c r="N5" s="46">
+      <c r="L5" s="46">
         <v>1.31</v>
       </c>
-      <c r="O5" s="50">
+      <c r="M5" s="51">
         <v>1.91</v>
       </c>
-      <c r="P5" s="50">
+      <c r="N5" s="51">
         <v>0.29</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="O5" s="51">
         <v>0.85</v>
       </c>
-      <c r="R5" s="50">
+      <c r="P5" s="51">
         <v>1.38</v>
       </c>
-      <c r="S5" s="50">
+      <c r="Q5" s="51">
         <v>1.92</v>
       </c>
-      <c r="T5" s="50">
+      <c r="R5" s="51">
         <v>0.23</v>
       </c>
-      <c r="U5" s="50">
+      <c r="S5" s="51">
         <v>0.68</v>
       </c>
-      <c r="V5" s="50">
+      <c r="T5" s="51">
         <v>1.12</v>
       </c>
+      <c r="U5" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="V5" s="60" t="s">
+        <v>178</v>
+      </c>
       <c r="W5" s="57">
-        <v>1.8</v>
-      </c>
-      <c r="X5" s="58" t="s">
+        <f>((R5+S5+T5+U5)/4-(N5+O5+P5+Q5)/4)/((N5+O5+P5+Q5)/4)</f>
+        <v>-0.137387387387387</v>
+      </c>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40">
+        <v>-0.0412</v>
+      </c>
+      <c r="AE5" s="40">
+        <v>-0.0395</v>
+      </c>
+      <c r="AF5" s="40">
+        <v>-0.0053</v>
+      </c>
+      <c r="AG5" s="40">
+        <v>-0.0058</v>
+      </c>
+      <c r="AH5" s="40">
+        <v>0.1478</v>
+      </c>
+      <c r="AI5" s="40">
+        <v>0.2092</v>
+      </c>
+      <c r="AJ5" s="66">
+        <v>0.2964</v>
+      </c>
+      <c r="AK5" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="Y5" s="56">
-        <f>((T5+U5+V5+W5)/4-(P5+Q5+R5+S5)/4)/((P5+Q5+R5+S5)/4)</f>
-        <v>-0.137387387387387</v>
-      </c>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39">
-        <v>-0.0412</v>
-      </c>
-      <c r="AG5" s="39">
-        <v>-0.0395</v>
-      </c>
-      <c r="AH5" s="39">
-        <v>-0.0053</v>
-      </c>
-      <c r="AI5" s="39">
-        <v>-0.0058</v>
-      </c>
-      <c r="AJ5" s="39">
-        <v>0.1478</v>
-      </c>
-      <c r="AK5" s="39">
-        <v>0.2092</v>
-      </c>
-      <c r="AL5" s="35">
-        <v>0.2964</v>
-      </c>
-      <c r="AM5" s="68" t="s">
+      <c r="AL5" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="AN5" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO5" s="59">
+      <c r="AM5" s="61">
         <f t="shared" si="0"/>
         <v>0.1619</v>
       </c>
-      <c r="AP5" s="44">
+      <c r="AN5" s="36">
         <v>1.0194</v>
       </c>
-      <c r="AQ5" s="44">
+      <c r="AO5" s="36">
         <v>0.7661</v>
       </c>
-      <c r="AR5" s="44">
+      <c r="AP5" s="36">
         <v>0.6219</v>
       </c>
-      <c r="AS5" s="75">
+      <c r="AQ5" s="74">
         <v>43823</v>
       </c>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="77">
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="78"/>
+      <c r="AU5" s="78">
         <v>2.331</v>
       </c>
-      <c r="AX5" s="77">
+      <c r="AV5" s="78">
         <v>1.118</v>
       </c>
-      <c r="AY5" s="77"/>
-      <c r="AZ5" s="83">
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="84">
         <v>25.37</v>
       </c>
+      <c r="AY5" s="84">
+        <v>48.76</v>
+      </c>
+      <c r="AZ5" s="84">
+        <v>37.72</v>
+      </c>
       <c r="BA5" s="83">
-        <v>48.76</v>
-      </c>
-      <c r="BB5" s="83">
-        <v>37.72</v>
-      </c>
-      <c r="BC5" s="82">
-        <f>($AZ5+$BA5+$BB5)/(16+22+23)</f>
+        <f>($AX5+$AY5+$AZ5)/(16+22+23)</f>
         <v>1.83360655737705</v>
       </c>
-      <c r="BD5" s="83">
+      <c r="BB5" s="84">
         <v>1.8845</v>
       </c>
-      <c r="BE5" s="86">
-        <f>BD5/BC5</f>
+      <c r="BC5" s="86">
+        <f>BB5/BA5</f>
         <v>1.02775592311131</v>
       </c>
-      <c r="BF5" s="28">
+      <c r="BD5" s="28">
         <v>21</v>
       </c>
-      <c r="BG5" s="88" t="s">
+      <c r="BE5" s="88" t="s">
         <v>183</v>
       </c>
+      <c r="BF5" s="28"/>
+      <c r="BG5" s="28"/>
       <c r="BH5" s="28"/>
       <c r="BI5" s="28"/>
-      <c r="BJ5" s="28"/>
-      <c r="BK5" s="28"/>
+      <c r="BJ5" s="38">
+        <v>5.25</v>
+      </c>
+      <c r="BK5" s="66">
+        <f>BJ5/AU5</f>
+        <v>2.25225225225225</v>
+      </c>
       <c r="BL5" s="28"/>
       <c r="BM5" s="28"/>
     </row>
@@ -14455,158 +14456,158 @@
       <c r="D6" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="37">
         <v>0.1782</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="39">
         <v>2.16</v>
       </c>
-      <c r="G6" s="38">
-        <v>2.75</v>
-      </c>
-      <c r="H6" s="35">
-        <f>G6/AW6</f>
-        <v>2.11375864719447</v>
-      </c>
-      <c r="I6" s="44">
+      <c r="G6" s="36">
         <v>1.9227</v>
       </c>
-      <c r="J6" s="44">
+      <c r="H6" s="36">
         <v>1.5284</v>
       </c>
-      <c r="K6" s="44">
+      <c r="I6" s="36">
         <v>1.4696</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46">
+      <c r="J6" s="46"/>
+      <c r="K6" s="46">
         <v>1.84</v>
       </c>
-      <c r="N6" s="46">
+      <c r="L6" s="46">
         <v>2.95</v>
       </c>
-      <c r="O6" s="50">
+      <c r="M6" s="51">
         <v>3.54</v>
       </c>
-      <c r="P6" s="50">
+      <c r="N6" s="51">
         <v>0.64</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="O6" s="51">
         <v>0.92</v>
       </c>
-      <c r="R6" s="50">
+      <c r="P6" s="51">
         <v>1.15</v>
       </c>
-      <c r="S6" s="50">
+      <c r="Q6" s="51">
         <v>1.22</v>
       </c>
-      <c r="T6" s="50">
+      <c r="R6" s="51">
         <v>0.22</v>
       </c>
-      <c r="U6" s="50">
+      <c r="S6" s="51">
         <v>0.55</v>
       </c>
-      <c r="V6" s="50">
+      <c r="T6" s="51">
         <v>0.87</v>
       </c>
+      <c r="U6" s="59">
+        <v>1.24</v>
+      </c>
+      <c r="V6" s="60" t="s">
+        <v>178</v>
+      </c>
       <c r="W6" s="57">
-        <v>1.24</v>
-      </c>
-      <c r="X6" s="58" t="s">
+        <f>((R6+S6+T6+U6)/4-(N6+O6+P6+Q6)/4)/((N6+O6+P6+Q6)/4)</f>
+        <v>-0.267175572519084</v>
+      </c>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40">
+        <v>-0.0797</v>
+      </c>
+      <c r="AE6" s="40">
+        <v>-0.1393</v>
+      </c>
+      <c r="AF6" s="40">
+        <v>-0.1248</v>
+      </c>
+      <c r="AG6" s="40">
+        <v>-0.1395</v>
+      </c>
+      <c r="AH6" s="40">
+        <v>-0.1186</v>
+      </c>
+      <c r="AI6" s="40">
+        <v>-0.0353</v>
+      </c>
+      <c r="AJ6" s="66">
+        <v>0.0498</v>
+      </c>
+      <c r="AK6" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="Y6" s="56">
-        <f>((T6+U6+V6+W6)/4-(P6+Q6+R6+S6)/4)/((P6+Q6+R6+S6)/4)</f>
-        <v>-0.267175572519084</v>
-      </c>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39">
-        <v>-0.0797</v>
-      </c>
-      <c r="AG6" s="39">
-        <v>-0.1393</v>
-      </c>
-      <c r="AH6" s="39">
-        <v>-0.1248</v>
-      </c>
-      <c r="AI6" s="39">
-        <v>-0.1395</v>
-      </c>
-      <c r="AJ6" s="39">
-        <v>-0.1186</v>
-      </c>
-      <c r="AK6" s="39">
-        <v>-0.0353</v>
-      </c>
-      <c r="AL6" s="35">
-        <v>0.0498</v>
-      </c>
-      <c r="AM6" s="68" t="s">
+      <c r="AL6" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="AN6" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO6" s="59">
+      <c r="AM6" s="61">
         <f t="shared" si="0"/>
         <v>-0.0609</v>
       </c>
-      <c r="AP6" s="44">
+      <c r="AN6" s="36">
         <v>0.6159</v>
       </c>
-      <c r="AQ6" s="72">
+      <c r="AO6" s="73">
         <v>0.6243</v>
       </c>
-      <c r="AR6" s="72">
+      <c r="AP6" s="73">
         <v>0.7363</v>
       </c>
-      <c r="AS6" s="75">
+      <c r="AQ6" s="74">
         <v>43636</v>
       </c>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="77"/>
-      <c r="AV6" s="77"/>
-      <c r="AW6" s="77">
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="78"/>
+      <c r="AU6" s="78">
         <v>1.301</v>
       </c>
-      <c r="AX6" s="77">
+      <c r="AV6" s="78">
         <v>0.457</v>
       </c>
-      <c r="AY6" s="77"/>
-      <c r="AZ6" s="83">
+      <c r="AW6" s="78"/>
+      <c r="AX6" s="84">
         <v>40.41</v>
       </c>
+      <c r="AY6" s="84">
+        <v>40.24</v>
+      </c>
+      <c r="AZ6" s="84">
+        <v>70.51</v>
+      </c>
       <c r="BA6" s="83">
-        <v>40.24</v>
-      </c>
-      <c r="BB6" s="83">
-        <v>70.51</v>
-      </c>
-      <c r="BC6" s="82">
-        <f>($AZ6+$BA6+$BB6)/(16+22+23)</f>
+        <f>($AX6+$AY6+$AZ6)/(16+22+23)</f>
         <v>2.47803278688525</v>
       </c>
-      <c r="BD6" s="83">
+      <c r="BB6" s="84">
         <v>2.2217</v>
       </c>
-      <c r="BE6" s="86">
-        <f>BD6/BC6</f>
+      <c r="BC6" s="86">
+        <f>BB6/BA6</f>
         <v>0.896557951839111</v>
       </c>
-      <c r="BF6" s="28">
+      <c r="BD6" s="28">
         <v>3</v>
       </c>
-      <c r="BG6" s="88" t="s">
+      <c r="BE6" s="88" t="s">
         <v>185</v>
       </c>
+      <c r="BF6" s="28"/>
+      <c r="BG6" s="28"/>
       <c r="BH6" s="28"/>
       <c r="BI6" s="28"/>
-      <c r="BJ6" s="28"/>
-      <c r="BK6" s="28"/>
+      <c r="BJ6" s="39">
+        <v>2.75</v>
+      </c>
+      <c r="BK6" s="66">
+        <f>BJ6/AU6</f>
+        <v>2.11375864719447</v>
+      </c>
       <c r="BL6" s="28"/>
       <c r="BM6" s="28"/>
     </row>
@@ -14623,173 +14624,173 @@
       <c r="D7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="37">
         <v>0.5536</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="39">
         <v>1.08</v>
       </c>
-      <c r="G7" s="38">
-        <v>4.38</v>
-      </c>
-      <c r="H7" s="35">
-        <f>G7/AW7</f>
-        <v>1.07775590551181</v>
-      </c>
-      <c r="I7" s="44">
+      <c r="G7" s="36">
         <v>3.5</v>
       </c>
-      <c r="J7" s="44">
+      <c r="H7" s="36">
         <v>1.5313</v>
       </c>
-      <c r="K7" s="44">
+      <c r="I7" s="36">
         <v>1.0769</v>
       </c>
-      <c r="L7" s="47">
+      <c r="J7" s="47">
         <v>0.07</v>
       </c>
-      <c r="M7" s="47">
+      <c r="K7" s="47">
         <v>0.14</v>
       </c>
-      <c r="N7" s="51">
+      <c r="L7" s="48">
         <v>0.38</v>
       </c>
-      <c r="O7" s="52">
+      <c r="M7" s="52">
         <v>0.06</v>
       </c>
+      <c r="N7" s="46">
+        <v>1.38</v>
+      </c>
+      <c r="O7" s="46">
+        <v>1.71</v>
+      </c>
       <c r="P7" s="46">
-        <v>1.38</v>
-      </c>
-      <c r="Q7" s="46">
-        <v>1.71</v>
-      </c>
-      <c r="R7" s="46">
         <v>1.97</v>
       </c>
-      <c r="S7" s="50">
+      <c r="Q7" s="51">
         <v>2.12</v>
       </c>
-      <c r="T7" s="50">
+      <c r="R7" s="51">
         <v>0.08</v>
       </c>
-      <c r="U7" s="50">
+      <c r="S7" s="51">
         <v>0.32</v>
       </c>
-      <c r="V7" s="50">
+      <c r="T7" s="51">
         <v>0.52</v>
       </c>
-      <c r="W7" s="50">
+      <c r="U7" s="51">
         <v>0.58</v>
       </c>
-      <c r="X7" s="56">
-        <f>((P7+Q7+R7+S7)/4-(L7+M7+N7+O7)/4)/((L7+M7+N7+O7)/4)</f>
+      <c r="V7" s="57">
+        <f>((N7+O7+P7+Q7)/4-(J7+K7+L7+M7)/4)/((J7+K7+L7+M7)/4)</f>
         <v>10.0461538461538</v>
       </c>
-      <c r="Y7" s="56">
-        <f>((T7+U7+V7+W7)/4-(P7+Q7+R7+S7)/4)/((P7+Q7+R7+S7)/4)</f>
+      <c r="W7" s="57">
+        <f>((R7+S7+T7+U7)/4-(N7+O7+P7+Q7)/4)/((N7+O7+P7+Q7)/4)</f>
         <v>-0.79108635097493</v>
       </c>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="35">
+      <c r="X7" s="58"/>
+      <c r="Y7" s="66">
         <v>-0.0763</v>
       </c>
-      <c r="AB7" s="35">
+      <c r="Z7" s="66">
         <v>0.0339</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AA7" s="66">
         <v>0.0737</v>
       </c>
-      <c r="AD7" s="39">
+      <c r="AB7" s="40">
         <v>0.0591</v>
       </c>
-      <c r="AE7" s="39">
+      <c r="AC7" s="40">
         <v>0.1517</v>
       </c>
-      <c r="AF7" s="39">
+      <c r="AD7" s="40">
         <v>-0.1101</v>
       </c>
-      <c r="AG7" s="39">
+      <c r="AE7" s="40">
         <v>-0.1848</v>
       </c>
-      <c r="AH7" s="39">
+      <c r="AF7" s="40">
         <v>-0.1896</v>
       </c>
-      <c r="AI7" s="39">
+      <c r="AG7" s="40">
         <v>-0.1942</v>
       </c>
-      <c r="AJ7" s="35">
+      <c r="AH7" s="66">
         <v>-0.0575</v>
       </c>
-      <c r="AK7" s="35">
+      <c r="AI7" s="66">
         <v>0.0937</v>
       </c>
+      <c r="AJ7" s="68">
+        <v>0.1023</v>
+      </c>
+      <c r="AK7" s="71">
+        <f>(Y7+Z7+AA7+AB7)/4</f>
+        <v>0.0226</v>
+      </c>
       <c r="AL7" s="70">
-        <v>0.1023</v>
-      </c>
-      <c r="AM7" s="71">
-        <f>(AA7+AB7+AC7+AD7)/4</f>
-        <v>0.0226</v>
-      </c>
-      <c r="AN7" s="69">
-        <f>(AE7+AF7+AG7+AH7)/4</f>
+        <f>(AC7+AD7+AE7+AF7)/4</f>
         <v>-0.0832</v>
       </c>
-      <c r="AO7" s="59">
+      <c r="AM7" s="61">
         <f t="shared" si="0"/>
         <v>-0.013925</v>
       </c>
-      <c r="AP7" s="44">
+      <c r="AN7" s="36">
         <v>0.5478</v>
       </c>
-      <c r="AQ7" s="44">
+      <c r="AO7" s="36">
         <v>0.2848</v>
       </c>
-      <c r="AR7" s="44">
+      <c r="AP7" s="36">
         <v>0.1434</v>
       </c>
-      <c r="AS7" s="75">
+      <c r="AQ7" s="74">
         <v>37526</v>
       </c>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="77"/>
-      <c r="AW7" s="77">
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78">
         <v>4.064</v>
       </c>
-      <c r="AX7" s="77">
+      <c r="AV7" s="78">
         <v>4.035</v>
       </c>
-      <c r="AY7" s="77"/>
-      <c r="AZ7" s="83">
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="84">
         <v>150.3</v>
       </c>
+      <c r="AY7" s="84">
+        <v>317.7</v>
+      </c>
+      <c r="AZ7" s="84">
+        <v>340.8</v>
+      </c>
       <c r="BA7" s="83">
-        <v>317.7</v>
-      </c>
-      <c r="BB7" s="83">
-        <v>340.8</v>
-      </c>
-      <c r="BC7" s="82">
-        <f>($AZ7+$BA7+$BB7)/(16+22+23)</f>
+        <f>($AX7+$AY7+$AZ7)/(16+22+23)</f>
         <v>13.2590163934426</v>
       </c>
-      <c r="BD7" s="83">
+      <c r="BB7" s="84">
         <v>10.75</v>
       </c>
-      <c r="BE7" s="86">
-        <f>BD7/BC7</f>
+      <c r="BC7" s="86">
+        <f>BB7/BA7</f>
         <v>0.810769040553907</v>
       </c>
-      <c r="BF7" s="28">
+      <c r="BD7" s="28">
         <v>18</v>
       </c>
-      <c r="BG7" s="88" t="s">
+      <c r="BE7" s="88" t="s">
         <v>187</v>
       </c>
+      <c r="BF7" s="28"/>
+      <c r="BG7" s="28"/>
       <c r="BH7" s="28"/>
       <c r="BI7" s="28"/>
-      <c r="BJ7" s="28"/>
-      <c r="BK7" s="28"/>
+      <c r="BJ7" s="39">
+        <v>4.38</v>
+      </c>
+      <c r="BK7" s="66">
+        <f>BJ7/AU7</f>
+        <v>1.07775590551181</v>
+      </c>
       <c r="BL7" s="28"/>
       <c r="BM7" s="28"/>
     </row>
@@ -14798,65 +14799,65 @@
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="75"/>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="77"/>
-      <c r="AZ8" s="83"/>
-      <c r="BA8" s="83"/>
-      <c r="BB8" s="83"/>
-      <c r="BC8" s="83"/>
-      <c r="BD8" s="83"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="61"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="84"/>
+      <c r="AY8" s="84"/>
+      <c r="AZ8" s="84"/>
+      <c r="BA8" s="84"/>
+      <c r="BB8" s="84"/>
+      <c r="BC8" s="28"/>
+      <c r="BD8" s="28"/>
       <c r="BE8" s="28"/>
       <c r="BF8" s="28"/>
       <c r="BG8" s="28"/>
       <c r="BH8" s="28"/>
       <c r="BI8" s="28"/>
-      <c r="BJ8" s="28"/>
-      <c r="BK8" s="28"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="66"/>
       <c r="BL8" s="28"/>
       <c r="BM8" s="28"/>
     </row>
@@ -14865,65 +14866,65 @@
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="35"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="77"/>
-      <c r="AY9" s="77"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="58"/>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="84"/>
+      <c r="AY9" s="84"/>
+      <c r="AZ9" s="84"/>
+      <c r="BA9" s="84"/>
+      <c r="BB9" s="84"/>
+      <c r="BC9" s="28"/>
+      <c r="BD9" s="28"/>
       <c r="BE9" s="28"/>
       <c r="BF9" s="28"/>
       <c r="BG9" s="28"/>
       <c r="BH9" s="28"/>
       <c r="BI9" s="28"/>
-      <c r="BJ9" s="28"/>
-      <c r="BK9" s="28"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="66"/>
       <c r="BL9" s="28"/>
       <c r="BM9" s="28"/>
     </row>
@@ -14932,65 +14933,65 @@
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="35"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="77"/>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="28"/>
+      <c r="BD10" s="28"/>
       <c r="BE10" s="28"/>
       <c r="BF10" s="28"/>
       <c r="BG10" s="28"/>
       <c r="BH10" s="28"/>
       <c r="BI10" s="28"/>
-      <c r="BJ10" s="28"/>
-      <c r="BK10" s="28"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="66"/>
       <c r="BL10" s="28"/>
       <c r="BM10" s="28"/>
     </row>
@@ -14999,65 +15000,65 @@
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
       <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="75"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="77"/>
-      <c r="AV11" s="77"/>
-      <c r="AW11" s="77"/>
-      <c r="AX11" s="77"/>
-      <c r="AY11" s="77"/>
-      <c r="AZ11" s="83"/>
-      <c r="BA11" s="83"/>
-      <c r="BB11" s="83"/>
-      <c r="BC11" s="83"/>
-      <c r="BD11" s="83"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="84"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="84"/>
+      <c r="BA11" s="84"/>
+      <c r="BB11" s="84"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="28"/>
       <c r="BE11" s="28"/>
       <c r="BF11" s="28"/>
       <c r="BG11" s="28"/>
       <c r="BH11" s="28"/>
       <c r="BI11" s="28"/>
-      <c r="BJ11" s="28"/>
-      <c r="BK11" s="28"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="66"/>
       <c r="BL11" s="28"/>
       <c r="BM11" s="28"/>
     </row>
@@ -15066,65 +15067,65 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="75"/>
-      <c r="AT12" s="35"/>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="77"/>
-      <c r="AW12" s="77"/>
-      <c r="AX12" s="77"/>
-      <c r="AY12" s="77"/>
-      <c r="AZ12" s="83"/>
-      <c r="BA12" s="83"/>
-      <c r="BB12" s="83"/>
-      <c r="BC12" s="83"/>
-      <c r="BD12" s="83"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="61"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="78"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="78"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="84"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="28"/>
+      <c r="BD12" s="28"/>
       <c r="BE12" s="28"/>
       <c r="BF12" s="28"/>
       <c r="BG12" s="28"/>
       <c r="BH12" s="28"/>
       <c r="BI12" s="28"/>
-      <c r="BJ12" s="28"/>
-      <c r="BK12" s="28"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="66"/>
       <c r="BL12" s="28"/>
       <c r="BM12" s="28"/>
     </row>
@@ -15133,28 +15134,28 @@
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="I1:Z1"/>
-    <mergeCell ref="AA1:AR1"/>
-    <mergeCell ref="AW1:BE1"/>
+    <mergeCell ref="G1:X1"/>
+    <mergeCell ref="Y1:AP1"/>
+    <mergeCell ref="AU1:BC1"/>
     <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:Z2"/>
-    <mergeCell ref="AA2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:X2"/>
+    <mergeCell ref="Y2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
     <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
     <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="AS1:AV2"/>
-    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="BJ1:BK2"/>
+    <mergeCell ref="AQ1:AT2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>工业金属</t>
   </si>
@@ -1419,6 +1419,90 @@
   </si>
   <si>
     <t>JBM_000005</t>
+  </si>
+  <si>
+    <t>JBM_000006</t>
+  </si>
+  <si>
+    <t>JBM_000007</t>
+  </si>
+  <si>
+    <r>
+      <t>先变多再变少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>124</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家再到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2455,6 +2539,9 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2517,9 +2604,6 @@
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6857,7 +6941,7 @@
         <v>0.0918367346938776</v>
       </c>
       <c r="AQ7" s="215"/>
-      <c r="AR7" s="63"/>
+      <c r="AR7" s="42"/>
       <c r="AS7" s="192"/>
       <c r="AT7" s="106" t="s">
         <v>75</v>
@@ -13678,11 +13762,11 @@
   <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -13785,50 +13869,50 @@
       <c r="V1" s="32"/>
       <c r="W1" s="32"/>
       <c r="X1" s="32"/>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
       <c r="AQ1" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
       <c r="AU1" s="73" t="s">
         <v>137</v>
       </c>
       <c r="AV1" s="73"/>
       <c r="AW1" s="73"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="30"/>
-      <c r="BG1" s="30"/>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="30"/>
-      <c r="BJ1" s="42" t="s">
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="43" t="s">
         <v>138</v>
       </c>
       <c r="BK1" s="32"/>
@@ -13850,49 +13934,49 @@
       </c>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="52"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="53"/>
       <c r="Y2" s="33" t="s">
         <v>141</v>
       </c>
       <c r="Z2" s="34"/>
       <c r="AA2" s="34"/>
-      <c r="AB2" s="61" t="s">
+      <c r="AB2" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
       <c r="AQ2" s="70"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
       <c r="AU2" s="74" t="s">
         <v>143</v>
       </c>
@@ -13941,49 +14025,49 @@
       <c r="I3" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="N3" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="S3" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="T3" s="43" t="s">
+      <c r="T3" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="V3" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="W3" s="54" t="s">
+      <c r="W3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="55" t="s">
         <v>157</v>
       </c>
       <c r="Y3" s="34" t="s">
@@ -13995,55 +14079,55 @@
       <c r="AA3" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="AB3" s="62" t="s">
+      <c r="AB3" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="62" t="s">
+      <c r="AC3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="AD3" s="60" t="s">
+      <c r="AD3" s="61" t="s">
         <v>153</v>
       </c>
       <c r="AE3" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="AF3" s="62" t="s">
+      <c r="AF3" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="AG3" s="62" t="s">
+      <c r="AG3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="AH3" s="62" t="s">
+      <c r="AH3" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="AI3" s="62" t="s">
+      <c r="AI3" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="AJ3" s="62" t="s">
+      <c r="AJ3" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="AK3" s="62" t="s">
+      <c r="AK3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="AL3" s="62" t="s">
+      <c r="AL3" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="AM3" s="62" t="s">
+      <c r="AM3" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="AN3" s="53" t="s">
+      <c r="AN3" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="AO3" s="54" t="s">
+      <c r="AO3" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="AP3" s="54" t="s">
+      <c r="AP3" s="55" t="s">
         <v>160</v>
       </c>
       <c r="AQ3" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="AR3" s="61" t="s">
+      <c r="AR3" s="62" t="s">
         <v>162</v>
       </c>
       <c r="AS3" s="74" t="s">
@@ -14061,7 +14145,7 @@
       <c r="AY3" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="AZ3" s="42" t="s">
+      <c r="AZ3" s="43" t="s">
         <v>150</v>
       </c>
       <c r="BA3" s="79" t="s">
@@ -14128,58 +14212,58 @@
       <c r="I4" s="37">
         <v>1.7958</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="46">
         <v>0.27</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="46">
         <v>0.78</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="46">
         <v>0.89</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="46">
         <v>1.08</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="49">
         <v>0.24</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="50">
         <v>0.6</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="50">
         <v>0.67</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="50">
         <v>0.62</v>
       </c>
-      <c r="R4" s="51">
+      <c r="R4" s="52">
         <v>0.03</v>
       </c>
-      <c r="S4" s="51">
+      <c r="S4" s="52">
         <v>2.15</v>
       </c>
-      <c r="T4" s="51">
+      <c r="T4" s="52">
         <v>3.82</v>
       </c>
-      <c r="U4" s="51">
+      <c r="U4" s="52">
         <v>6.98</v>
       </c>
-      <c r="V4" s="55">
+      <c r="V4" s="56">
         <f>((N4+O4+P4+Q4)/4-(J4+K4+L4+M4)/4)/((J4+K4+L4+M4)/4)</f>
         <v>-0.294701986754967</v>
       </c>
-      <c r="W4" s="55">
+      <c r="W4" s="56">
         <f>((R4+S4+T4+U4)/4-(N4+O4+P4+Q4)/4)/((N4+O4+P4+Q4)/4)</f>
         <v>5.09389671361502</v>
       </c>
-      <c r="X4" s="56"/>
+      <c r="X4" s="57"/>
       <c r="Y4" s="37">
         <v>13.2586</v>
       </c>
-      <c r="Z4" s="63">
+      <c r="Z4" s="42">
         <v>1.8525</v>
       </c>
-      <c r="AA4" s="63">
+      <c r="AA4" s="42">
         <v>1.9614</v>
       </c>
       <c r="AB4" s="64"/>
@@ -14223,7 +14307,7 @@
         <f>(AF4+AG4+AH4+AI4)/4</f>
         <v>0.1608</v>
       </c>
-      <c r="AP4" s="59">
+      <c r="AP4" s="60">
         <f t="shared" ref="AP4:AP7" si="0">(AJ4+AK4+AL4+AM4)/4</f>
         <v>2.1661</v>
       </c>
@@ -14315,48 +14399,48 @@
       <c r="I5" s="37">
         <v>0.6696</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47">
         <v>0.8</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="47">
         <v>1.31</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="51">
         <v>1.91</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="51">
         <v>0.29</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="51">
         <v>0.85</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P5" s="51">
         <v>1.38</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="Q5" s="51">
         <v>1.92</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="51">
         <v>0.23</v>
       </c>
-      <c r="S5" s="50">
+      <c r="S5" s="51">
         <v>0.68</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5" s="51">
         <v>1.12</v>
       </c>
-      <c r="U5" s="57">
+      <c r="U5" s="58">
         <v>1.8</v>
       </c>
-      <c r="V5" s="58" t="s">
+      <c r="V5" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="W5" s="55">
+      <c r="W5" s="56">
         <f>((R5+S5+T5+U5)/4-(N5+O5+P5+Q5)/4)/((N5+O5+P5+Q5)/4)</f>
         <v>-0.137387387387387</v>
       </c>
-      <c r="X5" s="56"/>
+      <c r="X5" s="57"/>
       <c r="Y5" s="37">
         <v>1.0194</v>
       </c>
@@ -14398,7 +14482,7 @@
       <c r="AO5" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="AP5" s="59">
+      <c r="AP5" s="60">
         <f t="shared" si="0"/>
         <v>0.1619</v>
       </c>
@@ -14449,7 +14533,7 @@
         <v>5.25</v>
       </c>
       <c r="BK5" s="65">
-        <f>BJ5/AU5</f>
+        <f t="shared" ref="BK5:BK10" si="1">BJ5/AU5</f>
         <v>2.25225225225225</v>
       </c>
       <c r="BL5" s="29"/>
@@ -14483,55 +14567,55 @@
       <c r="I6" s="37">
         <v>1.4696</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46">
+      <c r="J6" s="47"/>
+      <c r="K6" s="47">
         <v>1.84</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="47">
         <v>2.95</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="51">
         <v>3.54</v>
       </c>
-      <c r="N6" s="50">
+      <c r="N6" s="51">
         <v>0.64</v>
       </c>
-      <c r="O6" s="50">
+      <c r="O6" s="51">
         <v>0.92</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="51">
         <v>1.15</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="51">
         <v>1.22</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="51">
         <v>0.22</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="51">
         <v>0.55</v>
       </c>
-      <c r="T6" s="50">
+      <c r="T6" s="51">
         <v>0.87</v>
       </c>
-      <c r="U6" s="57">
+      <c r="U6" s="58">
         <v>1.24</v>
       </c>
-      <c r="V6" s="58" t="s">
+      <c r="V6" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="W6" s="55">
+      <c r="W6" s="56">
         <f>((R6+S6+T6+U6)/4-(N6+O6+P6+Q6)/4)/((N6+O6+P6+Q6)/4)</f>
         <v>-0.267175572519084</v>
       </c>
-      <c r="X6" s="56"/>
+      <c r="X6" s="57"/>
       <c r="Y6" s="37">
         <v>0.6159</v>
       </c>
-      <c r="Z6" s="63">
+      <c r="Z6" s="42">
         <v>0.6243</v>
       </c>
-      <c r="AA6" s="63">
+      <c r="AA6" s="42">
         <v>0.7363</v>
       </c>
       <c r="AB6" s="65"/>
@@ -14566,7 +14650,7 @@
       <c r="AO6" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="AP6" s="59">
+      <c r="AP6" s="60">
         <f t="shared" si="0"/>
         <v>-0.0609</v>
       </c>
@@ -14617,7 +14701,7 @@
         <v>2.75</v>
       </c>
       <c r="BK6" s="65">
-        <f>BJ6/AU6</f>
+        <f t="shared" si="1"/>
         <v>2.11375864719447</v>
       </c>
       <c r="BL6" s="29"/>
@@ -14651,51 +14735,51 @@
       <c r="I7" s="37">
         <v>1.0769</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="48">
         <v>0.07</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="48">
         <v>0.14</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="48">
         <v>0.38</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="50">
         <v>0.06</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="47">
         <v>1.38</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="47">
         <v>1.71</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="47">
         <v>1.97</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="51">
         <v>2.12</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="51">
         <v>0.08</v>
       </c>
-      <c r="S7" s="50">
+      <c r="S7" s="51">
         <v>0.32</v>
       </c>
-      <c r="T7" s="50">
+      <c r="T7" s="51">
         <v>0.52</v>
       </c>
-      <c r="U7" s="50">
+      <c r="U7" s="51">
         <v>0.58</v>
       </c>
-      <c r="V7" s="55">
+      <c r="V7" s="56">
         <f>((N7+O7+P7+Q7)/4-(J7+K7+L7+M7)/4)/((J7+K7+L7+M7)/4)</f>
         <v>10.0461538461538</v>
       </c>
-      <c r="W7" s="55">
+      <c r="W7" s="56">
         <f>((R7+S7+T7+U7)/4-(N7+O7+P7+Q7)/4)/((N7+O7+P7+Q7)/4)</f>
         <v>-0.79108635097493</v>
       </c>
-      <c r="X7" s="56"/>
+      <c r="X7" s="57"/>
       <c r="Y7" s="37">
         <v>0.5478</v>
       </c>
@@ -14749,7 +14833,7 @@
         <f>(AF7+AG7+AH7+AI7)/4</f>
         <v>-0.0832</v>
       </c>
-      <c r="AP7" s="59">
+      <c r="AP7" s="60">
         <f t="shared" si="0"/>
         <v>-0.013925</v>
       </c>
@@ -14800,7 +14884,7 @@
         <v>4.38</v>
       </c>
       <c r="BK7" s="65">
-        <f>BJ7/AU7</f>
+        <f t="shared" si="1"/>
         <v>1.07775590551181</v>
       </c>
       <c r="BL7" s="29"/>
@@ -14834,51 +14918,51 @@
       <c r="I8" s="37">
         <v>0.4103</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="47">
         <v>0.21</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="47">
         <v>0.42</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="47">
         <v>0.61</v>
       </c>
-      <c r="M8" s="50">
+      <c r="M8" s="51">
         <v>0.68</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="51">
         <v>0.26</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="51">
         <v>0.49</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P8" s="51">
         <v>0.79</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="51">
         <v>1.1</v>
       </c>
-      <c r="R8" s="50">
+      <c r="R8" s="51">
         <v>0.16</v>
       </c>
-      <c r="S8" s="50">
+      <c r="S8" s="51">
         <v>0.41</v>
       </c>
-      <c r="T8" s="50">
+      <c r="T8" s="51">
         <v>0.78</v>
       </c>
-      <c r="U8" s="57">
+      <c r="U8" s="58">
         <v>1.29</v>
       </c>
-      <c r="V8" s="55">
+      <c r="V8" s="56">
         <f>((N8+O8+P8+Q8)/4-(J8+K8+L8+M8)/4)/((J8+K8+L8+M8)/4)</f>
         <v>0.375</v>
       </c>
-      <c r="W8" s="55">
+      <c r="W8" s="56">
         <f>((R8+S8+T8+U8)/4-(N8+O8+P8+Q8)/4)/((N8+O8+P8+Q8)/4)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="56"/>
+      <c r="X8" s="57"/>
       <c r="Y8" s="37">
         <v>0.4274</v>
       </c>
@@ -14900,9 +14984,9 @@
       <c r="AK8" s="41"/>
       <c r="AL8" s="41"/>
       <c r="AM8" s="65"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="59"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="60"/>
       <c r="AQ8" s="72">
         <v>43675</v>
       </c>
@@ -14930,33 +15014,87 @@
       <c r="BM8" s="29"/>
     </row>
     <row r="9" spans="1:65">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
+      <c r="A9" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="29">
+        <v>601677</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.3595</v>
+      </c>
+      <c r="F9" s="39">
+        <v>2.053</v>
+      </c>
+      <c r="G9" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1.26</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0.812</v>
+      </c>
+      <c r="J9" s="47">
+        <v>0.23</v>
+      </c>
+      <c r="K9" s="47">
+        <v>0.44</v>
+      </c>
+      <c r="L9" s="47">
+        <v>0.68</v>
+      </c>
+      <c r="M9" s="51">
+        <v>0.84</v>
+      </c>
+      <c r="N9" s="51">
+        <v>0.24</v>
+      </c>
+      <c r="O9" s="51">
+        <v>0.56</v>
+      </c>
+      <c r="P9" s="51">
+        <v>1.17</v>
+      </c>
+      <c r="Q9" s="51">
+        <v>1.52</v>
+      </c>
+      <c r="R9" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="S9" s="51">
+        <v>0.57</v>
+      </c>
+      <c r="T9" s="51">
+        <v>1.17</v>
+      </c>
+      <c r="U9" s="58">
+        <v>1.82</v>
+      </c>
+      <c r="V9" s="56">
+        <f>((N9+O9+P9+Q9)/4-(J9+K9+L9+M9)/4)/((J9+K9+L9+M9)/4)</f>
+        <v>0.593607305936073</v>
+      </c>
+      <c r="W9" s="56">
+        <f>((R9+S9+T9+U9)/4-(N9+O9+P9+Q9)/4)/((N9+O9+P9+Q9)/4)</f>
+        <v>0.0773638968481374</v>
+      </c>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="37">
+        <v>1.0195</v>
+      </c>
+      <c r="Z9" s="42">
+        <v>0.8225</v>
+      </c>
+      <c r="AA9" s="42">
+        <v>0.9382</v>
+      </c>
       <c r="AB9" s="65"/>
       <c r="AC9" s="65"/>
       <c r="AD9" s="65"/>
@@ -14969,10 +15107,12 @@
       <c r="AK9" s="41"/>
       <c r="AL9" s="41"/>
       <c r="AM9" s="65"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="72"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="72">
+        <v>40805</v>
+      </c>
       <c r="AR9" s="65"/>
       <c r="AS9" s="76"/>
       <c r="AT9" s="76"/>
@@ -14996,34 +15136,88 @@
       <c r="BL9" s="29"/>
       <c r="BM9" s="29"/>
     </row>
-    <row r="10" spans="1:65">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
+    <row r="10" ht="45" spans="1:65">
+      <c r="A10" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="29">
+        <v>603599</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.3026</v>
+      </c>
+      <c r="F10" s="39">
+        <v>2.22</v>
+      </c>
+      <c r="G10" s="37">
+        <v>1.44</v>
+      </c>
+      <c r="H10" s="42">
+        <v>1.2295</v>
+      </c>
+      <c r="I10" s="42">
+        <v>1.3617</v>
+      </c>
+      <c r="J10" s="47">
+        <v>0.24</v>
+      </c>
+      <c r="K10" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="47">
+        <v>0.81</v>
+      </c>
+      <c r="M10" s="51">
+        <v>1.01</v>
+      </c>
+      <c r="N10" s="51">
+        <v>0.29</v>
+      </c>
+      <c r="O10" s="51">
+        <v>0.55</v>
+      </c>
+      <c r="P10" s="51">
+        <v>0.89</v>
+      </c>
+      <c r="Q10" s="51">
+        <v>1.09</v>
+      </c>
+      <c r="R10" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="51">
+        <v>0.61</v>
+      </c>
+      <c r="T10" s="51">
+        <v>0.94</v>
+      </c>
+      <c r="U10" s="58">
+        <v>1.27</v>
+      </c>
+      <c r="V10" s="56">
+        <f>((N10+O10+P10+Q10)/4-(J10+K10+L10+M10)/4)/((J10+K10+L10+M10)/4)</f>
+        <v>0.1015625</v>
+      </c>
+      <c r="W10" s="56">
+        <f>((R10+S10+T10+U10)/4-(N10+O10+P10+Q10)/4)/((N10+O10+P10+Q10)/4)</f>
+        <v>0.0886524822695034</v>
+      </c>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="42">
+        <v>0.2394</v>
+      </c>
+      <c r="Z10" s="42">
+        <v>0.7485</v>
+      </c>
+      <c r="AA10" s="42">
+        <v>1.2456</v>
+      </c>
       <c r="AB10" s="65"/>
       <c r="AC10" s="65"/>
       <c r="AD10" s="65"/>
@@ -15036,15 +15230,21 @@
       <c r="AK10" s="41"/>
       <c r="AL10" s="41"/>
       <c r="AM10" s="65"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="72"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="72">
+        <v>42137</v>
+      </c>
       <c r="AR10" s="65"/>
       <c r="AS10" s="76"/>
       <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
+      <c r="AU10" s="76">
+        <v>4.646</v>
+      </c>
+      <c r="AV10" s="76">
+        <v>4.627</v>
+      </c>
       <c r="AW10" s="76"/>
       <c r="AX10" s="82"/>
       <c r="AY10" s="82"/>
@@ -15052,14 +15252,23 @@
       <c r="BA10" s="82"/>
       <c r="BB10" s="82"/>
       <c r="BC10" s="29"/>
-      <c r="BD10" s="29"/>
-      <c r="BE10" s="29"/>
+      <c r="BD10" s="29">
+        <v>17</v>
+      </c>
+      <c r="BE10" s="86" t="s">
+        <v>191</v>
+      </c>
       <c r="BF10" s="29"/>
       <c r="BG10" s="29"/>
       <c r="BH10" s="29"/>
       <c r="BI10" s="29"/>
-      <c r="BJ10" s="39"/>
-      <c r="BK10" s="65"/>
+      <c r="BJ10" s="39">
+        <v>10.33</v>
+      </c>
+      <c r="BK10" s="65">
+        <f t="shared" si="1"/>
+        <v>2.22341799397331</v>
+      </c>
       <c r="BL10" s="29"/>
       <c r="BM10" s="29"/>
     </row>
@@ -15073,21 +15282,21 @@
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="56"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="57"/>
       <c r="Y11" s="37"/>
       <c r="Z11" s="37"/>
       <c r="AA11" s="37"/>
@@ -15103,9 +15312,9 @@
       <c r="AK11" s="41"/>
       <c r="AL11" s="41"/>
       <c r="AM11" s="65"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="56"/>
-      <c r="AP11" s="59"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="60"/>
       <c r="AQ11" s="72"/>
       <c r="AR11" s="65"/>
       <c r="AS11" s="76"/>
@@ -15140,21 +15349,21 @@
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="56"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="57"/>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
@@ -15170,9 +15379,9 @@
       <c r="AK12" s="41"/>
       <c r="AL12" s="41"/>
       <c r="AM12" s="65"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
-      <c r="AP12" s="59"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="60"/>
       <c r="AQ12" s="72"/>
       <c r="AR12" s="65"/>
       <c r="AS12" s="76"/>
@@ -15204,7 +15413,7 @@
   <mergeCells count="22">
     <mergeCell ref="G1:X1"/>
     <mergeCell ref="Y1:AP1"/>
-    <mergeCell ref="AU1:BC1"/>
+    <mergeCell ref="AU1:BI1"/>
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:X2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246">
   <si>
     <t>工业金属</t>
   </si>
@@ -2211,7 +2211,44 @@
     </r>
   </si>
   <si>
+    <t>JBM_000021</t>
+  </si>
+  <si>
     <t>永冠新材</t>
+  </si>
+  <si>
+    <r>
+      <t>先变多再变少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由2家到20家再到18家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>不宜进场
+(利润和销售额增长都出现下滑，机构关注度也出现下滑且股本回报率也不够高)</t>
   </si>
 </sst>
 </file>
@@ -3233,10 +3270,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14567,11 +14604,11 @@
   <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AL18" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24:C24"/>
+      <selection pane="bottomRight" activeCell="BL24" sqref="BL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -17433,20 +17470,34 @@
       <c r="BL23" s="31"/>
       <c r="BM23" s="31"/>
     </row>
-    <row r="24" ht="15" spans="1:65">
-      <c r="A24" s="31"/>
+    <row r="24" ht="72" spans="1:65">
+      <c r="A24" s="24" t="s">
+        <v>242</v>
+      </c>
       <c r="B24" s="26">
         <v>603681</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
+        <v>243</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0.4771</v>
+      </c>
+      <c r="F24" s="51">
+        <v>1.17</v>
+      </c>
+      <c r="G24" s="52">
+        <v>2.2727</v>
+      </c>
+      <c r="H24" s="52">
+        <v>0.9268</v>
+      </c>
+      <c r="I24" s="52">
+        <v>0.4096</v>
+      </c>
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
       <c r="L24" s="61"/>
@@ -17462,9 +17513,15 @@
       <c r="V24" s="76"/>
       <c r="W24" s="76"/>
       <c r="X24" s="77"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
+      <c r="Y24" s="52">
+        <v>0.6575</v>
+      </c>
+      <c r="Z24" s="52">
+        <v>0.6401</v>
+      </c>
+      <c r="AA24" s="52">
+        <v>0.6247</v>
+      </c>
       <c r="AB24" s="83"/>
       <c r="AC24" s="83"/>
       <c r="AD24" s="83"/>
@@ -17480,12 +17537,18 @@
       <c r="AN24" s="77"/>
       <c r="AO24" s="77"/>
       <c r="AP24" s="76"/>
-      <c r="AQ24" s="92"/>
+      <c r="AQ24" s="92">
+        <v>43550</v>
+      </c>
       <c r="AR24" s="83"/>
       <c r="AS24" s="97"/>
       <c r="AT24" s="97"/>
-      <c r="AU24" s="98"/>
-      <c r="AV24" s="98"/>
+      <c r="AU24" s="98">
+        <v>1.911</v>
+      </c>
+      <c r="AV24" s="98">
+        <v>0.862</v>
+      </c>
       <c r="AW24" s="98"/>
       <c r="AX24" s="105"/>
       <c r="AY24" s="105"/>
@@ -17493,22 +17556,33 @@
       <c r="BA24" s="105"/>
       <c r="BB24" s="105"/>
       <c r="BC24" s="31"/>
-      <c r="BD24" s="31"/>
-      <c r="BE24" s="31"/>
+      <c r="BD24" s="31">
+        <v>18</v>
+      </c>
+      <c r="BE24" s="113" t="s">
+        <v>244</v>
+      </c>
       <c r="BF24" s="31"/>
       <c r="BG24" s="31"/>
       <c r="BH24" s="31"/>
       <c r="BI24" s="31"/>
-      <c r="BJ24" s="51"/>
-      <c r="BK24" s="83"/>
-      <c r="BL24" s="31"/>
+      <c r="BJ24" s="51">
+        <v>1.94</v>
+      </c>
+      <c r="BK24" s="82">
+        <f>BJ24/AU24</f>
+        <v>1.01517530088959</v>
+      </c>
+      <c r="BL24" s="113" t="s">
+        <v>245</v>
+      </c>
       <c r="BM24" s="31"/>
     </row>
     <row r="25" spans="1:65">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
       <c r="G25" s="52"/>
@@ -17574,8 +17648,8 @@
     <row r="26" spans="1:65">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
       <c r="G26" s="52"/>
@@ -17641,8 +17715,8 @@
     <row r="27" spans="1:65">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="50"/>
       <c r="F27" s="51"/>
       <c r="G27" s="52"/>
@@ -17708,8 +17782,8 @@
     <row r="28" spans="1:65">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="50"/>
       <c r="F28" s="51"/>
       <c r="G28" s="52"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281">
   <si>
     <t>工业金属</t>
   </si>
@@ -1326,6 +1326,68 @@
         <charset val="134"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>持续减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35.79%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22.83%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再减少到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19.88%)</t>
     </r>
   </si>
   <si>
@@ -15055,11 +15117,11 @@
   <dimension ref="A1:BQ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BC4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="BB4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BF4" sqref="BF4"/>
+      <selection pane="bottomRight" activeCell="BF6" sqref="BF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -15673,7 +15735,7 @@
       </c>
       <c r="BN4" s="123"/>
     </row>
-    <row r="5" ht="45" spans="1:66">
+    <row r="5" ht="60" spans="1:66">
       <c r="A5" s="23" t="s">
         <v>184</v>
       </c>
@@ -15827,7 +15889,9 @@
       <c r="BE5" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="BF5" s="29"/>
+      <c r="BF5" s="126" t="s">
+        <v>186</v>
+      </c>
       <c r="BG5" s="29"/>
       <c r="BH5" s="29"/>
       <c r="BI5" s="29"/>
@@ -15844,7 +15908,7 @@
     </row>
     <row r="6" ht="30" spans="1:66">
       <c r="A6" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B6" s="25">
         <v>603217</v>
@@ -15994,7 +16058,7 @@
         <v>3</v>
       </c>
       <c r="BE6" s="123" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BF6" s="29"/>
       <c r="BG6" s="29"/>
@@ -16013,7 +16077,7 @@
     </row>
     <row r="7" ht="44" spans="1:66">
       <c r="A7" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" s="25">
         <v>600587</v>
@@ -16178,7 +16242,7 @@
         <v>18</v>
       </c>
       <c r="BE7" s="123" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BF7" s="29"/>
       <c r="BG7" s="29"/>
@@ -16197,7 +16261,7 @@
     </row>
     <row r="8" ht="74" spans="1:66">
       <c r="A8" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B8" s="25">
         <v>603279</v>
@@ -16315,7 +16379,7 @@
         <v>14</v>
       </c>
       <c r="BE8" s="123" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BF8" s="29"/>
       <c r="BG8" s="29"/>
@@ -16330,13 +16394,13 @@
         <v>1.0924981791697</v>
       </c>
       <c r="BM8" s="126" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BN8" s="29"/>
     </row>
     <row r="9" ht="45" spans="1:66">
       <c r="A9" s="23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B9" s="29">
         <v>601677</v>
@@ -16454,7 +16518,7 @@
         <v>104</v>
       </c>
       <c r="BE9" s="123" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BF9" s="29"/>
       <c r="BG9" s="29"/>
@@ -16473,7 +16537,7 @@
     </row>
     <row r="10" ht="88" spans="1:66">
       <c r="A10" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B10" s="29">
         <v>603599</v>
@@ -16591,7 +16655,7 @@
         <v>17</v>
       </c>
       <c r="BE10" s="126" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BF10" s="29"/>
       <c r="BG10" s="29"/>
@@ -16606,22 +16670,22 @@
         <v>2.22341799397331</v>
       </c>
       <c r="BM10" s="126" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BN10" s="29"/>
     </row>
     <row r="11" ht="44" spans="1:66">
       <c r="A11" s="23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B11" s="335" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E11" s="50">
         <v>0.3829</v>
@@ -16700,7 +16764,7 @@
         <v>1</v>
       </c>
       <c r="BE11" s="126" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BF11" s="29"/>
       <c r="BG11" s="29"/>
@@ -16719,16 +16783,16 @@
     </row>
     <row r="12" ht="45" spans="1:66">
       <c r="A12" s="23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B12" s="335" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E12" s="52">
         <v>0.5848</v>
@@ -16807,7 +16871,7 @@
         <v>13</v>
       </c>
       <c r="BE12" s="126" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BF12" s="29"/>
       <c r="BG12" s="29"/>
@@ -16826,13 +16890,13 @@
     </row>
     <row r="13" ht="45" spans="1:66">
       <c r="A13" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B13" s="30">
         <v>600085</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>1</v>
@@ -16914,7 +16978,7 @@
         <v>20</v>
       </c>
       <c r="BE13" s="126" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BF13" s="30"/>
       <c r="BG13" s="30"/>
@@ -16933,7 +16997,7 @@
     </row>
     <row r="14" ht="45" spans="1:66">
       <c r="A14" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B14" s="30">
         <v>600976</v>
@@ -17021,7 +17085,7 @@
         <v>15</v>
       </c>
       <c r="BE14" s="126" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BF14" s="30"/>
       <c r="BG14" s="30"/>
@@ -17040,16 +17104,16 @@
     </row>
     <row r="15" ht="29" spans="1:66">
       <c r="A15" s="23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B15" s="30">
         <v>600032</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E15" s="56">
         <v>0.6883</v>
@@ -17128,7 +17192,7 @@
         <v>4</v>
       </c>
       <c r="BE15" s="126" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BF15" s="30"/>
       <c r="BG15" s="30"/>
@@ -17147,7 +17211,7 @@
     </row>
     <row r="16" ht="45" spans="1:66">
       <c r="A16" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B16" s="336" t="s">
         <v>105</v>
@@ -17235,7 +17299,7 @@
         <v>2</v>
       </c>
       <c r="BE16" s="126" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BF16" s="30"/>
       <c r="BG16" s="30"/>
@@ -17254,16 +17318,16 @@
     </row>
     <row r="17" spans="1:66">
       <c r="A17" s="23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B17" s="30">
         <v>603688</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E17" s="53">
         <v>0.258</v>
@@ -17340,13 +17404,13 @@
     </row>
     <row r="18" ht="45" spans="1:66">
       <c r="A18" s="23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B18" s="336" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>2</v>
@@ -17428,7 +17492,7 @@
         <v>139</v>
       </c>
       <c r="BE18" s="126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BF18" s="30"/>
       <c r="BG18" s="30"/>
@@ -17447,13 +17511,13 @@
     </row>
     <row r="19" ht="30" spans="1:66">
       <c r="A19" s="23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B19" s="30">
         <v>603867</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>112</v>
@@ -17533,7 +17597,7 @@
         <v>2</v>
       </c>
       <c r="BE19" s="126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BF19" s="30"/>
       <c r="BG19" s="30"/>
@@ -17547,16 +17611,16 @@
     </row>
     <row r="20" ht="45" spans="1:66">
       <c r="A20" s="23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B20" s="336" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E20" s="53">
         <v>0.2101</v>
@@ -17635,7 +17699,7 @@
         <v>31</v>
       </c>
       <c r="BE20" s="126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BF20" s="30"/>
       <c r="BG20" s="30"/>
@@ -17654,16 +17718,16 @@
     </row>
     <row r="21" ht="45" spans="1:66">
       <c r="A21" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" s="30">
         <v>603010</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E21" s="53">
         <v>0.3158</v>
@@ -17740,7 +17804,7 @@
         <v>9</v>
       </c>
       <c r="BE21" s="126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BF21" s="30"/>
       <c r="BG21" s="30"/>
@@ -17759,13 +17823,13 @@
     </row>
     <row r="22" ht="30" spans="1:66">
       <c r="A22" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" s="336" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>7</v>
@@ -17845,7 +17909,7 @@
         <v>125</v>
       </c>
       <c r="BE22" s="126" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BF22" s="30"/>
       <c r="BG22" s="30"/>
@@ -17864,13 +17928,13 @@
     </row>
     <row r="23" ht="30" spans="1:66">
       <c r="A23" s="23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" s="30">
         <v>605016</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>112</v>
@@ -17952,7 +18016,7 @@
         <v>6</v>
       </c>
       <c r="BE23" s="126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BF23" s="30"/>
       <c r="BG23" s="30"/>
@@ -17971,13 +18035,13 @@
     </row>
     <row r="24" ht="72" spans="1:66">
       <c r="A24" s="23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" s="25">
         <v>603681</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>112</v>
@@ -18059,7 +18123,7 @@
         <v>18</v>
       </c>
       <c r="BE24" s="126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BF24" s="30"/>
       <c r="BG24" s="30"/>
@@ -18074,19 +18138,19 @@
         <v>1.01517530088959</v>
       </c>
       <c r="BM24" s="126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BN24" s="30"/>
     </row>
     <row r="25" ht="72" spans="1:66">
       <c r="A25" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="31">
         <v>600741</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>123</v>
@@ -18168,7 +18232,7 @@
         <v>102</v>
       </c>
       <c r="BE25" s="126" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BF25" s="30"/>
       <c r="BG25" s="30"/>
@@ -18183,22 +18247,22 @@
         <v>1.49127814779575</v>
       </c>
       <c r="BM25" s="126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BN25" s="30"/>
     </row>
     <row r="26" ht="72" spans="1:66">
       <c r="A26" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" s="31">
         <v>605098</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E26" s="58">
         <v>44.68</v>
@@ -18277,10 +18341,10 @@
         <v>9</v>
       </c>
       <c r="BE26" s="126" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BF26" s="127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BG26" s="30"/>
       <c r="BH26" s="30"/>
@@ -18294,19 +18358,19 @@
         <v>1.29238795352146</v>
       </c>
       <c r="BM26" s="126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BN26" s="30"/>
     </row>
     <row r="27" ht="15" spans="1:66">
       <c r="A27" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" s="337" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="53"/>
@@ -18374,13 +18438,13 @@
     </row>
     <row r="28" ht="15" spans="1:66">
       <c r="A28" s="23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B28" s="337" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="53"/>
@@ -18448,16 +18512,16 @@
     </row>
     <row r="29" ht="74" spans="1:66">
       <c r="A29" s="23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B29" s="31">
         <v>603380</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E29" s="59">
         <v>0.367</v>
@@ -18536,10 +18600,10 @@
         <v>7</v>
       </c>
       <c r="BE29" s="126" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BF29" s="128" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BG29" s="36"/>
       <c r="BH29" s="36"/>
@@ -18553,19 +18617,19 @@
         <v>1.05393676379417</v>
       </c>
       <c r="BM29" s="130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BN29" s="36"/>
     </row>
     <row r="30" ht="15" spans="1:66">
       <c r="A30" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" s="337" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="59"/>
@@ -18633,13 +18697,13 @@
     </row>
     <row r="31" ht="15" spans="1:66">
       <c r="A31" s="23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B31" s="31">
         <v>603733</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="59"/>
@@ -18707,13 +18771,13 @@
     </row>
     <row r="32" ht="15" spans="1:66">
       <c r="A32" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B32" s="31">
         <v>605336</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="59"/>
@@ -18781,13 +18845,13 @@
     </row>
     <row r="33" ht="15" spans="1:66">
       <c r="A33" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B33" s="31">
         <v>603886</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="59"/>
@@ -18855,13 +18919,13 @@
     </row>
     <row r="34" ht="15" spans="1:66">
       <c r="A34" s="23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B34" s="337" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="59"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285">
   <si>
     <t>工业金属</t>
   </si>
@@ -1477,6 +1477,68 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>先增加后减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.13%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7.23%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再减少到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.74%)</t>
+    </r>
+  </si>
+  <si>
     <t>JBM_000004</t>
   </si>
   <si>
@@ -1484,16 +1546,8 @@
 (由14家到58家再到18家)</t>
   </si>
   <si>
-    <t>JBM_000005</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先变多再变少</t>
+    <r>
+      <t>持续增加</t>
     </r>
     <r>
       <rPr>
@@ -1510,7 +1564,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>由</t>
+      <t>由51.04</t>
     </r>
     <r>
       <rPr>
@@ -1518,7 +1572,7 @@
         <rFont val="Helvetica Neue Regular"/>
         <charset val="134"/>
       </rPr>
-      <t>4</t>
+      <t>%</t>
     </r>
     <r>
       <rPr>
@@ -1526,7 +1580,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>家到39家再到</t>
+      <t>增加到54.96</t>
     </r>
     <r>
       <rPr>
@@ -1534,7 +1588,7 @@
         <rFont val="Helvetica Neue Regular"/>
         <charset val="134"/>
       </rPr>
-      <t>14</t>
+      <t>%</t>
     </r>
     <r>
       <rPr>
@@ -1542,7 +1596,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>家</t>
+      <t>，再增加到55.81</t>
     </r>
     <r>
       <rPr>
@@ -1550,8 +1604,11 @@
         <rFont val="Helvetica Neue Regular"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
-    </r>
+      <t>%)</t>
+    </r>
+  </si>
+  <si>
+    <t>JBM_000005</t>
   </si>
   <si>
     <r>
@@ -1560,7 +1617,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>不宜进场</t>
+      <t>先变多再变少</t>
     </r>
     <r>
       <rPr>
@@ -1577,7 +1634,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>利润和销售额增长都出现下滑，机构关注度也出现下滑且股本回报率也不够高</t>
+      <t>由</t>
     </r>
     <r>
       <rPr>
@@ -1585,20 +1642,44 @@
         <rFont val="Helvetica Neue Regular"/>
         <charset val="134"/>
       </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家到39家再到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>JBM_000006</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先变多再变少</t>
+    <r>
+      <t>持续增加</t>
     </r>
     <r>
       <rPr>
@@ -1615,6 +1696,111 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
+      <t>由16.49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加到23.56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再增加到28.04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不宜进场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利润和销售额增长都出现下滑，机构关注度也出现下滑且股本回报率也不够高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>JBM_000006</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先变多再变少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>由50家到161家再到104家</t>
     </r>
     <r>
@@ -1624,6 +1810,68 @@
         <charset val="134"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>先增加后减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由12.48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加到28.44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再减少到20.51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%)</t>
     </r>
   </si>
   <si>
@@ -15117,11 +15365,11 @@
   <dimension ref="A1:BQ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BB4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="BB5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BF6" sqref="BF6"/>
+      <selection pane="bottomRight" activeCell="BG9" sqref="BG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -15906,7 +16154,7 @@
       <c r="BM5" s="29"/>
       <c r="BN5" s="29"/>
     </row>
-    <row r="6" ht="30" spans="1:66">
+    <row r="6" ht="60" spans="1:66">
       <c r="A6" s="23" t="s">
         <v>187</v>
       </c>
@@ -16060,7 +16308,9 @@
       <c r="BE6" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="BF6" s="29"/>
+      <c r="BF6" s="126" t="s">
+        <v>189</v>
+      </c>
       <c r="BG6" s="29"/>
       <c r="BH6" s="29"/>
       <c r="BI6" s="29"/>
@@ -16075,9 +16325,9 @@
       <c r="BM6" s="29"/>
       <c r="BN6" s="29"/>
     </row>
-    <row r="7" ht="44" spans="1:66">
+    <row r="7" ht="60" spans="1:66">
       <c r="A7" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B7" s="25">
         <v>600587</v>
@@ -16242,9 +16492,11 @@
         <v>18</v>
       </c>
       <c r="BE7" s="123" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF7" s="29"/>
+        <v>191</v>
+      </c>
+      <c r="BF7" s="126" t="s">
+        <v>192</v>
+      </c>
       <c r="BG7" s="29"/>
       <c r="BH7" s="29"/>
       <c r="BI7" s="29"/>
@@ -16261,7 +16513,7 @@
     </row>
     <row r="8" ht="74" spans="1:66">
       <c r="A8" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B8" s="25">
         <v>603279</v>
@@ -16379,9 +16631,11 @@
         <v>14</v>
       </c>
       <c r="BE8" s="123" t="s">
-        <v>192</v>
-      </c>
-      <c r="BF8" s="29"/>
+        <v>194</v>
+      </c>
+      <c r="BF8" s="126" t="s">
+        <v>195</v>
+      </c>
       <c r="BG8" s="29"/>
       <c r="BH8" s="29"/>
       <c r="BI8" s="29"/>
@@ -16394,13 +16648,13 @@
         <v>1.0924981791697</v>
       </c>
       <c r="BM8" s="126" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BN8" s="29"/>
     </row>
-    <row r="9" ht="45" spans="1:66">
+    <row r="9" ht="60" spans="1:66">
       <c r="A9" s="23" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B9" s="29">
         <v>601677</v>
@@ -16518,9 +16772,11 @@
         <v>104</v>
       </c>
       <c r="BE9" s="123" t="s">
-        <v>195</v>
-      </c>
-      <c r="BF9" s="29"/>
+        <v>198</v>
+      </c>
+      <c r="BF9" s="126" t="s">
+        <v>199</v>
+      </c>
       <c r="BG9" s="29"/>
       <c r="BH9" s="29"/>
       <c r="BI9" s="29"/>
@@ -16537,7 +16793,7 @@
     </row>
     <row r="10" ht="88" spans="1:66">
       <c r="A10" s="23" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B10" s="29">
         <v>603599</v>
@@ -16655,7 +16911,7 @@
         <v>17</v>
       </c>
       <c r="BE10" s="126" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="BF10" s="29"/>
       <c r="BG10" s="29"/>
@@ -16670,22 +16926,22 @@
         <v>2.22341799397331</v>
       </c>
       <c r="BM10" s="126" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="BN10" s="29"/>
     </row>
     <row r="11" ht="44" spans="1:66">
       <c r="A11" s="23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B11" s="335" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E11" s="50">
         <v>0.3829</v>
@@ -16764,7 +17020,7 @@
         <v>1</v>
       </c>
       <c r="BE11" s="126" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BF11" s="29"/>
       <c r="BG11" s="29"/>
@@ -16783,16 +17039,16 @@
     </row>
     <row r="12" ht="45" spans="1:66">
       <c r="A12" s="23" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B12" s="335" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E12" s="52">
         <v>0.5848</v>
@@ -16871,7 +17127,7 @@
         <v>13</v>
       </c>
       <c r="BE12" s="126" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BF12" s="29"/>
       <c r="BG12" s="29"/>
@@ -16890,13 +17146,13 @@
     </row>
     <row r="13" ht="45" spans="1:66">
       <c r="A13" s="23" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B13" s="30">
         <v>600085</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>1</v>
@@ -16978,7 +17234,7 @@
         <v>20</v>
       </c>
       <c r="BE13" s="126" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BF13" s="30"/>
       <c r="BG13" s="30"/>
@@ -16997,7 +17253,7 @@
     </row>
     <row r="14" ht="45" spans="1:66">
       <c r="A14" s="23" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B14" s="30">
         <v>600976</v>
@@ -17085,7 +17341,7 @@
         <v>15</v>
       </c>
       <c r="BE14" s="126" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BF14" s="30"/>
       <c r="BG14" s="30"/>
@@ -17104,16 +17360,16 @@
     </row>
     <row r="15" ht="29" spans="1:66">
       <c r="A15" s="23" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B15" s="30">
         <v>600032</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E15" s="56">
         <v>0.6883</v>
@@ -17192,7 +17448,7 @@
         <v>4</v>
       </c>
       <c r="BE15" s="126" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="BF15" s="30"/>
       <c r="BG15" s="30"/>
@@ -17211,7 +17467,7 @@
     </row>
     <row r="16" ht="45" spans="1:66">
       <c r="A16" s="23" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B16" s="336" t="s">
         <v>105</v>
@@ -17299,7 +17555,7 @@
         <v>2</v>
       </c>
       <c r="BE16" s="126" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="BF16" s="30"/>
       <c r="BG16" s="30"/>
@@ -17318,16 +17574,16 @@
     </row>
     <row r="17" spans="1:66">
       <c r="A17" s="23" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B17" s="30">
         <v>603688</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E17" s="53">
         <v>0.258</v>
@@ -17404,13 +17660,13 @@
     </row>
     <row r="18" ht="45" spans="1:66">
       <c r="A18" s="23" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B18" s="336" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>2</v>
@@ -17492,7 +17748,7 @@
         <v>139</v>
       </c>
       <c r="BE18" s="126" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="BF18" s="30"/>
       <c r="BG18" s="30"/>
@@ -17511,13 +17767,13 @@
     </row>
     <row r="19" ht="30" spans="1:66">
       <c r="A19" s="23" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B19" s="30">
         <v>603867</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>112</v>
@@ -17597,7 +17853,7 @@
         <v>2</v>
       </c>
       <c r="BE19" s="126" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="BF19" s="30"/>
       <c r="BG19" s="30"/>
@@ -17611,16 +17867,16 @@
     </row>
     <row r="20" ht="45" spans="1:66">
       <c r="A20" s="23" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B20" s="336" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E20" s="53">
         <v>0.2101</v>
@@ -17699,7 +17955,7 @@
         <v>31</v>
       </c>
       <c r="BE20" s="126" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="BF20" s="30"/>
       <c r="BG20" s="30"/>
@@ -17718,16 +17974,16 @@
     </row>
     <row r="21" ht="45" spans="1:66">
       <c r="A21" s="23" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B21" s="30">
         <v>603010</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E21" s="53">
         <v>0.3158</v>
@@ -17804,7 +18060,7 @@
         <v>9</v>
       </c>
       <c r="BE21" s="126" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="BF21" s="30"/>
       <c r="BG21" s="30"/>
@@ -17823,13 +18079,13 @@
     </row>
     <row r="22" ht="30" spans="1:66">
       <c r="A22" s="23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B22" s="336" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>7</v>
@@ -17909,7 +18165,7 @@
         <v>125</v>
       </c>
       <c r="BE22" s="126" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="BF22" s="30"/>
       <c r="BG22" s="30"/>
@@ -17928,13 +18184,13 @@
     </row>
     <row r="23" ht="30" spans="1:66">
       <c r="A23" s="23" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B23" s="30">
         <v>605016</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>112</v>
@@ -18016,7 +18272,7 @@
         <v>6</v>
       </c>
       <c r="BE23" s="126" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="BF23" s="30"/>
       <c r="BG23" s="30"/>
@@ -18035,13 +18291,13 @@
     </row>
     <row r="24" ht="72" spans="1:66">
       <c r="A24" s="23" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B24" s="25">
         <v>603681</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>112</v>
@@ -18123,7 +18379,7 @@
         <v>18</v>
       </c>
       <c r="BE24" s="126" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="BF24" s="30"/>
       <c r="BG24" s="30"/>
@@ -18138,19 +18394,19 @@
         <v>1.01517530088959</v>
       </c>
       <c r="BM24" s="126" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="BN24" s="30"/>
     </row>
     <row r="25" ht="72" spans="1:66">
       <c r="A25" s="23" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B25" s="31">
         <v>600741</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>123</v>
@@ -18232,7 +18488,7 @@
         <v>102</v>
       </c>
       <c r="BE25" s="126" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="BF25" s="30"/>
       <c r="BG25" s="30"/>
@@ -18247,22 +18503,22 @@
         <v>1.49127814779575</v>
       </c>
       <c r="BM25" s="126" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="BN25" s="30"/>
     </row>
     <row r="26" ht="72" spans="1:66">
       <c r="A26" s="23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B26" s="31">
         <v>605098</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E26" s="58">
         <v>44.68</v>
@@ -18341,10 +18597,10 @@
         <v>9</v>
       </c>
       <c r="BE26" s="126" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="BF26" s="127" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="BG26" s="30"/>
       <c r="BH26" s="30"/>
@@ -18358,19 +18614,19 @@
         <v>1.29238795352146</v>
       </c>
       <c r="BM26" s="126" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="BN26" s="30"/>
     </row>
     <row r="27" ht="15" spans="1:66">
       <c r="A27" s="23" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B27" s="337" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="53"/>
@@ -18438,13 +18694,13 @@
     </row>
     <row r="28" ht="15" spans="1:66">
       <c r="A28" s="23" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B28" s="337" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="53"/>
@@ -18512,16 +18768,16 @@
     </row>
     <row r="29" ht="74" spans="1:66">
       <c r="A29" s="23" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B29" s="31">
         <v>603380</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E29" s="59">
         <v>0.367</v>
@@ -18600,10 +18856,10 @@
         <v>7</v>
       </c>
       <c r="BE29" s="126" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BF29" s="128" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="BG29" s="36"/>
       <c r="BH29" s="36"/>
@@ -18617,19 +18873,19 @@
         <v>1.05393676379417</v>
       </c>
       <c r="BM29" s="130" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="BN29" s="36"/>
     </row>
     <row r="30" ht="15" spans="1:66">
       <c r="A30" s="23" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B30" s="337" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="59"/>
@@ -18697,13 +18953,13 @@
     </row>
     <row r="31" ht="15" spans="1:66">
       <c r="A31" s="23" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B31" s="31">
         <v>603733</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="59"/>
@@ -18771,13 +19027,13 @@
     </row>
     <row r="32" ht="15" spans="1:66">
       <c r="A32" s="23" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B32" s="31">
         <v>605336</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="59"/>
@@ -18845,13 +19101,13 @@
     </row>
     <row r="33" ht="15" spans="1:66">
       <c r="A33" s="23" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B33" s="31">
         <v>603886</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="59"/>
@@ -18919,13 +19175,13 @@
     </row>
     <row r="34" ht="15" spans="1:66">
       <c r="A34" s="23" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B34" s="337" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="59"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
   <si>
     <t>工业金属</t>
   </si>
@@ -1958,6 +1958,68 @@
         <charset val="134"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>先增加后减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由60.96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加到64.38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再减少到48.74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%)</t>
     </r>
   </si>
   <si>
@@ -4271,10 +4333,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8549,7 +8611,7 @@
       <c r="AT7" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="AU7" s="127" t="s">
+      <c r="AU7" s="126" t="s">
         <v>76</v>
       </c>
       <c r="AV7" s="147" t="s">
@@ -8561,7 +8623,7 @@
       <c r="AX7" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="AY7" s="127" t="s">
+      <c r="AY7" s="126" t="s">
         <v>77</v>
       </c>
       <c r="AZ7" s="306">
@@ -8843,7 +8905,7 @@
       <c r="AX9" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="AY9" s="127" t="s">
+      <c r="AY9" s="126" t="s">
         <v>89</v>
       </c>
       <c r="AZ9" s="306">
@@ -9761,7 +9823,7 @@
       <c r="AX16" s="237" t="s">
         <v>76</v>
       </c>
-      <c r="AY16" s="127" t="s">
+      <c r="AY16" s="126" t="s">
         <v>93</v>
       </c>
       <c r="AZ16" s="311">
@@ -9882,7 +9944,7 @@
       <c r="AV17" s="237"/>
       <c r="AW17" s="237"/>
       <c r="AX17" s="237"/>
-      <c r="AY17" s="127" t="s">
+      <c r="AY17" s="126" t="s">
         <v>116</v>
       </c>
       <c r="AZ17" s="311">
@@ -15365,11 +15427,11 @@
   <dimension ref="A1:BQ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BB5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BG9" sqref="BG9"/>
+      <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -15962,7 +16024,7 @@
       <c r="BE4" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="BF4" s="123" t="s">
+      <c r="BF4" s="126" t="s">
         <v>181</v>
       </c>
       <c r="BG4" s="123" t="s">
@@ -16137,7 +16199,7 @@
       <c r="BE5" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="BF5" s="126" t="s">
+      <c r="BF5" s="127" t="s">
         <v>186</v>
       </c>
       <c r="BG5" s="29"/>
@@ -16308,7 +16370,7 @@
       <c r="BE6" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="BF6" s="126" t="s">
+      <c r="BF6" s="127" t="s">
         <v>189</v>
       </c>
       <c r="BG6" s="29"/>
@@ -16647,7 +16709,7 @@
         <f t="shared" si="2"/>
         <v>1.0924981791697</v>
       </c>
-      <c r="BM8" s="126" t="s">
+      <c r="BM8" s="127" t="s">
         <v>196</v>
       </c>
       <c r="BN8" s="29"/>
@@ -16774,7 +16836,7 @@
       <c r="BE9" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="BF9" s="126" t="s">
+      <c r="BF9" s="127" t="s">
         <v>199</v>
       </c>
       <c r="BG9" s="29"/>
@@ -16910,10 +16972,12 @@
       <c r="BD10" s="29">
         <v>17</v>
       </c>
-      <c r="BE10" s="126" t="s">
+      <c r="BE10" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="BF10" s="29"/>
+      <c r="BF10" s="127" t="s">
+        <v>202</v>
+      </c>
       <c r="BG10" s="29"/>
       <c r="BH10" s="29"/>
       <c r="BI10" s="29"/>
@@ -16925,23 +16989,23 @@
         <f t="shared" si="2"/>
         <v>2.22341799397331</v>
       </c>
-      <c r="BM10" s="126" t="s">
-        <v>202</v>
+      <c r="BM10" s="127" t="s">
+        <v>203</v>
       </c>
       <c r="BN10" s="29"/>
     </row>
     <row r="11" ht="44" spans="1:66">
       <c r="A11" s="23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B11" s="335" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E11" s="50">
         <v>0.3829</v>
@@ -17019,8 +17083,8 @@
       <c r="BD11" s="29">
         <v>1</v>
       </c>
-      <c r="BE11" s="126" t="s">
-        <v>207</v>
+      <c r="BE11" s="127" t="s">
+        <v>208</v>
       </c>
       <c r="BF11" s="29"/>
       <c r="BG11" s="29"/>
@@ -17039,16 +17103,16 @@
     </row>
     <row r="12" ht="45" spans="1:66">
       <c r="A12" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B12" s="335" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E12" s="52">
         <v>0.5848</v>
@@ -17126,8 +17190,8 @@
       <c r="BD12" s="29">
         <v>13</v>
       </c>
-      <c r="BE12" s="126" t="s">
-        <v>212</v>
+      <c r="BE12" s="127" t="s">
+        <v>213</v>
       </c>
       <c r="BF12" s="29"/>
       <c r="BG12" s="29"/>
@@ -17146,13 +17210,13 @@
     </row>
     <row r="13" ht="45" spans="1:66">
       <c r="A13" s="23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B13" s="30">
         <v>600085</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>1</v>
@@ -17233,8 +17297,8 @@
       <c r="BD13" s="125">
         <v>20</v>
       </c>
-      <c r="BE13" s="126" t="s">
-        <v>215</v>
+      <c r="BE13" s="127" t="s">
+        <v>216</v>
       </c>
       <c r="BF13" s="30"/>
       <c r="BG13" s="30"/>
@@ -17253,7 +17317,7 @@
     </row>
     <row r="14" ht="45" spans="1:66">
       <c r="A14" s="23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B14" s="30">
         <v>600976</v>
@@ -17340,8 +17404,8 @@
       <c r="BD14" s="30">
         <v>15</v>
       </c>
-      <c r="BE14" s="126" t="s">
-        <v>217</v>
+      <c r="BE14" s="127" t="s">
+        <v>218</v>
       </c>
       <c r="BF14" s="30"/>
       <c r="BG14" s="30"/>
@@ -17360,16 +17424,16 @@
     </row>
     <row r="15" ht="29" spans="1:66">
       <c r="A15" s="23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B15" s="30">
         <v>600032</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E15" s="56">
         <v>0.6883</v>
@@ -17447,8 +17511,8 @@
       <c r="BD15" s="30">
         <v>4</v>
       </c>
-      <c r="BE15" s="126" t="s">
-        <v>221</v>
+      <c r="BE15" s="127" t="s">
+        <v>222</v>
       </c>
       <c r="BF15" s="30"/>
       <c r="BG15" s="30"/>
@@ -17467,7 +17531,7 @@
     </row>
     <row r="16" ht="45" spans="1:66">
       <c r="A16" s="23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B16" s="336" t="s">
         <v>105</v>
@@ -17554,8 +17618,8 @@
       <c r="BD16" s="30">
         <v>2</v>
       </c>
-      <c r="BE16" s="126" t="s">
-        <v>223</v>
+      <c r="BE16" s="127" t="s">
+        <v>224</v>
       </c>
       <c r="BF16" s="30"/>
       <c r="BG16" s="30"/>
@@ -17574,16 +17638,16 @@
     </row>
     <row r="17" spans="1:66">
       <c r="A17" s="23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B17" s="30">
         <v>603688</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E17" s="53">
         <v>0.258</v>
@@ -17660,13 +17724,13 @@
     </row>
     <row r="18" ht="45" spans="1:66">
       <c r="A18" s="23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B18" s="336" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>2</v>
@@ -17747,8 +17811,8 @@
       <c r="BD18" s="125">
         <v>139</v>
       </c>
-      <c r="BE18" s="126" t="s">
-        <v>230</v>
+      <c r="BE18" s="127" t="s">
+        <v>231</v>
       </c>
       <c r="BF18" s="30"/>
       <c r="BG18" s="30"/>
@@ -17767,13 +17831,13 @@
     </row>
     <row r="19" ht="30" spans="1:66">
       <c r="A19" s="23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B19" s="30">
         <v>603867</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>112</v>
@@ -17852,8 +17916,8 @@
       <c r="BD19" s="30">
         <v>2</v>
       </c>
-      <c r="BE19" s="126" t="s">
-        <v>233</v>
+      <c r="BE19" s="127" t="s">
+        <v>234</v>
       </c>
       <c r="BF19" s="30"/>
       <c r="BG19" s="30"/>
@@ -17867,16 +17931,16 @@
     </row>
     <row r="20" ht="45" spans="1:66">
       <c r="A20" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B20" s="336" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E20" s="53">
         <v>0.2101</v>
@@ -17954,8 +18018,8 @@
       <c r="BD20" s="125">
         <v>31</v>
       </c>
-      <c r="BE20" s="126" t="s">
-        <v>238</v>
+      <c r="BE20" s="127" t="s">
+        <v>239</v>
       </c>
       <c r="BF20" s="30"/>
       <c r="BG20" s="30"/>
@@ -17974,16 +18038,16 @@
     </row>
     <row r="21" ht="45" spans="1:66">
       <c r="A21" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B21" s="30">
         <v>603010</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E21" s="53">
         <v>0.3158</v>
@@ -18059,8 +18123,8 @@
       <c r="BD21" s="30">
         <v>9</v>
       </c>
-      <c r="BE21" s="126" t="s">
-        <v>241</v>
+      <c r="BE21" s="127" t="s">
+        <v>242</v>
       </c>
       <c r="BF21" s="30"/>
       <c r="BG21" s="30"/>
@@ -18079,13 +18143,13 @@
     </row>
     <row r="22" ht="30" spans="1:66">
       <c r="A22" s="23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B22" s="336" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>7</v>
@@ -18164,8 +18228,8 @@
       <c r="BD22" s="125">
         <v>125</v>
       </c>
-      <c r="BE22" s="126" t="s">
-        <v>245</v>
+      <c r="BE22" s="127" t="s">
+        <v>246</v>
       </c>
       <c r="BF22" s="30"/>
       <c r="BG22" s="30"/>
@@ -18184,13 +18248,13 @@
     </row>
     <row r="23" ht="30" spans="1:66">
       <c r="A23" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" s="30">
         <v>605016</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>112</v>
@@ -18271,8 +18335,8 @@
       <c r="BD23" s="30">
         <v>6</v>
       </c>
-      <c r="BE23" s="126" t="s">
-        <v>248</v>
+      <c r="BE23" s="127" t="s">
+        <v>249</v>
       </c>
       <c r="BF23" s="30"/>
       <c r="BG23" s="30"/>
@@ -18291,13 +18355,13 @@
     </row>
     <row r="24" ht="72" spans="1:66">
       <c r="A24" s="23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" s="25">
         <v>603681</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>112</v>
@@ -18378,8 +18442,8 @@
       <c r="BD24" s="30">
         <v>18</v>
       </c>
-      <c r="BE24" s="126" t="s">
-        <v>251</v>
+      <c r="BE24" s="127" t="s">
+        <v>252</v>
       </c>
       <c r="BF24" s="30"/>
       <c r="BG24" s="30"/>
@@ -18393,20 +18457,20 @@
         <f t="shared" ref="BL24:BL29" si="4">BK24/AU24</f>
         <v>1.01517530088959</v>
       </c>
-      <c r="BM24" s="126" t="s">
-        <v>252</v>
+      <c r="BM24" s="127" t="s">
+        <v>253</v>
       </c>
       <c r="BN24" s="30"/>
     </row>
     <row r="25" ht="72" spans="1:66">
       <c r="A25" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" s="31">
         <v>600741</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>123</v>
@@ -18487,8 +18551,8 @@
       <c r="BD25" s="125">
         <v>102</v>
       </c>
-      <c r="BE25" s="126" t="s">
-        <v>255</v>
+      <c r="BE25" s="127" t="s">
+        <v>256</v>
       </c>
       <c r="BF25" s="30"/>
       <c r="BG25" s="30"/>
@@ -18502,23 +18566,23 @@
         <f t="shared" si="4"/>
         <v>1.49127814779575</v>
       </c>
-      <c r="BM25" s="126" t="s">
-        <v>252</v>
+      <c r="BM25" s="127" t="s">
+        <v>253</v>
       </c>
       <c r="BN25" s="30"/>
     </row>
     <row r="26" ht="72" spans="1:66">
       <c r="A26" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B26" s="31">
         <v>605098</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E26" s="58">
         <v>44.68</v>
@@ -18596,11 +18660,11 @@
       <c r="BD26" s="30">
         <v>9</v>
       </c>
-      <c r="BE26" s="126" t="s">
-        <v>259</v>
-      </c>
-      <c r="BF26" s="127" t="s">
+      <c r="BE26" s="127" t="s">
         <v>260</v>
+      </c>
+      <c r="BF26" s="126" t="s">
+        <v>261</v>
       </c>
       <c r="BG26" s="30"/>
       <c r="BH26" s="30"/>
@@ -18613,20 +18677,20 @@
         <f t="shared" si="4"/>
         <v>1.29238795352146</v>
       </c>
-      <c r="BM26" s="126" t="s">
-        <v>252</v>
+      <c r="BM26" s="127" t="s">
+        <v>253</v>
       </c>
       <c r="BN26" s="30"/>
     </row>
     <row r="27" ht="15" spans="1:66">
       <c r="A27" s="23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B27" s="337" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="53"/>
@@ -18694,13 +18758,13 @@
     </row>
     <row r="28" ht="15" spans="1:66">
       <c r="A28" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" s="337" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="53"/>
@@ -18768,16 +18832,16 @@
     </row>
     <row r="29" ht="74" spans="1:66">
       <c r="A29" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" s="31">
         <v>603380</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E29" s="59">
         <v>0.367</v>
@@ -18855,11 +18919,11 @@
       <c r="BD29" s="36">
         <v>7</v>
       </c>
-      <c r="BE29" s="126" t="s">
-        <v>270</v>
+      <c r="BE29" s="127" t="s">
+        <v>271</v>
       </c>
       <c r="BF29" s="128" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BG29" s="36"/>
       <c r="BH29" s="36"/>
@@ -18873,19 +18937,19 @@
         <v>1.05393676379417</v>
       </c>
       <c r="BM29" s="130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BN29" s="36"/>
     </row>
     <row r="30" ht="15" spans="1:66">
       <c r="A30" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B30" s="337" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="59"/>
@@ -18953,13 +19017,13 @@
     </row>
     <row r="31" ht="15" spans="1:66">
       <c r="A31" s="23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B31" s="31">
         <v>603733</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="59"/>
@@ -19027,13 +19091,13 @@
     </row>
     <row r="32" ht="15" spans="1:66">
       <c r="A32" s="23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B32" s="31">
         <v>605336</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="59"/>
@@ -19101,13 +19165,13 @@
     </row>
     <row r="33" ht="15" spans="1:66">
       <c r="A33" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B33" s="31">
         <v>603886</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="59"/>
@@ -19175,13 +19239,13 @@
     </row>
     <row r="34" ht="15" spans="1:66">
       <c r="A34" s="23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B34" s="337" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="59"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298">
   <si>
     <t>工业金属</t>
   </si>
@@ -945,6 +945,9 @@
     <t>1w</t>
   </si>
   <si>
+    <t>不宜入场</t>
+  </si>
+  <si>
     <t>603380.SH</t>
   </si>
   <si>
@@ -1023,6 +1026,15 @@
     </r>
   </si>
   <si>
+    <t>600741.SH</t>
+  </si>
+  <si>
+    <t>华域汽车</t>
+  </si>
+  <si>
+    <t>4w</t>
+  </si>
+  <si>
     <t>分析结果编码</t>
   </si>
   <si>
@@ -3066,9 +3078,6 @@
     <t>JBM_000022</t>
   </si>
   <si>
-    <t>华域汽车</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -3152,8 +3161,70 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>先增加后减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由73.71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加到79.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再减少到78.32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+  </si>
+  <si>
     <t>不宜进场
-(利润和销售额增长都出现下滑，机构关注度也出现下滑且股本回报率也不够高)</t>
+(利润增长和销售额增长都出现大幅下滑，持有机构数量也出现大幅下滑，机构持有股份占比出现小幅下滑)</t>
   </si>
   <si>
     <t>JBM_000023</t>
@@ -4367,7 +4438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5131,6 +5202,9 @@
     <xf numFmtId="10" fontId="16" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5252,6 +5326,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7141,16 +7218,16 @@
       <c r="B1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="311">
+      <c r="C1" s="313">
         <f>COUNTIF(A:A,B1)</f>
         <v>2</v>
       </c>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="319"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="321"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="135" t="s">
@@ -7159,16 +7236,16 @@
       <c r="B2" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="311">
+      <c r="C2" s="313">
         <f>COUNTIF(A:A,B2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="319"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="321"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="132" t="s">
@@ -7177,16 +7254,16 @@
       <c r="B3" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="311">
+      <c r="C3" s="313">
         <f>COUNTIF(A:A,B3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="319"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="321"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="135" t="s">
@@ -7195,16 +7272,16 @@
       <c r="B4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="311">
+      <c r="C4" s="313">
         <f>COUNTIF(A:A,B4)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="318"/>
-      <c r="H4" s="318"/>
-      <c r="I4" s="319"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="316"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="321"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="132" t="s">
@@ -7213,16 +7290,16 @@
       <c r="B5" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="311">
+      <c r="C5" s="313">
         <f>COUNTIF(A:A,B5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="318"/>
-      <c r="H5" s="318"/>
-      <c r="I5" s="319"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="321"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="135" t="s">
@@ -7231,16 +7308,16 @@
       <c r="B6" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="311">
+      <c r="C6" s="313">
         <f>COUNTIF(A:A,B6)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312"/>
-      <c r="F6" s="314"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="318"/>
-      <c r="I6" s="319"/>
+      <c r="D6" s="314"/>
+      <c r="E6" s="314"/>
+      <c r="F6" s="316"/>
+      <c r="G6" s="320"/>
+      <c r="H6" s="320"/>
+      <c r="I6" s="321"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="132" t="s">
@@ -7249,16 +7326,16 @@
       <c r="B7" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="311">
+      <c r="C7" s="313">
         <f>COUNTIF(A:A,B7)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="318"/>
-      <c r="H7" s="318"/>
-      <c r="I7" s="319"/>
+      <c r="D7" s="314"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="316"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="321"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="132" t="s">
@@ -7267,16 +7344,16 @@
       <c r="B8" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="311">
+      <c r="C8" s="313">
         <f>COUNTIF(A:A,B8)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="312"/>
-      <c r="E8" s="312"/>
-      <c r="F8" s="314"/>
-      <c r="G8" s="318"/>
-      <c r="H8" s="318"/>
-      <c r="I8" s="319"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="314"/>
+      <c r="F8" s="316"/>
+      <c r="G8" s="320"/>
+      <c r="H8" s="320"/>
+      <c r="I8" s="321"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="135" t="s">
@@ -7285,16 +7362,16 @@
       <c r="B9" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="311">
+      <c r="C9" s="313">
         <f>COUNTIF(A:A,B9)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="318"/>
-      <c r="I9" s="319"/>
+      <c r="D9" s="314"/>
+      <c r="E9" s="314"/>
+      <c r="F9" s="316"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="321"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="135" t="s">
@@ -7303,16 +7380,16 @@
       <c r="B10" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="311">
+      <c r="C10" s="313">
         <f>COUNTIF(A:A,B10)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="312"/>
-      <c r="E10" s="312"/>
-      <c r="F10" s="314"/>
-      <c r="G10" s="318"/>
-      <c r="H10" s="318"/>
-      <c r="I10" s="319"/>
+      <c r="D10" s="314"/>
+      <c r="E10" s="314"/>
+      <c r="F10" s="316"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="320"/>
+      <c r="I10" s="321"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="135" t="s">
@@ -7321,16 +7398,16 @@
       <c r="B11" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="311">
+      <c r="C11" s="313">
         <f>COUNTIF(A:A,B11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="312"/>
-      <c r="E11" s="312"/>
-      <c r="F11" s="314"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="318"/>
-      <c r="I11" s="319"/>
+      <c r="D11" s="314"/>
+      <c r="E11" s="314"/>
+      <c r="F11" s="316"/>
+      <c r="G11" s="320"/>
+      <c r="H11" s="320"/>
+      <c r="I11" s="321"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="132" t="s">
@@ -7339,904 +7416,904 @@
       <c r="B12" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="311">
+      <c r="C12" s="313">
         <f>COUNTIF(A:A,B12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="314"/>
-      <c r="G12" s="318"/>
-      <c r="H12" s="318"/>
-      <c r="I12" s="319"/>
+      <c r="D12" s="314"/>
+      <c r="E12" s="314"/>
+      <c r="F12" s="316"/>
+      <c r="G12" s="320"/>
+      <c r="H12" s="320"/>
+      <c r="I12" s="321"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="313"/>
-      <c r="C13" s="311">
+      <c r="B13" s="315"/>
+      <c r="C13" s="313">
         <f>COUNTIF(A:A,B13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="312"/>
-      <c r="E13" s="312"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="319"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="320"/>
+      <c r="H13" s="320"/>
+      <c r="I13" s="321"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="312"/>
-      <c r="D14" s="312"/>
-      <c r="E14" s="312"/>
-      <c r="F14" s="314"/>
-      <c r="G14" s="318"/>
-      <c r="H14" s="318"/>
-      <c r="I14" s="319"/>
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="316"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="320"/>
+      <c r="I14" s="321"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="30"/>
-      <c r="C15" s="312"/>
-      <c r="D15" s="312"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="314"/>
-      <c r="G15" s="319"/>
-      <c r="H15" s="318"/>
-      <c r="I15" s="319"/>
+      <c r="C15" s="314"/>
+      <c r="D15" s="314"/>
+      <c r="E15" s="314"/>
+      <c r="F15" s="316"/>
+      <c r="G15" s="321"/>
+      <c r="H15" s="320"/>
+      <c r="I15" s="321"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="312"/>
-      <c r="D16" s="312"/>
-      <c r="E16" s="312"/>
-      <c r="F16" s="314"/>
-      <c r="G16" s="318"/>
-      <c r="H16" s="318"/>
-      <c r="I16" s="319"/>
+      <c r="C16" s="314"/>
+      <c r="D16" s="314"/>
+      <c r="E16" s="314"/>
+      <c r="F16" s="316"/>
+      <c r="G16" s="320"/>
+      <c r="H16" s="320"/>
+      <c r="I16" s="321"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="312"/>
-      <c r="D17" s="312"/>
-      <c r="E17" s="312"/>
-      <c r="F17" s="314"/>
-      <c r="G17" s="318"/>
-      <c r="H17" s="318"/>
-      <c r="I17" s="319"/>
+      <c r="C17" s="314"/>
+      <c r="D17" s="314"/>
+      <c r="E17" s="314"/>
+      <c r="F17" s="316"/>
+      <c r="G17" s="320"/>
+      <c r="H17" s="320"/>
+      <c r="I17" s="321"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="312"/>
-      <c r="D18" s="312"/>
-      <c r="E18" s="312"/>
-      <c r="F18" s="314"/>
-      <c r="G18" s="318"/>
-      <c r="H18" s="318"/>
-      <c r="I18" s="319"/>
+      <c r="C18" s="314"/>
+      <c r="D18" s="314"/>
+      <c r="E18" s="314"/>
+      <c r="F18" s="316"/>
+      <c r="G18" s="320"/>
+      <c r="H18" s="320"/>
+      <c r="I18" s="321"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="314"/>
-      <c r="B19" s="314"/>
-      <c r="C19" s="312"/>
-      <c r="D19" s="312"/>
-      <c r="E19" s="312"/>
-      <c r="F19" s="314"/>
-      <c r="G19" s="318"/>
-      <c r="H19" s="318"/>
-      <c r="I19" s="319"/>
+      <c r="A19" s="316"/>
+      <c r="B19" s="316"/>
+      <c r="C19" s="314"/>
+      <c r="D19" s="314"/>
+      <c r="E19" s="314"/>
+      <c r="F19" s="316"/>
+      <c r="G19" s="320"/>
+      <c r="H19" s="320"/>
+      <c r="I19" s="321"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="314"/>
-      <c r="B20" s="314"/>
-      <c r="C20" s="312"/>
-      <c r="D20" s="312"/>
-      <c r="E20" s="312"/>
-      <c r="F20" s="314"/>
-      <c r="G20" s="318"/>
-      <c r="H20" s="318"/>
-      <c r="I20" s="319"/>
+      <c r="A20" s="316"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="314"/>
+      <c r="D20" s="314"/>
+      <c r="E20" s="314"/>
+      <c r="F20" s="316"/>
+      <c r="G20" s="320"/>
+      <c r="H20" s="320"/>
+      <c r="I20" s="321"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="314"/>
-      <c r="B21" s="314"/>
-      <c r="C21" s="312"/>
-      <c r="D21" s="312"/>
-      <c r="E21" s="312"/>
-      <c r="F21" s="314"/>
-      <c r="G21" s="318"/>
-      <c r="H21" s="318"/>
-      <c r="I21" s="319"/>
+      <c r="A21" s="316"/>
+      <c r="B21" s="316"/>
+      <c r="C21" s="314"/>
+      <c r="D21" s="314"/>
+      <c r="E21" s="314"/>
+      <c r="F21" s="316"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="320"/>
+      <c r="I21" s="321"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="314"/>
-      <c r="B22" s="314"/>
-      <c r="C22" s="312"/>
-      <c r="D22" s="312"/>
-      <c r="E22" s="312"/>
-      <c r="F22" s="314"/>
-      <c r="G22" s="318"/>
-      <c r="H22" s="318"/>
-      <c r="I22" s="319"/>
+      <c r="A22" s="316"/>
+      <c r="B22" s="316"/>
+      <c r="C22" s="314"/>
+      <c r="D22" s="314"/>
+      <c r="E22" s="314"/>
+      <c r="F22" s="316"/>
+      <c r="G22" s="320"/>
+      <c r="H22" s="320"/>
+      <c r="I22" s="321"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="314"/>
-      <c r="B23" s="314"/>
-      <c r="C23" s="312"/>
-      <c r="D23" s="312"/>
-      <c r="E23" s="312"/>
-      <c r="F23" s="314"/>
-      <c r="G23" s="318"/>
-      <c r="H23" s="318"/>
-      <c r="I23" s="319"/>
+      <c r="A23" s="316"/>
+      <c r="B23" s="316"/>
+      <c r="C23" s="314"/>
+      <c r="D23" s="314"/>
+      <c r="E23" s="314"/>
+      <c r="F23" s="316"/>
+      <c r="G23" s="320"/>
+      <c r="H23" s="320"/>
+      <c r="I23" s="321"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="314"/>
-      <c r="B24" s="314"/>
-      <c r="C24" s="312"/>
-      <c r="D24" s="312"/>
-      <c r="E24" s="312"/>
-      <c r="F24" s="314"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="318"/>
-      <c r="I24" s="319"/>
+      <c r="A24" s="316"/>
+      <c r="B24" s="316"/>
+      <c r="C24" s="314"/>
+      <c r="D24" s="314"/>
+      <c r="E24" s="314"/>
+      <c r="F24" s="316"/>
+      <c r="G24" s="320"/>
+      <c r="H24" s="320"/>
+      <c r="I24" s="321"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="314"/>
-      <c r="B25" s="314"/>
-      <c r="C25" s="312"/>
-      <c r="D25" s="312"/>
-      <c r="E25" s="312"/>
-      <c r="F25" s="314"/>
-      <c r="G25" s="318"/>
-      <c r="H25" s="318"/>
-      <c r="I25" s="319"/>
+      <c r="A25" s="316"/>
+      <c r="B25" s="316"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="314"/>
+      <c r="E25" s="314"/>
+      <c r="F25" s="316"/>
+      <c r="G25" s="320"/>
+      <c r="H25" s="320"/>
+      <c r="I25" s="321"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="314"/>
-      <c r="B26" s="314"/>
-      <c r="C26" s="312"/>
-      <c r="D26" s="312"/>
-      <c r="E26" s="312"/>
-      <c r="F26" s="314"/>
-      <c r="G26" s="318"/>
-      <c r="H26" s="318"/>
-      <c r="I26" s="319"/>
+      <c r="A26" s="316"/>
+      <c r="B26" s="316"/>
+      <c r="C26" s="314"/>
+      <c r="D26" s="314"/>
+      <c r="E26" s="314"/>
+      <c r="F26" s="316"/>
+      <c r="G26" s="320"/>
+      <c r="H26" s="320"/>
+      <c r="I26" s="321"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="314"/>
-      <c r="B27" s="314"/>
-      <c r="C27" s="312"/>
-      <c r="D27" s="312"/>
-      <c r="E27" s="312"/>
-      <c r="F27" s="314"/>
-      <c r="G27" s="318"/>
-      <c r="H27" s="318"/>
-      <c r="I27" s="319"/>
+      <c r="A27" s="316"/>
+      <c r="B27" s="316"/>
+      <c r="C27" s="314"/>
+      <c r="D27" s="314"/>
+      <c r="E27" s="314"/>
+      <c r="F27" s="316"/>
+      <c r="G27" s="320"/>
+      <c r="H27" s="320"/>
+      <c r="I27" s="321"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="314"/>
-      <c r="B28" s="314"/>
-      <c r="C28" s="312"/>
-      <c r="D28" s="312"/>
-      <c r="E28" s="312"/>
-      <c r="F28" s="314"/>
-      <c r="G28" s="318"/>
-      <c r="H28" s="318"/>
-      <c r="I28" s="319"/>
+      <c r="A28" s="316"/>
+      <c r="B28" s="316"/>
+      <c r="C28" s="314"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="314"/>
+      <c r="F28" s="316"/>
+      <c r="G28" s="320"/>
+      <c r="H28" s="320"/>
+      <c r="I28" s="321"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="314"/>
-      <c r="B29" s="314"/>
-      <c r="C29" s="312"/>
-      <c r="D29" s="312"/>
-      <c r="E29" s="312"/>
-      <c r="F29" s="314"/>
-      <c r="G29" s="318"/>
-      <c r="H29" s="318"/>
-      <c r="I29" s="319"/>
+      <c r="A29" s="316"/>
+      <c r="B29" s="316"/>
+      <c r="C29" s="314"/>
+      <c r="D29" s="314"/>
+      <c r="E29" s="314"/>
+      <c r="F29" s="316"/>
+      <c r="G29" s="320"/>
+      <c r="H29" s="320"/>
+      <c r="I29" s="321"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="314"/>
-      <c r="B30" s="314"/>
-      <c r="C30" s="312"/>
-      <c r="D30" s="312"/>
-      <c r="E30" s="312"/>
-      <c r="F30" s="314"/>
-      <c r="G30" s="318"/>
-      <c r="H30" s="318"/>
-      <c r="I30" s="319"/>
+      <c r="A30" s="316"/>
+      <c r="B30" s="316"/>
+      <c r="C30" s="314"/>
+      <c r="D30" s="314"/>
+      <c r="E30" s="314"/>
+      <c r="F30" s="316"/>
+      <c r="G30" s="320"/>
+      <c r="H30" s="320"/>
+      <c r="I30" s="321"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="314"/>
-      <c r="B31" s="314"/>
-      <c r="C31" s="312"/>
-      <c r="D31" s="312"/>
-      <c r="E31" s="312"/>
-      <c r="F31" s="314"/>
-      <c r="G31" s="318"/>
-      <c r="H31" s="318"/>
-      <c r="I31" s="319"/>
+      <c r="A31" s="316"/>
+      <c r="B31" s="316"/>
+      <c r="C31" s="314"/>
+      <c r="D31" s="314"/>
+      <c r="E31" s="314"/>
+      <c r="F31" s="316"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="320"/>
+      <c r="I31" s="321"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="314"/>
-      <c r="B32" s="314"/>
-      <c r="C32" s="312"/>
-      <c r="D32" s="312"/>
-      <c r="E32" s="312"/>
-      <c r="F32" s="314"/>
-      <c r="G32" s="318"/>
-      <c r="H32" s="318"/>
-      <c r="I32" s="319"/>
+      <c r="A32" s="316"/>
+      <c r="B32" s="316"/>
+      <c r="C32" s="314"/>
+      <c r="D32" s="314"/>
+      <c r="E32" s="314"/>
+      <c r="F32" s="316"/>
+      <c r="G32" s="320"/>
+      <c r="H32" s="320"/>
+      <c r="I32" s="321"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="314"/>
-      <c r="B33" s="314"/>
-      <c r="C33" s="312"/>
-      <c r="D33" s="312"/>
-      <c r="E33" s="312"/>
-      <c r="F33" s="314"/>
-      <c r="G33" s="318"/>
-      <c r="H33" s="319"/>
-      <c r="I33" s="319"/>
+      <c r="A33" s="316"/>
+      <c r="B33" s="316"/>
+      <c r="C33" s="314"/>
+      <c r="D33" s="314"/>
+      <c r="E33" s="314"/>
+      <c r="F33" s="316"/>
+      <c r="G33" s="320"/>
+      <c r="H33" s="321"/>
+      <c r="I33" s="321"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="314"/>
-      <c r="B34" s="314"/>
-      <c r="C34" s="312"/>
-      <c r="D34" s="312"/>
-      <c r="E34" s="312"/>
-      <c r="F34" s="314"/>
-      <c r="G34" s="318"/>
-      <c r="H34" s="319"/>
-      <c r="I34" s="319"/>
+      <c r="A34" s="316"/>
+      <c r="B34" s="316"/>
+      <c r="C34" s="314"/>
+      <c r="D34" s="314"/>
+      <c r="E34" s="314"/>
+      <c r="F34" s="316"/>
+      <c r="G34" s="320"/>
+      <c r="H34" s="321"/>
+      <c r="I34" s="321"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="314"/>
-      <c r="B35" s="314"/>
-      <c r="C35" s="312"/>
-      <c r="D35" s="312"/>
-      <c r="E35" s="312"/>
-      <c r="F35" s="314"/>
-      <c r="G35" s="318"/>
-      <c r="H35" s="319"/>
-      <c r="I35" s="319"/>
+      <c r="A35" s="316"/>
+      <c r="B35" s="316"/>
+      <c r="C35" s="314"/>
+      <c r="D35" s="314"/>
+      <c r="E35" s="314"/>
+      <c r="F35" s="316"/>
+      <c r="G35" s="320"/>
+      <c r="H35" s="321"/>
+      <c r="I35" s="321"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="314"/>
-      <c r="B36" s="314"/>
-      <c r="C36" s="312"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="314"/>
-      <c r="G36" s="318"/>
-      <c r="H36" s="319"/>
-      <c r="I36" s="319"/>
+      <c r="A36" s="316"/>
+      <c r="B36" s="316"/>
+      <c r="C36" s="314"/>
+      <c r="D36" s="314"/>
+      <c r="E36" s="314"/>
+      <c r="F36" s="316"/>
+      <c r="G36" s="320"/>
+      <c r="H36" s="321"/>
+      <c r="I36" s="321"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="314"/>
-      <c r="B37" s="314"/>
-      <c r="C37" s="312"/>
-      <c r="D37" s="312"/>
-      <c r="E37" s="312"/>
-      <c r="F37" s="314"/>
-      <c r="G37" s="318"/>
-      <c r="H37" s="319"/>
-      <c r="I37" s="319"/>
+      <c r="A37" s="316"/>
+      <c r="B37" s="316"/>
+      <c r="C37" s="314"/>
+      <c r="D37" s="314"/>
+      <c r="E37" s="314"/>
+      <c r="F37" s="316"/>
+      <c r="G37" s="320"/>
+      <c r="H37" s="321"/>
+      <c r="I37" s="321"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="314"/>
-      <c r="B38" s="314"/>
-      <c r="C38" s="312"/>
-      <c r="D38" s="312"/>
-      <c r="E38" s="312"/>
-      <c r="F38" s="314"/>
-      <c r="G38" s="318"/>
-      <c r="H38" s="319"/>
-      <c r="I38" s="319"/>
+      <c r="A38" s="316"/>
+      <c r="B38" s="316"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="314"/>
+      <c r="E38" s="314"/>
+      <c r="F38" s="316"/>
+      <c r="G38" s="320"/>
+      <c r="H38" s="321"/>
+      <c r="I38" s="321"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="314"/>
-      <c r="B39" s="314"/>
-      <c r="C39" s="312"/>
-      <c r="D39" s="312"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="314"/>
-      <c r="G39" s="318"/>
-      <c r="H39" s="319"/>
-      <c r="I39" s="319"/>
+      <c r="A39" s="316"/>
+      <c r="B39" s="316"/>
+      <c r="C39" s="314"/>
+      <c r="D39" s="314"/>
+      <c r="E39" s="314"/>
+      <c r="F39" s="316"/>
+      <c r="G39" s="320"/>
+      <c r="H39" s="321"/>
+      <c r="I39" s="321"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="314"/>
-      <c r="B40" s="314"/>
-      <c r="C40" s="312"/>
-      <c r="D40" s="312"/>
-      <c r="E40" s="312"/>
-      <c r="F40" s="314"/>
-      <c r="G40" s="318"/>
-      <c r="H40" s="319"/>
-      <c r="I40" s="319"/>
+      <c r="A40" s="316"/>
+      <c r="B40" s="316"/>
+      <c r="C40" s="314"/>
+      <c r="D40" s="314"/>
+      <c r="E40" s="314"/>
+      <c r="F40" s="316"/>
+      <c r="G40" s="320"/>
+      <c r="H40" s="321"/>
+      <c r="I40" s="321"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="314"/>
-      <c r="B41" s="314"/>
-      <c r="C41" s="312"/>
-      <c r="D41" s="312"/>
-      <c r="E41" s="312"/>
-      <c r="F41" s="314"/>
-      <c r="G41" s="318"/>
-      <c r="H41" s="319"/>
-      <c r="I41" s="319"/>
+      <c r="A41" s="316"/>
+      <c r="B41" s="316"/>
+      <c r="C41" s="314"/>
+      <c r="D41" s="314"/>
+      <c r="E41" s="314"/>
+      <c r="F41" s="316"/>
+      <c r="G41" s="320"/>
+      <c r="H41" s="321"/>
+      <c r="I41" s="321"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="314"/>
-      <c r="B42" s="314"/>
-      <c r="C42" s="312"/>
-      <c r="D42" s="312"/>
-      <c r="E42" s="312"/>
-      <c r="F42" s="314"/>
-      <c r="G42" s="318"/>
-      <c r="H42" s="319"/>
-      <c r="I42" s="319"/>
+      <c r="A42" s="316"/>
+      <c r="B42" s="316"/>
+      <c r="C42" s="314"/>
+      <c r="D42" s="314"/>
+      <c r="E42" s="314"/>
+      <c r="F42" s="316"/>
+      <c r="G42" s="320"/>
+      <c r="H42" s="321"/>
+      <c r="I42" s="321"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="314"/>
-      <c r="B43" s="314"/>
-      <c r="C43" s="312"/>
-      <c r="D43" s="312"/>
-      <c r="E43" s="312"/>
-      <c r="F43" s="314"/>
-      <c r="G43" s="318"/>
-      <c r="H43" s="319"/>
-      <c r="I43" s="319"/>
+      <c r="A43" s="316"/>
+      <c r="B43" s="316"/>
+      <c r="C43" s="314"/>
+      <c r="D43" s="314"/>
+      <c r="E43" s="314"/>
+      <c r="F43" s="316"/>
+      <c r="G43" s="320"/>
+      <c r="H43" s="321"/>
+      <c r="I43" s="321"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="314"/>
-      <c r="B44" s="314"/>
-      <c r="C44" s="312"/>
-      <c r="D44" s="312"/>
-      <c r="E44" s="312"/>
-      <c r="F44" s="314"/>
-      <c r="G44" s="318"/>
-      <c r="H44" s="319"/>
-      <c r="I44" s="319"/>
+      <c r="A44" s="316"/>
+      <c r="B44" s="316"/>
+      <c r="C44" s="314"/>
+      <c r="D44" s="314"/>
+      <c r="E44" s="314"/>
+      <c r="F44" s="316"/>
+      <c r="G44" s="320"/>
+      <c r="H44" s="321"/>
+      <c r="I44" s="321"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="314"/>
-      <c r="B45" s="314"/>
-      <c r="C45" s="312"/>
-      <c r="D45" s="312"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="314"/>
-      <c r="G45" s="318"/>
-      <c r="H45" s="319"/>
-      <c r="I45" s="319"/>
+      <c r="A45" s="316"/>
+      <c r="B45" s="316"/>
+      <c r="C45" s="314"/>
+      <c r="D45" s="314"/>
+      <c r="E45" s="314"/>
+      <c r="F45" s="316"/>
+      <c r="G45" s="320"/>
+      <c r="H45" s="321"/>
+      <c r="I45" s="321"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="314"/>
-      <c r="B46" s="314"/>
-      <c r="C46" s="312"/>
-      <c r="D46" s="312"/>
-      <c r="E46" s="312"/>
-      <c r="F46" s="314"/>
-      <c r="G46" s="318"/>
-      <c r="H46" s="319"/>
-      <c r="I46" s="319"/>
+      <c r="A46" s="316"/>
+      <c r="B46" s="316"/>
+      <c r="C46" s="314"/>
+      <c r="D46" s="314"/>
+      <c r="E46" s="314"/>
+      <c r="F46" s="316"/>
+      <c r="G46" s="320"/>
+      <c r="H46" s="321"/>
+      <c r="I46" s="321"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="314"/>
-      <c r="B47" s="314"/>
-      <c r="C47" s="312"/>
-      <c r="D47" s="312"/>
-      <c r="E47" s="312"/>
-      <c r="F47" s="314"/>
-      <c r="G47" s="318"/>
-      <c r="H47" s="319"/>
-      <c r="I47" s="319"/>
+      <c r="A47" s="316"/>
+      <c r="B47" s="316"/>
+      <c r="C47" s="314"/>
+      <c r="D47" s="314"/>
+      <c r="E47" s="314"/>
+      <c r="F47" s="316"/>
+      <c r="G47" s="320"/>
+      <c r="H47" s="321"/>
+      <c r="I47" s="321"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="314"/>
-      <c r="B48" s="314"/>
-      <c r="C48" s="312"/>
-      <c r="D48" s="312"/>
-      <c r="E48" s="312"/>
-      <c r="F48" s="314"/>
-      <c r="G48" s="318"/>
-      <c r="H48" s="319"/>
-      <c r="I48" s="319"/>
+      <c r="A48" s="316"/>
+      <c r="B48" s="316"/>
+      <c r="C48" s="314"/>
+      <c r="D48" s="314"/>
+      <c r="E48" s="314"/>
+      <c r="F48" s="316"/>
+      <c r="G48" s="320"/>
+      <c r="H48" s="321"/>
+      <c r="I48" s="321"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="314"/>
-      <c r="B49" s="314"/>
-      <c r="C49" s="312"/>
-      <c r="D49" s="312"/>
-      <c r="E49" s="312"/>
-      <c r="F49" s="314"/>
-      <c r="G49" s="318"/>
-      <c r="H49" s="319"/>
-      <c r="I49" s="319"/>
+      <c r="A49" s="316"/>
+      <c r="B49" s="316"/>
+      <c r="C49" s="314"/>
+      <c r="D49" s="314"/>
+      <c r="E49" s="314"/>
+      <c r="F49" s="316"/>
+      <c r="G49" s="320"/>
+      <c r="H49" s="321"/>
+      <c r="I49" s="321"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="314"/>
-      <c r="B50" s="314"/>
-      <c r="C50" s="312"/>
-      <c r="D50" s="312"/>
-      <c r="E50" s="312"/>
-      <c r="F50" s="314"/>
-      <c r="G50" s="318"/>
-      <c r="H50" s="319"/>
-      <c r="I50" s="319"/>
+      <c r="A50" s="316"/>
+      <c r="B50" s="316"/>
+      <c r="C50" s="314"/>
+      <c r="D50" s="314"/>
+      <c r="E50" s="314"/>
+      <c r="F50" s="316"/>
+      <c r="G50" s="320"/>
+      <c r="H50" s="321"/>
+      <c r="I50" s="321"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="314"/>
-      <c r="B51" s="314"/>
-      <c r="C51" s="312"/>
-      <c r="D51" s="312"/>
-      <c r="E51" s="312"/>
-      <c r="F51" s="314"/>
-      <c r="G51" s="318"/>
-      <c r="H51" s="319"/>
-      <c r="I51" s="319"/>
+      <c r="A51" s="316"/>
+      <c r="B51" s="316"/>
+      <c r="C51" s="314"/>
+      <c r="D51" s="314"/>
+      <c r="E51" s="314"/>
+      <c r="F51" s="316"/>
+      <c r="G51" s="320"/>
+      <c r="H51" s="321"/>
+      <c r="I51" s="321"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="314"/>
-      <c r="B52" s="314"/>
-      <c r="C52" s="312"/>
-      <c r="D52" s="312"/>
-      <c r="E52" s="312"/>
-      <c r="F52" s="314"/>
-      <c r="G52" s="318"/>
-      <c r="H52" s="319"/>
-      <c r="I52" s="319"/>
+      <c r="A52" s="316"/>
+      <c r="B52" s="316"/>
+      <c r="C52" s="314"/>
+      <c r="D52" s="314"/>
+      <c r="E52" s="314"/>
+      <c r="F52" s="316"/>
+      <c r="G52" s="320"/>
+      <c r="H52" s="321"/>
+      <c r="I52" s="321"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="314"/>
-      <c r="B53" s="314"/>
-      <c r="C53" s="312"/>
-      <c r="D53" s="312"/>
-      <c r="E53" s="312"/>
-      <c r="F53" s="314"/>
-      <c r="G53" s="318"/>
-      <c r="H53" s="319"/>
-      <c r="I53" s="319"/>
+      <c r="A53" s="316"/>
+      <c r="B53" s="316"/>
+      <c r="C53" s="314"/>
+      <c r="D53" s="314"/>
+      <c r="E53" s="314"/>
+      <c r="F53" s="316"/>
+      <c r="G53" s="320"/>
+      <c r="H53" s="321"/>
+      <c r="I53" s="321"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="314"/>
-      <c r="B54" s="314"/>
-      <c r="C54" s="312"/>
-      <c r="D54" s="312"/>
-      <c r="E54" s="312"/>
-      <c r="F54" s="314"/>
-      <c r="G54" s="318"/>
-      <c r="H54" s="319"/>
-      <c r="I54" s="319"/>
+      <c r="A54" s="316"/>
+      <c r="B54" s="316"/>
+      <c r="C54" s="314"/>
+      <c r="D54" s="314"/>
+      <c r="E54" s="314"/>
+      <c r="F54" s="316"/>
+      <c r="G54" s="320"/>
+      <c r="H54" s="321"/>
+      <c r="I54" s="321"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="314"/>
-      <c r="B55" s="314"/>
-      <c r="C55" s="312"/>
-      <c r="D55" s="312"/>
-      <c r="E55" s="312"/>
-      <c r="F55" s="314"/>
-      <c r="G55" s="318"/>
-      <c r="H55" s="319"/>
-      <c r="I55" s="319"/>
+      <c r="A55" s="316"/>
+      <c r="B55" s="316"/>
+      <c r="C55" s="314"/>
+      <c r="D55" s="314"/>
+      <c r="E55" s="314"/>
+      <c r="F55" s="316"/>
+      <c r="G55" s="320"/>
+      <c r="H55" s="321"/>
+      <c r="I55" s="321"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="314"/>
-      <c r="B56" s="314"/>
-      <c r="C56" s="312"/>
-      <c r="D56" s="312"/>
-      <c r="E56" s="312"/>
-      <c r="F56" s="314"/>
-      <c r="G56" s="318"/>
-      <c r="H56" s="319"/>
-      <c r="I56" s="319"/>
+      <c r="A56" s="316"/>
+      <c r="B56" s="316"/>
+      <c r="C56" s="314"/>
+      <c r="D56" s="314"/>
+      <c r="E56" s="314"/>
+      <c r="F56" s="316"/>
+      <c r="G56" s="320"/>
+      <c r="H56" s="321"/>
+      <c r="I56" s="321"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="314"/>
-      <c r="B57" s="314"/>
-      <c r="C57" s="312"/>
-      <c r="D57" s="312"/>
-      <c r="E57" s="312"/>
-      <c r="F57" s="314"/>
-      <c r="G57" s="318"/>
-      <c r="H57" s="319"/>
-      <c r="I57" s="319"/>
+      <c r="A57" s="316"/>
+      <c r="B57" s="316"/>
+      <c r="C57" s="314"/>
+      <c r="D57" s="314"/>
+      <c r="E57" s="314"/>
+      <c r="F57" s="316"/>
+      <c r="G57" s="320"/>
+      <c r="H57" s="321"/>
+      <c r="I57" s="321"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="314"/>
-      <c r="B58" s="314"/>
-      <c r="C58" s="312"/>
-      <c r="D58" s="312"/>
-      <c r="E58" s="312"/>
-      <c r="F58" s="314"/>
-      <c r="G58" s="318"/>
-      <c r="H58" s="319"/>
-      <c r="I58" s="319"/>
+      <c r="A58" s="316"/>
+      <c r="B58" s="316"/>
+      <c r="C58" s="314"/>
+      <c r="D58" s="314"/>
+      <c r="E58" s="314"/>
+      <c r="F58" s="316"/>
+      <c r="G58" s="320"/>
+      <c r="H58" s="321"/>
+      <c r="I58" s="321"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="314"/>
-      <c r="B59" s="314"/>
-      <c r="C59" s="312"/>
-      <c r="D59" s="312"/>
-      <c r="E59" s="312"/>
-      <c r="F59" s="314"/>
-      <c r="G59" s="318"/>
-      <c r="H59" s="319"/>
-      <c r="I59" s="319"/>
+      <c r="A59" s="316"/>
+      <c r="B59" s="316"/>
+      <c r="C59" s="314"/>
+      <c r="D59" s="314"/>
+      <c r="E59" s="314"/>
+      <c r="F59" s="316"/>
+      <c r="G59" s="320"/>
+      <c r="H59" s="321"/>
+      <c r="I59" s="321"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="314"/>
-      <c r="B60" s="314"/>
-      <c r="C60" s="312"/>
-      <c r="D60" s="312"/>
-      <c r="E60" s="312"/>
-      <c r="F60" s="314"/>
-      <c r="G60" s="318"/>
-      <c r="H60" s="319"/>
-      <c r="I60" s="319"/>
+      <c r="A60" s="316"/>
+      <c r="B60" s="316"/>
+      <c r="C60" s="314"/>
+      <c r="D60" s="314"/>
+      <c r="E60" s="314"/>
+      <c r="F60" s="316"/>
+      <c r="G60" s="320"/>
+      <c r="H60" s="321"/>
+      <c r="I60" s="321"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="314"/>
-      <c r="B61" s="314"/>
-      <c r="C61" s="312"/>
-      <c r="D61" s="312"/>
-      <c r="E61" s="312"/>
-      <c r="F61" s="314"/>
-      <c r="G61" s="318"/>
-      <c r="H61" s="319"/>
-      <c r="I61" s="319"/>
+      <c r="A61" s="316"/>
+      <c r="B61" s="316"/>
+      <c r="C61" s="314"/>
+      <c r="D61" s="314"/>
+      <c r="E61" s="314"/>
+      <c r="F61" s="316"/>
+      <c r="G61" s="320"/>
+      <c r="H61" s="321"/>
+      <c r="I61" s="321"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="314"/>
-      <c r="B62" s="314"/>
-      <c r="C62" s="312"/>
-      <c r="D62" s="312"/>
-      <c r="E62" s="312"/>
-      <c r="F62" s="314"/>
-      <c r="G62" s="318"/>
-      <c r="H62" s="319"/>
-      <c r="I62" s="319"/>
+      <c r="A62" s="316"/>
+      <c r="B62" s="316"/>
+      <c r="C62" s="314"/>
+      <c r="D62" s="314"/>
+      <c r="E62" s="314"/>
+      <c r="F62" s="316"/>
+      <c r="G62" s="320"/>
+      <c r="H62" s="321"/>
+      <c r="I62" s="321"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="314"/>
-      <c r="B63" s="314"/>
-      <c r="C63" s="312"/>
-      <c r="D63" s="312"/>
-      <c r="E63" s="312"/>
-      <c r="F63" s="314"/>
-      <c r="G63" s="318"/>
-      <c r="H63" s="319"/>
-      <c r="I63" s="319"/>
+      <c r="A63" s="316"/>
+      <c r="B63" s="316"/>
+      <c r="C63" s="314"/>
+      <c r="D63" s="314"/>
+      <c r="E63" s="314"/>
+      <c r="F63" s="316"/>
+      <c r="G63" s="320"/>
+      <c r="H63" s="321"/>
+      <c r="I63" s="321"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="314"/>
-      <c r="B64" s="314"/>
-      <c r="C64" s="312"/>
-      <c r="D64" s="312"/>
-      <c r="E64" s="312"/>
-      <c r="F64" s="314"/>
-      <c r="G64" s="318"/>
-      <c r="H64" s="319"/>
-      <c r="I64" s="319"/>
+      <c r="A64" s="316"/>
+      <c r="B64" s="316"/>
+      <c r="C64" s="314"/>
+      <c r="D64" s="314"/>
+      <c r="E64" s="314"/>
+      <c r="F64" s="316"/>
+      <c r="G64" s="320"/>
+      <c r="H64" s="321"/>
+      <c r="I64" s="321"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="314"/>
-      <c r="B65" s="314"/>
-      <c r="C65" s="312"/>
-      <c r="D65" s="312"/>
-      <c r="E65" s="312"/>
-      <c r="F65" s="314"/>
-      <c r="G65" s="318"/>
-      <c r="H65" s="319"/>
-      <c r="I65" s="319"/>
+      <c r="A65" s="316"/>
+      <c r="B65" s="316"/>
+      <c r="C65" s="314"/>
+      <c r="D65" s="314"/>
+      <c r="E65" s="314"/>
+      <c r="F65" s="316"/>
+      <c r="G65" s="320"/>
+      <c r="H65" s="321"/>
+      <c r="I65" s="321"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="314"/>
-      <c r="B66" s="314"/>
-      <c r="C66" s="312"/>
-      <c r="D66" s="312"/>
-      <c r="E66" s="312"/>
-      <c r="F66" s="314"/>
-      <c r="G66" s="318"/>
-      <c r="H66" s="319"/>
-      <c r="I66" s="319"/>
+      <c r="A66" s="316"/>
+      <c r="B66" s="316"/>
+      <c r="C66" s="314"/>
+      <c r="D66" s="314"/>
+      <c r="E66" s="314"/>
+      <c r="F66" s="316"/>
+      <c r="G66" s="320"/>
+      <c r="H66" s="321"/>
+      <c r="I66" s="321"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="314"/>
-      <c r="B67" s="314"/>
-      <c r="C67" s="312"/>
-      <c r="D67" s="312"/>
-      <c r="E67" s="312"/>
-      <c r="F67" s="314"/>
-      <c r="G67" s="318"/>
-      <c r="H67" s="319"/>
-      <c r="I67" s="319"/>
+      <c r="A67" s="316"/>
+      <c r="B67" s="316"/>
+      <c r="C67" s="314"/>
+      <c r="D67" s="314"/>
+      <c r="E67" s="314"/>
+      <c r="F67" s="316"/>
+      <c r="G67" s="320"/>
+      <c r="H67" s="321"/>
+      <c r="I67" s="321"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="314"/>
-      <c r="B68" s="314"/>
-      <c r="C68" s="312"/>
-      <c r="D68" s="312"/>
-      <c r="E68" s="312"/>
-      <c r="F68" s="314"/>
-      <c r="G68" s="318"/>
-      <c r="H68" s="319"/>
-      <c r="I68" s="319"/>
+      <c r="A68" s="316"/>
+      <c r="B68" s="316"/>
+      <c r="C68" s="314"/>
+      <c r="D68" s="314"/>
+      <c r="E68" s="314"/>
+      <c r="F68" s="316"/>
+      <c r="G68" s="320"/>
+      <c r="H68" s="321"/>
+      <c r="I68" s="321"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="314"/>
-      <c r="B69" s="314"/>
-      <c r="C69" s="312"/>
-      <c r="D69" s="312"/>
-      <c r="E69" s="312"/>
-      <c r="F69" s="314"/>
-      <c r="G69" s="318"/>
-      <c r="H69" s="319"/>
-      <c r="I69" s="319"/>
+      <c r="A69" s="316"/>
+      <c r="B69" s="316"/>
+      <c r="C69" s="314"/>
+      <c r="D69" s="314"/>
+      <c r="E69" s="314"/>
+      <c r="F69" s="316"/>
+      <c r="G69" s="320"/>
+      <c r="H69" s="321"/>
+      <c r="I69" s="321"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="314"/>
-      <c r="B70" s="314"/>
-      <c r="C70" s="312"/>
-      <c r="D70" s="312"/>
-      <c r="E70" s="312"/>
-      <c r="F70" s="314"/>
-      <c r="G70" s="318"/>
-      <c r="H70" s="319"/>
-      <c r="I70" s="319"/>
+      <c r="A70" s="316"/>
+      <c r="B70" s="316"/>
+      <c r="C70" s="314"/>
+      <c r="D70" s="314"/>
+      <c r="E70" s="314"/>
+      <c r="F70" s="316"/>
+      <c r="G70" s="320"/>
+      <c r="H70" s="321"/>
+      <c r="I70" s="321"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="314"/>
-      <c r="B71" s="314"/>
-      <c r="C71" s="312"/>
-      <c r="D71" s="312"/>
-      <c r="E71" s="312"/>
-      <c r="F71" s="314"/>
-      <c r="G71" s="318"/>
-      <c r="H71" s="319"/>
-      <c r="I71" s="319"/>
+      <c r="A71" s="316"/>
+      <c r="B71" s="316"/>
+      <c r="C71" s="314"/>
+      <c r="D71" s="314"/>
+      <c r="E71" s="314"/>
+      <c r="F71" s="316"/>
+      <c r="G71" s="320"/>
+      <c r="H71" s="321"/>
+      <c r="I71" s="321"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="314"/>
-      <c r="B72" s="314"/>
-      <c r="C72" s="312"/>
-      <c r="D72" s="312"/>
-      <c r="E72" s="312"/>
-      <c r="F72" s="314"/>
-      <c r="G72" s="318"/>
-      <c r="H72" s="319"/>
-      <c r="I72" s="319"/>
+      <c r="A72" s="316"/>
+      <c r="B72" s="316"/>
+      <c r="C72" s="314"/>
+      <c r="D72" s="314"/>
+      <c r="E72" s="314"/>
+      <c r="F72" s="316"/>
+      <c r="G72" s="320"/>
+      <c r="H72" s="321"/>
+      <c r="I72" s="321"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="314"/>
-      <c r="B73" s="314"/>
-      <c r="C73" s="312"/>
-      <c r="D73" s="312"/>
-      <c r="E73" s="312"/>
-      <c r="F73" s="314"/>
-      <c r="G73" s="318"/>
-      <c r="H73" s="319"/>
-      <c r="I73" s="319"/>
+      <c r="A73" s="316"/>
+      <c r="B73" s="316"/>
+      <c r="C73" s="314"/>
+      <c r="D73" s="314"/>
+      <c r="E73" s="314"/>
+      <c r="F73" s="316"/>
+      <c r="G73" s="320"/>
+      <c r="H73" s="321"/>
+      <c r="I73" s="321"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="314"/>
-      <c r="B74" s="314"/>
-      <c r="C74" s="312"/>
-      <c r="D74" s="312"/>
-      <c r="E74" s="312"/>
-      <c r="F74" s="314"/>
-      <c r="G74" s="318"/>
-      <c r="H74" s="319"/>
-      <c r="I74" s="319"/>
+      <c r="A74" s="316"/>
+      <c r="B74" s="316"/>
+      <c r="C74" s="314"/>
+      <c r="D74" s="314"/>
+      <c r="E74" s="314"/>
+      <c r="F74" s="316"/>
+      <c r="G74" s="320"/>
+      <c r="H74" s="321"/>
+      <c r="I74" s="321"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="314"/>
-      <c r="B75" s="314"/>
-      <c r="C75" s="312"/>
-      <c r="D75" s="312"/>
-      <c r="E75" s="312"/>
-      <c r="F75" s="314"/>
-      <c r="G75" s="318"/>
-      <c r="H75" s="319"/>
-      <c r="I75" s="319"/>
+      <c r="A75" s="316"/>
+      <c r="B75" s="316"/>
+      <c r="C75" s="314"/>
+      <c r="D75" s="314"/>
+      <c r="E75" s="314"/>
+      <c r="F75" s="316"/>
+      <c r="G75" s="320"/>
+      <c r="H75" s="321"/>
+      <c r="I75" s="321"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="314"/>
-      <c r="B76" s="314"/>
-      <c r="C76" s="312"/>
-      <c r="D76" s="312"/>
-      <c r="E76" s="312"/>
-      <c r="F76" s="314"/>
-      <c r="G76" s="318"/>
-      <c r="H76" s="319"/>
-      <c r="I76" s="319"/>
+      <c r="A76" s="316"/>
+      <c r="B76" s="316"/>
+      <c r="C76" s="314"/>
+      <c r="D76" s="314"/>
+      <c r="E76" s="314"/>
+      <c r="F76" s="316"/>
+      <c r="G76" s="320"/>
+      <c r="H76" s="321"/>
+      <c r="I76" s="321"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="314"/>
-      <c r="B77" s="314"/>
-      <c r="C77" s="312"/>
-      <c r="D77" s="312"/>
-      <c r="E77" s="312"/>
-      <c r="F77" s="314"/>
-      <c r="G77" s="318"/>
-      <c r="H77" s="319"/>
-      <c r="I77" s="319"/>
+      <c r="A77" s="316"/>
+      <c r="B77" s="316"/>
+      <c r="C77" s="314"/>
+      <c r="D77" s="314"/>
+      <c r="E77" s="314"/>
+      <c r="F77" s="316"/>
+      <c r="G77" s="320"/>
+      <c r="H77" s="321"/>
+      <c r="I77" s="321"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="314"/>
-      <c r="B78" s="314"/>
-      <c r="C78" s="312"/>
-      <c r="D78" s="312"/>
-      <c r="E78" s="312"/>
-      <c r="F78" s="314"/>
-      <c r="G78" s="318"/>
-      <c r="H78" s="319"/>
-      <c r="I78" s="319"/>
+      <c r="A78" s="316"/>
+      <c r="B78" s="316"/>
+      <c r="C78" s="314"/>
+      <c r="D78" s="314"/>
+      <c r="E78" s="314"/>
+      <c r="F78" s="316"/>
+      <c r="G78" s="320"/>
+      <c r="H78" s="321"/>
+      <c r="I78" s="321"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="314"/>
-      <c r="B79" s="314"/>
-      <c r="C79" s="312"/>
-      <c r="D79" s="312"/>
-      <c r="E79" s="312"/>
-      <c r="F79" s="314"/>
-      <c r="G79" s="318"/>
-      <c r="H79" s="319"/>
-      <c r="I79" s="319"/>
+      <c r="A79" s="316"/>
+      <c r="B79" s="316"/>
+      <c r="C79" s="314"/>
+      <c r="D79" s="314"/>
+      <c r="E79" s="314"/>
+      <c r="F79" s="316"/>
+      <c r="G79" s="320"/>
+      <c r="H79" s="321"/>
+      <c r="I79" s="321"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="314"/>
-      <c r="B80" s="314"/>
-      <c r="C80" s="312"/>
-      <c r="D80" s="312"/>
-      <c r="E80" s="312"/>
-      <c r="F80" s="314"/>
-      <c r="G80" s="318"/>
-      <c r="H80" s="319"/>
-      <c r="I80" s="319"/>
+      <c r="A80" s="316"/>
+      <c r="B80" s="316"/>
+      <c r="C80" s="314"/>
+      <c r="D80" s="314"/>
+      <c r="E80" s="314"/>
+      <c r="F80" s="316"/>
+      <c r="G80" s="320"/>
+      <c r="H80" s="321"/>
+      <c r="I80" s="321"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="314"/>
-      <c r="B81" s="314"/>
-      <c r="C81" s="312"/>
-      <c r="D81" s="312"/>
-      <c r="E81" s="312"/>
-      <c r="F81" s="314"/>
-      <c r="G81" s="318"/>
-      <c r="H81" s="319"/>
-      <c r="I81" s="319"/>
+      <c r="A81" s="316"/>
+      <c r="B81" s="316"/>
+      <c r="C81" s="314"/>
+      <c r="D81" s="314"/>
+      <c r="E81" s="314"/>
+      <c r="F81" s="316"/>
+      <c r="G81" s="320"/>
+      <c r="H81" s="321"/>
+      <c r="I81" s="321"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="314"/>
-      <c r="B82" s="314"/>
-      <c r="C82" s="312"/>
-      <c r="D82" s="312"/>
-      <c r="E82" s="312"/>
-      <c r="F82" s="314"/>
-      <c r="G82" s="318"/>
-      <c r="H82" s="319"/>
-      <c r="I82" s="319"/>
+      <c r="A82" s="316"/>
+      <c r="B82" s="316"/>
+      <c r="C82" s="314"/>
+      <c r="D82" s="314"/>
+      <c r="E82" s="314"/>
+      <c r="F82" s="316"/>
+      <c r="G82" s="320"/>
+      <c r="H82" s="321"/>
+      <c r="I82" s="321"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="314"/>
-      <c r="B83" s="314"/>
-      <c r="C83" s="312"/>
-      <c r="D83" s="312"/>
-      <c r="E83" s="312"/>
-      <c r="F83" s="314"/>
-      <c r="G83" s="318"/>
-      <c r="H83" s="319"/>
-      <c r="I83" s="319"/>
+      <c r="A83" s="316"/>
+      <c r="B83" s="316"/>
+      <c r="C83" s="314"/>
+      <c r="D83" s="314"/>
+      <c r="E83" s="314"/>
+      <c r="F83" s="316"/>
+      <c r="G83" s="320"/>
+      <c r="H83" s="321"/>
+      <c r="I83" s="321"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="314"/>
-      <c r="B84" s="314"/>
-      <c r="C84" s="312"/>
-      <c r="D84" s="312"/>
-      <c r="E84" s="312"/>
-      <c r="F84" s="314"/>
-      <c r="G84" s="318"/>
-      <c r="H84" s="319"/>
-      <c r="I84" s="319"/>
+      <c r="A84" s="316"/>
+      <c r="B84" s="316"/>
+      <c r="C84" s="314"/>
+      <c r="D84" s="314"/>
+      <c r="E84" s="314"/>
+      <c r="F84" s="316"/>
+      <c r="G84" s="320"/>
+      <c r="H84" s="321"/>
+      <c r="I84" s="321"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="314"/>
-      <c r="B85" s="314"/>
-      <c r="C85" s="312"/>
-      <c r="D85" s="312"/>
-      <c r="E85" s="312"/>
-      <c r="F85" s="314"/>
-      <c r="G85" s="318"/>
-      <c r="H85" s="319"/>
-      <c r="I85" s="319"/>
+      <c r="A85" s="316"/>
+      <c r="B85" s="316"/>
+      <c r="C85" s="314"/>
+      <c r="D85" s="314"/>
+      <c r="E85" s="314"/>
+      <c r="F85" s="316"/>
+      <c r="G85" s="320"/>
+      <c r="H85" s="321"/>
+      <c r="I85" s="321"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="314"/>
-      <c r="B86" s="314"/>
-      <c r="C86" s="312"/>
-      <c r="D86" s="312"/>
-      <c r="E86" s="312"/>
-      <c r="F86" s="314"/>
-      <c r="G86" s="318"/>
-      <c r="H86" s="319"/>
-      <c r="I86" s="319"/>
+      <c r="A86" s="316"/>
+      <c r="B86" s="316"/>
+      <c r="C86" s="314"/>
+      <c r="D86" s="314"/>
+      <c r="E86" s="314"/>
+      <c r="F86" s="316"/>
+      <c r="G86" s="320"/>
+      <c r="H86" s="321"/>
+      <c r="I86" s="321"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="314"/>
-      <c r="B87" s="314"/>
-      <c r="C87" s="312"/>
-      <c r="D87" s="312"/>
-      <c r="E87" s="312"/>
-      <c r="F87" s="314"/>
-      <c r="G87" s="318"/>
-      <c r="H87" s="319"/>
-      <c r="I87" s="319"/>
+      <c r="A87" s="316"/>
+      <c r="B87" s="316"/>
+      <c r="C87" s="314"/>
+      <c r="D87" s="314"/>
+      <c r="E87" s="314"/>
+      <c r="F87" s="316"/>
+      <c r="G87" s="320"/>
+      <c r="H87" s="321"/>
+      <c r="I87" s="321"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="314"/>
-      <c r="B88" s="314"/>
-      <c r="C88" s="312"/>
-      <c r="D88" s="312"/>
-      <c r="E88" s="312"/>
-      <c r="F88" s="314"/>
-      <c r="G88" s="318"/>
-      <c r="H88" s="319"/>
-      <c r="I88" s="319"/>
+      <c r="A88" s="316"/>
+      <c r="B88" s="316"/>
+      <c r="C88" s="314"/>
+      <c r="D88" s="314"/>
+      <c r="E88" s="314"/>
+      <c r="F88" s="316"/>
+      <c r="G88" s="320"/>
+      <c r="H88" s="321"/>
+      <c r="I88" s="321"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="314"/>
-      <c r="B89" s="314"/>
-      <c r="C89" s="312"/>
-      <c r="D89" s="312"/>
-      <c r="E89" s="312"/>
-      <c r="F89" s="314"/>
-      <c r="G89" s="318"/>
-      <c r="H89" s="319"/>
-      <c r="I89" s="319"/>
+      <c r="A89" s="316"/>
+      <c r="B89" s="316"/>
+      <c r="C89" s="314"/>
+      <c r="D89" s="314"/>
+      <c r="E89" s="314"/>
+      <c r="F89" s="316"/>
+      <c r="G89" s="320"/>
+      <c r="H89" s="321"/>
+      <c r="I89" s="321"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="314"/>
-      <c r="B90" s="314"/>
-      <c r="C90" s="312"/>
-      <c r="D90" s="312"/>
-      <c r="E90" s="312"/>
-      <c r="F90" s="314"/>
-      <c r="G90" s="318"/>
-      <c r="H90" s="319"/>
-      <c r="I90" s="319"/>
+      <c r="A90" s="316"/>
+      <c r="B90" s="316"/>
+      <c r="C90" s="314"/>
+      <c r="D90" s="314"/>
+      <c r="E90" s="314"/>
+      <c r="F90" s="316"/>
+      <c r="G90" s="320"/>
+      <c r="H90" s="321"/>
+      <c r="I90" s="321"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="314"/>
-      <c r="B91" s="314"/>
-      <c r="C91" s="312"/>
-      <c r="D91" s="312"/>
-      <c r="E91" s="312"/>
-      <c r="F91" s="314"/>
-      <c r="G91" s="318"/>
-      <c r="H91" s="319"/>
-      <c r="I91" s="319"/>
+      <c r="A91" s="316"/>
+      <c r="B91" s="316"/>
+      <c r="C91" s="314"/>
+      <c r="D91" s="314"/>
+      <c r="E91" s="314"/>
+      <c r="F91" s="316"/>
+      <c r="G91" s="320"/>
+      <c r="H91" s="321"/>
+      <c r="I91" s="321"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="314"/>
-      <c r="B92" s="314"/>
-      <c r="C92" s="312"/>
-      <c r="D92" s="312"/>
-      <c r="E92" s="312"/>
-      <c r="F92" s="314"/>
-      <c r="G92" s="318"/>
-      <c r="H92" s="319"/>
-      <c r="I92" s="319"/>
+      <c r="A92" s="316"/>
+      <c r="B92" s="316"/>
+      <c r="C92" s="314"/>
+      <c r="D92" s="314"/>
+      <c r="E92" s="314"/>
+      <c r="F92" s="316"/>
+      <c r="G92" s="320"/>
+      <c r="H92" s="321"/>
+      <c r="I92" s="321"/>
     </row>
   </sheetData>
   <sortState ref="B1:C92">
@@ -8253,12 +8330,12 @@
   <sheetPr/>
   <dimension ref="A1:AQ115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AK4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AJ13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM7" sqref="AM7"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -8427,15 +8504,15 @@
       <c r="AK2" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="280" t="s">
+      <c r="AL2" s="281" t="s">
         <v>38</v>
       </c>
       <c r="AM2" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="281"/>
-      <c r="AO2" s="281"/>
-      <c r="AP2" s="281"/>
+      <c r="AN2" s="282"/>
+      <c r="AO2" s="282"/>
+      <c r="AP2" s="282"/>
     </row>
     <row r="3" ht="29" spans="1:42">
       <c r="A3" s="119"/>
@@ -8515,9 +8592,9 @@
       <c r="AK3" s="175"/>
       <c r="AL3" s="175"/>
       <c r="AM3" s="175"/>
-      <c r="AN3" s="281"/>
-      <c r="AO3" s="281"/>
-      <c r="AP3" s="281"/>
+      <c r="AN3" s="282"/>
+      <c r="AO3" s="282"/>
+      <c r="AP3" s="282"/>
     </row>
     <row r="4" s="109" customFormat="1" ht="18" spans="1:42">
       <c r="A4" s="124"/>
@@ -8561,15 +8638,15 @@
       <c r="AE4" s="256"/>
       <c r="AF4" s="256"/>
       <c r="AG4" s="256"/>
-      <c r="AH4" s="269"/>
-      <c r="AI4" s="269"/>
-      <c r="AJ4" s="269"/>
-      <c r="AK4" s="269"/>
-      <c r="AL4" s="269"/>
-      <c r="AM4" s="269"/>
-      <c r="AN4" s="282"/>
-      <c r="AO4" s="282"/>
-      <c r="AP4" s="282"/>
+      <c r="AH4" s="270"/>
+      <c r="AI4" s="270"/>
+      <c r="AJ4" s="270"/>
+      <c r="AK4" s="270"/>
+      <c r="AL4" s="270"/>
+      <c r="AM4" s="270"/>
+      <c r="AN4" s="283"/>
+      <c r="AO4" s="283"/>
+      <c r="AP4" s="283"/>
     </row>
     <row r="5" s="109" customFormat="1" ht="18" spans="1:42">
       <c r="A5" s="124"/>
@@ -8651,15 +8728,15 @@
       <c r="AE5" s="256"/>
       <c r="AF5" s="256"/>
       <c r="AG5" s="256"/>
-      <c r="AH5" s="269"/>
-      <c r="AI5" s="269"/>
-      <c r="AJ5" s="269"/>
-      <c r="AK5" s="269"/>
-      <c r="AL5" s="269"/>
-      <c r="AM5" s="269"/>
-      <c r="AN5" s="282"/>
-      <c r="AO5" s="282"/>
-      <c r="AP5" s="282"/>
+      <c r="AH5" s="270"/>
+      <c r="AI5" s="270"/>
+      <c r="AJ5" s="270"/>
+      <c r="AK5" s="270"/>
+      <c r="AL5" s="270"/>
+      <c r="AM5" s="270"/>
+      <c r="AN5" s="283"/>
+      <c r="AO5" s="283"/>
+      <c r="AP5" s="283"/>
     </row>
     <row r="6" s="109" customFormat="1" ht="18" spans="1:42">
       <c r="A6" s="124"/>
@@ -8748,15 +8825,15 @@
       </c>
       <c r="AF6" s="256"/>
       <c r="AG6" s="256"/>
-      <c r="AH6" s="269"/>
-      <c r="AI6" s="269"/>
-      <c r="AJ6" s="269"/>
-      <c r="AK6" s="269"/>
-      <c r="AL6" s="269"/>
-      <c r="AM6" s="269"/>
-      <c r="AN6" s="282"/>
-      <c r="AO6" s="282"/>
-      <c r="AP6" s="282"/>
+      <c r="AH6" s="270"/>
+      <c r="AI6" s="270"/>
+      <c r="AJ6" s="270"/>
+      <c r="AK6" s="270"/>
+      <c r="AL6" s="270"/>
+      <c r="AM6" s="270"/>
+      <c r="AN6" s="283"/>
+      <c r="AO6" s="283"/>
+      <c r="AP6" s="283"/>
     </row>
     <row r="7" s="110" customFormat="1" ht="45" spans="1:43">
       <c r="A7" s="128">
@@ -8850,12 +8927,12 @@
         <v>0.0918367346938776</v>
       </c>
       <c r="AF7" s="232"/>
-      <c r="AG7" s="270"/>
+      <c r="AG7" s="271"/>
       <c r="AH7" s="180"/>
       <c r="AI7" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="AJ7" s="271" t="s">
+      <c r="AJ7" s="272" t="s">
         <v>66</v>
       </c>
       <c r="AK7" s="129" t="s">
@@ -8867,16 +8944,16 @@
       <c r="AM7" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="AN7" s="271" t="s">
+      <c r="AN7" s="272" t="s">
         <v>67</v>
       </c>
-      <c r="AO7" s="290">
+      <c r="AO7" s="291">
         <v>44549</v>
       </c>
       <c r="AP7" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="AQ7" s="291"/>
+      <c r="AQ7" s="292"/>
     </row>
     <row r="8" s="111" customFormat="1" ht="58" spans="1:42">
       <c r="A8" s="131" t="s">
@@ -8973,28 +9050,28 @@
       <c r="AH8" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="AI8" s="272" t="s">
+      <c r="AI8" s="273" t="s">
         <v>72</v>
       </c>
-      <c r="AJ8" s="273" t="s">
+      <c r="AJ8" s="274" t="s">
         <v>73</v>
       </c>
       <c r="AK8" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="AL8" s="272" t="s">
+      <c r="AL8" s="273" t="s">
         <v>65</v>
       </c>
       <c r="AM8" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="AN8" s="273" t="s">
+      <c r="AN8" s="274" t="s">
         <v>75</v>
       </c>
-      <c r="AO8" s="292">
+      <c r="AO8" s="293">
         <v>44553</v>
       </c>
-      <c r="AP8" s="293"/>
+      <c r="AP8" s="294"/>
     </row>
     <row r="9" s="112" customFormat="1" ht="44" spans="1:42">
       <c r="A9" s="134" t="s">
@@ -9099,7 +9176,7 @@
         <f>(W9-X9)/W9</f>
         <v>0.0829998094149037</v>
       </c>
-      <c r="AG9" s="274">
+      <c r="AG9" s="275">
         <f>(Y9-Z9)/Y9</f>
         <v>0.0967741935483871</v>
       </c>
@@ -9124,7 +9201,7 @@
       <c r="AN9" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="AO9" s="294">
+      <c r="AO9" s="295">
         <v>44549</v>
       </c>
       <c r="AP9" s="135" t="s">
@@ -9227,25 +9304,25 @@
       <c r="AH10" s="259" t="s">
         <v>71</v>
       </c>
-      <c r="AI10" s="275" t="s">
+      <c r="AI10" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="AJ10" s="275" t="s">
+      <c r="AJ10" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="AK10" s="275" t="s">
+      <c r="AK10" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="AL10" s="275" t="s">
+      <c r="AL10" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="AM10" s="275" t="s">
+      <c r="AM10" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="AN10" s="283" t="s">
+      <c r="AN10" s="284" t="s">
         <v>83</v>
       </c>
-      <c r="AO10" s="295">
+      <c r="AO10" s="296">
         <v>44547</v>
       </c>
       <c r="AP10" s="129" t="s">
@@ -9253,7 +9330,7 @@
       </c>
     </row>
     <row r="11" s="111" customFormat="1" ht="30" spans="1:42">
-      <c r="A11" s="320" t="s">
+      <c r="A11" s="322" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="141" t="s">
@@ -9341,28 +9418,28 @@
       <c r="AH11" s="260" t="s">
         <v>71</v>
       </c>
-      <c r="AI11" s="276" t="s">
+      <c r="AI11" s="277" t="s">
         <v>66</v>
       </c>
-      <c r="AJ11" s="276" t="s">
+      <c r="AJ11" s="277" t="s">
         <v>66</v>
       </c>
-      <c r="AK11" s="276" t="s">
+      <c r="AK11" s="277" t="s">
         <v>66</v>
       </c>
-      <c r="AL11" s="272" t="s">
+      <c r="AL11" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AM11" s="276" t="s">
+      <c r="AM11" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="AN11" s="272" t="s">
+      <c r="AN11" s="273" t="s">
         <v>88</v>
       </c>
-      <c r="AO11" s="296">
+      <c r="AO11" s="297">
         <v>44553</v>
       </c>
-      <c r="AP11" s="293"/>
+      <c r="AP11" s="294"/>
     </row>
     <row r="12" s="114" customFormat="1" ht="15" spans="1:42">
       <c r="A12" s="143">
@@ -9455,7 +9532,7 @@
         <f>(W12-X12)/W12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="277"/>
+      <c r="AG12" s="278"/>
       <c r="AH12" s="190" t="s">
         <v>91</v>
       </c>
@@ -9477,10 +9554,10 @@
       <c r="AN12" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="AO12" s="297">
+      <c r="AO12" s="298">
         <v>44553</v>
       </c>
-      <c r="AP12" s="298"/>
+      <c r="AP12" s="299"/>
     </row>
     <row r="13" s="111" customFormat="1" ht="29" spans="1:42">
       <c r="A13" s="147">
@@ -9576,16 +9653,16 @@
       <c r="AM13" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="AN13" s="273" t="s">
+      <c r="AN13" s="274" t="s">
         <v>94</v>
       </c>
-      <c r="AO13" s="299">
+      <c r="AO13" s="300">
         <v>44553</v>
       </c>
-      <c r="AP13" s="300"/>
+      <c r="AP13" s="301"/>
     </row>
     <row r="14" s="113" customFormat="1" ht="36" spans="1:42">
-      <c r="A14" s="321" t="s">
+      <c r="A14" s="323" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="138" t="s">
@@ -9679,7 +9756,7 @@
         <f>(W14-X14)/W14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="278"/>
+      <c r="AG14" s="279"/>
       <c r="AH14" s="154" t="s">
         <v>71</v>
       </c>
@@ -9698,10 +9775,10 @@
       <c r="AM14" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="AN14" s="284" t="s">
+      <c r="AN14" s="285" t="s">
         <v>94</v>
       </c>
-      <c r="AO14" s="301">
+      <c r="AO14" s="302">
         <v>44553</v>
       </c>
       <c r="AP14" s="110"/>
@@ -9810,10 +9887,10 @@
       <c r="AM15" s="196" t="s">
         <v>65</v>
       </c>
-      <c r="AN15" s="285" t="s">
+      <c r="AN15" s="286" t="s">
         <v>83</v>
       </c>
-      <c r="AO15" s="302">
+      <c r="AO15" s="303">
         <v>44553</v>
       </c>
       <c r="AP15" s="110"/>
@@ -9913,7 +9990,7 @@
         <f>(W16-X16)/W16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG16" s="279"/>
+      <c r="AG16" s="280"/>
       <c r="AH16" s="198" t="s">
         <v>71</v>
       </c>
@@ -9932,10 +10009,10 @@
       <c r="AM16" s="198" t="s">
         <v>66</v>
       </c>
-      <c r="AN16" s="271" t="s">
+      <c r="AN16" s="272" t="s">
         <v>83</v>
       </c>
-      <c r="AO16" s="303">
+      <c r="AO16" s="304">
         <v>44553</v>
       </c>
       <c r="AP16" s="110"/>
@@ -10027,17 +10104,17 @@
         <f>(W17-X17)/W17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG17" s="279"/>
+      <c r="AG17" s="280"/>
       <c r="AH17" s="198"/>
       <c r="AI17" s="198"/>
       <c r="AJ17" s="198"/>
       <c r="AK17" s="198"/>
       <c r="AL17" s="198"/>
       <c r="AM17" s="198"/>
-      <c r="AN17" s="271" t="s">
+      <c r="AN17" s="272" t="s">
         <v>106</v>
       </c>
-      <c r="AO17" s="303">
+      <c r="AO17" s="304">
         <v>44553</v>
       </c>
       <c r="AP17" s="110"/>
@@ -10127,13 +10204,13 @@
       <c r="AK18" s="200"/>
       <c r="AL18" s="200"/>
       <c r="AM18" s="200"/>
-      <c r="AN18" s="286" t="s">
+      <c r="AN18" s="287" t="s">
         <v>110</v>
       </c>
-      <c r="AO18" s="304">
+      <c r="AO18" s="305">
         <v>44556</v>
       </c>
-      <c r="AP18" s="305"/>
+      <c r="AP18" s="306"/>
     </row>
     <row r="19" s="115" customFormat="1" ht="47" spans="1:42">
       <c r="A19" s="155" t="s">
@@ -10216,13 +10293,13 @@
       <c r="AK19" s="200"/>
       <c r="AL19" s="200"/>
       <c r="AM19" s="200"/>
-      <c r="AN19" s="286" t="s">
+      <c r="AN19" s="287" t="s">
         <v>110</v>
       </c>
-      <c r="AO19" s="304">
+      <c r="AO19" s="305">
         <v>44553</v>
       </c>
-      <c r="AP19" s="305"/>
+      <c r="AP19" s="306"/>
     </row>
     <row r="20" s="113" customFormat="1" ht="36" spans="1:42">
       <c r="A20" s="149" t="s">
@@ -10327,7 +10404,7 @@
         <f>(Y20-Z20)/Y20</f>
         <v>0.131820231474523</v>
       </c>
-      <c r="AG20" s="278"/>
+      <c r="AG20" s="279"/>
       <c r="AH20" s="154" t="s">
         <v>71</v>
       </c>
@@ -10346,10 +10423,10 @@
       <c r="AM20" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="AN20" s="284" t="s">
+      <c r="AN20" s="285" t="s">
         <v>117</v>
       </c>
-      <c r="AO20" s="301">
+      <c r="AO20" s="302">
         <v>44553</v>
       </c>
       <c r="AP20" s="110"/>
@@ -10425,28 +10502,38 @@
       <c r="AF21" s="265"/>
       <c r="AG21" s="265"/>
       <c r="AH21" s="201"/>
-      <c r="AI21" s="201"/>
-      <c r="AJ21" s="201"/>
-      <c r="AK21" s="201"/>
-      <c r="AL21" s="201"/>
-      <c r="AM21" s="201"/>
-      <c r="AN21" s="287" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO21" s="306">
+      <c r="AI21" s="201" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ21" s="201" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK21" s="201" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL21" s="201" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM21" s="201" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN21" s="288" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO21" s="307">
         <v>44570</v>
       </c>
       <c r="AP21" s="110"/>
     </row>
     <row r="22" s="116" customFormat="1" ht="36" spans="1:42">
       <c r="A22" s="161" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="162" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="163" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" s="164">
         <v>1.06</v>
@@ -10527,20 +10614,20 @@
       <c r="AK22" s="204"/>
       <c r="AL22" s="204"/>
       <c r="AM22" s="204"/>
-      <c r="AN22" s="288" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO22" s="307">
+      <c r="AN22" s="289" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO22" s="308">
         <v>44570</v>
       </c>
-      <c r="AP22" s="308"/>
+      <c r="AP22" s="309"/>
     </row>
     <row r="23" s="116" customFormat="1" ht="32" spans="1:42">
       <c r="A23" s="165" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" s="166" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C23" s="167"/>
       <c r="D23" s="168">
@@ -10632,56 +10719,115 @@
       <c r="AK23" s="205"/>
       <c r="AL23" s="205"/>
       <c r="AM23" s="205"/>
-      <c r="AN23" s="289" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO23" s="309">
+      <c r="AN23" s="290" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO23" s="310">
         <v>44570</v>
       </c>
-      <c r="AP23" s="308"/>
-    </row>
-    <row r="24" spans="1:42">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="206"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="206"/>
-      <c r="K24" s="206"/>
-      <c r="L24" s="206"/>
-      <c r="M24" s="247"/>
-      <c r="N24" s="247"/>
-      <c r="O24" s="247"/>
-      <c r="P24" s="206"/>
-      <c r="Q24" s="206"/>
-      <c r="R24" s="206"/>
-      <c r="S24" s="206"/>
-      <c r="T24" s="206"/>
-      <c r="U24" s="206"/>
-      <c r="V24" s="206"/>
-      <c r="W24" s="206"/>
-      <c r="X24" s="206"/>
-      <c r="Y24" s="206"/>
-      <c r="Z24" s="206"/>
-      <c r="AA24" s="170"/>
-      <c r="AB24" s="247"/>
-      <c r="AC24" s="247"/>
-      <c r="AD24" s="247"/>
-      <c r="AE24" s="247"/>
-      <c r="AF24" s="247"/>
-      <c r="AG24" s="247"/>
-      <c r="AH24" s="170"/>
-      <c r="AI24" s="170"/>
-      <c r="AJ24" s="170"/>
-      <c r="AK24" s="170"/>
-      <c r="AL24" s="170"/>
-      <c r="AM24" s="170"/>
-      <c r="AN24" s="170"/>
-      <c r="AO24" s="170"/>
-      <c r="AP24" s="310"/>
+      <c r="AP23" s="309"/>
+    </row>
+    <row r="24" s="116" customFormat="1" ht="28" spans="1:42">
+      <c r="A24" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="162" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="164">
+        <v>1.49</v>
+      </c>
+      <c r="E24" s="202">
+        <v>25.35</v>
+      </c>
+      <c r="F24" s="203">
+        <v>25.55</v>
+      </c>
+      <c r="G24" s="203">
+        <v>26.97</v>
+      </c>
+      <c r="H24" s="204"/>
+      <c r="I24" s="203">
+        <v>27.92</v>
+      </c>
+      <c r="J24" s="203">
+        <v>18.85</v>
+      </c>
+      <c r="K24" s="203">
+        <v>30.49</v>
+      </c>
+      <c r="L24" s="203">
+        <v>23.53</v>
+      </c>
+      <c r="M24" s="244">
+        <f>(I24-J24)/J24</f>
+        <v>0.481167108753316</v>
+      </c>
+      <c r="N24" s="244">
+        <f>(K24-I24)/K24</f>
+        <v>0.0842899311249589</v>
+      </c>
+      <c r="O24" s="244">
+        <f>(K24-L24)/L24</f>
+        <v>0.29579260518487</v>
+      </c>
+      <c r="P24" s="203">
+        <v>26.3</v>
+      </c>
+      <c r="Q24" s="203">
+        <v>28.95</v>
+      </c>
+      <c r="R24" s="203">
+        <v>27.09</v>
+      </c>
+      <c r="S24" s="203">
+        <v>29.53</v>
+      </c>
+      <c r="T24" s="203">
+        <v>27.12</v>
+      </c>
+      <c r="U24" s="250"/>
+      <c r="V24" s="250"/>
+      <c r="W24" s="250"/>
+      <c r="X24" s="250"/>
+      <c r="Y24" s="250"/>
+      <c r="Z24" s="250"/>
+      <c r="AA24" s="164" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB24" s="244">
+        <f>(K24-P24)/K24</f>
+        <v>0.137422105608396</v>
+      </c>
+      <c r="AC24" s="269">
+        <f>(Q24-R24)/Q24</f>
+        <v>0.0642487046632124</v>
+      </c>
+      <c r="AD24" s="269">
+        <f>(S24-T24)/S24</f>
+        <v>0.0816119200812733</v>
+      </c>
+      <c r="AE24" s="266"/>
+      <c r="AF24" s="266"/>
+      <c r="AG24" s="266"/>
+      <c r="AH24" s="164" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI24" s="204"/>
+      <c r="AJ24" s="204"/>
+      <c r="AK24" s="204"/>
+      <c r="AL24" s="204"/>
+      <c r="AM24" s="204"/>
+      <c r="AN24" s="289" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO24" s="308">
+        <v>44570</v>
+      </c>
+      <c r="AP24" s="311"/>
     </row>
     <row r="25" spans="1:42">
       <c r="A25" s="169"/>
@@ -10724,7 +10870,7 @@
       <c r="AM25" s="170"/>
       <c r="AN25" s="170"/>
       <c r="AO25" s="170"/>
-      <c r="AP25" s="310"/>
+      <c r="AP25" s="312"/>
     </row>
     <row r="26" spans="1:42">
       <c r="A26" s="169"/>
@@ -10767,7 +10913,7 @@
       <c r="AM26" s="170"/>
       <c r="AN26" s="170"/>
       <c r="AO26" s="170"/>
-      <c r="AP26" s="310"/>
+      <c r="AP26" s="312"/>
     </row>
     <row r="27" spans="1:42">
       <c r="A27" s="169"/>
@@ -10810,7 +10956,7 @@
       <c r="AM27" s="170"/>
       <c r="AN27" s="170"/>
       <c r="AO27" s="170"/>
-      <c r="AP27" s="310"/>
+      <c r="AP27" s="312"/>
     </row>
     <row r="28" spans="1:42">
       <c r="A28" s="169"/>
@@ -10853,7 +10999,7 @@
       <c r="AM28" s="170"/>
       <c r="AN28" s="170"/>
       <c r="AO28" s="170"/>
-      <c r="AP28" s="310"/>
+      <c r="AP28" s="312"/>
     </row>
     <row r="29" spans="1:42">
       <c r="A29" s="169"/>
@@ -10896,7 +11042,7 @@
       <c r="AM29" s="170"/>
       <c r="AN29" s="170"/>
       <c r="AO29" s="170"/>
-      <c r="AP29" s="310"/>
+      <c r="AP29" s="312"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="169"/>
@@ -10939,7 +11085,7 @@
       <c r="AM30" s="170"/>
       <c r="AN30" s="170"/>
       <c r="AO30" s="170"/>
-      <c r="AP30" s="310"/>
+      <c r="AP30" s="312"/>
     </row>
     <row r="31" spans="1:42">
       <c r="A31" s="169"/>
@@ -10982,7 +11128,7 @@
       <c r="AM31" s="170"/>
       <c r="AN31" s="170"/>
       <c r="AO31" s="170"/>
-      <c r="AP31" s="310"/>
+      <c r="AP31" s="312"/>
     </row>
     <row r="32" spans="1:42">
       <c r="A32" s="169"/>
@@ -11025,7 +11171,7 @@
       <c r="AM32" s="170"/>
       <c r="AN32" s="170"/>
       <c r="AO32" s="170"/>
-      <c r="AP32" s="310"/>
+      <c r="AP32" s="312"/>
     </row>
     <row r="33" spans="1:42">
       <c r="A33" s="169"/>
@@ -11068,7 +11214,7 @@
       <c r="AM33" s="170"/>
       <c r="AN33" s="170"/>
       <c r="AO33" s="170"/>
-      <c r="AP33" s="310"/>
+      <c r="AP33" s="312"/>
     </row>
     <row r="34" spans="1:42">
       <c r="A34" s="169"/>
@@ -11111,7 +11257,7 @@
       <c r="AM34" s="170"/>
       <c r="AN34" s="170"/>
       <c r="AO34" s="170"/>
-      <c r="AP34" s="310"/>
+      <c r="AP34" s="312"/>
     </row>
     <row r="35" spans="1:42">
       <c r="A35" s="169"/>
@@ -11154,7 +11300,7 @@
       <c r="AM35" s="170"/>
       <c r="AN35" s="170"/>
       <c r="AO35" s="170"/>
-      <c r="AP35" s="310"/>
+      <c r="AP35" s="312"/>
     </row>
     <row r="36" spans="1:42">
       <c r="A36" s="169"/>
@@ -11197,7 +11343,7 @@
       <c r="AM36" s="170"/>
       <c r="AN36" s="170"/>
       <c r="AO36" s="170"/>
-      <c r="AP36" s="310"/>
+      <c r="AP36" s="312"/>
     </row>
     <row r="37" spans="1:42">
       <c r="A37" s="169"/>
@@ -11240,7 +11386,7 @@
       <c r="AM37" s="170"/>
       <c r="AN37" s="170"/>
       <c r="AO37" s="170"/>
-      <c r="AP37" s="310"/>
+      <c r="AP37" s="312"/>
     </row>
     <row r="38" spans="1:42">
       <c r="A38" s="169"/>
@@ -11283,7 +11429,7 @@
       <c r="AM38" s="170"/>
       <c r="AN38" s="170"/>
       <c r="AO38" s="170"/>
-      <c r="AP38" s="310"/>
+      <c r="AP38" s="312"/>
     </row>
     <row r="39" spans="1:42">
       <c r="A39" s="169"/>
@@ -11326,7 +11472,7 @@
       <c r="AM39" s="170"/>
       <c r="AN39" s="170"/>
       <c r="AO39" s="170"/>
-      <c r="AP39" s="310"/>
+      <c r="AP39" s="312"/>
     </row>
     <row r="40" spans="1:42">
       <c r="A40" s="169"/>
@@ -11369,7 +11515,7 @@
       <c r="AM40" s="170"/>
       <c r="AN40" s="170"/>
       <c r="AO40" s="170"/>
-      <c r="AP40" s="310"/>
+      <c r="AP40" s="312"/>
     </row>
     <row r="41" spans="1:42">
       <c r="A41" s="169"/>
@@ -11412,7 +11558,7 @@
       <c r="AM41" s="170"/>
       <c r="AN41" s="170"/>
       <c r="AO41" s="170"/>
-      <c r="AP41" s="310"/>
+      <c r="AP41" s="312"/>
     </row>
     <row r="42" spans="1:42">
       <c r="A42" s="169"/>
@@ -11455,7 +11601,7 @@
       <c r="AM42" s="170"/>
       <c r="AN42" s="170"/>
       <c r="AO42" s="170"/>
-      <c r="AP42" s="310"/>
+      <c r="AP42" s="312"/>
     </row>
     <row r="43" spans="1:42">
       <c r="A43" s="169"/>
@@ -11498,7 +11644,7 @@
       <c r="AM43" s="170"/>
       <c r="AN43" s="170"/>
       <c r="AO43" s="170"/>
-      <c r="AP43" s="310"/>
+      <c r="AP43" s="312"/>
     </row>
     <row r="44" spans="1:42">
       <c r="A44" s="169"/>
@@ -11541,7 +11687,7 @@
       <c r="AM44" s="170"/>
       <c r="AN44" s="170"/>
       <c r="AO44" s="170"/>
-      <c r="AP44" s="310"/>
+      <c r="AP44" s="312"/>
     </row>
     <row r="45" spans="1:42">
       <c r="A45" s="169"/>
@@ -11584,7 +11730,7 @@
       <c r="AM45" s="170"/>
       <c r="AN45" s="170"/>
       <c r="AO45" s="170"/>
-      <c r="AP45" s="310"/>
+      <c r="AP45" s="312"/>
     </row>
     <row r="46" spans="1:42">
       <c r="A46" s="169"/>
@@ -11627,7 +11773,7 @@
       <c r="AM46" s="170"/>
       <c r="AN46" s="170"/>
       <c r="AO46" s="170"/>
-      <c r="AP46" s="310"/>
+      <c r="AP46" s="312"/>
     </row>
     <row r="47" spans="1:42">
       <c r="A47" s="169"/>
@@ -11670,7 +11816,7 @@
       <c r="AM47" s="170"/>
       <c r="AN47" s="170"/>
       <c r="AO47" s="170"/>
-      <c r="AP47" s="310"/>
+      <c r="AP47" s="312"/>
     </row>
     <row r="48" spans="1:42">
       <c r="A48" s="169"/>
@@ -11713,7 +11859,7 @@
       <c r="AM48" s="170"/>
       <c r="AN48" s="170"/>
       <c r="AO48" s="170"/>
-      <c r="AP48" s="310"/>
+      <c r="AP48" s="312"/>
     </row>
     <row r="49" spans="1:42">
       <c r="A49" s="169"/>
@@ -11756,7 +11902,7 @@
       <c r="AM49" s="170"/>
       <c r="AN49" s="170"/>
       <c r="AO49" s="170"/>
-      <c r="AP49" s="310"/>
+      <c r="AP49" s="312"/>
     </row>
     <row r="50" spans="1:42">
       <c r="A50" s="169"/>
@@ -11799,7 +11945,7 @@
       <c r="AM50" s="170"/>
       <c r="AN50" s="170"/>
       <c r="AO50" s="170"/>
-      <c r="AP50" s="310"/>
+      <c r="AP50" s="312"/>
     </row>
     <row r="51" spans="1:42">
       <c r="A51" s="169"/>
@@ -11842,7 +11988,7 @@
       <c r="AM51" s="170"/>
       <c r="AN51" s="170"/>
       <c r="AO51" s="170"/>
-      <c r="AP51" s="310"/>
+      <c r="AP51" s="312"/>
     </row>
     <row r="52" spans="1:42">
       <c r="A52" s="169"/>
@@ -11885,7 +12031,7 @@
       <c r="AM52" s="170"/>
       <c r="AN52" s="170"/>
       <c r="AO52" s="170"/>
-      <c r="AP52" s="310"/>
+      <c r="AP52" s="312"/>
     </row>
     <row r="53" spans="1:42">
       <c r="A53" s="169"/>
@@ -11928,7 +12074,7 @@
       <c r="AM53" s="170"/>
       <c r="AN53" s="170"/>
       <c r="AO53" s="170"/>
-      <c r="AP53" s="310"/>
+      <c r="AP53" s="312"/>
     </row>
     <row r="54" spans="1:42">
       <c r="A54" s="169"/>
@@ -11971,7 +12117,7 @@
       <c r="AM54" s="170"/>
       <c r="AN54" s="170"/>
       <c r="AO54" s="170"/>
-      <c r="AP54" s="310"/>
+      <c r="AP54" s="312"/>
     </row>
     <row r="55" spans="1:42">
       <c r="A55" s="169"/>
@@ -12014,7 +12160,7 @@
       <c r="AM55" s="170"/>
       <c r="AN55" s="170"/>
       <c r="AO55" s="170"/>
-      <c r="AP55" s="310"/>
+      <c r="AP55" s="312"/>
     </row>
     <row r="56" spans="1:42">
       <c r="A56" s="169"/>
@@ -12057,7 +12203,7 @@
       <c r="AM56" s="170"/>
       <c r="AN56" s="170"/>
       <c r="AO56" s="170"/>
-      <c r="AP56" s="310"/>
+      <c r="AP56" s="312"/>
     </row>
     <row r="57" spans="1:42">
       <c r="A57" s="169"/>
@@ -12100,7 +12246,7 @@
       <c r="AM57" s="170"/>
       <c r="AN57" s="170"/>
       <c r="AO57" s="170"/>
-      <c r="AP57" s="310"/>
+      <c r="AP57" s="312"/>
     </row>
     <row r="58" spans="1:42">
       <c r="A58" s="169"/>
@@ -12143,7 +12289,7 @@
       <c r="AM58" s="170"/>
       <c r="AN58" s="170"/>
       <c r="AO58" s="170"/>
-      <c r="AP58" s="310"/>
+      <c r="AP58" s="312"/>
     </row>
     <row r="59" spans="1:42">
       <c r="A59" s="169"/>
@@ -12186,7 +12332,7 @@
       <c r="AM59" s="170"/>
       <c r="AN59" s="170"/>
       <c r="AO59" s="170"/>
-      <c r="AP59" s="310"/>
+      <c r="AP59" s="312"/>
     </row>
     <row r="60" spans="1:42">
       <c r="A60" s="169"/>
@@ -12229,7 +12375,7 @@
       <c r="AM60" s="170"/>
       <c r="AN60" s="170"/>
       <c r="AO60" s="170"/>
-      <c r="AP60" s="310"/>
+      <c r="AP60" s="312"/>
     </row>
     <row r="61" spans="1:42">
       <c r="A61" s="169"/>
@@ -12272,7 +12418,7 @@
       <c r="AM61" s="170"/>
       <c r="AN61" s="170"/>
       <c r="AO61" s="170"/>
-      <c r="AP61" s="310"/>
+      <c r="AP61" s="312"/>
     </row>
     <row r="62" spans="1:42">
       <c r="A62" s="169"/>
@@ -12315,7 +12461,7 @@
       <c r="AM62" s="170"/>
       <c r="AN62" s="170"/>
       <c r="AO62" s="170"/>
-      <c r="AP62" s="310"/>
+      <c r="AP62" s="312"/>
     </row>
     <row r="63" spans="1:42">
       <c r="A63" s="169"/>
@@ -12358,7 +12504,7 @@
       <c r="AM63" s="170"/>
       <c r="AN63" s="170"/>
       <c r="AO63" s="170"/>
-      <c r="AP63" s="310"/>
+      <c r="AP63" s="312"/>
     </row>
     <row r="64" spans="1:42">
       <c r="A64" s="169"/>
@@ -12401,7 +12547,7 @@
       <c r="AM64" s="170"/>
       <c r="AN64" s="170"/>
       <c r="AO64" s="170"/>
-      <c r="AP64" s="310"/>
+      <c r="AP64" s="312"/>
     </row>
     <row r="65" spans="1:42">
       <c r="A65" s="169"/>
@@ -12444,7 +12590,7 @@
       <c r="AM65" s="170"/>
       <c r="AN65" s="170"/>
       <c r="AO65" s="170"/>
-      <c r="AP65" s="310"/>
+      <c r="AP65" s="312"/>
     </row>
     <row r="66" spans="1:42">
       <c r="A66" s="169"/>
@@ -12487,7 +12633,7 @@
       <c r="AM66" s="170"/>
       <c r="AN66" s="170"/>
       <c r="AO66" s="170"/>
-      <c r="AP66" s="310"/>
+      <c r="AP66" s="312"/>
     </row>
     <row r="67" spans="1:42">
       <c r="A67" s="169"/>
@@ -12530,7 +12676,7 @@
       <c r="AM67" s="170"/>
       <c r="AN67" s="170"/>
       <c r="AO67" s="170"/>
-      <c r="AP67" s="310"/>
+      <c r="AP67" s="312"/>
     </row>
     <row r="68" spans="1:42">
       <c r="A68" s="169"/>
@@ -12573,7 +12719,7 @@
       <c r="AM68" s="170"/>
       <c r="AN68" s="170"/>
       <c r="AO68" s="170"/>
-      <c r="AP68" s="310"/>
+      <c r="AP68" s="312"/>
     </row>
     <row r="69" spans="1:42">
       <c r="A69" s="169"/>
@@ -12616,7 +12762,7 @@
       <c r="AM69" s="170"/>
       <c r="AN69" s="170"/>
       <c r="AO69" s="170"/>
-      <c r="AP69" s="310"/>
+      <c r="AP69" s="312"/>
     </row>
     <row r="70" spans="1:42">
       <c r="A70" s="169"/>
@@ -12659,7 +12805,7 @@
       <c r="AM70" s="170"/>
       <c r="AN70" s="170"/>
       <c r="AO70" s="170"/>
-      <c r="AP70" s="310"/>
+      <c r="AP70" s="312"/>
     </row>
     <row r="71" spans="1:42">
       <c r="A71" s="169"/>
@@ -12702,7 +12848,7 @@
       <c r="AM71" s="170"/>
       <c r="AN71" s="170"/>
       <c r="AO71" s="170"/>
-      <c r="AP71" s="310"/>
+      <c r="AP71" s="312"/>
     </row>
     <row r="72" spans="1:42">
       <c r="A72" s="169"/>
@@ -12745,7 +12891,7 @@
       <c r="AM72" s="170"/>
       <c r="AN72" s="170"/>
       <c r="AO72" s="170"/>
-      <c r="AP72" s="310"/>
+      <c r="AP72" s="312"/>
     </row>
     <row r="73" spans="1:42">
       <c r="A73" s="169"/>
@@ -12788,7 +12934,7 @@
       <c r="AM73" s="170"/>
       <c r="AN73" s="170"/>
       <c r="AO73" s="170"/>
-      <c r="AP73" s="310"/>
+      <c r="AP73" s="312"/>
     </row>
     <row r="74" spans="1:42">
       <c r="A74" s="169"/>
@@ -12831,7 +12977,7 @@
       <c r="AM74" s="170"/>
       <c r="AN74" s="170"/>
       <c r="AO74" s="170"/>
-      <c r="AP74" s="310"/>
+      <c r="AP74" s="312"/>
     </row>
     <row r="75" spans="1:42">
       <c r="A75" s="169"/>
@@ -12874,7 +13020,7 @@
       <c r="AM75" s="170"/>
       <c r="AN75" s="170"/>
       <c r="AO75" s="170"/>
-      <c r="AP75" s="310"/>
+      <c r="AP75" s="312"/>
     </row>
     <row r="76" spans="1:42">
       <c r="A76" s="169"/>
@@ -12917,7 +13063,7 @@
       <c r="AM76" s="170"/>
       <c r="AN76" s="170"/>
       <c r="AO76" s="170"/>
-      <c r="AP76" s="310"/>
+      <c r="AP76" s="312"/>
     </row>
     <row r="77" spans="1:42">
       <c r="A77" s="169"/>
@@ -12960,7 +13106,7 @@
       <c r="AM77" s="170"/>
       <c r="AN77" s="170"/>
       <c r="AO77" s="170"/>
-      <c r="AP77" s="310"/>
+      <c r="AP77" s="312"/>
     </row>
     <row r="78" spans="1:42">
       <c r="A78" s="169"/>
@@ -13003,7 +13149,7 @@
       <c r="AM78" s="170"/>
       <c r="AN78" s="170"/>
       <c r="AO78" s="170"/>
-      <c r="AP78" s="310"/>
+      <c r="AP78" s="312"/>
     </row>
     <row r="79" spans="1:42">
       <c r="A79" s="169"/>
@@ -13046,7 +13192,7 @@
       <c r="AM79" s="170"/>
       <c r="AN79" s="170"/>
       <c r="AO79" s="170"/>
-      <c r="AP79" s="310"/>
+      <c r="AP79" s="312"/>
     </row>
     <row r="80" spans="1:42">
       <c r="A80" s="169"/>
@@ -13089,7 +13235,7 @@
       <c r="AM80" s="170"/>
       <c r="AN80" s="170"/>
       <c r="AO80" s="170"/>
-      <c r="AP80" s="310"/>
+      <c r="AP80" s="312"/>
     </row>
     <row r="81" spans="1:42">
       <c r="A81" s="169"/>
@@ -13132,7 +13278,7 @@
       <c r="AM81" s="170"/>
       <c r="AN81" s="170"/>
       <c r="AO81" s="170"/>
-      <c r="AP81" s="310"/>
+      <c r="AP81" s="312"/>
     </row>
     <row r="82" spans="1:42">
       <c r="A82" s="169"/>
@@ -13175,7 +13321,7 @@
       <c r="AM82" s="170"/>
       <c r="AN82" s="170"/>
       <c r="AO82" s="170"/>
-      <c r="AP82" s="310"/>
+      <c r="AP82" s="312"/>
     </row>
     <row r="83" spans="1:42">
       <c r="A83" s="169"/>
@@ -13218,7 +13364,7 @@
       <c r="AM83" s="170"/>
       <c r="AN83" s="170"/>
       <c r="AO83" s="170"/>
-      <c r="AP83" s="310"/>
+      <c r="AP83" s="312"/>
     </row>
     <row r="84" spans="1:42">
       <c r="A84" s="169"/>
@@ -13261,7 +13407,7 @@
       <c r="AM84" s="170"/>
       <c r="AN84" s="170"/>
       <c r="AO84" s="170"/>
-      <c r="AP84" s="310"/>
+      <c r="AP84" s="312"/>
     </row>
     <row r="85" spans="1:42">
       <c r="A85" s="169"/>
@@ -13304,7 +13450,7 @@
       <c r="AM85" s="170"/>
       <c r="AN85" s="170"/>
       <c r="AO85" s="170"/>
-      <c r="AP85" s="310"/>
+      <c r="AP85" s="312"/>
     </row>
     <row r="86" spans="1:42">
       <c r="A86" s="169"/>
@@ -13347,7 +13493,7 @@
       <c r="AM86" s="170"/>
       <c r="AN86" s="170"/>
       <c r="AO86" s="170"/>
-      <c r="AP86" s="310"/>
+      <c r="AP86" s="312"/>
     </row>
     <row r="87" spans="1:42">
       <c r="A87" s="169"/>
@@ -13390,7 +13536,7 @@
       <c r="AM87" s="170"/>
       <c r="AN87" s="170"/>
       <c r="AO87" s="170"/>
-      <c r="AP87" s="310"/>
+      <c r="AP87" s="312"/>
     </row>
     <row r="88" spans="1:42">
       <c r="A88" s="169"/>
@@ -13433,7 +13579,7 @@
       <c r="AM88" s="170"/>
       <c r="AN88" s="170"/>
       <c r="AO88" s="170"/>
-      <c r="AP88" s="310"/>
+      <c r="AP88" s="312"/>
     </row>
     <row r="89" spans="1:42">
       <c r="A89" s="169"/>
@@ -13476,7 +13622,7 @@
       <c r="AM89" s="170"/>
       <c r="AN89" s="170"/>
       <c r="AO89" s="170"/>
-      <c r="AP89" s="310"/>
+      <c r="AP89" s="312"/>
     </row>
     <row r="90" spans="1:42">
       <c r="A90" s="169"/>
@@ -13519,7 +13665,7 @@
       <c r="AM90" s="170"/>
       <c r="AN90" s="170"/>
       <c r="AO90" s="170"/>
-      <c r="AP90" s="310"/>
+      <c r="AP90" s="312"/>
     </row>
     <row r="91" spans="1:42">
       <c r="A91" s="169"/>
@@ -13562,7 +13708,7 @@
       <c r="AM91" s="170"/>
       <c r="AN91" s="170"/>
       <c r="AO91" s="170"/>
-      <c r="AP91" s="310"/>
+      <c r="AP91" s="312"/>
     </row>
     <row r="92" spans="1:42">
       <c r="A92" s="169"/>
@@ -13605,7 +13751,7 @@
       <c r="AM92" s="170"/>
       <c r="AN92" s="170"/>
       <c r="AO92" s="170"/>
-      <c r="AP92" s="310"/>
+      <c r="AP92" s="312"/>
     </row>
     <row r="93" spans="1:42">
       <c r="A93" s="169"/>
@@ -13648,7 +13794,7 @@
       <c r="AM93" s="170"/>
       <c r="AN93" s="170"/>
       <c r="AO93" s="170"/>
-      <c r="AP93" s="310"/>
+      <c r="AP93" s="312"/>
     </row>
     <row r="94" spans="1:42">
       <c r="A94" s="169"/>
@@ -13691,7 +13837,7 @@
       <c r="AM94" s="170"/>
       <c r="AN94" s="170"/>
       <c r="AO94" s="170"/>
-      <c r="AP94" s="310"/>
+      <c r="AP94" s="312"/>
     </row>
     <row r="95" spans="1:42">
       <c r="A95" s="169"/>
@@ -13734,7 +13880,7 @@
       <c r="AM95" s="170"/>
       <c r="AN95" s="170"/>
       <c r="AO95" s="170"/>
-      <c r="AP95" s="310"/>
+      <c r="AP95" s="312"/>
     </row>
     <row r="96" spans="1:42">
       <c r="A96" s="169"/>
@@ -13777,7 +13923,7 @@
       <c r="AM96" s="170"/>
       <c r="AN96" s="170"/>
       <c r="AO96" s="170"/>
-      <c r="AP96" s="310"/>
+      <c r="AP96" s="312"/>
     </row>
     <row r="97" spans="1:42">
       <c r="A97" s="169"/>
@@ -13820,7 +13966,7 @@
       <c r="AM97" s="170"/>
       <c r="AN97" s="170"/>
       <c r="AO97" s="170"/>
-      <c r="AP97" s="310"/>
+      <c r="AP97" s="312"/>
     </row>
     <row r="98" spans="1:42">
       <c r="A98" s="169"/>
@@ -13863,7 +14009,7 @@
       <c r="AM98" s="170"/>
       <c r="AN98" s="170"/>
       <c r="AO98" s="170"/>
-      <c r="AP98" s="310"/>
+      <c r="AP98" s="312"/>
     </row>
     <row r="99" spans="1:42">
       <c r="A99" s="169"/>
@@ -13906,7 +14052,7 @@
       <c r="AM99" s="170"/>
       <c r="AN99" s="170"/>
       <c r="AO99" s="170"/>
-      <c r="AP99" s="310"/>
+      <c r="AP99" s="312"/>
     </row>
     <row r="100" spans="1:42">
       <c r="A100" s="169"/>
@@ -13949,7 +14095,7 @@
       <c r="AM100" s="170"/>
       <c r="AN100" s="170"/>
       <c r="AO100" s="170"/>
-      <c r="AP100" s="310"/>
+      <c r="AP100" s="312"/>
     </row>
     <row r="101" spans="1:42">
       <c r="A101" s="169"/>
@@ -13992,7 +14138,7 @@
       <c r="AM101" s="170"/>
       <c r="AN101" s="170"/>
       <c r="AO101" s="170"/>
-      <c r="AP101" s="310"/>
+      <c r="AP101" s="312"/>
     </row>
     <row r="102" spans="1:42">
       <c r="A102" s="169"/>
@@ -14035,7 +14181,7 @@
       <c r="AM102" s="170"/>
       <c r="AN102" s="170"/>
       <c r="AO102" s="170"/>
-      <c r="AP102" s="310"/>
+      <c r="AP102" s="312"/>
     </row>
     <row r="103" spans="1:42">
       <c r="A103" s="169"/>
@@ -14078,7 +14224,7 @@
       <c r="AM103" s="170"/>
       <c r="AN103" s="170"/>
       <c r="AO103" s="170"/>
-      <c r="AP103" s="310"/>
+      <c r="AP103" s="312"/>
     </row>
     <row r="104" spans="1:42">
       <c r="A104" s="169"/>
@@ -14121,7 +14267,7 @@
       <c r="AM104" s="170"/>
       <c r="AN104" s="170"/>
       <c r="AO104" s="170"/>
-      <c r="AP104" s="310"/>
+      <c r="AP104" s="312"/>
     </row>
     <row r="105" spans="1:42">
       <c r="A105" s="169"/>
@@ -14164,7 +14310,7 @@
       <c r="AM105" s="170"/>
       <c r="AN105" s="170"/>
       <c r="AO105" s="170"/>
-      <c r="AP105" s="310"/>
+      <c r="AP105" s="312"/>
     </row>
     <row r="106" spans="1:42">
       <c r="A106" s="169"/>
@@ -14207,7 +14353,7 @@
       <c r="AM106" s="170"/>
       <c r="AN106" s="170"/>
       <c r="AO106" s="170"/>
-      <c r="AP106" s="310"/>
+      <c r="AP106" s="312"/>
     </row>
     <row r="107" spans="1:42">
       <c r="A107" s="169"/>
@@ -14250,7 +14396,7 @@
       <c r="AM107" s="170"/>
       <c r="AN107" s="170"/>
       <c r="AO107" s="170"/>
-      <c r="AP107" s="310"/>
+      <c r="AP107" s="312"/>
     </row>
     <row r="108" spans="1:42">
       <c r="A108" s="169"/>
@@ -14293,7 +14439,7 @@
       <c r="AM108" s="170"/>
       <c r="AN108" s="170"/>
       <c r="AO108" s="170"/>
-      <c r="AP108" s="310"/>
+      <c r="AP108" s="312"/>
     </row>
     <row r="109" spans="1:42">
       <c r="A109" s="169"/>
@@ -14336,7 +14482,7 @@
       <c r="AM109" s="170"/>
       <c r="AN109" s="170"/>
       <c r="AO109" s="170"/>
-      <c r="AP109" s="310"/>
+      <c r="AP109" s="312"/>
     </row>
     <row r="110" spans="1:42">
       <c r="A110" s="169"/>
@@ -14379,7 +14525,7 @@
       <c r="AM110" s="170"/>
       <c r="AN110" s="170"/>
       <c r="AO110" s="170"/>
-      <c r="AP110" s="310"/>
+      <c r="AP110" s="312"/>
     </row>
     <row r="111" spans="1:42">
       <c r="A111" s="169"/>
@@ -14422,7 +14568,7 @@
       <c r="AM111" s="170"/>
       <c r="AN111" s="170"/>
       <c r="AO111" s="170"/>
-      <c r="AP111" s="310"/>
+      <c r="AP111" s="312"/>
     </row>
     <row r="112" spans="1:42">
       <c r="A112" s="169"/>
@@ -14465,7 +14611,7 @@
       <c r="AM112" s="170"/>
       <c r="AN112" s="170"/>
       <c r="AO112" s="170"/>
-      <c r="AP112" s="310"/>
+      <c r="AP112" s="312"/>
     </row>
     <row r="113" spans="1:42">
       <c r="A113" s="169"/>
@@ -14508,7 +14654,7 @@
       <c r="AM113" s="170"/>
       <c r="AN113" s="170"/>
       <c r="AO113" s="170"/>
-      <c r="AP113" s="310"/>
+      <c r="AP113" s="312"/>
     </row>
     <row r="114" spans="1:42">
       <c r="A114" s="169"/>
@@ -14551,7 +14697,7 @@
       <c r="AM114" s="170"/>
       <c r="AN114" s="170"/>
       <c r="AO114" s="170"/>
-      <c r="AP114" s="310"/>
+      <c r="AP114" s="312"/>
     </row>
     <row r="115" spans="1:42">
       <c r="A115" s="169"/>
@@ -14594,7 +14740,7 @@
       <c r="AM115" s="170"/>
       <c r="AN115" s="170"/>
       <c r="AO115" s="170"/>
-      <c r="AP115" s="310"/>
+      <c r="AP115" s="312"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -14644,14 +14790,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BQ39"/>
+  <dimension ref="A1:BQ38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BL4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -14718,7 +14864,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:69">
       <c r="A1" s="21" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>12</v>
@@ -14730,13 +14876,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
@@ -14756,7 +14902,7 @@
       <c r="W1" s="33"/>
       <c r="X1" s="33"/>
       <c r="Y1" s="72" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Z1" s="72"/>
       <c r="AA1" s="72"/>
@@ -14776,13 +14922,13 @@
       <c r="AO1" s="72"/>
       <c r="AP1" s="72"/>
       <c r="AQ1" s="81" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AR1" s="73"/>
       <c r="AS1" s="73"/>
       <c r="AT1" s="73"/>
       <c r="AU1" s="87" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AV1" s="87"/>
       <c r="AW1" s="87"/>
@@ -14800,7 +14946,7 @@
       <c r="BI1" s="87"/>
       <c r="BJ1" s="87"/>
       <c r="BK1" s="52" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="BL1" s="33"/>
       <c r="BM1" s="31"/>
@@ -14817,12 +14963,12 @@
       <c r="E2" s="31"/>
       <c r="F2" s="32"/>
       <c r="G2" s="34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
       <c r="J2" s="52" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K2" s="52"/>
       <c r="L2" s="52"/>
@@ -14839,12 +14985,12 @@
       <c r="W2" s="52"/>
       <c r="X2" s="62"/>
       <c r="Y2" s="34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Z2" s="35"/>
       <c r="AA2" s="35"/>
       <c r="AB2" s="73" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AC2" s="72"/>
       <c r="AD2" s="72"/>
@@ -14865,16 +15011,16 @@
       <c r="AS2" s="73"/>
       <c r="AT2" s="73"/>
       <c r="AU2" s="88" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AV2" s="88" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AW2" s="92" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AX2" s="93" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AY2" s="94"/>
       <c r="AZ2" s="94"/>
@@ -14882,7 +15028,7 @@
       <c r="BB2" s="94"/>
       <c r="BC2" s="21"/>
       <c r="BD2" s="21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BE2" s="21"/>
       <c r="BF2" s="21"/>
@@ -14893,7 +15039,7 @@
       <c r="BK2" s="33"/>
       <c r="BL2" s="33"/>
       <c r="BM2" s="21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="BN2" s="28"/>
     </row>
@@ -14905,185 +15051,185 @@
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="35" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K3" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="U3" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="V3" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="W3" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y3" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="Z3" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="AA3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="O3" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="P3" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q3" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="R3" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="S3" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="T3" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="U3" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="V3" s="63" t="s">
+      <c r="AB3" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="W3" s="64" t="s">
+      <c r="AC3" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="X3" s="64" t="s">
+      <c r="AD3" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="Y3" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z3" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA3" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB3" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC3" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD3" s="72" t="s">
-        <v>151</v>
-      </c>
       <c r="AE3" s="31" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF3" s="74" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AG3" s="74" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AH3" s="74" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AI3" s="74" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AJ3" s="74" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AK3" s="74" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AL3" s="74" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AM3" s="74" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AN3" s="63" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AO3" s="64" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AP3" s="64" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AQ3" s="81" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AR3" s="73" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AS3" s="88" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AT3" s="88" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AU3" s="88"/>
       <c r="AV3" s="88"/>
       <c r="AW3" s="92"/>
       <c r="AX3" s="33" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AY3" s="33" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AZ3" s="52" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="BA3" s="94" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="BB3" s="94" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="BC3" s="21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="BD3" s="99" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="BE3" s="99" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BF3" s="99" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="BG3" s="99" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="BH3" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="BI3" s="21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="BJ3" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="BK3" s="32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="BL3" s="33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BM3" s="21"/>
       <c r="BN3" s="28"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="83" customHeight="1" spans="1:66">
       <c r="A4" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="322" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="B4" s="324" t="s">
+        <v>179</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>4</v>
@@ -15192,7 +15338,7 @@
         <v>3.4657</v>
       </c>
       <c r="AN4" s="78" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AO4" s="82">
         <f>(AF4+AG4+AH4+AI4)/4</f>
@@ -15242,13 +15388,13 @@
         <v>1</v>
       </c>
       <c r="BE4" s="101" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="BF4" s="104" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="BG4" s="101" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="BH4" s="101"/>
       <c r="BI4" s="101"/>
@@ -15261,13 +15407,13 @@
         <v>9.86653956148713</v>
       </c>
       <c r="BM4" s="107" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="BN4" s="101"/>
     </row>
     <row r="5" ht="74" spans="1:66">
       <c r="A5" s="23" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="25">
         <v>603995</v>
@@ -15328,7 +15474,7 @@
         <v>1.8</v>
       </c>
       <c r="V5" s="68" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="W5" s="65">
         <f t="shared" si="0"/>
@@ -15371,10 +15517,10 @@
         <v>0.2964</v>
       </c>
       <c r="AN5" s="78" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AO5" s="78" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AP5" s="69">
         <f t="shared" si="1"/>
@@ -15417,10 +15563,10 @@
         <v>21</v>
       </c>
       <c r="BE5" s="101" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BF5" s="105" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="BG5" s="29"/>
       <c r="BH5" s="29"/>
@@ -15434,13 +15580,13 @@
         <v>2.25225225225225</v>
       </c>
       <c r="BM5" s="105" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="BN5" s="29"/>
     </row>
     <row r="6" ht="72" spans="1:66">
       <c r="A6" s="23" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B6" s="25">
         <v>603217</v>
@@ -15501,7 +15647,7 @@
         <v>1.24</v>
       </c>
       <c r="V6" s="68" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="W6" s="65">
         <f t="shared" si="0"/>
@@ -15544,10 +15690,10 @@
         <v>0.0498</v>
       </c>
       <c r="AN6" s="78" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AO6" s="78" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AP6" s="69">
         <f t="shared" si="1"/>
@@ -15590,10 +15736,10 @@
         <v>3</v>
       </c>
       <c r="BE6" s="101" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="BF6" s="105" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="BG6" s="29"/>
       <c r="BH6" s="29"/>
@@ -15607,13 +15753,13 @@
         <v>2.11375864719447</v>
       </c>
       <c r="BM6" s="105" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="BN6" s="29"/>
     </row>
     <row r="7" ht="74" spans="1:66">
       <c r="A7" s="23" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B7" s="25">
         <v>600587</v>
@@ -15778,10 +15924,10 @@
         <v>18</v>
       </c>
       <c r="BE7" s="101" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="BF7" s="104" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BG7" s="29"/>
       <c r="BH7" s="29"/>
@@ -15795,13 +15941,13 @@
         <v>1.07775590551181</v>
       </c>
       <c r="BM7" s="108" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="BN7" s="29"/>
     </row>
     <row r="8" ht="88" spans="1:66">
       <c r="A8" s="23" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B8" s="25">
         <v>603279</v>
@@ -15810,7 +15956,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E8" s="43">
         <v>0.4686</v>
@@ -15919,10 +16065,10 @@
         <v>14</v>
       </c>
       <c r="BE8" s="101" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="BF8" s="104" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="BG8" s="29"/>
       <c r="BH8" s="29"/>
@@ -15936,13 +16082,13 @@
         <v>1.0924981791697</v>
       </c>
       <c r="BM8" s="107" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="BN8" s="29"/>
     </row>
     <row r="9" ht="88" spans="1:66">
       <c r="A9" s="23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B9" s="29">
         <v>601677</v>
@@ -16060,10 +16206,10 @@
         <v>104</v>
       </c>
       <c r="BE9" s="101" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="BF9" s="105" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BG9" s="29"/>
       <c r="BH9" s="29"/>
@@ -16077,13 +16223,13 @@
         <v>2.05391151479637</v>
       </c>
       <c r="BM9" s="101" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BN9" s="29"/>
     </row>
     <row r="10" ht="88" spans="1:66">
       <c r="A10" s="23" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B10" s="29">
         <v>603599</v>
@@ -16201,10 +16347,10 @@
         <v>17</v>
       </c>
       <c r="BE10" s="105" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BF10" s="105" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BG10" s="29"/>
       <c r="BH10" s="29"/>
@@ -16218,22 +16364,22 @@
         <v>2.22341799397331</v>
       </c>
       <c r="BM10" s="101" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BN10" s="29"/>
     </row>
     <row r="11" ht="88" spans="1:66">
       <c r="A11" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="323" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="B11" s="325" t="s">
+        <v>212</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E11" s="43">
         <v>0.3829</v>
@@ -16312,10 +16458,10 @@
         <v>1</v>
       </c>
       <c r="BE11" s="105" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BF11" s="105" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="BG11" s="29"/>
       <c r="BH11" s="29"/>
@@ -16329,22 +16475,22 @@
         <v>1.17159763313609</v>
       </c>
       <c r="BM11" s="105" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BN11" s="29"/>
     </row>
     <row r="12" ht="45" spans="1:66">
       <c r="A12" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="323" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="B12" s="325" t="s">
+        <v>219</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E12" s="45">
         <v>0.5848</v>
@@ -16423,7 +16569,7 @@
         <v>13</v>
       </c>
       <c r="BE12" s="105" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="BF12" s="29"/>
       <c r="BG12" s="29"/>
@@ -16442,13 +16588,13 @@
     </row>
     <row r="13" ht="45" spans="1:66">
       <c r="A13" s="23" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B13" s="30">
         <v>600085</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>1</v>
@@ -16530,7 +16676,7 @@
         <v>20</v>
       </c>
       <c r="BE13" s="105" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="BF13" s="30"/>
       <c r="BG13" s="30"/>
@@ -16549,7 +16695,7 @@
     </row>
     <row r="14" ht="45" spans="1:66">
       <c r="A14" s="23" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B14" s="30">
         <v>600976</v>
@@ -16637,7 +16783,7 @@
         <v>15</v>
       </c>
       <c r="BE14" s="105" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BF14" s="30"/>
       <c r="BG14" s="30"/>
@@ -16656,16 +16802,16 @@
     </row>
     <row r="15" ht="29" spans="1:66">
       <c r="A15" s="23" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B15" s="30">
         <v>600032</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E15" s="49">
         <v>0.6883</v>
@@ -16744,7 +16890,7 @@
         <v>4</v>
       </c>
       <c r="BE15" s="105" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="BF15" s="30"/>
       <c r="BG15" s="30"/>
@@ -16763,9 +16909,9 @@
     </row>
     <row r="16" ht="88" spans="1:66">
       <c r="A16" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="324" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="326" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -16851,10 +16997,10 @@
         <v>2</v>
       </c>
       <c r="BE16" s="105" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="BF16" s="105" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="BG16" s="30"/>
       <c r="BH16" s="30"/>
@@ -16868,22 +17014,22 @@
         <v>1.26719768283852</v>
       </c>
       <c r="BM16" s="105" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="BN16" s="30"/>
     </row>
     <row r="17" spans="1:66">
       <c r="A17" s="23" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B17" s="30">
         <v>603688</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E17" s="46">
         <v>0.258</v>
@@ -16960,13 +17106,13 @@
     </row>
     <row r="18" ht="60" spans="1:66">
       <c r="A18" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="324" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="B18" s="326" t="s">
+        <v>240</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>2</v>
@@ -17048,10 +17194,10 @@
         <v>139</v>
       </c>
       <c r="BE18" s="105" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="BF18" s="105" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="BG18" s="30"/>
       <c r="BH18" s="30"/>
@@ -17069,13 +17215,13 @@
     </row>
     <row r="19" ht="30" spans="1:66">
       <c r="A19" s="23" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B19" s="30">
         <v>603867</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>102</v>
@@ -17155,7 +17301,7 @@
         <v>2</v>
       </c>
       <c r="BE19" s="105" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="BF19" s="30"/>
       <c r="BG19" s="30"/>
@@ -17169,16 +17315,16 @@
     </row>
     <row r="20" ht="45" spans="1:66">
       <c r="A20" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="324" t="s">
-        <v>244</v>
+        <v>247</v>
+      </c>
+      <c r="B20" s="326" t="s">
+        <v>248</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E20" s="46">
         <v>0.2101</v>
@@ -17257,7 +17403,7 @@
         <v>31</v>
       </c>
       <c r="BE20" s="105" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="BF20" s="30"/>
       <c r="BG20" s="30"/>
@@ -17276,16 +17422,16 @@
     </row>
     <row r="21" ht="45" spans="1:66">
       <c r="A21" s="23" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B21" s="30">
         <v>603010</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E21" s="46">
         <v>0.3158</v>
@@ -17362,7 +17508,7 @@
         <v>9</v>
       </c>
       <c r="BE21" s="105" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="BF21" s="30"/>
       <c r="BG21" s="30"/>
@@ -17381,13 +17527,13 @@
     </row>
     <row r="22" ht="30" spans="1:66">
       <c r="A22" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B22" s="324" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="B22" s="326" t="s">
+        <v>256</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>7</v>
@@ -17467,7 +17613,7 @@
         <v>125</v>
       </c>
       <c r="BE22" s="105" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="BF22" s="30"/>
       <c r="BG22" s="30"/>
@@ -17486,13 +17632,13 @@
     </row>
     <row r="23" ht="30" spans="1:66">
       <c r="A23" s="23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B23" s="30">
         <v>605016</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>102</v>
@@ -17574,7 +17720,7 @@
         <v>6</v>
       </c>
       <c r="BE23" s="105" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="BF23" s="30"/>
       <c r="BG23" s="30"/>
@@ -17593,13 +17739,13 @@
     </row>
     <row r="24" ht="87" spans="1:66">
       <c r="A24" s="23" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B24" s="25">
         <v>603681</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>102</v>
@@ -17681,10 +17827,10 @@
         <v>18</v>
       </c>
       <c r="BE24" s="105" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="BF24" s="105" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="BG24" s="30"/>
       <c r="BH24" s="30"/>
@@ -17698,19 +17844,19 @@
         <v>1.01517530088959</v>
       </c>
       <c r="BM24" s="107" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="BN24" s="30"/>
     </row>
-    <row r="25" ht="72" spans="1:66">
+    <row r="25" ht="87" spans="1:66">
       <c r="A25" s="23" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B25" s="25">
         <v>600741</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>113</v>
@@ -17792,9 +17938,11 @@
         <v>102</v>
       </c>
       <c r="BE25" s="105" t="s">
-        <v>264</v>
-      </c>
-      <c r="BF25" s="30"/>
+        <v>267</v>
+      </c>
+      <c r="BF25" s="105" t="s">
+        <v>268</v>
+      </c>
       <c r="BG25" s="30"/>
       <c r="BH25" s="30"/>
       <c r="BI25" s="30"/>
@@ -17807,22 +17955,22 @@
         <v>1.49127814779575</v>
       </c>
       <c r="BM25" s="105" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="BN25" s="30"/>
     </row>
     <row r="26" ht="87" spans="1:66">
       <c r="A26" s="23" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B26" s="25">
         <v>605098</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E26" s="51">
         <v>44.68</v>
@@ -17901,10 +18049,10 @@
         <v>9</v>
       </c>
       <c r="BE26" s="105" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="BF26" s="104" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="BG26" s="30"/>
       <c r="BH26" s="30"/>
@@ -17918,19 +18066,19 @@
         <v>1.29238795352146</v>
       </c>
       <c r="BM26" s="108" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="BN26" s="30"/>
     </row>
     <row r="27" ht="15" spans="1:66">
       <c r="A27" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B27" s="325" t="s">
-        <v>273</v>
+        <v>276</v>
+      </c>
+      <c r="B27" s="327" t="s">
+        <v>277</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="46"/>
@@ -17998,13 +18146,13 @@
     </row>
     <row r="28" ht="15" spans="1:66">
       <c r="A28" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="B28" s="325" t="s">
-        <v>276</v>
+        <v>279</v>
+      </c>
+      <c r="B28" s="327" t="s">
+        <v>280</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="46"/>
@@ -18072,16 +18220,16 @@
     </row>
     <row r="29" ht="88" spans="1:66">
       <c r="A29" s="23" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B29" s="25">
         <v>603380</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E29" s="46">
         <v>0.367</v>
@@ -18160,10 +18308,10 @@
         <v>7</v>
       </c>
       <c r="BE29" s="105" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="BF29" s="104" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="BG29" s="30"/>
       <c r="BH29" s="30"/>
@@ -18177,19 +18325,19 @@
         <v>1.05393676379417</v>
       </c>
       <c r="BM29" s="107" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="BN29" s="30"/>
     </row>
     <row r="30" ht="15" spans="1:66">
       <c r="A30" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="B30" s="325" t="s">
-        <v>283</v>
+        <v>286</v>
+      </c>
+      <c r="B30" s="327" t="s">
+        <v>287</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="46"/>
@@ -18257,13 +18405,13 @@
     </row>
     <row r="31" ht="15" spans="1:66">
       <c r="A31" s="23" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B31" s="25">
         <v>603733</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="46"/>
@@ -18331,13 +18479,13 @@
     </row>
     <row r="32" ht="15" spans="1:66">
       <c r="A32" s="23" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B32" s="25">
         <v>605336</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="46"/>
@@ -18405,13 +18553,13 @@
     </row>
     <row r="33" ht="15" spans="1:66">
       <c r="A33" s="23" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B33" s="25">
         <v>603886</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="46"/>
@@ -18479,13 +18627,13 @@
     </row>
     <row r="34" ht="15" spans="1:66">
       <c r="A34" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B34" s="325" t="s">
-        <v>292</v>
+        <v>295</v>
+      </c>
+      <c r="B34" s="327" t="s">
+        <v>296</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="46"/>
@@ -18823,74 +18971,6 @@
       <c r="BM38" s="30"/>
       <c r="BN38" s="30"/>
     </row>
-    <row r="39" spans="1:66">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="70"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="75"/>
-      <c r="AC39" s="75"/>
-      <c r="AD39" s="75"/>
-      <c r="AE39" s="46"/>
-      <c r="AF39" s="46"/>
-      <c r="AG39" s="46"/>
-      <c r="AH39" s="46"/>
-      <c r="AI39" s="46"/>
-      <c r="AJ39" s="46"/>
-      <c r="AK39" s="46"/>
-      <c r="AL39" s="46"/>
-      <c r="AM39" s="75"/>
-      <c r="AN39" s="65"/>
-      <c r="AO39" s="65"/>
-      <c r="AP39" s="71"/>
-      <c r="AQ39" s="85"/>
-      <c r="AR39" s="75"/>
-      <c r="AS39" s="91"/>
-      <c r="AT39" s="91"/>
-      <c r="AU39" s="91"/>
-      <c r="AV39" s="91"/>
-      <c r="AW39" s="91"/>
-      <c r="AX39" s="98"/>
-      <c r="AY39" s="98"/>
-      <c r="AZ39" s="98"/>
-      <c r="BA39" s="98"/>
-      <c r="BB39" s="98"/>
-      <c r="BC39" s="30"/>
-      <c r="BD39" s="30"/>
-      <c r="BE39" s="30"/>
-      <c r="BF39" s="30"/>
-      <c r="BG39" s="30"/>
-      <c r="BH39" s="30"/>
-      <c r="BI39" s="30"/>
-      <c r="BJ39" s="30"/>
-      <c r="BK39" s="47"/>
-      <c r="BL39" s="75"/>
-      <c r="BM39" s="30"/>
-      <c r="BN39" s="30"/>
-    </row>
   </sheetData>
   <sortState ref="A2:DJ24">
     <sortCondition ref="A2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -14793,11 +14793,11 @@
   <dimension ref="A1:BQ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="BK18" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -14796,11 +14796,11 @@
   <dimension ref="A1:BQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="BG11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -14796,11 +14796,11 @@
   <dimension ref="A1:BQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BG11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="BC15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="BF20" sqref="BF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -8334,7 +8334,7 @@
   <dimension ref="A1:AQ115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -14796,11 +14796,11 @@
   <dimension ref="A1:BQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BC15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="BF4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BF20" sqref="BF20"/>
+      <selection pane="bottomRight" activeCell="BL6" sqref="BL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -7202,8 +7202,8 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -8333,12 +8333,12 @@
   <sheetPr/>
   <dimension ref="A1:AQ115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AJ9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="A24:B24"/>
+      <selection pane="bottomRight" activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -14795,12 +14795,12 @@
   <sheetPr/>
   <dimension ref="A1:BQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BF4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="BJ4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BL6" sqref="BL6"/>
+      <selection pane="bottomRight" activeCell="BG6" sqref="BG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -2368,6 +2368,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>变少</t>
     </r>
     <r>
@@ -2418,6 +2423,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先变多再变少</t>
     </r>
     <r>
@@ -2448,6 +2458,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先增加后减少</t>
     </r>
     <r>
@@ -2510,6 +2525,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜进场</t>
     </r>
     <r>
@@ -2549,6 +2569,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先变多再变少</t>
     </r>
     <r>
@@ -2595,6 +2620,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先增加后减少</t>
     </r>
     <r>
@@ -2657,6 +2687,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜进场</t>
     </r>
     <r>
@@ -2842,6 +2877,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先变多再变少</t>
     </r>
     <r>
@@ -2872,6 +2912,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先增加后减少</t>
     </r>
     <r>
@@ -2942,14 +2987,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -3044,14 +3089,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3065,16 +3117,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3087,8 +3155,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3096,21 +3173,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3132,9 +3194,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3148,47 +3232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3263,7 +3308,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3275,85 +3452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3365,19 +3464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3389,49 +3476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3476,15 +3521,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -3494,8 +3530,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3511,21 +3586,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3555,170 +3615,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3733,14 +3778,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3748,14 +3793,14 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3786,214 +3831,208 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5904,1108 +5943,1108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113">
+      <c r="C1" s="111">
         <f>COUNTIF(A:A,B1)</f>
         <v>2</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="121"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="113">
+      <c r="C2" s="111">
         <f>COUNTIF(A:A,B2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="121"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="113">
+      <c r="C3" s="111">
         <f>COUNTIF(A:A,B3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="111">
         <f>COUNTIF(A:A,B4)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="111">
         <f>COUNTIF(A:A,B5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="121"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="111">
         <f>COUNTIF(A:A,B6)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="111">
         <f>COUNTIF(A:A,B7)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="111">
         <f>COUNTIF(A:A,B8)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="119"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="111">
         <f>COUNTIF(A:A,B9)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="111">
         <f>COUNTIF(A:A,B10)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="119"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="111">
         <f>COUNTIF(A:A,B11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="119"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="111">
         <f>COUNTIF(A:A,B12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="119"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="113">
+      <c r="B13" s="113"/>
+      <c r="C13" s="111">
         <f>COUNTIF(A:A,B13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="119"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="30"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="119"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="116"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="116"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="116"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="121"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="121"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="121"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="119"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="116"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="121"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="119"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="116"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="121"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="121"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="119"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="121"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="119"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="119"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="116"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="121"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="119"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="116"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="116"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="116"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="116"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="116"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="116"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="116"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="116"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="116"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="116"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="116"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="116"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="116"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="116"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="119"/>
+      <c r="I48" s="119"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="116"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="120"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121"/>
+      <c r="A49" s="114"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="119"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="116"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="121"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="116"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="121"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="116"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="119"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="116"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="116"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="121"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="119"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="116"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="121"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="119"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="116"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="121"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="119"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="116"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="121"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="119"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="116"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="116"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="121"/>
-      <c r="I59" s="121"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="119"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="116"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="121"/>
-      <c r="I60" s="121"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="116"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="121"/>
-      <c r="I61" s="121"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="116"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="120"/>
-      <c r="H62" s="121"/>
-      <c r="I62" s="121"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="119"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="116"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="120"/>
-      <c r="H63" s="121"/>
-      <c r="I63" s="121"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="119"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="116"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="114"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="120"/>
-      <c r="H64" s="121"/>
-      <c r="I64" s="121"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="118"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="116"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="120"/>
-      <c r="H65" s="121"/>
-      <c r="I65" s="121"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="119"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="116"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="121"/>
-      <c r="I66" s="121"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="119"/>
+      <c r="I66" s="119"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="116"/>
-      <c r="B67" s="116"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="116"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="121"/>
-      <c r="I67" s="121"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="119"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="116"/>
-      <c r="B68" s="116"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="116"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
+      <c r="A68" s="114"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="118"/>
+      <c r="H68" s="119"/>
+      <c r="I68" s="119"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="116"/>
-      <c r="B69" s="116"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="116"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="121"/>
-      <c r="I69" s="121"/>
+      <c r="A69" s="114"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="119"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="116"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="116"/>
-      <c r="G70" s="120"/>
-      <c r="H70" s="121"/>
-      <c r="I70" s="121"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="119"/>
+      <c r="I70" s="119"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="116"/>
-      <c r="B71" s="116"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="116"/>
-      <c r="G71" s="120"/>
-      <c r="H71" s="121"/>
-      <c r="I71" s="121"/>
+      <c r="A71" s="114"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="118"/>
+      <c r="H71" s="119"/>
+      <c r="I71" s="119"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="116"/>
-      <c r="B72" s="116"/>
-      <c r="C72" s="114"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="116"/>
-      <c r="G72" s="120"/>
-      <c r="H72" s="121"/>
-      <c r="I72" s="121"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="112"/>
+      <c r="D72" s="112"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="118"/>
+      <c r="H72" s="119"/>
+      <c r="I72" s="119"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="116"/>
-      <c r="B73" s="116"/>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="120"/>
-      <c r="H73" s="121"/>
-      <c r="I73" s="121"/>
+      <c r="A73" s="114"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="112"/>
+      <c r="E73" s="112"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="118"/>
+      <c r="H73" s="119"/>
+      <c r="I73" s="119"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="116"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="114"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="116"/>
-      <c r="G74" s="120"/>
-      <c r="H74" s="121"/>
-      <c r="I74" s="121"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="118"/>
+      <c r="H74" s="119"/>
+      <c r="I74" s="119"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="116"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="116"/>
-      <c r="G75" s="120"/>
-      <c r="H75" s="121"/>
-      <c r="I75" s="121"/>
+      <c r="A75" s="114"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="112"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="114"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="119"/>
+      <c r="I75" s="119"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="116"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="114"/>
-      <c r="D76" s="114"/>
-      <c r="E76" s="114"/>
-      <c r="F76" s="116"/>
-      <c r="G76" s="120"/>
-      <c r="H76" s="121"/>
-      <c r="I76" s="121"/>
+      <c r="A76" s="114"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="118"/>
+      <c r="H76" s="119"/>
+      <c r="I76" s="119"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="116"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="114"/>
-      <c r="D77" s="114"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="116"/>
-      <c r="G77" s="120"/>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121"/>
+      <c r="A77" s="114"/>
+      <c r="B77" s="114"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="119"/>
+      <c r="I77" s="119"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="116"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="114"/>
-      <c r="D78" s="114"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="116"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="121"/>
-      <c r="I78" s="121"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="114"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="112"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="119"/>
+      <c r="I78" s="119"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="116"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="114"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="116"/>
-      <c r="G79" s="120"/>
-      <c r="H79" s="121"/>
-      <c r="I79" s="121"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="114"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="112"/>
+      <c r="E79" s="112"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="118"/>
+      <c r="H79" s="119"/>
+      <c r="I79" s="119"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="116"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="114"/>
-      <c r="D80" s="114"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="116"/>
-      <c r="G80" s="120"/>
-      <c r="H80" s="121"/>
-      <c r="I80" s="121"/>
+      <c r="A80" s="114"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="112"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="118"/>
+      <c r="H80" s="119"/>
+      <c r="I80" s="119"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="116"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="114"/>
-      <c r="D81" s="114"/>
-      <c r="E81" s="114"/>
-      <c r="F81" s="116"/>
-      <c r="G81" s="120"/>
-      <c r="H81" s="121"/>
-      <c r="I81" s="121"/>
+      <c r="A81" s="114"/>
+      <c r="B81" s="114"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="112"/>
+      <c r="E81" s="112"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="118"/>
+      <c r="H81" s="119"/>
+      <c r="I81" s="119"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="116"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="116"/>
-      <c r="G82" s="120"/>
-      <c r="H82" s="121"/>
-      <c r="I82" s="121"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="112"/>
+      <c r="E82" s="112"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="118"/>
+      <c r="H82" s="119"/>
+      <c r="I82" s="119"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="116"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="116"/>
-      <c r="G83" s="120"/>
-      <c r="H83" s="121"/>
-      <c r="I83" s="121"/>
+      <c r="A83" s="114"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="118"/>
+      <c r="H83" s="119"/>
+      <c r="I83" s="119"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="116"/>
-      <c r="B84" s="116"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="116"/>
-      <c r="G84" s="120"/>
-      <c r="H84" s="121"/>
-      <c r="I84" s="121"/>
+      <c r="A84" s="114"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="112"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="119"/>
+      <c r="I84" s="119"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="116"/>
-      <c r="B85" s="116"/>
-      <c r="C85" s="114"/>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="116"/>
-      <c r="G85" s="120"/>
-      <c r="H85" s="121"/>
-      <c r="I85" s="121"/>
+      <c r="A85" s="114"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="112"/>
+      <c r="E85" s="112"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="118"/>
+      <c r="H85" s="119"/>
+      <c r="I85" s="119"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="116"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="116"/>
-      <c r="G86" s="120"/>
-      <c r="H86" s="121"/>
-      <c r="I86" s="121"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="114"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="118"/>
+      <c r="H86" s="119"/>
+      <c r="I86" s="119"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="116"/>
-      <c r="B87" s="116"/>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="116"/>
-      <c r="G87" s="120"/>
-      <c r="H87" s="121"/>
-      <c r="I87" s="121"/>
+      <c r="A87" s="114"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="118"/>
+      <c r="H87" s="119"/>
+      <c r="I87" s="119"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="116"/>
-      <c r="B88" s="116"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="116"/>
-      <c r="G88" s="120"/>
-      <c r="H88" s="121"/>
-      <c r="I88" s="121"/>
+      <c r="A88" s="114"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="114"/>
+      <c r="G88" s="118"/>
+      <c r="H88" s="119"/>
+      <c r="I88" s="119"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="116"/>
-      <c r="B89" s="116"/>
-      <c r="C89" s="114"/>
-      <c r="D89" s="114"/>
-      <c r="E89" s="114"/>
-      <c r="F89" s="116"/>
-      <c r="G89" s="120"/>
-      <c r="H89" s="121"/>
-      <c r="I89" s="121"/>
+      <c r="A89" s="114"/>
+      <c r="B89" s="114"/>
+      <c r="C89" s="112"/>
+      <c r="D89" s="112"/>
+      <c r="E89" s="112"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="118"/>
+      <c r="H89" s="119"/>
+      <c r="I89" s="119"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="116"/>
-      <c r="B90" s="116"/>
-      <c r="C90" s="114"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="116"/>
-      <c r="G90" s="120"/>
-      <c r="H90" s="121"/>
-      <c r="I90" s="121"/>
+      <c r="A90" s="114"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="112"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="114"/>
+      <c r="G90" s="118"/>
+      <c r="H90" s="119"/>
+      <c r="I90" s="119"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="116"/>
-      <c r="B91" s="116"/>
-      <c r="C91" s="114"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="114"/>
-      <c r="F91" s="116"/>
-      <c r="G91" s="120"/>
-      <c r="H91" s="121"/>
-      <c r="I91" s="121"/>
+      <c r="A91" s="114"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="112"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="114"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="119"/>
+      <c r="I91" s="119"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="116"/>
-      <c r="B92" s="116"/>
-      <c r="C92" s="114"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="114"/>
-      <c r="F92" s="116"/>
-      <c r="G92" s="120"/>
-      <c r="H92" s="121"/>
-      <c r="I92" s="121"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="114"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="112"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="114"/>
+      <c r="G92" s="118"/>
+      <c r="H92" s="119"/>
+      <c r="I92" s="119"/>
     </row>
   </sheetData>
   <sortState ref="B1:C92">
@@ -7023,11 +7062,11 @@
   <dimension ref="A1:BQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="BG17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="BL24" sqref="BL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -7105,82 +7144,82 @@
       <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="74" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="83" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="89" t="s">
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="89"/>
-      <c r="BA1" s="89"/>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="89"/>
-      <c r="BI1" s="89"/>
-      <c r="BJ1" s="89"/>
-      <c r="BK1" s="54" t="s">
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="87"/>
+      <c r="BB1" s="87"/>
+      <c r="BC1" s="87"/>
+      <c r="BD1" s="87"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="87"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
+      <c r="BK1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="108"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="106"/>
       <c r="BO1" s="4"/>
       <c r="BP1" s="4"/>
       <c r="BQ1" s="4"/>
@@ -7190,72 +7229,72 @@
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="21"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="36" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="54" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="36" t="s">
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="75" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="90" t="s">
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="90" t="s">
+      <c r="AV2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="AW2" s="94" t="s">
+      <c r="AW2" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="95" t="s">
+      <c r="AX2" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="AY2" s="96"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="96"/>
-      <c r="BB2" s="96"/>
+      <c r="AY2" s="94"/>
+      <c r="AZ2" s="94"/>
+      <c r="BA2" s="94"/>
+      <c r="BB2" s="94"/>
       <c r="BC2" s="21"/>
       <c r="BD2" s="21" t="s">
         <v>31</v>
@@ -7266,8 +7305,8 @@
       <c r="BH2" s="21"/>
       <c r="BI2" s="21"/>
       <c r="BJ2" s="21"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="33"/>
       <c r="BM2" s="21" t="s">
         <v>32</v>
       </c>
@@ -7278,159 +7317,159 @@
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="37" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="55" t="s">
+      <c r="R3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="55" t="s">
+      <c r="S3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="55" t="s">
+      <c r="U3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="65" t="s">
+      <c r="V3" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="66" t="s">
+      <c r="W3" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="66" t="s">
+      <c r="X3" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="Y3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AA3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="76" t="s">
+      <c r="AB3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="74" t="s">
+      <c r="AD3" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="76" t="s">
+      <c r="AF3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="76" t="s">
+      <c r="AG3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="76" t="s">
+      <c r="AH3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="76" t="s">
+      <c r="AI3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="76" t="s">
+      <c r="AJ3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="76" t="s">
+      <c r="AK3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="76" t="s">
+      <c r="AL3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AM3" s="76" t="s">
+      <c r="AM3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="65" t="s">
+      <c r="AN3" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AO3" s="66" t="s">
+      <c r="AO3" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="AP3" s="66" t="s">
+      <c r="AP3" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="AQ3" s="83" t="s">
+      <c r="AQ3" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="AR3" s="75" t="s">
+      <c r="AR3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="AS3" s="90" t="s">
+      <c r="AS3" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="AT3" s="90" t="s">
+      <c r="AT3" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="35" t="s">
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AY3" s="35" t="s">
+      <c r="AY3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AZ3" s="54" t="s">
+      <c r="AZ3" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="BA3" s="96" t="s">
+      <c r="BA3" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="BB3" s="96" t="s">
+      <c r="BB3" s="94" t="s">
         <v>51</v>
       </c>
       <c r="BC3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="BD3" s="101" t="s">
+      <c r="BD3" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="BE3" s="101" t="s">
+      <c r="BE3" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="BF3" s="101" t="s">
+      <c r="BF3" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="BG3" s="101" t="s">
+      <c r="BG3" s="99" t="s">
         <v>56</v>
       </c>
       <c r="BH3" s="21" t="s">
@@ -7442,10 +7481,10 @@
       <c r="BJ3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BK3" s="34" t="s">
+      <c r="BK3" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="BL3" s="35" t="s">
+      <c r="BL3" s="33" t="s">
         <v>60</v>
       </c>
       <c r="BM3" s="21"/>
@@ -7455,7 +7494,7 @@
       <c r="A4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="120" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7464,182 +7503,182 @@
       <c r="D4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="36">
         <v>0.1612</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="37">
         <v>9.587</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="38">
         <v>164</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="38">
         <v>1.8698</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="38">
         <v>1.7958</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="55">
         <v>0.27</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="55">
         <v>0.78</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="55">
         <v>0.89</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="55">
         <v>1.08</v>
       </c>
-      <c r="N4" s="60">
+      <c r="N4" s="58">
         <v>0.24</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="59">
         <v>0.6</v>
       </c>
-      <c r="P4" s="61">
+      <c r="P4" s="59">
         <v>0.67</v>
       </c>
-      <c r="Q4" s="61">
+      <c r="Q4" s="59">
         <v>0.62</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="61">
         <v>0.03</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="61">
         <v>2.15</v>
       </c>
-      <c r="T4" s="63">
+      <c r="T4" s="61">
         <v>3.82</v>
       </c>
-      <c r="U4" s="63">
+      <c r="U4" s="61">
         <v>6.98</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="65">
         <f>((N4+O4+P4+Q4)/4-(J4+K4+L4+M4)/4)/((J4+K4+L4+M4)/4)</f>
         <v>-0.294701986754967</v>
       </c>
-      <c r="W4" s="67">
+      <c r="W4" s="65">
         <f t="shared" ref="W4:W10" si="0">((R4+S4+T4+U4)/4-(N4+O4+P4+Q4)/4)/((N4+O4+P4+Q4)/4)</f>
         <v>5.09389671361502</v>
       </c>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="40">
+      <c r="X4" s="66"/>
+      <c r="Y4" s="38">
         <v>13.2586</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="44">
         <v>1.8525</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4" s="44">
         <v>1.9614</v>
       </c>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77">
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75">
         <v>0.2277</v>
       </c>
-      <c r="AD4" s="77">
+      <c r="AD4" s="75">
         <v>0.1645</v>
       </c>
-      <c r="AE4" s="77">
+      <c r="AE4" s="75">
         <v>5.12</v>
       </c>
-      <c r="AF4" s="78">
+      <c r="AF4" s="76">
         <v>0.3989</v>
       </c>
-      <c r="AG4" s="78">
+      <c r="AG4" s="76">
         <v>0.0213</v>
       </c>
-      <c r="AH4" s="78">
+      <c r="AH4" s="76">
         <v>0.0803</v>
       </c>
-      <c r="AI4" s="78">
+      <c r="AI4" s="76">
         <v>0.1427</v>
       </c>
-      <c r="AJ4" s="78">
+      <c r="AJ4" s="76">
         <v>-0.0694</v>
       </c>
-      <c r="AK4" s="78">
+      <c r="AK4" s="76">
         <v>2.3883</v>
       </c>
-      <c r="AL4" s="78">
+      <c r="AL4" s="76">
         <v>2.8798</v>
       </c>
-      <c r="AM4" s="79">
+      <c r="AM4" s="77">
         <v>3.4657</v>
       </c>
-      <c r="AN4" s="80" t="s">
+      <c r="AN4" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AO4" s="84">
+      <c r="AO4" s="82">
         <f>(AF4+AG4+AH4+AI4)/4</f>
         <v>0.1608</v>
       </c>
-      <c r="AP4" s="71">
+      <c r="AP4" s="69">
         <f t="shared" ref="AP4:AP7" si="1">(AJ4+AK4+AL4+AM4)/4</f>
         <v>2.1661</v>
       </c>
-      <c r="AQ4" s="85">
+      <c r="AQ4" s="83">
         <v>43291</v>
       </c>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91">
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89">
         <v>1.049</v>
       </c>
-      <c r="AV4" s="91">
+      <c r="AV4" s="89">
         <v>0.6011</v>
       </c>
-      <c r="AW4" s="97">
+      <c r="AW4" s="95">
         <f>AV4*(1-0.33)</f>
         <v>0.402737</v>
       </c>
-      <c r="AX4" s="98">
+      <c r="AX4" s="96">
         <v>44.64</v>
       </c>
-      <c r="AY4" s="98">
+      <c r="AY4" s="96">
         <v>64.54</v>
       </c>
-      <c r="AZ4" s="98">
+      <c r="AZ4" s="96">
         <v>45.35</v>
       </c>
-      <c r="BA4" s="98">
+      <c r="BA4" s="96">
         <f>($AX4+$AY4+$AZ4)/(16+22+23)</f>
         <v>2.53327868852459</v>
       </c>
-      <c r="BB4" s="98">
+      <c r="BB4" s="96">
         <v>1.9962</v>
       </c>
-      <c r="BC4" s="102">
+      <c r="BC4" s="100">
         <f>BB4/BA4</f>
         <v>0.787990681421083</v>
       </c>
-      <c r="BD4" s="103">
+      <c r="BD4" s="101">
         <v>1</v>
       </c>
-      <c r="BE4" s="103" t="s">
+      <c r="BE4" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="BF4" s="106" t="s">
+      <c r="BF4" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="BG4" s="103" t="s">
+      <c r="BG4" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="BH4" s="103"/>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="103"/>
-      <c r="BK4" s="39">
+      <c r="BH4" s="101"/>
+      <c r="BI4" s="101"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="37">
         <v>10.35</v>
       </c>
-      <c r="BL4" s="46">
+      <c r="BL4" s="44">
         <f>BK4/AU4</f>
         <v>9.86653956148713</v>
       </c>
-      <c r="BM4" s="109" t="s">
+      <c r="BM4" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="BN4" s="103"/>
+      <c r="BN4" s="101"/>
     </row>
     <row r="5" ht="74" spans="1:66">
       <c r="A5" s="23" t="s">
@@ -7654,162 +7693,162 @@
       <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="39">
         <v>0.5204</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="40">
         <v>1.87</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="38">
         <v>1.087</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="38">
         <v>0.7941</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="38">
         <v>0.6696</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58">
+      <c r="J5" s="56"/>
+      <c r="K5" s="56">
         <v>0.8</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="56">
         <v>1.31</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="60">
         <v>1.91</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="60">
         <v>0.29</v>
       </c>
-      <c r="O5" s="62">
+      <c r="O5" s="60">
         <v>0.85</v>
       </c>
-      <c r="P5" s="62">
+      <c r="P5" s="60">
         <v>1.38</v>
       </c>
-      <c r="Q5" s="62">
+      <c r="Q5" s="60">
         <v>1.92</v>
       </c>
-      <c r="R5" s="62">
+      <c r="R5" s="60">
         <v>0.23</v>
       </c>
-      <c r="S5" s="62">
+      <c r="S5" s="60">
         <v>0.68</v>
       </c>
-      <c r="T5" s="62">
+      <c r="T5" s="60">
         <v>1.12</v>
       </c>
-      <c r="U5" s="69">
+      <c r="U5" s="67">
         <v>1.8</v>
       </c>
-      <c r="V5" s="70" t="s">
+      <c r="V5" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="67">
+      <c r="W5" s="65">
         <f t="shared" si="0"/>
         <v>-0.137387387387387</v>
       </c>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="40">
+      <c r="X5" s="66"/>
+      <c r="Y5" s="38">
         <v>1.0194</v>
       </c>
-      <c r="Z5" s="40">
+      <c r="Z5" s="38">
         <v>0.7661</v>
       </c>
-      <c r="AA5" s="40">
+      <c r="AA5" s="38">
         <v>0.6219</v>
       </c>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45">
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43">
         <v>-0.0412</v>
       </c>
-      <c r="AH5" s="45">
+      <c r="AH5" s="43">
         <v>-0.0395</v>
       </c>
-      <c r="AI5" s="45">
+      <c r="AI5" s="43">
         <v>-0.0053</v>
       </c>
-      <c r="AJ5" s="45">
+      <c r="AJ5" s="43">
         <v>-0.0058</v>
       </c>
-      <c r="AK5" s="45">
+      <c r="AK5" s="43">
         <v>0.1478</v>
       </c>
-      <c r="AL5" s="45">
+      <c r="AL5" s="43">
         <v>0.2092</v>
       </c>
-      <c r="AM5" s="78">
+      <c r="AM5" s="76">
         <v>0.2964</v>
       </c>
-      <c r="AN5" s="80" t="s">
+      <c r="AN5" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AO5" s="80" t="s">
+      <c r="AO5" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AP5" s="71">
+      <c r="AP5" s="69">
         <f t="shared" si="1"/>
         <v>0.1619</v>
       </c>
-      <c r="AQ5" s="85">
+      <c r="AQ5" s="83">
         <v>43823</v>
       </c>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92">
+      <c r="AR5" s="76"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90">
         <v>2.331</v>
       </c>
-      <c r="AV5" s="92">
+      <c r="AV5" s="90">
         <v>1.118</v>
       </c>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="99">
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="97">
         <v>25.37</v>
       </c>
-      <c r="AY5" s="99">
+      <c r="AY5" s="97">
         <v>48.76</v>
       </c>
-      <c r="AZ5" s="99">
+      <c r="AZ5" s="97">
         <v>37.72</v>
       </c>
-      <c r="BA5" s="98">
+      <c r="BA5" s="96">
         <f>($AX5+$AY5+$AZ5)/(16+22+23)</f>
         <v>1.83360655737705</v>
       </c>
-      <c r="BB5" s="99">
+      <c r="BB5" s="97">
         <v>1.8845</v>
       </c>
-      <c r="BC5" s="102">
+      <c r="BC5" s="100">
         <f>BB5/BA5</f>
         <v>1.02775592311131</v>
       </c>
-      <c r="BD5" s="104">
+      <c r="BD5" s="102">
         <v>21</v>
       </c>
-      <c r="BE5" s="103" t="s">
+      <c r="BE5" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="BF5" s="107" t="s">
+      <c r="BF5" s="105" t="s">
         <v>72</v>
       </c>
       <c r="BG5" s="29"/>
       <c r="BH5" s="29"/>
       <c r="BI5" s="29"/>
       <c r="BJ5" s="29"/>
-      <c r="BK5" s="42">
+      <c r="BK5" s="40">
         <v>5.25</v>
       </c>
-      <c r="BL5" s="46">
+      <c r="BL5" s="44">
         <f t="shared" ref="BL5:BL12" si="2">BK5/AU5</f>
         <v>2.25225225225225</v>
       </c>
-      <c r="BM5" s="107" t="s">
+      <c r="BM5" s="105" t="s">
         <v>73</v>
       </c>
       <c r="BN5" s="29"/>
@@ -7827,162 +7866,162 @@
       <c r="D6" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="41">
         <v>0.1782</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="42">
         <v>2.16</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="38">
         <v>1.9227</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="38">
         <v>1.5284</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="38">
         <v>1.4696</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58">
+      <c r="J6" s="56"/>
+      <c r="K6" s="56">
         <v>1.84</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="56">
         <v>2.95</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="60">
         <v>3.54</v>
       </c>
-      <c r="N6" s="62">
+      <c r="N6" s="60">
         <v>0.64</v>
       </c>
-      <c r="O6" s="62">
+      <c r="O6" s="60">
         <v>0.92</v>
       </c>
-      <c r="P6" s="62">
+      <c r="P6" s="60">
         <v>1.15</v>
       </c>
-      <c r="Q6" s="62">
+      <c r="Q6" s="60">
         <v>1.22</v>
       </c>
-      <c r="R6" s="62">
+      <c r="R6" s="60">
         <v>0.22</v>
       </c>
-      <c r="S6" s="62">
+      <c r="S6" s="60">
         <v>0.55</v>
       </c>
-      <c r="T6" s="62">
+      <c r="T6" s="60">
         <v>0.87</v>
       </c>
-      <c r="U6" s="69">
+      <c r="U6" s="67">
         <v>1.24</v>
       </c>
-      <c r="V6" s="70" t="s">
+      <c r="V6" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="67">
+      <c r="W6" s="65">
         <f t="shared" si="0"/>
         <v>-0.267175572519084</v>
       </c>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="46">
+      <c r="X6" s="66"/>
+      <c r="Y6" s="44">
         <v>0.6159</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="Z6" s="44">
         <v>0.6243</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AA6" s="44">
         <v>0.7363</v>
       </c>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45">
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43">
         <v>-0.0797</v>
       </c>
-      <c r="AH6" s="45">
+      <c r="AH6" s="43">
         <v>-0.1393</v>
       </c>
-      <c r="AI6" s="45">
+      <c r="AI6" s="43">
         <v>-0.1248</v>
       </c>
-      <c r="AJ6" s="45">
+      <c r="AJ6" s="43">
         <v>-0.1395</v>
       </c>
-      <c r="AK6" s="45">
+      <c r="AK6" s="43">
         <v>-0.1186</v>
       </c>
-      <c r="AL6" s="45">
+      <c r="AL6" s="43">
         <v>-0.0353</v>
       </c>
-      <c r="AM6" s="78">
+      <c r="AM6" s="76">
         <v>0.0498</v>
       </c>
-      <c r="AN6" s="80" t="s">
+      <c r="AN6" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AO6" s="80" t="s">
+      <c r="AO6" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AP6" s="71">
+      <c r="AP6" s="69">
         <f t="shared" si="1"/>
         <v>-0.0609</v>
       </c>
-      <c r="AQ6" s="85">
+      <c r="AQ6" s="83">
         <v>43636</v>
       </c>
-      <c r="AR6" s="78"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="92">
+      <c r="AR6" s="76"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90">
         <v>1.301</v>
       </c>
-      <c r="AV6" s="92">
+      <c r="AV6" s="90">
         <v>0.457</v>
       </c>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="99">
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="97">
         <v>40.41</v>
       </c>
-      <c r="AY6" s="99">
+      <c r="AY6" s="97">
         <v>40.24</v>
       </c>
-      <c r="AZ6" s="99">
+      <c r="AZ6" s="97">
         <v>70.51</v>
       </c>
-      <c r="BA6" s="98">
+      <c r="BA6" s="96">
         <f>($AX6+$AY6+$AZ6)/(16+22+23)</f>
         <v>2.47803278688525</v>
       </c>
-      <c r="BB6" s="99">
+      <c r="BB6" s="97">
         <v>2.2217</v>
       </c>
-      <c r="BC6" s="102">
+      <c r="BC6" s="100">
         <f>BB6/BA6</f>
         <v>0.896557951839111</v>
       </c>
       <c r="BD6" s="29">
         <v>3</v>
       </c>
-      <c r="BE6" s="103" t="s">
+      <c r="BE6" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="BF6" s="107" t="s">
+      <c r="BF6" s="105" t="s">
         <v>78</v>
       </c>
       <c r="BG6" s="29"/>
       <c r="BH6" s="29"/>
       <c r="BI6" s="29"/>
       <c r="BJ6" s="29"/>
-      <c r="BK6" s="44">
+      <c r="BK6" s="42">
         <v>2.75</v>
       </c>
-      <c r="BL6" s="46">
+      <c r="BL6" s="44">
         <f t="shared" si="2"/>
         <v>2.11375864719447</v>
       </c>
-      <c r="BM6" s="107" t="s">
+      <c r="BM6" s="105" t="s">
         <v>79</v>
       </c>
       <c r="BN6" s="29"/>
@@ -8000,177 +8039,177 @@
       <c r="D7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <v>0.5536</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="42">
         <v>1.08</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="38">
         <v>3.5</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="38">
         <v>1.5313</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="38">
         <v>1.0769</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="57">
         <v>0.07</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="57">
         <v>0.14</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="57">
         <v>0.38</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7" s="59">
         <v>0.06</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="56">
         <v>1.38</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="56">
         <v>1.71</v>
       </c>
-      <c r="P7" s="58">
+      <c r="P7" s="56">
         <v>1.97</v>
       </c>
-      <c r="Q7" s="62">
+      <c r="Q7" s="60">
         <v>2.12</v>
       </c>
-      <c r="R7" s="62">
+      <c r="R7" s="60">
         <v>0.08</v>
       </c>
-      <c r="S7" s="62">
+      <c r="S7" s="60">
         <v>0.32</v>
       </c>
-      <c r="T7" s="62">
+      <c r="T7" s="60">
         <v>0.52</v>
       </c>
-      <c r="U7" s="62">
+      <c r="U7" s="60">
         <v>0.58</v>
       </c>
-      <c r="V7" s="67">
+      <c r="V7" s="65">
         <f>((N7+O7+P7+Q7)/4-(J7+K7+L7+M7)/4)/((J7+K7+L7+M7)/4)</f>
         <v>10.0461538461538</v>
       </c>
-      <c r="W7" s="67">
+      <c r="W7" s="65">
         <f t="shared" si="0"/>
         <v>-0.79108635097493</v>
       </c>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="40">
+      <c r="X7" s="66"/>
+      <c r="Y7" s="38">
         <v>0.5478</v>
       </c>
-      <c r="Z7" s="40">
+      <c r="Z7" s="38">
         <v>0.2848</v>
       </c>
-      <c r="AA7" s="40">
+      <c r="AA7" s="38">
         <v>0.1434</v>
       </c>
-      <c r="AB7" s="78">
+      <c r="AB7" s="76">
         <v>-0.0763</v>
       </c>
-      <c r="AC7" s="78">
+      <c r="AC7" s="76">
         <v>0.0339</v>
       </c>
-      <c r="AD7" s="78">
+      <c r="AD7" s="76">
         <v>0.0737</v>
       </c>
-      <c r="AE7" s="45">
+      <c r="AE7" s="43">
         <v>0.0591</v>
       </c>
-      <c r="AF7" s="45">
+      <c r="AF7" s="43">
         <v>0.1517</v>
       </c>
-      <c r="AG7" s="45">
+      <c r="AG7" s="43">
         <v>-0.1101</v>
       </c>
-      <c r="AH7" s="45">
+      <c r="AH7" s="43">
         <v>-0.1848</v>
       </c>
-      <c r="AI7" s="45">
+      <c r="AI7" s="43">
         <v>-0.1896</v>
       </c>
-      <c r="AJ7" s="45">
+      <c r="AJ7" s="43">
         <v>-0.1942</v>
       </c>
-      <c r="AK7" s="78">
+      <c r="AK7" s="76">
         <v>-0.0575</v>
       </c>
-      <c r="AL7" s="78">
+      <c r="AL7" s="76">
         <v>0.0937</v>
       </c>
-      <c r="AM7" s="81">
+      <c r="AM7" s="79">
         <v>0.1023</v>
       </c>
-      <c r="AN7" s="82">
+      <c r="AN7" s="80">
         <f>(AB7+AC7+AD7+AE7)/4</f>
         <v>0.0226</v>
       </c>
-      <c r="AO7" s="84">
+      <c r="AO7" s="82">
         <f>(AF7+AG7+AH7+AI7)/4</f>
         <v>-0.0832</v>
       </c>
-      <c r="AP7" s="71">
+      <c r="AP7" s="69">
         <f t="shared" si="1"/>
         <v>-0.013925</v>
       </c>
-      <c r="AQ7" s="86">
+      <c r="AQ7" s="84">
         <v>37526</v>
       </c>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92">
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90">
         <v>4.064</v>
       </c>
-      <c r="AV7" s="92">
+      <c r="AV7" s="90">
         <v>4.035</v>
       </c>
-      <c r="AW7" s="92"/>
-      <c r="AX7" s="99">
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="97">
         <v>150.3</v>
       </c>
-      <c r="AY7" s="99">
+      <c r="AY7" s="97">
         <v>317.7</v>
       </c>
-      <c r="AZ7" s="99">
+      <c r="AZ7" s="97">
         <v>340.8</v>
       </c>
-      <c r="BA7" s="98">
+      <c r="BA7" s="96">
         <f>($AX7+$AY7+$AZ7)/(16+22+23)</f>
         <v>13.2590163934426</v>
       </c>
-      <c r="BB7" s="99">
+      <c r="BB7" s="97">
         <v>10.75</v>
       </c>
-      <c r="BC7" s="102">
+      <c r="BC7" s="100">
         <f>BB7/BA7</f>
         <v>0.810769040553907</v>
       </c>
       <c r="BD7" s="29">
         <v>18</v>
       </c>
-      <c r="BE7" s="103" t="s">
+      <c r="BE7" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="BF7" s="106" t="s">
+      <c r="BF7" s="104" t="s">
         <v>83</v>
       </c>
       <c r="BG7" s="29"/>
       <c r="BH7" s="29"/>
       <c r="BI7" s="29"/>
       <c r="BJ7" s="29"/>
-      <c r="BK7" s="44">
+      <c r="BK7" s="42">
         <v>4.38</v>
       </c>
-      <c r="BL7" s="46">
+      <c r="BL7" s="44">
         <f t="shared" si="2"/>
         <v>1.07775590551181</v>
       </c>
-      <c r="BM7" s="110" t="s">
+      <c r="BM7" s="108" t="s">
         <v>84</v>
       </c>
       <c r="BN7" s="29"/>
@@ -8188,130 +8227,130 @@
       <c r="D8" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="43">
         <v>0.4686</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="40">
         <v>1.092</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="38">
         <v>0.5</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="38">
         <v>0.6098</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="38">
         <v>0.4103</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="56">
         <v>0.21</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="56">
         <v>0.42</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="56">
         <v>0.61</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="60">
         <v>0.68</v>
       </c>
-      <c r="N8" s="62">
+      <c r="N8" s="60">
         <v>0.26</v>
       </c>
-      <c r="O8" s="62">
+      <c r="O8" s="60">
         <v>0.49</v>
       </c>
-      <c r="P8" s="62">
+      <c r="P8" s="60">
         <v>0.79</v>
       </c>
-      <c r="Q8" s="62">
+      <c r="Q8" s="60">
         <v>1.1</v>
       </c>
-      <c r="R8" s="62">
+      <c r="R8" s="60">
         <v>0.16</v>
       </c>
-      <c r="S8" s="62">
+      <c r="S8" s="60">
         <v>0.41</v>
       </c>
-      <c r="T8" s="62">
+      <c r="T8" s="60">
         <v>0.78</v>
       </c>
-      <c r="U8" s="69">
+      <c r="U8" s="67">
         <v>1.29</v>
       </c>
-      <c r="V8" s="67">
+      <c r="V8" s="65">
         <f>((N8+O8+P8+Q8)/4-(J8+K8+L8+M8)/4)/((J8+K8+L8+M8)/4)</f>
         <v>0.375</v>
       </c>
-      <c r="W8" s="67">
+      <c r="W8" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="40">
+      <c r="X8" s="66"/>
+      <c r="Y8" s="38">
         <v>0.4274</v>
       </c>
-      <c r="Z8" s="40">
+      <c r="Z8" s="38">
         <v>0.2761</v>
       </c>
-      <c r="AA8" s="40">
+      <c r="AA8" s="38">
         <v>0.2608</v>
       </c>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="85">
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="83">
         <v>43675</v>
       </c>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92">
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90">
         <v>4.119</v>
       </c>
-      <c r="AV8" s="92">
+      <c r="AV8" s="90">
         <v>1.961</v>
       </c>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="99"/>
-      <c r="BB8" s="99"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97"/>
       <c r="BC8" s="29"/>
       <c r="BD8" s="29">
         <v>14</v>
       </c>
-      <c r="BE8" s="103" t="s">
+      <c r="BE8" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="BF8" s="106" t="s">
+      <c r="BF8" s="104" t="s">
         <v>89</v>
       </c>
       <c r="BG8" s="29"/>
       <c r="BH8" s="29"/>
       <c r="BI8" s="29"/>
       <c r="BJ8" s="29"/>
-      <c r="BK8" s="42">
+      <c r="BK8" s="40">
         <v>4.5</v>
       </c>
-      <c r="BL8" s="46">
+      <c r="BL8" s="44">
         <f t="shared" si="2"/>
         <v>1.0924981791697</v>
       </c>
-      <c r="BM8" s="109" t="s">
+      <c r="BM8" s="107" t="s">
         <v>90</v>
       </c>
       <c r="BN8" s="29"/>
@@ -8329,130 +8368,130 @@
       <c r="D9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="43">
         <v>0.3595</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="40">
         <v>2.053</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="38">
         <v>1.5</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="38">
         <v>1.26</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="38">
         <v>0.812</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="56">
         <v>0.23</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="56">
         <v>0.44</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="56">
         <v>0.68</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="60">
         <v>0.84</v>
       </c>
-      <c r="N9" s="62">
+      <c r="N9" s="60">
         <v>0.24</v>
       </c>
-      <c r="O9" s="62">
+      <c r="O9" s="60">
         <v>0.56</v>
       </c>
-      <c r="P9" s="62">
+      <c r="P9" s="60">
         <v>1.17</v>
       </c>
-      <c r="Q9" s="62">
+      <c r="Q9" s="60">
         <v>1.52</v>
       </c>
-      <c r="R9" s="62">
+      <c r="R9" s="60">
         <v>0.2</v>
       </c>
-      <c r="S9" s="62">
+      <c r="S9" s="60">
         <v>0.57</v>
       </c>
-      <c r="T9" s="62">
+      <c r="T9" s="60">
         <v>1.17</v>
       </c>
-      <c r="U9" s="69">
+      <c r="U9" s="67">
         <v>1.82</v>
       </c>
-      <c r="V9" s="67">
+      <c r="V9" s="65">
         <f>((N9+O9+P9+Q9)/4-(J9+K9+L9+M9)/4)/((J9+K9+L9+M9)/4)</f>
         <v>0.593607305936073</v>
       </c>
-      <c r="W9" s="67">
+      <c r="W9" s="65">
         <f t="shared" si="0"/>
         <v>0.0773638968481374</v>
       </c>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="40">
+      <c r="X9" s="66"/>
+      <c r="Y9" s="38">
         <v>1.0195</v>
       </c>
-      <c r="Z9" s="46">
+      <c r="Z9" s="44">
         <v>0.8225</v>
       </c>
-      <c r="AA9" s="46">
+      <c r="AA9" s="44">
         <v>0.9382</v>
       </c>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="68"/>
-      <c r="AP9" s="71"/>
-      <c r="AQ9" s="86">
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="84">
         <v>40805</v>
       </c>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="92">
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90">
         <v>6.826</v>
       </c>
-      <c r="AV9" s="92">
+      <c r="AV9" s="90">
         <v>6.824</v>
       </c>
-      <c r="AW9" s="92"/>
-      <c r="AX9" s="99"/>
-      <c r="AY9" s="99"/>
-      <c r="AZ9" s="99"/>
-      <c r="BA9" s="99"/>
-      <c r="BB9" s="99"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="97"/>
+      <c r="AY9" s="97"/>
+      <c r="AZ9" s="97"/>
+      <c r="BA9" s="97"/>
+      <c r="BB9" s="97"/>
       <c r="BC9" s="29"/>
-      <c r="BD9" s="104">
+      <c r="BD9" s="102">
         <v>104</v>
       </c>
-      <c r="BE9" s="103" t="s">
+      <c r="BE9" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="BF9" s="107" t="s">
+      <c r="BF9" s="105" t="s">
         <v>94</v>
       </c>
       <c r="BG9" s="29"/>
       <c r="BH9" s="29"/>
       <c r="BI9" s="29"/>
       <c r="BJ9" s="29"/>
-      <c r="BK9" s="42">
+      <c r="BK9" s="40">
         <v>14.02</v>
       </c>
-      <c r="BL9" s="46">
+      <c r="BL9" s="44">
         <f t="shared" si="2"/>
         <v>2.05391151479637</v>
       </c>
-      <c r="BM9" s="103" t="s">
+      <c r="BM9" s="101" t="s">
         <v>95</v>
       </c>
       <c r="BN9" s="29"/>
@@ -8470,130 +8509,130 @@
       <c r="D10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="43">
         <v>0.3026</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="40">
         <v>2.22</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="38">
         <v>1.44</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="44">
         <v>1.2295</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="44">
         <v>1.3617</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="56">
         <v>0.24</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="56">
         <v>0.5</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="56">
         <v>0.81</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="60">
         <v>1.01</v>
       </c>
-      <c r="N10" s="62">
+      <c r="N10" s="60">
         <v>0.29</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="60">
         <v>0.55</v>
       </c>
-      <c r="P10" s="62">
+      <c r="P10" s="60">
         <v>0.89</v>
       </c>
-      <c r="Q10" s="62">
+      <c r="Q10" s="60">
         <v>1.09</v>
       </c>
-      <c r="R10" s="62">
+      <c r="R10" s="60">
         <v>0.25</v>
       </c>
-      <c r="S10" s="62">
+      <c r="S10" s="60">
         <v>0.61</v>
       </c>
-      <c r="T10" s="62">
+      <c r="T10" s="60">
         <v>0.94</v>
       </c>
-      <c r="U10" s="69">
+      <c r="U10" s="67">
         <v>1.27</v>
       </c>
-      <c r="V10" s="67">
+      <c r="V10" s="65">
         <f>((N10+O10+P10+Q10)/4-(J10+K10+L10+M10)/4)/((J10+K10+L10+M10)/4)</f>
         <v>0.1015625</v>
       </c>
-      <c r="W10" s="67">
+      <c r="W10" s="65">
         <f t="shared" si="0"/>
         <v>0.0886524822695034</v>
       </c>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="46">
+      <c r="X10" s="66"/>
+      <c r="Y10" s="44">
         <v>0.2394</v>
       </c>
-      <c r="Z10" s="46">
+      <c r="Z10" s="44">
         <v>0.7485</v>
       </c>
-      <c r="AA10" s="46">
+      <c r="AA10" s="44">
         <v>1.2456</v>
       </c>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="68"/>
-      <c r="AP10" s="71"/>
-      <c r="AQ10" s="85">
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="83">
         <v>42137</v>
       </c>
-      <c r="AR10" s="78"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92">
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90">
         <v>4.646</v>
       </c>
-      <c r="AV10" s="92">
+      <c r="AV10" s="90">
         <v>4.627</v>
       </c>
-      <c r="AW10" s="92"/>
-      <c r="AX10" s="99"/>
-      <c r="AY10" s="99"/>
-      <c r="AZ10" s="99"/>
-      <c r="BA10" s="99"/>
-      <c r="BB10" s="99"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="97"/>
+      <c r="AY10" s="97"/>
+      <c r="AZ10" s="97"/>
+      <c r="BA10" s="97"/>
+      <c r="BB10" s="97"/>
       <c r="BC10" s="29"/>
       <c r="BD10" s="29">
         <v>17</v>
       </c>
-      <c r="BE10" s="107" t="s">
+      <c r="BE10" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="BF10" s="107" t="s">
+      <c r="BF10" s="105" t="s">
         <v>99</v>
       </c>
       <c r="BG10" s="29"/>
       <c r="BH10" s="29"/>
       <c r="BI10" s="29"/>
       <c r="BJ10" s="29"/>
-      <c r="BK10" s="42">
+      <c r="BK10" s="40">
         <v>10.33</v>
       </c>
-      <c r="BL10" s="46">
+      <c r="BL10" s="44">
         <f t="shared" si="2"/>
         <v>2.22341799397331</v>
       </c>
-      <c r="BM10" s="103" t="s">
+      <c r="BM10" s="101" t="s">
         <v>100</v>
       </c>
       <c r="BN10" s="29"/>
@@ -8602,7 +8641,7 @@
       <c r="A11" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="121" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -8611,100 +8650,100 @@
       <c r="D11" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="43">
         <v>0.3829</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="40">
         <v>1.172</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="38">
         <v>0.3277</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="44">
         <v>0.108</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="44">
         <v>0.1218</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="40">
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="38">
         <v>0.0583</v>
       </c>
-      <c r="Z11" s="46">
+      <c r="Z11" s="44">
         <v>0.0131</v>
       </c>
-      <c r="AA11" s="46">
+      <c r="AA11" s="44">
         <v>0.0315</v>
       </c>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="68"/>
-      <c r="AO11" s="68"/>
-      <c r="AP11" s="71"/>
-      <c r="AQ11" s="86">
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="84">
         <v>40604</v>
       </c>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92">
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90">
         <v>5.07</v>
       </c>
-      <c r="AV11" s="92">
+      <c r="AV11" s="90">
         <v>5.07</v>
       </c>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="99"/>
-      <c r="AY11" s="99"/>
-      <c r="AZ11" s="99"/>
-      <c r="BA11" s="99"/>
-      <c r="BB11" s="99"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="97"/>
+      <c r="AY11" s="97"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="97"/>
+      <c r="BB11" s="97"/>
       <c r="BC11" s="29"/>
       <c r="BD11" s="29">
         <v>1</v>
       </c>
-      <c r="BE11" s="107" t="s">
+      <c r="BE11" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="BF11" s="107" t="s">
+      <c r="BF11" s="105" t="s">
         <v>106</v>
       </c>
       <c r="BG11" s="29"/>
       <c r="BH11" s="29"/>
       <c r="BI11" s="29"/>
       <c r="BJ11" s="29"/>
-      <c r="BK11" s="42">
+      <c r="BK11" s="40">
         <v>5.94</v>
       </c>
-      <c r="BL11" s="46">
+      <c r="BL11" s="44">
         <f t="shared" si="2"/>
         <v>1.17159763313609</v>
       </c>
-      <c r="BM11" s="107" t="s">
+      <c r="BM11" s="105" t="s">
         <v>107</v>
       </c>
       <c r="BN11" s="29"/>
@@ -8713,7 +8752,7 @@
       <c r="A12" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="121" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="28" t="s">
@@ -8722,83 +8761,83 @@
       <c r="D12" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="45">
         <v>0.5848</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="40">
         <v>1.12</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="38">
         <v>0.7222</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="38">
         <v>0.8358</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="38">
         <v>0.766</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="40">
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="38">
         <v>0.4683</v>
       </c>
-      <c r="Z12" s="40">
+      <c r="Z12" s="38">
         <v>0.3351</v>
       </c>
-      <c r="AA12" s="40">
+      <c r="AA12" s="38">
         <v>0.2862</v>
       </c>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="68"/>
-      <c r="AP12" s="71"/>
-      <c r="AQ12" s="85">
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="83">
         <v>43160</v>
       </c>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="92"/>
-      <c r="AT12" s="92"/>
-      <c r="AU12" s="92">
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90">
         <v>2.287</v>
       </c>
-      <c r="AV12" s="92">
+      <c r="AV12" s="90">
         <v>1.685</v>
       </c>
-      <c r="AW12" s="92"/>
-      <c r="AX12" s="99"/>
-      <c r="AY12" s="99"/>
-      <c r="AZ12" s="99"/>
-      <c r="BA12" s="99"/>
-      <c r="BB12" s="99"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="97"/>
+      <c r="AY12" s="97"/>
+      <c r="AZ12" s="97"/>
+      <c r="BA12" s="97"/>
+      <c r="BB12" s="97"/>
       <c r="BC12" s="29"/>
       <c r="BD12" s="29">
         <v>13</v>
       </c>
-      <c r="BE12" s="107" t="s">
+      <c r="BE12" s="105" t="s">
         <v>112</v>
       </c>
       <c r="BF12" s="29"/>
@@ -8806,10 +8845,10 @@
       <c r="BH12" s="29"/>
       <c r="BI12" s="29"/>
       <c r="BJ12" s="29"/>
-      <c r="BK12" s="42">
+      <c r="BK12" s="40">
         <v>2.56</v>
       </c>
-      <c r="BL12" s="46">
+      <c r="BL12" s="44">
         <f t="shared" si="2"/>
         <v>1.11937035417578</v>
       </c>
@@ -8829,83 +8868,83 @@
       <c r="D13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <v>0.33</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="47">
         <v>0.671</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="48">
         <v>0.3333</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="48">
         <v>0.3</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="48">
         <v>0.2879</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="50">
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="48">
         <v>0.2143</v>
       </c>
-      <c r="Z13" s="50">
+      <c r="Z13" s="48">
         <v>0.156</v>
       </c>
-      <c r="AA13" s="50">
+      <c r="AA13" s="48">
         <v>0.1125</v>
       </c>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="87">
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="85">
         <v>35606</v>
       </c>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="93">
+      <c r="AR13" s="75"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91">
         <v>13.71</v>
       </c>
-      <c r="AV13" s="93">
+      <c r="AV13" s="91">
         <v>13.71</v>
       </c>
-      <c r="AW13" s="93"/>
-      <c r="AX13" s="100"/>
-      <c r="AY13" s="100"/>
-      <c r="AZ13" s="100"/>
-      <c r="BA13" s="100"/>
-      <c r="BB13" s="100"/>
+      <c r="AW13" s="91"/>
+      <c r="AX13" s="98"/>
+      <c r="AY13" s="98"/>
+      <c r="AZ13" s="98"/>
+      <c r="BA13" s="98"/>
+      <c r="BB13" s="98"/>
       <c r="BC13" s="30"/>
-      <c r="BD13" s="105">
+      <c r="BD13" s="103">
         <v>20</v>
       </c>
-      <c r="BE13" s="107" t="s">
+      <c r="BE13" s="105" t="s">
         <v>115</v>
       </c>
       <c r="BF13" s="30"/>
@@ -8913,10 +8952,10 @@
       <c r="BH13" s="30"/>
       <c r="BI13" s="30"/>
       <c r="BJ13" s="30"/>
-      <c r="BK13" s="49">
+      <c r="BK13" s="47">
         <v>9.2</v>
       </c>
-      <c r="BL13" s="78">
+      <c r="BL13" s="76">
         <f t="shared" ref="BL13:BL18" si="3">BK13/AU13</f>
         <v>0.671043034281546</v>
       </c>
@@ -8936,83 +8975,83 @@
       <c r="D14" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <v>0.4423</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="47">
         <v>1.69</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="48">
         <v>2.8333</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="48">
         <v>1.973</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="48">
         <v>1.061</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="50">
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="48">
         <v>0.5809</v>
       </c>
-      <c r="Z14" s="52">
+      <c r="Z14" s="50">
         <v>0.6068</v>
       </c>
-      <c r="AA14" s="52">
+      <c r="AA14" s="50">
         <v>0.6104</v>
       </c>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="73"/>
-      <c r="AQ14" s="87">
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="85">
         <v>38096</v>
       </c>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93">
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91">
         <v>1.534</v>
       </c>
-      <c r="AV14" s="93">
+      <c r="AV14" s="91">
         <v>1.522</v>
       </c>
-      <c r="AW14" s="93"/>
-      <c r="AX14" s="100"/>
-      <c r="AY14" s="100"/>
-      <c r="AZ14" s="100"/>
-      <c r="BA14" s="100"/>
-      <c r="BB14" s="100"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="98"/>
+      <c r="AY14" s="98"/>
+      <c r="AZ14" s="98"/>
+      <c r="BA14" s="98"/>
+      <c r="BB14" s="98"/>
       <c r="BC14" s="30"/>
       <c r="BD14" s="30">
         <v>15</v>
       </c>
-      <c r="BE14" s="107" t="s">
+      <c r="BE14" s="105" t="s">
         <v>118</v>
       </c>
       <c r="BF14" s="30"/>
@@ -9020,10 +9059,10 @@
       <c r="BH14" s="30"/>
       <c r="BI14" s="30"/>
       <c r="BJ14" s="30"/>
-      <c r="BK14" s="49">
+      <c r="BK14" s="47">
         <v>2.57</v>
       </c>
-      <c r="BL14" s="46">
+      <c r="BL14" s="44">
         <f t="shared" si="3"/>
         <v>1.67535853976532</v>
       </c>
@@ -9043,83 +9082,83 @@
       <c r="D15" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="49">
         <v>0.6883</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="47">
         <v>0.21</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="50">
         <v>0</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="50">
         <v>0.3015</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="50">
         <v>0.3125</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="50">
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="48">
         <v>-0.0711</v>
       </c>
-      <c r="Z15" s="50">
+      <c r="Z15" s="48">
         <v>0.1399</v>
       </c>
-      <c r="AA15" s="50">
+      <c r="AA15" s="48">
         <v>0.0965</v>
       </c>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="73"/>
-      <c r="AQ15" s="88">
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="71"/>
+      <c r="AQ15" s="86">
         <v>44341</v>
       </c>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="93"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="93">
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="91"/>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91">
         <v>20.8</v>
       </c>
-      <c r="AV15" s="93">
+      <c r="AV15" s="91">
         <v>2.08</v>
       </c>
-      <c r="AW15" s="93"/>
-      <c r="AX15" s="100"/>
-      <c r="AY15" s="100"/>
-      <c r="AZ15" s="100"/>
-      <c r="BA15" s="100"/>
-      <c r="BB15" s="100"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="98"/>
+      <c r="AY15" s="98"/>
+      <c r="AZ15" s="98"/>
+      <c r="BA15" s="98"/>
+      <c r="BB15" s="98"/>
       <c r="BC15" s="30"/>
       <c r="BD15" s="30">
         <v>4</v>
       </c>
-      <c r="BE15" s="107" t="s">
+      <c r="BE15" s="105" t="s">
         <v>122</v>
       </c>
       <c r="BF15" s="30"/>
@@ -9127,10 +9166,10 @@
       <c r="BH15" s="30"/>
       <c r="BI15" s="30"/>
       <c r="BJ15" s="30"/>
-      <c r="BK15" s="49">
+      <c r="BK15" s="47">
         <v>4.08</v>
       </c>
-      <c r="BL15" s="78">
+      <c r="BL15" s="76">
         <f t="shared" si="3"/>
         <v>0.196153846153846</v>
       </c>
@@ -9141,7 +9180,7 @@
       <c r="A16" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="122" t="s">
         <v>124</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9150,100 +9189,100 @@
       <c r="D16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="49">
         <v>0.5592</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="47">
         <v>1.27</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="48">
         <v>0.36</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="50">
         <v>0.125</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="50">
         <v>0.2574</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="50">
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="48">
         <v>-0.7209</v>
       </c>
-      <c r="Z16" s="52">
+      <c r="Z16" s="50">
         <v>-0.772</v>
       </c>
-      <c r="AA16" s="52">
+      <c r="AA16" s="50">
         <v>-0.6953</v>
       </c>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="88">
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="71"/>
+      <c r="AQ16" s="86">
         <v>42947</v>
       </c>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93">
+      <c r="AR16" s="75"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91">
         <v>1.381</v>
       </c>
-      <c r="AV16" s="93">
+      <c r="AV16" s="91">
         <v>0.8979</v>
       </c>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="100"/>
-      <c r="AY16" s="100"/>
-      <c r="AZ16" s="100"/>
-      <c r="BA16" s="100"/>
-      <c r="BB16" s="100"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="98"/>
+      <c r="AY16" s="98"/>
+      <c r="AZ16" s="98"/>
+      <c r="BA16" s="98"/>
+      <c r="BB16" s="98"/>
       <c r="BC16" s="30"/>
       <c r="BD16" s="30">
         <v>2</v>
       </c>
-      <c r="BE16" s="107" t="s">
+      <c r="BE16" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="BF16" s="107" t="s">
+      <c r="BF16" s="105" t="s">
         <v>127</v>
       </c>
       <c r="BG16" s="30"/>
       <c r="BH16" s="30"/>
       <c r="BI16" s="30"/>
       <c r="BJ16" s="30"/>
-      <c r="BK16" s="49">
+      <c r="BK16" s="47">
         <v>1.75</v>
       </c>
-      <c r="BL16" s="46">
+      <c r="BL16" s="44">
         <f t="shared" si="3"/>
         <v>1.26719768283852</v>
       </c>
-      <c r="BM16" s="107" t="s">
+      <c r="BM16" s="105" t="s">
         <v>128</v>
       </c>
       <c r="BN16" s="30"/>
@@ -9261,66 +9300,66 @@
       <c r="D17" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="46">
         <v>0.258</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="47">
         <v>0.496</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="48">
         <v>0.3333</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="50">
         <v>-0.111</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="50">
         <v>0.1628</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="67"/>
-      <c r="AO17" s="67"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="93"/>
-      <c r="AT17" s="93"/>
-      <c r="AU17" s="93"/>
-      <c r="AV17" s="93"/>
-      <c r="AW17" s="93"/>
-      <c r="AX17" s="100"/>
-      <c r="AY17" s="100"/>
-      <c r="AZ17" s="100"/>
-      <c r="BA17" s="100"/>
-      <c r="BB17" s="100"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="85"/>
+      <c r="AR17" s="75"/>
+      <c r="AS17" s="91"/>
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="91"/>
+      <c r="AV17" s="91"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="98"/>
+      <c r="AY17" s="98"/>
+      <c r="AZ17" s="98"/>
+      <c r="BA17" s="98"/>
+      <c r="BB17" s="98"/>
       <c r="BC17" s="30"/>
       <c r="BD17" s="30"/>
       <c r="BE17" s="30"/>
@@ -9329,8 +9368,8 @@
       <c r="BH17" s="30"/>
       <c r="BI17" s="30"/>
       <c r="BJ17" s="30"/>
-      <c r="BK17" s="49"/>
-      <c r="BL17" s="77"/>
+      <c r="BK17" s="47"/>
+      <c r="BL17" s="75"/>
       <c r="BM17" s="30"/>
       <c r="BN17" s="30"/>
     </row>
@@ -9338,7 +9377,7 @@
       <c r="A18" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="122" t="s">
         <v>133</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -9347,96 +9386,96 @@
       <c r="D18" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="46">
         <v>0.3643</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="47">
         <v>1.845</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="48">
         <v>1.2284</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="50">
         <v>1.1877</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="50">
         <v>1.6674</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="52">
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="50">
         <v>0.6822</v>
       </c>
-      <c r="Z18" s="52">
+      <c r="Z18" s="50">
         <v>0.8976</v>
       </c>
-      <c r="AA18" s="52">
+      <c r="AA18" s="50">
         <v>0.9121</v>
       </c>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="67"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="87">
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="85">
         <v>35614</v>
       </c>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="93"/>
-      <c r="AT18" s="93"/>
-      <c r="AU18" s="93">
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="91">
         <v>5.181</v>
       </c>
-      <c r="AV18" s="93">
+      <c r="AV18" s="91">
         <v>5.176</v>
       </c>
-      <c r="AW18" s="93"/>
-      <c r="AX18" s="100"/>
-      <c r="AY18" s="100"/>
-      <c r="AZ18" s="100"/>
-      <c r="BA18" s="100"/>
-      <c r="BB18" s="100"/>
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="98"/>
+      <c r="AY18" s="98"/>
+      <c r="AZ18" s="98"/>
+      <c r="BA18" s="98"/>
+      <c r="BB18" s="98"/>
       <c r="BC18" s="30"/>
-      <c r="BD18" s="105">
+      <c r="BD18" s="103">
         <v>139</v>
       </c>
-      <c r="BE18" s="107" t="s">
+      <c r="BE18" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="BF18" s="107" t="s">
+      <c r="BF18" s="105" t="s">
         <v>136</v>
       </c>
       <c r="BG18" s="30"/>
       <c r="BH18" s="30"/>
       <c r="BI18" s="30"/>
       <c r="BJ18" s="30"/>
-      <c r="BK18" s="49">
+      <c r="BK18" s="47">
         <v>9.56</v>
       </c>
-      <c r="BL18" s="46">
+      <c r="BL18" s="44">
         <f t="shared" si="3"/>
         <v>1.84520362864312</v>
       </c>
@@ -9456,81 +9495,81 @@
       <c r="D19" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="46">
         <v>0.3881</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="47">
         <v>0.777</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="48">
         <v>1.7333</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="48">
         <v>-0.2247</v>
       </c>
-      <c r="I19" s="50">
+      <c r="I19" s="48">
         <v>-0.3036</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="50">
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="48">
         <v>0.9186</v>
       </c>
-      <c r="Z19" s="50">
+      <c r="Z19" s="48">
         <v>0.3642</v>
       </c>
-      <c r="AA19" s="50">
+      <c r="AA19" s="48">
         <v>0.2326</v>
       </c>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="67"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="77"/>
-      <c r="AS19" s="93"/>
-      <c r="AT19" s="93"/>
-      <c r="AU19" s="93">
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="71"/>
+      <c r="AQ19" s="85"/>
+      <c r="AR19" s="75"/>
+      <c r="AS19" s="91"/>
+      <c r="AT19" s="91"/>
+      <c r="AU19" s="91">
         <v>1.414</v>
       </c>
-      <c r="AV19" s="93">
+      <c r="AV19" s="91">
         <v>0.8566</v>
       </c>
-      <c r="AW19" s="93"/>
-      <c r="AX19" s="100"/>
-      <c r="AY19" s="100"/>
-      <c r="AZ19" s="100"/>
-      <c r="BA19" s="100"/>
-      <c r="BB19" s="100"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="98"/>
+      <c r="AY19" s="98"/>
+      <c r="AZ19" s="98"/>
+      <c r="BA19" s="98"/>
+      <c r="BB19" s="98"/>
       <c r="BC19" s="30"/>
       <c r="BD19" s="30">
         <v>2</v>
       </c>
-      <c r="BE19" s="107" t="s">
+      <c r="BE19" s="105" t="s">
         <v>139</v>
       </c>
       <c r="BF19" s="30"/>
@@ -9538,8 +9577,8 @@
       <c r="BH19" s="30"/>
       <c r="BI19" s="30"/>
       <c r="BJ19" s="30"/>
-      <c r="BK19" s="49"/>
-      <c r="BL19" s="77"/>
+      <c r="BK19" s="47"/>
+      <c r="BL19" s="75"/>
       <c r="BM19" s="30"/>
       <c r="BN19" s="30"/>
     </row>
@@ -9547,7 +9586,7 @@
       <c r="A20" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="122" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -9556,83 +9595,83 @@
       <c r="D20" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="46">
         <v>0.2101</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="47">
         <v>0.842</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="48">
         <v>2.1447</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="48">
         <v>1.597</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="48">
         <v>1.159</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="50">
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="48">
         <v>0.3139</v>
       </c>
-      <c r="Z20" s="52">
+      <c r="Z20" s="50">
         <v>0.0935</v>
       </c>
-      <c r="AA20" s="52">
+      <c r="AA20" s="50">
         <v>0.1211</v>
       </c>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="67"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="87">
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="85">
         <v>40696</v>
       </c>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="93"/>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="93">
+      <c r="AR20" s="75"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="91"/>
+      <c r="AU20" s="91">
         <v>11.56</v>
       </c>
-      <c r="AV20" s="93">
+      <c r="AV20" s="91">
         <v>8.672</v>
       </c>
-      <c r="AW20" s="93"/>
-      <c r="AX20" s="100"/>
-      <c r="AY20" s="100"/>
-      <c r="AZ20" s="100"/>
-      <c r="BA20" s="100"/>
-      <c r="BB20" s="100"/>
+      <c r="AW20" s="91"/>
+      <c r="AX20" s="98"/>
+      <c r="AY20" s="98"/>
+      <c r="AZ20" s="98"/>
+      <c r="BA20" s="98"/>
+      <c r="BB20" s="98"/>
       <c r="BC20" s="30"/>
-      <c r="BD20" s="105">
+      <c r="BD20" s="103">
         <v>31</v>
       </c>
-      <c r="BE20" s="107" t="s">
+      <c r="BE20" s="105" t="s">
         <v>144</v>
       </c>
       <c r="BF20" s="30"/>
@@ -9640,10 +9679,10 @@
       <c r="BH20" s="30"/>
       <c r="BI20" s="30"/>
       <c r="BJ20" s="30"/>
-      <c r="BK20" s="49">
+      <c r="BK20" s="47">
         <v>9.73</v>
       </c>
-      <c r="BL20" s="78">
+      <c r="BL20" s="76">
         <f>BK20/AU20</f>
         <v>0.841695501730104</v>
       </c>
@@ -9663,81 +9702,81 @@
       <c r="D21" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="46">
         <v>0.3158</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="47">
         <v>1.287</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="48">
         <v>4.9</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="48">
         <v>3.0455</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="48">
         <v>1.6875</v>
       </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="50">
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="48">
         <v>1.1403</v>
       </c>
-      <c r="Z21" s="50">
+      <c r="Z21" s="48">
         <v>1.4349</v>
       </c>
-      <c r="AA21" s="50">
+      <c r="AA21" s="48">
         <v>1.2425</v>
       </c>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="67"/>
-      <c r="AO21" s="67"/>
-      <c r="AP21" s="73"/>
-      <c r="AQ21" s="87"/>
-      <c r="AR21" s="77"/>
-      <c r="AS21" s="93"/>
-      <c r="AT21" s="93"/>
-      <c r="AU21" s="93">
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="71"/>
+      <c r="AQ21" s="85"/>
+      <c r="AR21" s="75"/>
+      <c r="AS21" s="91"/>
+      <c r="AT21" s="91"/>
+      <c r="AU21" s="91">
         <v>4.853</v>
       </c>
-      <c r="AV21" s="93">
+      <c r="AV21" s="91">
         <v>4.853</v>
       </c>
-      <c r="AW21" s="93"/>
-      <c r="AX21" s="100"/>
-      <c r="AY21" s="100"/>
-      <c r="AZ21" s="100"/>
-      <c r="BA21" s="100"/>
-      <c r="BB21" s="100"/>
+      <c r="AW21" s="91"/>
+      <c r="AX21" s="98"/>
+      <c r="AY21" s="98"/>
+      <c r="AZ21" s="98"/>
+      <c r="BA21" s="98"/>
+      <c r="BB21" s="98"/>
       <c r="BC21" s="30"/>
       <c r="BD21" s="30">
         <v>9</v>
       </c>
-      <c r="BE21" s="107" t="s">
+      <c r="BE21" s="105" t="s">
         <v>147</v>
       </c>
       <c r="BF21" s="30"/>
@@ -9745,10 +9784,10 @@
       <c r="BH21" s="30"/>
       <c r="BI21" s="30"/>
       <c r="BJ21" s="30"/>
-      <c r="BK21" s="49">
+      <c r="BK21" s="47">
         <v>6.25</v>
       </c>
-      <c r="BL21" s="46">
+      <c r="BL21" s="44">
         <f>BK21/AU21</f>
         <v>1.28786317741603</v>
       </c>
@@ -9759,7 +9798,7 @@
       <c r="A22" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="122" t="s">
         <v>149</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -9768,81 +9807,81 @@
       <c r="D22" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="46">
         <v>0.3314</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="47">
         <v>0.06</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="48">
         <v>0.3333</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="48">
         <v>-0.3333</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="48">
         <v>-0.5714</v>
       </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="50">
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="48">
         <v>0.2285</v>
       </c>
-      <c r="Z22" s="52">
+      <c r="Z22" s="50">
         <v>0.0631</v>
       </c>
-      <c r="AA22" s="52">
+      <c r="AA22" s="50">
         <v>0.3417</v>
       </c>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="67"/>
-      <c r="AO22" s="67"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="87"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="93"/>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="93">
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="71"/>
+      <c r="AQ22" s="85"/>
+      <c r="AR22" s="75"/>
+      <c r="AS22" s="91"/>
+      <c r="AT22" s="91"/>
+      <c r="AU22" s="91">
         <v>4.611</v>
       </c>
-      <c r="AV22" s="93">
+      <c r="AV22" s="91">
         <v>0.7839</v>
       </c>
-      <c r="AW22" s="93"/>
-      <c r="AX22" s="100"/>
-      <c r="AY22" s="100"/>
-      <c r="AZ22" s="100"/>
-      <c r="BA22" s="100"/>
-      <c r="BB22" s="100"/>
+      <c r="AW22" s="91"/>
+      <c r="AX22" s="98"/>
+      <c r="AY22" s="98"/>
+      <c r="AZ22" s="98"/>
+      <c r="BA22" s="98"/>
+      <c r="BB22" s="98"/>
       <c r="BC22" s="30"/>
-      <c r="BD22" s="105">
+      <c r="BD22" s="103">
         <v>125</v>
       </c>
-      <c r="BE22" s="107" t="s">
+      <c r="BE22" s="105" t="s">
         <v>151</v>
       </c>
       <c r="BF22" s="30"/>
@@ -9850,10 +9889,10 @@
       <c r="BH22" s="30"/>
       <c r="BI22" s="30"/>
       <c r="BJ22" s="30"/>
-      <c r="BK22" s="49">
+      <c r="BK22" s="47">
         <v>0.273105</v>
       </c>
-      <c r="BL22" s="78">
+      <c r="BL22" s="76">
         <f>BK22/AU22</f>
         <v>0.0592290175666884</v>
       </c>
@@ -9873,83 +9912,83 @@
       <c r="D23" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="46">
         <v>0.0703</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="47">
         <v>0.67</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="48">
         <v>0.125</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="48">
         <v>-0.0755</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="48">
         <v>-0.1184</v>
       </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="50">
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="48">
         <v>0.5155</v>
       </c>
-      <c r="Z23" s="52">
+      <c r="Z23" s="50">
         <v>0.1599</v>
       </c>
-      <c r="AA23" s="52">
+      <c r="AA23" s="50">
         <v>0.2068</v>
       </c>
-      <c r="AB23" s="77"/>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="77"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="77"/>
-      <c r="AN23" s="67"/>
-      <c r="AO23" s="67"/>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="88">
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="86">
         <v>44307</v>
       </c>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="93"/>
-      <c r="AT23" s="93"/>
-      <c r="AU23" s="93">
+      <c r="AR23" s="75"/>
+      <c r="AS23" s="91"/>
+      <c r="AT23" s="91"/>
+      <c r="AU23" s="91">
         <v>1.268</v>
       </c>
-      <c r="AV23" s="93">
+      <c r="AV23" s="91">
         <v>0.318</v>
       </c>
-      <c r="AW23" s="93"/>
-      <c r="AX23" s="100"/>
-      <c r="AY23" s="100"/>
-      <c r="AZ23" s="100"/>
-      <c r="BA23" s="100"/>
-      <c r="BB23" s="100"/>
+      <c r="AW23" s="91"/>
+      <c r="AX23" s="98"/>
+      <c r="AY23" s="98"/>
+      <c r="AZ23" s="98"/>
+      <c r="BA23" s="98"/>
+      <c r="BB23" s="98"/>
       <c r="BC23" s="30"/>
       <c r="BD23" s="30">
         <v>6</v>
       </c>
-      <c r="BE23" s="107" t="s">
+      <c r="BE23" s="105" t="s">
         <v>154</v>
       </c>
       <c r="BF23" s="30"/>
@@ -9957,10 +9996,10 @@
       <c r="BH23" s="30"/>
       <c r="BI23" s="30"/>
       <c r="BJ23" s="30"/>
-      <c r="BK23" s="49">
+      <c r="BK23" s="47">
         <v>0.750415</v>
       </c>
-      <c r="BL23" s="78">
+      <c r="BL23" s="76">
         <f>BK23/AU23</f>
         <v>0.591809936908517</v>
       </c>
@@ -9980,100 +10019,100 @@
       <c r="D24" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="46">
         <v>0.4771</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="47">
         <v>1.17</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="48">
         <v>2.2727</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="48">
         <v>0.9268</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="48">
         <v>0.4096</v>
       </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="50">
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="48">
         <v>0.6575</v>
       </c>
-      <c r="Z24" s="50">
+      <c r="Z24" s="48">
         <v>0.6401</v>
       </c>
-      <c r="AA24" s="50">
+      <c r="AA24" s="48">
         <v>0.6247</v>
       </c>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="77"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="67"/>
-      <c r="AO24" s="67"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="88">
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="46"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="71"/>
+      <c r="AQ24" s="86">
         <v>43550</v>
       </c>
-      <c r="AR24" s="77"/>
-      <c r="AS24" s="93"/>
-      <c r="AT24" s="93"/>
-      <c r="AU24" s="93">
+      <c r="AR24" s="75"/>
+      <c r="AS24" s="91"/>
+      <c r="AT24" s="91"/>
+      <c r="AU24" s="91">
         <v>1.911</v>
       </c>
-      <c r="AV24" s="93">
+      <c r="AV24" s="91">
         <v>0.862</v>
       </c>
-      <c r="AW24" s="93"/>
-      <c r="AX24" s="100"/>
-      <c r="AY24" s="100"/>
-      <c r="AZ24" s="100"/>
-      <c r="BA24" s="100"/>
-      <c r="BB24" s="100"/>
+      <c r="AW24" s="91"/>
+      <c r="AX24" s="98"/>
+      <c r="AY24" s="98"/>
+      <c r="AZ24" s="98"/>
+      <c r="BA24" s="98"/>
+      <c r="BB24" s="98"/>
       <c r="BC24" s="30"/>
       <c r="BD24" s="30">
         <v>18</v>
       </c>
-      <c r="BE24" s="107" t="s">
+      <c r="BE24" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="BF24" s="106" t="s">
+      <c r="BF24" s="104" t="s">
         <v>158</v>
       </c>
       <c r="BG24" s="30"/>
       <c r="BH24" s="30"/>
       <c r="BI24" s="30"/>
       <c r="BJ24" s="30"/>
-      <c r="BK24" s="49">
+      <c r="BK24" s="47">
         <v>1.94</v>
       </c>
-      <c r="BL24" s="46">
+      <c r="BL24" s="44">
         <f t="shared" ref="BL24:BL30" si="4">BK24/AU24</f>
         <v>1.01517530088959</v>
       </c>
-      <c r="BM24" s="109" t="s">
+      <c r="BM24" s="107" t="s">
         <v>159</v>
       </c>
       <c r="BN24" s="30"/>
@@ -10091,100 +10130,100 @@
       <c r="D25" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="49">
         <v>0.6522</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="47">
         <v>1.491</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="48">
         <v>8.5349</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="48">
         <v>1.0918</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="48">
         <v>0.5152</v>
       </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="50">
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="48">
         <v>0.1233</v>
       </c>
-      <c r="Z25" s="50">
+      <c r="Z25" s="48">
         <v>0.2301</v>
       </c>
-      <c r="AA25" s="50">
+      <c r="AA25" s="48">
         <v>0.112</v>
       </c>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="67"/>
-      <c r="AO25" s="67"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="87">
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="46"/>
+      <c r="AM25" s="75"/>
+      <c r="AN25" s="65"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="71"/>
+      <c r="AQ25" s="85">
         <v>35303</v>
       </c>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="93"/>
-      <c r="AT25" s="93"/>
-      <c r="AU25" s="93">
+      <c r="AR25" s="75"/>
+      <c r="AS25" s="91"/>
+      <c r="AT25" s="91"/>
+      <c r="AU25" s="91">
         <v>31.53</v>
       </c>
-      <c r="AV25" s="93">
+      <c r="AV25" s="91">
         <v>31.53</v>
       </c>
-      <c r="AW25" s="93"/>
-      <c r="AX25" s="100"/>
-      <c r="AY25" s="100"/>
-      <c r="AZ25" s="100"/>
-      <c r="BA25" s="100"/>
-      <c r="BB25" s="100"/>
+      <c r="AW25" s="91"/>
+      <c r="AX25" s="98"/>
+      <c r="AY25" s="98"/>
+      <c r="AZ25" s="98"/>
+      <c r="BA25" s="98"/>
+      <c r="BB25" s="98"/>
       <c r="BC25" s="30"/>
-      <c r="BD25" s="105">
+      <c r="BD25" s="103">
         <v>102</v>
       </c>
-      <c r="BE25" s="107" t="s">
+      <c r="BE25" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="BF25" s="107" t="s">
+      <c r="BF25" s="105" t="s">
         <v>164</v>
       </c>
       <c r="BG25" s="30"/>
       <c r="BH25" s="30"/>
       <c r="BI25" s="30"/>
       <c r="BJ25" s="30"/>
-      <c r="BK25" s="49">
+      <c r="BK25" s="47">
         <v>47.02</v>
       </c>
-      <c r="BL25" s="46">
+      <c r="BL25" s="44">
         <f t="shared" si="4"/>
         <v>1.49127814779575</v>
       </c>
-      <c r="BM25" s="107" t="s">
+      <c r="BM25" s="105" t="s">
         <v>165</v>
       </c>
       <c r="BN25" s="30"/>
@@ -10202,100 +10241,100 @@
       <c r="D26" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="51">
         <v>44.68</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="47">
         <v>1.46</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="48">
         <v>1.5</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="48">
         <v>0.7302</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="48">
         <v>0.6044</v>
       </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="50">
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="48">
         <v>0.8524</v>
       </c>
-      <c r="Z26" s="50">
+      <c r="Z26" s="48">
         <v>1.0547</v>
       </c>
-      <c r="AA26" s="50">
+      <c r="AA26" s="48">
         <v>0.5216</v>
       </c>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="77"/>
-      <c r="AN26" s="67"/>
-      <c r="AO26" s="67"/>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="88">
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="65"/>
+      <c r="AO26" s="65"/>
+      <c r="AP26" s="71"/>
+      <c r="AQ26" s="86">
         <v>44307</v>
       </c>
-      <c r="AR26" s="77"/>
-      <c r="AS26" s="93"/>
-      <c r="AT26" s="93"/>
-      <c r="AU26" s="93">
+      <c r="AR26" s="75"/>
+      <c r="AS26" s="91"/>
+      <c r="AT26" s="91"/>
+      <c r="AU26" s="91">
         <v>0.8434</v>
       </c>
-      <c r="AV26" s="93">
+      <c r="AV26" s="91">
         <v>0.2109</v>
       </c>
-      <c r="AW26" s="93"/>
-      <c r="AX26" s="100"/>
-      <c r="AY26" s="100"/>
-      <c r="AZ26" s="100"/>
-      <c r="BA26" s="100"/>
-      <c r="BB26" s="100"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="98"/>
+      <c r="AY26" s="98"/>
+      <c r="AZ26" s="98"/>
+      <c r="BA26" s="98"/>
+      <c r="BB26" s="98"/>
       <c r="BC26" s="30"/>
       <c r="BD26" s="30">
         <v>9</v>
       </c>
-      <c r="BE26" s="107" t="s">
+      <c r="BE26" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="BF26" s="106" t="s">
+      <c r="BF26" s="104" t="s">
         <v>170</v>
       </c>
       <c r="BG26" s="30"/>
       <c r="BH26" s="30"/>
       <c r="BI26" s="30"/>
       <c r="BJ26" s="30"/>
-      <c r="BK26" s="49">
+      <c r="BK26" s="47">
         <v>1.09</v>
       </c>
-      <c r="BL26" s="46">
+      <c r="BL26" s="44">
         <f t="shared" si="4"/>
         <v>1.29238795352146</v>
       </c>
-      <c r="BM26" s="110" t="s">
+      <c r="BM26" s="108" t="s">
         <v>171</v>
       </c>
       <c r="BN26" s="30"/>
@@ -10304,7 +10343,7 @@
       <c r="A27" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="123" t="s">
         <v>173</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -10313,100 +10352,100 @@
       <c r="D27" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="46">
         <v>0.3583</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="47">
         <v>1.266</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="48">
         <v>2.5</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="48">
         <v>1.6364</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="48">
         <v>0.9009</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="50">
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="48">
         <v>0.2276</v>
       </c>
-      <c r="Z27" s="50">
+      <c r="Z27" s="48">
         <v>0.236</v>
       </c>
-      <c r="AA27" s="50">
+      <c r="AA27" s="48">
         <v>0.2152</v>
       </c>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="77"/>
-      <c r="AN27" s="67"/>
-      <c r="AO27" s="67"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="87">
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="46"/>
+      <c r="AL27" s="46"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="65"/>
+      <c r="AO27" s="65"/>
+      <c r="AP27" s="71"/>
+      <c r="AQ27" s="85">
         <v>34094</v>
       </c>
-      <c r="AR27" s="77"/>
-      <c r="AS27" s="93"/>
-      <c r="AT27" s="93"/>
-      <c r="AU27" s="93">
+      <c r="AR27" s="75"/>
+      <c r="AS27" s="91"/>
+      <c r="AT27" s="91"/>
+      <c r="AU27" s="91">
         <v>19.22</v>
       </c>
-      <c r="AV27" s="93">
+      <c r="AV27" s="91">
         <v>5.938</v>
       </c>
-      <c r="AW27" s="93"/>
-      <c r="AX27" s="100"/>
-      <c r="AY27" s="100"/>
-      <c r="AZ27" s="100"/>
-      <c r="BA27" s="100"/>
-      <c r="BB27" s="100"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="98"/>
+      <c r="AY27" s="98"/>
+      <c r="AZ27" s="98"/>
+      <c r="BA27" s="98"/>
+      <c r="BB27" s="98"/>
       <c r="BC27" s="30"/>
       <c r="BD27" s="30">
         <v>5</v>
       </c>
-      <c r="BE27" s="107" t="s">
+      <c r="BE27" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="BF27" s="107" t="s">
+      <c r="BF27" s="105" t="s">
         <v>177</v>
       </c>
       <c r="BG27" s="30"/>
       <c r="BH27" s="30"/>
       <c r="BI27" s="30"/>
       <c r="BJ27" s="30"/>
-      <c r="BK27" s="49">
+      <c r="BK27" s="47">
         <v>24.34</v>
       </c>
-      <c r="BL27" s="46">
+      <c r="BL27" s="44">
         <f t="shared" si="4"/>
         <v>1.26638917793965</v>
       </c>
-      <c r="BM27" s="107" t="s">
+      <c r="BM27" s="105" t="s">
         <v>178</v>
       </c>
       <c r="BN27" s="30"/>
@@ -10415,7 +10454,7 @@
       <c r="A28" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="123" t="s">
         <v>180</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -10424,100 +10463,100 @@
       <c r="D28" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="46">
         <v>0.321</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="47">
         <v>1.361</v>
       </c>
-      <c r="G28" s="50">
+      <c r="G28" s="48">
         <v>0.2004</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="48">
         <v>-0.1339</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="48">
         <v>-0.0966</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="50">
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="48">
         <v>-0.2433</v>
       </c>
-      <c r="Z28" s="50">
+      <c r="Z28" s="48">
         <v>-0.2609</v>
       </c>
-      <c r="AA28" s="50">
+      <c r="AA28" s="48">
         <v>-0.0922</v>
       </c>
-      <c r="AB28" s="77"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="77"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="77"/>
-      <c r="AN28" s="67"/>
-      <c r="AO28" s="67"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="87">
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="65"/>
+      <c r="AO28" s="65"/>
+      <c r="AP28" s="71"/>
+      <c r="AQ28" s="85">
         <v>39556</v>
       </c>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="93"/>
-      <c r="AT28" s="93"/>
-      <c r="AU28" s="93">
+      <c r="AR28" s="75"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="91"/>
+      <c r="AU28" s="91">
         <v>10.02</v>
       </c>
-      <c r="AV28" s="93">
+      <c r="AV28" s="91">
         <v>9.444</v>
       </c>
-      <c r="AW28" s="93"/>
-      <c r="AX28" s="100"/>
-      <c r="AY28" s="100"/>
-      <c r="AZ28" s="100"/>
-      <c r="BA28" s="100"/>
-      <c r="BB28" s="100"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="98"/>
+      <c r="AY28" s="98"/>
+      <c r="AZ28" s="98"/>
+      <c r="BA28" s="98"/>
+      <c r="BB28" s="98"/>
       <c r="BC28" s="30"/>
-      <c r="BD28" s="105">
+      <c r="BD28" s="103">
         <v>33</v>
       </c>
-      <c r="BE28" s="107" t="s">
+      <c r="BE28" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="BF28" s="107" t="s">
+      <c r="BF28" s="105" t="s">
         <v>183</v>
       </c>
       <c r="BG28" s="30"/>
       <c r="BH28" s="30"/>
       <c r="BI28" s="30"/>
       <c r="BJ28" s="30"/>
-      <c r="BK28" s="49">
+      <c r="BK28" s="47">
         <v>13.52</v>
       </c>
-      <c r="BL28" s="46">
-        <f>BK28/AU28</f>
+      <c r="BL28" s="44">
+        <f t="shared" si="4"/>
         <v>1.34930139720559</v>
       </c>
-      <c r="BM28" s="107" t="s">
+      <c r="BM28" s="105" t="s">
         <v>184</v>
       </c>
       <c r="BN28" s="30"/>
@@ -10535,100 +10574,100 @@
       <c r="D29" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="46">
         <v>0.367</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="47">
         <v>1.06</v>
       </c>
-      <c r="G29" s="50">
+      <c r="G29" s="48">
         <v>1.7</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="48">
         <v>0.4565</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I29" s="48">
         <v>0.4324</v>
       </c>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="52">
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="50">
         <v>0.2269</v>
       </c>
-      <c r="Z29" s="52">
+      <c r="Z29" s="50">
         <v>0.2503</v>
       </c>
-      <c r="AA29" s="52">
+      <c r="AA29" s="50">
         <v>0.2652</v>
       </c>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="67"/>
-      <c r="AO29" s="67"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="88">
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="46"/>
+      <c r="AK29" s="46"/>
+      <c r="AL29" s="46"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="65"/>
+      <c r="AO29" s="65"/>
+      <c r="AP29" s="71"/>
+      <c r="AQ29" s="86">
         <v>42908</v>
       </c>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="93"/>
-      <c r="AT29" s="93"/>
-      <c r="AU29" s="93">
+      <c r="AR29" s="75"/>
+      <c r="AS29" s="91"/>
+      <c r="AT29" s="91"/>
+      <c r="AU29" s="91">
         <v>1.613</v>
       </c>
-      <c r="AV29" s="93">
+      <c r="AV29" s="91">
         <v>1.6</v>
       </c>
-      <c r="AW29" s="93"/>
-      <c r="AX29" s="100"/>
-      <c r="AY29" s="100"/>
-      <c r="AZ29" s="100"/>
-      <c r="BA29" s="100"/>
-      <c r="BB29" s="100"/>
+      <c r="AW29" s="91"/>
+      <c r="AX29" s="98"/>
+      <c r="AY29" s="98"/>
+      <c r="AZ29" s="98"/>
+      <c r="BA29" s="98"/>
+      <c r="BB29" s="98"/>
       <c r="BC29" s="30"/>
       <c r="BD29" s="30">
         <v>7</v>
       </c>
-      <c r="BE29" s="107" t="s">
+      <c r="BE29" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="BF29" s="106" t="s">
+      <c r="BF29" s="104" t="s">
         <v>189</v>
       </c>
       <c r="BG29" s="30"/>
       <c r="BH29" s="30"/>
       <c r="BI29" s="30"/>
       <c r="BJ29" s="30"/>
-      <c r="BK29" s="49">
+      <c r="BK29" s="47">
         <v>1.7</v>
       </c>
-      <c r="BL29" s="46">
+      <c r="BL29" s="44">
         <f t="shared" si="4"/>
         <v>1.05393676379417</v>
       </c>
-      <c r="BM29" s="109" t="s">
+      <c r="BM29" s="107" t="s">
         <v>190</v>
       </c>
       <c r="BN29" s="30"/>
@@ -10637,109 +10676,109 @@
       <c r="A30" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="25">
         <v>601088</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="26" t="s">
         <v>192</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="46">
         <v>0.256</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="47">
         <v>2.051</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30" s="48">
         <v>0.1846</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="48">
         <v>0.2608</v>
       </c>
-      <c r="I30" s="50">
+      <c r="I30" s="48">
         <v>0.2158</v>
       </c>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="50">
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="48">
         <v>0.3426</v>
       </c>
-      <c r="Z30" s="52">
+      <c r="Z30" s="50">
         <v>0.312</v>
       </c>
-      <c r="AA30" s="52">
+      <c r="AA30" s="50">
         <v>0.4656</v>
       </c>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="67"/>
-      <c r="AO30" s="67"/>
-      <c r="AP30" s="73"/>
-      <c r="AQ30" s="87">
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="75"/>
+      <c r="AN30" s="65"/>
+      <c r="AO30" s="65"/>
+      <c r="AP30" s="71"/>
+      <c r="AQ30" s="85">
         <v>39364</v>
       </c>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="93"/>
-      <c r="AT30" s="93"/>
-      <c r="AU30" s="93">
+      <c r="AR30" s="75"/>
+      <c r="AS30" s="91"/>
+      <c r="AT30" s="91"/>
+      <c r="AU30" s="91">
         <v>198.7</v>
       </c>
-      <c r="AV30" s="93">
+      <c r="AV30" s="91">
         <v>164.9</v>
       </c>
-      <c r="AW30" s="93"/>
-      <c r="AX30" s="100"/>
-      <c r="AY30" s="100"/>
-      <c r="AZ30" s="100"/>
-      <c r="BA30" s="100"/>
-      <c r="BB30" s="100"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="98"/>
+      <c r="AZ30" s="98"/>
+      <c r="BA30" s="98"/>
+      <c r="BB30" s="98"/>
       <c r="BC30" s="30"/>
       <c r="BD30" s="30">
         <v>141</v>
       </c>
-      <c r="BE30" s="107" t="s">
+      <c r="BE30" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="BF30" s="107" t="s">
+      <c r="BF30" s="105" t="s">
         <v>195</v>
       </c>
       <c r="BG30" s="30"/>
       <c r="BH30" s="30"/>
       <c r="BI30" s="30"/>
       <c r="BJ30" s="30"/>
-      <c r="BK30" s="49">
+      <c r="BK30" s="47">
         <v>407.51</v>
       </c>
-      <c r="BL30" s="46">
+      <c r="BL30" s="44">
         <f t="shared" si="4"/>
         <v>2.05088072471062</v>
       </c>
-      <c r="BM30" s="107" t="s">
+      <c r="BM30" s="105" t="s">
         <v>196</v>
       </c>
       <c r="BN30" s="30"/>
@@ -10749,56 +10788,56 @@
       <c r="B31" s="30"/>
       <c r="C31" s="29"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="77"/>
-      <c r="AN31" s="67"/>
-      <c r="AO31" s="67"/>
-      <c r="AP31" s="73"/>
-      <c r="AQ31" s="87"/>
-      <c r="AR31" s="77"/>
-      <c r="AS31" s="93"/>
-      <c r="AT31" s="93"/>
-      <c r="AU31" s="93"/>
-      <c r="AV31" s="93"/>
-      <c r="AW31" s="93"/>
-      <c r="AX31" s="100"/>
-      <c r="AY31" s="100"/>
-      <c r="AZ31" s="100"/>
-      <c r="BA31" s="100"/>
-      <c r="BB31" s="100"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="46"/>
+      <c r="AL31" s="46"/>
+      <c r="AM31" s="75"/>
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="65"/>
+      <c r="AP31" s="71"/>
+      <c r="AQ31" s="85"/>
+      <c r="AR31" s="75"/>
+      <c r="AS31" s="91"/>
+      <c r="AT31" s="91"/>
+      <c r="AU31" s="91"/>
+      <c r="AV31" s="91"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="98"/>
+      <c r="AY31" s="98"/>
+      <c r="AZ31" s="98"/>
+      <c r="BA31" s="98"/>
+      <c r="BB31" s="98"/>
       <c r="BC31" s="30"/>
       <c r="BD31" s="30"/>
       <c r="BE31" s="30"/>
@@ -10807,8 +10846,8 @@
       <c r="BH31" s="30"/>
       <c r="BI31" s="30"/>
       <c r="BJ31" s="30"/>
-      <c r="BK31" s="49"/>
-      <c r="BL31" s="77"/>
+      <c r="BK31" s="47"/>
+      <c r="BL31" s="75"/>
       <c r="BM31" s="30"/>
       <c r="BN31" s="30"/>
     </row>
@@ -10817,56 +10856,56 @@
       <c r="B32" s="30"/>
       <c r="C32" s="29"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="77"/>
-      <c r="AN32" s="67"/>
-      <c r="AO32" s="67"/>
-      <c r="AP32" s="73"/>
-      <c r="AQ32" s="87"/>
-      <c r="AR32" s="77"/>
-      <c r="AS32" s="93"/>
-      <c r="AT32" s="93"/>
-      <c r="AU32" s="93"/>
-      <c r="AV32" s="93"/>
-      <c r="AW32" s="93"/>
-      <c r="AX32" s="100"/>
-      <c r="AY32" s="100"/>
-      <c r="AZ32" s="100"/>
-      <c r="BA32" s="100"/>
-      <c r="BB32" s="100"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+      <c r="AL32" s="46"/>
+      <c r="AM32" s="75"/>
+      <c r="AN32" s="65"/>
+      <c r="AO32" s="65"/>
+      <c r="AP32" s="71"/>
+      <c r="AQ32" s="85"/>
+      <c r="AR32" s="75"/>
+      <c r="AS32" s="91"/>
+      <c r="AT32" s="91"/>
+      <c r="AU32" s="91"/>
+      <c r="AV32" s="91"/>
+      <c r="AW32" s="91"/>
+      <c r="AX32" s="98"/>
+      <c r="AY32" s="98"/>
+      <c r="AZ32" s="98"/>
+      <c r="BA32" s="98"/>
+      <c r="BB32" s="98"/>
       <c r="BC32" s="30"/>
       <c r="BD32" s="30"/>
       <c r="BE32" s="30"/>
@@ -10875,8 +10914,8 @@
       <c r="BH32" s="30"/>
       <c r="BI32" s="30"/>
       <c r="BJ32" s="30"/>
-      <c r="BK32" s="49"/>
-      <c r="BL32" s="77"/>
+      <c r="BK32" s="47"/>
+      <c r="BL32" s="75"/>
       <c r="BM32" s="30"/>
       <c r="BN32" s="30"/>
     </row>
@@ -10885,56 +10924,56 @@
       <c r="B33" s="30"/>
       <c r="C33" s="29"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="77"/>
-      <c r="AN33" s="67"/>
-      <c r="AO33" s="67"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="87"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="93"/>
-      <c r="AT33" s="93"/>
-      <c r="AU33" s="93"/>
-      <c r="AV33" s="93"/>
-      <c r="AW33" s="93"/>
-      <c r="AX33" s="100"/>
-      <c r="AY33" s="100"/>
-      <c r="AZ33" s="100"/>
-      <c r="BA33" s="100"/>
-      <c r="BB33" s="100"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="46"/>
+      <c r="AL33" s="46"/>
+      <c r="AM33" s="75"/>
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="71"/>
+      <c r="AQ33" s="85"/>
+      <c r="AR33" s="75"/>
+      <c r="AS33" s="91"/>
+      <c r="AT33" s="91"/>
+      <c r="AU33" s="91"/>
+      <c r="AV33" s="91"/>
+      <c r="AW33" s="91"/>
+      <c r="AX33" s="98"/>
+      <c r="AY33" s="98"/>
+      <c r="AZ33" s="98"/>
+      <c r="BA33" s="98"/>
+      <c r="BB33" s="98"/>
       <c r="BC33" s="30"/>
       <c r="BD33" s="30"/>
       <c r="BE33" s="30"/>
@@ -10943,8 +10982,8 @@
       <c r="BH33" s="30"/>
       <c r="BI33" s="30"/>
       <c r="BJ33" s="30"/>
-      <c r="BK33" s="49"/>
-      <c r="BL33" s="77"/>
+      <c r="BK33" s="47"/>
+      <c r="BL33" s="75"/>
       <c r="BM33" s="30"/>
       <c r="BN33" s="30"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -7062,7 +7062,7 @@
   <dimension ref="A1:BQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BG17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="BG16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
   <si>
     <t>工业金属</t>
   </si>
@@ -858,11 +858,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>持续增加</t>
     </r>
     <r>
@@ -1746,11 +1741,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>不宜进场</t>
     </r>
     <r>
@@ -1941,25 +1931,8 @@
     </r>
   </si>
   <si>
-    <t>JBM_000017</t>
-  </si>
-  <si>
-    <t>002585</t>
-  </si>
-  <si>
-    <t>双星新材</t>
-  </si>
-  <si>
-    <t>化工合成材料</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先变多再变少</t>
+    <r>
+      <t>持续增加</t>
     </r>
     <r>
       <rPr>
@@ -1976,7 +1949,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>由8家到7</t>
+      <t>由0.87</t>
     </r>
     <r>
       <rPr>
@@ -1984,15 +1957,15 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>家再到31家</t>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加到1.08</t>
     </r>
     <r>
       <rPr>
@@ -2000,23 +1973,28 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>JBM_000018</t>
-  </si>
-  <si>
-    <t>万盛股份</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先变多再变少</t>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再增加到3.07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>适度进场</t>
     </r>
     <r>
       <rPr>
@@ -2033,7 +2011,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>由6家到108家再到9家</t>
+      <t>利润增长和销售额增长下滑减速，持有机构数量大幅下滑，但机构持股占比持续上升</t>
     </r>
     <r>
       <rPr>
@@ -2045,22 +2023,25 @@
     </r>
   </si>
   <si>
-    <t>JBM_000019</t>
-  </si>
-  <si>
-    <t>003040</t>
-  </si>
-  <si>
-    <t>楚天龙</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变少</t>
+    <t>JBM_000017</t>
+  </si>
+  <si>
+    <t>002585</t>
+  </si>
+  <si>
+    <t>双星新材</t>
+  </si>
+  <si>
+    <t>化工合成材料</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先变多再变少</t>
     </r>
     <r>
       <rPr>
@@ -2077,7 +2058,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>由48家到125家</t>
+      <t>由8家到7</t>
     </r>
     <r>
       <rPr>
@@ -2085,23 +2066,39 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家再到31家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>JBM_000020</t>
-  </si>
-  <si>
-    <t>百龙创园</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变少</t>
+    <t>JBM_000018</t>
+  </si>
+  <si>
+    <t>万盛股份</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先变多再变少</t>
     </r>
     <r>
       <rPr>
@@ -2118,7 +2115,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>由19</t>
+      <t>由6家到108家再到9家</t>
     </r>
     <r>
       <rPr>
@@ -2126,39 +2123,26 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>家到6家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>JBM_000021</t>
-  </si>
-  <si>
-    <t>永冠新材</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先变多再变少</t>
+    <t>JBM_000019</t>
+  </si>
+  <si>
+    <t>003040</t>
+  </si>
+  <si>
+    <t>楚天龙</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变少</t>
     </r>
     <r>
       <rPr>
@@ -2175,6 +2159,104 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
+      <t>由48家到125家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>JBM_000020</t>
+  </si>
+  <si>
+    <t>百龙创园</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家到6家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>JBM_000021</t>
+  </si>
+  <si>
+    <t>永冠新材</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先变多再变少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>由2家到20家再到18家</t>
     </r>
     <r>
@@ -2979,7 +3061,219 @@
   </si>
   <si>
     <t>不宜进场
-(销售额增长虽然有小幅回升，但利润增长、持有机构数量都出现小幅下滑，且机构持有股份占比出现大幅下滑)</t>
+(销售额增长虽然有小幅回升，但利润增长、机构持有股份占比都出现小幅下滑，且持有机构数量出现大幅下滑)</t>
+  </si>
+  <si>
+    <t>JBM_000028</t>
+  </si>
+  <si>
+    <t>嘉友国际</t>
+  </si>
+  <si>
+    <r>
+      <t>先变多再变少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由3家到18家再到2家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>先增加后减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由38.51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加到39.66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再减少到38.09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+  </si>
+  <si>
+    <t>公司持续回购</t>
+  </si>
+  <si>
+    <t>适度进场
+（利润下滑减速，销售额持续回升，持有机构数量大幅下滑，机构持有股份占比小幅下滑，但公司有回购情况）</t>
+  </si>
+  <si>
+    <t>JBM_000029</t>
+  </si>
+  <si>
+    <t>000935</t>
+  </si>
+  <si>
+    <t>四川双马</t>
+  </si>
+  <si>
+    <r>
+      <t>先变多再变少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由5家到24家再到10家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>持续增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机构持仓由69.72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到70.01%，再到70.87</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>适度进场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（利润大幅下滑，销售额小幅回升，持有机构数量大幅下滑，机构持有股份占比小幅上升）</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3763,7 +4057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3831,6 +4125,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4056,6 +4356,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4064,9 +4367,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4102,6 +4402,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5943,1108 +6246,1108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="111">
+      <c r="C1" s="113">
         <f>COUNTIF(A:A,B1)</f>
         <v>2</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="119"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="111">
+      <c r="C2" s="113">
         <f>COUNTIF(A:A,B2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="111">
+      <c r="C3" s="113">
         <f>COUNTIF(A:A,B3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="119"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4" s="113">
         <f>COUNTIF(A:A,B4)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="113">
         <f>COUNTIF(A:A,B5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="113">
         <f>COUNTIF(A:A,B6)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="113">
         <f>COUNTIF(A:A,B7)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="113">
         <f>COUNTIF(A:A,B8)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="113">
         <f>COUNTIF(A:A,B9)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="113">
         <f>COUNTIF(A:A,B10)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="113">
         <f>COUNTIF(A:A,B11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="121"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="113">
         <f>COUNTIF(A:A,B12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="111">
+      <c r="B13" s="115"/>
+      <c r="C13" s="113">
         <f>COUNTIF(A:A,B13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="30"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="114"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="114"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="114"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="114"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="114"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="121"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="121"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="114"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="119"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="121"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="114"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="114"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="119"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="121"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="114"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="121"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="114"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="119"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="121"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="114"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="119"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="121"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="114"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="121"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="114"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="119"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="121"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="114"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="114"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="114"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="114"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="114"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="114"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="114"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="114"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="114"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="114"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="114"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
+      <c r="A43" s="116"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="114"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="114"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="121"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="114"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="114"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="114"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
+      <c r="A48" s="116"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="114"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
+      <c r="A49" s="116"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="121"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="114"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
+      <c r="A50" s="116"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="114"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="114"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="121"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="114"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="112"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
+      <c r="A53" s="116"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="114"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
+      <c r="A54" s="116"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="121"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="114"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="121"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="114"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
+      <c r="A56" s="116"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="114"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
+      <c r="A57" s="116"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="114"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="112"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="114"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
+      <c r="A59" s="116"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="121"/>
+      <c r="I59" s="121"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="114"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="112"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
+      <c r="A60" s="116"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="121"/>
+      <c r="I60" s="121"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="114"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="112"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
+      <c r="A61" s="116"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="121"/>
+      <c r="I61" s="121"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="114"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="118"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
+      <c r="A62" s="116"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="121"/>
+      <c r="I62" s="121"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="114"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="112"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="118"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
+      <c r="A63" s="116"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="120"/>
+      <c r="H63" s="121"/>
+      <c r="I63" s="121"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="114"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="112"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="118"/>
-      <c r="H64" s="119"/>
-      <c r="I64" s="119"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="120"/>
+      <c r="H64" s="121"/>
+      <c r="I64" s="121"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="114"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
+      <c r="A65" s="116"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="120"/>
+      <c r="H65" s="121"/>
+      <c r="I65" s="121"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="114"/>
-      <c r="B66" s="114"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="119"/>
-      <c r="I66" s="119"/>
+      <c r="A66" s="116"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="121"/>
+      <c r="I66" s="121"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="114"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="118"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="119"/>
+      <c r="A67" s="116"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="120"/>
+      <c r="H67" s="121"/>
+      <c r="I67" s="121"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="114"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="114"/>
-      <c r="G68" s="118"/>
-      <c r="H68" s="119"/>
-      <c r="I68" s="119"/>
+      <c r="A68" s="116"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="121"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="114"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="112"/>
-      <c r="D69" s="112"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
+      <c r="A69" s="116"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="121"/>
+      <c r="I69" s="121"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="114"/>
-      <c r="B70" s="114"/>
-      <c r="C70" s="112"/>
-      <c r="D70" s="112"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="118"/>
-      <c r="H70" s="119"/>
-      <c r="I70" s="119"/>
+      <c r="A70" s="116"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="120"/>
+      <c r="H70" s="121"/>
+      <c r="I70" s="121"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="114"/>
-      <c r="B71" s="114"/>
-      <c r="C71" s="112"/>
-      <c r="D71" s="112"/>
-      <c r="E71" s="112"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="118"/>
-      <c r="H71" s="119"/>
-      <c r="I71" s="119"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="120"/>
+      <c r="H71" s="121"/>
+      <c r="I71" s="121"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="114"/>
-      <c r="B72" s="114"/>
-      <c r="C72" s="112"/>
-      <c r="D72" s="112"/>
-      <c r="E72" s="112"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="118"/>
-      <c r="H72" s="119"/>
-      <c r="I72" s="119"/>
+      <c r="A72" s="116"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="114"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="120"/>
+      <c r="H72" s="121"/>
+      <c r="I72" s="121"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="114"/>
-      <c r="B73" s="114"/>
-      <c r="C73" s="112"/>
-      <c r="D73" s="112"/>
-      <c r="E73" s="112"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="118"/>
-      <c r="H73" s="119"/>
-      <c r="I73" s="119"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="120"/>
+      <c r="H73" s="121"/>
+      <c r="I73" s="121"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="114"/>
-      <c r="B74" s="114"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="118"/>
-      <c r="H74" s="119"/>
-      <c r="I74" s="119"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="114"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="116"/>
+      <c r="G74" s="120"/>
+      <c r="H74" s="121"/>
+      <c r="I74" s="121"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="114"/>
-      <c r="B75" s="114"/>
-      <c r="C75" s="112"/>
-      <c r="D75" s="112"/>
-      <c r="E75" s="112"/>
-      <c r="F75" s="114"/>
-      <c r="G75" s="118"/>
-      <c r="H75" s="119"/>
-      <c r="I75" s="119"/>
+      <c r="A75" s="116"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="114"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="120"/>
+      <c r="H75" s="121"/>
+      <c r="I75" s="121"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="114"/>
-      <c r="B76" s="114"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="112"/>
-      <c r="E76" s="112"/>
-      <c r="F76" s="114"/>
-      <c r="G76" s="118"/>
-      <c r="H76" s="119"/>
-      <c r="I76" s="119"/>
+      <c r="A76" s="116"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="114"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="120"/>
+      <c r="H76" s="121"/>
+      <c r="I76" s="121"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="114"/>
-      <c r="B77" s="114"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="114"/>
-      <c r="G77" s="118"/>
-      <c r="H77" s="119"/>
-      <c r="I77" s="119"/>
+      <c r="A77" s="116"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="114"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="120"/>
+      <c r="H77" s="121"/>
+      <c r="I77" s="121"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="114"/>
-      <c r="B78" s="114"/>
-      <c r="C78" s="112"/>
-      <c r="D78" s="112"/>
-      <c r="E78" s="112"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="118"/>
-      <c r="H78" s="119"/>
-      <c r="I78" s="119"/>
+      <c r="A78" s="116"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="114"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="121"/>
+      <c r="I78" s="121"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="114"/>
-      <c r="B79" s="114"/>
-      <c r="C79" s="112"/>
-      <c r="D79" s="112"/>
-      <c r="E79" s="112"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="118"/>
-      <c r="H79" s="119"/>
-      <c r="I79" s="119"/>
+      <c r="A79" s="116"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="114"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="120"/>
+      <c r="H79" s="121"/>
+      <c r="I79" s="121"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="114"/>
-      <c r="B80" s="114"/>
-      <c r="C80" s="112"/>
-      <c r="D80" s="112"/>
-      <c r="E80" s="112"/>
-      <c r="F80" s="114"/>
-      <c r="G80" s="118"/>
-      <c r="H80" s="119"/>
-      <c r="I80" s="119"/>
+      <c r="A80" s="116"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="114"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="120"/>
+      <c r="H80" s="121"/>
+      <c r="I80" s="121"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="114"/>
-      <c r="B81" s="114"/>
-      <c r="C81" s="112"/>
-      <c r="D81" s="112"/>
-      <c r="E81" s="112"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="118"/>
-      <c r="H81" s="119"/>
-      <c r="I81" s="119"/>
+      <c r="A81" s="116"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="114"/>
+      <c r="D81" s="114"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="120"/>
+      <c r="H81" s="121"/>
+      <c r="I81" s="121"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="114"/>
-      <c r="B82" s="114"/>
-      <c r="C82" s="112"/>
-      <c r="D82" s="112"/>
-      <c r="E82" s="112"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="118"/>
-      <c r="H82" s="119"/>
-      <c r="I82" s="119"/>
+      <c r="A82" s="116"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="120"/>
+      <c r="H82" s="121"/>
+      <c r="I82" s="121"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="114"/>
-      <c r="B83" s="114"/>
-      <c r="C83" s="112"/>
-      <c r="D83" s="112"/>
-      <c r="E83" s="112"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="118"/>
-      <c r="H83" s="119"/>
-      <c r="I83" s="119"/>
+      <c r="A83" s="116"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="120"/>
+      <c r="H83" s="121"/>
+      <c r="I83" s="121"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="114"/>
-      <c r="B84" s="114"/>
-      <c r="C84" s="112"/>
-      <c r="D84" s="112"/>
-      <c r="E84" s="112"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="118"/>
-      <c r="H84" s="119"/>
-      <c r="I84" s="119"/>
+      <c r="A84" s="116"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="116"/>
+      <c r="G84" s="120"/>
+      <c r="H84" s="121"/>
+      <c r="I84" s="121"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="114"/>
-      <c r="B85" s="114"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="112"/>
-      <c r="E85" s="112"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="118"/>
-      <c r="H85" s="119"/>
-      <c r="I85" s="119"/>
+      <c r="A85" s="116"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="114"/>
+      <c r="D85" s="114"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="120"/>
+      <c r="H85" s="121"/>
+      <c r="I85" s="121"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="114"/>
-      <c r="B86" s="114"/>
-      <c r="C86" s="112"/>
-      <c r="D86" s="112"/>
-      <c r="E86" s="112"/>
-      <c r="F86" s="114"/>
-      <c r="G86" s="118"/>
-      <c r="H86" s="119"/>
-      <c r="I86" s="119"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="114"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="121"/>
+      <c r="I86" s="121"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="114"/>
-      <c r="B87" s="114"/>
-      <c r="C87" s="112"/>
-      <c r="D87" s="112"/>
-      <c r="E87" s="112"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="118"/>
-      <c r="H87" s="119"/>
-      <c r="I87" s="119"/>
+      <c r="A87" s="116"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="116"/>
+      <c r="G87" s="120"/>
+      <c r="H87" s="121"/>
+      <c r="I87" s="121"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="114"/>
-      <c r="B88" s="114"/>
-      <c r="C88" s="112"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="112"/>
-      <c r="F88" s="114"/>
-      <c r="G88" s="118"/>
-      <c r="H88" s="119"/>
-      <c r="I88" s="119"/>
+      <c r="A88" s="116"/>
+      <c r="B88" s="116"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="116"/>
+      <c r="G88" s="120"/>
+      <c r="H88" s="121"/>
+      <c r="I88" s="121"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="114"/>
-      <c r="B89" s="114"/>
-      <c r="C89" s="112"/>
-      <c r="D89" s="112"/>
-      <c r="E89" s="112"/>
-      <c r="F89" s="114"/>
-      <c r="G89" s="118"/>
-      <c r="H89" s="119"/>
-      <c r="I89" s="119"/>
+      <c r="A89" s="116"/>
+      <c r="B89" s="116"/>
+      <c r="C89" s="114"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="120"/>
+      <c r="H89" s="121"/>
+      <c r="I89" s="121"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="114"/>
-      <c r="B90" s="114"/>
-      <c r="C90" s="112"/>
-      <c r="D90" s="112"/>
-      <c r="E90" s="112"/>
-      <c r="F90" s="114"/>
-      <c r="G90" s="118"/>
-      <c r="H90" s="119"/>
-      <c r="I90" s="119"/>
+      <c r="A90" s="116"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="114"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="120"/>
+      <c r="H90" s="121"/>
+      <c r="I90" s="121"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="114"/>
-      <c r="B91" s="114"/>
-      <c r="C91" s="112"/>
-      <c r="D91" s="112"/>
-      <c r="E91" s="112"/>
-      <c r="F91" s="114"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="119"/>
-      <c r="I91" s="119"/>
+      <c r="A91" s="116"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="120"/>
+      <c r="H91" s="121"/>
+      <c r="I91" s="121"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="114"/>
-      <c r="B92" s="114"/>
-      <c r="C92" s="112"/>
-      <c r="D92" s="112"/>
-      <c r="E92" s="112"/>
-      <c r="F92" s="114"/>
-      <c r="G92" s="118"/>
-      <c r="H92" s="119"/>
-      <c r="I92" s="119"/>
+      <c r="A92" s="116"/>
+      <c r="B92" s="116"/>
+      <c r="C92" s="114"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="114"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="120"/>
+      <c r="H92" s="121"/>
+      <c r="I92" s="121"/>
     </row>
   </sheetData>
   <sortState ref="B1:C92">
@@ -7062,11 +7365,11 @@
   <dimension ref="A1:BQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BG16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="BE29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BL24" sqref="BL24"/>
+      <selection pane="bottomRight" activeCell="BL31" sqref="BL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -7144,82 +7447,82 @@
       <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="72" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="81" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="87" t="s">
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="87"/>
-      <c r="BA1" s="87"/>
-      <c r="BB1" s="87"/>
-      <c r="BC1" s="87"/>
-      <c r="BD1" s="87"/>
-      <c r="BE1" s="87"/>
-      <c r="BF1" s="87"/>
-      <c r="BG1" s="87"/>
-      <c r="BH1" s="87"/>
-      <c r="BI1" s="87"/>
-      <c r="BJ1" s="87"/>
-      <c r="BK1" s="52" t="s">
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
+      <c r="BK1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="106"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="109"/>
       <c r="BO1" s="4"/>
       <c r="BP1" s="4"/>
       <c r="BQ1" s="4"/>
@@ -7229,72 +7532,72 @@
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="21"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="34" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="52" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="34" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="73" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="81"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="88" t="s">
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="88" t="s">
+      <c r="AV2" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="AW2" s="92" t="s">
+      <c r="AW2" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="93" t="s">
+      <c r="AX2" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="94"/>
-      <c r="BB2" s="94"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="96"/>
       <c r="BC2" s="21"/>
       <c r="BD2" s="21" t="s">
         <v>31</v>
@@ -7305,8 +7608,8 @@
       <c r="BH2" s="21"/>
       <c r="BI2" s="21"/>
       <c r="BJ2" s="21"/>
-      <c r="BK2" s="33"/>
-      <c r="BL2" s="33"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="35"/>
       <c r="BM2" s="21" t="s">
         <v>32</v>
       </c>
@@ -7317,159 +7620,159 @@
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="53" t="s">
+      <c r="U3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="63" t="s">
+      <c r="V3" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="64" t="s">
+      <c r="W3" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="64" t="s">
+      <c r="X3" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Y3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AA3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="74" t="s">
+      <c r="AB3" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="74" t="s">
+      <c r="AC3" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="72" t="s">
+      <c r="AD3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="31" t="s">
+      <c r="AE3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="74" t="s">
+      <c r="AF3" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="74" t="s">
+      <c r="AG3" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="74" t="s">
+      <c r="AH3" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="74" t="s">
+      <c r="AI3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="74" t="s">
+      <c r="AJ3" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="74" t="s">
+      <c r="AK3" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="74" t="s">
+      <c r="AL3" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="AM3" s="74" t="s">
+      <c r="AM3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="63" t="s">
+      <c r="AN3" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="AO3" s="64" t="s">
+      <c r="AO3" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="AP3" s="64" t="s">
+      <c r="AP3" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="AQ3" s="81" t="s">
+      <c r="AQ3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="AR3" s="73" t="s">
+      <c r="AR3" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="AS3" s="88" t="s">
+      <c r="AS3" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="AT3" s="88" t="s">
+      <c r="AT3" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="AU3" s="88"/>
-      <c r="AV3" s="88"/>
-      <c r="AW3" s="92"/>
-      <c r="AX3" s="33" t="s">
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AY3" s="33" t="s">
+      <c r="AY3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AZ3" s="52" t="s">
+      <c r="AZ3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="BA3" s="94" t="s">
+      <c r="BA3" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="BB3" s="94" t="s">
+      <c r="BB3" s="96" t="s">
         <v>51</v>
       </c>
       <c r="BC3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="BD3" s="99" t="s">
+      <c r="BD3" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="BE3" s="99" t="s">
+      <c r="BE3" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="BF3" s="99" t="s">
+      <c r="BF3" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="BG3" s="99" t="s">
+      <c r="BG3" s="101" t="s">
         <v>56</v>
       </c>
       <c r="BH3" s="21" t="s">
@@ -7481,10 +7784,10 @@
       <c r="BJ3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BK3" s="32" t="s">
+      <c r="BK3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="BL3" s="33" t="s">
+      <c r="BL3" s="35" t="s">
         <v>60</v>
       </c>
       <c r="BM3" s="21"/>
@@ -7494,7 +7797,7 @@
       <c r="A4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="122" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7503,182 +7806,182 @@
       <c r="D4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="38">
         <v>0.1612</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="39">
         <v>9.587</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="40">
         <v>164</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="40">
         <v>1.8698</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="40">
         <v>1.7958</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="57">
         <v>0.27</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="57">
         <v>0.78</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="57">
         <v>0.89</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="57">
         <v>1.08</v>
       </c>
-      <c r="N4" s="58">
+      <c r="N4" s="60">
         <v>0.24</v>
       </c>
-      <c r="O4" s="59">
+      <c r="O4" s="61">
         <v>0.6</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="61">
         <v>0.67</v>
       </c>
-      <c r="Q4" s="59">
+      <c r="Q4" s="61">
         <v>0.62</v>
       </c>
-      <c r="R4" s="61">
+      <c r="R4" s="63">
         <v>0.03</v>
       </c>
-      <c r="S4" s="61">
+      <c r="S4" s="63">
         <v>2.15</v>
       </c>
-      <c r="T4" s="61">
+      <c r="T4" s="63">
         <v>3.82</v>
       </c>
-      <c r="U4" s="61">
+      <c r="U4" s="63">
         <v>6.98</v>
       </c>
-      <c r="V4" s="65">
+      <c r="V4" s="67">
         <f>((N4+O4+P4+Q4)/4-(J4+K4+L4+M4)/4)/((J4+K4+L4+M4)/4)</f>
         <v>-0.294701986754967</v>
       </c>
-      <c r="W4" s="65">
+      <c r="W4" s="67">
         <f t="shared" ref="W4:W10" si="0">((R4+S4+T4+U4)/4-(N4+O4+P4+Q4)/4)/((N4+O4+P4+Q4)/4)</f>
         <v>5.09389671361502</v>
       </c>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="38">
+      <c r="X4" s="68"/>
+      <c r="Y4" s="40">
         <v>13.2586</v>
       </c>
-      <c r="Z4" s="44">
+      <c r="Z4" s="46">
         <v>1.8525</v>
       </c>
-      <c r="AA4" s="44">
+      <c r="AA4" s="46">
         <v>1.9614</v>
       </c>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75">
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77">
         <v>0.2277</v>
       </c>
-      <c r="AD4" s="75">
+      <c r="AD4" s="77">
         <v>0.1645</v>
       </c>
-      <c r="AE4" s="75">
+      <c r="AE4" s="77">
         <v>5.12</v>
       </c>
-      <c r="AF4" s="76">
+      <c r="AF4" s="78">
         <v>0.3989</v>
       </c>
-      <c r="AG4" s="76">
+      <c r="AG4" s="78">
         <v>0.0213</v>
       </c>
-      <c r="AH4" s="76">
+      <c r="AH4" s="78">
         <v>0.0803</v>
       </c>
-      <c r="AI4" s="76">
+      <c r="AI4" s="78">
         <v>0.1427</v>
       </c>
-      <c r="AJ4" s="76">
+      <c r="AJ4" s="78">
         <v>-0.0694</v>
       </c>
-      <c r="AK4" s="76">
+      <c r="AK4" s="78">
         <v>2.3883</v>
       </c>
-      <c r="AL4" s="76">
+      <c r="AL4" s="78">
         <v>2.8798</v>
       </c>
-      <c r="AM4" s="77">
+      <c r="AM4" s="79">
         <v>3.4657</v>
       </c>
-      <c r="AN4" s="78" t="s">
+      <c r="AN4" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="AO4" s="82">
+      <c r="AO4" s="84">
         <f>(AF4+AG4+AH4+AI4)/4</f>
         <v>0.1608</v>
       </c>
-      <c r="AP4" s="69">
+      <c r="AP4" s="71">
         <f t="shared" ref="AP4:AP7" si="1">(AJ4+AK4+AL4+AM4)/4</f>
         <v>2.1661</v>
       </c>
-      <c r="AQ4" s="83">
+      <c r="AQ4" s="85">
         <v>43291</v>
       </c>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89">
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91">
         <v>1.049</v>
       </c>
-      <c r="AV4" s="89">
+      <c r="AV4" s="91">
         <v>0.6011</v>
       </c>
-      <c r="AW4" s="95">
+      <c r="AW4" s="97">
         <f>AV4*(1-0.33)</f>
         <v>0.402737</v>
       </c>
-      <c r="AX4" s="96">
+      <c r="AX4" s="98">
         <v>44.64</v>
       </c>
-      <c r="AY4" s="96">
+      <c r="AY4" s="98">
         <v>64.54</v>
       </c>
-      <c r="AZ4" s="96">
+      <c r="AZ4" s="98">
         <v>45.35</v>
       </c>
-      <c r="BA4" s="96">
+      <c r="BA4" s="98">
         <f>($AX4+$AY4+$AZ4)/(16+22+23)</f>
         <v>2.53327868852459</v>
       </c>
-      <c r="BB4" s="96">
+      <c r="BB4" s="98">
         <v>1.9962</v>
       </c>
-      <c r="BC4" s="100">
+      <c r="BC4" s="102">
         <f>BB4/BA4</f>
         <v>0.787990681421083</v>
       </c>
-      <c r="BD4" s="101">
+      <c r="BD4" s="103">
         <v>1</v>
       </c>
-      <c r="BE4" s="101" t="s">
+      <c r="BE4" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="BF4" s="104" t="s">
+      <c r="BF4" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="BG4" s="101" t="s">
+      <c r="BG4" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="BH4" s="101"/>
-      <c r="BI4" s="101"/>
-      <c r="BJ4" s="101"/>
-      <c r="BK4" s="37">
+      <c r="BH4" s="103"/>
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="39">
         <v>10.35</v>
       </c>
-      <c r="BL4" s="44">
+      <c r="BL4" s="46">
         <f>BK4/AU4</f>
         <v>9.86653956148713</v>
       </c>
-      <c r="BM4" s="107" t="s">
+      <c r="BM4" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="BN4" s="101"/>
+      <c r="BN4" s="103"/>
     </row>
     <row r="5" ht="74" spans="1:66">
       <c r="A5" s="23" t="s">
@@ -7693,162 +7996,162 @@
       <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="41">
         <v>0.5204</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="42">
         <v>1.87</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="40">
         <v>1.087</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="40">
         <v>0.7941</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="40">
         <v>0.6696</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56">
+      <c r="J5" s="58"/>
+      <c r="K5" s="58">
         <v>0.8</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="58">
         <v>1.31</v>
       </c>
-      <c r="M5" s="60">
+      <c r="M5" s="62">
         <v>1.91</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="62">
         <v>0.29</v>
       </c>
-      <c r="O5" s="60">
+      <c r="O5" s="62">
         <v>0.85</v>
       </c>
-      <c r="P5" s="60">
+      <c r="P5" s="62">
         <v>1.38</v>
       </c>
-      <c r="Q5" s="60">
+      <c r="Q5" s="62">
         <v>1.92</v>
       </c>
-      <c r="R5" s="60">
+      <c r="R5" s="62">
         <v>0.23</v>
       </c>
-      <c r="S5" s="60">
+      <c r="S5" s="62">
         <v>0.68</v>
       </c>
-      <c r="T5" s="60">
+      <c r="T5" s="62">
         <v>1.12</v>
       </c>
-      <c r="U5" s="67">
+      <c r="U5" s="69">
         <v>1.8</v>
       </c>
-      <c r="V5" s="68" t="s">
+      <c r="V5" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="65">
+      <c r="W5" s="67">
         <f t="shared" si="0"/>
         <v>-0.137387387387387</v>
       </c>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="38">
+      <c r="X5" s="68"/>
+      <c r="Y5" s="40">
         <v>1.0194</v>
       </c>
-      <c r="Z5" s="38">
+      <c r="Z5" s="40">
         <v>0.7661</v>
       </c>
-      <c r="AA5" s="38">
+      <c r="AA5" s="40">
         <v>0.6219</v>
       </c>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43">
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45">
         <v>-0.0412</v>
       </c>
-      <c r="AH5" s="43">
+      <c r="AH5" s="45">
         <v>-0.0395</v>
       </c>
-      <c r="AI5" s="43">
+      <c r="AI5" s="45">
         <v>-0.0053</v>
       </c>
-      <c r="AJ5" s="43">
+      <c r="AJ5" s="45">
         <v>-0.0058</v>
       </c>
-      <c r="AK5" s="43">
+      <c r="AK5" s="45">
         <v>0.1478</v>
       </c>
-      <c r="AL5" s="43">
+      <c r="AL5" s="45">
         <v>0.2092</v>
       </c>
-      <c r="AM5" s="76">
+      <c r="AM5" s="78">
         <v>0.2964</v>
       </c>
-      <c r="AN5" s="78" t="s">
+      <c r="AN5" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="AO5" s="78" t="s">
+      <c r="AO5" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="AP5" s="69">
+      <c r="AP5" s="71">
         <f t="shared" si="1"/>
         <v>0.1619</v>
       </c>
-      <c r="AQ5" s="83">
+      <c r="AQ5" s="85">
         <v>43823</v>
       </c>
-      <c r="AR5" s="76"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="90">
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="92"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="92">
         <v>2.331</v>
       </c>
-      <c r="AV5" s="90">
+      <c r="AV5" s="92">
         <v>1.118</v>
       </c>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="97">
+      <c r="AW5" s="92"/>
+      <c r="AX5" s="99">
         <v>25.37</v>
       </c>
-      <c r="AY5" s="97">
+      <c r="AY5" s="99">
         <v>48.76</v>
       </c>
-      <c r="AZ5" s="97">
+      <c r="AZ5" s="99">
         <v>37.72</v>
       </c>
-      <c r="BA5" s="96">
+      <c r="BA5" s="98">
         <f>($AX5+$AY5+$AZ5)/(16+22+23)</f>
         <v>1.83360655737705</v>
       </c>
-      <c r="BB5" s="97">
+      <c r="BB5" s="99">
         <v>1.8845</v>
       </c>
-      <c r="BC5" s="100">
+      <c r="BC5" s="102">
         <f>BB5/BA5</f>
         <v>1.02775592311131</v>
       </c>
-      <c r="BD5" s="102">
+      <c r="BD5" s="104">
         <v>21</v>
       </c>
-      <c r="BE5" s="101" t="s">
+      <c r="BE5" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="BF5" s="105" t="s">
+      <c r="BF5" s="107" t="s">
         <v>72</v>
       </c>
       <c r="BG5" s="29"/>
       <c r="BH5" s="29"/>
       <c r="BI5" s="29"/>
       <c r="BJ5" s="29"/>
-      <c r="BK5" s="40">
+      <c r="BK5" s="42">
         <v>5.25</v>
       </c>
-      <c r="BL5" s="44">
+      <c r="BL5" s="46">
         <f t="shared" ref="BL5:BL12" si="2">BK5/AU5</f>
         <v>2.25225225225225</v>
       </c>
-      <c r="BM5" s="105" t="s">
+      <c r="BM5" s="107" t="s">
         <v>73</v>
       </c>
       <c r="BN5" s="29"/>
@@ -7866,162 +8169,162 @@
       <c r="D6" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="43">
         <v>0.1782</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="44">
         <v>2.16</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="40">
         <v>1.9227</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="40">
         <v>1.5284</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="40">
         <v>1.4696</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56">
+      <c r="J6" s="58"/>
+      <c r="K6" s="58">
         <v>1.84</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="58">
         <v>2.95</v>
       </c>
-      <c r="M6" s="60">
+      <c r="M6" s="62">
         <v>3.54</v>
       </c>
-      <c r="N6" s="60">
+      <c r="N6" s="62">
         <v>0.64</v>
       </c>
-      <c r="O6" s="60">
+      <c r="O6" s="62">
         <v>0.92</v>
       </c>
-      <c r="P6" s="60">
+      <c r="P6" s="62">
         <v>1.15</v>
       </c>
-      <c r="Q6" s="60">
+      <c r="Q6" s="62">
         <v>1.22</v>
       </c>
-      <c r="R6" s="60">
+      <c r="R6" s="62">
         <v>0.22</v>
       </c>
-      <c r="S6" s="60">
+      <c r="S6" s="62">
         <v>0.55</v>
       </c>
-      <c r="T6" s="60">
+      <c r="T6" s="62">
         <v>0.87</v>
       </c>
-      <c r="U6" s="67">
+      <c r="U6" s="69">
         <v>1.24</v>
       </c>
-      <c r="V6" s="68" t="s">
+      <c r="V6" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="65">
+      <c r="W6" s="67">
         <f t="shared" si="0"/>
         <v>-0.267175572519084</v>
       </c>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="44">
+      <c r="X6" s="68"/>
+      <c r="Y6" s="46">
         <v>0.6159</v>
       </c>
-      <c r="Z6" s="44">
+      <c r="Z6" s="46">
         <v>0.6243</v>
       </c>
-      <c r="AA6" s="44">
+      <c r="AA6" s="46">
         <v>0.7363</v>
       </c>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43">
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45">
         <v>-0.0797</v>
       </c>
-      <c r="AH6" s="43">
+      <c r="AH6" s="45">
         <v>-0.1393</v>
       </c>
-      <c r="AI6" s="43">
+      <c r="AI6" s="45">
         <v>-0.1248</v>
       </c>
-      <c r="AJ6" s="43">
+      <c r="AJ6" s="45">
         <v>-0.1395</v>
       </c>
-      <c r="AK6" s="43">
+      <c r="AK6" s="45">
         <v>-0.1186</v>
       </c>
-      <c r="AL6" s="43">
+      <c r="AL6" s="45">
         <v>-0.0353</v>
       </c>
-      <c r="AM6" s="76">
+      <c r="AM6" s="78">
         <v>0.0498</v>
       </c>
-      <c r="AN6" s="78" t="s">
+      <c r="AN6" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="AO6" s="78" t="s">
+      <c r="AO6" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="AP6" s="69">
+      <c r="AP6" s="71">
         <f t="shared" si="1"/>
         <v>-0.0609</v>
       </c>
-      <c r="AQ6" s="83">
+      <c r="AQ6" s="85">
         <v>43636</v>
       </c>
-      <c r="AR6" s="76"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="90">
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="92">
         <v>1.301</v>
       </c>
-      <c r="AV6" s="90">
+      <c r="AV6" s="92">
         <v>0.457</v>
       </c>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="97">
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="99">
         <v>40.41</v>
       </c>
-      <c r="AY6" s="97">
+      <c r="AY6" s="99">
         <v>40.24</v>
       </c>
-      <c r="AZ6" s="97">
+      <c r="AZ6" s="99">
         <v>70.51</v>
       </c>
-      <c r="BA6" s="96">
+      <c r="BA6" s="98">
         <f>($AX6+$AY6+$AZ6)/(16+22+23)</f>
         <v>2.47803278688525</v>
       </c>
-      <c r="BB6" s="97">
+      <c r="BB6" s="99">
         <v>2.2217</v>
       </c>
-      <c r="BC6" s="100">
+      <c r="BC6" s="102">
         <f>BB6/BA6</f>
         <v>0.896557951839111</v>
       </c>
       <c r="BD6" s="29">
         <v>3</v>
       </c>
-      <c r="BE6" s="101" t="s">
+      <c r="BE6" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="BF6" s="105" t="s">
+      <c r="BF6" s="107" t="s">
         <v>78</v>
       </c>
       <c r="BG6" s="29"/>
       <c r="BH6" s="29"/>
       <c r="BI6" s="29"/>
       <c r="BJ6" s="29"/>
-      <c r="BK6" s="42">
+      <c r="BK6" s="44">
         <v>2.75</v>
       </c>
-      <c r="BL6" s="44">
+      <c r="BL6" s="46">
         <f t="shared" si="2"/>
         <v>2.11375864719447</v>
       </c>
-      <c r="BM6" s="105" t="s">
+      <c r="BM6" s="107" t="s">
         <v>79</v>
       </c>
       <c r="BN6" s="29"/>
@@ -8039,177 +8342,177 @@
       <c r="D7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="41">
         <v>0.5536</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="44">
         <v>1.08</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="40">
         <v>3.5</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="40">
         <v>1.5313</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="40">
         <v>1.0769</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="59">
         <v>0.07</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="59">
         <v>0.14</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="59">
         <v>0.38</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="61">
         <v>0.06</v>
       </c>
-      <c r="N7" s="56">
+      <c r="N7" s="58">
         <v>1.38</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="58">
         <v>1.71</v>
       </c>
-      <c r="P7" s="56">
+      <c r="P7" s="58">
         <v>1.97</v>
       </c>
-      <c r="Q7" s="60">
+      <c r="Q7" s="62">
         <v>2.12</v>
       </c>
-      <c r="R7" s="60">
+      <c r="R7" s="62">
         <v>0.08</v>
       </c>
-      <c r="S7" s="60">
+      <c r="S7" s="62">
         <v>0.32</v>
       </c>
-      <c r="T7" s="60">
+      <c r="T7" s="62">
         <v>0.52</v>
       </c>
-      <c r="U7" s="60">
+      <c r="U7" s="62">
         <v>0.58</v>
       </c>
-      <c r="V7" s="65">
+      <c r="V7" s="67">
         <f>((N7+O7+P7+Q7)/4-(J7+K7+L7+M7)/4)/((J7+K7+L7+M7)/4)</f>
         <v>10.0461538461538</v>
       </c>
-      <c r="W7" s="65">
+      <c r="W7" s="67">
         <f t="shared" si="0"/>
         <v>-0.79108635097493</v>
       </c>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="38">
+      <c r="X7" s="68"/>
+      <c r="Y7" s="40">
         <v>0.5478</v>
       </c>
-      <c r="Z7" s="38">
+      <c r="Z7" s="40">
         <v>0.2848</v>
       </c>
-      <c r="AA7" s="38">
+      <c r="AA7" s="40">
         <v>0.1434</v>
       </c>
-      <c r="AB7" s="76">
+      <c r="AB7" s="78">
         <v>-0.0763</v>
       </c>
-      <c r="AC7" s="76">
+      <c r="AC7" s="78">
         <v>0.0339</v>
       </c>
-      <c r="AD7" s="76">
+      <c r="AD7" s="78">
         <v>0.0737</v>
       </c>
-      <c r="AE7" s="43">
+      <c r="AE7" s="45">
         <v>0.0591</v>
       </c>
-      <c r="AF7" s="43">
+      <c r="AF7" s="45">
         <v>0.1517</v>
       </c>
-      <c r="AG7" s="43">
+      <c r="AG7" s="45">
         <v>-0.1101</v>
       </c>
-      <c r="AH7" s="43">
+      <c r="AH7" s="45">
         <v>-0.1848</v>
       </c>
-      <c r="AI7" s="43">
+      <c r="AI7" s="45">
         <v>-0.1896</v>
       </c>
-      <c r="AJ7" s="43">
+      <c r="AJ7" s="45">
         <v>-0.1942</v>
       </c>
-      <c r="AK7" s="76">
+      <c r="AK7" s="78">
         <v>-0.0575</v>
       </c>
-      <c r="AL7" s="76">
+      <c r="AL7" s="78">
         <v>0.0937</v>
       </c>
-      <c r="AM7" s="79">
+      <c r="AM7" s="81">
         <v>0.1023</v>
       </c>
-      <c r="AN7" s="80">
+      <c r="AN7" s="82">
         <f>(AB7+AC7+AD7+AE7)/4</f>
         <v>0.0226</v>
       </c>
-      <c r="AO7" s="82">
+      <c r="AO7" s="84">
         <f>(AF7+AG7+AH7+AI7)/4</f>
         <v>-0.0832</v>
       </c>
-      <c r="AP7" s="69">
+      <c r="AP7" s="71">
         <f t="shared" si="1"/>
         <v>-0.013925</v>
       </c>
-      <c r="AQ7" s="84">
+      <c r="AQ7" s="86">
         <v>37526</v>
       </c>
-      <c r="AR7" s="76"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="90">
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="92">
         <v>4.064</v>
       </c>
-      <c r="AV7" s="90">
+      <c r="AV7" s="92">
         <v>4.035</v>
       </c>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="97">
+      <c r="AW7" s="92"/>
+      <c r="AX7" s="99">
         <v>150.3</v>
       </c>
-      <c r="AY7" s="97">
+      <c r="AY7" s="99">
         <v>317.7</v>
       </c>
-      <c r="AZ7" s="97">
+      <c r="AZ7" s="99">
         <v>340.8</v>
       </c>
-      <c r="BA7" s="96">
+      <c r="BA7" s="98">
         <f>($AX7+$AY7+$AZ7)/(16+22+23)</f>
         <v>13.2590163934426</v>
       </c>
-      <c r="BB7" s="97">
+      <c r="BB7" s="99">
         <v>10.75</v>
       </c>
-      <c r="BC7" s="100">
+      <c r="BC7" s="102">
         <f>BB7/BA7</f>
         <v>0.810769040553907</v>
       </c>
       <c r="BD7" s="29">
         <v>18</v>
       </c>
-      <c r="BE7" s="101" t="s">
+      <c r="BE7" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="BF7" s="104" t="s">
+      <c r="BF7" s="106" t="s">
         <v>83</v>
       </c>
       <c r="BG7" s="29"/>
       <c r="BH7" s="29"/>
       <c r="BI7" s="29"/>
       <c r="BJ7" s="29"/>
-      <c r="BK7" s="42">
+      <c r="BK7" s="44">
         <v>4.38</v>
       </c>
-      <c r="BL7" s="44">
+      <c r="BL7" s="46">
         <f t="shared" si="2"/>
         <v>1.07775590551181</v>
       </c>
-      <c r="BM7" s="108" t="s">
+      <c r="BM7" s="111" t="s">
         <v>84</v>
       </c>
       <c r="BN7" s="29"/>
@@ -8227,130 +8530,130 @@
       <c r="D8" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="45">
         <v>0.4686</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="42">
         <v>1.092</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="40">
         <v>0.5</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="40">
         <v>0.6098</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="40">
         <v>0.4103</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="58">
         <v>0.21</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="58">
         <v>0.42</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="58">
         <v>0.61</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="62">
         <v>0.68</v>
       </c>
-      <c r="N8" s="60">
+      <c r="N8" s="62">
         <v>0.26</v>
       </c>
-      <c r="O8" s="60">
+      <c r="O8" s="62">
         <v>0.49</v>
       </c>
-      <c r="P8" s="60">
+      <c r="P8" s="62">
         <v>0.79</v>
       </c>
-      <c r="Q8" s="60">
+      <c r="Q8" s="62">
         <v>1.1</v>
       </c>
-      <c r="R8" s="60">
+      <c r="R8" s="62">
         <v>0.16</v>
       </c>
-      <c r="S8" s="60">
+      <c r="S8" s="62">
         <v>0.41</v>
       </c>
-      <c r="T8" s="60">
+      <c r="T8" s="62">
         <v>0.78</v>
       </c>
-      <c r="U8" s="67">
+      <c r="U8" s="69">
         <v>1.29</v>
       </c>
-      <c r="V8" s="65">
+      <c r="V8" s="67">
         <f>((N8+O8+P8+Q8)/4-(J8+K8+L8+M8)/4)/((J8+K8+L8+M8)/4)</f>
         <v>0.375</v>
       </c>
-      <c r="W8" s="65">
+      <c r="W8" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="38">
+      <c r="X8" s="68"/>
+      <c r="Y8" s="40">
         <v>0.4274</v>
       </c>
-      <c r="Z8" s="38">
+      <c r="Z8" s="40">
         <v>0.2761</v>
       </c>
-      <c r="AA8" s="38">
+      <c r="AA8" s="40">
         <v>0.2608</v>
       </c>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="83">
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="78"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="85">
         <v>43675</v>
       </c>
-      <c r="AR8" s="76"/>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="90">
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92">
         <v>4.119</v>
       </c>
-      <c r="AV8" s="90">
+      <c r="AV8" s="92">
         <v>1.961</v>
       </c>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="97"/>
-      <c r="AY8" s="97"/>
-      <c r="AZ8" s="97"/>
-      <c r="BA8" s="97"/>
-      <c r="BB8" s="97"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="99"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="99"/>
+      <c r="BA8" s="99"/>
+      <c r="BB8" s="99"/>
       <c r="BC8" s="29"/>
       <c r="BD8" s="29">
         <v>14</v>
       </c>
-      <c r="BE8" s="101" t="s">
+      <c r="BE8" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="BF8" s="104" t="s">
+      <c r="BF8" s="106" t="s">
         <v>89</v>
       </c>
       <c r="BG8" s="29"/>
       <c r="BH8" s="29"/>
       <c r="BI8" s="29"/>
       <c r="BJ8" s="29"/>
-      <c r="BK8" s="40">
+      <c r="BK8" s="42">
         <v>4.5</v>
       </c>
-      <c r="BL8" s="44">
+      <c r="BL8" s="46">
         <f t="shared" si="2"/>
         <v>1.0924981791697</v>
       </c>
-      <c r="BM8" s="107" t="s">
+      <c r="BM8" s="110" t="s">
         <v>90</v>
       </c>
       <c r="BN8" s="29"/>
@@ -8368,130 +8671,130 @@
       <c r="D9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="45">
         <v>0.3595</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="42">
         <v>2.053</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="40">
         <v>1.5</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="40">
         <v>1.26</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="40">
         <v>0.812</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="58">
         <v>0.23</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="58">
         <v>0.44</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="58">
         <v>0.68</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="62">
         <v>0.84</v>
       </c>
-      <c r="N9" s="60">
+      <c r="N9" s="62">
         <v>0.24</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="62">
         <v>0.56</v>
       </c>
-      <c r="P9" s="60">
+      <c r="P9" s="62">
         <v>1.17</v>
       </c>
-      <c r="Q9" s="60">
+      <c r="Q9" s="62">
         <v>1.52</v>
       </c>
-      <c r="R9" s="60">
+      <c r="R9" s="62">
         <v>0.2</v>
       </c>
-      <c r="S9" s="60">
+      <c r="S9" s="62">
         <v>0.57</v>
       </c>
-      <c r="T9" s="60">
+      <c r="T9" s="62">
         <v>1.17</v>
       </c>
-      <c r="U9" s="67">
+      <c r="U9" s="69">
         <v>1.82</v>
       </c>
-      <c r="V9" s="65">
+      <c r="V9" s="67">
         <f>((N9+O9+P9+Q9)/4-(J9+K9+L9+M9)/4)/((J9+K9+L9+M9)/4)</f>
         <v>0.593607305936073</v>
       </c>
-      <c r="W9" s="65">
+      <c r="W9" s="67">
         <f t="shared" si="0"/>
         <v>0.0773638968481374</v>
       </c>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="38">
+      <c r="X9" s="68"/>
+      <c r="Y9" s="40">
         <v>1.0195</v>
       </c>
-      <c r="Z9" s="44">
+      <c r="Z9" s="46">
         <v>0.8225</v>
       </c>
-      <c r="AA9" s="44">
+      <c r="AA9" s="46">
         <v>0.9382</v>
       </c>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="84">
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="68"/>
+      <c r="AO9" s="68"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="86">
         <v>40805</v>
       </c>
-      <c r="AR9" s="76"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90">
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="92">
         <v>6.826</v>
       </c>
-      <c r="AV9" s="90">
+      <c r="AV9" s="92">
         <v>6.824</v>
       </c>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="97"/>
-      <c r="AY9" s="97"/>
-      <c r="AZ9" s="97"/>
-      <c r="BA9" s="97"/>
-      <c r="BB9" s="97"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="99"/>
+      <c r="AZ9" s="99"/>
+      <c r="BA9" s="99"/>
+      <c r="BB9" s="99"/>
       <c r="BC9" s="29"/>
-      <c r="BD9" s="102">
+      <c r="BD9" s="104">
         <v>104</v>
       </c>
-      <c r="BE9" s="101" t="s">
+      <c r="BE9" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="BF9" s="105" t="s">
+      <c r="BF9" s="107" t="s">
         <v>94</v>
       </c>
       <c r="BG9" s="29"/>
       <c r="BH9" s="29"/>
       <c r="BI9" s="29"/>
       <c r="BJ9" s="29"/>
-      <c r="BK9" s="40">
+      <c r="BK9" s="42">
         <v>14.02</v>
       </c>
-      <c r="BL9" s="44">
+      <c r="BL9" s="46">
         <f t="shared" si="2"/>
         <v>2.05391151479637</v>
       </c>
-      <c r="BM9" s="101" t="s">
+      <c r="BM9" s="103" t="s">
         <v>95</v>
       </c>
       <c r="BN9" s="29"/>
@@ -8509,130 +8812,130 @@
       <c r="D10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="45">
         <v>0.3026</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="42">
         <v>2.22</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="40">
         <v>1.44</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="46">
         <v>1.2295</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="46">
         <v>1.3617</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="58">
         <v>0.24</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="58">
         <v>0.5</v>
       </c>
-      <c r="L10" s="56">
+      <c r="L10" s="58">
         <v>0.81</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="62">
         <v>1.01</v>
       </c>
-      <c r="N10" s="60">
+      <c r="N10" s="62">
         <v>0.29</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="62">
         <v>0.55</v>
       </c>
-      <c r="P10" s="60">
+      <c r="P10" s="62">
         <v>0.89</v>
       </c>
-      <c r="Q10" s="60">
+      <c r="Q10" s="62">
         <v>1.09</v>
       </c>
-      <c r="R10" s="60">
+      <c r="R10" s="62">
         <v>0.25</v>
       </c>
-      <c r="S10" s="60">
+      <c r="S10" s="62">
         <v>0.61</v>
       </c>
-      <c r="T10" s="60">
+      <c r="T10" s="62">
         <v>0.94</v>
       </c>
-      <c r="U10" s="67">
+      <c r="U10" s="69">
         <v>1.27</v>
       </c>
-      <c r="V10" s="65">
+      <c r="V10" s="67">
         <f>((N10+O10+P10+Q10)/4-(J10+K10+L10+M10)/4)/((J10+K10+L10+M10)/4)</f>
         <v>0.1015625</v>
       </c>
-      <c r="W10" s="65">
+      <c r="W10" s="67">
         <f t="shared" si="0"/>
         <v>0.0886524822695034</v>
       </c>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="44">
+      <c r="X10" s="68"/>
+      <c r="Y10" s="46">
         <v>0.2394</v>
       </c>
-      <c r="Z10" s="44">
+      <c r="Z10" s="46">
         <v>0.7485</v>
       </c>
-      <c r="AA10" s="44">
+      <c r="AA10" s="46">
         <v>1.2456</v>
       </c>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="43"/>
-      <c r="AK10" s="43"/>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="83">
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="68"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="85">
         <v>42137</v>
       </c>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="90"/>
-      <c r="AT10" s="90"/>
-      <c r="AU10" s="90">
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="92"/>
+      <c r="AT10" s="92"/>
+      <c r="AU10" s="92">
         <v>4.646</v>
       </c>
-      <c r="AV10" s="90">
+      <c r="AV10" s="92">
         <v>4.627</v>
       </c>
-      <c r="AW10" s="90"/>
-      <c r="AX10" s="97"/>
-      <c r="AY10" s="97"/>
-      <c r="AZ10" s="97"/>
-      <c r="BA10" s="97"/>
-      <c r="BB10" s="97"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="99"/>
+      <c r="AY10" s="99"/>
+      <c r="AZ10" s="99"/>
+      <c r="BA10" s="99"/>
+      <c r="BB10" s="99"/>
       <c r="BC10" s="29"/>
       <c r="BD10" s="29">
         <v>17</v>
       </c>
-      <c r="BE10" s="105" t="s">
+      <c r="BE10" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="BF10" s="105" t="s">
+      <c r="BF10" s="107" t="s">
         <v>99</v>
       </c>
       <c r="BG10" s="29"/>
       <c r="BH10" s="29"/>
       <c r="BI10" s="29"/>
       <c r="BJ10" s="29"/>
-      <c r="BK10" s="40">
+      <c r="BK10" s="42">
         <v>10.33</v>
       </c>
-      <c r="BL10" s="44">
+      <c r="BL10" s="46">
         <f t="shared" si="2"/>
         <v>2.22341799397331</v>
       </c>
-      <c r="BM10" s="101" t="s">
+      <c r="BM10" s="103" t="s">
         <v>100</v>
       </c>
       <c r="BN10" s="29"/>
@@ -8641,7 +8944,7 @@
       <c r="A11" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="123" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -8650,100 +8953,100 @@
       <c r="D11" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="45">
         <v>0.3829</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="42">
         <v>1.172</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="40">
         <v>0.3277</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="46">
         <v>0.108</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="46">
         <v>0.1218</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="38">
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="40">
         <v>0.0583</v>
       </c>
-      <c r="Z11" s="44">
+      <c r="Z11" s="46">
         <v>0.0131</v>
       </c>
-      <c r="AA11" s="44">
+      <c r="AA11" s="46">
         <v>0.0315</v>
       </c>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="76"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="84">
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="71"/>
+      <c r="AQ11" s="86">
         <v>40604</v>
       </c>
-      <c r="AR11" s="76"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="90">
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92">
         <v>5.07</v>
       </c>
-      <c r="AV11" s="90">
+      <c r="AV11" s="92">
         <v>5.07</v>
       </c>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="97"/>
-      <c r="AY11" s="97"/>
-      <c r="AZ11" s="97"/>
-      <c r="BA11" s="97"/>
-      <c r="BB11" s="97"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="99"/>
+      <c r="AY11" s="99"/>
+      <c r="AZ11" s="99"/>
+      <c r="BA11" s="99"/>
+      <c r="BB11" s="99"/>
       <c r="BC11" s="29"/>
       <c r="BD11" s="29">
         <v>1</v>
       </c>
-      <c r="BE11" s="105" t="s">
+      <c r="BE11" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="BF11" s="105" t="s">
+      <c r="BF11" s="107" t="s">
         <v>106</v>
       </c>
       <c r="BG11" s="29"/>
       <c r="BH11" s="29"/>
       <c r="BI11" s="29"/>
       <c r="BJ11" s="29"/>
-      <c r="BK11" s="40">
+      <c r="BK11" s="42">
         <v>5.94</v>
       </c>
-      <c r="BL11" s="44">
+      <c r="BL11" s="46">
         <f t="shared" si="2"/>
         <v>1.17159763313609</v>
       </c>
-      <c r="BM11" s="105" t="s">
+      <c r="BM11" s="107" t="s">
         <v>107</v>
       </c>
       <c r="BN11" s="29"/>
@@ -8752,7 +9055,7 @@
       <c r="A12" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="123" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="28" t="s">
@@ -8761,83 +9064,83 @@
       <c r="D12" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="47">
         <v>0.5848</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="42">
         <v>1.12</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="40">
         <v>0.7222</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="40">
         <v>0.8358</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="40">
         <v>0.766</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="38">
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="40">
         <v>0.4683</v>
       </c>
-      <c r="Z12" s="38">
+      <c r="Z12" s="40">
         <v>0.3351</v>
       </c>
-      <c r="AA12" s="38">
+      <c r="AA12" s="40">
         <v>0.2862</v>
       </c>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="83">
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="68"/>
+      <c r="AO12" s="68"/>
+      <c r="AP12" s="71"/>
+      <c r="AQ12" s="85">
         <v>43160</v>
       </c>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="90"/>
-      <c r="AT12" s="90"/>
-      <c r="AU12" s="90">
+      <c r="AR12" s="78"/>
+      <c r="AS12" s="92"/>
+      <c r="AT12" s="92"/>
+      <c r="AU12" s="92">
         <v>2.287</v>
       </c>
-      <c r="AV12" s="90">
+      <c r="AV12" s="92">
         <v>1.685</v>
       </c>
-      <c r="AW12" s="90"/>
-      <c r="AX12" s="97"/>
-      <c r="AY12" s="97"/>
-      <c r="AZ12" s="97"/>
-      <c r="BA12" s="97"/>
-      <c r="BB12" s="97"/>
+      <c r="AW12" s="92"/>
+      <c r="AX12" s="99"/>
+      <c r="AY12" s="99"/>
+      <c r="AZ12" s="99"/>
+      <c r="BA12" s="99"/>
+      <c r="BB12" s="99"/>
       <c r="BC12" s="29"/>
       <c r="BD12" s="29">
         <v>13</v>
       </c>
-      <c r="BE12" s="105" t="s">
+      <c r="BE12" s="107" t="s">
         <v>112</v>
       </c>
       <c r="BF12" s="29"/>
@@ -8845,10 +9148,10 @@
       <c r="BH12" s="29"/>
       <c r="BI12" s="29"/>
       <c r="BJ12" s="29"/>
-      <c r="BK12" s="40">
+      <c r="BK12" s="42">
         <v>2.56</v>
       </c>
-      <c r="BL12" s="44">
+      <c r="BL12" s="46">
         <f t="shared" si="2"/>
         <v>1.11937035417578</v>
       </c>
@@ -8868,83 +9171,83 @@
       <c r="D13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="48">
         <v>0.33</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="49">
         <v>0.671</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="50">
         <v>0.3333</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="50">
         <v>0.3</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="50">
         <v>0.2879</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="48">
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="50">
         <v>0.2143</v>
       </c>
-      <c r="Z13" s="48">
+      <c r="Z13" s="50">
         <v>0.156</v>
       </c>
-      <c r="AA13" s="48">
+      <c r="AA13" s="50">
         <v>0.1125</v>
       </c>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="71"/>
-      <c r="AQ13" s="85">
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="67"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="87">
         <v>35606</v>
       </c>
-      <c r="AR13" s="75"/>
-      <c r="AS13" s="91"/>
-      <c r="AT13" s="91"/>
-      <c r="AU13" s="91">
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="93">
         <v>13.71</v>
       </c>
-      <c r="AV13" s="91">
+      <c r="AV13" s="93">
         <v>13.71</v>
       </c>
-      <c r="AW13" s="91"/>
-      <c r="AX13" s="98"/>
-      <c r="AY13" s="98"/>
-      <c r="AZ13" s="98"/>
-      <c r="BA13" s="98"/>
-      <c r="BB13" s="98"/>
+      <c r="AW13" s="93"/>
+      <c r="AX13" s="100"/>
+      <c r="AY13" s="100"/>
+      <c r="AZ13" s="100"/>
+      <c r="BA13" s="100"/>
+      <c r="BB13" s="100"/>
       <c r="BC13" s="30"/>
-      <c r="BD13" s="103">
+      <c r="BD13" s="105">
         <v>20</v>
       </c>
-      <c r="BE13" s="105" t="s">
+      <c r="BE13" s="107" t="s">
         <v>115</v>
       </c>
       <c r="BF13" s="30"/>
@@ -8952,11 +9255,11 @@
       <c r="BH13" s="30"/>
       <c r="BI13" s="30"/>
       <c r="BJ13" s="30"/>
-      <c r="BK13" s="47">
+      <c r="BK13" s="49">
         <v>9.2</v>
       </c>
-      <c r="BL13" s="76">
-        <f t="shared" ref="BL13:BL18" si="3">BK13/AU13</f>
+      <c r="BL13" s="78">
+        <f t="shared" ref="BL13:BL19" si="3">BK13/AU13</f>
         <v>0.671043034281546</v>
       </c>
       <c r="BM13" s="30"/>
@@ -8975,83 +9278,83 @@
       <c r="D14" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="48">
         <v>0.4423</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="49">
         <v>1.69</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="50">
         <v>2.8333</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="50">
         <v>1.973</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="50">
         <v>1.061</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="48">
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="50">
         <v>0.5809</v>
       </c>
-      <c r="Z14" s="50">
+      <c r="Z14" s="52">
         <v>0.6068</v>
       </c>
-      <c r="AA14" s="50">
+      <c r="AA14" s="52">
         <v>0.6104</v>
       </c>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="71"/>
-      <c r="AQ14" s="85">
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="73"/>
+      <c r="AQ14" s="87">
         <v>38096</v>
       </c>
-      <c r="AR14" s="75"/>
-      <c r="AS14" s="91"/>
-      <c r="AT14" s="91"/>
-      <c r="AU14" s="91">
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="93">
         <v>1.534</v>
       </c>
-      <c r="AV14" s="91">
+      <c r="AV14" s="93">
         <v>1.522</v>
       </c>
-      <c r="AW14" s="91"/>
-      <c r="AX14" s="98"/>
-      <c r="AY14" s="98"/>
-      <c r="AZ14" s="98"/>
-      <c r="BA14" s="98"/>
-      <c r="BB14" s="98"/>
+      <c r="AW14" s="93"/>
+      <c r="AX14" s="100"/>
+      <c r="AY14" s="100"/>
+      <c r="AZ14" s="100"/>
+      <c r="BA14" s="100"/>
+      <c r="BB14" s="100"/>
       <c r="BC14" s="30"/>
       <c r="BD14" s="30">
         <v>15</v>
       </c>
-      <c r="BE14" s="105" t="s">
+      <c r="BE14" s="107" t="s">
         <v>118</v>
       </c>
       <c r="BF14" s="30"/>
@@ -9059,10 +9362,10 @@
       <c r="BH14" s="30"/>
       <c r="BI14" s="30"/>
       <c r="BJ14" s="30"/>
-      <c r="BK14" s="47">
+      <c r="BK14" s="49">
         <v>2.57</v>
       </c>
-      <c r="BL14" s="44">
+      <c r="BL14" s="46">
         <f t="shared" si="3"/>
         <v>1.67535853976532</v>
       </c>
@@ -9082,83 +9385,83 @@
       <c r="D15" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="51">
         <v>0.6883</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="49">
         <v>0.21</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="52">
         <v>0</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="52">
         <v>0.3015</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="52">
         <v>0.3125</v>
       </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="48">
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="50">
         <v>-0.0711</v>
       </c>
-      <c r="Z15" s="48">
+      <c r="Z15" s="50">
         <v>0.1399</v>
       </c>
-      <c r="AA15" s="48">
+      <c r="AA15" s="50">
         <v>0.0965</v>
       </c>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="71"/>
-      <c r="AQ15" s="86">
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="77"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="67"/>
+      <c r="AP15" s="73"/>
+      <c r="AQ15" s="88">
         <v>44341</v>
       </c>
-      <c r="AR15" s="75"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="91">
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="93">
         <v>20.8</v>
       </c>
-      <c r="AV15" s="91">
+      <c r="AV15" s="93">
         <v>2.08</v>
       </c>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="98"/>
-      <c r="AY15" s="98"/>
-      <c r="AZ15" s="98"/>
-      <c r="BA15" s="98"/>
-      <c r="BB15" s="98"/>
+      <c r="AW15" s="93"/>
+      <c r="AX15" s="100"/>
+      <c r="AY15" s="100"/>
+      <c r="AZ15" s="100"/>
+      <c r="BA15" s="100"/>
+      <c r="BB15" s="100"/>
       <c r="BC15" s="30"/>
       <c r="BD15" s="30">
         <v>4</v>
       </c>
-      <c r="BE15" s="105" t="s">
+      <c r="BE15" s="107" t="s">
         <v>122</v>
       </c>
       <c r="BF15" s="30"/>
@@ -9166,10 +9469,10 @@
       <c r="BH15" s="30"/>
       <c r="BI15" s="30"/>
       <c r="BJ15" s="30"/>
-      <c r="BK15" s="47">
+      <c r="BK15" s="49">
         <v>4.08</v>
       </c>
-      <c r="BL15" s="76">
+      <c r="BL15" s="78">
         <f t="shared" si="3"/>
         <v>0.196153846153846</v>
       </c>
@@ -9180,7 +9483,7 @@
       <c r="A16" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="124" t="s">
         <v>124</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9189,100 +9492,100 @@
       <c r="D16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="51">
         <v>0.5592</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="49">
         <v>1.27</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="50">
         <v>0.36</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="52">
         <v>0.125</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="52">
         <v>0.2574</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="48">
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="50">
         <v>-0.7209</v>
       </c>
-      <c r="Z16" s="50">
+      <c r="Z16" s="52">
         <v>-0.772</v>
       </c>
-      <c r="AA16" s="50">
+      <c r="AA16" s="52">
         <v>-0.6953</v>
       </c>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="75"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="86">
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="77"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="88">
         <v>42947</v>
       </c>
-      <c r="AR16" s="75"/>
-      <c r="AS16" s="91"/>
-      <c r="AT16" s="91"/>
-      <c r="AU16" s="91">
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93">
         <v>1.381</v>
       </c>
-      <c r="AV16" s="91">
+      <c r="AV16" s="93">
         <v>0.8979</v>
       </c>
-      <c r="AW16" s="91"/>
-      <c r="AX16" s="98"/>
-      <c r="AY16" s="98"/>
-      <c r="AZ16" s="98"/>
-      <c r="BA16" s="98"/>
-      <c r="BB16" s="98"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="100"/>
+      <c r="AY16" s="100"/>
+      <c r="AZ16" s="100"/>
+      <c r="BA16" s="100"/>
+      <c r="BB16" s="100"/>
       <c r="BC16" s="30"/>
       <c r="BD16" s="30">
         <v>2</v>
       </c>
-      <c r="BE16" s="105" t="s">
+      <c r="BE16" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="BF16" s="105" t="s">
+      <c r="BF16" s="107" t="s">
         <v>127</v>
       </c>
       <c r="BG16" s="30"/>
       <c r="BH16" s="30"/>
       <c r="BI16" s="30"/>
       <c r="BJ16" s="30"/>
-      <c r="BK16" s="47">
+      <c r="BK16" s="49">
         <v>1.75</v>
       </c>
-      <c r="BL16" s="44">
+      <c r="BL16" s="46">
         <f t="shared" si="3"/>
         <v>1.26719768283852</v>
       </c>
-      <c r="BM16" s="105" t="s">
+      <c r="BM16" s="107" t="s">
         <v>128</v>
       </c>
       <c r="BN16" s="30"/>
@@ -9300,66 +9603,66 @@
       <c r="D17" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="48">
         <v>0.258</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="49">
         <v>0.496</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="50">
         <v>0.3333</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="52">
         <v>-0.111</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="52">
         <v>0.1628</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="71"/>
-      <c r="AQ17" s="85"/>
-      <c r="AR17" s="75"/>
-      <c r="AS17" s="91"/>
-      <c r="AT17" s="91"/>
-      <c r="AU17" s="91"/>
-      <c r="AV17" s="91"/>
-      <c r="AW17" s="91"/>
-      <c r="AX17" s="98"/>
-      <c r="AY17" s="98"/>
-      <c r="AZ17" s="98"/>
-      <c r="BA17" s="98"/>
-      <c r="BB17" s="98"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="67"/>
+      <c r="AO17" s="67"/>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="93"/>
+      <c r="AU17" s="93"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="100"/>
+      <c r="AY17" s="100"/>
+      <c r="AZ17" s="100"/>
+      <c r="BA17" s="100"/>
+      <c r="BB17" s="100"/>
       <c r="BC17" s="30"/>
       <c r="BD17" s="30"/>
       <c r="BE17" s="30"/>
@@ -9368,8 +9671,8 @@
       <c r="BH17" s="30"/>
       <c r="BI17" s="30"/>
       <c r="BJ17" s="30"/>
-      <c r="BK17" s="47"/>
-      <c r="BL17" s="75"/>
+      <c r="BK17" s="49"/>
+      <c r="BL17" s="77"/>
       <c r="BM17" s="30"/>
       <c r="BN17" s="30"/>
     </row>
@@ -9377,7 +9680,7 @@
       <c r="A18" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="124" t="s">
         <v>133</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -9386,103 +9689,103 @@
       <c r="D18" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="48">
         <v>0.3643</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="49">
         <v>1.845</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="50">
         <v>1.2284</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="52">
         <v>1.1877</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="52">
         <v>1.6674</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="50">
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="52">
         <v>0.6822</v>
       </c>
-      <c r="Z18" s="50">
+      <c r="Z18" s="52">
         <v>0.8976</v>
       </c>
-      <c r="AA18" s="50">
+      <c r="AA18" s="52">
         <v>0.9121</v>
       </c>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="75"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="71"/>
-      <c r="AQ18" s="85">
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="77"/>
+      <c r="AN18" s="67"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="87">
         <v>35614</v>
       </c>
-      <c r="AR18" s="75"/>
-      <c r="AS18" s="91"/>
-      <c r="AT18" s="91"/>
-      <c r="AU18" s="91">
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="93"/>
+      <c r="AT18" s="93"/>
+      <c r="AU18" s="93">
         <v>5.181</v>
       </c>
-      <c r="AV18" s="91">
+      <c r="AV18" s="93">
         <v>5.176</v>
       </c>
-      <c r="AW18" s="91"/>
-      <c r="AX18" s="98"/>
-      <c r="AY18" s="98"/>
-      <c r="AZ18" s="98"/>
-      <c r="BA18" s="98"/>
-      <c r="BB18" s="98"/>
+      <c r="AW18" s="93"/>
+      <c r="AX18" s="100"/>
+      <c r="AY18" s="100"/>
+      <c r="AZ18" s="100"/>
+      <c r="BA18" s="100"/>
+      <c r="BB18" s="100"/>
       <c r="BC18" s="30"/>
-      <c r="BD18" s="103">
+      <c r="BD18" s="105">
         <v>139</v>
       </c>
-      <c r="BE18" s="105" t="s">
+      <c r="BE18" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="BF18" s="105" t="s">
+      <c r="BF18" s="107" t="s">
         <v>136</v>
       </c>
       <c r="BG18" s="30"/>
       <c r="BH18" s="30"/>
       <c r="BI18" s="30"/>
       <c r="BJ18" s="30"/>
-      <c r="BK18" s="47">
+      <c r="BK18" s="49">
         <v>9.56</v>
       </c>
-      <c r="BL18" s="44">
+      <c r="BL18" s="46">
         <f t="shared" si="3"/>
         <v>1.84520362864312</v>
       </c>
       <c r="BM18" s="30"/>
       <c r="BN18" s="30"/>
     </row>
-    <row r="19" ht="30" spans="1:66">
+    <row r="19" ht="74" spans="1:66">
       <c r="A19" s="23" t="s">
         <v>137</v>
       </c>
@@ -9495,194 +9798,205 @@
       <c r="D19" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="48">
         <v>0.3881</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="49">
         <v>0.777</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="50">
         <v>1.7333</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="50">
         <v>-0.2247</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="50">
         <v>-0.3036</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="48">
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="50">
         <v>0.9186</v>
       </c>
-      <c r="Z19" s="48">
+      <c r="Z19" s="50">
         <v>0.3642</v>
       </c>
-      <c r="AA19" s="48">
+      <c r="AA19" s="50">
         <v>0.2326</v>
       </c>
-      <c r="AB19" s="75"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="75"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="71"/>
-      <c r="AQ19" s="85"/>
-      <c r="AR19" s="75"/>
-      <c r="AS19" s="91"/>
-      <c r="AT19" s="91"/>
-      <c r="AU19" s="91">
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="87">
+        <v>43643</v>
+      </c>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="93"/>
+      <c r="AT19" s="93"/>
+      <c r="AU19" s="93">
         <v>1.414</v>
       </c>
-      <c r="AV19" s="91">
+      <c r="AV19" s="93">
         <v>0.8566</v>
       </c>
-      <c r="AW19" s="91"/>
-      <c r="AX19" s="98"/>
-      <c r="AY19" s="98"/>
-      <c r="AZ19" s="98"/>
-      <c r="BA19" s="98"/>
-      <c r="BB19" s="98"/>
+      <c r="AW19" s="93"/>
+      <c r="AX19" s="100"/>
+      <c r="AY19" s="100"/>
+      <c r="AZ19" s="100"/>
+      <c r="BA19" s="100"/>
+      <c r="BB19" s="100"/>
       <c r="BC19" s="30"/>
       <c r="BD19" s="30">
         <v>2</v>
       </c>
-      <c r="BE19" s="105" t="s">
+      <c r="BE19" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="BF19" s="30"/>
+      <c r="BF19" s="106" t="s">
+        <v>140</v>
+      </c>
       <c r="BG19" s="30"/>
       <c r="BH19" s="30"/>
       <c r="BI19" s="30"/>
       <c r="BJ19" s="30"/>
-      <c r="BK19" s="47"/>
-      <c r="BL19" s="75"/>
-      <c r="BM19" s="30"/>
+      <c r="BK19" s="49">
+        <v>1.1</v>
+      </c>
+      <c r="BL19" s="46">
+        <f t="shared" si="3"/>
+        <v>0.777934936350778</v>
+      </c>
+      <c r="BM19" s="111" t="s">
+        <v>141</v>
+      </c>
       <c r="BN19" s="30"/>
     </row>
     <row r="20" ht="45" spans="1:66">
       <c r="A20" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="122" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="B20" s="124" t="s">
+        <v>143</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="46">
+        <v>145</v>
+      </c>
+      <c r="E20" s="48">
         <v>0.2101</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="49">
         <v>0.842</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="50">
         <v>2.1447</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="50">
         <v>1.597</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="50">
         <v>1.159</v>
       </c>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="48">
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="50">
         <v>0.3139</v>
       </c>
-      <c r="Z20" s="50">
+      <c r="Z20" s="52">
         <v>0.0935</v>
       </c>
-      <c r="AA20" s="50">
+      <c r="AA20" s="52">
         <v>0.1211</v>
       </c>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="46"/>
-      <c r="AL20" s="46"/>
-      <c r="AM20" s="75"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="71"/>
-      <c r="AQ20" s="85">
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="67"/>
+      <c r="AO20" s="67"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="87">
         <v>40696</v>
       </c>
-      <c r="AR20" s="75"/>
-      <c r="AS20" s="91"/>
-      <c r="AT20" s="91"/>
-      <c r="AU20" s="91">
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="93"/>
+      <c r="AT20" s="93"/>
+      <c r="AU20" s="93">
         <v>11.56</v>
       </c>
-      <c r="AV20" s="91">
+      <c r="AV20" s="93">
         <v>8.672</v>
       </c>
-      <c r="AW20" s="91"/>
-      <c r="AX20" s="98"/>
-      <c r="AY20" s="98"/>
-      <c r="AZ20" s="98"/>
-      <c r="BA20" s="98"/>
-      <c r="BB20" s="98"/>
+      <c r="AW20" s="93"/>
+      <c r="AX20" s="100"/>
+      <c r="AY20" s="100"/>
+      <c r="AZ20" s="100"/>
+      <c r="BA20" s="100"/>
+      <c r="BB20" s="100"/>
       <c r="BC20" s="30"/>
-      <c r="BD20" s="103">
+      <c r="BD20" s="105">
         <v>31</v>
       </c>
-      <c r="BE20" s="105" t="s">
-        <v>144</v>
+      <c r="BE20" s="107" t="s">
+        <v>146</v>
       </c>
       <c r="BF20" s="30"/>
       <c r="BG20" s="30"/>
       <c r="BH20" s="30"/>
       <c r="BI20" s="30"/>
       <c r="BJ20" s="30"/>
-      <c r="BK20" s="47">
+      <c r="BK20" s="49">
         <v>9.73</v>
       </c>
-      <c r="BL20" s="76">
+      <c r="BL20" s="78">
         <f>BK20/AU20</f>
         <v>0.841695501730104</v>
       </c>
@@ -9691,103 +10005,103 @@
     </row>
     <row r="21" ht="45" spans="1:66">
       <c r="A21" s="23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B21" s="30">
         <v>603010</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="46">
+        <v>145</v>
+      </c>
+      <c r="E21" s="48">
         <v>0.3158</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="49">
         <v>1.287</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="50">
         <v>4.9</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="50">
         <v>3.0455</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="50">
         <v>1.6875</v>
       </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="48">
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="50">
         <v>1.1403</v>
       </c>
-      <c r="Z21" s="48">
+      <c r="Z21" s="50">
         <v>1.4349</v>
       </c>
-      <c r="AA21" s="48">
+      <c r="AA21" s="50">
         <v>1.2425</v>
       </c>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="75"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="71"/>
-      <c r="AQ21" s="85"/>
-      <c r="AR21" s="75"/>
-      <c r="AS21" s="91"/>
-      <c r="AT21" s="91"/>
-      <c r="AU21" s="91">
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="67"/>
+      <c r="AO21" s="67"/>
+      <c r="AP21" s="73"/>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="93"/>
+      <c r="AT21" s="93"/>
+      <c r="AU21" s="93">
         <v>4.853</v>
       </c>
-      <c r="AV21" s="91">
+      <c r="AV21" s="93">
         <v>4.853</v>
       </c>
-      <c r="AW21" s="91"/>
-      <c r="AX21" s="98"/>
-      <c r="AY21" s="98"/>
-      <c r="AZ21" s="98"/>
-      <c r="BA21" s="98"/>
-      <c r="BB21" s="98"/>
+      <c r="AW21" s="93"/>
+      <c r="AX21" s="100"/>
+      <c r="AY21" s="100"/>
+      <c r="AZ21" s="100"/>
+      <c r="BA21" s="100"/>
+      <c r="BB21" s="100"/>
       <c r="BC21" s="30"/>
       <c r="BD21" s="30">
         <v>9</v>
       </c>
-      <c r="BE21" s="105" t="s">
-        <v>147</v>
+      <c r="BE21" s="107" t="s">
+        <v>149</v>
       </c>
       <c r="BF21" s="30"/>
       <c r="BG21" s="30"/>
       <c r="BH21" s="30"/>
       <c r="BI21" s="30"/>
       <c r="BJ21" s="30"/>
-      <c r="BK21" s="47">
+      <c r="BK21" s="49">
         <v>6.25</v>
       </c>
-      <c r="BL21" s="44">
+      <c r="BL21" s="46">
         <f>BK21/AU21</f>
         <v>1.28786317741603</v>
       </c>
@@ -9796,103 +10110,103 @@
     </row>
     <row r="22" ht="30" spans="1:66">
       <c r="A22" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="122" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="B22" s="124" t="s">
+        <v>151</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="48">
         <v>0.3314</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="49">
         <v>0.06</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="50">
         <v>0.3333</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="50">
         <v>-0.3333</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="50">
         <v>-0.5714</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="48">
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="50">
         <v>0.2285</v>
       </c>
-      <c r="Z22" s="50">
+      <c r="Z22" s="52">
         <v>0.0631</v>
       </c>
-      <c r="AA22" s="50">
+      <c r="AA22" s="52">
         <v>0.3417</v>
       </c>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="46"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="46"/>
-      <c r="AL22" s="46"/>
-      <c r="AM22" s="75"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="71"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="75"/>
-      <c r="AS22" s="91"/>
-      <c r="AT22" s="91"/>
-      <c r="AU22" s="91">
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="67"/>
+      <c r="AO22" s="67"/>
+      <c r="AP22" s="73"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="93"/>
+      <c r="AT22" s="93"/>
+      <c r="AU22" s="93">
         <v>4.611</v>
       </c>
-      <c r="AV22" s="91">
+      <c r="AV22" s="93">
         <v>0.7839</v>
       </c>
-      <c r="AW22" s="91"/>
-      <c r="AX22" s="98"/>
-      <c r="AY22" s="98"/>
-      <c r="AZ22" s="98"/>
-      <c r="BA22" s="98"/>
-      <c r="BB22" s="98"/>
+      <c r="AW22" s="93"/>
+      <c r="AX22" s="100"/>
+      <c r="AY22" s="100"/>
+      <c r="AZ22" s="100"/>
+      <c r="BA22" s="100"/>
+      <c r="BB22" s="100"/>
       <c r="BC22" s="30"/>
-      <c r="BD22" s="103">
+      <c r="BD22" s="105">
         <v>125</v>
       </c>
-      <c r="BE22" s="105" t="s">
-        <v>151</v>
+      <c r="BE22" s="107" t="s">
+        <v>153</v>
       </c>
       <c r="BF22" s="30"/>
       <c r="BG22" s="30"/>
       <c r="BH22" s="30"/>
       <c r="BI22" s="30"/>
       <c r="BJ22" s="30"/>
-      <c r="BK22" s="47">
+      <c r="BK22" s="49">
         <v>0.273105</v>
       </c>
-      <c r="BL22" s="76">
+      <c r="BL22" s="78">
         <f>BK22/AU22</f>
         <v>0.0592290175666884</v>
       </c>
@@ -9901,105 +10215,105 @@
     </row>
     <row r="23" ht="30" spans="1:66">
       <c r="A23" s="23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B23" s="30">
         <v>605016</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="48">
         <v>0.0703</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="49">
         <v>0.67</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="50">
         <v>0.125</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="50">
         <v>-0.0755</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="50">
         <v>-0.1184</v>
       </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="48">
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="50">
         <v>0.5155</v>
       </c>
-      <c r="Z23" s="50">
+      <c r="Z23" s="52">
         <v>0.1599</v>
       </c>
-      <c r="AA23" s="50">
+      <c r="AA23" s="52">
         <v>0.2068</v>
       </c>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="75"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
-      <c r="AL23" s="46"/>
-      <c r="AM23" s="75"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="71"/>
-      <c r="AQ23" s="86">
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="67"/>
+      <c r="AO23" s="67"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="88">
         <v>44307</v>
       </c>
-      <c r="AR23" s="75"/>
-      <c r="AS23" s="91"/>
-      <c r="AT23" s="91"/>
-      <c r="AU23" s="91">
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="93"/>
+      <c r="AT23" s="93"/>
+      <c r="AU23" s="93">
         <v>1.268</v>
       </c>
-      <c r="AV23" s="91">
+      <c r="AV23" s="93">
         <v>0.318</v>
       </c>
-      <c r="AW23" s="91"/>
-      <c r="AX23" s="98"/>
-      <c r="AY23" s="98"/>
-      <c r="AZ23" s="98"/>
-      <c r="BA23" s="98"/>
-      <c r="BB23" s="98"/>
+      <c r="AW23" s="93"/>
+      <c r="AX23" s="100"/>
+      <c r="AY23" s="100"/>
+      <c r="AZ23" s="100"/>
+      <c r="BA23" s="100"/>
+      <c r="BB23" s="100"/>
       <c r="BC23" s="30"/>
       <c r="BD23" s="30">
         <v>6</v>
       </c>
-      <c r="BE23" s="105" t="s">
-        <v>154</v>
+      <c r="BE23" s="107" t="s">
+        <v>156</v>
       </c>
       <c r="BF23" s="30"/>
       <c r="BG23" s="30"/>
       <c r="BH23" s="30"/>
       <c r="BI23" s="30"/>
       <c r="BJ23" s="30"/>
-      <c r="BK23" s="47">
+      <c r="BK23" s="49">
         <v>0.750415</v>
       </c>
-      <c r="BL23" s="76">
+      <c r="BL23" s="78">
         <f>BK23/AU23</f>
         <v>0.591809936908517</v>
       </c>
@@ -10008,915 +10322,1003 @@
     </row>
     <row r="24" ht="87" spans="1:66">
       <c r="A24" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B24" s="25">
         <v>603681</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="48">
         <v>0.4771</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="49">
         <v>1.17</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="50">
         <v>2.2727</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="50">
         <v>0.9268</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="50">
         <v>0.4096</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="48">
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="50">
         <v>0.6575</v>
       </c>
-      <c r="Z24" s="48">
+      <c r="Z24" s="50">
         <v>0.6401</v>
       </c>
-      <c r="AA24" s="48">
+      <c r="AA24" s="50">
         <v>0.6247</v>
       </c>
-      <c r="AB24" s="75"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="46"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="46"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="75"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="71"/>
-      <c r="AQ24" s="86">
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="67"/>
+      <c r="AO24" s="67"/>
+      <c r="AP24" s="73"/>
+      <c r="AQ24" s="88">
         <v>43550</v>
       </c>
-      <c r="AR24" s="75"/>
-      <c r="AS24" s="91"/>
-      <c r="AT24" s="91"/>
-      <c r="AU24" s="91">
+      <c r="AR24" s="77"/>
+      <c r="AS24" s="93"/>
+      <c r="AT24" s="93"/>
+      <c r="AU24" s="93">
         <v>1.911</v>
       </c>
-      <c r="AV24" s="91">
+      <c r="AV24" s="93">
         <v>0.862</v>
       </c>
-      <c r="AW24" s="91"/>
-      <c r="AX24" s="98"/>
-      <c r="AY24" s="98"/>
-      <c r="AZ24" s="98"/>
-      <c r="BA24" s="98"/>
-      <c r="BB24" s="98"/>
+      <c r="AW24" s="93"/>
+      <c r="AX24" s="100"/>
+      <c r="AY24" s="100"/>
+      <c r="AZ24" s="100"/>
+      <c r="BA24" s="100"/>
+      <c r="BB24" s="100"/>
       <c r="BC24" s="30"/>
       <c r="BD24" s="30">
         <v>18</v>
       </c>
-      <c r="BE24" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="BF24" s="104" t="s">
-        <v>158</v>
+      <c r="BE24" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF24" s="106" t="s">
+        <v>160</v>
       </c>
       <c r="BG24" s="30"/>
       <c r="BH24" s="30"/>
       <c r="BI24" s="30"/>
       <c r="BJ24" s="30"/>
-      <c r="BK24" s="47">
+      <c r="BK24" s="49">
         <v>1.94</v>
       </c>
-      <c r="BL24" s="44">
-        <f t="shared" ref="BL24:BL30" si="4">BK24/AU24</f>
+      <c r="BL24" s="46">
+        <f t="shared" ref="BL24:BL31" si="4">BK24/AU24</f>
         <v>1.01517530088959</v>
       </c>
-      <c r="BM24" s="107" t="s">
-        <v>159</v>
+      <c r="BM24" s="110" t="s">
+        <v>161</v>
       </c>
       <c r="BN24" s="30"/>
     </row>
     <row r="25" ht="87" spans="1:66">
       <c r="A25" s="23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B25" s="25">
         <v>600741</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="49">
+        <v>164</v>
+      </c>
+      <c r="E25" s="51">
         <v>0.6522</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="49">
         <v>1.491</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="50">
         <v>8.5349</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="50">
         <v>1.0918</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="50">
         <v>0.5152</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="48">
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="50">
         <v>0.1233</v>
       </c>
-      <c r="Z25" s="48">
+      <c r="Z25" s="50">
         <v>0.2301</v>
       </c>
-      <c r="AA25" s="48">
+      <c r="AA25" s="50">
         <v>0.112</v>
       </c>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="75"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="46"/>
-      <c r="AJ25" s="46"/>
-      <c r="AK25" s="46"/>
-      <c r="AL25" s="46"/>
-      <c r="AM25" s="75"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="71"/>
-      <c r="AQ25" s="85">
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="77"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="73"/>
+      <c r="AQ25" s="87">
         <v>35303</v>
       </c>
-      <c r="AR25" s="75"/>
-      <c r="AS25" s="91"/>
-      <c r="AT25" s="91"/>
-      <c r="AU25" s="91">
+      <c r="AR25" s="77"/>
+      <c r="AS25" s="93"/>
+      <c r="AT25" s="93"/>
+      <c r="AU25" s="93">
         <v>31.53</v>
       </c>
-      <c r="AV25" s="91">
+      <c r="AV25" s="93">
         <v>31.53</v>
       </c>
-      <c r="AW25" s="91"/>
-      <c r="AX25" s="98"/>
-      <c r="AY25" s="98"/>
-      <c r="AZ25" s="98"/>
-      <c r="BA25" s="98"/>
-      <c r="BB25" s="98"/>
+      <c r="AW25" s="93"/>
+      <c r="AX25" s="100"/>
+      <c r="AY25" s="100"/>
+      <c r="AZ25" s="100"/>
+      <c r="BA25" s="100"/>
+      <c r="BB25" s="100"/>
       <c r="BC25" s="30"/>
-      <c r="BD25" s="103">
+      <c r="BD25" s="105">
         <v>102</v>
       </c>
-      <c r="BE25" s="105" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF25" s="105" t="s">
-        <v>164</v>
+      <c r="BE25" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF25" s="107" t="s">
+        <v>166</v>
       </c>
       <c r="BG25" s="30"/>
       <c r="BH25" s="30"/>
       <c r="BI25" s="30"/>
       <c r="BJ25" s="30"/>
-      <c r="BK25" s="47">
+      <c r="BK25" s="49">
         <v>47.02</v>
       </c>
-      <c r="BL25" s="44">
+      <c r="BL25" s="46">
         <f t="shared" si="4"/>
         <v>1.49127814779575</v>
       </c>
-      <c r="BM25" s="105" t="s">
-        <v>165</v>
+      <c r="BM25" s="107" t="s">
+        <v>167</v>
       </c>
       <c r="BN25" s="30"/>
     </row>
     <row r="26" ht="87" spans="1:66">
       <c r="A26" s="23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B26" s="25">
         <v>605098</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="51">
+        <v>170</v>
+      </c>
+      <c r="E26" s="53">
         <v>44.68</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="49">
         <v>1.46</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="50">
         <v>1.5</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="50">
         <v>0.7302</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="50">
         <v>0.6044</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="48">
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="50">
         <v>0.8524</v>
       </c>
-      <c r="Z26" s="48">
+      <c r="Z26" s="50">
         <v>1.0547</v>
       </c>
-      <c r="AA26" s="48">
+      <c r="AA26" s="50">
         <v>0.5216</v>
       </c>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="75"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="75"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="65"/>
-      <c r="AP26" s="71"/>
-      <c r="AQ26" s="86">
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="77"/>
+      <c r="AN26" s="67"/>
+      <c r="AO26" s="67"/>
+      <c r="AP26" s="73"/>
+      <c r="AQ26" s="88">
         <v>44307</v>
       </c>
-      <c r="AR26" s="75"/>
-      <c r="AS26" s="91"/>
-      <c r="AT26" s="91"/>
-      <c r="AU26" s="91">
+      <c r="AR26" s="77"/>
+      <c r="AS26" s="93"/>
+      <c r="AT26" s="93"/>
+      <c r="AU26" s="93">
         <v>0.8434</v>
       </c>
-      <c r="AV26" s="91">
+      <c r="AV26" s="93">
         <v>0.2109</v>
       </c>
-      <c r="AW26" s="91"/>
-      <c r="AX26" s="98"/>
-      <c r="AY26" s="98"/>
-      <c r="AZ26" s="98"/>
-      <c r="BA26" s="98"/>
-      <c r="BB26" s="98"/>
+      <c r="AW26" s="93"/>
+      <c r="AX26" s="100"/>
+      <c r="AY26" s="100"/>
+      <c r="AZ26" s="100"/>
+      <c r="BA26" s="100"/>
+      <c r="BB26" s="100"/>
       <c r="BC26" s="30"/>
       <c r="BD26" s="30">
         <v>9</v>
       </c>
-      <c r="BE26" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="BF26" s="104" t="s">
-        <v>170</v>
+      <c r="BE26" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF26" s="106" t="s">
+        <v>172</v>
       </c>
       <c r="BG26" s="30"/>
       <c r="BH26" s="30"/>
       <c r="BI26" s="30"/>
       <c r="BJ26" s="30"/>
-      <c r="BK26" s="47">
+      <c r="BK26" s="49">
         <v>1.09</v>
       </c>
-      <c r="BL26" s="44">
+      <c r="BL26" s="46">
         <f t="shared" si="4"/>
         <v>1.29238795352146</v>
       </c>
-      <c r="BM26" s="108" t="s">
-        <v>171</v>
+      <c r="BM26" s="111" t="s">
+        <v>173</v>
       </c>
       <c r="BN26" s="30"/>
     </row>
     <row r="27" ht="74" spans="1:66">
       <c r="A27" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="123" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="B27" s="125" t="s">
+        <v>175</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="46">
+        <v>177</v>
+      </c>
+      <c r="E27" s="48">
         <v>0.3583</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="49">
         <v>1.266</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="50">
         <v>2.5</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="50">
         <v>1.6364</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="50">
         <v>0.9009</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="48">
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="50">
         <v>0.2276</v>
       </c>
-      <c r="Z27" s="48">
+      <c r="Z27" s="50">
         <v>0.236</v>
       </c>
-      <c r="AA27" s="48">
+      <c r="AA27" s="50">
         <v>0.2152</v>
       </c>
-      <c r="AB27" s="75"/>
-      <c r="AC27" s="75"/>
-      <c r="AD27" s="75"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="46"/>
-      <c r="AL27" s="46"/>
-      <c r="AM27" s="75"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="71"/>
-      <c r="AQ27" s="85">
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="77"/>
+      <c r="AN27" s="67"/>
+      <c r="AO27" s="67"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="87">
         <v>34094</v>
       </c>
-      <c r="AR27" s="75"/>
-      <c r="AS27" s="91"/>
-      <c r="AT27" s="91"/>
-      <c r="AU27" s="91">
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="93"/>
+      <c r="AT27" s="93"/>
+      <c r="AU27" s="93">
         <v>19.22</v>
       </c>
-      <c r="AV27" s="91">
+      <c r="AV27" s="93">
         <v>5.938</v>
       </c>
-      <c r="AW27" s="91"/>
-      <c r="AX27" s="98"/>
-      <c r="AY27" s="98"/>
-      <c r="AZ27" s="98"/>
-      <c r="BA27" s="98"/>
-      <c r="BB27" s="98"/>
+      <c r="AW27" s="93"/>
+      <c r="AX27" s="100"/>
+      <c r="AY27" s="100"/>
+      <c r="AZ27" s="100"/>
+      <c r="BA27" s="100"/>
+      <c r="BB27" s="100"/>
       <c r="BC27" s="30"/>
       <c r="BD27" s="30">
         <v>5</v>
       </c>
-      <c r="BE27" s="105" t="s">
-        <v>176</v>
-      </c>
-      <c r="BF27" s="105" t="s">
-        <v>177</v>
+      <c r="BE27" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF27" s="107" t="s">
+        <v>179</v>
       </c>
       <c r="BG27" s="30"/>
       <c r="BH27" s="30"/>
       <c r="BI27" s="30"/>
       <c r="BJ27" s="30"/>
-      <c r="BK27" s="47">
+      <c r="BK27" s="49">
         <v>24.34</v>
       </c>
-      <c r="BL27" s="44">
+      <c r="BL27" s="46">
         <f t="shared" si="4"/>
         <v>1.26638917793965</v>
       </c>
-      <c r="BM27" s="105" t="s">
-        <v>178</v>
+      <c r="BM27" s="107" t="s">
+        <v>180</v>
       </c>
       <c r="BN27" s="30"/>
     </row>
     <row r="28" ht="88" spans="1:66">
       <c r="A28" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="123" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="B28" s="125" t="s">
+        <v>182</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="48">
         <v>0.321</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="49">
         <v>1.361</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="50">
         <v>0.2004</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="50">
         <v>-0.1339</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="50">
         <v>-0.0966</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="48">
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="50">
         <v>-0.2433</v>
       </c>
-      <c r="Z28" s="48">
+      <c r="Z28" s="50">
         <v>-0.2609</v>
       </c>
-      <c r="AA28" s="48">
+      <c r="AA28" s="50">
         <v>-0.0922</v>
       </c>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="75"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="71"/>
-      <c r="AQ28" s="85">
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="67"/>
+      <c r="AO28" s="67"/>
+      <c r="AP28" s="73"/>
+      <c r="AQ28" s="87">
         <v>39556</v>
       </c>
-      <c r="AR28" s="75"/>
-      <c r="AS28" s="91"/>
-      <c r="AT28" s="91"/>
-      <c r="AU28" s="91">
+      <c r="AR28" s="77"/>
+      <c r="AS28" s="93"/>
+      <c r="AT28" s="93"/>
+      <c r="AU28" s="93">
         <v>10.02</v>
       </c>
-      <c r="AV28" s="91">
+      <c r="AV28" s="93">
         <v>9.444</v>
       </c>
-      <c r="AW28" s="91"/>
-      <c r="AX28" s="98"/>
-      <c r="AY28" s="98"/>
-      <c r="AZ28" s="98"/>
-      <c r="BA28" s="98"/>
-      <c r="BB28" s="98"/>
+      <c r="AW28" s="93"/>
+      <c r="AX28" s="100"/>
+      <c r="AY28" s="100"/>
+      <c r="AZ28" s="100"/>
+      <c r="BA28" s="100"/>
+      <c r="BB28" s="100"/>
       <c r="BC28" s="30"/>
-      <c r="BD28" s="103">
+      <c r="BD28" s="105">
         <v>33</v>
       </c>
-      <c r="BE28" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="BF28" s="105" t="s">
-        <v>183</v>
+      <c r="BE28" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF28" s="107" t="s">
+        <v>185</v>
       </c>
       <c r="BG28" s="30"/>
       <c r="BH28" s="30"/>
       <c r="BI28" s="30"/>
       <c r="BJ28" s="30"/>
-      <c r="BK28" s="47">
+      <c r="BK28" s="49">
         <v>13.52</v>
       </c>
-      <c r="BL28" s="44">
+      <c r="BL28" s="46">
         <f t="shared" si="4"/>
         <v>1.34930139720559</v>
       </c>
-      <c r="BM28" s="105" t="s">
-        <v>184</v>
+      <c r="BM28" s="107" t="s">
+        <v>186</v>
       </c>
       <c r="BN28" s="30"/>
     </row>
     <row r="29" ht="88" spans="1:66">
       <c r="A29" s="23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B29" s="25">
         <v>603380</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="46">
+        <v>189</v>
+      </c>
+      <c r="E29" s="48">
         <v>0.367</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="49">
         <v>1.06</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="50">
         <v>1.7</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="50">
         <v>0.4565</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="50">
         <v>0.4324</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="50">
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="52">
         <v>0.2269</v>
       </c>
-      <c r="Z29" s="50">
+      <c r="Z29" s="52">
         <v>0.2503</v>
       </c>
-      <c r="AA29" s="50">
+      <c r="AA29" s="52">
         <v>0.2652</v>
       </c>
-      <c r="AB29" s="75"/>
-      <c r="AC29" s="75"/>
-      <c r="AD29" s="75"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="46"/>
-      <c r="AL29" s="46"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="71"/>
-      <c r="AQ29" s="86">
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="77"/>
+      <c r="AN29" s="67"/>
+      <c r="AO29" s="67"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="88">
         <v>42908</v>
       </c>
-      <c r="AR29" s="75"/>
-      <c r="AS29" s="91"/>
-      <c r="AT29" s="91"/>
-      <c r="AU29" s="91">
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="93"/>
+      <c r="AT29" s="93"/>
+      <c r="AU29" s="93">
         <v>1.613</v>
       </c>
-      <c r="AV29" s="91">
+      <c r="AV29" s="93">
         <v>1.6</v>
       </c>
-      <c r="AW29" s="91"/>
-      <c r="AX29" s="98"/>
-      <c r="AY29" s="98"/>
-      <c r="AZ29" s="98"/>
-      <c r="BA29" s="98"/>
-      <c r="BB29" s="98"/>
+      <c r="AW29" s="93"/>
+      <c r="AX29" s="100"/>
+      <c r="AY29" s="100"/>
+      <c r="AZ29" s="100"/>
+      <c r="BA29" s="100"/>
+      <c r="BB29" s="100"/>
       <c r="BC29" s="30"/>
       <c r="BD29" s="30">
         <v>7</v>
       </c>
-      <c r="BE29" s="105" t="s">
-        <v>188</v>
-      </c>
-      <c r="BF29" s="104" t="s">
-        <v>189</v>
+      <c r="BE29" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF29" s="106" t="s">
+        <v>191</v>
       </c>
       <c r="BG29" s="30"/>
       <c r="BH29" s="30"/>
       <c r="BI29" s="30"/>
       <c r="BJ29" s="30"/>
-      <c r="BK29" s="47">
+      <c r="BK29" s="49">
         <v>1.7</v>
       </c>
-      <c r="BL29" s="44">
+      <c r="BL29" s="46">
         <f t="shared" si="4"/>
         <v>1.05393676379417</v>
       </c>
-      <c r="BM29" s="107" t="s">
-        <v>190</v>
+      <c r="BM29" s="110" t="s">
+        <v>192</v>
       </c>
       <c r="BN29" s="30"/>
     </row>
     <row r="30" ht="87" spans="1:66">
       <c r="A30" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B30" s="25">
         <v>601088</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" s="46">
+        <v>195</v>
+      </c>
+      <c r="E30" s="48">
         <v>0.256</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="49">
         <v>2.051</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="50">
         <v>0.1846</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="50">
         <v>0.2608</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="50">
         <v>0.2158</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="48">
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="50">
         <v>0.3426</v>
       </c>
-      <c r="Z30" s="50">
+      <c r="Z30" s="52">
         <v>0.312</v>
       </c>
-      <c r="AA30" s="50">
+      <c r="AA30" s="52">
         <v>0.4656</v>
       </c>
-      <c r="AB30" s="75"/>
-      <c r="AC30" s="75"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="46"/>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="75"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="71"/>
-      <c r="AQ30" s="85">
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="48"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="48"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="77"/>
+      <c r="AN30" s="67"/>
+      <c r="AO30" s="67"/>
+      <c r="AP30" s="73"/>
+      <c r="AQ30" s="87">
         <v>39364</v>
       </c>
-      <c r="AR30" s="75"/>
-      <c r="AS30" s="91"/>
-      <c r="AT30" s="91"/>
-      <c r="AU30" s="91">
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="93"/>
+      <c r="AT30" s="93"/>
+      <c r="AU30" s="93">
         <v>198.7</v>
       </c>
-      <c r="AV30" s="91">
+      <c r="AV30" s="93">
         <v>164.9</v>
       </c>
-      <c r="AW30" s="91"/>
-      <c r="AX30" s="98"/>
-      <c r="AY30" s="98"/>
-      <c r="AZ30" s="98"/>
-      <c r="BA30" s="98"/>
-      <c r="BB30" s="98"/>
+      <c r="AW30" s="93"/>
+      <c r="AX30" s="100"/>
+      <c r="AY30" s="100"/>
+      <c r="AZ30" s="100"/>
+      <c r="BA30" s="100"/>
+      <c r="BB30" s="100"/>
       <c r="BC30" s="30"/>
       <c r="BD30" s="30">
         <v>141</v>
       </c>
-      <c r="BE30" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="BF30" s="105" t="s">
-        <v>195</v>
+      <c r="BE30" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF30" s="107" t="s">
+        <v>197</v>
       </c>
       <c r="BG30" s="30"/>
       <c r="BH30" s="30"/>
       <c r="BI30" s="30"/>
       <c r="BJ30" s="30"/>
-      <c r="BK30" s="47">
+      <c r="BK30" s="49">
         <v>407.51</v>
       </c>
-      <c r="BL30" s="44">
+      <c r="BL30" s="46">
         <f t="shared" si="4"/>
         <v>2.05088072471062</v>
       </c>
-      <c r="BM30" s="105" t="s">
-        <v>196</v>
+      <c r="BM30" s="107" t="s">
+        <v>198</v>
       </c>
       <c r="BN30" s="30"/>
     </row>
-    <row r="31" spans="1:66">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="75"/>
-      <c r="AC31" s="75"/>
-      <c r="AD31" s="75"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="46"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="46"/>
-      <c r="AL31" s="46"/>
-      <c r="AM31" s="75"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="71"/>
-      <c r="AQ31" s="85"/>
-      <c r="AR31" s="75"/>
-      <c r="AS31" s="91"/>
-      <c r="AT31" s="91"/>
-      <c r="AU31" s="91"/>
-      <c r="AV31" s="91"/>
-      <c r="AW31" s="91"/>
-      <c r="AX31" s="98"/>
-      <c r="AY31" s="98"/>
-      <c r="AZ31" s="98"/>
-      <c r="BA31" s="98"/>
-      <c r="BB31" s="98"/>
+    <row r="31" ht="87" spans="1:66">
+      <c r="A31" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="31">
+        <v>603871</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="48">
+        <v>0.4022</v>
+      </c>
+      <c r="F31" s="49">
+        <v>0.783</v>
+      </c>
+      <c r="G31" s="50">
+        <v>0.7291</v>
+      </c>
+      <c r="H31" s="50">
+        <v>0.0182</v>
+      </c>
+      <c r="I31" s="50">
+        <v>-0.1214</v>
+      </c>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="50">
+        <v>-0.0621</v>
+      </c>
+      <c r="Z31" s="50">
+        <v>-0.0487</v>
+      </c>
+      <c r="AA31" s="50">
+        <v>-0.0326</v>
+      </c>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="48"/>
+      <c r="AL31" s="48"/>
+      <c r="AM31" s="77"/>
+      <c r="AN31" s="67"/>
+      <c r="AO31" s="67"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="87">
+        <v>43137</v>
+      </c>
+      <c r="AR31" s="77"/>
+      <c r="AS31" s="93"/>
+      <c r="AT31" s="93"/>
+      <c r="AU31" s="93">
+        <v>3.17</v>
+      </c>
+      <c r="AV31" s="93">
+        <v>2.854</v>
+      </c>
+      <c r="AW31" s="93"/>
+      <c r="AX31" s="100"/>
+      <c r="AY31" s="100"/>
+      <c r="AZ31" s="100"/>
+      <c r="BA31" s="100"/>
+      <c r="BB31" s="100"/>
       <c r="BC31" s="30"/>
-      <c r="BD31" s="30"/>
-      <c r="BE31" s="30"/>
-      <c r="BF31" s="30"/>
-      <c r="BG31" s="30"/>
+      <c r="BD31" s="30">
+        <v>2</v>
+      </c>
+      <c r="BE31" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF31" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG31" s="108" t="s">
+        <v>203</v>
+      </c>
       <c r="BH31" s="30"/>
       <c r="BI31" s="30"/>
       <c r="BJ31" s="30"/>
-      <c r="BK31" s="47"/>
-      <c r="BL31" s="75"/>
-      <c r="BM31" s="30"/>
+      <c r="BK31" s="49">
+        <v>2.48</v>
+      </c>
+      <c r="BL31" s="46">
+        <f t="shared" si="4"/>
+        <v>0.782334384858044</v>
+      </c>
+      <c r="BM31" s="110" t="s">
+        <v>204</v>
+      </c>
       <c r="BN31" s="30"/>
     </row>
-    <row r="32" spans="1:66">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="46"/>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="46"/>
-      <c r="AL32" s="46"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="65"/>
-      <c r="AP32" s="71"/>
-      <c r="AQ32" s="85"/>
-      <c r="AR32" s="75"/>
-      <c r="AS32" s="91"/>
-      <c r="AT32" s="91"/>
-      <c r="AU32" s="91"/>
-      <c r="AV32" s="91"/>
-      <c r="AW32" s="91"/>
-      <c r="AX32" s="98"/>
-      <c r="AY32" s="98"/>
-      <c r="AZ32" s="98"/>
-      <c r="BA32" s="98"/>
-      <c r="BB32" s="98"/>
+    <row r="32" ht="73" spans="1:66">
+      <c r="A32" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="48">
+        <v>0.0754</v>
+      </c>
+      <c r="F32" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="G32" s="50">
+        <v>0.5882</v>
+      </c>
+      <c r="H32" s="50">
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="50">
+        <v>-0.0659</v>
+      </c>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="50">
+        <v>-0.2871</v>
+      </c>
+      <c r="Z32" s="50">
+        <v>-0.3099</v>
+      </c>
+      <c r="AA32" s="50">
+        <v>-0.2584</v>
+      </c>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="48"/>
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="48"/>
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="48"/>
+      <c r="AM32" s="77"/>
+      <c r="AN32" s="67"/>
+      <c r="AO32" s="67"/>
+      <c r="AP32" s="73"/>
+      <c r="AQ32" s="87">
+        <v>36396</v>
+      </c>
+      <c r="AR32" s="77"/>
+      <c r="AS32" s="93"/>
+      <c r="AT32" s="93"/>
+      <c r="AU32" s="93">
+        <v>7.634</v>
+      </c>
+      <c r="AV32" s="93">
+        <v>7.634</v>
+      </c>
+      <c r="AW32" s="93"/>
+      <c r="AX32" s="100"/>
+      <c r="AY32" s="100"/>
+      <c r="AZ32" s="100"/>
+      <c r="BA32" s="100"/>
+      <c r="BB32" s="100"/>
       <c r="BC32" s="30"/>
-      <c r="BD32" s="30"/>
-      <c r="BE32" s="30"/>
-      <c r="BF32" s="30"/>
+      <c r="BD32" s="30">
+        <v>10</v>
+      </c>
+      <c r="BE32" s="107" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF32" s="106" t="s">
+        <v>209</v>
+      </c>
       <c r="BG32" s="30"/>
       <c r="BH32" s="30"/>
       <c r="BI32" s="30"/>
       <c r="BJ32" s="30"/>
-      <c r="BK32" s="47"/>
-      <c r="BL32" s="75"/>
-      <c r="BM32" s="30"/>
+      <c r="BK32" s="49">
+        <v>6.5</v>
+      </c>
+      <c r="BL32" s="46">
+        <f>BK32/AU32</f>
+        <v>0.85145402148284</v>
+      </c>
+      <c r="BM32" s="111" t="s">
+        <v>210</v>
+      </c>
       <c r="BN32" s="30"/>
     </row>
     <row r="33" spans="1:66">
@@ -10924,56 +11326,56 @@
       <c r="B33" s="30"/>
       <c r="C33" s="29"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="46"/>
-      <c r="AM33" s="75"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="71"/>
-      <c r="AQ33" s="85"/>
-      <c r="AR33" s="75"/>
-      <c r="AS33" s="91"/>
-      <c r="AT33" s="91"/>
-      <c r="AU33" s="91"/>
-      <c r="AV33" s="91"/>
-      <c r="AW33" s="91"/>
-      <c r="AX33" s="98"/>
-      <c r="AY33" s="98"/>
-      <c r="AZ33" s="98"/>
-      <c r="BA33" s="98"/>
-      <c r="BB33" s="98"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="77"/>
+      <c r="AE33" s="48"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="48"/>
+      <c r="AH33" s="48"/>
+      <c r="AI33" s="48"/>
+      <c r="AJ33" s="48"/>
+      <c r="AK33" s="48"/>
+      <c r="AL33" s="48"/>
+      <c r="AM33" s="77"/>
+      <c r="AN33" s="67"/>
+      <c r="AO33" s="67"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="87"/>
+      <c r="AR33" s="77"/>
+      <c r="AS33" s="93"/>
+      <c r="AT33" s="93"/>
+      <c r="AU33" s="93"/>
+      <c r="AV33" s="93"/>
+      <c r="AW33" s="93"/>
+      <c r="AX33" s="100"/>
+      <c r="AY33" s="100"/>
+      <c r="AZ33" s="100"/>
+      <c r="BA33" s="100"/>
+      <c r="BB33" s="100"/>
       <c r="BC33" s="30"/>
       <c r="BD33" s="30"/>
       <c r="BE33" s="30"/>
@@ -10982,8 +11384,8 @@
       <c r="BH33" s="30"/>
       <c r="BI33" s="30"/>
       <c r="BJ33" s="30"/>
-      <c r="BK33" s="47"/>
-      <c r="BL33" s="75"/>
+      <c r="BK33" s="49"/>
+      <c r="BL33" s="77"/>
       <c r="BM33" s="30"/>
       <c r="BN33" s="30"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/分析结果汇总.xlsx
@@ -858,6 +858,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>持续增加</t>
     </r>
     <r>
@@ -1741,6 +1746,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜进场</t>
     </r>
     <r>
@@ -1932,6 +1942,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>持续增加</t>
     </r>
     <r>
@@ -1994,6 +2009,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>适度进场</t>
     </r>
     <r>
@@ -3071,6 +3091,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先变多再变少</t>
     </r>
     <r>
@@ -3101,6 +3126,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先增加后减少</t>
     </r>
     <r>
@@ -3179,6 +3209,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先变多再变少</t>
     </r>
     <r>
@@ -3209,6 +3244,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>持续增加</t>
     </r>
     <r>
@@ -3255,6 +3295,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>适度进场</t>
     </r>
     <r>
@@ -3281,14 +3326,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -3383,7 +3428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3396,10 +3441,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3412,7 +3457,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3434,18 +3486,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3454,14 +3499,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3481,6 +3518,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -3488,24 +3533,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3528,6 +3565,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3596,13 +3641,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3614,7 +3713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3632,7 +3737,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3644,13 +3761,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3662,43 +3797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3710,61 +3809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3815,8 +3860,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3824,8 +3869,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3854,21 +3899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3884,13 +3914,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3909,155 +3943,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4072,14 +4117,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4087,14 +4132,14 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4125,214 +4170,208 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4402,9 +4441,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6246,1108 +6282,1108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113">
+      <c r="C1" s="111">
         <f>COUNTIF(A:A,B1)</f>
         <v>2</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="121"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="113">
+      <c r="C2" s="111">
         <f>COUNTIF(A:A,B2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="121"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="113">
+      <c r="C3" s="111">
         <f>COUNTIF(A:A,B3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="111">
         <f>COUNTIF(A:A,B4)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="111">
         <f>COUNTIF(A:A,B5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="121"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="111">
         <f>COUNTIF(A:A,B6)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="111">
         <f>COUNTIF(A:A,B7)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="111">
         <f>COUNTIF(A:A,B8)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="119"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="111">
         <f>COUNTIF(A:A,B9)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="111">
         <f>COUNTIF(A:A,B10)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="119"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="111">
         <f>COUNTIF(A:A,B11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="119"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="111">
         <f>COUNTIF(A:A,B12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="119"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="113">
+      <c r="B13" s="113"/>
+      <c r="C13" s="111">
         <f>COUNTIF(A:A,B13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="119"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="30"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="119"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="116"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="116"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="116"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="121"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="121"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="121"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="119"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="116"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="121"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="119"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="116"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="121"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="121"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="119"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="121"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="119"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="119"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="116"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="121"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="119"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="116"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="116"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="116"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="116"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="116"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="116"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="116"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="116"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="116"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="116"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="116"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="116"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="116"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="116"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="119"/>
+      <c r="I48" s="119"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="116"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="120"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121"/>
+      <c r="A49" s="114"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="119"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="116"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="121"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="116"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="121"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="116"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="119"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="116"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="116"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="121"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="119"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="116"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="121"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="119"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="116"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="121"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="119"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="116"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="121"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="119"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="116"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="116"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="121"/>
-      <c r="I59" s="121"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="119"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="116"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="121"/>
-      <c r="I60" s="121"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="116"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="121"/>
-      <c r="I61" s="121"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="116"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="120"/>
-      <c r="H62" s="121"/>
-      <c r="I62" s="121"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="119"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="116"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="120"/>
-      <c r="H63" s="121"/>
-      <c r="I63" s="121"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="119"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="116"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="114"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="120"/>
-      <c r="H64" s="121"/>
-      <c r="I64" s="121"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="118"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="116"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="120"/>
-      <c r="H65" s="121"/>
-      <c r="I65" s="121"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="119"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="116"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="121"/>
-      <c r="I66" s="121"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="119"/>
+      <c r="I66" s="119"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="116"/>
-      <c r="B67" s="116"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="116"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="121"/>
-      <c r="I67" s="121"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="119"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="116"/>
-      <c r="B68" s="116"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="116"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
+      <c r="A68" s="114"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="118"/>
+      <c r="H68" s="119"/>
+      <c r="I68" s="119"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="116"/>
-      <c r="B69" s="116"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="116"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="121"/>
-      <c r="I69" s="121"/>
+      <c r="A69" s="114"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="119"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="116"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="116"/>
-      <c r="G70" s="120"/>
-      <c r="H70" s="121"/>
-      <c r="I70" s="121"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="119"/>
+      <c r="I70" s="119"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="116"/>
-      <c r="B71" s="116"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="116"/>
-      <c r="G71" s="120"/>
-      <c r="H71" s="121"/>
-      <c r="I71" s="121"/>
+      <c r="A71" s="114"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="118"/>
+      <c r="H71" s="119"/>
+      <c r="I71" s="119"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="116"/>
-      <c r="B72" s="116"/>
-      <c r="C72" s="114"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="116"/>
-      <c r="G72" s="120"/>
-      <c r="H72" s="121"/>
-      <c r="I72" s="121"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="112"/>
+      <c r="D72" s="112"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="118"/>
+      <c r="H72" s="119"/>
+      <c r="I72" s="119"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="116"/>
-      <c r="B73" s="116"/>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="120"/>
-      <c r="H73" s="121"/>
-      <c r="I73" s="121"/>
+      <c r="A73" s="114"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="112"/>
+      <c r="E73" s="112"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="118"/>
+      <c r="H73" s="119"/>
+      <c r="I73" s="119"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="116"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="114"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="116"/>
-      <c r="G74" s="120"/>
-      <c r="H74" s="121"/>
-      <c r="I74" s="121"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="118"/>
+      <c r="H74" s="119"/>
+      <c r="I74" s="119"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="116"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="116"/>
-      <c r="G75" s="120"/>
-      <c r="H75" s="121"/>
-      <c r="I75" s="121"/>
+      <c r="A75" s="114"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="112"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="114"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="119"/>
+      <c r="I75" s="119"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="116"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="114"/>
-      <c r="D76" s="114"/>
-      <c r="E76" s="114"/>
-      <c r="F76" s="116"/>
-      <c r="G76" s="120"/>
-      <c r="H76" s="121"/>
-      <c r="I76" s="121"/>
+      <c r="A76" s="114"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="118"/>
+      <c r="H76" s="119"/>
+      <c r="I76" s="119"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="116"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="114"/>
-      <c r="D77" s="114"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="116"/>
-      <c r="G77" s="120"/>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121"/>
+      <c r="A77" s="114"/>
+      <c r="B77" s="114"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="119"/>
+      <c r="I77" s="119"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="116"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="114"/>
-      <c r="D78" s="114"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="116"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="121"/>
-      <c r="I78" s="121"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="114"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="112"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="119"/>
+      <c r="I78" s="119"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="116"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="114"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="116"/>
-      <c r="G79" s="120"/>
-      <c r="H79" s="121"/>
-      <c r="I79" s="121"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="114"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="112"/>
+      <c r="E79" s="112"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="118"/>
+      <c r="H79" s="119"/>
+      <c r="I79" s="119"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="116"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="114"/>
-      <c r="D80" s="114"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="116"/>
-      <c r="G80" s="120"/>
-      <c r="H80" s="121"/>
-      <c r="I80" s="121"/>
+      <c r="A80" s="114"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="112"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="118"/>
+      <c r="H80" s="119"/>
+      <c r="I80" s="119"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="116"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="114"/>
-      <c r="D81" s="114"/>
-      <c r="E81" s="114"/>
-      <c r="F81" s="116"/>
-      <c r="G81" s="120"/>
-      <c r="H81" s="121"/>
-      <c r="I81" s="121"/>
+      <c r="A81" s="114"/>
+      <c r="B81" s="114"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="112"/>
+      <c r="E81" s="112"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="118"/>
+      <c r="H81" s="119"/>
+      <c r="I81" s="119"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="116"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="116"/>
-      <c r="G82" s="120"/>
-      <c r="H82" s="121"/>
-      <c r="I82" s="121"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="112"/>
+      <c r="E82" s="112"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="118"/>
+      <c r="H82" s="119"/>
+      <c r="I82" s="119"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="116"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="116"/>
-      <c r="G83" s="120"/>
-      <c r="H83" s="121"/>
-      <c r="I83" s="121"/>
+      <c r="A83" s="114"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="118"/>
+      <c r="H83" s="119"/>
+      <c r="I83" s="119"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="116"/>
-      <c r="B84" s="116"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="116"/>
-      <c r="G84" s="120"/>
-      <c r="H84" s="121"/>
-      <c r="I84" s="121"/>
+      <c r="A84" s="114"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="112"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="119"/>
+      <c r="I84" s="119"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="116"/>
-      <c r="B85" s="116"/>
-      <c r="C85" s="114"/>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="116"/>
-      <c r="G85" s="120"/>
-      <c r="H85" s="121"/>
-      <c r="I85" s="121"/>
+      <c r="A85" s="114"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="112"/>
+      <c r="E85" s="112"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="118"/>
+      <c r="H85" s="119"/>
+      <c r="I85" s="119"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="116"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="116"/>
-      <c r="G86" s="120"/>
-      <c r="H86" s="121"/>
-      <c r="I86" s="121"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="114"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="118"/>
+      <c r="H86" s="119"/>
+      <c r="I86" s="119"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="116"/>
-      <c r="B87" s="116"/>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="116"/>
-      <c r="G87" s="120"/>
-      <c r="H87" s="121"/>
-      <c r="I87" s="121"/>
+      <c r="A87" s="114"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="118"/>
+      <c r="H87" s="119"/>
+      <c r="I87" s="119"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="116"/>
-      <c r="B88" s="116"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="116"/>
-      <c r="G88" s="120"/>
-      <c r="H88" s="121"/>
-      <c r="I88" s="121"/>
+      <c r="A88" s="114"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="114"/>
+      <c r="G88" s="118"/>
+      <c r="H88" s="119"/>
+      <c r="I88" s="119"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="116"/>
-      <c r="B89" s="116"/>
-      <c r="C89" s="114"/>
-      <c r="D89" s="114"/>
-      <c r="E89" s="114"/>
-      <c r="F89" s="116"/>
-      <c r="G89" s="120"/>
-      <c r="H89" s="121"/>
-      <c r="I89" s="121"/>
+      <c r="A89" s="114"/>
+      <c r="B89" s="114"/>
+      <c r="C89" s="112"/>
+      <c r="D89" s="112"/>
+      <c r="E89" s="112"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="118"/>
+      <c r="H89" s="119"/>
+      <c r="I89" s="119"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="116"/>
-      <c r="B90" s="116"/>
-      <c r="C90" s="114"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="116"/>
-      <c r="G90" s="120"/>
-      <c r="H90" s="121"/>
-      <c r="I90" s="121"/>
+      <c r="A90" s="114"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="112"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="114"/>
+      <c r="G90" s="118"/>
+      <c r="H90" s="119"/>
+      <c r="I90" s="119"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="116"/>
-      <c r="B91" s="116"/>
-      <c r="C91" s="114"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="114"/>
-      <c r="F91" s="116"/>
-      <c r="G91" s="120"/>
-      <c r="H91" s="121"/>
-      <c r="I91" s="121"/>
+      <c r="A91" s="114"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="112"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="114"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="119"/>
+      <c r="I91" s="119"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="116"/>
-      <c r="B92" s="116"/>
-      <c r="C92" s="114"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="114"/>
-      <c r="F92" s="116"/>
-      <c r="G92" s="120"/>
-      <c r="H92" s="121"/>
-      <c r="I92" s="121"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="114"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="112"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="114"/>
+      <c r="G92" s="118"/>
+      <c r="H92" s="119"/>
+      <c r="I92" s="119"/>
     </row>
   </sheetData>
   <sortState ref="B1:C92">
@@ -7365,11 +7401,11 @@
   <dimension ref="A1:BQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BE29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BL31" sqref="BL31"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -7447,82 +7483,82 @@
       <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="74" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="83" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="89" t="s">
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="89"/>
-      <c r="BA1" s="89"/>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="89"/>
-      <c r="BI1" s="89"/>
-      <c r="BJ1" s="89"/>
-      <c r="BK1" s="54" t="s">
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="87"/>
+      <c r="BB1" s="87"/>
+      <c r="BC1" s="87"/>
+      <c r="BD1" s="87"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="87"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
+      <c r="BK1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="109"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="107"/>
       <c r="BO1" s="4"/>
       <c r="BP1" s="4"/>
       <c r="BQ1" s="4"/>
@@ -7532,72 +7568,72 @@
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="21"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="36" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="54" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="36" t="s">
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="75" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="90" t="s">
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="90" t="s">
+      <c r="AV2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="AW2" s="94" t="s">
+      <c r="AW2" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="95" t="s">
+      <c r="AX2" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="AY2" s="96"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="96"/>
-      <c r="BB2" s="96"/>
+      <c r="AY2" s="94"/>
+      <c r="AZ2" s="94"/>
+      <c r="BA2" s="94"/>
+      <c r="BB2" s="94"/>
       <c r="BC2" s="21"/>
       <c r="BD2" s="21" t="s">
         <v>31</v>
@@ -7608,8 +7644,8 @@
       <c r="BH2" s="21"/>
       <c r="BI2" s="21"/>
       <c r="BJ2" s="21"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="33"/>
       <c r="BM2" s="21" t="s">
         <v>32</v>
       </c>
@@ -7620,159 +7656,159 @@
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="37" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="55" t="s">
+      <c r="R3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="55" t="s">
+      <c r="S3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="55" t="s">
+      <c r="U3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="65" t="s">
+      <c r="V3" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="66" t="s">
+      <c r="W3" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="66" t="s">
+      <c r="X3" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="Y3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AA3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="76" t="s">
+      <c r="AB3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="74" t="s">
+      <c r="AD3" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="76" t="s">
+      <c r="AF3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="76" t="s">
+      <c r="AG3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="76" t="s">
+      <c r="AH3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="76" t="s">
+      <c r="AI3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="76" t="s">
+      <c r="AJ3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="76" t="s">
+      <c r="AK3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="76" t="s">
+      <c r="AL3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AM3" s="76" t="s">
+      <c r="AM3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="65" t="s">
+      <c r="AN3" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AO3" s="66" t="s">
+      <c r="AO3" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="AP3" s="66" t="s">
+      <c r="AP3" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="AQ3" s="83" t="s">
+      <c r="AQ3" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="AR3" s="75" t="s">
+      <c r="AR3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="AS3" s="90" t="s">
+      <c r="AS3" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="AT3" s="90" t="s">
+      <c r="AT3" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="35" t="s">
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AY3" s="35" t="s">
+      <c r="AY3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AZ3" s="54" t="s">
+      <c r="AZ3" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="BA3" s="96" t="s">
+      <c r="BA3" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="BB3" s="96" t="s">
+      <c r="BB3" s="94" t="s">
         <v>51</v>
       </c>
       <c r="BC3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="BD3" s="101" t="s">
+      <c r="BD3" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="BE3" s="101" t="s">
+      <c r="BE3" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="BF3" s="101" t="s">
+      <c r="BF3" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="BG3" s="101" t="s">
+      <c r="BG3" s="99" t="s">
         <v>56</v>
       </c>
       <c r="BH3" s="21" t="s">
@@ -7784,10 +7820,10 @@
       <c r="BJ3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BK3" s="34" t="s">
+      <c r="BK3" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="BL3" s="35" t="s">
+      <c r="BL3" s="33" t="s">
         <v>60</v>
       </c>
       <c r="BM3" s="21"/>
@@ -7797,7 +7833,7 @@
       <c r="A4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="120" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7806,182 +7842,182 @@
       <c r="D4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="36">
         <v>0.1612</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="37">
         <v>9.587</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="38">
         <v>164</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="38">
         <v>1.8698</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="38">
         <v>1.7958</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="55">
         <v>0.27</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="55">
         <v>0.78</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="55">
         <v>0.89</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="55">
         <v>1.08</v>
       </c>
-      <c r="N4" s="60">
+      <c r="N4" s="58">
         <v>0.24</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="59">
         <v>0.6</v>
       </c>
-      <c r="P4" s="61">
+      <c r="P4" s="59">
         <v>0.67</v>
       </c>
-      <c r="Q4" s="61">
+      <c r="Q4" s="59">
         <v>0.62</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="61">
         <v>0.03</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="61">
         <v>2.15</v>
       </c>
-      <c r="T4" s="63">
+      <c r="T4" s="61">
         <v>3.82</v>
       </c>
-      <c r="U4" s="63">
+      <c r="U4" s="61">
         <v>6.98</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="65">
         <f>((N4+O4+P4+Q4)/4-(J4+K4+L4+M4)/4)/((J4+K4+L4+M4)/4)</f>
         <v>-0.294701986754967</v>
       </c>
-      <c r="W4" s="67">
+      <c r="W4" s="65">
         <f t="shared" ref="W4:W10" si="0">((R4+S4+T4+U4)/4-(N4+O4+P4+Q4)/4)/((N4+O4+P4+Q4)/4)</f>
         <v>5.09389671361502</v>
       </c>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="40">
+      <c r="X4" s="66"/>
+      <c r="Y4" s="38">
         <v>13.2586</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="44">
         <v>1.8525</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4" s="44">
         <v>1.9614</v>
       </c>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77">
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75">
         <v>0.2277</v>
       </c>
-      <c r="AD4" s="77">
+      <c r="AD4" s="75">
         <v>0.1645</v>
       </c>
-      <c r="AE4" s="77">
+      <c r="AE4" s="75">
         <v>5.12</v>
       </c>
-      <c r="AF4" s="78">
+      <c r="AF4" s="76">
         <v>0.3989</v>
       </c>
-      <c r="AG4" s="78">
+      <c r="AG4" s="76">
         <v>0.0213</v>
       </c>
-      <c r="AH4" s="78">
+      <c r="AH4" s="76">
         <v>0.0803</v>
       </c>
-      <c r="AI4" s="78">
+      <c r="AI4" s="76">
         <v>0.1427</v>
       </c>
-      <c r="AJ4" s="78">
+      <c r="AJ4" s="76">
         <v>-0.0694</v>
       </c>
-      <c r="AK4" s="78">
+      <c r="AK4" s="76">
         <v>2.3883</v>
       </c>
-      <c r="AL4" s="78">
+      <c r="AL4" s="76">
         <v>2.8798</v>
       </c>
-      <c r="AM4" s="79">
+      <c r="AM4" s="77">
         <v>3.4657</v>
       </c>
-      <c r="AN4" s="80" t="s">
+      <c r="AN4" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AO4" s="84">
+      <c r="AO4" s="82">
         <f>(AF4+AG4+AH4+AI4)/4</f>
         <v>0.1608</v>
       </c>
-      <c r="AP4" s="71">
+      <c r="AP4" s="69">
         <f t="shared" ref="AP4:AP7" si="1">(AJ4+AK4+AL4+AM4)/4</f>
         <v>2.1661</v>
       </c>
-      <c r="AQ4" s="85">
+      <c r="AQ4" s="83">
         <v>43291</v>
       </c>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91">
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89">
         <v>1.049</v>
       </c>
-      <c r="AV4" s="91">
+      <c r="AV4" s="89">
         <v>0.6011</v>
       </c>
-      <c r="AW4" s="97">
+      <c r="AW4" s="95">
         <f>AV4*(1-0.33)</f>
         <v>0.402737</v>
       </c>
-      <c r="AX4" s="98">
+      <c r="AX4" s="96">
         <v>44.64</v>
       </c>
-      <c r="AY4" s="98">
+      <c r="AY4" s="96">
         <v>64.54</v>
       </c>
-      <c r="AZ4" s="98">
+      <c r="AZ4" s="96">
         <v>45.35</v>
       </c>
-      <c r="BA4" s="98">
+      <c r="BA4" s="96">
         <f>($AX4+$AY4+$AZ4)/(16+22+23)</f>
         <v>2.53327868852459</v>
       </c>
-      <c r="BB4" s="98">
+      <c r="BB4" s="96">
         <v>1.9962</v>
       </c>
-      <c r="BC4" s="102">
+      <c r="BC4" s="100">
         <f>BB4/BA4</f>
         <v>0.787990681421083</v>
       </c>
-      <c r="BD4" s="103">
+      <c r="BD4" s="101">
         <v>1</v>
       </c>
-      <c r="BE4" s="103" t="s">
+      <c r="BE4" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="BF4" s="106" t="s">
+      <c r="BF4" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="BG4" s="106" t="s">
+      <c r="BG4" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="BH4" s="103"/>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="103"/>
-      <c r="BK4" s="39">
+      <c r="BH4" s="101"/>
+      <c r="BI4" s="101"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="37">
         <v>10.35</v>
       </c>
-      <c r="BL4" s="46">
+      <c r="BL4" s="44">
         <f>BK4/AU4</f>
         <v>9.86653956148713</v>
       </c>
-      <c r="BM4" s="110" t="s">
+      <c r="BM4" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="BN4" s="103"/>
+      <c r="BN4" s="101"/>
     </row>
     <row r="5" ht="74" spans="1:66">
       <c r="A5" s="23" t="s">
@@ -7996,162 +8032,162 @@
       <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="39">
         <v>0.5204</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="40">
         <v>1.87</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="38">
         <v>1.087</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="38">
         <v>0.7941</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="38">
         <v>0.6696</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58">
+      <c r="J5" s="56"/>
+      <c r="K5" s="56">
         <v>0.8</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="56">
         <v>1.31</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="60">
         <v>1.91</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="60">
         <v>0.29</v>
       </c>
-      <c r="O5" s="62">
+      <c r="O5" s="60">
         <v>0.85</v>
       </c>
-      <c r="P5" s="62">
+      <c r="P5" s="60">
         <v>1.38</v>
       </c>
-      <c r="Q5" s="62">
+      <c r="Q5" s="60">
         <v>1.92</v>
       </c>
-      <c r="R5" s="62">
+      <c r="R5" s="60">
         <v>0.23</v>
       </c>
-      <c r="S5" s="62">
+      <c r="S5" s="60">
         <v>0.68</v>
       </c>
-      <c r="T5" s="62">
+      <c r="T5" s="60">
         <v>1.12</v>
       </c>
-      <c r="U5" s="69">
+      <c r="U5" s="67">
         <v>1.8</v>
       </c>
-      <c r="V5" s="70" t="s">
+      <c r="V5" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="67">
+      <c r="W5" s="65">
         <f t="shared" si="0"/>
         <v>-0.137387387387387</v>
       </c>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="40">
+      <c r="X5" s="66"/>
+      <c r="Y5" s="38">
         <v>1.0194</v>
       </c>
-      <c r="Z5" s="40">
+      <c r="Z5" s="38">
         <v>0.7661</v>
       </c>
-      <c r="AA5" s="40">
+      <c r="AA5" s="38">
         <v>0.6219</v>
       </c>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45">
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43">
         <v>-0.0412</v>
       </c>
-      <c r="AH5" s="45">
+      <c r="AH5" s="43">
         <v>-0.0395</v>
       </c>
-      <c r="AI5" s="45">
+      <c r="AI5" s="43">
         <v>-0.0053</v>
       </c>
-      <c r="AJ5" s="45">
+      <c r="AJ5" s="43">
         <v>-0.0058</v>
       </c>
-      <c r="AK5" s="45">
+      <c r="AK5" s="43">
         <v>0.1478</v>
       </c>
-      <c r="AL5" s="45">
+      <c r="AL5" s="43">
         <v>0.2092</v>
       </c>
-      <c r="AM5" s="78">
+      <c r="AM5" s="76">
         <v>0.2964</v>
       </c>
-      <c r="AN5" s="80" t="s">
+      <c r="AN5" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AO5" s="80" t="s">
+      <c r="AO5" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AP5" s="71">
+      <c r="AP5" s="69">
         <f t="shared" si="1"/>
         <v>0.1619</v>
       </c>
-      <c r="AQ5" s="85">
+      <c r="AQ5" s="83">
         <v>43823</v>
       </c>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92">
+      <c r="AR5" s="76"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90">
         <v>2.331</v>
       </c>
-      <c r="AV5" s="92">
+      <c r="AV5" s="90">
         <v>1.118</v>
       </c>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="99">
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="97">
         <v>25.37</v>
       </c>
-      <c r="AY5" s="99">
+      <c r="AY5" s="97">
         <v>48.76</v>
       </c>
-      <c r="AZ5" s="99">
+      <c r="AZ5" s="97">
         <v>37.72</v>
       </c>
-      <c r="BA5" s="98">
+      <c r="BA5" s="96">
         <f>($AX5+$AY5+$AZ5)/(16+22+23)</f>
         <v>1.83360655737705</v>
       </c>
-      <c r="BB5" s="99">
+      <c r="BB5" s="97">
         <v>1.8845</v>
       </c>
-      <c r="BC5" s="102">
+      <c r="BC5" s="100">
         <f>BB5/BA5</f>
         <v>1.02775592311131</v>
       </c>
-      <c r="BD5" s="104">
+      <c r="BD5" s="102">
         <v>21</v>
       </c>
-      <c r="BE5" s="103" t="s">
+      <c r="BE5" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="BF5" s="107" t="s">
+      <c r="BF5" s="105" t="s">
         <v>72</v>
       </c>
       <c r="BG5" s="29"/>
       <c r="BH5" s="29"/>
       <c r="BI5" s="29"/>
       <c r="BJ5" s="29"/>
-      <c r="BK5" s="42">
+      <c r="BK5" s="40">
         <v>5.25</v>
       </c>
-      <c r="BL5" s="46">
+      <c r="BL5" s="44">
         <f t="shared" ref="BL5:BL12" si="2">BK5/AU5</f>
         <v>2.25225225225225</v>
       </c>
-      <c r="BM5" s="107" t="s">
+      <c r="BM5" s="105" t="s">
         <v>73</v>
       </c>
       <c r="BN5" s="29"/>
@@ -8169,162 +8205,162 @@
       <c r="D6" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="41">
         <v>0.1782</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="42">
         <v>2.16</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="38">
         <v>1.9227</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="38">
         <v>1.5284</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="38">
         <v>1.4696</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58">
+      <c r="J6" s="56"/>
+      <c r="K6" s="56">
         <v>1.84</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="56">
         <v>2.95</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="60">
         <v>3.54</v>
       </c>
-      <c r="N6" s="62">
+      <c r="N6" s="60">
         <v>0.64</v>
       </c>
-      <c r="O6" s="62">
+      <c r="O6" s="60">
         <v>0.92</v>
       </c>
-      <c r="P6" s="62">
+      <c r="P6" s="60">
         <v>1.15</v>
       </c>
-      <c r="Q6" s="62">
+      <c r="Q6" s="60">
         <v>1.22</v>
       </c>
-      <c r="R6" s="62">
+      <c r="R6" s="60">
         <v>0.22</v>
       </c>
-      <c r="S6" s="62">
+      <c r="S6" s="60">
         <v>0.55</v>
       </c>
-      <c r="T6" s="62">
+      <c r="T6" s="60">
         <v>0.87</v>
       </c>
-      <c r="U6" s="69">
+      <c r="U6" s="67">
         <v>1.24</v>
       </c>
-      <c r="V6" s="70" t="s">
+      <c r="V6" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="67">
+      <c r="W6" s="65">
         <f t="shared" si="0"/>
         <v>-0.267175572519084</v>
       </c>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="46">
+      <c r="X6" s="66"/>
+      <c r="Y6" s="44">
         <v>0.6159</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="Z6" s="44">
         <v>0.6243</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AA6" s="44">
         <v>0.7363</v>
       </c>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45">
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43">
         <v>-0.0797</v>
       </c>
-      <c r="AH6" s="45">
+      <c r="AH6" s="43">
         <v>-0.1393</v>
       </c>
-      <c r="AI6" s="45">
+      <c r="AI6" s="43">
         <v>-0.1248</v>
       </c>
-      <c r="AJ6" s="45">
+      <c r="AJ6" s="43">
         <v>-0.1395</v>
       </c>
-      <c r="AK6" s="45">
+      <c r="AK6" s="43">
         <v>-0.1186</v>
       </c>
-      <c r="AL6" s="45">
+      <c r="AL6" s="43">
         <v>-0.0353</v>
       </c>
-      <c r="AM6" s="78">
+      <c r="AM6" s="76">
         <v>0.0498</v>
       </c>
-      <c r="AN6" s="80" t="s">
+      <c r="AN6" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AO6" s="80" t="s">
+      <c r="AO6" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AP6" s="71">
+      <c r="AP6" s="69">
         <f t="shared" si="1"/>
         <v>-0.0609</v>
       </c>
-      <c r="AQ6" s="85">
+      <c r="AQ6" s="83">
         <v>43636</v>
       </c>
-      <c r="AR6" s="78"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="92">
+      <c r="AR6" s="76"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90">
         <v>1.301</v>
       </c>
-      <c r="AV6" s="92">
+      <c r="AV6" s="90">
         <v>0.457</v>
       </c>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="99">
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="97">
         <v>40.41</v>
       </c>
-      <c r="AY6" s="99">
+      <c r="AY6" s="97">
         <v>40.24</v>
       </c>
-      <c r="AZ6" s="99">
+      <c r="AZ6" s="97">
         <v>70.51</v>
       </c>
-      <c r="BA6" s="98">
+      <c r="BA6" s="96">
         <f>($AX6+$AY6+$AZ6)/(16+22+23)</f>
         <v>2.47803278688525</v>
       </c>
-      <c r="BB6" s="99">
+      <c r="BB6" s="97">
         <v>2.2217</v>
       </c>
-      <c r="BC6" s="102">
+      <c r="BC6" s="100">
         <f>BB6/BA6</f>
         <v>0.896557951839111</v>
       </c>
       <c r="BD6" s="29">
         <v>3</v>
       </c>
-      <c r="BE6" s="103" t="s">
+      <c r="BE6" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="BF6" s="107" t="s">
+      <c r="BF6" s="105" t="s">
         <v>78</v>
       </c>
       <c r="BG6" s="29"/>
       <c r="BH6" s="29"/>
       <c r="BI6" s="29"/>
       <c r="BJ6" s="29"/>
-      <c r="BK6" s="44">
+      <c r="BK6" s="42">
         <v>2.75</v>
       </c>
-      <c r="BL6" s="46">
+      <c r="BL6" s="44">
         <f t="shared" si="2"/>
         <v>2.11375864719447</v>
       </c>
-      <c r="BM6" s="107" t="s">
+      <c r="BM6" s="105" t="s">
         <v>79</v>
       </c>
       <c r="BN6" s="29"/>
@@ -8342,177 +8378,177 @@
       <c r="D7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <v>0.5536</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="42">
         <v>1.08</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="38">
         <v>3.5</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="38">
         <v>1.5313</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="38">
         <v>1.0769</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="57">
         <v>0.07</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="57">
         <v>0.14</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="57">
         <v>0.38</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7" s="59">
         <v>0.06</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="56">
         <v>1.38</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="56">
         <v>1.71</v>
       </c>
-      <c r="P7" s="58">
+      <c r="P7" s="56">
         <v>1.97</v>
       </c>
-      <c r="Q7" s="62">
+      <c r="Q7" s="60">
         <v>2.12</v>
       </c>
-      <c r="R7" s="62">
+      <c r="R7" s="60">
         <v>0.08</v>
       </c>
-      <c r="S7" s="62">
+      <c r="S7" s="60">
         <v>0.32</v>
       </c>
-      <c r="T7" s="62">
+      <c r="T7" s="60">
         <v>0.52</v>
       </c>
-      <c r="U7" s="62">
+      <c r="U7" s="60">
         <v>0.58</v>
       </c>
-      <c r="V7" s="67">
+      <c r="V7" s="65">
         <f>((N7+O7+P7+Q7)/4-(J7+K7+L7+M7)/4)/((J7+K7+L7+M7)/4)</f>
         <v>10.0461538461538</v>
       </c>
-      <c r="W7" s="67">
+      <c r="W7" s="65">
         <f t="shared" si="0"/>
         <v>-0.79108635097493</v>
       </c>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="40">
+      <c r="X7" s="66"/>
+      <c r="Y7" s="38">
         <v>0.5478</v>
       </c>
-      <c r="Z7" s="40">
+      <c r="Z7" s="38">
         <v>0.2848</v>
       </c>
-      <c r="AA7" s="40">
+      <c r="AA7" s="38">
         <v>0.1434</v>
       </c>
-      <c r="AB7" s="78">
+      <c r="AB7" s="76">
         <v>-0.0763</v>
       </c>
-      <c r="AC7" s="78">
+      <c r="AC7" s="76">
         <v>0.0339</v>
       </c>
-      <c r="AD7" s="78">
+      <c r="AD7" s="76">
         <v>0.0737</v>
       </c>
-      <c r="AE7" s="45">
+      <c r="AE7" s="43">
         <v>0.0591</v>
       </c>
-      <c r="AF7" s="45">
+      <c r="AF7" s="43">
         <v>0.1517</v>
       </c>
-      <c r="AG7" s="45">
+      <c r="AG7" s="43">
         <v>-0.1101</v>
       </c>
-      <c r="AH7" s="45">
+      <c r="AH7" s="43">
         <v>-0.1848</v>
       </c>
-      <c r="AI7" s="45">
+      <c r="AI7" s="43">
         <v>-0.1896</v>
       </c>
-      <c r="AJ7" s="45">
+      <c r="AJ7" s="43">
         <v>-0.1942</v>
       </c>
-      <c r="AK7" s="78">
+      <c r="AK7" s="76">
         <v>-0.0575</v>
       </c>
-      <c r="AL7" s="78">
+      <c r="AL7" s="76">
         <v>0.0937</v>
       </c>
-      <c r="AM7" s="81">
+      <c r="AM7" s="79">
         <v>0.1023</v>
       </c>
-      <c r="AN7" s="82">
+      <c r="AN7" s="80">
         <f>(AB7+AC7+AD7+AE7)/4</f>
         <v>0.0226</v>
       </c>
-      <c r="AO7" s="84">
+      <c r="AO7" s="82">
         <f>(AF7+AG7+AH7+AI7)/4</f>
         <v>-0.0832</v>
       </c>
-      <c r="AP7" s="71">
+      <c r="AP7" s="69">
         <f t="shared" si="1"/>
         <v>-0.013925</v>
       </c>
-      <c r="AQ7" s="86">
+      <c r="AQ7" s="84">
         <v>37526</v>
       </c>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92">
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90">
         <v>4.064</v>
       </c>
-      <c r="AV7" s="92">
+      <c r="AV7" s="90">
         <v>4.035</v>
       </c>
-      <c r="AW7" s="92"/>
-      <c r="AX7" s="99">
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="97">
         <v>150.3</v>
       </c>
-      <c r="AY7" s="99">
+      <c r="AY7" s="97">
         <v>317.7</v>
       </c>
-      <c r="AZ7" s="99">
+      <c r="AZ7" s="97">
         <v>340.8</v>
       </c>
-      <c r="BA7" s="98">
+      <c r="BA7" s="96">
         <f>($AX7+$AY7+$AZ7)/(16+22+23)</f>
         <v>13.2590163934426</v>
       </c>
-      <c r="BB7" s="99">
+      <c r="BB7" s="97">
         <v>10.75</v>
       </c>
-      <c r="BC7" s="102">
+      <c r="BC7" s="100">
         <f>BB7/BA7</f>
         <v>0.810769040553907</v>
       </c>
       <c r="BD7" s="29">
         <v>18</v>
       </c>
-      <c r="BE7" s="103" t="s">
+      <c r="BE7" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="BF7" s="106" t="s">
+      <c r="BF7" s="104" t="s">
         <v>83</v>
       </c>
       <c r="BG7" s="29"/>
       <c r="BH7" s="29"/>
       <c r="BI7" s="29"/>
       <c r="BJ7" s="29"/>
-      <c r="BK7" s="44">
+      <c r="BK7" s="42">
         <v>4.38</v>
       </c>
-      <c r="BL7" s="46">
+      <c r="BL7" s="44">
         <f t="shared" si="2"/>
         <v>1.07775590551181</v>
       </c>
-      <c r="BM7" s="111" t="s">
+      <c r="BM7" s="109" t="s">
         <v>84</v>
       </c>
       <c r="BN7" s="29"/>
@@ -8530,130 +8566,130 @@
       <c r="D8" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="43">
         <v>0.4686</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="40">
         <v>1.092</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="38">
         <v>0.5</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="38">
         <v>0.6098</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="38">
         <v>0.4103</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="56">
         <v>0.21</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="56">
         <v>0.42</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="56">
         <v>0.61</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="60">
         <v>0.68</v>
       </c>
-      <c r="N8" s="62">
+      <c r="N8" s="60">
         <v>0.26</v>
       </c>
-      <c r="O8" s="62">
+      <c r="O8" s="60">
         <v>0.49</v>
       </c>
-      <c r="P8" s="62">
+      <c r="P8" s="60">
         <v>0.79</v>
       </c>
-      <c r="Q8" s="62">
+      <c r="Q8" s="60">
         <v>1.1</v>
       </c>
-      <c r="R8" s="62">
+      <c r="R8" s="60">
         <v>0.16</v>
       </c>
-      <c r="S8" s="62">
+      <c r="S8" s="60">
         <v>0.41</v>
       </c>
-      <c r="T8" s="62">
+      <c r="T8" s="60">
         <v>0.78</v>
       </c>
-      <c r="U8" s="69">
+      <c r="U8" s="67">
         <v>1.29</v>
       </c>
-      <c r="V8" s="67">
+      <c r="V8" s="65">
         <f>((N8+O8+P8+Q8)/4-(J8+K8+L8+M8)/4)/((J8+K8+L8+M8)/4)</f>
         <v>0.375</v>
       </c>
-      <c r="W8" s="67">
+      <c r="W8" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="40">
+      <c r="X8" s="66"/>
+      <c r="Y8" s="38">
         <v>0.4274</v>
       </c>
-      <c r="Z8" s="40">
+      <c r="Z8" s="38">
         <v>0.2761</v>
       </c>
-      <c r="AA8" s="40">
+      <c r="AA8" s="38">
         <v>0.2608</v>
       </c>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="85">
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="83">
         <v>43675</v>
       </c>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92">
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90">
         <v>4.119</v>
       </c>
-      <c r="AV8" s="92">
+      <c r="AV8" s="90">
         <v>1.961</v>
       </c>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="99"/>
-      <c r="BB8" s="99"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97"/>
       <c r="BC8" s="29"/>
       <c r="BD8" s="29">
         <v>14</v>
       </c>
-      <c r="BE8" s="103" t="s">
+      <c r="BE8" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="BF8" s="106" t="s">
+      <c r="BF8" s="104" t="s">
         <v>89</v>
       </c>
       <c r="BG8" s="29"/>
       <c r="BH8" s="29"/>
       <c r="BI8" s="29"/>
       <c r="BJ8" s="29"/>
-      <c r="BK8" s="42">
+      <c r="BK8" s="40">
         <v>4.5</v>
       </c>
-      <c r="BL8" s="46">
+      <c r="BL8" s="44">
         <f t="shared" si="2"/>
         <v>1.0924981791697</v>
       </c>
-      <c r="BM8" s="110" t="s">
+      <c r="BM8" s="108" t="s">
         <v>90</v>
       </c>
       <c r="BN8" s="29"/>
@@ -8671,130 +8707,130 @@
       <c r="D9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="43">
         <v>0.3595</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="40">
         <v>2.053</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="38">
         <v>1.5</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="38">
         <v>1.26</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="38">
         <v>0.812</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="56">
         <v>0.23</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="56">
         <v>0.44</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="56">
         <v>0.68</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="60">
         <v>0.84</v>
       </c>
-      <c r="N9" s="62">
+      <c r="N9" s="60">
         <v>0.24</v>
       </c>
-      <c r="O9" s="62">
+      <c r="O9" s="60">
         <v>0.56</v>
       </c>
-      <c r="P9" s="62">
+      <c r="P9" s="60">
         <v>1.17</v>
       </c>
-      <c r="Q9" s="62">
+      <c r="Q9" s="60">
         <v>1.52</v>
       </c>
-      <c r="R9" s="62">
+      <c r="R9" s="60">
         <v>0.2</v>
       </c>
-      <c r="S9" s="62">
+      <c r="S9" s="60">
         <v>0.57</v>
       </c>
-      <c r="T9" s="62">
+      <c r="T9" s="60">
         <v>1.17</v>
       </c>
-      <c r="U9" s="69">
+      <c r="U9" s="67">
         <v>1.82</v>
       </c>
-      <c r="V9" s="67">
+      <c r="V9" s="65">
         <f>((N9+O9+P9+Q9)/4-(J9+K9+L9+M9)/4)/((J9+K9+L9+M9)/4)</f>
         <v>0.593607305936073</v>
       </c>
-      <c r="W9" s="67">
+      <c r="W9" s="65">
         <f t="shared" si="0"/>
         <v>0.0773638968481374</v>
       </c>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="40">
+      <c r="X9" s="66"/>
+      <c r="Y9" s="38">
         <v>1.0195</v>
       </c>
-      <c r="Z9" s="46">
+      <c r="Z9" s="44">
         <v>0.8225</v>
       </c>
-      <c r="AA9" s="46">
+      <c r="AA9" s="44">
         <v>0.9382</v>
       </c>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="68"/>
-      <c r="AP9" s="71"/>
-      <c r="AQ9" s="86">
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="84">
         <v>40805</v>
       </c>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="92">
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90">
         <v>6.826</v>
       </c>
-      <c r="AV9" s="92">
+      <c r="AV9" s="90">
         <v>6.824</v>
       </c>
-      <c r="AW9" s="92"/>
-      <c r="AX9" s="99"/>
-      <c r="AY9" s="99"/>
-      <c r="AZ9" s="99"/>
-      <c r="BA9" s="99"/>
-      <c r="BB9" s="99"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="97"/>
+      <c r="AY9" s="97"/>
+      <c r="AZ9" s="97"/>
+      <c r="BA9" s="97"/>
+      <c r="BB9" s="97"/>
       <c r="BC9" s="29"/>
-      <c r="BD9" s="104">
+      <c r="BD9" s="102">
         <v>104</v>
       </c>
-      <c r="BE9" s="103" t="s">
+      <c r="BE9" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="BF9" s="107" t="s">
+      <c r="BF9" s="105" t="s">
         <v>94</v>
       </c>
       <c r="BG9" s="29"/>
       <c r="BH9" s="29"/>
       <c r="BI9" s="29"/>
       <c r="BJ9" s="29"/>
-      <c r="BK9" s="42">
+      <c r="BK9" s="40">
         <v>14.02</v>
       </c>
-      <c r="BL9" s="46">
+      <c r="BL9" s="44">
         <f t="shared" si="2"/>
         <v>2.05391151479637</v>
       </c>
-      <c r="BM9" s="103" t="s">
+      <c r="BM9" s="101" t="s">
         <v>95</v>
       </c>
       <c r="BN9" s="29"/>
@@ -8812,130 +8848,130 @@
       <c r="D10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="43">
         <v>0.3026</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="40">
         <v>2.22</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="38">
         <v>1.44</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="44">
         <v>1.2295</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="44">
         <v>1.3617</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="56">
         <v>0.24</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="56">
         <v>0.5</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="56">
         <v>0.81</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="60">
         <v>1.01</v>
       </c>
-      <c r="N10" s="62">
+      <c r="N10" s="60">
         <v>0.29</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="60">
         <v>0.55</v>
       </c>
-      <c r="P10" s="62">
+      <c r="P10" s="60">
         <v>0.89</v>
       </c>
-      <c r="Q10" s="62">
+      <c r="Q10" s="60">
         <v>1.09</v>
       </c>
-      <c r="R10" s="62">
+      <c r="R10" s="60">
         <v>0.25</v>
       </c>
-      <c r="S10" s="62">
+      <c r="S10" s="60">
         <v>0.61</v>
       </c>
-      <c r="T10" s="62">
+      <c r="T10" s="60">
         <v>0.94</v>
       </c>
-      <c r="U10" s="69">
+      <c r="U10" s="67">
         <v>1.27</v>
       </c>
-      <c r="V10" s="67">
+      <c r="V10" s="65">
         <f>((N10+O10+P10+Q10)/4-(J10+K10+L10+M10)/4)/((J10+K10+L10+M10)/4)</f>
         <v>0.1015625</v>
       </c>
-      <c r="W10" s="67">
+      <c r="W10" s="65">
         <f t="shared" si="0"/>
         <v>0.0886524822695034</v>
       </c>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="46">
+      <c r="X10" s="66"/>
+      <c r="Y10" s="44">
         <v>0.2394</v>
       </c>
-      <c r="Z10" s="46">
+      <c r="Z10" s="44">
         <v>0.7485</v>
       </c>
-      <c r="AA10" s="46">
+      <c r="AA10" s="44">
         <v>1.2456</v>
       </c>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="68"/>
-      <c r="AP10" s="71"/>
-      <c r="AQ10" s="85">
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="83">
         <v>42137</v>
       </c>
-      <c r="AR10" s="78"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92">
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90">
         <v>4.646</v>
       </c>
-      <c r="AV10" s="92">
+      <c r="AV10" s="90">
         <v>4.627</v>
       </c>
-      <c r="AW10" s="92"/>
-      <c r="AX10" s="99"/>
-      <c r="AY10" s="99"/>
-      <c r="AZ10" s="99"/>
-      <c r="BA10" s="99"/>
-      <c r="BB10" s="99"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="97"/>
+      <c r="AY10" s="97"/>
+      <c r="AZ10" s="97"/>
+      <c r="BA10" s="97"/>
+      <c r="BB10" s="97"/>
       <c r="BC10" s="29"/>
       <c r="BD10" s="29">
         <v>17</v>
       </c>
-      <c r="BE10" s="107" t="s">
+      <c r="BE10" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="BF10" s="107" t="s">
+      <c r="BF10" s="105" t="s">
         <v>99</v>
       </c>
       <c r="BG10" s="29"/>
       <c r="BH10" s="29"/>
       <c r="BI10" s="29"/>
       <c r="BJ10" s="29"/>
-      <c r="BK10" s="42">
+      <c r="BK10" s="40">
         <v>10.33</v>
       </c>
-      <c r="BL10" s="46">
+      <c r="BL10" s="44">
         <f t="shared" si="2"/>
         <v>2.22341799397331</v>
       </c>
-      <c r="BM10" s="103" t="s">
+      <c r="BM10" s="101" t="s">
         <v>100</v>
       </c>
       <c r="BN10" s="29"/>
@@ -8944,7 +8980,7 @@
       <c r="A11" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="121" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -8953,100 +8989,100 @@
       <c r="D11" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="43">
         <v>0.3829</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="40">
         <v>1.172</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="38">
         <v>0.3277</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="44">
         <v>0.108</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="44">
         <v>0.1218</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="40">
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="38">
         <v>0.0583</v>
       </c>
-      <c r="Z11" s="46">
+      <c r="Z11" s="44">
         <v>0.0131</v>
       </c>
-      <c r="AA11" s="46">
+      <c r="AA11" s="44">
         <v>0.0315</v>
       </c>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="68"/>
-      <c r="AO11" s="68"/>
-      <c r="AP11" s="71"/>
-      <c r="AQ11" s="86">
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="84">
         <v>40604</v>
       </c>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92">
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90">
         <v>5.07</v>
       </c>
-      <c r="AV11" s="92">
+      <c r="AV11" s="90">
         <v>5.07</v>
       </c>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="99"/>
-      <c r="AY11" s="99"/>
-      <c r="AZ11" s="99"/>
-      <c r="BA11" s="99"/>
-      <c r="BB11" s="99"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="97"/>
+      <c r="AY11" s="97"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="97"/>
+      <c r="BB11" s="97"/>
       <c r="BC11" s="29"/>
       <c r="BD11" s="29">
         <v>1</v>
       </c>
-      <c r="BE11" s="107" t="s">
+      <c r="BE11" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="BF11" s="107" t="s">
+      <c r="BF11" s="105" t="s">
         <v>106</v>
       </c>
       <c r="BG11" s="29"/>
       <c r="BH11" s="29"/>
       <c r="BI11" s="29"/>
       <c r="BJ11" s="29"/>
-      <c r="BK11" s="42">
+      <c r="BK11" s="40">
         <v>5.94</v>
       </c>
-      <c r="BL11" s="46">
+      <c r="BL11" s="44">
         <f t="shared" si="2"/>
         <v>1.17159763313609</v>
       </c>
-      <c r="BM11" s="107" t="s">
+      <c r="BM11" s="105" t="s">
         <v>107</v>
       </c>
       <c r="BN11" s="29"/>
@@ -9055,7 +9091,7 @@
       <c r="A12" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="121" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="28" t="s">
@@ -9064,83 +9100,83 @@
       <c r="D12" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="45">
         <v>0.5848</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="40">
         <v>1.12</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="38">
         <v>0.7222</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="38">
         <v>0.8358</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="38">
         <v>0.766</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="40">
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="38">
         <v>0.4683</v>
       </c>
-      <c r="Z12" s="40">
+      <c r="Z12" s="38">
         <v>0.3351</v>
       </c>
-      <c r="AA12" s="40">
+      <c r="AA12" s="38">
         <v>0.2862</v>
       </c>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="68"/>
-      <c r="AP12" s="71"/>
-      <c r="AQ12" s="85">
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="83">
         <v>43160</v>
       </c>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="92"/>
-      <c r="AT12" s="92"/>
-      <c r="AU12" s="92">
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90">
         <v>2.287</v>
       </c>
-      <c r="AV12" s="92">
+      <c r="AV12" s="90">
         <v>1.685</v>
       </c>
-      <c r="AW12" s="92"/>
-      <c r="AX12" s="99"/>
-      <c r="AY12" s="99"/>
-      <c r="AZ12" s="99"/>
-      <c r="BA12" s="99"/>
-      <c r="BB12" s="99"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="97"/>
+      <c r="AY12" s="97"/>
+      <c r="AZ12" s="97"/>
+      <c r="BA12" s="97"/>
+      <c r="BB12" s="97"/>
       <c r="BC12" s="29"/>
       <c r="BD12" s="29">
         <v>13</v>
       </c>
-      <c r="BE12" s="107" t="s">
+      <c r="BE12" s="105" t="s">
         <v>112</v>
       </c>
       <c r="BF12" s="29"/>
@@ -9148,10 +9184,10 @@
       <c r="BH12" s="29"/>
       <c r="BI12" s="29"/>
       <c r="BJ12" s="29"/>
-      <c r="BK12" s="42">
+      <c r="BK12" s="40">
         <v>2.56</v>
       </c>
-      <c r="BL12" s="46">
+      <c r="BL12" s="44">
         <f t="shared" si="2"/>
         <v>1.11937035417578</v>
       </c>
@@ -9171,83 +9207,83 @@
       <c r="D13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <v>0.33</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="47">
         <v>0.671</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="48">
         <v>0.3333</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="48">
         <v>0.3</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="48">
         <v>0.2879</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="50">
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="48">
         <v>0.2143</v>
       </c>
-      <c r="Z13" s="50">
+      <c r="Z13" s="48">
         <v>0.156</v>
       </c>
-      <c r="AA13" s="50">
+      <c r="AA13" s="48">
         <v>0.1125</v>
       </c>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="87">
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="85">
         <v>35606</v>
       </c>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="93">
+      <c r="AR13" s="75"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91">
         <v>13.71</v>
       </c>
-      <c r="AV13" s="93">
+      <c r="AV13" s="91">
         <v>13.71</v>
       </c>
-      <c r="AW13" s="93"/>
-      <c r="AX13" s="100"/>
-      <c r="AY13" s="100"/>
-      <c r="AZ13" s="100"/>
-      <c r="BA13" s="100"/>
-      <c r="BB13" s="100"/>
+      <c r="AW13" s="91"/>
+      <c r="AX13" s="98"/>
+      <c r="AY13" s="98"/>
+      <c r="AZ13" s="98"/>
+      <c r="BA13" s="98"/>
+      <c r="BB13" s="98"/>
       <c r="BC13" s="30"/>
-      <c r="BD13" s="105">
+      <c r="BD13" s="103">
         <v>20</v>
       </c>
-      <c r="BE13" s="107" t="s">
+      <c r="BE13" s="105" t="s">
         <v>115</v>
       </c>
       <c r="BF13" s="30"/>
@@ -9255,11 +9291,11 @@
       <c r="BH13" s="30"/>
       <c r="BI13" s="30"/>
       <c r="BJ13" s="30"/>
-      <c r="BK13" s="49">
+      <c r="BK13" s="47">
         <v>9.2</v>
       </c>
-      <c r="BL13" s="78">
-        <f t="shared" ref="BL13:BL19" si="3">BK13/AU13</f>
+      <c r="BL13" s="76">
+        <f t="shared" ref="BL13:BL23" si="3">BK13/AU13</f>
         <v>0.671043034281546</v>
       </c>
       <c r="BM13" s="30"/>
@@ -9278,83 +9314,83 @@
       <c r="D14" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <v>0.4423</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="47">
         <v>1.69</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="48">
         <v>2.8333</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="48">
         <v>1.973</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="48">
         <v>1.061</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="50">
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="48">
         <v>0.5809</v>
       </c>
-      <c r="Z14" s="52">
+      <c r="Z14" s="50">
         <v>0.6068</v>
       </c>
-      <c r="AA14" s="52">
+      <c r="AA14" s="50">
         <v>0.6104</v>
       </c>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="73"/>
-      <c r="AQ14" s="87">
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="85">
         <v>38096</v>
       </c>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93">
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91">
         <v>1.534</v>
       </c>
-      <c r="AV14" s="93">
+      <c r="AV14" s="91">
         <v>1.522</v>
       </c>
-      <c r="AW14" s="93"/>
-      <c r="AX14" s="100"/>
-      <c r="AY14" s="100"/>
-      <c r="AZ14" s="100"/>
-      <c r="BA14" s="100"/>
-      <c r="BB14" s="100"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="98"/>
+      <c r="AY14" s="98"/>
+      <c r="AZ14" s="98"/>
+      <c r="BA14" s="98"/>
+      <c r="BB14" s="98"/>
       <c r="BC14" s="30"/>
       <c r="BD14" s="30">
         <v>15</v>
       </c>
-      <c r="BE14" s="107" t="s">
+      <c r="BE14" s="105" t="s">
         <v>118</v>
       </c>
       <c r="BF14" s="30"/>
@@ -9362,10 +9398,10 @@
       <c r="BH14" s="30"/>
       <c r="BI14" s="30"/>
       <c r="BJ14" s="30"/>
-      <c r="BK14" s="49">
+      <c r="BK14" s="47">
         <v>2.57</v>
       </c>
-      <c r="BL14" s="46">
+      <c r="BL14" s="44">
         <f t="shared" si="3"/>
         <v>1.67535853976532</v>
       </c>
@@ -9385,83 +9421,83 @@
       <c r="D15" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="49">
         <v>0.6883</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="47">
         <v>0.21</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="50">
         <v>0</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="50">
         <v>0.3015</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="50">
         <v>0.3125</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="50">
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="48">
         <v>-0.0711</v>
       </c>
-      <c r="Z15" s="50">
+      <c r="Z15" s="48">
         <v>0.1399</v>
       </c>
-      <c r="AA15" s="50">
+      <c r="AA15" s="48">
         <v>0.0965</v>
       </c>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="73"/>
-      <c r="AQ15" s="88">
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="71"/>
+      <c r="AQ15" s="86">
         <v>44341</v>
       </c>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="93"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="93">
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="91"/>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91">
         <v>20.8</v>
       </c>
-      <c r="AV15" s="93">
+      <c r="AV15" s="91">
         <v>2.08</v>
       </c>
-      <c r="AW15" s="93"/>
-      <c r="AX15" s="100"/>
-      <c r="AY15" s="100"/>
-      <c r="AZ15" s="100"/>
-      <c r="BA15" s="100"/>
-      <c r="BB15" s="100"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="98"/>
+      <c r="AY15" s="98"/>
+      <c r="AZ15" s="98"/>
+      <c r="BA15" s="98"/>
+      <c r="BB15" s="98"/>
       <c r="BC15" s="30"/>
       <c r="BD15" s="30">
         <v>4</v>
       </c>
-      <c r="BE15" s="107" t="s">
+      <c r="BE15" s="105" t="s">
         <v>122</v>
       </c>
       <c r="BF15" s="30"/>
@@ -9469,10 +9505,10 @@
       <c r="BH15" s="30"/>
       <c r="BI15" s="30"/>
       <c r="BJ15" s="30"/>
-      <c r="BK15" s="49">
+      <c r="BK15" s="47">
         <v>4.08</v>
       </c>
-      <c r="BL15" s="78">
+      <c r="BL15" s="76">
         <f t="shared" si="3"/>
         <v>0.196153846153846</v>
       </c>
@@ -9483,7 +9519,7 @@
       <c r="A16" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="122" t="s">
         <v>124</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9492,100 +9528,100 @@
       <c r="D16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="49">
         <v>0.5592</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="47">
         <v>1.27</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="48">
         <v>0.36</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="50">
         <v>0.125</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="50">
         <v>0.2574</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="50">
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="48">
         <v>-0.7209</v>
       </c>
-      <c r="Z16" s="52">
+      <c r="Z16" s="50">
         <v>-0.772</v>
       </c>
-      <c r="AA16" s="52">
+      <c r="AA16" s="50">
         <v>-0.6953</v>
       </c>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="88">
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="71"/>
+      <c r="AQ16" s="86">
         <v>42947</v>
       </c>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93">
+      <c r="AR16" s="75"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91">
         <v>1.381</v>
       </c>
-      <c r="AV16" s="93">
+      <c r="AV16" s="91">
         <v>0.8979</v>
       </c>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="100"/>
-      <c r="AY16" s="100"/>
-      <c r="AZ16" s="100"/>
-      <c r="BA16" s="100"/>
-      <c r="BB16" s="100"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="98"/>
+      <c r="AY16" s="98"/>
+      <c r="AZ16" s="98"/>
+      <c r="BA16" s="98"/>
+      <c r="BB16" s="98"/>
       <c r="BC16" s="30"/>
       <c r="BD16" s="30">
         <v>2</v>
       </c>
-      <c r="BE16" s="107" t="s">
+      <c r="BE16" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="BF16" s="107" t="s">
+      <c r="BF16" s="105" t="s">
         <v>127</v>
       </c>
       <c r="BG16" s="30"/>
       <c r="BH16" s="30"/>
       <c r="BI16" s="30"/>
       <c r="BJ16" s="30"/>
-      <c r="BK16" s="49">
+      <c r="BK16" s="47">
         <v>1.75</v>
       </c>
-      <c r="BL16" s="46">
+      <c r="BL16" s="44">
         <f t="shared" si="3"/>
         <v>1.26719768283852</v>
       </c>
-      <c r="BM16" s="107" t="s">
+      <c r="BM16" s="105" t="s">
         <v>128</v>
       </c>
       <c r="BN16" s="30"/>
@@ -9603,66 +9639,66 @@
       <c r="D17" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="46">
         <v>0.258</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="47">
         <v>0.496</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="48">
         <v>0.3333</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="50">
         <v>-0.111</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="50">
         <v>0.1628</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="67"/>
-      <c r="AO17" s="67"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="93"/>
-      <c r="AT17" s="93"/>
-      <c r="AU17" s="93"/>
-      <c r="AV17" s="93"/>
-      <c r="AW17" s="93"/>
-      <c r="AX17" s="100"/>
-      <c r="AY17" s="100"/>
-      <c r="AZ17" s="100"/>
-      <c r="BA17" s="100"/>
-      <c r="BB17" s="100"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="85"/>
+      <c r="AR17" s="75"/>
+      <c r="AS17" s="91"/>
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="91"/>
+      <c r="AV17" s="91"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="98"/>
+      <c r="AY17" s="98"/>
+      <c r="AZ17" s="98"/>
+      <c r="BA17" s="98"/>
+      <c r="BB17" s="98"/>
       <c r="BC17" s="30"/>
       <c r="BD17" s="30"/>
       <c r="BE17" s="30"/>
@@ -9671,8 +9707,8 @@
       <c r="BH17" s="30"/>
       <c r="BI17" s="30"/>
       <c r="BJ17" s="30"/>
-      <c r="BK17" s="49"/>
-      <c r="BL17" s="77"/>
+      <c r="BK17" s="47"/>
+      <c r="BL17" s="75"/>
       <c r="BM17" s="30"/>
       <c r="BN17" s="30"/>
     </row>
@@ -9680,7 +9716,7 @@
       <c r="A18" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="122" t="s">
         <v>133</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -9689,96 +9725,96 @@
       <c r="D18" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="46">
         <v>0.3643</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="47">
         <v>1.845</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="48">
         <v>1.2284</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="50">
         <v>1.1877</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="50">
         <v>1.6674</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="52">
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="50">
         <v>0.6822</v>
       </c>
-      <c r="Z18" s="52">
+      <c r="Z18" s="50">
         <v>0.8976</v>
       </c>
-      <c r="AA18" s="52">
+      <c r="AA18" s="50">
         <v>0.9121</v>
       </c>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="67"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="87">
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="85">
         <v>35614</v>
       </c>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="93"/>
-      <c r="AT18" s="93"/>
-      <c r="AU18" s="93">
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="91">
         <v>5.181</v>
       </c>
-      <c r="AV18" s="93">
+      <c r="AV18" s="91">
         <v>5.176</v>
       </c>
-      <c r="AW18" s="93"/>
-      <c r="AX18" s="100"/>
-      <c r="AY18" s="100"/>
-      <c r="AZ18" s="100"/>
-      <c r="BA18" s="100"/>
-      <c r="BB18" s="100"/>
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="98"/>
+      <c r="AY18" s="98"/>
+      <c r="AZ18" s="98"/>
+      <c r="BA18" s="98"/>
+      <c r="BB18" s="98"/>
       <c r="BC18" s="30"/>
-      <c r="BD18" s="105">
+      <c r="BD18" s="103">
         <v>139</v>
       </c>
-      <c r="BE18" s="107" t="s">
+      <c r="BE18" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="BF18" s="107" t="s">
+      <c r="BF18" s="105" t="s">
         <v>136</v>
       </c>
       <c r="BG18" s="30"/>
       <c r="BH18" s="30"/>
       <c r="BI18" s="30"/>
       <c r="BJ18" s="30"/>
-      <c r="BK18" s="49">
+      <c r="BK18" s="47">
         <v>9.56</v>
       </c>
-      <c r="BL18" s="46">
+      <c r="BL18" s="44">
         <f t="shared" si="3"/>
         <v>1.84520362864312</v>
       </c>
@@ -9798,100 +9834,100 @@
       <c r="D19" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="46">
         <v>0.3881</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="47">
         <v>0.777</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="48">
         <v>1.7333</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="48">
         <v>-0.2247</v>
       </c>
-      <c r="I19" s="50">
+      <c r="I19" s="48">
         <v>-0.3036</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="50">
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="48">
         <v>0.9186</v>
       </c>
-      <c r="Z19" s="50">
+      <c r="Z19" s="48">
         <v>0.3642</v>
       </c>
-      <c r="AA19" s="50">
+      <c r="AA19" s="48">
         <v>0.2326</v>
       </c>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="67"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="87">
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="71"/>
+      <c r="AQ19" s="85">
         <v>43643</v>
       </c>
-      <c r="AR19" s="77"/>
-      <c r="AS19" s="93"/>
-      <c r="AT19" s="93"/>
-      <c r="AU19" s="93">
+      <c r="AR19" s="75"/>
+      <c r="AS19" s="91"/>
+      <c r="AT19" s="91"/>
+      <c r="AU19" s="91">
         <v>1.414</v>
       </c>
-      <c r="AV19" s="93">
+      <c r="AV19" s="91">
         <v>0.8566</v>
       </c>
-      <c r="AW19" s="93"/>
-      <c r="AX19" s="100"/>
-      <c r="AY19" s="100"/>
-      <c r="AZ19" s="100"/>
-      <c r="BA19" s="100"/>
-      <c r="BB19" s="100"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="98"/>
+      <c r="AY19" s="98"/>
+      <c r="AZ19" s="98"/>
+      <c r="BA19" s="98"/>
+      <c r="BB19" s="98"/>
       <c r="BC19" s="30"/>
       <c r="BD19" s="30">
         <v>2</v>
       </c>
-      <c r="BE19" s="107" t="s">
+      <c r="BE19" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="BF19" s="106" t="s">
+      <c r="BF19" s="104" t="s">
         <v>140</v>
       </c>
       <c r="BG19" s="30"/>
       <c r="BH19" s="30"/>
       <c r="BI19" s="30"/>
       <c r="BJ19" s="30"/>
-      <c r="BK19" s="49">
+      <c r="BK19" s="47">
         <v>1.1</v>
       </c>
-      <c r="BL19" s="46">
+      <c r="BL19" s="44">
         <f t="shared" si="3"/>
         <v>0.777934936350778</v>
       </c>
-      <c r="BM19" s="111" t="s">
+      <c r="BM19" s="109" t="s">
         <v>141</v>
       </c>
       <c r="BN19" s="30"/>
@@ -9900,7 +9936,7 @@
       <c r="A20" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="122" t="s">
         <v>143</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -9909,83 +9945,83 @@
       <c r="D20" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="46">
         <v>0.2101</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="47">
         <v>0.842</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="48">
         <v>2.1447</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="48">
         <v>1.597</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="48">
         <v>1.159</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="50">
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="48">
         <v>0.3139</v>
       </c>
-      <c r="Z20" s="52">
+      <c r="Z20" s="50">
         <v>0.0935</v>
       </c>
-      <c r="AA20" s="52">
+      <c r="AA20" s="50">
         <v>0.1211</v>
       </c>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="67"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="87">
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="85">
         <v>40696</v>
       </c>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="93"/>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="93">
+      <c r="AR20" s="75"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="91"/>
+      <c r="AU20" s="91">
         <v>11.56</v>
       </c>
-      <c r="AV20" s="93">
+      <c r="AV20" s="91">
         <v>8.672</v>
       </c>
-      <c r="AW20" s="93"/>
-      <c r="AX20" s="100"/>
-      <c r="AY20" s="100"/>
-      <c r="AZ20" s="100"/>
-      <c r="BA20" s="100"/>
-      <c r="BB20" s="100"/>
+      <c r="AW20" s="91"/>
+      <c r="AX20" s="98"/>
+      <c r="AY20" s="98"/>
+      <c r="AZ20" s="98"/>
+      <c r="BA20" s="98"/>
+      <c r="BB20" s="98"/>
       <c r="BC20" s="30"/>
-      <c r="BD20" s="105">
+      <c r="BD20" s="103">
         <v>31</v>
       </c>
-      <c r="BE20" s="107" t="s">
+      <c r="BE20" s="105" t="s">
         <v>146</v>
       </c>
       <c r="BF20" s="30"/>
@@ -9993,11 +10029,11 @@
       <c r="BH20" s="30"/>
       <c r="BI20" s="30"/>
       <c r="BJ20" s="30"/>
-      <c r="BK20" s="49">
+      <c r="BK20" s="47">
         <v>9.73</v>
       </c>
-      <c r="BL20" s="78">
-        <f>BK20/AU20</f>
+      <c r="BL20" s="76">
+        <f t="shared" si="3"/>
         <v>0.841695501730104</v>
       </c>
       <c r="BM20" s="30"/>
@@ -10016,81 +10052,81 @@
       <c r="D21" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="46">
         <v>0.3158</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="47">
         <v>1.287</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="48">
         <v>4.9</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="48">
         <v>3.0455</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="48">
         <v>1.6875</v>
       </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="50">
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="48">
         <v>1.1403</v>
       </c>
-      <c r="Z21" s="50">
+      <c r="Z21" s="48">
         <v>1.4349</v>
       </c>
-      <c r="AA21" s="50">
+      <c r="AA21" s="48">
         <v>1.2425</v>
       </c>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="67"/>
-      <c r="AO21" s="67"/>
-      <c r="AP21" s="73"/>
-      <c r="AQ21" s="87"/>
-      <c r="AR21" s="77"/>
-      <c r="AS21" s="93"/>
-      <c r="AT21" s="93"/>
-      <c r="AU21" s="93">
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="71"/>
+      <c r="AQ21" s="85"/>
+      <c r="AR21" s="75"/>
+      <c r="AS21" s="91"/>
+      <c r="AT21" s="91"/>
+      <c r="AU21" s="91">
         <v>4.853</v>
       </c>
-      <c r="AV21" s="93">
+      <c r="AV21" s="91">
         <v>4.853</v>
       </c>
-      <c r="AW21" s="93"/>
-      <c r="AX21" s="100"/>
-      <c r="AY21" s="100"/>
-      <c r="AZ21" s="100"/>
-      <c r="BA21" s="100"/>
-      <c r="BB21" s="100"/>
+      <c r="AW21" s="91"/>
+      <c r="AX21" s="98"/>
+      <c r="AY21" s="98"/>
+      <c r="AZ21" s="98"/>
+      <c r="BA21" s="98"/>
+      <c r="BB21" s="98"/>
       <c r="BC21" s="30"/>
       <c r="BD21" s="30">
         <v>9</v>
       </c>
-      <c r="BE21" s="107" t="s">
+      <c r="BE21" s="105" t="s">
         <v>149</v>
       </c>
       <c r="BF21" s="30"/>
@@ -10098,11 +10134,11 @@
       <c r="BH21" s="30"/>
       <c r="BI21" s="30"/>
       <c r="BJ21" s="30"/>
-      <c r="BK21" s="49">
+      <c r="BK21" s="47">
         <v>6.25</v>
       </c>
-      <c r="BL21" s="46">
-        <f>BK21/AU21</f>
+      <c r="BL21" s="44">
+        <f t="shared" si="3"/>
         <v>1.28786317741603</v>
       </c>
       <c r="BM21" s="30"/>
@@ -10112,7 +10148,7 @@
       <c r="A22" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="122" t="s">
         <v>151</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -10121,81 +10157,81 @@
       <c r="D22" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="46">
         <v>0.3314</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="47">
         <v>0.06</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="48">
         <v>0.3333</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="48">
         <v>-0.3333</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="48">
         <v>-0.5714</v>
       </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="50">
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="48">
         <v>0.2285</v>
       </c>
-      <c r="Z22" s="52">
+      <c r="Z22" s="50">
         <v>0.0631</v>
       </c>
-      <c r="AA22" s="52">
+      <c r="AA22" s="50">
         <v>0.3417</v>
       </c>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="67"/>
-      <c r="AO22" s="67"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="87"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="93"/>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="93">
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="71"/>
+      <c r="AQ22" s="85"/>
+      <c r="AR22" s="75"/>
+      <c r="AS22" s="91"/>
+      <c r="AT22" s="91"/>
+      <c r="AU22" s="91">
         <v>4.611</v>
       </c>
-      <c r="AV22" s="93">
+      <c r="AV22" s="91">
         <v>0.7839</v>
       </c>
-      <c r="AW22" s="93"/>
-      <c r="AX22" s="100"/>
-      <c r="AY22" s="100"/>
-      <c r="AZ22" s="100"/>
-      <c r="BA22" s="100"/>
-      <c r="BB22" s="100"/>
+      <c r="AW22" s="91"/>
+      <c r="AX22" s="98"/>
+      <c r="AY22" s="98"/>
+      <c r="AZ22" s="98"/>
+      <c r="BA22" s="98"/>
+      <c r="BB22" s="98"/>
       <c r="BC22" s="30"/>
-      <c r="BD22" s="105">
+      <c r="BD22" s="103">
         <v>125</v>
       </c>
-      <c r="BE22" s="107" t="s">
+      <c r="BE22" s="105" t="s">
         <v>153</v>
       </c>
       <c r="BF22" s="30"/>
@@ -10203,11 +10239,11 @@
       <c r="BH22" s="30"/>
       <c r="BI22" s="30"/>
       <c r="BJ22" s="30"/>
-      <c r="BK22" s="49">
+      <c r="BK22" s="47">
         <v>0.273105</v>
       </c>
-      <c r="BL22" s="78">
-        <f>BK22/AU22</f>
+      <c r="BL22" s="76">
+        <f t="shared" si="3"/>
         <v>0.0592290175666884</v>
       </c>
       <c r="BM22" s="30"/>
@@ -10226,83 +10262,83 @@
       <c r="D23" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="46">
         <v>0.0703</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="47">
         <v>0.67</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="48">
         <v>0.125</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="48">
         <v>-0.0755</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="48">
         <v>-0.1184</v>
       </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="50">
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="48">
         <v>0.5155</v>
       </c>
-      <c r="Z23" s="52">
+      <c r="Z23" s="50">
         <v>0.1599</v>
       </c>
-      <c r="AA23" s="52">
+      <c r="AA23" s="50">
         <v>0.2068</v>
       </c>
-      <c r="AB23" s="77"/>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="77"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="77"/>
-      <c r="AN23" s="67"/>
-      <c r="AO23" s="67"/>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="88">
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="86">
         <v>44307</v>
       </c>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="93"/>
-      <c r="AT23" s="93"/>
-      <c r="AU23" s="93">
+      <c r="AR23" s="75"/>
+      <c r="AS23" s="91"/>
+      <c r="AT23" s="91"/>
+      <c r="AU23" s="91">
         <v>1.268</v>
       </c>
-      <c r="AV23" s="93">
+      <c r="AV23" s="91">
         <v>0.318</v>
       </c>
-      <c r="AW23" s="93"/>
-      <c r="AX23" s="100"/>
-      <c r="AY23" s="100"/>
-      <c r="AZ23" s="100"/>
-      <c r="BA23" s="100"/>
-      <c r="BB23" s="100"/>
+      <c r="AW23" s="91"/>
+      <c r="AX23" s="98"/>
+      <c r="AY23" s="98"/>
+      <c r="AZ23" s="98"/>
+      <c r="BA23" s="98"/>
+      <c r="BB23" s="98"/>
       <c r="BC23" s="30"/>
       <c r="BD23" s="30">
         <v>6</v>
       </c>
-      <c r="BE23" s="107" t="s">
+      <c r="BE23" s="105" t="s">
         <v>156</v>
       </c>
       <c r="BF23" s="30"/>
@@ -10310,11 +10346,11 @@
       <c r="BH23" s="30"/>
       <c r="BI23" s="30"/>
       <c r="BJ23" s="30"/>
-      <c r="BK23" s="49">
+      <c r="BK23" s="47">
         <v>0.750415</v>
       </c>
-      <c r="BL23" s="78">
-        <f>BK23/AU23</f>
+      <c r="BL23" s="76">
+        <f t="shared" si="3"/>
         <v>0.591809936908517</v>
       </c>
       <c r="BM23" s="30"/>
@@ -10333,100 +10369,100 @@
       <c r="D24" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="46">
         <v>0.4771</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="47">
         <v>1.17</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="48">
         <v>2.2727</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="48">
         <v>0.9268</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="48">
         <v>0.4096</v>
       </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="50">
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="48">
         <v>0.6575</v>
       </c>
-      <c r="Z24" s="50">
+      <c r="Z24" s="48">
         <v>0.6401</v>
       </c>
-      <c r="AA24" s="50">
+      <c r="AA24" s="48">
         <v>0.6247</v>
       </c>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="77"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="67"/>
-      <c r="AO24" s="67"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="88">
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="46"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="71"/>
+      <c r="AQ24" s="86">
         <v>43550</v>
       </c>
-      <c r="AR24" s="77"/>
-      <c r="AS24" s="93"/>
-      <c r="AT24" s="93"/>
-      <c r="AU24" s="93">
+      <c r="AR24" s="75"/>
+      <c r="AS24" s="91"/>
+      <c r="AT24" s="91"/>
+      <c r="AU24" s="91">
         <v>1.911</v>
       </c>
-      <c r="AV24" s="93">
+      <c r="AV24" s="91">
         <v>0.862</v>
       </c>
-      <c r="AW24" s="93"/>
-      <c r="AX24" s="100"/>
-      <c r="AY24" s="100"/>
-      <c r="AZ24" s="100"/>
-      <c r="BA24" s="100"/>
-      <c r="BB24" s="100"/>
+      <c r="AW24" s="91"/>
+      <c r="AX24" s="98"/>
+      <c r="AY24" s="98"/>
+      <c r="AZ24" s="98"/>
+      <c r="BA24" s="98"/>
+      <c r="BB24" s="98"/>
       <c r="BC24" s="30"/>
       <c r="BD24" s="30">
         <v>18</v>
       </c>
-      <c r="BE24" s="107" t="s">
+      <c r="BE24" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="BF24" s="106" t="s">
+      <c r="BF24" s="104" t="s">
         <v>160</v>
       </c>
       <c r="BG24" s="30"/>
       <c r="BH24" s="30"/>
       <c r="BI24" s="30"/>
       <c r="BJ24" s="30"/>
-      <c r="BK24" s="49">
+      <c r="BK24" s="47">
         <v>1.94</v>
       </c>
-      <c r="BL24" s="46">
-        <f t="shared" ref="BL24:BL31" si="4">BK24/AU24</f>
+      <c r="BL24" s="44">
+        <f t="shared" ref="BL24:BL32" si="4">BK24/AU24</f>
         <v>1.01517530088959</v>
       </c>
-      <c r="BM24" s="110" t="s">
+      <c r="BM24" s="108" t="s">
         <v>161</v>
       </c>
       <c r="BN24" s="30"/>
@@ -10444,100 +10480,100 @@
       <c r="D25" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="49">
         <v>0.6522</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="47">
         <v>1.491</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="48">
         <v>8.5349</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="48">
         <v>1.0918</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="48">
         <v>0.5152</v>
       </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="50">
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="48">
         <v>0.1233</v>
       </c>
-      <c r="Z25" s="50">
+      <c r="Z25" s="48">
         <v>0.2301</v>
       </c>
-      <c r="AA25" s="50">
+      <c r="AA25" s="48">
         <v>0.112</v>
       </c>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="67"/>
-      <c r="AO25" s="67"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="87">
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="46"/>
+      <c r="AM25" s="75"/>
+      <c r="AN25" s="65"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="71"/>
+      <c r="AQ25" s="85">
         <v>35303</v>
       </c>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="93"/>
-      <c r="AT25" s="93"/>
-      <c r="AU25" s="93">
+      <c r="AR25" s="75"/>
+      <c r="AS25" s="91"/>
+      <c r="AT25" s="91"/>
+      <c r="AU25" s="91">
         <v>31.53</v>
       </c>
-      <c r="AV25" s="93">
+      <c r="AV25" s="91">
         <v>31.53</v>
       </c>
-      <c r="AW25" s="93"/>
-      <c r="AX25" s="100"/>
-      <c r="AY25" s="100"/>
-      <c r="AZ25" s="100"/>
-      <c r="BA25" s="100"/>
-      <c r="BB25" s="100"/>
+      <c r="AW25" s="91"/>
+      <c r="AX25" s="98"/>
+      <c r="AY25" s="98"/>
+      <c r="AZ25" s="98"/>
+      <c r="BA25" s="98"/>
+      <c r="BB25" s="98"/>
       <c r="BC25" s="30"/>
-      <c r="BD25" s="105">
+      <c r="BD25" s="103">
         <v>102</v>
       </c>
-      <c r="BE25" s="107" t="s">
+      <c r="BE25" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="BF25" s="107" t="s">
+      <c r="BF25" s="105" t="s">
         <v>166</v>
       </c>
       <c r="BG25" s="30"/>
       <c r="BH25" s="30"/>
       <c r="BI25" s="30"/>
       <c r="BJ25" s="30"/>
-      <c r="BK25" s="49">
+      <c r="BK25" s="47">
         <v>47.02</v>
       </c>
-      <c r="BL25" s="46">
+      <c r="BL25" s="44">
         <f t="shared" si="4"/>
         <v>1.49127814779575</v>
       </c>
-      <c r="BM25" s="107" t="s">
+      <c r="BM25" s="105" t="s">
         <v>167</v>
       </c>
       <c r="BN25" s="30"/>
@@ -10555,100 +10591,100 @@
       <c r="D26" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="51">
         <v>44.68</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="47">
         <v>1.46</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="48">
         <v>1.5</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="48">
         <v>0.7302</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="48">
         <v>0.6044</v>
       </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="50">
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="48">
         <v>0.8524</v>
       </c>
-      <c r="Z26" s="50">
+      <c r="Z26" s="48">
         <v>1.0547</v>
       </c>
-      <c r="AA26" s="50">
+      <c r="AA26" s="48">
         <v>0.5216</v>
       </c>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="77"/>
-      <c r="AN26" s="67"/>
-      <c r="AO26" s="67"/>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="88">
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="65"/>
+      <c r="AO26" s="65"/>
+      <c r="AP26" s="71"/>
+      <c r="AQ26" s="86">
         <v>44307</v>
       </c>
-      <c r="AR26" s="77"/>
-      <c r="AS26" s="93"/>
-      <c r="AT26" s="93"/>
-      <c r="AU26" s="93">
+      <c r="AR26" s="75"/>
+      <c r="AS26" s="91"/>
+      <c r="AT26" s="91"/>
+      <c r="AU26" s="91">
         <v>0.8434</v>
       </c>
-      <c r="AV26" s="93">
+      <c r="AV26" s="91">
         <v>0.2109</v>
       </c>
-      <c r="AW26" s="93"/>
-      <c r="AX26" s="100"/>
-      <c r="AY26" s="100"/>
-      <c r="AZ26" s="100"/>
-      <c r="BA26" s="100"/>
-      <c r="BB26" s="100"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="98"/>
+      <c r="AY26" s="98"/>
+      <c r="AZ26" s="98"/>
+      <c r="BA26" s="98"/>
+      <c r="BB26" s="98"/>
       <c r="BC26" s="30"/>
       <c r="BD26" s="30">
         <v>9</v>
       </c>
-      <c r="BE26" s="107" t="s">
+      <c r="BE26" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="BF26" s="106" t="s">
+      <c r="BF26" s="104" t="s">
         <v>172</v>
       </c>
       <c r="BG26" s="30"/>
       <c r="BH26" s="30"/>
       <c r="BI26" s="30"/>
       <c r="BJ26" s="30"/>
-      <c r="BK26" s="49">
+      <c r="BK26" s="47">
         <v>1.09</v>
       </c>
-      <c r="BL26" s="46">
+      <c r="BL26" s="44">
         <f t="shared" si="4"/>
         <v>1.29238795352146</v>
       </c>
-      <c r="BM26" s="111" t="s">
+      <c r="BM26" s="109" t="s">
         <v>173</v>
       </c>
       <c r="BN26" s="30"/>
@@ -10657,7 +10693,7 @@
       <c r="A27" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="123" t="s">
         <v>175</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -10666,100 +10702,100 @@
       <c r="D27" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="46">
         <v>0.3583</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="47">
         <v>1.266</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="48">
         <v>2.5</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="48">
         <v>1.6364</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="48">
         <v>0.9009</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="50">
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="48">
         <v>0.2276</v>
       </c>
-      <c r="Z27" s="50">
+      <c r="Z27" s="48">
         <v>0.236</v>
       </c>
-      <c r="AA27" s="50">
+      <c r="AA27" s="48">
         <v>0.2152</v>
       </c>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="77"/>
-      <c r="AN27" s="67"/>
-      <c r="AO27" s="67"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="87">
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="46"/>
+      <c r="AL27" s="46"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="65"/>
+      <c r="AO27" s="65"/>
+      <c r="AP27" s="71"/>
+      <c r="AQ27" s="85">
         <v>34094</v>
       </c>
-      <c r="AR27" s="77"/>
-      <c r="AS27" s="93"/>
-      <c r="AT27" s="93"/>
-      <c r="AU27" s="93">
+      <c r="AR27" s="75"/>
+      <c r="AS27" s="91"/>
+      <c r="AT27" s="91"/>
+      <c r="AU27" s="91">
         <v>19.22</v>
       </c>
-      <c r="AV27" s="93">
+      <c r="AV27" s="91">
         <v>5.938</v>
       </c>
-      <c r="AW27" s="93"/>
-      <c r="AX27" s="100"/>
-      <c r="AY27" s="100"/>
-      <c r="AZ27" s="100"/>
-      <c r="BA27" s="100"/>
-      <c r="BB27" s="100"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="98"/>
+      <c r="AY27" s="98"/>
+      <c r="AZ27" s="98"/>
+      <c r="BA27" s="98"/>
+      <c r="BB27" s="98"/>
       <c r="BC27" s="30"/>
       <c r="BD27" s="30">
         <v>5</v>
       </c>
-      <c r="BE27" s="107" t="s">
+      <c r="BE27" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="BF27" s="107" t="s">
+      <c r="BF27" s="105" t="s">
         <v>179</v>
       </c>
       <c r="BG27" s="30"/>
       <c r="BH27" s="30"/>
       <c r="BI27" s="30"/>
       <c r="BJ27" s="30"/>
-      <c r="BK27" s="49">
+      <c r="BK27" s="47">
         <v>24.34</v>
       </c>
-      <c r="BL27" s="46">
+      <c r="BL27" s="44">
         <f t="shared" si="4"/>
         <v>1.26638917793965</v>
       </c>
-      <c r="BM27" s="107" t="s">
+      <c r="BM27" s="105" t="s">
         <v>180</v>
       </c>
       <c r="BN27" s="30"/>
@@ -10768,7 +10804,7 @@
       <c r="A28" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="123" t="s">
         <v>182</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -10777,100 +10813,100 @@
       <c r="D28" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="46">
         <v>0.321</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="47">
         <v>1.361</v>
       </c>
-      <c r="G28" s="50">
+      <c r="G28" s="48">
         <v>0.2004</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="48">
         <v>-0.1339</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="48">
         <v>-0.0966</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="50">
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="48">
         <v>-0.2433</v>
       </c>
-      <c r="Z28" s="50">
+      <c r="Z28" s="48">
         <v>-0.2609</v>
       </c>
-      <c r="AA28" s="50">
+      <c r="AA28" s="48">
         <v>-0.0922</v>
       </c>
-      <c r="AB28" s="77"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="77"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="77"/>
-      <c r="AN28" s="67"/>
-      <c r="AO28" s="67"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="87">
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="65"/>
+      <c r="AO28" s="65"/>
+      <c r="AP28" s="71"/>
+      <c r="AQ28" s="85">
         <v>39556</v>
       </c>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="93"/>
-      <c r="AT28" s="93"/>
-      <c r="AU28" s="93">
+      <c r="AR28" s="75"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="91"/>
+      <c r="AU28" s="91">
         <v>10.02</v>
       </c>
-      <c r="AV28" s="93">
+      <c r="AV28" s="91">
         <v>9.444</v>
       </c>
-      <c r="AW28" s="93"/>
-      <c r="AX28" s="100"/>
-      <c r="AY28" s="100"/>
-      <c r="AZ28" s="100"/>
-      <c r="BA28" s="100"/>
-      <c r="BB28" s="100"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="98"/>
+      <c r="AY28" s="98"/>
+      <c r="AZ28" s="98"/>
+      <c r="BA28" s="98"/>
+      <c r="BB28" s="98"/>
       <c r="BC28" s="30"/>
-      <c r="BD28" s="105">
+      <c r="BD28" s="103">
         <v>33</v>
       </c>
-      <c r="BE28" s="107" t="s">
+      <c r="BE28" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="BF28" s="107" t="s">
+      <c r="BF28" s="105" t="s">
         <v>185</v>
       </c>
       <c r="BG28" s="30"/>
       <c r="BH28" s="30"/>
       <c r="BI28" s="30"/>
       <c r="BJ28" s="30"/>
-      <c r="BK28" s="49">
+      <c r="BK28" s="47">
         <v>13.52</v>
       </c>
-      <c r="BL28" s="46">
+      <c r="BL28" s="44">
         <f t="shared" si="4"/>
         <v>1.34930139720559</v>
       </c>
-      <c r="BM28" s="107" t="s">
+      <c r="BM28" s="105" t="s">
         <v>186</v>
       </c>
       <c r="BN28" s="30"/>
@@ -10888,100 +10924,100 @@
       <c r="D29" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="46">
         <v>0.367</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="47">
         <v>1.06</v>
       </c>
-      <c r="G29" s="50">
+      <c r="G29" s="48">
         <v>1.7</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="48">
         <v>0.4565</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I29" s="48">
         <v>0.4324</v>
       </c>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="52">
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="50">
         <v>0.2269</v>
       </c>
-      <c r="Z29" s="52">
+      <c r="Z29" s="50">
         <v>0.2503</v>
       </c>
-      <c r="AA29" s="52">
+      <c r="AA29" s="50">
         <v>0.2652</v>
       </c>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="67"/>
-      <c r="AO29" s="67"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="88">
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="46"/>
+      <c r="AK29" s="46"/>
+      <c r="AL29" s="46"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="65"/>
+      <c r="AO29" s="65"/>
+      <c r="AP29" s="71"/>
+      <c r="AQ29" s="86">
         <v>42908</v>
       </c>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="93"/>
-      <c r="AT29" s="93"/>
-      <c r="AU29" s="93">
+      <c r="AR29" s="75"/>
+      <c r="AS29" s="91"/>
+      <c r="AT29" s="91"/>
+      <c r="AU29" s="91">
         <v>1.613</v>
       </c>
-      <c r="AV29" s="93">
+      <c r="AV29" s="91">
         <v>1.6</v>
       </c>
-      <c r="AW29" s="93"/>
-      <c r="AX29" s="100"/>
-      <c r="AY29" s="100"/>
-      <c r="AZ29" s="100"/>
-      <c r="BA29" s="100"/>
-      <c r="BB29" s="100"/>
+      <c r="AW29" s="91"/>
+      <c r="AX29" s="98"/>
+      <c r="AY29" s="98"/>
+      <c r="AZ29" s="98"/>
+      <c r="BA29" s="98"/>
+      <c r="BB29" s="98"/>
       <c r="BC29" s="30"/>
       <c r="BD29" s="30">
         <v>7</v>
       </c>
-      <c r="BE29" s="107" t="s">
+      <c r="BE29" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="BF29" s="106" t="s">
+      <c r="BF29" s="104" t="s">
         <v>191</v>
       </c>
       <c r="BG29" s="30"/>
       <c r="BH29" s="30"/>
       <c r="BI29" s="30"/>
       <c r="BJ29" s="30"/>
-      <c r="BK29" s="49">
+      <c r="BK29" s="47">
         <v>1.7</v>
       </c>
-      <c r="BL29" s="46">
+      <c r="BL29" s="44">
         <f t="shared" si="4"/>
         <v>1.05393676379417</v>
       </c>
-      <c r="BM29" s="110" t="s">
+      <c r="BM29" s="108" t="s">
         <v>192</v>
       </c>
       <c r="BN29" s="30"/>
@@ -10999,100 +11035,100 @@
       <c r="D30" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="46">
         <v>0.256</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="47">
         <v>2.051</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30" s="48">
         <v>0.1846</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="48">
         <v>0.2608</v>
       </c>
-      <c r="I30" s="50">
+      <c r="I30" s="48">
         <v>0.2158</v>
       </c>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="50">
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="48">
         <v>0.3426</v>
       </c>
-      <c r="Z30" s="52">
+      <c r="Z30" s="50">
         <v>0.312</v>
       </c>
-      <c r="AA30" s="52">
+      <c r="AA30" s="50">
         <v>0.4656</v>
       </c>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="67"/>
-      <c r="AO30" s="67"/>
-      <c r="AP30" s="73"/>
-      <c r="AQ30" s="87">
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="75"/>
+      <c r="AN30" s="65"/>
+      <c r="AO30" s="65"/>
+      <c r="AP30" s="71"/>
+      <c r="AQ30" s="85">
         <v>39364</v>
       </c>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="93"/>
-      <c r="AT30" s="93"/>
-      <c r="AU30" s="93">
+      <c r="AR30" s="75"/>
+      <c r="AS30" s="91"/>
+      <c r="AT30" s="91"/>
+      <c r="AU30" s="91">
         <v>198.7</v>
       </c>
-      <c r="AV30" s="93">
+      <c r="AV30" s="91">
         <v>164.9</v>
       </c>
-      <c r="AW30" s="93"/>
-      <c r="AX30" s="100"/>
-      <c r="AY30" s="100"/>
-      <c r="AZ30" s="100"/>
-      <c r="BA30" s="100"/>
-      <c r="BB30" s="100"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="98"/>
+      <c r="AZ30" s="98"/>
+      <c r="BA30" s="98"/>
+      <c r="BB30" s="98"/>
       <c r="BC30" s="30"/>
       <c r="BD30" s="30">
         <v>141</v>
       </c>
-      <c r="BE30" s="107" t="s">
+      <c r="BE30" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="BF30" s="107" t="s">
+      <c r="BF30" s="105" t="s">
         <v>197</v>
       </c>
       <c r="BG30" s="30"/>
       <c r="BH30" s="30"/>
       <c r="BI30" s="30"/>
       <c r="BJ30" s="30"/>
-      <c r="BK30" s="49">
+      <c r="BK30" s="47">
         <v>407.51</v>
       </c>
-      <c r="BL30" s="46">
+      <c r="BL30" s="44">
         <f t="shared" si="4"/>
         <v>2.05088072471062</v>
       </c>
-      <c r="BM30" s="107" t="s">
+      <c r="BM30" s="105" t="s">
         <v>198</v>
       </c>
       <c r="BN30" s="30"/>
@@ -11101,111 +11137,111 @@
       <c r="A31" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="25">
         <v>603871</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="26" t="s">
         <v>200</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="46">
         <v>0.4022</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="47">
         <v>0.783</v>
       </c>
-      <c r="G31" s="50">
+      <c r="G31" s="48">
         <v>0.7291</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="48">
         <v>0.0182</v>
       </c>
-      <c r="I31" s="50">
+      <c r="I31" s="48">
         <v>-0.1214</v>
       </c>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="50">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="48">
         <v>-0.0621</v>
       </c>
-      <c r="Z31" s="50">
+      <c r="Z31" s="48">
         <v>-0.0487</v>
       </c>
-      <c r="AA31" s="50">
+      <c r="AA31" s="48">
         <v>-0.0326</v>
       </c>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="77"/>
-      <c r="AN31" s="67"/>
-      <c r="AO31" s="67"/>
-      <c r="AP31" s="73"/>
-      <c r="AQ31" s="87">
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="46"/>
+      <c r="AL31" s="46"/>
+      <c r="AM31" s="75"/>
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="65"/>
+      <c r="AP31" s="71"/>
+      <c r="AQ31" s="85">
         <v>43137</v>
       </c>
-      <c r="AR31" s="77"/>
-      <c r="AS31" s="93"/>
-      <c r="AT31" s="93"/>
-      <c r="AU31" s="93">
+      <c r="AR31" s="75"/>
+      <c r="AS31" s="91"/>
+      <c r="AT31" s="91"/>
+      <c r="AU31" s="91">
         <v>3.17</v>
       </c>
-      <c r="AV31" s="93">
+      <c r="AV31" s="91">
         <v>2.854</v>
       </c>
-      <c r="AW31" s="93"/>
-      <c r="AX31" s="100"/>
-      <c r="AY31" s="100"/>
-      <c r="AZ31" s="100"/>
-      <c r="BA31" s="100"/>
-      <c r="BB31" s="100"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="98"/>
+      <c r="AY31" s="98"/>
+      <c r="AZ31" s="98"/>
+      <c r="BA31" s="98"/>
+      <c r="BB31" s="98"/>
       <c r="BC31" s="30"/>
       <c r="BD31" s="30">
         <v>2</v>
       </c>
-      <c r="BE31" s="107" t="s">
+      <c r="BE31" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="BF31" s="107" t="s">
+      <c r="BF31" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="BG31" s="108" t="s">
+      <c r="BG31" s="106" t="s">
         <v>203</v>
       </c>
       <c r="BH31" s="30"/>
       <c r="BI31" s="30"/>
       <c r="BJ31" s="30"/>
-      <c r="BK31" s="49">
+      <c r="BK31" s="47">
         <v>2.48</v>
       </c>
-      <c r="BL31" s="46">
+      <c r="BL31" s="44">
         <f t="shared" si="4"/>
         <v>0.782334384858044</v>
       </c>
-      <c r="BM31" s="110" t="s">
+      <c r="BM31" s="108" t="s">
         <v>204</v>
       </c>
       <c r="BN31" s="30"/>
@@ -11214,109 +11250,109 @@
       <c r="A32" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="126" t="s">
+      <c r="B32" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="26" t="s">
         <v>207</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="46">
         <v>0.0754</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="47">
         <v>0.85</v>
       </c>
-      <c r="G32" s="50">
+      <c r="G32" s="48">
         <v>0.5882</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32" s="48">
         <v>0.2</v>
       </c>
-      <c r="I32" s="50">
+      <c r="I32" s="48">
         <v>-0.0659</v>
       </c>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="50">
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="48">
         <v>-0.2871</v>
       </c>
-      <c r="Z32" s="50">
+      <c r="Z32" s="48">
         <v>-0.3099</v>
       </c>
-      <c r="AA32" s="50">
+      <c r="AA32" s="48">
         <v>-0.2584</v>
       </c>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="77"/>
-      <c r="AN32" s="67"/>
-      <c r="AO32" s="67"/>
-      <c r="AP32" s="73"/>
-      <c r="AQ32" s="87">
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+      <c r="AL32" s="46"/>
+      <c r="AM32" s="75"/>
+      <c r="AN32" s="65"/>
+      <c r="AO32" s="65"/>
+      <c r="AP32" s="71"/>
+      <c r="AQ32" s="85">
         <v>36396</v>
       </c>
-      <c r="AR32" s="77"/>
-      <c r="AS32" s="93"/>
-      <c r="AT32" s="93"/>
-      <c r="AU32" s="93">
+      <c r="AR32" s="75"/>
+      <c r="AS32" s="91"/>
+      <c r="AT32" s="91"/>
+      <c r="AU32" s="91">
         <v>7.634</v>
       </c>
-      <c r="AV32" s="93">
+      <c r="AV32" s="91">
         <v>7.634</v>
       </c>
-      <c r="AW32" s="93"/>
-      <c r="AX32" s="100"/>
-      <c r="AY32" s="100"/>
-      <c r="AZ32" s="100"/>
-      <c r="BA32" s="100"/>
-      <c r="BB32" s="100"/>
+      <c r="AW32" s="91"/>
+      <c r="AX32" s="98"/>
+      <c r="AY32" s="98"/>
+      <c r="AZ32" s="98"/>
+      <c r="BA32" s="98"/>
+      <c r="BB32" s="98"/>
       <c r="BC32" s="30"/>
       <c r="BD32" s="30">
         <v>10</v>
       </c>
-      <c r="BE32" s="107" t="s">
+      <c r="BE32" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="BF32" s="106" t="s">
+      <c r="BF32" s="104" t="s">
         <v>209</v>
       </c>
       <c r="BG32" s="30"/>
       <c r="BH32" s="30"/>
       <c r="BI32" s="30"/>
       <c r="BJ32" s="30"/>
-      <c r="BK32" s="49">
+      <c r="BK32" s="47">
         <v>6.5</v>
       </c>
-      <c r="BL32" s="46">
-        <f>BK32/AU32</f>
+      <c r="BL32" s="44">
+        <f t="shared" si="4"/>
         <v>0.85145402148284</v>
       </c>
-      <c r="BM32" s="111" t="s">
+      <c r="BM32" s="109" t="s">
         <v>210</v>
       </c>
       <c r="BN32" s="30"/>
@@ -11326,56 +11362,56 @@
       <c r="B33" s="30"/>
       <c r="C33" s="29"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="77"/>
-      <c r="AN33" s="67"/>
-      <c r="AO33" s="67"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="87"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="93"/>
-      <c r="AT33" s="93"/>
-      <c r="AU33" s="93"/>
-      <c r="AV33" s="93"/>
-      <c r="AW33" s="93"/>
-      <c r="AX33" s="100"/>
-      <c r="AY33" s="100"/>
-      <c r="AZ33" s="100"/>
-      <c r="BA33" s="100"/>
-      <c r="BB33" s="100"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="46"/>
+      <c r="AL33" s="46"/>
+      <c r="AM33" s="75"/>
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="71"/>
+      <c r="AQ33" s="85"/>
+      <c r="AR33" s="75"/>
+      <c r="AS33" s="91"/>
+      <c r="AT33" s="91"/>
+      <c r="AU33" s="91"/>
+      <c r="AV33" s="91"/>
+      <c r="AW33" s="91"/>
+      <c r="AX33" s="98"/>
+      <c r="AY33" s="98"/>
+      <c r="AZ33" s="98"/>
+      <c r="BA33" s="98"/>
+      <c r="BB33" s="98"/>
       <c r="BC33" s="30"/>
       <c r="BD33" s="30"/>
       <c r="BE33" s="30"/>
@@ -11384,8 +11420,8 @@
       <c r="BH33" s="30"/>
       <c r="BI33" s="30"/>
       <c r="BJ33" s="30"/>
-      <c r="BK33" s="49"/>
-      <c r="BL33" s="77"/>
+      <c r="BK33" s="47"/>
+      <c r="BL33" s="75"/>
       <c r="BM33" s="30"/>
       <c r="BN33" s="30"/>
     </row>
